--- a/riassuntoAutomatico.xlsx
+++ b/riassuntoAutomatico.xlsx
@@ -14,33 +14,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="525">
   <si>
     <t>Riassunto analisi</t>
   </si>
   <si>
-    <t>Trovati errori per 18 bambini</t>
+    <t>Trovati errori per 170 bambini</t>
   </si>
   <si>
     <t>Trovate 2 occorrenze per il controllo Controllo fine contratto assistenza</t>
   </si>
   <si>
-    <t>Trovate 6 occorrenze per il controllo Controllo Kindergarten #1</t>
-  </si>
-  <si>
-    <t>Trovate 4 occorrenze per il controllo Controllo Kindergarten #2</t>
-  </si>
-  <si>
-    <t>Trovate 1 occorrenze per il controllo Contratti lockdown sospetti (Covid #4)</t>
-  </si>
-  <si>
-    <t>Trovate 1 occorrenze per il controllo Controllo Fehler Eingewöhnung</t>
-  </si>
-  <si>
-    <t>Trovate 3 occorrenze per il controllo Controllo Fehler Eingewöhnung 543 Lockdown</t>
-  </si>
-  <si>
-    <t>Trovate 3 occorrenze per il controllo Controllo Fehler Eingewöhnung 543 Notbetreuung</t>
+    <t>Trovate 61 occorrenze per il controllo Controllo Kindergarten #1</t>
+  </si>
+  <si>
+    <t>Trovate 48 occorrenze per il controllo Controllo Kindergarten #2</t>
+  </si>
+  <si>
+    <t>Trovate 7 occorrenze per il controllo Controllo finanziamento compensativo</t>
+  </si>
+  <si>
+    <t>Trovate 4 occorrenze per il controllo Controllo finanziamento compensativo #2</t>
+  </si>
+  <si>
+    <t>Trovate 1 occorrenze per il controllo Controllo Covid #1</t>
+  </si>
+  <si>
+    <t>Trovate 9 occorrenze per il controllo Controllo Covid #3</t>
+  </si>
+  <si>
+    <t>Trovate 14 occorrenze per il controllo Contratti lockdown sospetti (Covid #4)</t>
+  </si>
+  <si>
+    <t>Trovate 14 occorrenze per il controllo Controllo Fehler Eingewöhnung</t>
+  </si>
+  <si>
+    <t>Trovate 27 occorrenze per il controllo Controllo Fehler Eingewöhnung 543 Lockdown</t>
+  </si>
+  <si>
+    <t>Trovate 17 occorrenze per il controllo Controllo Fehler Eingewöhnung 543 Notbetreuung</t>
+  </si>
+  <si>
+    <t>Trovate 2 occorrenze per il controllo Controllo ore complessive periodo contrattuale</t>
+  </si>
+  <si>
+    <t>Trovate 35 occorrenze per il controllo Bambino presente in più comuni</t>
+  </si>
+  <si>
+    <t>Trovate 1 occorrenze per il controllo Bambini con annotazioni</t>
   </si>
   <si>
     <t>Controllo fine contratto assistenza</t>
@@ -67,6 +88,417 @@
     <t>Controllo Kindergarten #1</t>
   </si>
   <si>
+    <t>Lüling Gabriel</t>
+  </si>
+  <si>
+    <t>LLNGRL17B23B160G</t>
+  </si>
+  <si>
+    <t>2017-02-23 00:00:00</t>
+  </si>
+  <si>
+    <t>Stampfl Johanna</t>
+  </si>
+  <si>
+    <t>STMJNN17A47A952V</t>
+  </si>
+  <si>
+    <t>2017-01-07 00:00:00</t>
+  </si>
+  <si>
+    <t>Viaro Camilla</t>
+  </si>
+  <si>
+    <t>VRICLL16R64L378G</t>
+  </si>
+  <si>
+    <t>2016-10-24 00:00:00</t>
+  </si>
+  <si>
+    <t>Burkhart Nele</t>
+  </si>
+  <si>
+    <t>BRKNLE17B41B220I</t>
+  </si>
+  <si>
+    <t>2017-02-01 00:00:00</t>
+  </si>
+  <si>
+    <t>Obgriesser Niklas</t>
+  </si>
+  <si>
+    <t>BGRNLS17B26B220E</t>
+  </si>
+  <si>
+    <t>2017-02-26 00:00:00</t>
+  </si>
+  <si>
+    <t>Haller Toni</t>
+  </si>
+  <si>
+    <t>HLLTNO16T14B220U</t>
+  </si>
+  <si>
+    <t>2016-12-14 00:00:00</t>
+  </si>
+  <si>
+    <t>Seiwald  Silas</t>
+  </si>
+  <si>
+    <t>SWLSLS16S08B220U</t>
+  </si>
+  <si>
+    <t>2016-11-08 00:00:00</t>
+  </si>
+  <si>
+    <t>Bozzano Pietro</t>
+  </si>
+  <si>
+    <t>BZZPTR17A26B160X</t>
+  </si>
+  <si>
+    <t>2017-01-26 00:00:00</t>
+  </si>
+  <si>
+    <t>Rieder Fabian</t>
+  </si>
+  <si>
+    <t>RDRFBN17A08B160U</t>
+  </si>
+  <si>
+    <t>2017-01-08 00:00:00</t>
+  </si>
+  <si>
+    <t>Gasser Lara</t>
+  </si>
+  <si>
+    <t>GSSLRA17B48F132D</t>
+  </si>
+  <si>
+    <t>2017-02-08 00:00:00</t>
+  </si>
+  <si>
+    <t>Goegele Maria</t>
+  </si>
+  <si>
+    <t>GGLMRA16S62F132J</t>
+  </si>
+  <si>
+    <t>2016-11-22 00:00:00</t>
+  </si>
+  <si>
+    <t>Ladurner Moritz</t>
+  </si>
+  <si>
+    <t>LDRMTZ17B09F132D</t>
+  </si>
+  <si>
+    <t>2017-02-09 00:00:00</t>
+  </si>
+  <si>
+    <t>Gruber  Emil</t>
+  </si>
+  <si>
+    <t>GRBMLE16T12F132N</t>
+  </si>
+  <si>
+    <t>2016-12-12 00:00:00</t>
+  </si>
+  <si>
+    <t>Agostinetto  Levi</t>
+  </si>
+  <si>
+    <t>GSTLVE17B06A952V</t>
+  </si>
+  <si>
+    <t>2017-02-06 00:00:00</t>
+  </si>
+  <si>
+    <t>Doliana Mia</t>
+  </si>
+  <si>
+    <t>DLNMIA16T71A952X</t>
+  </si>
+  <si>
+    <t>2016-12-31 00:00:00</t>
+  </si>
+  <si>
+    <t>Perillo Zwink Noah Leon</t>
+  </si>
+  <si>
+    <t>PRLNLN17A15F132L</t>
+  </si>
+  <si>
+    <t>2017-01-15 00:00:00</t>
+  </si>
+  <si>
+    <t>Pfattner  Jonas</t>
+  </si>
+  <si>
+    <t>PFTJNS16S25A952D</t>
+  </si>
+  <si>
+    <t>2016-11-25 00:00:00</t>
+  </si>
+  <si>
+    <t>Stragenegg Krieg Paul</t>
+  </si>
+  <si>
+    <t>STRPLA17B14F132K</t>
+  </si>
+  <si>
+    <t>2017-02-14 00:00:00</t>
+  </si>
+  <si>
+    <t>Vassanelli Noah</t>
+  </si>
+  <si>
+    <t>VSSNHO16R13F132P</t>
+  </si>
+  <si>
+    <t>2016-10-13 00:00:00</t>
+  </si>
+  <si>
+    <t>Blaas Jakob</t>
+  </si>
+  <si>
+    <t>BLSJKB16R29I729Q</t>
+  </si>
+  <si>
+    <t>2016-10-29 00:00:00</t>
+  </si>
+  <si>
+    <t>Abler Sophie</t>
+  </si>
+  <si>
+    <t>BLRSPH16T68F132B</t>
+  </si>
+  <si>
+    <t>2016-12-28 00:00:00</t>
+  </si>
+  <si>
+    <t>Sevcikova  Nadia</t>
+  </si>
+  <si>
+    <t>SVCNDA17A70B220F</t>
+  </si>
+  <si>
+    <t>2017-01-30 00:00:00</t>
+  </si>
+  <si>
+    <t>Weger Toni</t>
+  </si>
+  <si>
+    <t>WGRTNO17B05B160N</t>
+  </si>
+  <si>
+    <t>2017-02-05 00:00:00</t>
+  </si>
+  <si>
+    <t>Volante Vittorio</t>
+  </si>
+  <si>
+    <t>VLNVTR17B01A952B</t>
+  </si>
+  <si>
+    <t>Ennemoser  Ella</t>
+  </si>
+  <si>
+    <t>NNMLLE17A60A952M</t>
+  </si>
+  <si>
+    <t>2017-01-20 00:00:00</t>
+  </si>
+  <si>
+    <t>Fiechter Emil</t>
+  </si>
+  <si>
+    <t>FCHMLE17A12B160W</t>
+  </si>
+  <si>
+    <t>2017-01-12 00:00:00</t>
+  </si>
+  <si>
+    <t>Walter Moritz</t>
+  </si>
+  <si>
+    <t>WLTMTZ16M02M067H</t>
+  </si>
+  <si>
+    <t>2016-08-02 00:00:00</t>
+  </si>
+  <si>
+    <t>Gruber  Karolina</t>
+  </si>
+  <si>
+    <t>GRBKLN17A70F132K</t>
+  </si>
+  <si>
+    <t>Niederkofler Josef</t>
+  </si>
+  <si>
+    <t>NDRJSF17A20B220Z</t>
+  </si>
+  <si>
+    <t>Desaler Viktoria</t>
+  </si>
+  <si>
+    <t>DSLVTR17A51A952V</t>
+  </si>
+  <si>
+    <t>2017-01-11 00:00:00</t>
+  </si>
+  <si>
+    <t>Pföstl  Philipp</t>
+  </si>
+  <si>
+    <t>PFSPLP17B08F132P</t>
+  </si>
+  <si>
+    <t>Huber  David</t>
+  </si>
+  <si>
+    <t>HBRDVD16S18B220L</t>
+  </si>
+  <si>
+    <t>2016-11-18 00:00:00</t>
+  </si>
+  <si>
+    <t>Moosbrugger Theresa</t>
+  </si>
+  <si>
+    <t>MSBTRS17B42Z102X</t>
+  </si>
+  <si>
+    <t>2017-02-02 00:00:00</t>
+  </si>
+  <si>
+    <t>Matzoll Simon</t>
+  </si>
+  <si>
+    <t>MTZSMN16T01F132M</t>
+  </si>
+  <si>
+    <t>2016-12-01 00:00:00</t>
+  </si>
+  <si>
+    <t>Mentzel Katharina</t>
+  </si>
+  <si>
+    <t>MNTKHR17A55A952Q</t>
+  </si>
+  <si>
+    <t>Rieder  Isabel</t>
+  </si>
+  <si>
+    <t>RDRSBL16M50A952F</t>
+  </si>
+  <si>
+    <t>2016-08-10 00:00:00</t>
+  </si>
+  <si>
+    <t>Niederstaetter Leni</t>
+  </si>
+  <si>
+    <t>NDRLNE16T59A952N</t>
+  </si>
+  <si>
+    <t>2016-12-19 00:00:00</t>
+  </si>
+  <si>
+    <t>Niederstaetter Toni</t>
+  </si>
+  <si>
+    <t>NDRTNO16T19A952B</t>
+  </si>
+  <si>
+    <t>Pircher Paul</t>
+  </si>
+  <si>
+    <t>PRCPLA16S29F132U</t>
+  </si>
+  <si>
+    <t>2016-11-29 00:00:00</t>
+  </si>
+  <si>
+    <t>Scheibenhoffer Alexander</t>
+  </si>
+  <si>
+    <t>SCHLND17B12F132N</t>
+  </si>
+  <si>
+    <t>2017-02-12 00:00:00</t>
+  </si>
+  <si>
+    <t>Gamper Klaus</t>
+  </si>
+  <si>
+    <t>GMPKLS16T18F132L</t>
+  </si>
+  <si>
+    <t>2016-12-18 00:00:00</t>
+  </si>
+  <si>
+    <t>Trafojer Jakob</t>
+  </si>
+  <si>
+    <t>TRFJKB16S22F132Q</t>
+  </si>
+  <si>
+    <t>Mor  Nadyn</t>
+  </si>
+  <si>
+    <t>MRONYN16P65B160C</t>
+  </si>
+  <si>
+    <t>2016-09-25 00:00:00</t>
+  </si>
+  <si>
+    <t>Ploner  Simon</t>
+  </si>
+  <si>
+    <t>PLNSMN17A18B220Q</t>
+  </si>
+  <si>
+    <t>2017-01-18 00:00:00</t>
+  </si>
+  <si>
+    <t>Villgrattner Jonas</t>
+  </si>
+  <si>
+    <t>VLLJNS17A09B160F</t>
+  </si>
+  <si>
+    <t>2017-01-09 00:00:00</t>
+  </si>
+  <si>
+    <t>Dejori Pia</t>
+  </si>
+  <si>
+    <t>DJRPIA17A67A952Q</t>
+  </si>
+  <si>
+    <t>2017-01-27 00:00:00</t>
+  </si>
+  <si>
+    <t>Kircher  Lena</t>
+  </si>
+  <si>
+    <t>KRCLNE17B53B160I</t>
+  </si>
+  <si>
+    <t>2017-02-13 00:00:00</t>
+  </si>
+  <si>
+    <t>Kohler Mali</t>
+  </si>
+  <si>
+    <t>KHLMLA17A71A952X</t>
+  </si>
+  <si>
+    <t>2017-01-31 00:00:00</t>
+  </si>
+  <si>
     <t>GABRIELLI MIA</t>
   </si>
   <si>
@@ -133,6 +565,387 @@
     <t>2017-09-10 00:00:00</t>
   </si>
   <si>
+    <t>Ruiu Nina</t>
+  </si>
+  <si>
+    <t>RUINNI17C65B220Y</t>
+  </si>
+  <si>
+    <t>2017-03-25 00:00:00</t>
+  </si>
+  <si>
+    <t>Hölzl Felicia Victoria</t>
+  </si>
+  <si>
+    <t>HLZFCV17S56F132E</t>
+  </si>
+  <si>
+    <t>2017-11-16 00:00:00</t>
+  </si>
+  <si>
+    <t>Maturilli Anna Maria</t>
+  </si>
+  <si>
+    <t>MTRNMR17H63F132N</t>
+  </si>
+  <si>
+    <t>2017-06-23 00:00:00</t>
+  </si>
+  <si>
+    <t>Oschmann Carl Cosimo</t>
+  </si>
+  <si>
+    <t>SCHCLC17L23B160P</t>
+  </si>
+  <si>
+    <t>2017-07-23 00:00:00</t>
+  </si>
+  <si>
+    <t>Platter  Felix</t>
+  </si>
+  <si>
+    <t>PLTFLX17D28B160Z</t>
+  </si>
+  <si>
+    <t>2017-04-28 00:00:00</t>
+  </si>
+  <si>
+    <t>Witcher Noah Sebastian</t>
+  </si>
+  <si>
+    <t>WTCNSB17C04B160X</t>
+  </si>
+  <si>
+    <t>2017-03-04 00:00:00</t>
+  </si>
+  <si>
+    <t>Gatterer Banna Amira</t>
+  </si>
+  <si>
+    <t>GTTMRA17D43B220Y</t>
+  </si>
+  <si>
+    <t>2017-04-03 00:00:00</t>
+  </si>
+  <si>
+    <t>Longo Giada</t>
+  </si>
+  <si>
+    <t>LNGGDI17E68B220Z</t>
+  </si>
+  <si>
+    <t>2017-05-28 00:00:00</t>
+  </si>
+  <si>
+    <t>Werner Emma</t>
+  </si>
+  <si>
+    <t>WRNMME17T67A952M</t>
+  </si>
+  <si>
+    <t>2017-12-27 00:00:00</t>
+  </si>
+  <si>
+    <t>Messner Jakob</t>
+  </si>
+  <si>
+    <t>MSSJKB17S30F132S</t>
+  </si>
+  <si>
+    <t>2017-11-30 00:00:00</t>
+  </si>
+  <si>
+    <t>Malfatti Jonas</t>
+  </si>
+  <si>
+    <t>MLFJNS17E18F132I</t>
+  </si>
+  <si>
+    <t>2017-05-18 00:00:00</t>
+  </si>
+  <si>
+    <t>Eschgfaeller Marie</t>
+  </si>
+  <si>
+    <t>SCHMRA17T62A952K</t>
+  </si>
+  <si>
+    <t>2017-12-22 00:00:00</t>
+  </si>
+  <si>
+    <t>Gostner Noah</t>
+  </si>
+  <si>
+    <t>GSTNHO17T18B160K</t>
+  </si>
+  <si>
+    <t>2017-12-18 00:00:00</t>
+  </si>
+  <si>
+    <t>Hochgruber Raphael</t>
+  </si>
+  <si>
+    <t>HCHRHL17S04B220O</t>
+  </si>
+  <si>
+    <t>2017-11-04 00:00:00</t>
+  </si>
+  <si>
+    <t>Bekoe Lucia</t>
+  </si>
+  <si>
+    <t>BKELCU17R50A952D</t>
+  </si>
+  <si>
+    <t>2017-10-10 00:00:00</t>
+  </si>
+  <si>
+    <t>Frei Gasser Mia</t>
+  </si>
+  <si>
+    <t>FRGMIA17C65B160L</t>
+  </si>
+  <si>
+    <t>Pejic Milica</t>
+  </si>
+  <si>
+    <t>PJCMLC17H48F132R</t>
+  </si>
+  <si>
+    <t>2017-06-08 00:00:00</t>
+  </si>
+  <si>
+    <t>Wenter Leo</t>
+  </si>
+  <si>
+    <t>WNTLEO17M01F132R</t>
+  </si>
+  <si>
+    <t>2017-08-01 00:00:00</t>
+  </si>
+  <si>
+    <t>Barbi Serena</t>
+  </si>
+  <si>
+    <t>BRBSRN17R65A952R</t>
+  </si>
+  <si>
+    <t>2017-10-25 00:00:00</t>
+  </si>
+  <si>
+    <t>Coser Arthur</t>
+  </si>
+  <si>
+    <t>CSRRHR17L18F132W</t>
+  </si>
+  <si>
+    <t>2017-07-18 00:00:00</t>
+  </si>
+  <si>
+    <t>Matzoll Rene</t>
+  </si>
+  <si>
+    <t>MTZRNE17C30F132A</t>
+  </si>
+  <si>
+    <t>2017-03-30 00:00:00</t>
+  </si>
+  <si>
+    <t>Costa Yasmina</t>
+  </si>
+  <si>
+    <t>CSTYMN17E60F132Y</t>
+  </si>
+  <si>
+    <t>2017-05-20 00:00:00</t>
+  </si>
+  <si>
+    <t>Massei Damian</t>
+  </si>
+  <si>
+    <t>MSSDMN17S29Z102Y</t>
+  </si>
+  <si>
+    <t>2017-11-29 00:00:00</t>
+  </si>
+  <si>
+    <t>Niederstaetter Leo</t>
+  </si>
+  <si>
+    <t>NDRLEO17H28F132T</t>
+  </si>
+  <si>
+    <t>2017-06-28 00:00:00</t>
+  </si>
+  <si>
+    <t>Orlando Amy</t>
+  </si>
+  <si>
+    <t>RLNMYA17E46F132T</t>
+  </si>
+  <si>
+    <t>2017-05-06 00:00:00</t>
+  </si>
+  <si>
+    <t>Prevedello  Timo</t>
+  </si>
+  <si>
+    <t>PRVTMI17T12F132L</t>
+  </si>
+  <si>
+    <t>2017-12-12 00:00:00</t>
+  </si>
+  <si>
+    <t>Scano Nicole</t>
+  </si>
+  <si>
+    <t>SCNNCL17D64F132B</t>
+  </si>
+  <si>
+    <t>2017-04-24 00:00:00</t>
+  </si>
+  <si>
+    <t>Stanzel Amira</t>
+  </si>
+  <si>
+    <t>STNMRA17E53F132I</t>
+  </si>
+  <si>
+    <t>2017-05-13 00:00:00</t>
+  </si>
+  <si>
+    <t>Winkler Paula</t>
+  </si>
+  <si>
+    <t>WNKPLA17R42B220L</t>
+  </si>
+  <si>
+    <t>2017-10-02 00:00:00</t>
+  </si>
+  <si>
+    <t>Ellecosta Emely</t>
+  </si>
+  <si>
+    <t>LLCMLY17S49B220J</t>
+  </si>
+  <si>
+    <t>2017-11-09 00:00:00</t>
+  </si>
+  <si>
+    <t>Oberhollenzer Ben</t>
+  </si>
+  <si>
+    <t>BRHBNE17P04B220J</t>
+  </si>
+  <si>
+    <t>2017-09-04 00:00:00</t>
+  </si>
+  <si>
+    <t>Priller  Yara</t>
+  </si>
+  <si>
+    <t>PRLYRA17D69B220C</t>
+  </si>
+  <si>
+    <t>2017-04-29 00:00:00</t>
+  </si>
+  <si>
+    <t>Taschler  Anton</t>
+  </si>
+  <si>
+    <t>TSCNTN17L08B220M</t>
+  </si>
+  <si>
+    <t>2017-07-08 00:00:00</t>
+  </si>
+  <si>
+    <t>Ausserhofer Matthias</t>
+  </si>
+  <si>
+    <t>SSRMTH17S09B220Q</t>
+  </si>
+  <si>
+    <t>Doda Denis</t>
+  </si>
+  <si>
+    <t>DDODNS17L05I729E</t>
+  </si>
+  <si>
+    <t>2017-07-05 00:00:00</t>
+  </si>
+  <si>
+    <t>Thoman Aimar Amalia</t>
+  </si>
+  <si>
+    <t>THMMLA17T69I729V</t>
+  </si>
+  <si>
+    <t>2017-12-29 00:00:00</t>
+  </si>
+  <si>
+    <t>Trafoier Alex</t>
+  </si>
+  <si>
+    <t>TRFLXA17S27I729K</t>
+  </si>
+  <si>
+    <t>2017-11-27 00:00:00</t>
+  </si>
+  <si>
+    <t>Woerndle Paul</t>
+  </si>
+  <si>
+    <t>WRNPLA17T13I729Z</t>
+  </si>
+  <si>
+    <t>2017-12-13 00:00:00</t>
+  </si>
+  <si>
+    <t>Gumpold Marius</t>
+  </si>
+  <si>
+    <t>GMPMRS17M28F132X</t>
+  </si>
+  <si>
+    <t>2017-08-28 00:00:00</t>
+  </si>
+  <si>
+    <t>Kofler Andreas</t>
+  </si>
+  <si>
+    <t>KFLNRS17S23F132N</t>
+  </si>
+  <si>
+    <t>2017-11-23 00:00:00</t>
+  </si>
+  <si>
+    <t>Lunger Ida</t>
+  </si>
+  <si>
+    <t>LNGDIA17S51A952F</t>
+  </si>
+  <si>
+    <t>2017-11-11 00:00:00</t>
+  </si>
+  <si>
+    <t>Pircher Hannes</t>
+  </si>
+  <si>
+    <t>PRCHNS17C08F132K</t>
+  </si>
+  <si>
+    <t>2017-03-08 00:00:00</t>
+  </si>
+  <si>
+    <t>Mayer Fabienne</t>
+  </si>
+  <si>
+    <t>MYRFNN17L67B160A</t>
+  </si>
+  <si>
+    <t>2017-07-27 00:00:00</t>
+  </si>
+  <si>
     <t>ROSINI ANJA</t>
   </si>
   <si>
@@ -148,6 +961,147 @@
     <t>RSNRYN17L30A952Q</t>
   </si>
   <si>
+    <t>Controllo finanziamento compensativo</t>
+  </si>
+  <si>
+    <t>Sinn Sebastian</t>
+  </si>
+  <si>
+    <t>SNNSST19C22A952Q</t>
+  </si>
+  <si>
+    <t>2019-03-22 00:00:00</t>
+  </si>
+  <si>
+    <t>Pillon Luna</t>
+  </si>
+  <si>
+    <t>PLLLNU19C41B160R</t>
+  </si>
+  <si>
+    <t>2019-03-01 00:00:00</t>
+  </si>
+  <si>
+    <t>Santer Zoey</t>
+  </si>
+  <si>
+    <t>SNTZYO19E51B160D</t>
+  </si>
+  <si>
+    <t>2019-05-11 00:00:00</t>
+  </si>
+  <si>
+    <t>Illmer Rafael</t>
+  </si>
+  <si>
+    <t>LLMRFL19B10F132U</t>
+  </si>
+  <si>
+    <t>2019-02-10 00:00:00</t>
+  </si>
+  <si>
+    <t>Controllo finanziamento compensativo #2</t>
+  </si>
+  <si>
+    <t>Keim Iaco</t>
+  </si>
+  <si>
+    <t>KMECIA17L27B160E</t>
+  </si>
+  <si>
+    <t>Schwienbacher Ida</t>
+  </si>
+  <si>
+    <t>SCHDIA19M48F132M</t>
+  </si>
+  <si>
+    <t>2019-08-08 00:00:00</t>
+  </si>
+  <si>
+    <t>Kajana Mia</t>
+  </si>
+  <si>
+    <t>KJNMIA18M43A952A</t>
+  </si>
+  <si>
+    <t>2018-08-03 00:00:00</t>
+  </si>
+  <si>
+    <t>Controllo Covid #1</t>
+  </si>
+  <si>
+    <t>Controllo Covid #3</t>
+  </si>
+  <si>
+    <t>Bertagnolli Julius</t>
+  </si>
+  <si>
+    <t>BRTJLS17M10I729H</t>
+  </si>
+  <si>
+    <t>2017-08-10 00:00:00</t>
+  </si>
+  <si>
+    <t>Pramstrahler Josef</t>
+  </si>
+  <si>
+    <t>PRMJSF19H13A952Z</t>
+  </si>
+  <si>
+    <t>2019-06-13 00:00:00</t>
+  </si>
+  <si>
+    <t>Gufler Lina</t>
+  </si>
+  <si>
+    <t>GFLLNI18L57F132G</t>
+  </si>
+  <si>
+    <t>2018-07-17 00:00:00</t>
+  </si>
+  <si>
+    <t>Audino Dennis</t>
+  </si>
+  <si>
+    <t>DNADNS18C15F132Y</t>
+  </si>
+  <si>
+    <t>2018-03-15 00:00:00</t>
+  </si>
+  <si>
+    <t>Pircher Rafael Stefan</t>
+  </si>
+  <si>
+    <t>PRCRLS17M21I729J</t>
+  </si>
+  <si>
+    <t>2017-08-21 00:00:00</t>
+  </si>
+  <si>
+    <t>Thaler Nils</t>
+  </si>
+  <si>
+    <t>THLNLS17S11A952H</t>
+  </si>
+  <si>
+    <t>Gorfer Florian</t>
+  </si>
+  <si>
+    <t>GRFFRN18E23I729P</t>
+  </si>
+  <si>
+    <t>2018-05-23 00:00:00</t>
+  </si>
+  <si>
+    <t>Frei Juri</t>
+  </si>
+  <si>
+    <t>FREJRU18E29A952R</t>
+  </si>
+  <si>
+    <t>2018-05-29 00:00:00</t>
+  </si>
+  <si>
     <t>Contratti lockdown sospetti (Covid #4)</t>
   </si>
   <si>
@@ -163,6 +1117,123 @@
     <t>Controllo Fehler Eingewöhnung</t>
   </si>
   <si>
+    <t>Ajardi Josef</t>
+  </si>
+  <si>
+    <t>JRDJSF19R02B220Y</t>
+  </si>
+  <si>
+    <t>2019-10-02 00:00:00</t>
+  </si>
+  <si>
+    <t>Gruber Emma</t>
+  </si>
+  <si>
+    <t>GRBMME18E67F132P</t>
+  </si>
+  <si>
+    <t>2018-05-27 00:00:00</t>
+  </si>
+  <si>
+    <t>Huber Anna</t>
+  </si>
+  <si>
+    <t>HBRNNA18S55A952Y</t>
+  </si>
+  <si>
+    <t>2018-11-15 00:00:00</t>
+  </si>
+  <si>
+    <t>Vent Ludwig</t>
+  </si>
+  <si>
+    <t>VNTLWG18P17F132O</t>
+  </si>
+  <si>
+    <t>2018-09-17 00:00:00</t>
+  </si>
+  <si>
+    <t>Crepaz Amelie</t>
+  </si>
+  <si>
+    <t>CRPMLA18A41B160K</t>
+  </si>
+  <si>
+    <t>2018-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>Wassler Alex</t>
+  </si>
+  <si>
+    <t>WSSLXA18H02A952T</t>
+  </si>
+  <si>
+    <t>2018-06-02 00:00:00</t>
+  </si>
+  <si>
+    <t>Coser Anna</t>
+  </si>
+  <si>
+    <t>CSRNNA19E54F132F</t>
+  </si>
+  <si>
+    <t>2019-05-14 00:00:00</t>
+  </si>
+  <si>
+    <t>Huber Alexander</t>
+  </si>
+  <si>
+    <t>HBRLND18L27Z102R</t>
+  </si>
+  <si>
+    <t>2018-07-27 00:00:00</t>
+  </si>
+  <si>
+    <t>Premstaller Emmi</t>
+  </si>
+  <si>
+    <t>PRMMME19P65B220I</t>
+  </si>
+  <si>
+    <t>2019-09-25 00:00:00</t>
+  </si>
+  <si>
+    <t>Pichler Simon</t>
+  </si>
+  <si>
+    <t>PCHSMN19L15F132H</t>
+  </si>
+  <si>
+    <t>2019-07-15 00:00:00</t>
+  </si>
+  <si>
+    <t>Malloth Daniel</t>
+  </si>
+  <si>
+    <t>MLLDNL17L10I729Y</t>
+  </si>
+  <si>
+    <t>2017-07-10 00:00:00</t>
+  </si>
+  <si>
+    <t>Gamper Martha</t>
+  </si>
+  <si>
+    <t>GMPMTH19D47F132J</t>
+  </si>
+  <si>
+    <t>2019-04-07 00:00:00</t>
+  </si>
+  <si>
+    <t>Karlegger Svenja Heidrun</t>
+  </si>
+  <si>
+    <t>KRLSNJ18P49I729Y</t>
+  </si>
+  <si>
+    <t>2018-09-09 00:00:00</t>
+  </si>
+  <si>
     <t>RANCITELLI EDOARDO</t>
   </si>
   <si>
@@ -184,6 +1255,84 @@
     <t>2018-02-12 00:00:00</t>
   </si>
   <si>
+    <t>Steger Fiona</t>
+  </si>
+  <si>
+    <t>STGFNI19E63B220P</t>
+  </si>
+  <si>
+    <t>2019-05-23 00:00:00</t>
+  </si>
+  <si>
+    <t>Hafner Paul</t>
+  </si>
+  <si>
+    <t>HFNPLA18E20F132Q</t>
+  </si>
+  <si>
+    <t>2018-05-20 00:00:00</t>
+  </si>
+  <si>
+    <t>D´Altri Stella</t>
+  </si>
+  <si>
+    <t>DLTSLL19B61A944K</t>
+  </si>
+  <si>
+    <t>2019-02-21 00:00:00</t>
+  </si>
+  <si>
+    <t>Punter Julius</t>
+  </si>
+  <si>
+    <t>PNTJLS17H12A952S</t>
+  </si>
+  <si>
+    <t>2017-06-12 00:00:00</t>
+  </si>
+  <si>
+    <t>Punter  Emil</t>
+  </si>
+  <si>
+    <t>PNTMLE17H12A952H</t>
+  </si>
+  <si>
+    <t>Thaler Leia</t>
+  </si>
+  <si>
+    <t>THLLEI19A68F132X</t>
+  </si>
+  <si>
+    <t>2019-01-28 00:00:00</t>
+  </si>
+  <si>
+    <t>Battaglia Mattia</t>
+  </si>
+  <si>
+    <t>BTTMTT17P08B160L</t>
+  </si>
+  <si>
+    <t>2017-09-08 00:00:00</t>
+  </si>
+  <si>
+    <t>Eder Bruno</t>
+  </si>
+  <si>
+    <t>DREBRN19H09B220H</t>
+  </si>
+  <si>
+    <t>2019-06-09 00:00:00</t>
+  </si>
+  <si>
+    <t>Prantl Rosa</t>
+  </si>
+  <si>
+    <t>PRNRSO18B49F132Z</t>
+  </si>
+  <si>
+    <t>2018-02-09 00:00:00</t>
+  </si>
+  <si>
     <t>DE COL BEATRICE</t>
   </si>
   <si>
@@ -196,6 +1345,120 @@
     <t>Controllo Fehler Eingewöhnung 543 Notbetreuung</t>
   </si>
   <si>
+    <t>Weissteiner Maximilian</t>
+  </si>
+  <si>
+    <t>WSSMML18L16B160Z</t>
+  </si>
+  <si>
+    <t>2018-07-16 00:00:00</t>
+  </si>
+  <si>
+    <t>Pircher Elsa Katharina</t>
+  </si>
+  <si>
+    <t>PRCLKT20B55I729Y</t>
+  </si>
+  <si>
+    <t>2020-02-15 00:00:00</t>
+  </si>
+  <si>
+    <t>Billi Lorenzo</t>
+  </si>
+  <si>
+    <t>BLLLNZ20B12A952J</t>
+  </si>
+  <si>
+    <t>2020-02-12 00:00:00</t>
+  </si>
+  <si>
+    <t>Fabris Nathan</t>
+  </si>
+  <si>
+    <t>FBRNHN20B09F132A</t>
+  </si>
+  <si>
+    <t>2020-02-09 00:00:00</t>
+  </si>
+  <si>
+    <t>Santner Lenz</t>
+  </si>
+  <si>
+    <t>SNTLNZ18A30F132R</t>
+  </si>
+  <si>
+    <t>2018-01-30 00:00:00</t>
+  </si>
+  <si>
+    <t>Edobor Evidence</t>
+  </si>
+  <si>
+    <t>DBRVNC19L59A952Z</t>
+  </si>
+  <si>
+    <t>2019-07-19 00:00:00</t>
+  </si>
+  <si>
+    <t>Weger Mathe Elisabeth</t>
+  </si>
+  <si>
+    <t>WGRMHL18M51B220M</t>
+  </si>
+  <si>
+    <t>2018-08-11 00:00:00</t>
+  </si>
+  <si>
+    <t>Barcatta Lisa</t>
+  </si>
+  <si>
+    <t>BRCLSI18S47A952V</t>
+  </si>
+  <si>
+    <t>2018-11-07 00:00:00</t>
+  </si>
+  <si>
+    <t>Agostinetto Matti</t>
+  </si>
+  <si>
+    <t>GSTMTT20B09A952T</t>
+  </si>
+  <si>
+    <t>Burger Karin</t>
+  </si>
+  <si>
+    <t>BRGKRN19E60I729G</t>
+  </si>
+  <si>
+    <t>2019-05-20 00:00:00</t>
+  </si>
+  <si>
+    <t>Ciaramella Lageder Giacomo Clemens</t>
+  </si>
+  <si>
+    <t>CRMGMC19T22F132F</t>
+  </si>
+  <si>
+    <t>2019-12-22 00:00:00</t>
+  </si>
+  <si>
+    <t>Schnitzer Lia</t>
+  </si>
+  <si>
+    <t>SCHLIA18P62F132S</t>
+  </si>
+  <si>
+    <t>2018-09-22 00:00:00</t>
+  </si>
+  <si>
+    <t>Vieider Stina Marie</t>
+  </si>
+  <si>
+    <t>VDRSNM18M56B160V</t>
+  </si>
+  <si>
+    <t>2018-08-16 00:00:00</t>
+  </si>
+  <si>
     <t>STORARI GIOIA</t>
   </si>
   <si>
@@ -218,6 +1481,114 @@
   </si>
   <si>
     <t>2018-06-29 00:00:00</t>
+  </si>
+  <si>
+    <t>Controllo ore complessive periodo contrattuale</t>
+  </si>
+  <si>
+    <t>Todde Nicoló</t>
+  </si>
+  <si>
+    <t>TDDNCL19D28A952R</t>
+  </si>
+  <si>
+    <t>2019-04-28 00:00:00</t>
+  </si>
+  <si>
+    <t>Bambino presente in più comuni</t>
+  </si>
+  <si>
+    <t>Alia Amelia</t>
+  </si>
+  <si>
+    <t>LAIMLA18S61A952S</t>
+  </si>
+  <si>
+    <t>2018-11-21 00:00:00</t>
+  </si>
+  <si>
+    <t>Schwärzer Anna</t>
+  </si>
+  <si>
+    <t>SCHNNA19R68B220L</t>
+  </si>
+  <si>
+    <t>2019-10-28 00:00:00</t>
+  </si>
+  <si>
+    <t>Mazohl Mari</t>
+  </si>
+  <si>
+    <t>MZHMRA18P64F132P</t>
+  </si>
+  <si>
+    <t>2018-09-24 00:00:00</t>
+  </si>
+  <si>
+    <t>Cellamare Camilla</t>
+  </si>
+  <si>
+    <t>CLLCLL17P60F132P</t>
+  </si>
+  <si>
+    <t>2017-09-20 00:00:00</t>
+  </si>
+  <si>
+    <t>Imonsili Mercy</t>
+  </si>
+  <si>
+    <t>MNSMCY18D63A952N</t>
+  </si>
+  <si>
+    <t>2018-04-23 00:00:00</t>
+  </si>
+  <si>
+    <t>Usom Best Daniel</t>
+  </si>
+  <si>
+    <t>SMBDNL17C15A952L</t>
+  </si>
+  <si>
+    <t>2017-03-15 00:00:00</t>
+  </si>
+  <si>
+    <t>Burger Linnea</t>
+  </si>
+  <si>
+    <t>BRGLNN18C48I729E</t>
+  </si>
+  <si>
+    <t>2018-03-08 00:00:00</t>
+  </si>
+  <si>
+    <t>Weger Sophia</t>
+  </si>
+  <si>
+    <t>WGRSPH18D46B220D</t>
+  </si>
+  <si>
+    <t>2018-04-06 00:00:00</t>
+  </si>
+  <si>
+    <t>Whitecotton Leopold Harrison</t>
+  </si>
+  <si>
+    <t>WHTLLD18B20Z112Z</t>
+  </si>
+  <si>
+    <t>2018-02-20 00:00:00</t>
+  </si>
+  <si>
+    <t>Bambini con annotazioni</t>
+  </si>
+  <si>
+    <t>Corduneanu Dorian *</t>
+  </si>
+  <si>
+    <t>CRDDRN17D05I729Y</t>
+  </si>
+  <si>
+    <t>2017-04-05 00:00:00</t>
   </si>
 </sst>
 </file>
@@ -558,310 +1929,2822 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="B16" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="D16" t="s">
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
     </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="17" spans="1:4">
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="D17" t="s">
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="B21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="B22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="B23" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" t="s">
         <v>26</v>
       </c>
-      <c r="C24" t="s">
+    </row>
+    <row r="29" spans="1:4">
+      <c r="B29" t="s">
         <v>27</v>
       </c>
-      <c r="D24" t="s">
+      <c r="C29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="B25" t="s">
+      <c r="D29" t="s">
         <v>29</v>
-      </c>
-      <c r="C25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="B26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="B30" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D30" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="B31" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D31" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" t="s">
         <v>39</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>40</v>
-      </c>
-      <c r="D32" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="B33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" t="s">
-        <v>43</v>
       </c>
       <c r="D33" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="1" t="s">
+    <row r="34" spans="2:4">
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="36" spans="2:4">
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
       <c r="B37" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C37" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D37" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
       <c r="B41" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C41" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="D41" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" t="s">
+        <v>67</v>
+      </c>
+      <c r="D43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" t="s">
+        <v>70</v>
+      </c>
+      <c r="D44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
       <c r="B45" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" t="s">
+        <v>73</v>
+      </c>
+      <c r="D46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" t="s">
+        <v>73</v>
+      </c>
+      <c r="D47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="B48" t="s">
+        <v>75</v>
+      </c>
+      <c r="C48" t="s">
+        <v>76</v>
+      </c>
+      <c r="D48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49" t="s">
+        <v>79</v>
+      </c>
+      <c r="D49" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" t="s">
+        <v>81</v>
+      </c>
+      <c r="C50" t="s">
+        <v>82</v>
+      </c>
+      <c r="D50" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51" t="s">
+        <v>81</v>
+      </c>
+      <c r="C51" t="s">
+        <v>82</v>
+      </c>
+      <c r="D51" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="B52" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" t="s">
+        <v>85</v>
+      </c>
+      <c r="D52" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53" t="s">
+        <v>87</v>
+      </c>
+      <c r="C53" t="s">
+        <v>88</v>
+      </c>
+      <c r="D53" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="B54" t="s">
+        <v>90</v>
+      </c>
+      <c r="C54" t="s">
+        <v>91</v>
+      </c>
+      <c r="D54" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4">
+      <c r="B55" t="s">
+        <v>93</v>
+      </c>
+      <c r="C55" t="s">
+        <v>94</v>
+      </c>
+      <c r="D55" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4">
+      <c r="B56" t="s">
+        <v>95</v>
+      </c>
+      <c r="C56" t="s">
+        <v>96</v>
+      </c>
+      <c r="D56" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4">
+      <c r="B57" t="s">
+        <v>98</v>
+      </c>
+      <c r="C57" t="s">
+        <v>99</v>
+      </c>
+      <c r="D57" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4">
+      <c r="B58" t="s">
+        <v>101</v>
+      </c>
+      <c r="C58" t="s">
+        <v>102</v>
+      </c>
+      <c r="D58" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4">
+      <c r="B59" t="s">
+        <v>104</v>
+      </c>
+      <c r="C59" t="s">
+        <v>105</v>
+      </c>
+      <c r="D59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4">
+      <c r="B60" t="s">
+        <v>106</v>
+      </c>
+      <c r="C60" t="s">
+        <v>107</v>
+      </c>
+      <c r="D60" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4">
+      <c r="B61" t="s">
+        <v>108</v>
+      </c>
+      <c r="C61" t="s">
+        <v>109</v>
+      </c>
+      <c r="D61" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4">
+      <c r="B62" t="s">
+        <v>111</v>
+      </c>
+      <c r="C62" t="s">
+        <v>112</v>
+      </c>
+      <c r="D62" t="s">
         <v>53</v>
       </c>
-      <c r="C45" t="s">
-        <v>54</v>
-      </c>
-      <c r="D45" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="B46" t="s">
+    </row>
+    <row r="63" spans="2:4">
+      <c r="B63" t="s">
+        <v>113</v>
+      </c>
+      <c r="C63" t="s">
+        <v>114</v>
+      </c>
+      <c r="D63" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4">
+      <c r="B64" t="s">
+        <v>116</v>
+      </c>
+      <c r="C64" t="s">
+        <v>117</v>
+      </c>
+      <c r="D64" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4">
+      <c r="B65" t="s">
+        <v>119</v>
+      </c>
+      <c r="C65" t="s">
+        <v>120</v>
+      </c>
+      <c r="D65" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4">
+      <c r="B66" t="s">
+        <v>122</v>
+      </c>
+      <c r="C66" t="s">
+        <v>123</v>
+      </c>
+      <c r="D66" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4">
+      <c r="B67" t="s">
+        <v>124</v>
+      </c>
+      <c r="C67" t="s">
+        <v>125</v>
+      </c>
+      <c r="D67" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4">
+      <c r="B68" t="s">
+        <v>127</v>
+      </c>
+      <c r="C68" t="s">
+        <v>128</v>
+      </c>
+      <c r="D68" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4">
+      <c r="B69" t="s">
+        <v>127</v>
+      </c>
+      <c r="C69" t="s">
+        <v>128</v>
+      </c>
+      <c r="D69" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4">
+      <c r="B70" t="s">
+        <v>130</v>
+      </c>
+      <c r="C70" t="s">
+        <v>131</v>
+      </c>
+      <c r="D70" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4">
+      <c r="B71" t="s">
+        <v>130</v>
+      </c>
+      <c r="C71" t="s">
+        <v>131</v>
+      </c>
+      <c r="D71" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4">
+      <c r="B72" t="s">
+        <v>132</v>
+      </c>
+      <c r="C72" t="s">
+        <v>133</v>
+      </c>
+      <c r="D72" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4">
+      <c r="B73" t="s">
+        <v>135</v>
+      </c>
+      <c r="C73" t="s">
+        <v>136</v>
+      </c>
+      <c r="D73" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4">
+      <c r="B74" t="s">
+        <v>138</v>
+      </c>
+      <c r="C74" t="s">
+        <v>139</v>
+      </c>
+      <c r="D74" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4">
+      <c r="B75" t="s">
+        <v>141</v>
+      </c>
+      <c r="C75" t="s">
+        <v>142</v>
+      </c>
+      <c r="D75" t="s">
         <v>56</v>
       </c>
-      <c r="C46" t="s">
-        <v>57</v>
-      </c>
-      <c r="D46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="B47" t="s">
-        <v>49</v>
-      </c>
-      <c r="C47" t="s">
-        <v>50</v>
-      </c>
-      <c r="D47" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="B51" t="s">
-        <v>60</v>
-      </c>
-      <c r="C51" t="s">
-        <v>61</v>
-      </c>
-      <c r="D51" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="B52" t="s">
-        <v>63</v>
-      </c>
-      <c r="C52" t="s">
-        <v>64</v>
-      </c>
-      <c r="D52" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="B53" t="s">
-        <v>65</v>
-      </c>
-      <c r="C53" t="s">
-        <v>66</v>
-      </c>
-      <c r="D53" t="s">
-        <v>67</v>
+    </row>
+    <row r="76" spans="2:4">
+      <c r="B76" t="s">
+        <v>143</v>
+      </c>
+      <c r="C76" t="s">
+        <v>144</v>
+      </c>
+      <c r="D76" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4">
+      <c r="B77" t="s">
+        <v>143</v>
+      </c>
+      <c r="C77" t="s">
+        <v>144</v>
+      </c>
+      <c r="D77" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4">
+      <c r="B78" t="s">
+        <v>146</v>
+      </c>
+      <c r="C78" t="s">
+        <v>147</v>
+      </c>
+      <c r="D78" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4">
+      <c r="B79" t="s">
+        <v>149</v>
+      </c>
+      <c r="C79" t="s">
+        <v>150</v>
+      </c>
+      <c r="D79" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4">
+      <c r="B80" t="s">
+        <v>152</v>
+      </c>
+      <c r="C80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D80" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="B81" t="s">
+        <v>155</v>
+      </c>
+      <c r="C81" t="s">
+        <v>156</v>
+      </c>
+      <c r="D81" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="B82" t="s">
+        <v>158</v>
+      </c>
+      <c r="C82" t="s">
+        <v>159</v>
+      </c>
+      <c r="D82" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="B83" t="s">
+        <v>161</v>
+      </c>
+      <c r="C83" t="s">
+        <v>162</v>
+      </c>
+      <c r="D83" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="B84" t="s">
+        <v>164</v>
+      </c>
+      <c r="C84" t="s">
+        <v>165</v>
+      </c>
+      <c r="D84" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="B85" t="s">
+        <v>167</v>
+      </c>
+      <c r="C85" t="s">
+        <v>168</v>
+      </c>
+      <c r="D85" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="B86" t="s">
+        <v>170</v>
+      </c>
+      <c r="C86" t="s">
+        <v>171</v>
+      </c>
+      <c r="D86" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="B87" t="s">
+        <v>173</v>
+      </c>
+      <c r="C87" t="s">
+        <v>174</v>
+      </c>
+      <c r="D87" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="B88" t="s">
+        <v>176</v>
+      </c>
+      <c r="C88" t="s">
+        <v>177</v>
+      </c>
+      <c r="D88" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="B92" t="s">
+        <v>180</v>
+      </c>
+      <c r="C92" t="s">
+        <v>181</v>
+      </c>
+      <c r="D92" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="B93" t="s">
+        <v>17</v>
+      </c>
+      <c r="C93" t="s">
+        <v>18</v>
+      </c>
+      <c r="D93" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="B94" t="s">
+        <v>183</v>
+      </c>
+      <c r="C94" t="s">
+        <v>184</v>
+      </c>
+      <c r="D94" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="B95" t="s">
+        <v>186</v>
+      </c>
+      <c r="C95" t="s">
+        <v>187</v>
+      </c>
+      <c r="D95" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="B96" t="s">
+        <v>189</v>
+      </c>
+      <c r="C96" t="s">
+        <v>190</v>
+      </c>
+      <c r="D96" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4">
+      <c r="B97" t="s">
+        <v>192</v>
+      </c>
+      <c r="C97" t="s">
+        <v>193</v>
+      </c>
+      <c r="D97" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4">
+      <c r="B98" t="s">
+        <v>195</v>
+      </c>
+      <c r="C98" t="s">
+        <v>196</v>
+      </c>
+      <c r="D98" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4">
+      <c r="B99" t="s">
+        <v>198</v>
+      </c>
+      <c r="C99" t="s">
+        <v>199</v>
+      </c>
+      <c r="D99" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4">
+      <c r="B100" t="s">
+        <v>201</v>
+      </c>
+      <c r="C100" t="s">
+        <v>202</v>
+      </c>
+      <c r="D100" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4">
+      <c r="B101" t="s">
+        <v>204</v>
+      </c>
+      <c r="C101" t="s">
+        <v>205</v>
+      </c>
+      <c r="D101" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4">
+      <c r="B102" t="s">
+        <v>207</v>
+      </c>
+      <c r="C102" t="s">
+        <v>208</v>
+      </c>
+      <c r="D102" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4">
+      <c r="B103" t="s">
+        <v>210</v>
+      </c>
+      <c r="C103" t="s">
+        <v>211</v>
+      </c>
+      <c r="D103" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4">
+      <c r="B104" t="s">
+        <v>213</v>
+      </c>
+      <c r="C104" t="s">
+        <v>214</v>
+      </c>
+      <c r="D104" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4">
+      <c r="B105" t="s">
+        <v>216</v>
+      </c>
+      <c r="C105" t="s">
+        <v>217</v>
+      </c>
+      <c r="D105" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4">
+      <c r="B106" t="s">
+        <v>219</v>
+      </c>
+      <c r="C106" t="s">
+        <v>220</v>
+      </c>
+      <c r="D106" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4">
+      <c r="B107" t="s">
+        <v>222</v>
+      </c>
+      <c r="C107" t="s">
+        <v>223</v>
+      </c>
+      <c r="D107" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4">
+      <c r="B108" t="s">
+        <v>225</v>
+      </c>
+      <c r="C108" t="s">
+        <v>226</v>
+      </c>
+      <c r="D108" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4">
+      <c r="B109" t="s">
+        <v>228</v>
+      </c>
+      <c r="C109" t="s">
+        <v>229</v>
+      </c>
+      <c r="D109" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4">
+      <c r="B110" t="s">
+        <v>230</v>
+      </c>
+      <c r="C110" t="s">
+        <v>231</v>
+      </c>
+      <c r="D110" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4">
+      <c r="B111" t="s">
+        <v>233</v>
+      </c>
+      <c r="C111" t="s">
+        <v>234</v>
+      </c>
+      <c r="D111" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4">
+      <c r="B112" t="s">
+        <v>236</v>
+      </c>
+      <c r="C112" t="s">
+        <v>237</v>
+      </c>
+      <c r="D112" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4">
+      <c r="B113" t="s">
+        <v>239</v>
+      </c>
+      <c r="C113" t="s">
+        <v>240</v>
+      </c>
+      <c r="D113" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4">
+      <c r="B114" t="s">
+        <v>242</v>
+      </c>
+      <c r="C114" t="s">
+        <v>243</v>
+      </c>
+      <c r="D114" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4">
+      <c r="B115" t="s">
+        <v>245</v>
+      </c>
+      <c r="C115" t="s">
+        <v>246</v>
+      </c>
+      <c r="D115" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4">
+      <c r="B116" t="s">
+        <v>248</v>
+      </c>
+      <c r="C116" t="s">
+        <v>249</v>
+      </c>
+      <c r="D116" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4">
+      <c r="B117" t="s">
+        <v>251</v>
+      </c>
+      <c r="C117" t="s">
+        <v>252</v>
+      </c>
+      <c r="D117" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4">
+      <c r="B118" t="s">
+        <v>251</v>
+      </c>
+      <c r="C118" t="s">
+        <v>252</v>
+      </c>
+      <c r="D118" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4">
+      <c r="B119" t="s">
+        <v>254</v>
+      </c>
+      <c r="C119" t="s">
+        <v>255</v>
+      </c>
+      <c r="D119" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4">
+      <c r="B120" t="s">
+        <v>257</v>
+      </c>
+      <c r="C120" t="s">
+        <v>258</v>
+      </c>
+      <c r="D120" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4">
+      <c r="B121" t="s">
+        <v>260</v>
+      </c>
+      <c r="C121" t="s">
+        <v>261</v>
+      </c>
+      <c r="D121" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4">
+      <c r="B122" t="s">
+        <v>263</v>
+      </c>
+      <c r="C122" t="s">
+        <v>264</v>
+      </c>
+      <c r="D122" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4">
+      <c r="B123" t="s">
+        <v>266</v>
+      </c>
+      <c r="C123" t="s">
+        <v>267</v>
+      </c>
+      <c r="D123" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4">
+      <c r="B124" t="s">
+        <v>269</v>
+      </c>
+      <c r="C124" t="s">
+        <v>270</v>
+      </c>
+      <c r="D124" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4">
+      <c r="B125" t="s">
+        <v>272</v>
+      </c>
+      <c r="C125" t="s">
+        <v>273</v>
+      </c>
+      <c r="D125" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4">
+      <c r="B126" t="s">
+        <v>275</v>
+      </c>
+      <c r="C126" t="s">
+        <v>276</v>
+      </c>
+      <c r="D126" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4">
+      <c r="B127" t="s">
+        <v>278</v>
+      </c>
+      <c r="C127" t="s">
+        <v>279</v>
+      </c>
+      <c r="D127" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4">
+      <c r="B128" t="s">
+        <v>281</v>
+      </c>
+      <c r="C128" t="s">
+        <v>282</v>
+      </c>
+      <c r="D128" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="B129" t="s">
+        <v>283</v>
+      </c>
+      <c r="C129" t="s">
+        <v>284</v>
+      </c>
+      <c r="D129" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="B130" t="s">
+        <v>286</v>
+      </c>
+      <c r="C130" t="s">
+        <v>287</v>
+      </c>
+      <c r="D130" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="B131" t="s">
+        <v>289</v>
+      </c>
+      <c r="C131" t="s">
+        <v>290</v>
+      </c>
+      <c r="D131" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="B132" t="s">
+        <v>292</v>
+      </c>
+      <c r="C132" t="s">
+        <v>293</v>
+      </c>
+      <c r="D132" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="B133" t="s">
+        <v>295</v>
+      </c>
+      <c r="C133" t="s">
+        <v>296</v>
+      </c>
+      <c r="D133" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="B134" t="s">
+        <v>298</v>
+      </c>
+      <c r="C134" t="s">
+        <v>299</v>
+      </c>
+      <c r="D134" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="B135" t="s">
+        <v>301</v>
+      </c>
+      <c r="C135" t="s">
+        <v>302</v>
+      </c>
+      <c r="D135" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="B136" t="s">
+        <v>304</v>
+      </c>
+      <c r="C136" t="s">
+        <v>305</v>
+      </c>
+      <c r="D136" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="B137" t="s">
+        <v>307</v>
+      </c>
+      <c r="C137" t="s">
+        <v>308</v>
+      </c>
+      <c r="D137" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="B138" t="s">
+        <v>310</v>
+      </c>
+      <c r="C138" t="s">
+        <v>311</v>
+      </c>
+      <c r="D138" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="B139" t="s">
+        <v>313</v>
+      </c>
+      <c r="C139" t="s">
+        <v>314</v>
+      </c>
+      <c r="D139" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="B143" t="s">
+        <v>316</v>
+      </c>
+      <c r="C143" t="s">
+        <v>317</v>
+      </c>
+      <c r="D143" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="B144" t="s">
+        <v>269</v>
+      </c>
+      <c r="C144" t="s">
+        <v>270</v>
+      </c>
+      <c r="D144" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="B145" t="s">
+        <v>319</v>
+      </c>
+      <c r="C145" t="s">
+        <v>320</v>
+      </c>
+      <c r="D145" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="B146" t="s">
+        <v>322</v>
+      </c>
+      <c r="C146" t="s">
+        <v>323</v>
+      </c>
+      <c r="D146" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="B147" t="s">
+        <v>325</v>
+      </c>
+      <c r="C147" t="s">
+        <v>326</v>
+      </c>
+      <c r="D147" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="B148" t="s">
+        <v>127</v>
+      </c>
+      <c r="C148" t="s">
+        <v>128</v>
+      </c>
+      <c r="D148" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="B149" t="s">
+        <v>130</v>
+      </c>
+      <c r="C149" t="s">
+        <v>131</v>
+      </c>
+      <c r="D149" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="B153" t="s">
+        <v>329</v>
+      </c>
+      <c r="C153" t="s">
+        <v>330</v>
+      </c>
+      <c r="D153" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="B154" t="s">
+        <v>189</v>
+      </c>
+      <c r="C154" t="s">
+        <v>190</v>
+      </c>
+      <c r="D154" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="B155" t="s">
+        <v>331</v>
+      </c>
+      <c r="C155" t="s">
+        <v>332</v>
+      </c>
+      <c r="D155" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="B156" t="s">
+        <v>334</v>
+      </c>
+      <c r="C156" t="s">
+        <v>335</v>
+      </c>
+      <c r="D156" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="B160" t="s">
+        <v>189</v>
+      </c>
+      <c r="C160" t="s">
+        <v>190</v>
+      </c>
+      <c r="D160" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="B164" t="s">
+        <v>339</v>
+      </c>
+      <c r="C164" t="s">
+        <v>340</v>
+      </c>
+      <c r="D164" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="B165" t="s">
+        <v>342</v>
+      </c>
+      <c r="C165" t="s">
+        <v>343</v>
+      </c>
+      <c r="D165" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="B166" t="s">
+        <v>316</v>
+      </c>
+      <c r="C166" t="s">
+        <v>317</v>
+      </c>
+      <c r="D166" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="B167" t="s">
+        <v>345</v>
+      </c>
+      <c r="C167" t="s">
+        <v>346</v>
+      </c>
+      <c r="D167" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="B168" t="s">
+        <v>348</v>
+      </c>
+      <c r="C168" t="s">
+        <v>349</v>
+      </c>
+      <c r="D168" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="B169" t="s">
+        <v>351</v>
+      </c>
+      <c r="C169" t="s">
+        <v>352</v>
+      </c>
+      <c r="D169" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="B170" t="s">
+        <v>354</v>
+      </c>
+      <c r="C170" t="s">
+        <v>355</v>
+      </c>
+      <c r="D170" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="B171" t="s">
+        <v>356</v>
+      </c>
+      <c r="C171" t="s">
+        <v>357</v>
+      </c>
+      <c r="D171" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="B172" t="s">
+        <v>359</v>
+      </c>
+      <c r="C172" t="s">
+        <v>360</v>
+      </c>
+      <c r="D172" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="B176" t="s">
+        <v>363</v>
+      </c>
+      <c r="C176" t="s">
+        <v>364</v>
+      </c>
+      <c r="D176" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="B177" t="s">
+        <v>339</v>
+      </c>
+      <c r="C177" t="s">
+        <v>340</v>
+      </c>
+      <c r="D177" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="B178" t="s">
+        <v>342</v>
+      </c>
+      <c r="C178" t="s">
+        <v>343</v>
+      </c>
+      <c r="D178" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="B179" t="s">
+        <v>316</v>
+      </c>
+      <c r="C179" t="s">
+        <v>317</v>
+      </c>
+      <c r="D179" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="B180" t="s">
+        <v>345</v>
+      </c>
+      <c r="C180" t="s">
+        <v>346</v>
+      </c>
+      <c r="D180" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="B181" t="s">
+        <v>348</v>
+      </c>
+      <c r="C181" t="s">
+        <v>349</v>
+      </c>
+      <c r="D181" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="B182" t="s">
+        <v>269</v>
+      </c>
+      <c r="C182" t="s">
+        <v>270</v>
+      </c>
+      <c r="D182" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="B183" t="s">
+        <v>319</v>
+      </c>
+      <c r="C183" t="s">
+        <v>320</v>
+      </c>
+      <c r="D183" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="B184" t="s">
+        <v>322</v>
+      </c>
+      <c r="C184" t="s">
+        <v>323</v>
+      </c>
+      <c r="D184" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="B185" t="s">
+        <v>354</v>
+      </c>
+      <c r="C185" t="s">
+        <v>355</v>
+      </c>
+      <c r="D185" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="B186" t="s">
+        <v>325</v>
+      </c>
+      <c r="C186" t="s">
+        <v>326</v>
+      </c>
+      <c r="D186" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="B187" t="s">
+        <v>356</v>
+      </c>
+      <c r="C187" t="s">
+        <v>357</v>
+      </c>
+      <c r="D187" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="B188" t="s">
+        <v>359</v>
+      </c>
+      <c r="C188" t="s">
+        <v>360</v>
+      </c>
+      <c r="D188" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="B189" t="s">
+        <v>331</v>
+      </c>
+      <c r="C189" t="s">
+        <v>332</v>
+      </c>
+      <c r="D189" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="B193" t="s">
+        <v>367</v>
+      </c>
+      <c r="C193" t="s">
+        <v>368</v>
+      </c>
+      <c r="D193" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="B194" t="s">
+        <v>370</v>
+      </c>
+      <c r="C194" t="s">
+        <v>371</v>
+      </c>
+      <c r="D194" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="B195" t="s">
+        <v>373</v>
+      </c>
+      <c r="C195" t="s">
+        <v>374</v>
+      </c>
+      <c r="D195" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="B196" t="s">
+        <v>376</v>
+      </c>
+      <c r="C196" t="s">
+        <v>377</v>
+      </c>
+      <c r="D196" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="B197" t="s">
+        <v>379</v>
+      </c>
+      <c r="C197" t="s">
+        <v>380</v>
+      </c>
+      <c r="D197" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="B198" t="s">
+        <v>382</v>
+      </c>
+      <c r="C198" t="s">
+        <v>383</v>
+      </c>
+      <c r="D198" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="B199" t="s">
+        <v>385</v>
+      </c>
+      <c r="C199" t="s">
+        <v>386</v>
+      </c>
+      <c r="D199" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="B200" t="s">
+        <v>388</v>
+      </c>
+      <c r="C200" t="s">
+        <v>389</v>
+      </c>
+      <c r="D200" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="B201" t="s">
+        <v>391</v>
+      </c>
+      <c r="C201" t="s">
+        <v>392</v>
+      </c>
+      <c r="D201" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="B202" t="s">
+        <v>394</v>
+      </c>
+      <c r="C202" t="s">
+        <v>395</v>
+      </c>
+      <c r="D202" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="B203" t="s">
+        <v>397</v>
+      </c>
+      <c r="C203" t="s">
+        <v>398</v>
+      </c>
+      <c r="D203" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="B204" t="s">
+        <v>400</v>
+      </c>
+      <c r="C204" t="s">
+        <v>401</v>
+      </c>
+      <c r="D204" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="B205" t="s">
+        <v>403</v>
+      </c>
+      <c r="C205" t="s">
+        <v>404</v>
+      </c>
+      <c r="D205" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="B206" t="s">
+        <v>406</v>
+      </c>
+      <c r="C206" t="s">
+        <v>407</v>
+      </c>
+      <c r="D206" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="210" spans="2:4">
+      <c r="B210" t="s">
+        <v>410</v>
+      </c>
+      <c r="C210" t="s">
+        <v>411</v>
+      </c>
+      <c r="D210" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="211" spans="2:4">
+      <c r="B211" t="s">
+        <v>367</v>
+      </c>
+      <c r="C211" t="s">
+        <v>368</v>
+      </c>
+      <c r="D211" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="212" spans="2:4">
+      <c r="B212" t="s">
+        <v>370</v>
+      </c>
+      <c r="C212" t="s">
+        <v>371</v>
+      </c>
+      <c r="D212" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="213" spans="2:4">
+      <c r="B213" t="s">
+        <v>373</v>
+      </c>
+      <c r="C213" t="s">
+        <v>374</v>
+      </c>
+      <c r="D213" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="214" spans="2:4">
+      <c r="B214" t="s">
+        <v>413</v>
+      </c>
+      <c r="C214" t="s">
+        <v>414</v>
+      </c>
+      <c r="D214" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="215" spans="2:4">
+      <c r="B215" t="s">
+        <v>376</v>
+      </c>
+      <c r="C215" t="s">
+        <v>377</v>
+      </c>
+      <c r="D215" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="216" spans="2:4">
+      <c r="B216" t="s">
+        <v>379</v>
+      </c>
+      <c r="C216" t="s">
+        <v>380</v>
+      </c>
+      <c r="D216" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="217" spans="2:4">
+      <c r="B217" t="s">
+        <v>416</v>
+      </c>
+      <c r="C217" t="s">
+        <v>417</v>
+      </c>
+      <c r="D217" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="218" spans="2:4">
+      <c r="B218" t="s">
+        <v>419</v>
+      </c>
+      <c r="C218" t="s">
+        <v>420</v>
+      </c>
+      <c r="D218" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="219" spans="2:4">
+      <c r="B219" t="s">
+        <v>382</v>
+      </c>
+      <c r="C219" t="s">
+        <v>383</v>
+      </c>
+      <c r="D219" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="220" spans="2:4">
+      <c r="B220" t="s">
+        <v>422</v>
+      </c>
+      <c r="C220" t="s">
+        <v>423</v>
+      </c>
+      <c r="D220" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="221" spans="2:4">
+      <c r="B221" t="s">
+        <v>425</v>
+      </c>
+      <c r="C221" t="s">
+        <v>426</v>
+      </c>
+      <c r="D221" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="222" spans="2:4">
+      <c r="B222" t="s">
+        <v>385</v>
+      </c>
+      <c r="C222" t="s">
+        <v>386</v>
+      </c>
+      <c r="D222" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="223" spans="2:4">
+      <c r="B223" t="s">
+        <v>427</v>
+      </c>
+      <c r="C223" t="s">
+        <v>428</v>
+      </c>
+      <c r="D223" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="224" spans="2:4">
+      <c r="B224" t="s">
+        <v>388</v>
+      </c>
+      <c r="C224" t="s">
+        <v>389</v>
+      </c>
+      <c r="D224" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="B225" t="s">
+        <v>345</v>
+      </c>
+      <c r="C225" t="s">
+        <v>346</v>
+      </c>
+      <c r="D225" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="B226" t="s">
+        <v>430</v>
+      </c>
+      <c r="C226" t="s">
+        <v>431</v>
+      </c>
+      <c r="D226" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="B227" t="s">
+        <v>391</v>
+      </c>
+      <c r="C227" t="s">
+        <v>392</v>
+      </c>
+      <c r="D227" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="B228" t="s">
+        <v>394</v>
+      </c>
+      <c r="C228" t="s">
+        <v>395</v>
+      </c>
+      <c r="D228" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="B229" t="s">
+        <v>433</v>
+      </c>
+      <c r="C229" t="s">
+        <v>434</v>
+      </c>
+      <c r="D229" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="B230" t="s">
+        <v>397</v>
+      </c>
+      <c r="C230" t="s">
+        <v>398</v>
+      </c>
+      <c r="D230" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="B231" t="s">
+        <v>436</v>
+      </c>
+      <c r="C231" t="s">
+        <v>437</v>
+      </c>
+      <c r="D231" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="B232" t="s">
+        <v>138</v>
+      </c>
+      <c r="C232" t="s">
+        <v>139</v>
+      </c>
+      <c r="D232" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="B233" t="s">
+        <v>400</v>
+      </c>
+      <c r="C233" t="s">
+        <v>401</v>
+      </c>
+      <c r="D233" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="B234" t="s">
+        <v>403</v>
+      </c>
+      <c r="C234" t="s">
+        <v>404</v>
+      </c>
+      <c r="D234" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="B235" t="s">
+        <v>439</v>
+      </c>
+      <c r="C235" t="s">
+        <v>440</v>
+      </c>
+      <c r="D235" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="B236" t="s">
+        <v>406</v>
+      </c>
+      <c r="C236" t="s">
+        <v>407</v>
+      </c>
+      <c r="D236" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="B240" t="s">
+        <v>443</v>
+      </c>
+      <c r="C240" t="s">
+        <v>444</v>
+      </c>
+      <c r="D240" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="241" spans="2:4">
+      <c r="B241" t="s">
+        <v>446</v>
+      </c>
+      <c r="C241" t="s">
+        <v>447</v>
+      </c>
+      <c r="D241" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="242" spans="2:4">
+      <c r="B242" t="s">
+        <v>449</v>
+      </c>
+      <c r="C242" t="s">
+        <v>450</v>
+      </c>
+      <c r="D242" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="243" spans="2:4">
+      <c r="B243" t="s">
+        <v>452</v>
+      </c>
+      <c r="C243" t="s">
+        <v>453</v>
+      </c>
+      <c r="D243" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="244" spans="2:4">
+      <c r="B244" t="s">
+        <v>455</v>
+      </c>
+      <c r="C244" t="s">
+        <v>456</v>
+      </c>
+      <c r="D244" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="245" spans="2:4">
+      <c r="B245" t="s">
+        <v>458</v>
+      </c>
+      <c r="C245" t="s">
+        <v>459</v>
+      </c>
+      <c r="D245" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="246" spans="2:4">
+      <c r="B246" t="s">
+        <v>461</v>
+      </c>
+      <c r="C246" t="s">
+        <v>462</v>
+      </c>
+      <c r="D246" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="247" spans="2:4">
+      <c r="B247" t="s">
+        <v>464</v>
+      </c>
+      <c r="C247" t="s">
+        <v>465</v>
+      </c>
+      <c r="D247" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="248" spans="2:4">
+      <c r="B248" t="s">
+        <v>467</v>
+      </c>
+      <c r="C248" t="s">
+        <v>468</v>
+      </c>
+      <c r="D248" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="249" spans="2:4">
+      <c r="B249" t="s">
+        <v>469</v>
+      </c>
+      <c r="C249" t="s">
+        <v>470</v>
+      </c>
+      <c r="D249" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="250" spans="2:4">
+      <c r="B250" t="s">
+        <v>472</v>
+      </c>
+      <c r="C250" t="s">
+        <v>473</v>
+      </c>
+      <c r="D250" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="251" spans="2:4">
+      <c r="B251" t="s">
+        <v>475</v>
+      </c>
+      <c r="C251" t="s">
+        <v>476</v>
+      </c>
+      <c r="D251" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="252" spans="2:4">
+      <c r="B252" t="s">
+        <v>292</v>
+      </c>
+      <c r="C252" t="s">
+        <v>293</v>
+      </c>
+      <c r="D252" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="253" spans="2:4">
+      <c r="B253" t="s">
+        <v>478</v>
+      </c>
+      <c r="C253" t="s">
+        <v>479</v>
+      </c>
+      <c r="D253" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="254" spans="2:4">
+      <c r="B254" t="s">
+        <v>481</v>
+      </c>
+      <c r="C254" t="s">
+        <v>482</v>
+      </c>
+      <c r="D254" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="255" spans="2:4">
+      <c r="B255" t="s">
+        <v>484</v>
+      </c>
+      <c r="C255" t="s">
+        <v>485</v>
+      </c>
+      <c r="D255" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="256" spans="2:4">
+      <c r="B256" t="s">
+        <v>486</v>
+      </c>
+      <c r="C256" t="s">
+        <v>487</v>
+      </c>
+      <c r="D256" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="B260" t="s">
+        <v>225</v>
+      </c>
+      <c r="C260" t="s">
+        <v>226</v>
+      </c>
+      <c r="D260" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="B261" t="s">
+        <v>490</v>
+      </c>
+      <c r="C261" t="s">
+        <v>491</v>
+      </c>
+      <c r="D261" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="B265" t="s">
+        <v>472</v>
+      </c>
+      <c r="C265" t="s">
+        <v>473</v>
+      </c>
+      <c r="D265" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="B266" t="s">
+        <v>189</v>
+      </c>
+      <c r="C266" t="s">
+        <v>190</v>
+      </c>
+      <c r="D266" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="B267" t="s">
+        <v>494</v>
+      </c>
+      <c r="C267" t="s">
+        <v>495</v>
+      </c>
+      <c r="D267" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="B268" t="s">
+        <v>497</v>
+      </c>
+      <c r="C268" t="s">
+        <v>498</v>
+      </c>
+      <c r="D268" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="B269" t="s">
+        <v>500</v>
+      </c>
+      <c r="C269" t="s">
+        <v>501</v>
+      </c>
+      <c r="D269" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="B270" t="s">
+        <v>503</v>
+      </c>
+      <c r="C270" t="s">
+        <v>504</v>
+      </c>
+      <c r="D270" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="B271" t="s">
+        <v>497</v>
+      </c>
+      <c r="C271" t="s">
+        <v>498</v>
+      </c>
+      <c r="D271" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="B272" t="s">
+        <v>455</v>
+      </c>
+      <c r="C272" t="s">
+        <v>456</v>
+      </c>
+      <c r="D272" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="273" spans="2:4">
+      <c r="B273" t="s">
+        <v>506</v>
+      </c>
+      <c r="C273" t="s">
+        <v>507</v>
+      </c>
+      <c r="D273" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="274" spans="2:4">
+      <c r="B274" t="s">
+        <v>464</v>
+      </c>
+      <c r="C274" t="s">
+        <v>465</v>
+      </c>
+      <c r="D274" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="275" spans="2:4">
+      <c r="B275" t="s">
+        <v>254</v>
+      </c>
+      <c r="C275" t="s">
+        <v>255</v>
+      </c>
+      <c r="D275" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="276" spans="2:4">
+      <c r="B276" t="s">
+        <v>509</v>
+      </c>
+      <c r="C276" t="s">
+        <v>510</v>
+      </c>
+      <c r="D276" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="277" spans="2:4">
+      <c r="B277" t="s">
+        <v>494</v>
+      </c>
+      <c r="C277" t="s">
+        <v>495</v>
+      </c>
+      <c r="D277" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="278" spans="2:4">
+      <c r="B278" t="s">
+        <v>503</v>
+      </c>
+      <c r="C278" t="s">
+        <v>504</v>
+      </c>
+      <c r="D278" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="279" spans="2:4">
+      <c r="B279" t="s">
+        <v>464</v>
+      </c>
+      <c r="C279" t="s">
+        <v>465</v>
+      </c>
+      <c r="D279" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="280" spans="2:4">
+      <c r="B280" t="s">
+        <v>464</v>
+      </c>
+      <c r="C280" t="s">
+        <v>465</v>
+      </c>
+      <c r="D280" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="281" spans="2:4">
+      <c r="B281" t="s">
+        <v>472</v>
+      </c>
+      <c r="C281" t="s">
+        <v>473</v>
+      </c>
+      <c r="D281" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="282" spans="2:4">
+      <c r="B282" t="s">
+        <v>189</v>
+      </c>
+      <c r="C282" t="s">
+        <v>190</v>
+      </c>
+      <c r="D282" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="283" spans="2:4">
+      <c r="B283" t="s">
+        <v>500</v>
+      </c>
+      <c r="C283" t="s">
+        <v>501</v>
+      </c>
+      <c r="D283" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="284" spans="2:4">
+      <c r="B284" t="s">
+        <v>254</v>
+      </c>
+      <c r="C284" t="s">
+        <v>255</v>
+      </c>
+      <c r="D284" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="285" spans="2:4">
+      <c r="B285" t="s">
+        <v>509</v>
+      </c>
+      <c r="C285" t="s">
+        <v>510</v>
+      </c>
+      <c r="D285" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="286" spans="2:4">
+      <c r="B286" t="s">
+        <v>512</v>
+      </c>
+      <c r="C286" t="s">
+        <v>513</v>
+      </c>
+      <c r="D286" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="287" spans="2:4">
+      <c r="B287" t="s">
+        <v>512</v>
+      </c>
+      <c r="C287" t="s">
+        <v>513</v>
+      </c>
+      <c r="D287" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="288" spans="2:4">
+      <c r="B288" t="s">
+        <v>512</v>
+      </c>
+      <c r="C288" t="s">
+        <v>513</v>
+      </c>
+      <c r="D288" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="B289" t="s">
+        <v>512</v>
+      </c>
+      <c r="C289" t="s">
+        <v>513</v>
+      </c>
+      <c r="D289" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="B290" t="s">
+        <v>269</v>
+      </c>
+      <c r="C290" t="s">
+        <v>270</v>
+      </c>
+      <c r="D290" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="B291" t="s">
+        <v>515</v>
+      </c>
+      <c r="C291" t="s">
+        <v>516</v>
+      </c>
+      <c r="D291" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="B292" t="s">
+        <v>518</v>
+      </c>
+      <c r="C292" t="s">
+        <v>519</v>
+      </c>
+      <c r="D292" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="B293" t="s">
+        <v>269</v>
+      </c>
+      <c r="C293" t="s">
+        <v>270</v>
+      </c>
+      <c r="D293" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="B294" t="s">
+        <v>515</v>
+      </c>
+      <c r="C294" t="s">
+        <v>516</v>
+      </c>
+      <c r="D294" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="B295" t="s">
+        <v>331</v>
+      </c>
+      <c r="C295" t="s">
+        <v>332</v>
+      </c>
+      <c r="D295" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="B296" t="s">
+        <v>518</v>
+      </c>
+      <c r="C296" t="s">
+        <v>519</v>
+      </c>
+      <c r="D296" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="B297" t="s">
+        <v>506</v>
+      </c>
+      <c r="C297" t="s">
+        <v>507</v>
+      </c>
+      <c r="D297" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="B298" t="s">
+        <v>455</v>
+      </c>
+      <c r="C298" t="s">
+        <v>456</v>
+      </c>
+      <c r="D298" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="B299" t="s">
+        <v>331</v>
+      </c>
+      <c r="C299" t="s">
+        <v>332</v>
+      </c>
+      <c r="D299" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="B303" t="s">
+        <v>522</v>
+      </c>
+      <c r="C303" t="s">
+        <v>523</v>
+      </c>
+      <c r="D303" t="s">
+        <v>524</v>
       </c>
     </row>
   </sheetData>

--- a/riassuntoAutomatico.xlsx
+++ b/riassuntoAutomatico.xlsx
@@ -14,27 +14,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="866">
   <si>
     <t>Riassunto analisi</t>
   </si>
   <si>
-    <t>Trovati errori per 170 bambini</t>
-  </si>
-  <si>
-    <t>Trovate 2 occorrenze per il controllo Controllo fine contratto assistenza</t>
-  </si>
-  <si>
-    <t>Trovate 61 occorrenze per il controllo Controllo Kindergarten #1</t>
-  </si>
-  <si>
-    <t>Trovate 48 occorrenze per il controllo Controllo Kindergarten #2</t>
+    <t>Trovati errori per 286 bambini</t>
+  </si>
+  <si>
+    <t>Trovate 7 occorrenze per il controllo Controllo data nascita per codice fiscale</t>
+  </si>
+  <si>
+    <t>Trovate 3 occorrenze per il controllo Controllo età bambino</t>
+  </si>
+  <si>
+    <t>Trovate 6 occorrenze per il controllo Controllo fine contratto assistenza</t>
+  </si>
+  <si>
+    <t>Trovate 84 occorrenze per il controllo Controllo Kindergarten #1</t>
+  </si>
+  <si>
+    <t>Trovate 77 occorrenze per il controllo Controllo Kindergarten #2</t>
   </si>
   <si>
     <t>Trovate 7 occorrenze per il controllo Controllo finanziamento compensativo</t>
   </si>
   <si>
-    <t>Trovate 4 occorrenze per il controllo Controllo finanziamento compensativo #2</t>
+    <t>Trovate 5 occorrenze per il controllo Controllo finanziamento compensativo #2</t>
   </si>
   <si>
     <t>Trovate 1 occorrenze per il controllo Controllo Covid #1</t>
@@ -43,25 +49,124 @@
     <t>Trovate 9 occorrenze per il controllo Controllo Covid #3</t>
   </si>
   <si>
-    <t>Trovate 14 occorrenze per il controllo Contratti lockdown sospetti (Covid #4)</t>
-  </si>
-  <si>
-    <t>Trovate 14 occorrenze per il controllo Controllo Fehler Eingewöhnung</t>
-  </si>
-  <si>
-    <t>Trovate 27 occorrenze per il controllo Controllo Fehler Eingewöhnung 543 Lockdown</t>
-  </si>
-  <si>
-    <t>Trovate 17 occorrenze per il controllo Controllo Fehler Eingewöhnung 543 Notbetreuung</t>
-  </si>
-  <si>
-    <t>Trovate 2 occorrenze per il controllo Controllo ore complessive periodo contrattuale</t>
-  </si>
-  <si>
-    <t>Trovate 35 occorrenze per il controllo Bambino presente in più comuni</t>
-  </si>
-  <si>
-    <t>Trovate 1 occorrenze per il controllo Bambini con annotazioni</t>
+    <t>Trovate 18 occorrenze per il controllo Contratti lockdown sospetti (Covid #4)</t>
+  </si>
+  <si>
+    <t>Trovate 22 occorrenze per il controllo Controllo Fehler Eingewöhnung</t>
+  </si>
+  <si>
+    <t>Trovate 37 occorrenze per il controllo Controllo Fehler Eingewöhnung 543 Lockdown</t>
+  </si>
+  <si>
+    <t>Trovate 25 occorrenze per il controllo Controllo Fehler Eingewöhnung 543 Notbetreuung</t>
+  </si>
+  <si>
+    <t>Trovate 5 occorrenze per il controllo Controllo ore complessive periodo contrattuale</t>
+  </si>
+  <si>
+    <t>Trovate 67 occorrenze per il controllo Bambino presente in più comuni</t>
+  </si>
+  <si>
+    <t>Trovate 18 occorrenze per il controllo Bambini con annotazioni</t>
+  </si>
+  <si>
+    <t>Trovate 19 occorrenze per il controllo Controllo ore rendicontate uguali a zero</t>
+  </si>
+  <si>
+    <t>Controllo data nascita per codice fiscale</t>
+  </si>
+  <si>
+    <t>VALLE BENJAMIN</t>
+  </si>
+  <si>
+    <t>VLLBJM17L24A952I</t>
+  </si>
+  <si>
+    <t>2017-07-21 00:00:00</t>
+  </si>
+  <si>
+    <t>PFITSCHER LAURIN</t>
+  </si>
+  <si>
+    <t>PFTLRN19F25F132W</t>
+  </si>
+  <si>
+    <t>2019-05-25 00:00:00</t>
+  </si>
+  <si>
+    <t>MUTSCHLECHNER LIA</t>
+  </si>
+  <si>
+    <t>MTSLIA18A51B220Y</t>
+  </si>
+  <si>
+    <t>2018-08-11 00:00:00</t>
+  </si>
+  <si>
+    <t>FREI KATHARINA *</t>
+  </si>
+  <si>
+    <t>FREKHR19M65F132M</t>
+  </si>
+  <si>
+    <t>2019-08-28 00:00:00</t>
+  </si>
+  <si>
+    <t>SCHOEPF IANA</t>
+  </si>
+  <si>
+    <t>SCHNIA18D60F132U</t>
+  </si>
+  <si>
+    <t>2018-01-20 00:00:00</t>
+  </si>
+  <si>
+    <t>MAZZAROL LIOPOLD EZIO</t>
+  </si>
+  <si>
+    <t>MZZLLD19D28A952W</t>
+  </si>
+  <si>
+    <t>2019-04-24 00:00:00</t>
+  </si>
+  <si>
+    <t>BODI FILOMENA</t>
+  </si>
+  <si>
+    <t>BDOFMN19A64F132K</t>
+  </si>
+  <si>
+    <t>2019-01-29 00:00:00</t>
+  </si>
+  <si>
+    <t>Controllo età bambino</t>
+  </si>
+  <si>
+    <t>FRAU AARON</t>
+  </si>
+  <si>
+    <t>FRARNA18L05A952U</t>
+  </si>
+  <si>
+    <t>2018-07-05 00:00:00</t>
+  </si>
+  <si>
+    <t>KOESSLER JOHAN</t>
+  </si>
+  <si>
+    <t>KSSJHN19A02A952N</t>
+  </si>
+  <si>
+    <t>2019-01-02 00:00:00</t>
+  </si>
+  <si>
+    <t>THALER YLENIA</t>
+  </si>
+  <si>
+    <t>THLYLN17P42F132U</t>
+  </si>
+  <si>
+    <t>2017-09-02 00:00:00</t>
   </si>
   <si>
     <t>Controllo fine contratto assistenza</t>
@@ -85,9 +190,54 @@
     <t>2018-04-01 00:00:00</t>
   </si>
   <si>
+    <t>CABULA LEONARDO</t>
+  </si>
+  <si>
+    <t>CBLLRD17L24A952H</t>
+  </si>
+  <si>
+    <t>2017-07-24 00:00:00</t>
+  </si>
+  <si>
+    <t>FABI MARIE (TM)</t>
+  </si>
+  <si>
+    <t>FBAMRA16T60F132X</t>
+  </si>
+  <si>
+    <t>2016-12-20 00:00:00</t>
+  </si>
+  <si>
+    <t>GALANTIN ILVY MARIE</t>
+  </si>
+  <si>
+    <t>GLNLYM17A59F132K</t>
+  </si>
+  <si>
+    <t>2017-01-19 00:00:00</t>
+  </si>
+  <si>
     <t>Controllo Kindergarten #1</t>
   </si>
   <si>
+    <t>Stampfl Johanna</t>
+  </si>
+  <si>
+    <t>STMJNN17A47A952V</t>
+  </si>
+  <si>
+    <t>2017-01-07 00:00:00</t>
+  </si>
+  <si>
+    <t>Viaro Camilla</t>
+  </si>
+  <si>
+    <t>VRICLL16R64L378G</t>
+  </si>
+  <si>
+    <t>2016-10-24 00:00:00</t>
+  </si>
+  <si>
     <t>Lüling Gabriel</t>
   </si>
   <si>
@@ -97,24 +247,6 @@
     <t>2017-02-23 00:00:00</t>
   </si>
   <si>
-    <t>Stampfl Johanna</t>
-  </si>
-  <si>
-    <t>STMJNN17A47A952V</t>
-  </si>
-  <si>
-    <t>2017-01-07 00:00:00</t>
-  </si>
-  <si>
-    <t>Viaro Camilla</t>
-  </si>
-  <si>
-    <t>VRICLL16R64L378G</t>
-  </si>
-  <si>
-    <t>2016-10-24 00:00:00</t>
-  </si>
-  <si>
     <t>Burkhart Nele</t>
   </si>
   <si>
@@ -196,6 +328,60 @@
     <t>2017-02-09 00:00:00</t>
   </si>
   <si>
+    <t>Agostinetto  Levi</t>
+  </si>
+  <si>
+    <t>GSTLVE17B06A952V</t>
+  </si>
+  <si>
+    <t>2017-02-06 00:00:00</t>
+  </si>
+  <si>
+    <t>Doliana Mia</t>
+  </si>
+  <si>
+    <t>DLNMIA16T71A952X</t>
+  </si>
+  <si>
+    <t>2016-12-31 00:00:00</t>
+  </si>
+  <si>
+    <t>Perillo Zwink Noah Leon</t>
+  </si>
+  <si>
+    <t>PRLNLN17A15F132L</t>
+  </si>
+  <si>
+    <t>2017-01-15 00:00:00</t>
+  </si>
+  <si>
+    <t>Pfattner  Jonas</t>
+  </si>
+  <si>
+    <t>PFTJNS16S25A952D</t>
+  </si>
+  <si>
+    <t>2016-11-25 00:00:00</t>
+  </si>
+  <si>
+    <t>Stragenegg Krieg Paul</t>
+  </si>
+  <si>
+    <t>STRPLA17B14F132K</t>
+  </si>
+  <si>
+    <t>2017-02-14 00:00:00</t>
+  </si>
+  <si>
+    <t>Vassanelli Noah</t>
+  </si>
+  <si>
+    <t>VSSNHO16R13F132P</t>
+  </si>
+  <si>
+    <t>2016-10-13 00:00:00</t>
+  </si>
+  <si>
     <t>Gruber  Emil</t>
   </si>
   <si>
@@ -205,60 +391,6 @@
     <t>2016-12-12 00:00:00</t>
   </si>
   <si>
-    <t>Agostinetto  Levi</t>
-  </si>
-  <si>
-    <t>GSTLVE17B06A952V</t>
-  </si>
-  <si>
-    <t>2017-02-06 00:00:00</t>
-  </si>
-  <si>
-    <t>Doliana Mia</t>
-  </si>
-  <si>
-    <t>DLNMIA16T71A952X</t>
-  </si>
-  <si>
-    <t>2016-12-31 00:00:00</t>
-  </si>
-  <si>
-    <t>Perillo Zwink Noah Leon</t>
-  </si>
-  <si>
-    <t>PRLNLN17A15F132L</t>
-  </si>
-  <si>
-    <t>2017-01-15 00:00:00</t>
-  </si>
-  <si>
-    <t>Pfattner  Jonas</t>
-  </si>
-  <si>
-    <t>PFTJNS16S25A952D</t>
-  </si>
-  <si>
-    <t>2016-11-25 00:00:00</t>
-  </si>
-  <si>
-    <t>Stragenegg Krieg Paul</t>
-  </si>
-  <si>
-    <t>STRPLA17B14F132K</t>
-  </si>
-  <si>
-    <t>2017-02-14 00:00:00</t>
-  </si>
-  <si>
-    <t>Vassanelli Noah</t>
-  </si>
-  <si>
-    <t>VSSNHO16R13F132P</t>
-  </si>
-  <si>
-    <t>2016-10-13 00:00:00</t>
-  </si>
-  <si>
     <t>Blaas Jakob</t>
   </si>
   <si>
@@ -523,9 +655,6 @@
     <t>LTVRTR16T20A952F</t>
   </si>
   <si>
-    <t>2016-12-20 00:00:00</t>
-  </si>
-  <si>
     <t>SCHILLACI ANTONINO</t>
   </si>
   <si>
@@ -553,9 +682,531 @@
     <t>2017-02-24 00:00:00</t>
   </si>
   <si>
+    <t>ALBRECHT LEO</t>
+  </si>
+  <si>
+    <t>LBRLEO16R07A952F</t>
+  </si>
+  <si>
+    <t>2016-10-07 00:00:00</t>
+  </si>
+  <si>
+    <t>ALBRECHT LEO /</t>
+  </si>
+  <si>
+    <t>ANDRIGO THOMAS</t>
+  </si>
+  <si>
+    <t>NDRTMS17B06A952J</t>
+  </si>
+  <si>
+    <t>BERTI RAPHAEL</t>
+  </si>
+  <si>
+    <t>BRTRHL17A07A952C</t>
+  </si>
+  <si>
+    <t>FILIPPIN ETTORE</t>
+  </si>
+  <si>
+    <t>FLPTTR16R13A952A</t>
+  </si>
+  <si>
+    <t>PREMSTALLER FELIX</t>
+  </si>
+  <si>
+    <t>PRMFLX17A13A952N</t>
+  </si>
+  <si>
+    <t>TOLLOI MATTHAEUS</t>
+  </si>
+  <si>
+    <t>TLLMTH17B28B220V</t>
+  </si>
+  <si>
+    <t>2017-02-28 00:00:00</t>
+  </si>
+  <si>
+    <t>MADEDDU DAVIS</t>
+  </si>
+  <si>
+    <t>MDDDVS17A08A952N</t>
+  </si>
+  <si>
+    <t>DE ZORDO LISA MARIE</t>
+  </si>
+  <si>
+    <t>DZRLMR17B64A952J</t>
+  </si>
+  <si>
+    <t>ERB VIKTORIA</t>
+  </si>
+  <si>
+    <t>RBEVTR17B43F132X</t>
+  </si>
+  <si>
+    <t>2017-02-03 00:00:00</t>
+  </si>
+  <si>
+    <t>GASSER LARA</t>
+  </si>
+  <si>
+    <t>INNERHOFER SOPHIA</t>
+  </si>
+  <si>
+    <t>NNRSPH17B64F132A</t>
+  </si>
+  <si>
+    <t>FILO JAKOB</t>
+  </si>
+  <si>
+    <t>FLIJKB17A26B160K</t>
+  </si>
+  <si>
+    <t>THOMASER NOEMI</t>
+  </si>
+  <si>
+    <t>THMNMO16T46B220C</t>
+  </si>
+  <si>
+    <t>HOLZER LARISSA</t>
+  </si>
+  <si>
+    <t>HLZLSS16M51M067B</t>
+  </si>
+  <si>
+    <t>2016-08-11 00:00:00</t>
+  </si>
+  <si>
+    <t>GRUBER IDA</t>
+  </si>
+  <si>
+    <t>GRBDIA17A58I729E</t>
+  </si>
+  <si>
+    <t>OBERFRANK LUIS</t>
+  </si>
+  <si>
+    <t>BRFLSU17A09B220H</t>
+  </si>
+  <si>
+    <t>STEINKASSERER ADRIAN</t>
+  </si>
+  <si>
+    <t>STNDRN17A18B220I</t>
+  </si>
+  <si>
+    <t>GRAUS DAVID</t>
+  </si>
+  <si>
+    <t>GRSDVD17B16B160N</t>
+  </si>
+  <si>
+    <t>2017-02-16 00:00:00</t>
+  </si>
+  <si>
+    <t>HOFER MILENA DOLORES</t>
+  </si>
+  <si>
+    <t>HFRMND17B61F132N</t>
+  </si>
+  <si>
+    <t>2017-02-21 00:00:00</t>
+  </si>
+  <si>
+    <t>INNERHOFER JULIAN</t>
+  </si>
+  <si>
+    <t>NNRJLN17A17B220Y</t>
+  </si>
+  <si>
+    <t>2017-01-17 00:00:00</t>
+  </si>
+  <si>
     <t>Controllo Kindergarten #2</t>
   </si>
   <si>
+    <t>Ruiu Nina</t>
+  </si>
+  <si>
+    <t>RUINNI17C65B220Y</t>
+  </si>
+  <si>
+    <t>2017-03-25 00:00:00</t>
+  </si>
+  <si>
+    <t>Hölzl Felicia Victoria</t>
+  </si>
+  <si>
+    <t>HLZFCV17S56F132E</t>
+  </si>
+  <si>
+    <t>2017-11-16 00:00:00</t>
+  </si>
+  <si>
+    <t>Maturilli Anna Maria</t>
+  </si>
+  <si>
+    <t>MTRNMR17H63F132N</t>
+  </si>
+  <si>
+    <t>2017-06-23 00:00:00</t>
+  </si>
+  <si>
+    <t>Oschmann Carl Cosimo</t>
+  </si>
+  <si>
+    <t>SCHCLC17L23B160P</t>
+  </si>
+  <si>
+    <t>2017-07-23 00:00:00</t>
+  </si>
+  <si>
+    <t>Platter  Felix</t>
+  </si>
+  <si>
+    <t>PLTFLX17D28B160Z</t>
+  </si>
+  <si>
+    <t>2017-04-28 00:00:00</t>
+  </si>
+  <si>
+    <t>Witcher Noah Sebastian</t>
+  </si>
+  <si>
+    <t>WTCNSB17C04B160X</t>
+  </si>
+  <si>
+    <t>2017-03-04 00:00:00</t>
+  </si>
+  <si>
+    <t>Gatterer Banna Amira</t>
+  </si>
+  <si>
+    <t>GTTMRA17D43B220Y</t>
+  </si>
+  <si>
+    <t>2017-04-03 00:00:00</t>
+  </si>
+  <si>
+    <t>Longo Giada</t>
+  </si>
+  <si>
+    <t>LNGGDI17E68B220Z</t>
+  </si>
+  <si>
+    <t>2017-05-28 00:00:00</t>
+  </si>
+  <si>
+    <t>Werner Emma</t>
+  </si>
+  <si>
+    <t>WRNMME17T67A952M</t>
+  </si>
+  <si>
+    <t>2017-12-27 00:00:00</t>
+  </si>
+  <si>
+    <t>Messner Jakob</t>
+  </si>
+  <si>
+    <t>MSSJKB17S30F132S</t>
+  </si>
+  <si>
+    <t>2017-11-30 00:00:00</t>
+  </si>
+  <si>
+    <t>Malfatti Jonas</t>
+  </si>
+  <si>
+    <t>MLFJNS17E18F132I</t>
+  </si>
+  <si>
+    <t>2017-05-18 00:00:00</t>
+  </si>
+  <si>
+    <t>Eschgfaeller Marie</t>
+  </si>
+  <si>
+    <t>SCHMRA17T62A952K</t>
+  </si>
+  <si>
+    <t>2017-12-22 00:00:00</t>
+  </si>
+  <si>
+    <t>Gostner Noah</t>
+  </si>
+  <si>
+    <t>GSTNHO17T18B160K</t>
+  </si>
+  <si>
+    <t>2017-12-18 00:00:00</t>
+  </si>
+  <si>
+    <t>Hochgruber Raphael</t>
+  </si>
+  <si>
+    <t>HCHRHL17S04B220O</t>
+  </si>
+  <si>
+    <t>2017-11-04 00:00:00</t>
+  </si>
+  <si>
+    <t>Bekoe Lucia</t>
+  </si>
+  <si>
+    <t>BKELCU17R50A952D</t>
+  </si>
+  <si>
+    <t>2017-10-10 00:00:00</t>
+  </si>
+  <si>
+    <t>Frei Gasser Mia</t>
+  </si>
+  <si>
+    <t>FRGMIA17C65B160L</t>
+  </si>
+  <si>
+    <t>Pejic Milica</t>
+  </si>
+  <si>
+    <t>PJCMLC17H48F132R</t>
+  </si>
+  <si>
+    <t>2017-06-08 00:00:00</t>
+  </si>
+  <si>
+    <t>Wenter Leo</t>
+  </si>
+  <si>
+    <t>WNTLEO17M01F132R</t>
+  </si>
+  <si>
+    <t>2017-08-01 00:00:00</t>
+  </si>
+  <si>
+    <t>Barbi Serena</t>
+  </si>
+  <si>
+    <t>BRBSRN17R65A952R</t>
+  </si>
+  <si>
+    <t>2017-10-25 00:00:00</t>
+  </si>
+  <si>
+    <t>Coser Arthur</t>
+  </si>
+  <si>
+    <t>CSRRHR17L18F132W</t>
+  </si>
+  <si>
+    <t>2017-07-18 00:00:00</t>
+  </si>
+  <si>
+    <t>Matzoll Rene</t>
+  </si>
+  <si>
+    <t>MTZRNE17C30F132A</t>
+  </si>
+  <si>
+    <t>2017-03-30 00:00:00</t>
+  </si>
+  <si>
+    <t>Costa Yasmina</t>
+  </si>
+  <si>
+    <t>CSTYMN17E60F132Y</t>
+  </si>
+  <si>
+    <t>2017-05-20 00:00:00</t>
+  </si>
+  <si>
+    <t>Massei Damian</t>
+  </si>
+  <si>
+    <t>MSSDMN17S29Z102Y</t>
+  </si>
+  <si>
+    <t>2017-11-29 00:00:00</t>
+  </si>
+  <si>
+    <t>Niederstaetter Leo</t>
+  </si>
+  <si>
+    <t>NDRLEO17H28F132T</t>
+  </si>
+  <si>
+    <t>2017-06-28 00:00:00</t>
+  </si>
+  <si>
+    <t>Orlando Amy</t>
+  </si>
+  <si>
+    <t>RLNMYA17E46F132T</t>
+  </si>
+  <si>
+    <t>2017-05-06 00:00:00</t>
+  </si>
+  <si>
+    <t>Prevedello  Timo</t>
+  </si>
+  <si>
+    <t>PRVTMI17T12F132L</t>
+  </si>
+  <si>
+    <t>2017-12-12 00:00:00</t>
+  </si>
+  <si>
+    <t>Scano Nicole</t>
+  </si>
+  <si>
+    <t>SCNNCL17D64F132B</t>
+  </si>
+  <si>
+    <t>2017-04-24 00:00:00</t>
+  </si>
+  <si>
+    <t>Stanzel Amira</t>
+  </si>
+  <si>
+    <t>STNMRA17E53F132I</t>
+  </si>
+  <si>
+    <t>2017-05-13 00:00:00</t>
+  </si>
+  <si>
+    <t>Winkler Paula</t>
+  </si>
+  <si>
+    <t>WNKPLA17R42B220L</t>
+  </si>
+  <si>
+    <t>2017-10-02 00:00:00</t>
+  </si>
+  <si>
+    <t>Ellecosta Emely</t>
+  </si>
+  <si>
+    <t>LLCMLY17S49B220J</t>
+  </si>
+  <si>
+    <t>2017-11-09 00:00:00</t>
+  </si>
+  <si>
+    <t>Oberhollenzer Ben</t>
+  </si>
+  <si>
+    <t>BRHBNE17P04B220J</t>
+  </si>
+  <si>
+    <t>2017-09-04 00:00:00</t>
+  </si>
+  <si>
+    <t>Priller  Yara</t>
+  </si>
+  <si>
+    <t>PRLYRA17D69B220C</t>
+  </si>
+  <si>
+    <t>2017-04-29 00:00:00</t>
+  </si>
+  <si>
+    <t>Taschler  Anton</t>
+  </si>
+  <si>
+    <t>TSCNTN17L08B220M</t>
+  </si>
+  <si>
+    <t>2017-07-08 00:00:00</t>
+  </si>
+  <si>
+    <t>Ausserhofer Matthias</t>
+  </si>
+  <si>
+    <t>SSRMTH17S09B220Q</t>
+  </si>
+  <si>
+    <t>Doda Denis</t>
+  </si>
+  <si>
+    <t>DDODNS17L05I729E</t>
+  </si>
+  <si>
+    <t>2017-07-05 00:00:00</t>
+  </si>
+  <si>
+    <t>Thoman Aimar Amalia</t>
+  </si>
+  <si>
+    <t>THMMLA17T69I729V</t>
+  </si>
+  <si>
+    <t>2017-12-29 00:00:00</t>
+  </si>
+  <si>
+    <t>Trafoier Alex</t>
+  </si>
+  <si>
+    <t>TRFLXA17S27I729K</t>
+  </si>
+  <si>
+    <t>2017-11-27 00:00:00</t>
+  </si>
+  <si>
+    <t>Woerndle Paul</t>
+  </si>
+  <si>
+    <t>WRNPLA17T13I729Z</t>
+  </si>
+  <si>
+    <t>2017-12-13 00:00:00</t>
+  </si>
+  <si>
+    <t>Gumpold Marius</t>
+  </si>
+  <si>
+    <t>GMPMRS17M28F132X</t>
+  </si>
+  <si>
+    <t>2017-08-28 00:00:00</t>
+  </si>
+  <si>
+    <t>Kofler Andreas</t>
+  </si>
+  <si>
+    <t>KFLNRS17S23F132N</t>
+  </si>
+  <si>
+    <t>2017-11-23 00:00:00</t>
+  </si>
+  <si>
+    <t>Lunger Ida</t>
+  </si>
+  <si>
+    <t>LNGDIA17S51A952F</t>
+  </si>
+  <si>
+    <t>2017-11-11 00:00:00</t>
+  </si>
+  <si>
+    <t>Pircher Hannes</t>
+  </si>
+  <si>
+    <t>PRCHNS17C08F132K</t>
+  </si>
+  <si>
+    <t>2017-03-08 00:00:00</t>
+  </si>
+  <si>
+    <t>Mayer Fabienne</t>
+  </si>
+  <si>
+    <t>MYRFNN17L67B160A</t>
+  </si>
+  <si>
+    <t>2017-07-27 00:00:00</t>
+  </si>
+  <si>
     <t>Gega Glenta</t>
   </si>
   <si>
@@ -565,387 +1216,6 @@
     <t>2017-09-10 00:00:00</t>
   </si>
   <si>
-    <t>Ruiu Nina</t>
-  </si>
-  <si>
-    <t>RUINNI17C65B220Y</t>
-  </si>
-  <si>
-    <t>2017-03-25 00:00:00</t>
-  </si>
-  <si>
-    <t>Hölzl Felicia Victoria</t>
-  </si>
-  <si>
-    <t>HLZFCV17S56F132E</t>
-  </si>
-  <si>
-    <t>2017-11-16 00:00:00</t>
-  </si>
-  <si>
-    <t>Maturilli Anna Maria</t>
-  </si>
-  <si>
-    <t>MTRNMR17H63F132N</t>
-  </si>
-  <si>
-    <t>2017-06-23 00:00:00</t>
-  </si>
-  <si>
-    <t>Oschmann Carl Cosimo</t>
-  </si>
-  <si>
-    <t>SCHCLC17L23B160P</t>
-  </si>
-  <si>
-    <t>2017-07-23 00:00:00</t>
-  </si>
-  <si>
-    <t>Platter  Felix</t>
-  </si>
-  <si>
-    <t>PLTFLX17D28B160Z</t>
-  </si>
-  <si>
-    <t>2017-04-28 00:00:00</t>
-  </si>
-  <si>
-    <t>Witcher Noah Sebastian</t>
-  </si>
-  <si>
-    <t>WTCNSB17C04B160X</t>
-  </si>
-  <si>
-    <t>2017-03-04 00:00:00</t>
-  </si>
-  <si>
-    <t>Gatterer Banna Amira</t>
-  </si>
-  <si>
-    <t>GTTMRA17D43B220Y</t>
-  </si>
-  <si>
-    <t>2017-04-03 00:00:00</t>
-  </si>
-  <si>
-    <t>Longo Giada</t>
-  </si>
-  <si>
-    <t>LNGGDI17E68B220Z</t>
-  </si>
-  <si>
-    <t>2017-05-28 00:00:00</t>
-  </si>
-  <si>
-    <t>Werner Emma</t>
-  </si>
-  <si>
-    <t>WRNMME17T67A952M</t>
-  </si>
-  <si>
-    <t>2017-12-27 00:00:00</t>
-  </si>
-  <si>
-    <t>Messner Jakob</t>
-  </si>
-  <si>
-    <t>MSSJKB17S30F132S</t>
-  </si>
-  <si>
-    <t>2017-11-30 00:00:00</t>
-  </si>
-  <si>
-    <t>Malfatti Jonas</t>
-  </si>
-  <si>
-    <t>MLFJNS17E18F132I</t>
-  </si>
-  <si>
-    <t>2017-05-18 00:00:00</t>
-  </si>
-  <si>
-    <t>Eschgfaeller Marie</t>
-  </si>
-  <si>
-    <t>SCHMRA17T62A952K</t>
-  </si>
-  <si>
-    <t>2017-12-22 00:00:00</t>
-  </si>
-  <si>
-    <t>Gostner Noah</t>
-  </si>
-  <si>
-    <t>GSTNHO17T18B160K</t>
-  </si>
-  <si>
-    <t>2017-12-18 00:00:00</t>
-  </si>
-  <si>
-    <t>Hochgruber Raphael</t>
-  </si>
-  <si>
-    <t>HCHRHL17S04B220O</t>
-  </si>
-  <si>
-    <t>2017-11-04 00:00:00</t>
-  </si>
-  <si>
-    <t>Bekoe Lucia</t>
-  </si>
-  <si>
-    <t>BKELCU17R50A952D</t>
-  </si>
-  <si>
-    <t>2017-10-10 00:00:00</t>
-  </si>
-  <si>
-    <t>Frei Gasser Mia</t>
-  </si>
-  <si>
-    <t>FRGMIA17C65B160L</t>
-  </si>
-  <si>
-    <t>Pejic Milica</t>
-  </si>
-  <si>
-    <t>PJCMLC17H48F132R</t>
-  </si>
-  <si>
-    <t>2017-06-08 00:00:00</t>
-  </si>
-  <si>
-    <t>Wenter Leo</t>
-  </si>
-  <si>
-    <t>WNTLEO17M01F132R</t>
-  </si>
-  <si>
-    <t>2017-08-01 00:00:00</t>
-  </si>
-  <si>
-    <t>Barbi Serena</t>
-  </si>
-  <si>
-    <t>BRBSRN17R65A952R</t>
-  </si>
-  <si>
-    <t>2017-10-25 00:00:00</t>
-  </si>
-  <si>
-    <t>Coser Arthur</t>
-  </si>
-  <si>
-    <t>CSRRHR17L18F132W</t>
-  </si>
-  <si>
-    <t>2017-07-18 00:00:00</t>
-  </si>
-  <si>
-    <t>Matzoll Rene</t>
-  </si>
-  <si>
-    <t>MTZRNE17C30F132A</t>
-  </si>
-  <si>
-    <t>2017-03-30 00:00:00</t>
-  </si>
-  <si>
-    <t>Costa Yasmina</t>
-  </si>
-  <si>
-    <t>CSTYMN17E60F132Y</t>
-  </si>
-  <si>
-    <t>2017-05-20 00:00:00</t>
-  </si>
-  <si>
-    <t>Massei Damian</t>
-  </si>
-  <si>
-    <t>MSSDMN17S29Z102Y</t>
-  </si>
-  <si>
-    <t>2017-11-29 00:00:00</t>
-  </si>
-  <si>
-    <t>Niederstaetter Leo</t>
-  </si>
-  <si>
-    <t>NDRLEO17H28F132T</t>
-  </si>
-  <si>
-    <t>2017-06-28 00:00:00</t>
-  </si>
-  <si>
-    <t>Orlando Amy</t>
-  </si>
-  <si>
-    <t>RLNMYA17E46F132T</t>
-  </si>
-  <si>
-    <t>2017-05-06 00:00:00</t>
-  </si>
-  <si>
-    <t>Prevedello  Timo</t>
-  </si>
-  <si>
-    <t>PRVTMI17T12F132L</t>
-  </si>
-  <si>
-    <t>2017-12-12 00:00:00</t>
-  </si>
-  <si>
-    <t>Scano Nicole</t>
-  </si>
-  <si>
-    <t>SCNNCL17D64F132B</t>
-  </si>
-  <si>
-    <t>2017-04-24 00:00:00</t>
-  </si>
-  <si>
-    <t>Stanzel Amira</t>
-  </si>
-  <si>
-    <t>STNMRA17E53F132I</t>
-  </si>
-  <si>
-    <t>2017-05-13 00:00:00</t>
-  </si>
-  <si>
-    <t>Winkler Paula</t>
-  </si>
-  <si>
-    <t>WNKPLA17R42B220L</t>
-  </si>
-  <si>
-    <t>2017-10-02 00:00:00</t>
-  </si>
-  <si>
-    <t>Ellecosta Emely</t>
-  </si>
-  <si>
-    <t>LLCMLY17S49B220J</t>
-  </si>
-  <si>
-    <t>2017-11-09 00:00:00</t>
-  </si>
-  <si>
-    <t>Oberhollenzer Ben</t>
-  </si>
-  <si>
-    <t>BRHBNE17P04B220J</t>
-  </si>
-  <si>
-    <t>2017-09-04 00:00:00</t>
-  </si>
-  <si>
-    <t>Priller  Yara</t>
-  </si>
-  <si>
-    <t>PRLYRA17D69B220C</t>
-  </si>
-  <si>
-    <t>2017-04-29 00:00:00</t>
-  </si>
-  <si>
-    <t>Taschler  Anton</t>
-  </si>
-  <si>
-    <t>TSCNTN17L08B220M</t>
-  </si>
-  <si>
-    <t>2017-07-08 00:00:00</t>
-  </si>
-  <si>
-    <t>Ausserhofer Matthias</t>
-  </si>
-  <si>
-    <t>SSRMTH17S09B220Q</t>
-  </si>
-  <si>
-    <t>Doda Denis</t>
-  </si>
-  <si>
-    <t>DDODNS17L05I729E</t>
-  </si>
-  <si>
-    <t>2017-07-05 00:00:00</t>
-  </si>
-  <si>
-    <t>Thoman Aimar Amalia</t>
-  </si>
-  <si>
-    <t>THMMLA17T69I729V</t>
-  </si>
-  <si>
-    <t>2017-12-29 00:00:00</t>
-  </si>
-  <si>
-    <t>Trafoier Alex</t>
-  </si>
-  <si>
-    <t>TRFLXA17S27I729K</t>
-  </si>
-  <si>
-    <t>2017-11-27 00:00:00</t>
-  </si>
-  <si>
-    <t>Woerndle Paul</t>
-  </si>
-  <si>
-    <t>WRNPLA17T13I729Z</t>
-  </si>
-  <si>
-    <t>2017-12-13 00:00:00</t>
-  </si>
-  <si>
-    <t>Gumpold Marius</t>
-  </si>
-  <si>
-    <t>GMPMRS17M28F132X</t>
-  </si>
-  <si>
-    <t>2017-08-28 00:00:00</t>
-  </si>
-  <si>
-    <t>Kofler Andreas</t>
-  </si>
-  <si>
-    <t>KFLNRS17S23F132N</t>
-  </si>
-  <si>
-    <t>2017-11-23 00:00:00</t>
-  </si>
-  <si>
-    <t>Lunger Ida</t>
-  </si>
-  <si>
-    <t>LNGDIA17S51A952F</t>
-  </si>
-  <si>
-    <t>2017-11-11 00:00:00</t>
-  </si>
-  <si>
-    <t>Pircher Hannes</t>
-  </si>
-  <si>
-    <t>PRCHNS17C08F132K</t>
-  </si>
-  <si>
-    <t>2017-03-08 00:00:00</t>
-  </si>
-  <si>
-    <t>Mayer Fabienne</t>
-  </si>
-  <si>
-    <t>MYRFNN17L67B160A</t>
-  </si>
-  <si>
-    <t>2017-07-27 00:00:00</t>
-  </si>
-  <si>
     <t>ROSINI ANJA</t>
   </si>
   <si>
@@ -961,6 +1231,222 @@
     <t>RSNRYN17L30A952Q</t>
   </si>
   <si>
+    <t>DAPUNT ZEILINGER MIRA</t>
+  </si>
+  <si>
+    <t>DPNMRI17D50Z102Q</t>
+  </si>
+  <si>
+    <t>2017-04-10 00:00:00</t>
+  </si>
+  <si>
+    <t>FRICK ELISABETH</t>
+  </si>
+  <si>
+    <t>FRCLBT17R71A952O</t>
+  </si>
+  <si>
+    <t>2017-10-31 00:00:00</t>
+  </si>
+  <si>
+    <t>RATSCHILLER ANTON LEO</t>
+  </si>
+  <si>
+    <t>RTSNNL17H25F132F</t>
+  </si>
+  <si>
+    <t>2017-06-25 00:00:00</t>
+  </si>
+  <si>
+    <t>SAILER SENI</t>
+  </si>
+  <si>
+    <t>SLRSNE17H23A952H</t>
+  </si>
+  <si>
+    <t>ALBERTI VICKY</t>
+  </si>
+  <si>
+    <t>LBRVKY17S43B160U</t>
+  </si>
+  <si>
+    <t>2017-11-03 00:00:00</t>
+  </si>
+  <si>
+    <t>NITZ MIA</t>
+  </si>
+  <si>
+    <t>NTZMIA17R46B160F</t>
+  </si>
+  <si>
+    <t>2017-10-06 00:00:00</t>
+  </si>
+  <si>
+    <t>BARBAGALLO GIADA</t>
+  </si>
+  <si>
+    <t>BRBGDI17L49A952B</t>
+  </si>
+  <si>
+    <t>2017-07-09 00:00:00</t>
+  </si>
+  <si>
+    <t>BAUR JOHANNA</t>
+  </si>
+  <si>
+    <t>BRAJNN17E61F132R</t>
+  </si>
+  <si>
+    <t>2017-05-21 00:00:00</t>
+  </si>
+  <si>
+    <t>MAIRHOFER MARIE</t>
+  </si>
+  <si>
+    <t>MRHMRA17R45F132N</t>
+  </si>
+  <si>
+    <t>2017-10-05 00:00:00</t>
+  </si>
+  <si>
+    <t>PARIS MARIE</t>
+  </si>
+  <si>
+    <t>PRSMRA17E53F132P</t>
+  </si>
+  <si>
+    <t>GAISER DARIA</t>
+  </si>
+  <si>
+    <t>GSRDRA17L61I729N</t>
+  </si>
+  <si>
+    <t>KLOTZNER LAHNER ELIAS</t>
+  </si>
+  <si>
+    <t>KLTLSE17P14F132J</t>
+  </si>
+  <si>
+    <t>2017-09-14 00:00:00</t>
+  </si>
+  <si>
+    <t>KAUFMANN SAMUEL</t>
+  </si>
+  <si>
+    <t>KFMSML17R13A952W</t>
+  </si>
+  <si>
+    <t>2017-10-13 00:00:00</t>
+  </si>
+  <si>
+    <t>TERLETH LUKAS</t>
+  </si>
+  <si>
+    <t>TRLLKS17R26A952Z</t>
+  </si>
+  <si>
+    <t>2017-10-26 00:00:00</t>
+  </si>
+  <si>
+    <t>THALER DOMINIK</t>
+  </si>
+  <si>
+    <t>THLDNK17S13F132U</t>
+  </si>
+  <si>
+    <t>2017-11-13 00:00:00</t>
+  </si>
+  <si>
+    <t>STEINWANDTER FELIX</t>
+  </si>
+  <si>
+    <t>STNFLX17T10B220L</t>
+  </si>
+  <si>
+    <t>2017-12-10 00:00:00</t>
+  </si>
+  <si>
+    <t>HEISS ANTON</t>
+  </si>
+  <si>
+    <t>HSSNTN17T11B220O</t>
+  </si>
+  <si>
+    <t>2017-12-11 00:00:00</t>
+  </si>
+  <si>
+    <t>HEISS MICHAEL</t>
+  </si>
+  <si>
+    <t>HSSMHL17T11B220O</t>
+  </si>
+  <si>
+    <t>HOFER EVA</t>
+  </si>
+  <si>
+    <t>HFRVEA17L50B160H</t>
+  </si>
+  <si>
+    <t>2017-07-10 00:00:00</t>
+  </si>
+  <si>
+    <t>LASTA VALENTIN</t>
+  </si>
+  <si>
+    <t>LSTVNT17E18B160K</t>
+  </si>
+  <si>
+    <t>RAGGI MATTIA</t>
+  </si>
+  <si>
+    <t>RGGMTT17E02B160Z</t>
+  </si>
+  <si>
+    <t>2017-05-02 00:00:00</t>
+  </si>
+  <si>
+    <t>STEINWANDTER ARTHUR</t>
+  </si>
+  <si>
+    <t>STNRHR17T17F132Y</t>
+  </si>
+  <si>
+    <t>2017-12-17 00:00:00</t>
+  </si>
+  <si>
+    <t>LOCHER LENI</t>
+  </si>
+  <si>
+    <t>LCHLNE17S63A952R</t>
+  </si>
+  <si>
+    <t>YILMAZ ELLA KATHARINA</t>
+  </si>
+  <si>
+    <t>YLMLKT17D63Z112N</t>
+  </si>
+  <si>
+    <t>2017-04-23 00:00:00</t>
+  </si>
+  <si>
+    <t>GRUNSER NADIN</t>
+  </si>
+  <si>
+    <t>GRNNDN17T47B220G</t>
+  </si>
+  <si>
+    <t>2017-12-07 00:00:00</t>
+  </si>
+  <si>
+    <t>HOFER HANNAH</t>
+  </si>
+  <si>
+    <t>HFRHNH17P65B160X</t>
+  </si>
+  <si>
+    <t>2017-09-25 00:00:00</t>
+  </si>
+  <si>
     <t>Controllo finanziamento compensativo</t>
   </si>
   <si>
@@ -1027,6 +1513,15 @@
     <t>2018-08-03 00:00:00</t>
   </si>
   <si>
+    <t>GLAESERER KILIAN</t>
+  </si>
+  <si>
+    <t>GLSKLN17H09B160O</t>
+  </si>
+  <si>
+    <t>2017-06-09 00:00:00</t>
+  </si>
+  <si>
     <t>Controllo Covid #1</t>
   </si>
   <si>
@@ -1114,6 +1609,42 @@
     <t>2019-07-24 00:00:00</t>
   </si>
   <si>
+    <t>SANTON PHILIPP</t>
+  </si>
+  <si>
+    <t>SNTPLP19A31B220R</t>
+  </si>
+  <si>
+    <t>2019-01-31 00:00:00</t>
+  </si>
+  <si>
+    <t>KNAPP MARTIN</t>
+  </si>
+  <si>
+    <t>KNPMTN19M09C372W</t>
+  </si>
+  <si>
+    <t>2019-08-09 00:00:00</t>
+  </si>
+  <si>
+    <t>DE ZORDO LEA SOFIE</t>
+  </si>
+  <si>
+    <t>DZRLSF19R50A952S</t>
+  </si>
+  <si>
+    <t>2019-10-10 00:00:00</t>
+  </si>
+  <si>
+    <t>JENNEWEIN MAX</t>
+  </si>
+  <si>
+    <t>JNNMXA18L09B220D</t>
+  </si>
+  <si>
+    <t>2018-07-09 00:00:00</t>
+  </si>
+  <si>
     <t>Controllo Fehler Eingewöhnung</t>
   </si>
   <si>
@@ -1213,9 +1744,6 @@
     <t>MLLDNL17L10I729Y</t>
   </si>
   <si>
-    <t>2017-07-10 00:00:00</t>
-  </si>
-  <si>
     <t>Gamper Martha</t>
   </si>
   <si>
@@ -1243,9 +1771,159 @@
     <t>2019-08-17 00:00:00</t>
   </si>
   <si>
+    <t>FLARER THEO</t>
+  </si>
+  <si>
+    <t>FLRTHE18L11F132U</t>
+  </si>
+  <si>
+    <t>2018-07-11 00:00:00</t>
+  </si>
+  <si>
+    <t>RIVELLI CASTILLO LOLA</t>
+  </si>
+  <si>
+    <t>RVLLLO17H42Z404I</t>
+  </si>
+  <si>
+    <t>2017-06-02 00:00:00</t>
+  </si>
+  <si>
+    <t>SIMONETTO GHELLER MATTEO</t>
+  </si>
+  <si>
+    <t>SMNMTT19E15A952W</t>
+  </si>
+  <si>
+    <t>2019-05-15 00:00:00</t>
+  </si>
+  <si>
+    <t>BIASI PAUL</t>
+  </si>
+  <si>
+    <t>BSIPLA18R31A952C</t>
+  </si>
+  <si>
+    <t>2018-10-31 00:00:00</t>
+  </si>
+  <si>
+    <t>MAIR FINN</t>
+  </si>
+  <si>
+    <t>MRAFNN19E01F132B</t>
+  </si>
+  <si>
+    <t>2019-05-01 00:00:00</t>
+  </si>
+  <si>
+    <t>BURCHIA PINO</t>
+  </si>
+  <si>
+    <t>BRCPNI17R15B160Y</t>
+  </si>
+  <si>
+    <t>2017-10-15 00:00:00</t>
+  </si>
+  <si>
+    <t>DIETL JULIAN</t>
+  </si>
+  <si>
+    <t>DTLJLN19D08I729J</t>
+  </si>
+  <si>
+    <t>2019-04-08 00:00:00</t>
+  </si>
+  <si>
+    <t>PICHLER PAUL</t>
+  </si>
+  <si>
+    <t>PCHPLA19P05B220X</t>
+  </si>
+  <si>
+    <t>2019-09-05 00:00:00</t>
+  </si>
+  <si>
     <t>Controllo Fehler Eingewöhnung 543 Lockdown</t>
   </si>
   <si>
+    <t>Steger Fiona</t>
+  </si>
+  <si>
+    <t>STGFNI19E63B220P</t>
+  </si>
+  <si>
+    <t>2019-05-23 00:00:00</t>
+  </si>
+  <si>
+    <t>Hafner Paul</t>
+  </si>
+  <si>
+    <t>HFNPLA18E20F132Q</t>
+  </si>
+  <si>
+    <t>2018-05-20 00:00:00</t>
+  </si>
+  <si>
+    <t>D´Altri Stella</t>
+  </si>
+  <si>
+    <t>DLTSLL19B61A944K</t>
+  </si>
+  <si>
+    <t>2019-02-21 00:00:00</t>
+  </si>
+  <si>
+    <t>Punter Julius</t>
+  </si>
+  <si>
+    <t>PNTJLS17H12A952S</t>
+  </si>
+  <si>
+    <t>2017-06-12 00:00:00</t>
+  </si>
+  <si>
+    <t>Punter  Emil</t>
+  </si>
+  <si>
+    <t>PNTMLE17H12A952H</t>
+  </si>
+  <si>
+    <t>Thaler Leia</t>
+  </si>
+  <si>
+    <t>THLLEI19A68F132X</t>
+  </si>
+  <si>
+    <t>2019-01-28 00:00:00</t>
+  </si>
+  <si>
+    <t>Battaglia Mattia</t>
+  </si>
+  <si>
+    <t>BTTMTT17P08B160L</t>
+  </si>
+  <si>
+    <t>2017-09-08 00:00:00</t>
+  </si>
+  <si>
+    <t>Eder Bruno</t>
+  </si>
+  <si>
+    <t>DREBRN19H09B220H</t>
+  </si>
+  <si>
+    <t>2019-06-09 00:00:00</t>
+  </si>
+  <si>
+    <t>Prantl Rosa</t>
+  </si>
+  <si>
+    <t>PRNRSO18B49F132Z</t>
+  </si>
+  <si>
+    <t>2018-02-09 00:00:00</t>
+  </si>
+  <si>
     <t>Jasar Jonny</t>
   </si>
   <si>
@@ -1255,84 +1933,6 @@
     <t>2018-02-12 00:00:00</t>
   </si>
   <si>
-    <t>Steger Fiona</t>
-  </si>
-  <si>
-    <t>STGFNI19E63B220P</t>
-  </si>
-  <si>
-    <t>2019-05-23 00:00:00</t>
-  </si>
-  <si>
-    <t>Hafner Paul</t>
-  </si>
-  <si>
-    <t>HFNPLA18E20F132Q</t>
-  </si>
-  <si>
-    <t>2018-05-20 00:00:00</t>
-  </si>
-  <si>
-    <t>D´Altri Stella</t>
-  </si>
-  <si>
-    <t>DLTSLL19B61A944K</t>
-  </si>
-  <si>
-    <t>2019-02-21 00:00:00</t>
-  </si>
-  <si>
-    <t>Punter Julius</t>
-  </si>
-  <si>
-    <t>PNTJLS17H12A952S</t>
-  </si>
-  <si>
-    <t>2017-06-12 00:00:00</t>
-  </si>
-  <si>
-    <t>Punter  Emil</t>
-  </si>
-  <si>
-    <t>PNTMLE17H12A952H</t>
-  </si>
-  <si>
-    <t>Thaler Leia</t>
-  </si>
-  <si>
-    <t>THLLEI19A68F132X</t>
-  </si>
-  <si>
-    <t>2019-01-28 00:00:00</t>
-  </si>
-  <si>
-    <t>Battaglia Mattia</t>
-  </si>
-  <si>
-    <t>BTTMTT17P08B160L</t>
-  </si>
-  <si>
-    <t>2017-09-08 00:00:00</t>
-  </si>
-  <si>
-    <t>Eder Bruno</t>
-  </si>
-  <si>
-    <t>DREBRN19H09B220H</t>
-  </si>
-  <si>
-    <t>2019-06-09 00:00:00</t>
-  </si>
-  <si>
-    <t>Prantl Rosa</t>
-  </si>
-  <si>
-    <t>PRNRSO18B49F132Z</t>
-  </si>
-  <si>
-    <t>2018-02-09 00:00:00</t>
-  </si>
-  <si>
     <t>DE COL BEATRICE</t>
   </si>
   <si>
@@ -1342,9 +1942,45 @@
     <t>2018-09-07 00:00:00</t>
   </si>
   <si>
+    <t>ZINGERLE MATHILDA</t>
+  </si>
+  <si>
+    <t>ZNGMHL19H64A952H</t>
+  </si>
+  <si>
+    <t>2019-06-24 00:00:00</t>
+  </si>
+  <si>
+    <t>HAFELE ELINA AURELIA</t>
+  </si>
+  <si>
+    <t>HFLLRL18A45I729A</t>
+  </si>
+  <si>
+    <t>2018-01-05 00:00:00</t>
+  </si>
+  <si>
     <t>Controllo Fehler Eingewöhnung 543 Notbetreuung</t>
   </si>
   <si>
+    <t>Billi Lorenzo</t>
+  </si>
+  <si>
+    <t>BLLLNZ20B12A952J</t>
+  </si>
+  <si>
+    <t>2020-02-12 00:00:00</t>
+  </si>
+  <si>
+    <t>Pircher Elsa Katharina</t>
+  </si>
+  <si>
+    <t>PRCLKT20B55I729Y</t>
+  </si>
+  <si>
+    <t>2020-02-15 00:00:00</t>
+  </si>
+  <si>
     <t>Weissteiner Maximilian</t>
   </si>
   <si>
@@ -1354,24 +1990,6 @@
     <t>2018-07-16 00:00:00</t>
   </si>
   <si>
-    <t>Pircher Elsa Katharina</t>
-  </si>
-  <si>
-    <t>PRCLKT20B55I729Y</t>
-  </si>
-  <si>
-    <t>2020-02-15 00:00:00</t>
-  </si>
-  <si>
-    <t>Billi Lorenzo</t>
-  </si>
-  <si>
-    <t>BLLLNZ20B12A952J</t>
-  </si>
-  <si>
-    <t>2020-02-12 00:00:00</t>
-  </si>
-  <si>
     <t>Fabris Nathan</t>
   </si>
   <si>
@@ -1405,9 +2023,6 @@
     <t>WGRMHL18M51B220M</t>
   </si>
   <si>
-    <t>2018-08-11 00:00:00</t>
-  </si>
-  <si>
     <t>Barcatta Lisa</t>
   </si>
   <si>
@@ -1483,6 +2098,78 @@
     <t>2018-06-29 00:00:00</t>
   </si>
   <si>
+    <t>MIRANDOLA LENZ</t>
+  </si>
+  <si>
+    <t>MRNLNZ19C17F132A</t>
+  </si>
+  <si>
+    <t>2019-03-17 00:00:00</t>
+  </si>
+  <si>
+    <t>ALESSI CLOE</t>
+  </si>
+  <si>
+    <t>LSSCLO20C51F132E</t>
+  </si>
+  <si>
+    <t>2020-03-11 00:00:00</t>
+  </si>
+  <si>
+    <t>BOVA SOPHIE</t>
+  </si>
+  <si>
+    <t>BVOSPH19D55A952V</t>
+  </si>
+  <si>
+    <t>2019-04-15 00:00:00</t>
+  </si>
+  <si>
+    <t>OCHSENREITER JAKOB</t>
+  </si>
+  <si>
+    <t>CHSJKB20M06A952B</t>
+  </si>
+  <si>
+    <t>2020-08-06 00:00:00</t>
+  </si>
+  <si>
+    <t>GURNDIN LENA</t>
+  </si>
+  <si>
+    <t>GRNLNE18L44F132V</t>
+  </si>
+  <si>
+    <t>2018-07-04 00:00:00</t>
+  </si>
+  <si>
+    <t>WIDMANN NIKLAS JAN</t>
+  </si>
+  <si>
+    <t>WDMNLS19C11F132C</t>
+  </si>
+  <si>
+    <t>2019-03-11 00:00:00</t>
+  </si>
+  <si>
+    <t>HOFER LEO *</t>
+  </si>
+  <si>
+    <t>HFRLEO18C02B160M</t>
+  </si>
+  <si>
+    <t>2018-03-02 00:00:00</t>
+  </si>
+  <si>
+    <t>MOSER ELIAS</t>
+  </si>
+  <si>
+    <t>MSRLSE18M18B220W</t>
+  </si>
+  <si>
+    <t>2018-08-18 00:00:00</t>
+  </si>
+  <si>
     <t>Controllo ore complessive periodo contrattuale</t>
   </si>
   <si>
@@ -1495,6 +2182,21 @@
     <t>2019-04-28 00:00:00</t>
   </si>
   <si>
+    <t>GRIESSMAIR SIMON</t>
+  </si>
+  <si>
+    <t>GRSSMN17H30F132E</t>
+  </si>
+  <si>
+    <t>2017-06-30 00:00:00</t>
+  </si>
+  <si>
+    <t>REITER LUCA</t>
+  </si>
+  <si>
+    <t>RTRLCU17E18F132Q</t>
+  </si>
+  <si>
     <t>Bambino presente in più comuni</t>
   </si>
   <si>
@@ -1579,6 +2281,141 @@
     <t>2018-02-20 00:00:00</t>
   </si>
   <si>
+    <t>Chiodo Kamenchuk Oliver</t>
+  </si>
+  <si>
+    <t>CHDLVR18H25A952Y</t>
+  </si>
+  <si>
+    <t>2018-06-25 00:00:00</t>
+  </si>
+  <si>
+    <t>BAUMGARTNER PAUL /</t>
+  </si>
+  <si>
+    <t>BMGPLA19P29A952I</t>
+  </si>
+  <si>
+    <t>2019-09-29 00:00:00</t>
+  </si>
+  <si>
+    <t>BERTACCHE SAMUEL</t>
+  </si>
+  <si>
+    <t>BRTSML17P23A952Y</t>
+  </si>
+  <si>
+    <t>2017-09-23 00:00:00</t>
+  </si>
+  <si>
+    <t>CHIODO KAMENCHUK OLIVER</t>
+  </si>
+  <si>
+    <t>FILZ THIBAUD</t>
+  </si>
+  <si>
+    <t>FLZTBD17R22A952S</t>
+  </si>
+  <si>
+    <t>2017-10-22 00:00:00</t>
+  </si>
+  <si>
+    <t>TRATTER JOHANNES</t>
+  </si>
+  <si>
+    <t>TRTJNN18M26B160I</t>
+  </si>
+  <si>
+    <t>2018-08-26 00:00:00</t>
+  </si>
+  <si>
+    <t>TRATTER PIA</t>
+  </si>
+  <si>
+    <t>TRTPIA17H43B160S</t>
+  </si>
+  <si>
+    <t>2017-06-03 00:00:00</t>
+  </si>
+  <si>
+    <t>MAIR FINN /</t>
+  </si>
+  <si>
+    <t>HOCHKOFLER NADINE</t>
+  </si>
+  <si>
+    <t>HCHNDN17M53I729Y</t>
+  </si>
+  <si>
+    <t>2017-08-13 00:00:00</t>
+  </si>
+  <si>
+    <t>KOFLER PAULI</t>
+  </si>
+  <si>
+    <t>KFLPLA19H24B220Y</t>
+  </si>
+  <si>
+    <t>BREDENHOELLER LILLY SOPHIE /</t>
+  </si>
+  <si>
+    <t>BRDLLY18M66F132T</t>
+  </si>
+  <si>
+    <t>VILL LIAM /</t>
+  </si>
+  <si>
+    <t>VLLLMI18E15I729L</t>
+  </si>
+  <si>
+    <t>2018-05-15 00:00:00</t>
+  </si>
+  <si>
+    <t>BREDENHOELLER LILLY SOPHIE</t>
+  </si>
+  <si>
+    <t>PLONER LEONIE /</t>
+  </si>
+  <si>
+    <t>PLNLNE20D45A952Z</t>
+  </si>
+  <si>
+    <t>2020-04-05 00:00:00</t>
+  </si>
+  <si>
+    <t>PLONER MARIAN /</t>
+  </si>
+  <si>
+    <t>PLNMRN18L26B160A</t>
+  </si>
+  <si>
+    <t>2018-07-26 00:00:00</t>
+  </si>
+  <si>
+    <t>KOFLER PAULI /</t>
+  </si>
+  <si>
+    <t>FILZ THIBAUD /neu</t>
+  </si>
+  <si>
+    <t>PLONER LEONIE</t>
+  </si>
+  <si>
+    <t>PLONER MARIAN</t>
+  </si>
+  <si>
+    <t>VILL LIAM</t>
+  </si>
+  <si>
+    <t>TRATTER JOHANNES /</t>
+  </si>
+  <si>
+    <t>TRATTER PIA /</t>
+  </si>
+  <si>
+    <t>BAUMGARTNER PAUL //</t>
+  </si>
+  <si>
     <t>Bambini con annotazioni</t>
   </si>
   <si>
@@ -1589,6 +2426,192 @@
   </si>
   <si>
     <t>2017-04-05 00:00:00</t>
+  </si>
+  <si>
+    <t>STEINER EMMA /</t>
+  </si>
+  <si>
+    <t>STNMME18C48B220A</t>
+  </si>
+  <si>
+    <t>STAUDER JOHANNA *</t>
+  </si>
+  <si>
+    <t>STDJNN18R71A952E</t>
+  </si>
+  <si>
+    <t>KAUFMANN JONAS /</t>
+  </si>
+  <si>
+    <t>KFMJNS18S22F132I</t>
+  </si>
+  <si>
+    <t>2018-11-22 00:00:00</t>
+  </si>
+  <si>
+    <t>Controllo ore rendicontate uguali a zero</t>
+  </si>
+  <si>
+    <t>FERRARI PIETRO</t>
+  </si>
+  <si>
+    <t>FRRPTR15C31I729P</t>
+  </si>
+  <si>
+    <t>2015-03-31 00:00:00</t>
+  </si>
+  <si>
+    <t>INTROVIGNE NICOLAS</t>
+  </si>
+  <si>
+    <t>NTRNLS15R02A952B</t>
+  </si>
+  <si>
+    <t>2015-10-02 00:00:00</t>
+  </si>
+  <si>
+    <t>LUNZ LUCAS</t>
+  </si>
+  <si>
+    <t>LNZLCS15T04A952D</t>
+  </si>
+  <si>
+    <t>2015-12-04 00:00:00</t>
+  </si>
+  <si>
+    <t>PISTORE LUCA</t>
+  </si>
+  <si>
+    <t>PSTLCU16M12F132K</t>
+  </si>
+  <si>
+    <t>2016-08-12 00:00:00</t>
+  </si>
+  <si>
+    <t>PRUENSTER EMMA</t>
+  </si>
+  <si>
+    <t>PRNMME15B47F132J</t>
+  </si>
+  <si>
+    <t>2015-02-07 00:00:00</t>
+  </si>
+  <si>
+    <t>KNAPP SEBASTIAN</t>
+  </si>
+  <si>
+    <t>KNPSST16B04A952J</t>
+  </si>
+  <si>
+    <t>2016-02-04 00:00:00</t>
+  </si>
+  <si>
+    <t>ZUBLASING PAUL</t>
+  </si>
+  <si>
+    <t>ZBLPLA16D16F132L</t>
+  </si>
+  <si>
+    <t>2016-04-16 00:00:00</t>
+  </si>
+  <si>
+    <t>LARCHER CARL</t>
+  </si>
+  <si>
+    <t>LRCCRL16C09F132O</t>
+  </si>
+  <si>
+    <t>2016-03-09 00:00:00</t>
+  </si>
+  <si>
+    <t>LOCHMANN MORITZ</t>
+  </si>
+  <si>
+    <t>LCHMTZ15D23F132E</t>
+  </si>
+  <si>
+    <t>2015-04-23 00:00:00</t>
+  </si>
+  <si>
+    <t>MARGESIN HANNA</t>
+  </si>
+  <si>
+    <t>MRGHNN15M71F132D</t>
+  </si>
+  <si>
+    <t>2015-08-31 00:00:00</t>
+  </si>
+  <si>
+    <t>RAFFEINER SAMEER (neu)</t>
+  </si>
+  <si>
+    <t>RFFSMR15L20F132A</t>
+  </si>
+  <si>
+    <t>2015-07-20 00:00:00</t>
+  </si>
+  <si>
+    <t>SILBERNAGL ILVY</t>
+  </si>
+  <si>
+    <t>SLBLVY15C48F132K</t>
+  </si>
+  <si>
+    <t>2015-03-08 00:00:00</t>
+  </si>
+  <si>
+    <t>DELLANTONIO SEBASTIAN</t>
+  </si>
+  <si>
+    <t>DLLSST16T07A952J</t>
+  </si>
+  <si>
+    <t>2016-12-07 00:00:00</t>
+  </si>
+  <si>
+    <t>LARENTIS STEFAN</t>
+  </si>
+  <si>
+    <t>LRNSFN15D10A952A</t>
+  </si>
+  <si>
+    <t>2015-04-10 00:00:00</t>
+  </si>
+  <si>
+    <t>PETTOROSSI MARTA</t>
+  </si>
+  <si>
+    <t>PTTMRT16S53A952G</t>
+  </si>
+  <si>
+    <t>2016-11-13 00:00:00</t>
+  </si>
+  <si>
+    <t>WEISSENHORN JANA</t>
+  </si>
+  <si>
+    <t>WSSJNA16E70A952F</t>
+  </si>
+  <si>
+    <t>2016-05-30 00:00:00</t>
+  </si>
+  <si>
+    <t>SERAFINO ALESSIO</t>
+  </si>
+  <si>
+    <t>SRFLSS18B22I729Q</t>
+  </si>
+  <si>
+    <t>2018-02-22 00:00:00</t>
+  </si>
+  <si>
+    <t>HOFER JOHANNA</t>
+  </si>
+  <si>
+    <t>HFRJNN16S44A952E</t>
+  </si>
+  <si>
+    <t>2016-11-04 00:00:00</t>
   </si>
 </sst>
 </file>
@@ -1929,7 +2952,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D303"/>
+  <dimension ref="A1:D483"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2015,2020 +3038,2086 @@
         <v>15</v>
       </c>
     </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="B23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="D23" t="s">
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="B24" t="s">
+    <row r="26" spans="1:4">
+      <c r="B26" t="s">
         <v>20</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C26" t="s">
         <v>21</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D26" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:4">
+      <c r="B27" t="s">
         <v>23</v>
+      </c>
+      <c r="C27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="B28" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="B29" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="B30" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="B31" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D31" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="B32" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D32" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" t="s">
         <v>40</v>
       </c>
-      <c r="D33" t="s">
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="2:4">
-      <c r="B34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" t="s">
-        <v>40</v>
-      </c>
-      <c r="D34" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" t="s">
+    <row r="36" spans="1:4">
+      <c r="B36" t="s">
         <v>42</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>43</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D36" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="2:4">
-      <c r="B36" t="s">
+    <row r="37" spans="1:4">
+      <c r="B37" t="s">
         <v>45</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>46</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D37" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="2:4">
-      <c r="B37" t="s">
+    <row r="38" spans="1:4">
+      <c r="B38" t="s">
         <v>48</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
         <v>49</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D38" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="2:4">
-      <c r="B38" t="s">
+    <row r="40" spans="1:4">
+      <c r="A40" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C38" t="s">
+    </row>
+    <row r="42" spans="1:4">
+      <c r="B42" t="s">
         <v>52</v>
       </c>
-      <c r="D38" t="s">
+      <c r="C42" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="39" spans="2:4">
-      <c r="B39" t="s">
+      <c r="D42" t="s">
         <v>54</v>
       </c>
-      <c r="C39" t="s">
+    </row>
+    <row r="43" spans="1:4">
+      <c r="B43" t="s">
         <v>55</v>
       </c>
-      <c r="D39" t="s">
+      <c r="C43" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="40" spans="2:4">
-      <c r="B40" t="s">
+      <c r="D43" t="s">
         <v>57</v>
       </c>
-      <c r="C40" t="s">
+    </row>
+    <row r="44" spans="1:4">
+      <c r="B44" t="s">
         <v>58</v>
       </c>
-      <c r="D40" t="s">
+      <c r="C44" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="41" spans="2:4">
-      <c r="B41" t="s">
+      <c r="D44" t="s">
         <v>60</v>
       </c>
-      <c r="C41" t="s">
+    </row>
+    <row r="45" spans="1:4">
+      <c r="B45" t="s">
         <v>61</v>
       </c>
-      <c r="D41" t="s">
+      <c r="C45" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="42" spans="2:4">
-      <c r="B42" t="s">
+      <c r="D45" t="s">
         <v>63</v>
       </c>
-      <c r="C42" t="s">
+    </row>
+    <row r="46" spans="1:4">
+      <c r="B46" t="s">
         <v>64</v>
       </c>
-      <c r="D42" t="s">
+      <c r="C46" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="43" spans="2:4">
-      <c r="B43" t="s">
+      <c r="D46" t="s">
         <v>66</v>
       </c>
-      <c r="C43" t="s">
+    </row>
+    <row r="47" spans="1:4">
+      <c r="B47" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D43" t="s">
+    </row>
+    <row r="51" spans="1:4">
+      <c r="B51" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="44" spans="2:4">
-      <c r="B44" t="s">
+      <c r="C51" t="s">
         <v>69</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D51" t="s">
         <v>70</v>
       </c>
-      <c r="D44" t="s">
+    </row>
+    <row r="52" spans="1:4">
+      <c r="B52" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="45" spans="2:4">
-      <c r="B45" t="s">
-        <v>69</v>
-      </c>
-      <c r="C45" t="s">
-        <v>70</v>
-      </c>
-      <c r="D45" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4">
-      <c r="B46" t="s">
+      <c r="C52" t="s">
         <v>72</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D52" t="s">
         <v>73</v>
       </c>
-      <c r="D46" t="s">
+    </row>
+    <row r="53" spans="1:4">
+      <c r="B53" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="47" spans="2:4">
-      <c r="B47" t="s">
-        <v>72</v>
-      </c>
-      <c r="C47" t="s">
-        <v>73</v>
-      </c>
-      <c r="D47" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4">
-      <c r="B48" t="s">
+      <c r="C53" t="s">
         <v>75</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D53" t="s">
         <v>76</v>
       </c>
-      <c r="D48" t="s">
+    </row>
+    <row r="54" spans="1:4">
+      <c r="B54" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="49" spans="2:4">
-      <c r="B49" t="s">
+      <c r="C54" t="s">
         <v>78</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D54" t="s">
         <v>79</v>
       </c>
-      <c r="D49" t="s">
+    </row>
+    <row r="55" spans="1:4">
+      <c r="B55" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="50" spans="2:4">
-      <c r="B50" t="s">
+      <c r="C55" t="s">
         <v>81</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D55" t="s">
         <v>82</v>
       </c>
-      <c r="D50" t="s">
+    </row>
+    <row r="56" spans="1:4">
+      <c r="B56" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="51" spans="2:4">
-      <c r="B51" t="s">
-        <v>81</v>
-      </c>
-      <c r="C51" t="s">
-        <v>82</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="C56" t="s">
+        <v>84</v>
+      </c>
+      <c r="D56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="B57" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="52" spans="2:4">
-      <c r="B52" t="s">
+      <c r="C57" t="s">
         <v>84</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D57" t="s">
         <v>85</v>
       </c>
-      <c r="D52" t="s">
+    </row>
+    <row r="58" spans="1:4">
+      <c r="B58" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="53" spans="2:4">
-      <c r="B53" t="s">
+      <c r="C58" t="s">
         <v>87</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D58" t="s">
         <v>88</v>
       </c>
-      <c r="D53" t="s">
+    </row>
+    <row r="59" spans="1:4">
+      <c r="B59" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="54" spans="2:4">
-      <c r="B54" t="s">
+      <c r="C59" t="s">
         <v>90</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D59" t="s">
         <v>91</v>
       </c>
-      <c r="D54" t="s">
+    </row>
+    <row r="60" spans="1:4">
+      <c r="B60" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="55" spans="2:4">
-      <c r="B55" t="s">
+      <c r="C60" t="s">
         <v>93</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D60" t="s">
         <v>94</v>
       </c>
-      <c r="D55" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4">
-      <c r="B56" t="s">
+    </row>
+    <row r="61" spans="1:4">
+      <c r="B61" t="s">
         <v>95</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C61" t="s">
         <v>96</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D61" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="57" spans="2:4">
-      <c r="B57" t="s">
+    <row r="62" spans="1:4">
+      <c r="B62" t="s">
         <v>98</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C62" t="s">
         <v>99</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D62" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="2:4">
-      <c r="B58" t="s">
+    <row r="63" spans="1:4">
+      <c r="B63" t="s">
         <v>101</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C63" t="s">
         <v>102</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D63" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="59" spans="2:4">
-      <c r="B59" t="s">
+    <row r="64" spans="1:4">
+      <c r="B64" t="s">
         <v>104</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C64" t="s">
         <v>105</v>
       </c>
-      <c r="D59" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4">
-      <c r="B60" t="s">
+      <c r="D64" t="s">
         <v>106</v>
-      </c>
-      <c r="C60" t="s">
-        <v>107</v>
-      </c>
-      <c r="D60" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4">
-      <c r="B61" t="s">
-        <v>108</v>
-      </c>
-      <c r="C61" t="s">
-        <v>109</v>
-      </c>
-      <c r="D61" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4">
-      <c r="B62" t="s">
-        <v>111</v>
-      </c>
-      <c r="C62" t="s">
-        <v>112</v>
-      </c>
-      <c r="D62" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4">
-      <c r="B63" t="s">
-        <v>113</v>
-      </c>
-      <c r="C63" t="s">
-        <v>114</v>
-      </c>
-      <c r="D63" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4">
-      <c r="B64" t="s">
-        <v>116</v>
-      </c>
-      <c r="C64" t="s">
-        <v>117</v>
-      </c>
-      <c r="D64" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="65" spans="2:4">
       <c r="B65" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C65" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D65" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="66" spans="2:4">
       <c r="B66" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C66" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D66" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
     </row>
     <row r="67" spans="2:4">
       <c r="B67" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="C67" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="D67" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="68" spans="2:4">
       <c r="B68" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="C68" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="D68" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="69" spans="2:4">
       <c r="B69" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="C69" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="D69" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="70" spans="2:4">
       <c r="B70" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C70" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="D70" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="71" spans="2:4">
       <c r="B71" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="C71" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="D71" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="72" spans="2:4">
       <c r="B72" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C72" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="D72" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="73" spans="2:4">
       <c r="B73" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C73" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="D73" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="74" spans="2:4">
       <c r="B74" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="C74" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="D74" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="75" spans="2:4">
       <c r="B75" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="C75" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="D75" t="s">
-        <v>56</v>
+        <v>130</v>
       </c>
     </row>
     <row r="76" spans="2:4">
       <c r="B76" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C76" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="D76" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="77" spans="2:4">
       <c r="B77" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C77" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D77" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="78" spans="2:4">
       <c r="B78" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C78" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D78" t="s">
-        <v>148</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" spans="2:4">
       <c r="B79" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C79" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D79" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="80" spans="2:4">
       <c r="B80" t="s">
+        <v>142</v>
+      </c>
+      <c r="C80" t="s">
+        <v>143</v>
+      </c>
+      <c r="D80" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4">
+      <c r="B81" t="s">
+        <v>145</v>
+      </c>
+      <c r="C81" t="s">
+        <v>146</v>
+      </c>
+      <c r="D81" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4">
+      <c r="B82" t="s">
+        <v>148</v>
+      </c>
+      <c r="C82" t="s">
+        <v>149</v>
+      </c>
+      <c r="D82" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4">
+      <c r="B83" t="s">
+        <v>150</v>
+      </c>
+      <c r="C83" t="s">
+        <v>151</v>
+      </c>
+      <c r="D83" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4">
+      <c r="B84" t="s">
         <v>152</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C84" t="s">
         <v>153</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D84" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
-      <c r="B81" t="s">
+    <row r="85" spans="2:4">
+      <c r="B85" t="s">
         <v>155</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C85" t="s">
         <v>156</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D85" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4">
+      <c r="B86" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="B82" t="s">
+      <c r="C86" t="s">
         <v>158</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D86" t="s">
         <v>159</v>
       </c>
-      <c r="D82" t="s">
+    </row>
+    <row r="87" spans="2:4">
+      <c r="B87" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="B83" t="s">
+      <c r="C87" t="s">
         <v>161</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D87" t="s">
         <v>162</v>
       </c>
-      <c r="D83" t="s">
+    </row>
+    <row r="88" spans="2:4">
+      <c r="B88" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="B84" t="s">
+      <c r="C88" t="s">
         <v>164</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D88" t="s">
         <v>165</v>
       </c>
-      <c r="D84" t="s">
+    </row>
+    <row r="89" spans="2:4">
+      <c r="B89" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="B85" t="s">
+      <c r="C89" t="s">
         <v>167</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D89" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4">
+      <c r="B90" t="s">
         <v>168</v>
       </c>
-      <c r="D85" t="s">
+      <c r="C90" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="B86" t="s">
+      <c r="D90" t="s">
         <v>170</v>
       </c>
-      <c r="C86" t="s">
+    </row>
+    <row r="91" spans="2:4">
+      <c r="B91" t="s">
         <v>171</v>
       </c>
-      <c r="D86" t="s">
+      <c r="C91" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="B87" t="s">
+      <c r="D91" t="s">
         <v>173</v>
       </c>
-      <c r="C87" t="s">
+    </row>
+    <row r="92" spans="2:4">
+      <c r="B92" t="s">
+        <v>171</v>
+      </c>
+      <c r="C92" t="s">
+        <v>172</v>
+      </c>
+      <c r="D92" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4">
+      <c r="B93" t="s">
         <v>174</v>
       </c>
-      <c r="D87" t="s">
+      <c r="C93" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="B88" t="s">
+      <c r="D93" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4">
+      <c r="B94" t="s">
+        <v>174</v>
+      </c>
+      <c r="C94" t="s">
+        <v>175</v>
+      </c>
+      <c r="D94" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4">
+      <c r="B95" t="s">
         <v>176</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C95" t="s">
         <v>177</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D95" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="1" t="s">
+    <row r="96" spans="2:4">
+      <c r="B96" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="B92" t="s">
+      <c r="C96" t="s">
         <v>180</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D96" t="s">
         <v>181</v>
-      </c>
-      <c r="D92" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="B93" t="s">
-        <v>17</v>
-      </c>
-      <c r="C93" t="s">
-        <v>18</v>
-      </c>
-      <c r="D93" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="B94" t="s">
-        <v>183</v>
-      </c>
-      <c r="C94" t="s">
-        <v>184</v>
-      </c>
-      <c r="D94" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="B95" t="s">
-        <v>186</v>
-      </c>
-      <c r="C95" t="s">
-        <v>187</v>
-      </c>
-      <c r="D95" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="B96" t="s">
-        <v>189</v>
-      </c>
-      <c r="C96" t="s">
-        <v>190</v>
-      </c>
-      <c r="D96" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="97" spans="2:4">
       <c r="B97" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C97" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="D97" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="98" spans="2:4">
       <c r="B98" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="C98" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D98" t="s">
-        <v>197</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99" spans="2:4">
       <c r="B99" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="C99" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="D99" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="100" spans="2:4">
       <c r="B100" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="C100" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="D100" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
     </row>
     <row r="101" spans="2:4">
       <c r="B101" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="C101" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="D101" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
     </row>
     <row r="102" spans="2:4">
       <c r="B102" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="C102" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D102" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
     </row>
     <row r="103" spans="2:4">
       <c r="B103" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="C103" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="D103" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
     </row>
     <row r="104" spans="2:4">
       <c r="B104" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="C104" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="D104" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
     </row>
     <row r="105" spans="2:4">
       <c r="B105" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="C105" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="D105" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
     </row>
     <row r="106" spans="2:4">
       <c r="B106" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="C106" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="D106" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
     </row>
     <row r="107" spans="2:4">
       <c r="B107" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="C107" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="D107" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
     </row>
     <row r="108" spans="2:4">
       <c r="B108" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="C108" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="D108" t="s">
-        <v>227</v>
+        <v>63</v>
       </c>
     </row>
     <row r="109" spans="2:4">
       <c r="B109" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="C109" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="D109" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
     </row>
     <row r="110" spans="2:4">
       <c r="B110" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="C110" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="D110" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
     </row>
     <row r="111" spans="2:4">
       <c r="B111" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="C111" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="D111" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
     </row>
     <row r="112" spans="2:4">
       <c r="B112" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="C112" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="D112" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
     </row>
     <row r="113" spans="2:4">
       <c r="B113" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C113" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="D113" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
     </row>
     <row r="114" spans="2:4">
       <c r="B114" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="C114" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="D114" t="s">
-        <v>244</v>
+        <v>106</v>
       </c>
     </row>
     <row r="115" spans="2:4">
       <c r="B115" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="C115" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="D115" t="s">
-        <v>247</v>
+        <v>70</v>
       </c>
     </row>
     <row r="116" spans="2:4">
       <c r="B116" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="C116" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="D116" t="s">
-        <v>250</v>
+        <v>121</v>
       </c>
     </row>
     <row r="117" spans="2:4">
       <c r="B117" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="C117" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="D117" t="s">
-        <v>253</v>
+        <v>218</v>
       </c>
     </row>
     <row r="118" spans="2:4">
       <c r="B118" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="C118" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="D118" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
     </row>
     <row r="119" spans="2:4">
       <c r="B119" t="s">
-        <v>254</v>
+        <v>61</v>
       </c>
       <c r="C119" t="s">
-        <v>255</v>
+        <v>62</v>
       </c>
       <c r="D119" t="s">
-        <v>256</v>
+        <v>63</v>
       </c>
     </row>
     <row r="120" spans="2:4">
       <c r="B120" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="C120" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="D120" t="s">
-        <v>259</v>
+        <v>94</v>
       </c>
     </row>
     <row r="121" spans="2:4">
       <c r="B121" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="C121" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="D121" t="s">
-        <v>262</v>
+        <v>221</v>
       </c>
     </row>
     <row r="122" spans="2:4">
       <c r="B122" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="C122" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="D122" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
     </row>
     <row r="123" spans="2:4">
       <c r="B123" t="s">
-        <v>266</v>
+        <v>64</v>
       </c>
       <c r="C123" t="s">
-        <v>267</v>
+        <v>65</v>
       </c>
       <c r="D123" t="s">
-        <v>268</v>
+        <v>66</v>
       </c>
     </row>
     <row r="124" spans="2:4">
       <c r="B124" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="C124" t="s">
-        <v>270</v>
+        <v>96</v>
       </c>
       <c r="D124" t="s">
-        <v>271</v>
+        <v>97</v>
       </c>
     </row>
     <row r="125" spans="2:4">
       <c r="B125" t="s">
-        <v>272</v>
+        <v>245</v>
       </c>
       <c r="C125" t="s">
-        <v>273</v>
+        <v>246</v>
       </c>
       <c r="D125" t="s">
-        <v>274</v>
+        <v>221</v>
       </c>
     </row>
     <row r="126" spans="2:4">
       <c r="B126" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="C126" t="s">
-        <v>276</v>
+        <v>248</v>
       </c>
       <c r="D126" t="s">
-        <v>277</v>
+        <v>91</v>
       </c>
     </row>
     <row r="127" spans="2:4">
       <c r="B127" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="C127" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="D127" t="s">
-        <v>280</v>
+        <v>207</v>
       </c>
     </row>
     <row r="128" spans="2:4">
       <c r="B128" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="C128" t="s">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="D128" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="B129" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="C129" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="D129" t="s">
-        <v>285</v>
+        <v>192</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="B130" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="C130" t="s">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="D130" t="s">
-        <v>288</v>
+        <v>195</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="B131" t="s">
-        <v>289</v>
+        <v>258</v>
       </c>
       <c r="C131" t="s">
-        <v>290</v>
+        <v>259</v>
       </c>
       <c r="D131" t="s">
-        <v>291</v>
+        <v>192</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="B132" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
       <c r="C132" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="D132" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="B133" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="C133" t="s">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="D133" t="s">
-        <v>297</v>
+        <v>265</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="B134" t="s">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="C134" t="s">
-        <v>299</v>
+        <v>267</v>
       </c>
       <c r="D134" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
-      <c r="B135" t="s">
-        <v>301</v>
-      </c>
-      <c r="C135" t="s">
-        <v>302</v>
-      </c>
-      <c r="D135" t="s">
-        <v>303</v>
+        <v>268</v>
       </c>
     </row>
     <row r="136" spans="1:4">
-      <c r="B136" t="s">
-        <v>304</v>
-      </c>
-      <c r="C136" t="s">
-        <v>305</v>
-      </c>
-      <c r="D136" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
-      <c r="B137" t="s">
-        <v>307</v>
-      </c>
-      <c r="C137" t="s">
-        <v>308</v>
-      </c>
-      <c r="D137" t="s">
-        <v>309</v>
+      <c r="A136" s="1" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="B138" t="s">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="C138" t="s">
-        <v>311</v>
+        <v>271</v>
       </c>
       <c r="D138" t="s">
-        <v>312</v>
+        <v>272</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="B139" t="s">
-        <v>313</v>
+        <v>273</v>
       </c>
       <c r="C139" t="s">
-        <v>314</v>
+        <v>274</v>
       </c>
       <c r="D139" t="s">
-        <v>312</v>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="B140" t="s">
+        <v>276</v>
+      </c>
+      <c r="C140" t="s">
+        <v>277</v>
+      </c>
+      <c r="D140" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="141" spans="1:4">
-      <c r="A141" s="1" t="s">
-        <v>315</v>
+      <c r="B141" t="s">
+        <v>279</v>
+      </c>
+      <c r="C141" t="s">
+        <v>280</v>
+      </c>
+      <c r="D141" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="B142" t="s">
+        <v>282</v>
+      </c>
+      <c r="C142" t="s">
+        <v>283</v>
+      </c>
+      <c r="D142" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="B143" t="s">
-        <v>316</v>
+        <v>285</v>
       </c>
       <c r="C143" t="s">
-        <v>317</v>
+        <v>286</v>
       </c>
       <c r="D143" t="s">
-        <v>318</v>
+        <v>287</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="B144" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="C144" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="D144" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4">
       <c r="B145" t="s">
+        <v>291</v>
+      </c>
+      <c r="C145" t="s">
+        <v>292</v>
+      </c>
+      <c r="D145" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4">
+      <c r="B146" t="s">
+        <v>294</v>
+      </c>
+      <c r="C146" t="s">
+        <v>295</v>
+      </c>
+      <c r="D146" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4">
+      <c r="B147" t="s">
+        <v>297</v>
+      </c>
+      <c r="C147" t="s">
+        <v>298</v>
+      </c>
+      <c r="D147" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4">
+      <c r="B148" t="s">
+        <v>300</v>
+      </c>
+      <c r="C148" t="s">
+        <v>301</v>
+      </c>
+      <c r="D148" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4">
+      <c r="B149" t="s">
+        <v>303</v>
+      </c>
+      <c r="C149" t="s">
+        <v>304</v>
+      </c>
+      <c r="D149" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4">
+      <c r="B150" t="s">
+        <v>306</v>
+      </c>
+      <c r="C150" t="s">
+        <v>307</v>
+      </c>
+      <c r="D150" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4">
+      <c r="B151" t="s">
+        <v>309</v>
+      </c>
+      <c r="C151" t="s">
+        <v>310</v>
+      </c>
+      <c r="D151" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4">
+      <c r="B152" t="s">
+        <v>312</v>
+      </c>
+      <c r="C152" t="s">
+        <v>313</v>
+      </c>
+      <c r="D152" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4">
+      <c r="B153" t="s">
+        <v>315</v>
+      </c>
+      <c r="C153" t="s">
+        <v>316</v>
+      </c>
+      <c r="D153" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4">
+      <c r="B154" t="s">
+        <v>317</v>
+      </c>
+      <c r="C154" t="s">
+        <v>318</v>
+      </c>
+      <c r="D154" t="s">
         <v>319</v>
       </c>
-      <c r="C145" t="s">
+    </row>
+    <row r="155" spans="2:4">
+      <c r="B155" t="s">
         <v>320</v>
       </c>
-      <c r="D145" t="s">
+      <c r="C155" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="146" spans="1:4">
-      <c r="B146" t="s">
+      <c r="D155" t="s">
         <v>322</v>
       </c>
-      <c r="C146" t="s">
+    </row>
+    <row r="156" spans="2:4">
+      <c r="B156" t="s">
         <v>323</v>
       </c>
-      <c r="D146" t="s">
+      <c r="C156" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="147" spans="1:4">
-      <c r="B147" t="s">
+      <c r="D156" t="s">
         <v>325</v>
       </c>
-      <c r="C147" t="s">
+    </row>
+    <row r="157" spans="2:4">
+      <c r="B157" t="s">
         <v>326</v>
       </c>
-      <c r="D147" t="s">
+      <c r="C157" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="148" spans="1:4">
-      <c r="B148" t="s">
-        <v>127</v>
-      </c>
-      <c r="C148" t="s">
-        <v>128</v>
-      </c>
-      <c r="D148" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
-      <c r="B149" t="s">
-        <v>130</v>
-      </c>
-      <c r="C149" t="s">
-        <v>131</v>
-      </c>
-      <c r="D149" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
-      <c r="A151" s="1" t="s">
+      <c r="D157" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
-      <c r="B153" t="s">
+    <row r="158" spans="2:4">
+      <c r="B158" t="s">
         <v>329</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C158" t="s">
         <v>330</v>
       </c>
-      <c r="D153" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
-      <c r="B154" t="s">
-        <v>189</v>
-      </c>
-      <c r="C154" t="s">
-        <v>190</v>
-      </c>
-      <c r="D154" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
-      <c r="B155" t="s">
+      <c r="D158" t="s">
         <v>331</v>
       </c>
-      <c r="C155" t="s">
+    </row>
+    <row r="159" spans="2:4">
+      <c r="B159" t="s">
         <v>332</v>
       </c>
-      <c r="D155" t="s">
+      <c r="C159" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="156" spans="1:4">
-      <c r="B156" t="s">
+      <c r="D159" t="s">
         <v>334</v>
       </c>
-      <c r="C156" t="s">
+    </row>
+    <row r="160" spans="2:4">
+      <c r="B160" t="s">
         <v>335</v>
       </c>
-      <c r="D156" t="s">
+      <c r="C160" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="158" spans="1:4">
-      <c r="A158" s="1" t="s">
+      <c r="D160" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
-      <c r="B160" t="s">
-        <v>189</v>
-      </c>
-      <c r="C160" t="s">
-        <v>190</v>
-      </c>
-      <c r="D160" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
-      <c r="A162" s="1" t="s">
+    <row r="161" spans="2:4">
+      <c r="B161" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="164" spans="1:4">
+      <c r="C161" t="s">
+        <v>339</v>
+      </c>
+      <c r="D161" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="162" spans="2:4">
+      <c r="B162" t="s">
+        <v>338</v>
+      </c>
+      <c r="C162" t="s">
+        <v>339</v>
+      </c>
+      <c r="D162" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="163" spans="2:4">
+      <c r="B163" t="s">
+        <v>341</v>
+      </c>
+      <c r="C163" t="s">
+        <v>342</v>
+      </c>
+      <c r="D163" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="164" spans="2:4">
       <c r="B164" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="C164" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="D164" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="165" spans="2:4">
       <c r="B165" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="C165" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="D165" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="166" spans="2:4">
       <c r="B166" t="s">
-        <v>316</v>
+        <v>350</v>
       </c>
       <c r="C166" t="s">
-        <v>317</v>
+        <v>351</v>
       </c>
       <c r="D166" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="167" spans="2:4">
       <c r="B167" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="C167" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="D167" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="168" spans="2:4">
       <c r="B168" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="C168" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="D168" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="169" spans="2:4">
       <c r="B169" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="C169" t="s">
+        <v>360</v>
+      </c>
+      <c r="D169" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="170" spans="2:4">
+      <c r="B170" t="s">
+        <v>362</v>
+      </c>
+      <c r="C170" t="s">
+        <v>363</v>
+      </c>
+      <c r="D170" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="171" spans="2:4">
+      <c r="B171" t="s">
+        <v>365</v>
+      </c>
+      <c r="C171" t="s">
+        <v>366</v>
+      </c>
+      <c r="D171" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="172" spans="2:4">
+      <c r="B172" t="s">
+        <v>368</v>
+      </c>
+      <c r="C172" t="s">
+        <v>369</v>
+      </c>
+      <c r="D172" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="173" spans="2:4">
+      <c r="B173" t="s">
+        <v>370</v>
+      </c>
+      <c r="C173" t="s">
+        <v>371</v>
+      </c>
+      <c r="D173" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="174" spans="2:4">
+      <c r="B174" t="s">
+        <v>373</v>
+      </c>
+      <c r="C174" t="s">
+        <v>374</v>
+      </c>
+      <c r="D174" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="175" spans="2:4">
+      <c r="B175" t="s">
+        <v>376</v>
+      </c>
+      <c r="C175" t="s">
+        <v>377</v>
+      </c>
+      <c r="D175" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="176" spans="2:4">
+      <c r="B176" t="s">
+        <v>379</v>
+      </c>
+      <c r="C176" t="s">
+        <v>380</v>
+      </c>
+      <c r="D176" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="177" spans="2:4">
+      <c r="B177" t="s">
+        <v>382</v>
+      </c>
+      <c r="C177" t="s">
+        <v>383</v>
+      </c>
+      <c r="D177" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="178" spans="2:4">
+      <c r="B178" t="s">
+        <v>385</v>
+      </c>
+      <c r="C178" t="s">
+        <v>386</v>
+      </c>
+      <c r="D178" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="179" spans="2:4">
+      <c r="B179" t="s">
+        <v>388</v>
+      </c>
+      <c r="C179" t="s">
+        <v>389</v>
+      </c>
+      <c r="D179" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="180" spans="2:4">
+      <c r="B180" t="s">
+        <v>391</v>
+      </c>
+      <c r="C180" t="s">
+        <v>392</v>
+      </c>
+      <c r="D180" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="181" spans="2:4">
+      <c r="B181" t="s">
+        <v>394</v>
+      </c>
+      <c r="C181" t="s">
+        <v>395</v>
+      </c>
+      <c r="D181" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="182" spans="2:4">
+      <c r="B182" t="s">
+        <v>397</v>
+      </c>
+      <c r="C182" t="s">
+        <v>398</v>
+      </c>
+      <c r="D182" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="183" spans="2:4">
+      <c r="B183" t="s">
+        <v>52</v>
+      </c>
+      <c r="C183" t="s">
+        <v>53</v>
+      </c>
+      <c r="D183" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="184" spans="2:4">
+      <c r="B184" t="s">
+        <v>400</v>
+      </c>
+      <c r="C184" t="s">
+        <v>401</v>
+      </c>
+      <c r="D184" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="185" spans="2:4">
+      <c r="B185" t="s">
+        <v>403</v>
+      </c>
+      <c r="C185" t="s">
+        <v>404</v>
+      </c>
+      <c r="D185" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="186" spans="2:4">
+      <c r="B186" t="s">
+        <v>405</v>
+      </c>
+      <c r="C186" t="s">
+        <v>406</v>
+      </c>
+      <c r="D186" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="187" spans="2:4">
+      <c r="B187" t="s">
+        <v>408</v>
+      </c>
+      <c r="C187" t="s">
+        <v>409</v>
+      </c>
+      <c r="D187" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="188" spans="2:4">
+      <c r="B188" t="s">
+        <v>411</v>
+      </c>
+      <c r="C188" t="s">
+        <v>412</v>
+      </c>
+      <c r="D188" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="189" spans="2:4">
+      <c r="B189" t="s">
+        <v>414</v>
+      </c>
+      <c r="C189" t="s">
+        <v>415</v>
+      </c>
+      <c r="D189" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="190" spans="2:4">
+      <c r="B190" t="s">
+        <v>58</v>
+      </c>
+      <c r="C190" t="s">
+        <v>59</v>
+      </c>
+      <c r="D190" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="191" spans="2:4">
+      <c r="B191" t="s">
+        <v>416</v>
+      </c>
+      <c r="C191" t="s">
+        <v>417</v>
+      </c>
+      <c r="D191" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="192" spans="2:4">
+      <c r="B192" t="s">
+        <v>419</v>
+      </c>
+      <c r="C192" t="s">
+        <v>420</v>
+      </c>
+      <c r="D192" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="193" spans="2:4">
+      <c r="B193" t="s">
+        <v>422</v>
+      </c>
+      <c r="C193" t="s">
+        <v>423</v>
+      </c>
+      <c r="D193" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="194" spans="2:4">
+      <c r="B194" t="s">
+        <v>425</v>
+      </c>
+      <c r="C194" t="s">
+        <v>426</v>
+      </c>
+      <c r="D194" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="195" spans="2:4">
+      <c r="B195" t="s">
+        <v>428</v>
+      </c>
+      <c r="C195" t="s">
+        <v>429</v>
+      </c>
+      <c r="D195" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="196" spans="2:4">
+      <c r="B196" t="s">
+        <v>431</v>
+      </c>
+      <c r="C196" t="s">
+        <v>432</v>
+      </c>
+      <c r="D196" t="s">
         <v>352</v>
       </c>
-      <c r="D169" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4">
-      <c r="B170" t="s">
-        <v>354</v>
-      </c>
-      <c r="C170" t="s">
-        <v>355</v>
-      </c>
-      <c r="D170" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4">
-      <c r="B171" t="s">
+    </row>
+    <row r="197" spans="2:4">
+      <c r="B197" t="s">
+        <v>58</v>
+      </c>
+      <c r="C197" t="s">
+        <v>59</v>
+      </c>
+      <c r="D197" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="198" spans="2:4">
+      <c r="B198" t="s">
+        <v>433</v>
+      </c>
+      <c r="C198" t="s">
+        <v>434</v>
+      </c>
+      <c r="D198" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="199" spans="2:4">
+      <c r="B199" t="s">
+        <v>435</v>
+      </c>
+      <c r="C199" t="s">
+        <v>436</v>
+      </c>
+      <c r="D199" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="200" spans="2:4">
+      <c r="B200" t="s">
+        <v>438</v>
+      </c>
+      <c r="C200" t="s">
+        <v>439</v>
+      </c>
+      <c r="D200" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="201" spans="2:4">
+      <c r="B201" t="s">
+        <v>441</v>
+      </c>
+      <c r="C201" t="s">
+        <v>442</v>
+      </c>
+      <c r="D201" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="202" spans="2:4">
+      <c r="B202" t="s">
+        <v>444</v>
+      </c>
+      <c r="C202" t="s">
+        <v>445</v>
+      </c>
+      <c r="D202" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="203" spans="2:4">
+      <c r="B203" t="s">
+        <v>447</v>
+      </c>
+      <c r="C203" t="s">
+        <v>448</v>
+      </c>
+      <c r="D203" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="204" spans="2:4">
+      <c r="B204" t="s">
+        <v>450</v>
+      </c>
+      <c r="C204" t="s">
+        <v>451</v>
+      </c>
+      <c r="D204" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="205" spans="2:4">
+      <c r="B205" t="s">
+        <v>453</v>
+      </c>
+      <c r="C205" t="s">
+        <v>454</v>
+      </c>
+      <c r="D205" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="206" spans="2:4">
+      <c r="B206" t="s">
+        <v>455</v>
+      </c>
+      <c r="C206" t="s">
+        <v>456</v>
+      </c>
+      <c r="D206" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="207" spans="2:4">
+      <c r="B207" t="s">
+        <v>458</v>
+      </c>
+      <c r="C207" t="s">
+        <v>459</v>
+      </c>
+      <c r="D207" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="208" spans="2:4">
+      <c r="B208" t="s">
+        <v>460</v>
+      </c>
+      <c r="C208" t="s">
+        <v>461</v>
+      </c>
+      <c r="D208" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="B209" t="s">
+        <v>463</v>
+      </c>
+      <c r="C209" t="s">
+        <v>464</v>
+      </c>
+      <c r="D209" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="B210" t="s">
+        <v>466</v>
+      </c>
+      <c r="C210" t="s">
+        <v>467</v>
+      </c>
+      <c r="D210" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="B211" t="s">
+        <v>468</v>
+      </c>
+      <c r="C211" t="s">
+        <v>469</v>
+      </c>
+      <c r="D211" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="B212" t="s">
+        <v>471</v>
+      </c>
+      <c r="C212" t="s">
+        <v>472</v>
+      </c>
+      <c r="D212" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="B213" t="s">
+        <v>428</v>
+      </c>
+      <c r="C213" t="s">
+        <v>429</v>
+      </c>
+      <c r="D213" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="B214" t="s">
+        <v>474</v>
+      </c>
+      <c r="C214" t="s">
+        <v>475</v>
+      </c>
+      <c r="D214" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="B218" t="s">
+        <v>478</v>
+      </c>
+      <c r="C218" t="s">
+        <v>479</v>
+      </c>
+      <c r="D218" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="B219" t="s">
         <v>356</v>
       </c>
-      <c r="C171" t="s">
+      <c r="C219" t="s">
         <v>357</v>
       </c>
-      <c r="D171" t="s">
+      <c r="D219" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
-      <c r="B172" t="s">
-        <v>359</v>
-      </c>
-      <c r="C172" t="s">
-        <v>360</v>
-      </c>
-      <c r="D172" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4">
-      <c r="A174" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4">
-      <c r="B176" t="s">
-        <v>363</v>
-      </c>
-      <c r="C176" t="s">
-        <v>364</v>
-      </c>
-      <c r="D176" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4">
-      <c r="B177" t="s">
-        <v>339</v>
-      </c>
-      <c r="C177" t="s">
-        <v>340</v>
-      </c>
-      <c r="D177" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4">
-      <c r="B178" t="s">
-        <v>342</v>
-      </c>
-      <c r="C178" t="s">
-        <v>343</v>
-      </c>
-      <c r="D178" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4">
-      <c r="B179" t="s">
-        <v>316</v>
-      </c>
-      <c r="C179" t="s">
-        <v>317</v>
-      </c>
-      <c r="D179" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4">
-      <c r="B180" t="s">
-        <v>345</v>
-      </c>
-      <c r="C180" t="s">
-        <v>346</v>
-      </c>
-      <c r="D180" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4">
-      <c r="B181" t="s">
-        <v>348</v>
-      </c>
-      <c r="C181" t="s">
-        <v>349</v>
-      </c>
-      <c r="D181" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4">
-      <c r="B182" t="s">
-        <v>269</v>
-      </c>
-      <c r="C182" t="s">
-        <v>270</v>
-      </c>
-      <c r="D182" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4">
-      <c r="B183" t="s">
-        <v>319</v>
-      </c>
-      <c r="C183" t="s">
-        <v>320</v>
-      </c>
-      <c r="D183" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4">
-      <c r="B184" t="s">
-        <v>322</v>
-      </c>
-      <c r="C184" t="s">
-        <v>323</v>
-      </c>
-      <c r="D184" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4">
-      <c r="B185" t="s">
-        <v>354</v>
-      </c>
-      <c r="C185" t="s">
-        <v>355</v>
-      </c>
-      <c r="D185" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4">
-      <c r="B186" t="s">
-        <v>325</v>
-      </c>
-      <c r="C186" t="s">
-        <v>326</v>
-      </c>
-      <c r="D186" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4">
-      <c r="B187" t="s">
-        <v>356</v>
-      </c>
-      <c r="C187" t="s">
-        <v>357</v>
-      </c>
-      <c r="D187" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4">
-      <c r="B188" t="s">
-        <v>359</v>
-      </c>
-      <c r="C188" t="s">
-        <v>360</v>
-      </c>
-      <c r="D188" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4">
-      <c r="B189" t="s">
-        <v>331</v>
-      </c>
-      <c r="C189" t="s">
-        <v>332</v>
-      </c>
-      <c r="D189" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4">
-      <c r="A191" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4">
-      <c r="B193" t="s">
-        <v>367</v>
-      </c>
-      <c r="C193" t="s">
-        <v>368</v>
-      </c>
-      <c r="D193" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4">
-      <c r="B194" t="s">
-        <v>370</v>
-      </c>
-      <c r="C194" t="s">
-        <v>371</v>
-      </c>
-      <c r="D194" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4">
-      <c r="B195" t="s">
-        <v>373</v>
-      </c>
-      <c r="C195" t="s">
-        <v>374</v>
-      </c>
-      <c r="D195" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4">
-      <c r="B196" t="s">
-        <v>376</v>
-      </c>
-      <c r="C196" t="s">
-        <v>377</v>
-      </c>
-      <c r="D196" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4">
-      <c r="B197" t="s">
-        <v>379</v>
-      </c>
-      <c r="C197" t="s">
-        <v>380</v>
-      </c>
-      <c r="D197" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4">
-      <c r="B198" t="s">
-        <v>382</v>
-      </c>
-      <c r="C198" t="s">
-        <v>383</v>
-      </c>
-      <c r="D198" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4">
-      <c r="B199" t="s">
-        <v>385</v>
-      </c>
-      <c r="C199" t="s">
-        <v>386</v>
-      </c>
-      <c r="D199" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4">
-      <c r="B200" t="s">
-        <v>388</v>
-      </c>
-      <c r="C200" t="s">
-        <v>389</v>
-      </c>
-      <c r="D200" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4">
-      <c r="B201" t="s">
-        <v>391</v>
-      </c>
-      <c r="C201" t="s">
-        <v>392</v>
-      </c>
-      <c r="D201" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4">
-      <c r="B202" t="s">
-        <v>394</v>
-      </c>
-      <c r="C202" t="s">
-        <v>395</v>
-      </c>
-      <c r="D202" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4">
-      <c r="B203" t="s">
-        <v>397</v>
-      </c>
-      <c r="C203" t="s">
-        <v>398</v>
-      </c>
-      <c r="D203" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4">
-      <c r="B204" t="s">
-        <v>400</v>
-      </c>
-      <c r="C204" t="s">
-        <v>401</v>
-      </c>
-      <c r="D204" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4">
-      <c r="B205" t="s">
-        <v>403</v>
-      </c>
-      <c r="C205" t="s">
-        <v>404</v>
-      </c>
-      <c r="D205" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4">
-      <c r="B206" t="s">
-        <v>406</v>
-      </c>
-      <c r="C206" t="s">
-        <v>407</v>
-      </c>
-      <c r="D206" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4">
-      <c r="A208" s="1" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="210" spans="2:4">
-      <c r="B210" t="s">
-        <v>410</v>
-      </c>
-      <c r="C210" t="s">
-        <v>411</v>
-      </c>
-      <c r="D210" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="211" spans="2:4">
-      <c r="B211" t="s">
-        <v>367</v>
-      </c>
-      <c r="C211" t="s">
-        <v>368</v>
-      </c>
-      <c r="D211" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="212" spans="2:4">
-      <c r="B212" t="s">
-        <v>370</v>
-      </c>
-      <c r="C212" t="s">
-        <v>371</v>
-      </c>
-      <c r="D212" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="213" spans="2:4">
-      <c r="B213" t="s">
-        <v>373</v>
-      </c>
-      <c r="C213" t="s">
-        <v>374</v>
-      </c>
-      <c r="D213" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="214" spans="2:4">
-      <c r="B214" t="s">
-        <v>413</v>
-      </c>
-      <c r="C214" t="s">
-        <v>414</v>
-      </c>
-      <c r="D214" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="215" spans="2:4">
-      <c r="B215" t="s">
-        <v>376</v>
-      </c>
-      <c r="C215" t="s">
-        <v>377</v>
-      </c>
-      <c r="D215" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="216" spans="2:4">
-      <c r="B216" t="s">
-        <v>379</v>
-      </c>
-      <c r="C216" t="s">
-        <v>380</v>
-      </c>
-      <c r="D216" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="217" spans="2:4">
-      <c r="B217" t="s">
-        <v>416</v>
-      </c>
-      <c r="C217" t="s">
-        <v>417</v>
-      </c>
-      <c r="D217" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="218" spans="2:4">
-      <c r="B218" t="s">
-        <v>419</v>
-      </c>
-      <c r="C218" t="s">
-        <v>420</v>
-      </c>
-      <c r="D218" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="219" spans="2:4">
-      <c r="B219" t="s">
-        <v>382</v>
-      </c>
-      <c r="C219" t="s">
-        <v>383</v>
-      </c>
-      <c r="D219" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="220" spans="2:4">
+    <row r="220" spans="1:4">
       <c r="B220" t="s">
-        <v>422</v>
+        <v>481</v>
       </c>
       <c r="C220" t="s">
-        <v>423</v>
+        <v>482</v>
       </c>
       <c r="D220" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="221" spans="2:4">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
       <c r="B221" t="s">
-        <v>425</v>
+        <v>484</v>
       </c>
       <c r="C221" t="s">
-        <v>426</v>
+        <v>485</v>
       </c>
       <c r="D221" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="222" spans="2:4">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
       <c r="B222" t="s">
-        <v>385</v>
+        <v>487</v>
       </c>
       <c r="C222" t="s">
-        <v>386</v>
+        <v>488</v>
       </c>
       <c r="D222" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="223" spans="2:4">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
       <c r="B223" t="s">
-        <v>427</v>
+        <v>171</v>
       </c>
       <c r="C223" t="s">
-        <v>428</v>
+        <v>172</v>
       </c>
       <c r="D223" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="224" spans="2:4">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
       <c r="B224" t="s">
-        <v>388</v>
+        <v>174</v>
       </c>
       <c r="C224" t="s">
-        <v>389</v>
+        <v>175</v>
       </c>
       <c r="D224" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4">
-      <c r="B225" t="s">
-        <v>345</v>
-      </c>
-      <c r="C225" t="s">
-        <v>346</v>
-      </c>
-      <c r="D225" t="s">
-        <v>347</v>
+        <v>173</v>
       </c>
     </row>
     <row r="226" spans="1:4">
-      <c r="B226" t="s">
-        <v>430</v>
-      </c>
-      <c r="C226" t="s">
-        <v>431</v>
-      </c>
-      <c r="D226" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4">
-      <c r="B227" t="s">
-        <v>391</v>
-      </c>
-      <c r="C227" t="s">
-        <v>392</v>
-      </c>
-      <c r="D227" t="s">
-        <v>393</v>
+      <c r="A226" s="1" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="B228" t="s">
-        <v>394</v>
+        <v>491</v>
       </c>
       <c r="C228" t="s">
-        <v>395</v>
+        <v>492</v>
       </c>
       <c r="D228" t="s">
         <v>396</v>
@@ -4036,715 +5125,2527 @@
     </row>
     <row r="229" spans="1:4">
       <c r="B229" t="s">
-        <v>433</v>
+        <v>276</v>
       </c>
       <c r="C229" t="s">
-        <v>434</v>
+        <v>277</v>
       </c>
       <c r="D229" t="s">
-        <v>435</v>
+        <v>278</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="B230" t="s">
-        <v>397</v>
+        <v>493</v>
       </c>
       <c r="C230" t="s">
-        <v>398</v>
+        <v>494</v>
       </c>
       <c r="D230" t="s">
-        <v>399</v>
+        <v>495</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="B231" t="s">
-        <v>436</v>
+        <v>496</v>
       </c>
       <c r="C231" t="s">
-        <v>437</v>
+        <v>497</v>
       </c>
       <c r="D231" t="s">
-        <v>438</v>
+        <v>498</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="B232" t="s">
-        <v>138</v>
+        <v>499</v>
       </c>
       <c r="C232" t="s">
-        <v>139</v>
+        <v>500</v>
       </c>
       <c r="D232" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4">
-      <c r="B233" t="s">
-        <v>400</v>
-      </c>
-      <c r="C233" t="s">
-        <v>401</v>
-      </c>
-      <c r="D233" t="s">
-        <v>402</v>
+        <v>501</v>
       </c>
     </row>
     <row r="234" spans="1:4">
-      <c r="B234" t="s">
-        <v>403</v>
-      </c>
-      <c r="C234" t="s">
-        <v>404</v>
-      </c>
-      <c r="D234" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4">
-      <c r="B235" t="s">
-        <v>439</v>
-      </c>
-      <c r="C235" t="s">
-        <v>440</v>
-      </c>
-      <c r="D235" t="s">
-        <v>441</v>
+      <c r="A234" s="1" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="B236" t="s">
-        <v>406</v>
+        <v>276</v>
       </c>
       <c r="C236" t="s">
-        <v>407</v>
+        <v>277</v>
       </c>
       <c r="D236" t="s">
-        <v>408</v>
+        <v>278</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="1" t="s">
-        <v>442</v>
+        <v>503</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="B240" t="s">
-        <v>443</v>
+        <v>504</v>
       </c>
       <c r="C240" t="s">
-        <v>444</v>
+        <v>505</v>
       </c>
       <c r="D240" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="241" spans="2:4">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
       <c r="B241" t="s">
-        <v>446</v>
+        <v>507</v>
       </c>
       <c r="C241" t="s">
-        <v>447</v>
+        <v>508</v>
       </c>
       <c r="D241" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="242" spans="2:4">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
       <c r="B242" t="s">
-        <v>449</v>
+        <v>478</v>
       </c>
       <c r="C242" t="s">
-        <v>450</v>
+        <v>479</v>
       </c>
       <c r="D242" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="243" spans="2:4">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
       <c r="B243" t="s">
-        <v>452</v>
+        <v>510</v>
       </c>
       <c r="C243" t="s">
-        <v>453</v>
+        <v>511</v>
       </c>
       <c r="D243" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="244" spans="2:4">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
       <c r="B244" t="s">
-        <v>455</v>
+        <v>513</v>
       </c>
       <c r="C244" t="s">
-        <v>456</v>
+        <v>514</v>
       </c>
       <c r="D244" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="245" spans="2:4">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
       <c r="B245" t="s">
-        <v>458</v>
+        <v>516</v>
       </c>
       <c r="C245" t="s">
-        <v>459</v>
+        <v>517</v>
       </c>
       <c r="D245" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="246" spans="2:4">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
       <c r="B246" t="s">
-        <v>461</v>
+        <v>519</v>
       </c>
       <c r="C246" t="s">
-        <v>462</v>
+        <v>520</v>
       </c>
       <c r="D246" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="247" spans="2:4">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
       <c r="B247" t="s">
-        <v>464</v>
+        <v>521</v>
       </c>
       <c r="C247" t="s">
-        <v>465</v>
+        <v>522</v>
       </c>
       <c r="D247" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="248" spans="2:4">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
       <c r="B248" t="s">
-        <v>467</v>
+        <v>524</v>
       </c>
       <c r="C248" t="s">
-        <v>468</v>
+        <v>525</v>
       </c>
       <c r="D248" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="249" spans="2:4">
-      <c r="B249" t="s">
-        <v>469</v>
-      </c>
-      <c r="C249" t="s">
-        <v>470</v>
-      </c>
-      <c r="D249" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="250" spans="2:4">
-      <c r="B250" t="s">
-        <v>472</v>
-      </c>
-      <c r="C250" t="s">
-        <v>473</v>
-      </c>
-      <c r="D250" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="251" spans="2:4">
-      <c r="B251" t="s">
-        <v>475</v>
-      </c>
-      <c r="C251" t="s">
-        <v>476</v>
-      </c>
-      <c r="D251" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="252" spans="2:4">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
       <c r="B252" t="s">
-        <v>292</v>
+        <v>504</v>
       </c>
       <c r="C252" t="s">
-        <v>293</v>
+        <v>505</v>
       </c>
       <c r="D252" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="253" spans="2:4">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
       <c r="B253" t="s">
+        <v>507</v>
+      </c>
+      <c r="C253" t="s">
+        <v>508</v>
+      </c>
+      <c r="D253" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="B254" t="s">
         <v>478</v>
       </c>
-      <c r="C253" t="s">
+      <c r="C254" t="s">
         <v>479</v>
       </c>
-      <c r="D253" t="s">
+      <c r="D254" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="254" spans="2:4">
-      <c r="B254" t="s">
+    <row r="255" spans="1:4">
+      <c r="B255" t="s">
+        <v>510</v>
+      </c>
+      <c r="C255" t="s">
+        <v>511</v>
+      </c>
+      <c r="D255" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="B256" t="s">
+        <v>513</v>
+      </c>
+      <c r="C256" t="s">
+        <v>514</v>
+      </c>
+      <c r="D256" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="B257" t="s">
+        <v>356</v>
+      </c>
+      <c r="C257" t="s">
+        <v>357</v>
+      </c>
+      <c r="D257" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="B258" t="s">
         <v>481</v>
       </c>
-      <c r="C254" t="s">
+      <c r="C258" t="s">
         <v>482</v>
       </c>
-      <c r="D254" t="s">
+      <c r="D258" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="255" spans="2:4">
-      <c r="B255" t="s">
+    <row r="259" spans="1:4">
+      <c r="B259" t="s">
         <v>484</v>
       </c>
-      <c r="C255" t="s">
+      <c r="C259" t="s">
         <v>485</v>
       </c>
-      <c r="D255" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="256" spans="2:4">
-      <c r="B256" t="s">
+      <c r="D259" t="s">
         <v>486</v>
-      </c>
-      <c r="C256" t="s">
-        <v>487</v>
-      </c>
-      <c r="D256" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4">
-      <c r="A258" s="1" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="B260" t="s">
-        <v>225</v>
+        <v>519</v>
       </c>
       <c r="C260" t="s">
-        <v>226</v>
+        <v>520</v>
       </c>
       <c r="D260" t="s">
-        <v>227</v>
+        <v>390</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="B261" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C261" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D261" t="s">
-        <v>492</v>
+        <v>489</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="B262" t="s">
+        <v>521</v>
+      </c>
+      <c r="C262" t="s">
+        <v>522</v>
+      </c>
+      <c r="D262" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="263" spans="1:4">
-      <c r="A263" s="1" t="s">
+      <c r="B263" t="s">
+        <v>524</v>
+      </c>
+      <c r="C263" t="s">
+        <v>525</v>
+      </c>
+      <c r="D263" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="B264" t="s">
         <v>493</v>
+      </c>
+      <c r="C264" t="s">
+        <v>494</v>
+      </c>
+      <c r="D264" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="B265" t="s">
-        <v>472</v>
+        <v>528</v>
       </c>
       <c r="C265" t="s">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="D265" t="s">
-        <v>474</v>
+        <v>530</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="B266" t="s">
-        <v>189</v>
+        <v>531</v>
       </c>
       <c r="C266" t="s">
-        <v>190</v>
+        <v>532</v>
       </c>
       <c r="D266" t="s">
-        <v>191</v>
+        <v>533</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="B267" t="s">
-        <v>494</v>
+        <v>534</v>
       </c>
       <c r="C267" t="s">
-        <v>495</v>
+        <v>535</v>
       </c>
       <c r="D267" t="s">
-        <v>496</v>
+        <v>536</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="B268" t="s">
-        <v>497</v>
+        <v>537</v>
       </c>
       <c r="C268" t="s">
-        <v>498</v>
+        <v>538</v>
       </c>
       <c r="D268" t="s">
-        <v>499</v>
+        <v>539</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="B269" t="s">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="C269" t="s">
-        <v>501</v>
+        <v>541</v>
       </c>
       <c r="D269" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4">
-      <c r="B270" t="s">
-        <v>503</v>
-      </c>
-      <c r="C270" t="s">
-        <v>504</v>
-      </c>
-      <c r="D270" t="s">
-        <v>505</v>
+        <v>542</v>
       </c>
     </row>
     <row r="271" spans="1:4">
-      <c r="B271" t="s">
-        <v>497</v>
-      </c>
-      <c r="C271" t="s">
-        <v>498</v>
-      </c>
-      <c r="D271" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4">
-      <c r="B272" t="s">
-        <v>455</v>
-      </c>
-      <c r="C272" t="s">
-        <v>456</v>
-      </c>
-      <c r="D272" t="s">
-        <v>457</v>
+      <c r="A271" s="1" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="273" spans="2:4">
       <c r="B273" t="s">
-        <v>506</v>
+        <v>544</v>
       </c>
       <c r="C273" t="s">
-        <v>507</v>
+        <v>545</v>
       </c>
       <c r="D273" t="s">
-        <v>508</v>
+        <v>546</v>
       </c>
     </row>
     <row r="274" spans="2:4">
       <c r="B274" t="s">
-        <v>464</v>
+        <v>547</v>
       </c>
       <c r="C274" t="s">
-        <v>465</v>
+        <v>548</v>
       </c>
       <c r="D274" t="s">
-        <v>466</v>
+        <v>549</v>
       </c>
     </row>
     <row r="275" spans="2:4">
       <c r="B275" t="s">
-        <v>254</v>
+        <v>550</v>
       </c>
       <c r="C275" t="s">
-        <v>255</v>
+        <v>551</v>
       </c>
       <c r="D275" t="s">
-        <v>256</v>
+        <v>552</v>
       </c>
     </row>
     <row r="276" spans="2:4">
       <c r="B276" t="s">
-        <v>509</v>
+        <v>553</v>
       </c>
       <c r="C276" t="s">
-        <v>510</v>
+        <v>554</v>
       </c>
       <c r="D276" t="s">
-        <v>511</v>
+        <v>555</v>
       </c>
     </row>
     <row r="277" spans="2:4">
       <c r="B277" t="s">
-        <v>494</v>
+        <v>556</v>
       </c>
       <c r="C277" t="s">
-        <v>495</v>
+        <v>557</v>
       </c>
       <c r="D277" t="s">
-        <v>496</v>
+        <v>558</v>
       </c>
     </row>
     <row r="278" spans="2:4">
       <c r="B278" t="s">
-        <v>503</v>
+        <v>559</v>
       </c>
       <c r="C278" t="s">
-        <v>504</v>
+        <v>560</v>
       </c>
       <c r="D278" t="s">
-        <v>505</v>
+        <v>561</v>
       </c>
     </row>
     <row r="279" spans="2:4">
       <c r="B279" t="s">
-        <v>464</v>
+        <v>562</v>
       </c>
       <c r="C279" t="s">
-        <v>465</v>
+        <v>563</v>
       </c>
       <c r="D279" t="s">
-        <v>466</v>
+        <v>564</v>
       </c>
     </row>
     <row r="280" spans="2:4">
       <c r="B280" t="s">
-        <v>464</v>
+        <v>565</v>
       </c>
       <c r="C280" t="s">
-        <v>465</v>
+        <v>566</v>
       </c>
       <c r="D280" t="s">
-        <v>466</v>
+        <v>567</v>
       </c>
     </row>
     <row r="281" spans="2:4">
       <c r="B281" t="s">
-        <v>472</v>
+        <v>568</v>
       </c>
       <c r="C281" t="s">
-        <v>473</v>
+        <v>569</v>
       </c>
       <c r="D281" t="s">
-        <v>474</v>
+        <v>570</v>
       </c>
     </row>
     <row r="282" spans="2:4">
       <c r="B282" t="s">
-        <v>189</v>
+        <v>571</v>
       </c>
       <c r="C282" t="s">
-        <v>190</v>
+        <v>572</v>
       </c>
       <c r="D282" t="s">
-        <v>191</v>
+        <v>573</v>
       </c>
     </row>
     <row r="283" spans="2:4">
       <c r="B283" t="s">
-        <v>500</v>
+        <v>574</v>
       </c>
       <c r="C283" t="s">
-        <v>501</v>
+        <v>575</v>
       </c>
       <c r="D283" t="s">
-        <v>502</v>
+        <v>457</v>
       </c>
     </row>
     <row r="284" spans="2:4">
       <c r="B284" t="s">
-        <v>254</v>
+        <v>576</v>
       </c>
       <c r="C284" t="s">
-        <v>255</v>
+        <v>577</v>
       </c>
       <c r="D284" t="s">
-        <v>256</v>
+        <v>578</v>
       </c>
     </row>
     <row r="285" spans="2:4">
       <c r="B285" t="s">
-        <v>509</v>
+        <v>579</v>
       </c>
       <c r="C285" t="s">
-        <v>510</v>
+        <v>580</v>
       </c>
       <c r="D285" t="s">
-        <v>511</v>
+        <v>581</v>
       </c>
     </row>
     <row r="286" spans="2:4">
       <c r="B286" t="s">
-        <v>512</v>
+        <v>582</v>
       </c>
       <c r="C286" t="s">
-        <v>513</v>
+        <v>583</v>
       </c>
       <c r="D286" t="s">
-        <v>514</v>
+        <v>584</v>
       </c>
     </row>
     <row r="287" spans="2:4">
       <c r="B287" t="s">
-        <v>512</v>
+        <v>585</v>
       </c>
       <c r="C287" t="s">
-        <v>513</v>
+        <v>586</v>
       </c>
       <c r="D287" t="s">
-        <v>514</v>
+        <v>587</v>
       </c>
     </row>
     <row r="288" spans="2:4">
       <c r="B288" t="s">
-        <v>512</v>
+        <v>588</v>
       </c>
       <c r="C288" t="s">
-        <v>513</v>
+        <v>589</v>
       </c>
       <c r="D288" t="s">
-        <v>514</v>
+        <v>590</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="B289" t="s">
-        <v>512</v>
+        <v>591</v>
       </c>
       <c r="C289" t="s">
-        <v>513</v>
+        <v>592</v>
       </c>
       <c r="D289" t="s">
-        <v>514</v>
+        <v>593</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="B290" t="s">
-        <v>269</v>
+        <v>594</v>
       </c>
       <c r="C290" t="s">
-        <v>270</v>
+        <v>595</v>
       </c>
       <c r="D290" t="s">
-        <v>271</v>
+        <v>596</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="B291" t="s">
-        <v>515</v>
+        <v>597</v>
       </c>
       <c r="C291" t="s">
-        <v>516</v>
+        <v>598</v>
       </c>
       <c r="D291" t="s">
-        <v>517</v>
+        <v>599</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="B292" t="s">
-        <v>518</v>
+        <v>600</v>
       </c>
       <c r="C292" t="s">
-        <v>519</v>
+        <v>601</v>
       </c>
       <c r="D292" t="s">
-        <v>520</v>
+        <v>602</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="B293" t="s">
-        <v>269</v>
+        <v>603</v>
       </c>
       <c r="C293" t="s">
-        <v>270</v>
+        <v>604</v>
       </c>
       <c r="D293" t="s">
-        <v>271</v>
+        <v>605</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="B294" t="s">
-        <v>515</v>
+        <v>606</v>
       </c>
       <c r="C294" t="s">
-        <v>516</v>
+        <v>607</v>
       </c>
       <c r="D294" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4">
-      <c r="B295" t="s">
-        <v>331</v>
-      </c>
-      <c r="C295" t="s">
-        <v>332</v>
-      </c>
-      <c r="D295" t="s">
-        <v>333</v>
+        <v>608</v>
       </c>
     </row>
     <row r="296" spans="1:4">
-      <c r="B296" t="s">
-        <v>518</v>
-      </c>
-      <c r="C296" t="s">
-        <v>519</v>
-      </c>
-      <c r="D296" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4">
-      <c r="B297" t="s">
-        <v>506</v>
-      </c>
-      <c r="C297" t="s">
-        <v>507</v>
-      </c>
-      <c r="D297" t="s">
-        <v>508</v>
+      <c r="A296" s="1" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="B298" t="s">
-        <v>455</v>
+        <v>544</v>
       </c>
       <c r="C298" t="s">
-        <v>456</v>
+        <v>545</v>
       </c>
       <c r="D298" t="s">
-        <v>457</v>
+        <v>546</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="B299" t="s">
-        <v>331</v>
+        <v>547</v>
       </c>
       <c r="C299" t="s">
-        <v>332</v>
+        <v>548</v>
       </c>
       <c r="D299" t="s">
-        <v>333</v>
+        <v>549</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="B300" t="s">
+        <v>550</v>
+      </c>
+      <c r="C300" t="s">
+        <v>551</v>
+      </c>
+      <c r="D300" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="301" spans="1:4">
-      <c r="A301" s="1" t="s">
-        <v>521</v>
+      <c r="B301" t="s">
+        <v>610</v>
+      </c>
+      <c r="C301" t="s">
+        <v>611</v>
+      </c>
+      <c r="D301" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="B302" t="s">
+        <v>553</v>
+      </c>
+      <c r="C302" t="s">
+        <v>554</v>
+      </c>
+      <c r="D302" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="B303" t="s">
-        <v>522</v>
+        <v>556</v>
       </c>
       <c r="C303" t="s">
-        <v>523</v>
+        <v>557</v>
       </c>
       <c r="D303" t="s">
-        <v>524</v>
+        <v>558</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="B304" t="s">
+        <v>613</v>
+      </c>
+      <c r="C304" t="s">
+        <v>614</v>
+      </c>
+      <c r="D304" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="305" spans="2:4">
+      <c r="B305" t="s">
+        <v>616</v>
+      </c>
+      <c r="C305" t="s">
+        <v>617</v>
+      </c>
+      <c r="D305" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="306" spans="2:4">
+      <c r="B306" t="s">
+        <v>559</v>
+      </c>
+      <c r="C306" t="s">
+        <v>560</v>
+      </c>
+      <c r="D306" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="307" spans="2:4">
+      <c r="B307" t="s">
+        <v>562</v>
+      </c>
+      <c r="C307" t="s">
+        <v>563</v>
+      </c>
+      <c r="D307" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="308" spans="2:4">
+      <c r="B308" t="s">
+        <v>619</v>
+      </c>
+      <c r="C308" t="s">
+        <v>620</v>
+      </c>
+      <c r="D308" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="309" spans="2:4">
+      <c r="B309" t="s">
+        <v>622</v>
+      </c>
+      <c r="C309" t="s">
+        <v>623</v>
+      </c>
+      <c r="D309" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="310" spans="2:4">
+      <c r="B310" t="s">
+        <v>565</v>
+      </c>
+      <c r="C310" t="s">
+        <v>566</v>
+      </c>
+      <c r="D310" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="311" spans="2:4">
+      <c r="B311" t="s">
+        <v>624</v>
+      </c>
+      <c r="C311" t="s">
+        <v>625</v>
+      </c>
+      <c r="D311" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="312" spans="2:4">
+      <c r="B312" t="s">
+        <v>510</v>
+      </c>
+      <c r="C312" t="s">
+        <v>511</v>
+      </c>
+      <c r="D312" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="313" spans="2:4">
+      <c r="B313" t="s">
+        <v>627</v>
+      </c>
+      <c r="C313" t="s">
+        <v>628</v>
+      </c>
+      <c r="D313" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="314" spans="2:4">
+      <c r="B314" t="s">
+        <v>568</v>
+      </c>
+      <c r="C314" t="s">
+        <v>569</v>
+      </c>
+      <c r="D314" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="315" spans="2:4">
+      <c r="B315" t="s">
+        <v>571</v>
+      </c>
+      <c r="C315" t="s">
+        <v>572</v>
+      </c>
+      <c r="D315" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="316" spans="2:4">
+      <c r="B316" t="s">
+        <v>630</v>
+      </c>
+      <c r="C316" t="s">
+        <v>631</v>
+      </c>
+      <c r="D316" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="317" spans="2:4">
+      <c r="B317" t="s">
+        <v>574</v>
+      </c>
+      <c r="C317" t="s">
+        <v>575</v>
+      </c>
+      <c r="D317" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="318" spans="2:4">
+      <c r="B318" t="s">
+        <v>633</v>
+      </c>
+      <c r="C318" t="s">
+        <v>634</v>
+      </c>
+      <c r="D318" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="319" spans="2:4">
+      <c r="B319" t="s">
+        <v>182</v>
+      </c>
+      <c r="C319" t="s">
+        <v>183</v>
+      </c>
+      <c r="D319" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="320" spans="2:4">
+      <c r="B320" t="s">
+        <v>576</v>
+      </c>
+      <c r="C320" t="s">
+        <v>577</v>
+      </c>
+      <c r="D320" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="B321" t="s">
+        <v>579</v>
+      </c>
+      <c r="C321" t="s">
+        <v>580</v>
+      </c>
+      <c r="D321" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="B322" t="s">
+        <v>636</v>
+      </c>
+      <c r="C322" t="s">
+        <v>637</v>
+      </c>
+      <c r="D322" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="B323" t="s">
+        <v>639</v>
+      </c>
+      <c r="C323" t="s">
+        <v>640</v>
+      </c>
+      <c r="D323" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="B324" t="s">
+        <v>582</v>
+      </c>
+      <c r="C324" t="s">
+        <v>583</v>
+      </c>
+      <c r="D324" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="B325" t="s">
+        <v>585</v>
+      </c>
+      <c r="C325" t="s">
+        <v>586</v>
+      </c>
+      <c r="D325" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
+      <c r="B326" t="s">
+        <v>588</v>
+      </c>
+      <c r="C326" t="s">
+        <v>589</v>
+      </c>
+      <c r="D326" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="B327" t="s">
+        <v>591</v>
+      </c>
+      <c r="C327" t="s">
+        <v>592</v>
+      </c>
+      <c r="D327" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="B328" t="s">
+        <v>642</v>
+      </c>
+      <c r="C328" t="s">
+        <v>643</v>
+      </c>
+      <c r="D328" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
+      <c r="B329" t="s">
+        <v>594</v>
+      </c>
+      <c r="C329" t="s">
+        <v>595</v>
+      </c>
+      <c r="D329" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="B330" t="s">
+        <v>597</v>
+      </c>
+      <c r="C330" t="s">
+        <v>598</v>
+      </c>
+      <c r="D330" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
+      <c r="B331" t="s">
+        <v>600</v>
+      </c>
+      <c r="C331" t="s">
+        <v>601</v>
+      </c>
+      <c r="D331" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="B332" t="s">
+        <v>603</v>
+      </c>
+      <c r="C332" t="s">
+        <v>604</v>
+      </c>
+      <c r="D332" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
+      <c r="B333" t="s">
+        <v>645</v>
+      </c>
+      <c r="C333" t="s">
+        <v>646</v>
+      </c>
+      <c r="D333" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
+      <c r="B334" t="s">
+        <v>606</v>
+      </c>
+      <c r="C334" t="s">
+        <v>607</v>
+      </c>
+      <c r="D334" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
+      <c r="A336" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="338" spans="2:4">
+      <c r="B338" t="s">
+        <v>649</v>
+      </c>
+      <c r="C338" t="s">
+        <v>650</v>
+      </c>
+      <c r="D338" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="339" spans="2:4">
+      <c r="B339" t="s">
+        <v>652</v>
+      </c>
+      <c r="C339" t="s">
+        <v>653</v>
+      </c>
+      <c r="D339" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="340" spans="2:4">
+      <c r="B340" t="s">
+        <v>655</v>
+      </c>
+      <c r="C340" t="s">
+        <v>656</v>
+      </c>
+      <c r="D340" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="341" spans="2:4">
+      <c r="B341" t="s">
+        <v>658</v>
+      </c>
+      <c r="C341" t="s">
+        <v>659</v>
+      </c>
+      <c r="D341" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="342" spans="2:4">
+      <c r="B342" t="s">
+        <v>661</v>
+      </c>
+      <c r="C342" t="s">
+        <v>662</v>
+      </c>
+      <c r="D342" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="343" spans="2:4">
+      <c r="B343" t="s">
+        <v>664</v>
+      </c>
+      <c r="C343" t="s">
+        <v>665</v>
+      </c>
+      <c r="D343" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="344" spans="2:4">
+      <c r="B344" t="s">
+        <v>667</v>
+      </c>
+      <c r="C344" t="s">
+        <v>668</v>
+      </c>
+      <c r="D344" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="345" spans="2:4">
+      <c r="B345" t="s">
+        <v>669</v>
+      </c>
+      <c r="C345" t="s">
+        <v>670</v>
+      </c>
+      <c r="D345" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="346" spans="2:4">
+      <c r="B346" t="s">
+        <v>672</v>
+      </c>
+      <c r="C346" t="s">
+        <v>673</v>
+      </c>
+      <c r="D346" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="347" spans="2:4">
+      <c r="B347" t="s">
+        <v>674</v>
+      </c>
+      <c r="C347" t="s">
+        <v>675</v>
+      </c>
+      <c r="D347" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="348" spans="2:4">
+      <c r="B348" t="s">
+        <v>677</v>
+      </c>
+      <c r="C348" t="s">
+        <v>678</v>
+      </c>
+      <c r="D348" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="349" spans="2:4">
+      <c r="B349" t="s">
+        <v>680</v>
+      </c>
+      <c r="C349" t="s">
+        <v>681</v>
+      </c>
+      <c r="D349" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="350" spans="2:4">
+      <c r="B350" t="s">
+        <v>379</v>
+      </c>
+      <c r="C350" t="s">
+        <v>380</v>
+      </c>
+      <c r="D350" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="351" spans="2:4">
+      <c r="B351" t="s">
+        <v>683</v>
+      </c>
+      <c r="C351" t="s">
+        <v>684</v>
+      </c>
+      <c r="D351" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="352" spans="2:4">
+      <c r="B352" t="s">
+        <v>686</v>
+      </c>
+      <c r="C352" t="s">
+        <v>687</v>
+      </c>
+      <c r="D352" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4">
+      <c r="B353" t="s">
+        <v>689</v>
+      </c>
+      <c r="C353" t="s">
+        <v>690</v>
+      </c>
+      <c r="D353" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4">
+      <c r="B354" t="s">
+        <v>691</v>
+      </c>
+      <c r="C354" t="s">
+        <v>692</v>
+      </c>
+      <c r="D354" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
+      <c r="B355" t="s">
+        <v>694</v>
+      </c>
+      <c r="C355" t="s">
+        <v>695</v>
+      </c>
+      <c r="D355" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
+      <c r="B356" t="s">
+        <v>697</v>
+      </c>
+      <c r="C356" t="s">
+        <v>698</v>
+      </c>
+      <c r="D356" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
+      <c r="B357" t="s">
+        <v>700</v>
+      </c>
+      <c r="C357" t="s">
+        <v>701</v>
+      </c>
+      <c r="D357" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
+      <c r="B358" t="s">
+        <v>703</v>
+      </c>
+      <c r="C358" t="s">
+        <v>704</v>
+      </c>
+      <c r="D358" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
+      <c r="B359" t="s">
+        <v>706</v>
+      </c>
+      <c r="C359" t="s">
+        <v>707</v>
+      </c>
+      <c r="D359" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4">
+      <c r="B360" t="s">
+        <v>709</v>
+      </c>
+      <c r="C360" t="s">
+        <v>710</v>
+      </c>
+      <c r="D360" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
+      <c r="B361" t="s">
+        <v>712</v>
+      </c>
+      <c r="C361" t="s">
+        <v>713</v>
+      </c>
+      <c r="D361" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
+      <c r="B362" t="s">
+        <v>715</v>
+      </c>
+      <c r="C362" t="s">
+        <v>716</v>
+      </c>
+      <c r="D362" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4">
+      <c r="A364" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4">
+      <c r="B366" t="s">
+        <v>312</v>
+      </c>
+      <c r="C366" t="s">
+        <v>313</v>
+      </c>
+      <c r="D366" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4">
+      <c r="B367" t="s">
+        <v>719</v>
+      </c>
+      <c r="C367" t="s">
+        <v>720</v>
+      </c>
+      <c r="D367" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="B368" t="s">
+        <v>722</v>
+      </c>
+      <c r="C368" t="s">
+        <v>723</v>
+      </c>
+      <c r="D368" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="B369" t="s">
+        <v>725</v>
+      </c>
+      <c r="C369" t="s">
+        <v>726</v>
+      </c>
+      <c r="D369" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="B370" t="s">
+        <v>499</v>
+      </c>
+      <c r="C370" t="s">
+        <v>500</v>
+      </c>
+      <c r="D370" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" s="1" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="B374" t="s">
+        <v>677</v>
+      </c>
+      <c r="C374" t="s">
+        <v>678</v>
+      </c>
+      <c r="D374" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="B375" t="s">
+        <v>276</v>
+      </c>
+      <c r="C375" t="s">
+        <v>277</v>
+      </c>
+      <c r="D375" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="B376" t="s">
+        <v>728</v>
+      </c>
+      <c r="C376" t="s">
+        <v>729</v>
+      </c>
+      <c r="D376" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="B377" t="s">
+        <v>731</v>
+      </c>
+      <c r="C377" t="s">
+        <v>732</v>
+      </c>
+      <c r="D377" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="B378" t="s">
+        <v>734</v>
+      </c>
+      <c r="C378" t="s">
+        <v>735</v>
+      </c>
+      <c r="D378" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="B379" t="s">
+        <v>737</v>
+      </c>
+      <c r="C379" t="s">
+        <v>738</v>
+      </c>
+      <c r="D379" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="B380" t="s">
+        <v>731</v>
+      </c>
+      <c r="C380" t="s">
+        <v>732</v>
+      </c>
+      <c r="D380" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="B381" t="s">
+        <v>661</v>
+      </c>
+      <c r="C381" t="s">
+        <v>662</v>
+      </c>
+      <c r="D381" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="B382" t="s">
+        <v>740</v>
+      </c>
+      <c r="C382" t="s">
+        <v>741</v>
+      </c>
+      <c r="D382" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4">
+      <c r="B383" t="s">
+        <v>669</v>
+      </c>
+      <c r="C383" t="s">
+        <v>670</v>
+      </c>
+      <c r="D383" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="B384" t="s">
+        <v>341</v>
+      </c>
+      <c r="C384" t="s">
+        <v>342</v>
+      </c>
+      <c r="D384" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="385" spans="2:4">
+      <c r="B385" t="s">
+        <v>728</v>
+      </c>
+      <c r="C385" t="s">
+        <v>729</v>
+      </c>
+      <c r="D385" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="386" spans="2:4">
+      <c r="B386" t="s">
+        <v>737</v>
+      </c>
+      <c r="C386" t="s">
+        <v>738</v>
+      </c>
+      <c r="D386" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="387" spans="2:4">
+      <c r="B387" t="s">
+        <v>743</v>
+      </c>
+      <c r="C387" t="s">
+        <v>744</v>
+      </c>
+      <c r="D387" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="388" spans="2:4">
+      <c r="B388" t="s">
+        <v>669</v>
+      </c>
+      <c r="C388" t="s">
+        <v>670</v>
+      </c>
+      <c r="D388" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="389" spans="2:4">
+      <c r="B389" t="s">
+        <v>669</v>
+      </c>
+      <c r="C389" t="s">
+        <v>670</v>
+      </c>
+      <c r="D389" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="390" spans="2:4">
+      <c r="B390" t="s">
+        <v>677</v>
+      </c>
+      <c r="C390" t="s">
+        <v>678</v>
+      </c>
+      <c r="D390" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="391" spans="2:4">
+      <c r="B391" t="s">
+        <v>276</v>
+      </c>
+      <c r="C391" t="s">
+        <v>277</v>
+      </c>
+      <c r="D391" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="392" spans="2:4">
+      <c r="B392" t="s">
+        <v>734</v>
+      </c>
+      <c r="C392" t="s">
+        <v>735</v>
+      </c>
+      <c r="D392" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="393" spans="2:4">
+      <c r="B393" t="s">
+        <v>341</v>
+      </c>
+      <c r="C393" t="s">
+        <v>342</v>
+      </c>
+      <c r="D393" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="394" spans="2:4">
+      <c r="B394" t="s">
+        <v>743</v>
+      </c>
+      <c r="C394" t="s">
+        <v>744</v>
+      </c>
+      <c r="D394" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="395" spans="2:4">
+      <c r="B395" t="s">
+        <v>746</v>
+      </c>
+      <c r="C395" t="s">
+        <v>747</v>
+      </c>
+      <c r="D395" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="396" spans="2:4">
+      <c r="B396" t="s">
+        <v>746</v>
+      </c>
+      <c r="C396" t="s">
+        <v>747</v>
+      </c>
+      <c r="D396" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="397" spans="2:4">
+      <c r="B397" t="s">
+        <v>746</v>
+      </c>
+      <c r="C397" t="s">
+        <v>747</v>
+      </c>
+      <c r="D397" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="398" spans="2:4">
+      <c r="B398" t="s">
+        <v>746</v>
+      </c>
+      <c r="C398" t="s">
+        <v>747</v>
+      </c>
+      <c r="D398" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="399" spans="2:4">
+      <c r="B399" t="s">
+        <v>356</v>
+      </c>
+      <c r="C399" t="s">
+        <v>357</v>
+      </c>
+      <c r="D399" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="400" spans="2:4">
+      <c r="B400" t="s">
+        <v>749</v>
+      </c>
+      <c r="C400" t="s">
+        <v>750</v>
+      </c>
+      <c r="D400" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="401" spans="2:4">
+      <c r="B401" t="s">
+        <v>752</v>
+      </c>
+      <c r="C401" t="s">
+        <v>753</v>
+      </c>
+      <c r="D401" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="402" spans="2:4">
+      <c r="B402" t="s">
+        <v>356</v>
+      </c>
+      <c r="C402" t="s">
+        <v>357</v>
+      </c>
+      <c r="D402" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="403" spans="2:4">
+      <c r="B403" t="s">
+        <v>749</v>
+      </c>
+      <c r="C403" t="s">
+        <v>750</v>
+      </c>
+      <c r="D403" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="404" spans="2:4">
+      <c r="B404" t="s">
+        <v>493</v>
+      </c>
+      <c r="C404" t="s">
+        <v>494</v>
+      </c>
+      <c r="D404" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="405" spans="2:4">
+      <c r="B405" t="s">
+        <v>752</v>
+      </c>
+      <c r="C405" t="s">
+        <v>753</v>
+      </c>
+      <c r="D405" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="406" spans="2:4">
+      <c r="B406" t="s">
+        <v>740</v>
+      </c>
+      <c r="C406" t="s">
+        <v>741</v>
+      </c>
+      <c r="D406" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="407" spans="2:4">
+      <c r="B407" t="s">
+        <v>661</v>
+      </c>
+      <c r="C407" t="s">
+        <v>662</v>
+      </c>
+      <c r="D407" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="408" spans="2:4">
+      <c r="B408" t="s">
+        <v>493</v>
+      </c>
+      <c r="C408" t="s">
+        <v>494</v>
+      </c>
+      <c r="D408" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="409" spans="2:4">
+      <c r="B409" t="s">
+        <v>755</v>
+      </c>
+      <c r="C409" t="s">
+        <v>756</v>
+      </c>
+      <c r="D409" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="410" spans="2:4">
+      <c r="B410" t="s">
+        <v>700</v>
+      </c>
+      <c r="C410" t="s">
+        <v>701</v>
+      </c>
+      <c r="D410" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="411" spans="2:4">
+      <c r="B411" t="s">
+        <v>758</v>
+      </c>
+      <c r="C411" t="s">
+        <v>759</v>
+      </c>
+      <c r="D411" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="412" spans="2:4">
+      <c r="B412" t="s">
+        <v>761</v>
+      </c>
+      <c r="C412" t="s">
+        <v>762</v>
+      </c>
+      <c r="D412" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="413" spans="2:4">
+      <c r="B413" t="s">
+        <v>700</v>
+      </c>
+      <c r="C413" t="s">
+        <v>701</v>
+      </c>
+      <c r="D413" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="414" spans="2:4">
+      <c r="B414" t="s">
+        <v>764</v>
+      </c>
+      <c r="C414" t="s">
+        <v>756</v>
+      </c>
+      <c r="D414" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="415" spans="2:4">
+      <c r="B415" t="s">
+        <v>765</v>
+      </c>
+      <c r="C415" t="s">
+        <v>766</v>
+      </c>
+      <c r="D415" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="416" spans="2:4">
+      <c r="B416" t="s">
+        <v>58</v>
+      </c>
+      <c r="C416" t="s">
+        <v>59</v>
+      </c>
+      <c r="D416" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="417" spans="2:4">
+      <c r="B417" t="s">
+        <v>768</v>
+      </c>
+      <c r="C417" t="s">
+        <v>769</v>
+      </c>
+      <c r="D417" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="418" spans="2:4">
+      <c r="B418" t="s">
+        <v>771</v>
+      </c>
+      <c r="C418" t="s">
+        <v>772</v>
+      </c>
+      <c r="D418" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="419" spans="2:4">
+      <c r="B419" t="s">
+        <v>774</v>
+      </c>
+      <c r="C419" t="s">
+        <v>598</v>
+      </c>
+      <c r="D419" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="420" spans="2:4">
+      <c r="B420" t="s">
+        <v>775</v>
+      </c>
+      <c r="C420" t="s">
+        <v>776</v>
+      </c>
+      <c r="D420" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="421" spans="2:4">
+      <c r="B421" t="s">
+        <v>778</v>
+      </c>
+      <c r="C421" t="s">
+        <v>779</v>
+      </c>
+      <c r="D421" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="422" spans="2:4">
+      <c r="B422" t="s">
+        <v>780</v>
+      </c>
+      <c r="C422" t="s">
+        <v>781</v>
+      </c>
+      <c r="D422" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="423" spans="2:4">
+      <c r="B423" t="s">
+        <v>428</v>
+      </c>
+      <c r="C423" t="s">
+        <v>429</v>
+      </c>
+      <c r="D423" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="424" spans="2:4">
+      <c r="B424" t="s">
+        <v>761</v>
+      </c>
+      <c r="C424" t="s">
+        <v>762</v>
+      </c>
+      <c r="D424" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="425" spans="2:4">
+      <c r="B425" t="s">
+        <v>58</v>
+      </c>
+      <c r="C425" t="s">
+        <v>59</v>
+      </c>
+      <c r="D425" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="426" spans="2:4">
+      <c r="B426" t="s">
+        <v>782</v>
+      </c>
+      <c r="C426" t="s">
+        <v>783</v>
+      </c>
+      <c r="D426" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="427" spans="2:4">
+      <c r="B427" t="s">
+        <v>785</v>
+      </c>
+      <c r="C427" t="s">
+        <v>781</v>
+      </c>
+      <c r="D427" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="428" spans="2:4">
+      <c r="B428" t="s">
+        <v>786</v>
+      </c>
+      <c r="C428" t="s">
+        <v>787</v>
+      </c>
+      <c r="D428" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="429" spans="2:4">
+      <c r="B429" t="s">
+        <v>789</v>
+      </c>
+      <c r="C429" t="s">
+        <v>790</v>
+      </c>
+      <c r="D429" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="430" spans="2:4">
+      <c r="B430" t="s">
+        <v>597</v>
+      </c>
+      <c r="C430" t="s">
+        <v>598</v>
+      </c>
+      <c r="D430" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="431" spans="2:4">
+      <c r="B431" t="s">
+        <v>775</v>
+      </c>
+      <c r="C431" t="s">
+        <v>776</v>
+      </c>
+      <c r="D431" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="432" spans="2:4">
+      <c r="B432" t="s">
+        <v>792</v>
+      </c>
+      <c r="C432" t="s">
+        <v>779</v>
+      </c>
+      <c r="D432" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4">
+      <c r="B433" t="s">
+        <v>793</v>
+      </c>
+      <c r="C433" t="s">
+        <v>766</v>
+      </c>
+      <c r="D433" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4">
+      <c r="B434" t="s">
+        <v>794</v>
+      </c>
+      <c r="C434" t="s">
+        <v>787</v>
+      </c>
+      <c r="D434" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4">
+      <c r="B435" t="s">
+        <v>795</v>
+      </c>
+      <c r="C435" t="s">
+        <v>790</v>
+      </c>
+      <c r="D435" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4">
+      <c r="B436" t="s">
+        <v>796</v>
+      </c>
+      <c r="C436" t="s">
+        <v>783</v>
+      </c>
+      <c r="D436" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4">
+      <c r="B437" t="s">
+        <v>797</v>
+      </c>
+      <c r="C437" t="s">
+        <v>769</v>
+      </c>
+      <c r="D437" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4">
+      <c r="B438" t="s">
+        <v>798</v>
+      </c>
+      <c r="C438" t="s">
+        <v>772</v>
+      </c>
+      <c r="D438" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4">
+      <c r="B439" t="s">
+        <v>428</v>
+      </c>
+      <c r="C439" t="s">
+        <v>429</v>
+      </c>
+      <c r="D439" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4">
+      <c r="B440" t="s">
+        <v>799</v>
+      </c>
+      <c r="C440" t="s">
+        <v>759</v>
+      </c>
+      <c r="D440" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4">
+      <c r="A442" s="1" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4">
+      <c r="B444" t="s">
+        <v>801</v>
+      </c>
+      <c r="C444" t="s">
+        <v>802</v>
+      </c>
+      <c r="D444" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4">
+      <c r="B445" t="s">
+        <v>225</v>
+      </c>
+      <c r="C445" t="s">
+        <v>223</v>
+      </c>
+      <c r="D445" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4">
+      <c r="B446" t="s">
+        <v>758</v>
+      </c>
+      <c r="C446" t="s">
+        <v>759</v>
+      </c>
+      <c r="D446" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4">
+      <c r="B447" t="s">
+        <v>61</v>
+      </c>
+      <c r="C447" t="s">
+        <v>62</v>
+      </c>
+      <c r="D447" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4">
+      <c r="B448" t="s">
+        <v>774</v>
+      </c>
+      <c r="C448" t="s">
+        <v>598</v>
+      </c>
+      <c r="D448" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4">
+      <c r="B449" t="s">
+        <v>780</v>
+      </c>
+      <c r="C449" t="s">
+        <v>781</v>
+      </c>
+      <c r="D449" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4">
+      <c r="B450" t="s">
+        <v>29</v>
+      </c>
+      <c r="C450" t="s">
+        <v>30</v>
+      </c>
+      <c r="D450" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4">
+      <c r="B451" t="s">
+        <v>782</v>
+      </c>
+      <c r="C451" t="s">
+        <v>783</v>
+      </c>
+      <c r="D451" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4">
+      <c r="B452" t="s">
+        <v>786</v>
+      </c>
+      <c r="C452" t="s">
+        <v>787</v>
+      </c>
+      <c r="D452" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4">
+      <c r="B453" t="s">
+        <v>789</v>
+      </c>
+      <c r="C453" t="s">
+        <v>790</v>
+      </c>
+      <c r="D453" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4">
+      <c r="B454" t="s">
+        <v>792</v>
+      </c>
+      <c r="C454" t="s">
+        <v>779</v>
+      </c>
+      <c r="D454" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4">
+      <c r="B455" t="s">
+        <v>804</v>
+      </c>
+      <c r="C455" t="s">
+        <v>805</v>
+      </c>
+      <c r="D455" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4">
+      <c r="B456" t="s">
+        <v>712</v>
+      </c>
+      <c r="C456" t="s">
+        <v>713</v>
+      </c>
+      <c r="D456" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4">
+      <c r="B457" t="s">
+        <v>793</v>
+      </c>
+      <c r="C457" t="s">
+        <v>766</v>
+      </c>
+      <c r="D457" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4">
+      <c r="B458" t="s">
+        <v>806</v>
+      </c>
+      <c r="C458" t="s">
+        <v>807</v>
+      </c>
+      <c r="D458" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4">
+      <c r="B459" t="s">
+        <v>808</v>
+      </c>
+      <c r="C459" t="s">
+        <v>809</v>
+      </c>
+      <c r="D459" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4">
+      <c r="B460" t="s">
+        <v>797</v>
+      </c>
+      <c r="C460" t="s">
+        <v>769</v>
+      </c>
+      <c r="D460" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4">
+      <c r="B461" t="s">
+        <v>799</v>
+      </c>
+      <c r="C461" t="s">
+        <v>759</v>
+      </c>
+      <c r="D461" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4">
+      <c r="A463" s="1" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="465" spans="2:4">
+      <c r="B465" t="s">
+        <v>812</v>
+      </c>
+      <c r="C465" t="s">
+        <v>813</v>
+      </c>
+      <c r="D465" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="466" spans="2:4">
+      <c r="B466" t="s">
+        <v>815</v>
+      </c>
+      <c r="C466" t="s">
+        <v>816</v>
+      </c>
+      <c r="D466" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="467" spans="2:4">
+      <c r="B467" t="s">
+        <v>818</v>
+      </c>
+      <c r="C467" t="s">
+        <v>819</v>
+      </c>
+      <c r="D467" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="468" spans="2:4">
+      <c r="B468" t="s">
+        <v>821</v>
+      </c>
+      <c r="C468" t="s">
+        <v>822</v>
+      </c>
+      <c r="D468" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="469" spans="2:4">
+      <c r="B469" t="s">
+        <v>824</v>
+      </c>
+      <c r="C469" t="s">
+        <v>825</v>
+      </c>
+      <c r="D469" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="470" spans="2:4">
+      <c r="B470" t="s">
+        <v>827</v>
+      </c>
+      <c r="C470" t="s">
+        <v>828</v>
+      </c>
+      <c r="D470" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="471" spans="2:4">
+      <c r="B471" t="s">
+        <v>830</v>
+      </c>
+      <c r="C471" t="s">
+        <v>831</v>
+      </c>
+      <c r="D471" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="472" spans="2:4">
+      <c r="B472" t="s">
+        <v>833</v>
+      </c>
+      <c r="C472" t="s">
+        <v>834</v>
+      </c>
+      <c r="D472" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="473" spans="2:4">
+      <c r="B473" t="s">
+        <v>836</v>
+      </c>
+      <c r="C473" t="s">
+        <v>837</v>
+      </c>
+      <c r="D473" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="474" spans="2:4">
+      <c r="B474" t="s">
+        <v>839</v>
+      </c>
+      <c r="C474" t="s">
+        <v>840</v>
+      </c>
+      <c r="D474" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="475" spans="2:4">
+      <c r="B475" t="s">
+        <v>842</v>
+      </c>
+      <c r="C475" t="s">
+        <v>843</v>
+      </c>
+      <c r="D475" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="476" spans="2:4">
+      <c r="B476" t="s">
+        <v>845</v>
+      </c>
+      <c r="C476" t="s">
+        <v>846</v>
+      </c>
+      <c r="D476" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="477" spans="2:4">
+      <c r="B477" t="s">
+        <v>848</v>
+      </c>
+      <c r="C477" t="s">
+        <v>849</v>
+      </c>
+      <c r="D477" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="478" spans="2:4">
+      <c r="B478" t="s">
+        <v>851</v>
+      </c>
+      <c r="C478" t="s">
+        <v>852</v>
+      </c>
+      <c r="D478" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="479" spans="2:4">
+      <c r="B479" t="s">
+        <v>854</v>
+      </c>
+      <c r="C479" t="s">
+        <v>855</v>
+      </c>
+      <c r="D479" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="480" spans="2:4">
+      <c r="B480" t="s">
+        <v>857</v>
+      </c>
+      <c r="C480" t="s">
+        <v>858</v>
+      </c>
+      <c r="D480" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="481" spans="2:4">
+      <c r="B481" t="s">
+        <v>860</v>
+      </c>
+      <c r="C481" t="s">
+        <v>861</v>
+      </c>
+      <c r="D481" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="482" spans="2:4">
+      <c r="B482" t="s">
+        <v>798</v>
+      </c>
+      <c r="C482" t="s">
+        <v>772</v>
+      </c>
+      <c r="D482" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="483" spans="2:4">
+      <c r="B483" t="s">
+        <v>863</v>
+      </c>
+      <c r="C483" t="s">
+        <v>864</v>
+      </c>
+      <c r="D483" t="s">
+        <v>865</v>
       </c>
     </row>
   </sheetData>

--- a/riassuntoAutomatico.xlsx
+++ b/riassuntoAutomatico.xlsx
@@ -14,12 +14,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="381">
   <si>
     <t>Riassunto analisi</t>
   </si>
   <si>
-    <t>Trovati errori per 21 bambini</t>
+    <t>Trovati errori per 116 bambini</t>
+  </si>
+  <si>
+    <t>Trovate 7 occorrenze per il controllo Controllo data nascita per codice fiscale</t>
+  </si>
+  <si>
+    <t>Trovate 3 occorrenze per il controllo Controllo età bambino</t>
+  </si>
+  <si>
+    <t>Trovate 4 occorrenze per il controllo Controllo fine contratto assistenza</t>
+  </si>
+  <si>
+    <t>Trovate 23 occorrenze per il controllo Controllo Kindergarten #1</t>
+  </si>
+  <si>
+    <t>Trovate 29 occorrenze per il controllo Controllo Kindergarten #2</t>
+  </si>
+  <si>
+    <t>Trovate 1 occorrenze per il controllo Controllo finanziamento compensativo #2</t>
+  </si>
+  <si>
+    <t>Trovate 4 occorrenze per il controllo Contratti lockdown sospetti (Covid #4)</t>
+  </si>
+  <si>
+    <t>Trovate 8 occorrenze per il controllo Controllo Fehler Eingewöhnung</t>
+  </si>
+  <si>
+    <t>Trovate 10 occorrenze per il controllo Controllo Fehler Eingewöhnung 543 Lockdown</t>
+  </si>
+  <si>
+    <t>Trovate 8 occorrenze per il controllo Controllo Fehler Eingewöhnung 543 Notbetreuung</t>
+  </si>
+  <si>
+    <t>Trovate 3 occorrenze per il controllo Controllo ore complessive periodo contrattuale</t>
   </si>
   <si>
     <t>Trovate 28 occorrenze per il controllo Bambino presente in più comuni</t>
@@ -28,6 +61,786 @@
     <t>Trovate 17 occorrenze per il controllo Bambini con annotazioni</t>
   </si>
   <si>
+    <t>Trovate 19 occorrenze per il controllo Controllo ore rendicontate uguali a zero</t>
+  </si>
+  <si>
+    <t>Controllo data nascita per codice fiscale</t>
+  </si>
+  <si>
+    <t>VALLE BENJAMIN</t>
+  </si>
+  <si>
+    <t>VLLBJM17L24A952I</t>
+  </si>
+  <si>
+    <t>2017-07-21 00:00:00</t>
+  </si>
+  <si>
+    <t>MUTSCHLECHNER LIA</t>
+  </si>
+  <si>
+    <t>MTSLIA18A51B220Y</t>
+  </si>
+  <si>
+    <t>2018-08-11 00:00:00</t>
+  </si>
+  <si>
+    <t>PFITSCHER LAURIN</t>
+  </si>
+  <si>
+    <t>PFTLRN19F25F132W</t>
+  </si>
+  <si>
+    <t>2019-05-25 00:00:00</t>
+  </si>
+  <si>
+    <t>FREI KATHARINA *</t>
+  </si>
+  <si>
+    <t>FREKHR19M65F132M</t>
+  </si>
+  <si>
+    <t>2019-08-28 00:00:00</t>
+  </si>
+  <si>
+    <t>SCHOEPF IANA</t>
+  </si>
+  <si>
+    <t>SCHNIA18D60F132U</t>
+  </si>
+  <si>
+    <t>2018-01-20 00:00:00</t>
+  </si>
+  <si>
+    <t>MAZZAROL LIOPOLD EZIO</t>
+  </si>
+  <si>
+    <t>MZZLLD19D28A952W</t>
+  </si>
+  <si>
+    <t>2019-04-24 00:00:00</t>
+  </si>
+  <si>
+    <t>BODI FILOMENA</t>
+  </si>
+  <si>
+    <t>BDOFMN19A64F132K</t>
+  </si>
+  <si>
+    <t>2019-01-29 00:00:00</t>
+  </si>
+  <si>
+    <t>Controllo età bambino</t>
+  </si>
+  <si>
+    <t>FRAU AARON</t>
+  </si>
+  <si>
+    <t>FRARNA18L05A952U</t>
+  </si>
+  <si>
+    <t>2018-07-05 00:00:00</t>
+  </si>
+  <si>
+    <t>KOESSLER JOHAN</t>
+  </si>
+  <si>
+    <t>KSSJHN19A02A952N</t>
+  </si>
+  <si>
+    <t>2019-01-02 00:00:00</t>
+  </si>
+  <si>
+    <t>THALER YLENIA</t>
+  </si>
+  <si>
+    <t>THLYLN17P42F132U</t>
+  </si>
+  <si>
+    <t>2017-09-02 00:00:00</t>
+  </si>
+  <si>
+    <t>Controllo fine contratto assistenza</t>
+  </si>
+  <si>
+    <t>CABULA LEONARDO</t>
+  </si>
+  <si>
+    <t>CBLLRD17L24A952H</t>
+  </si>
+  <si>
+    <t>2017-07-24 00:00:00</t>
+  </si>
+  <si>
+    <t>FABI MARIE (TM)</t>
+  </si>
+  <si>
+    <t>FBAMRA16T60F132X</t>
+  </si>
+  <si>
+    <t>2016-12-20 00:00:00</t>
+  </si>
+  <si>
+    <t>GALANTIN ILVY MARIE</t>
+  </si>
+  <si>
+    <t>GLNLYM17A59F132K</t>
+  </si>
+  <si>
+    <t>2017-01-19 00:00:00</t>
+  </si>
+  <si>
+    <t>Controllo Kindergarten #1</t>
+  </si>
+  <si>
+    <t>ALBRECHT LEO</t>
+  </si>
+  <si>
+    <t>LBRLEO16R07A952F</t>
+  </si>
+  <si>
+    <t>2016-10-07 00:00:00</t>
+  </si>
+  <si>
+    <t>ALBRECHT LEO /</t>
+  </si>
+  <si>
+    <t>ANDRIGO THOMAS</t>
+  </si>
+  <si>
+    <t>NDRTMS17B06A952J</t>
+  </si>
+  <si>
+    <t>2017-02-06 00:00:00</t>
+  </si>
+  <si>
+    <t>BERTI RAPHAEL</t>
+  </si>
+  <si>
+    <t>BRTRHL17A07A952C</t>
+  </si>
+  <si>
+    <t>2017-01-07 00:00:00</t>
+  </si>
+  <si>
+    <t>FILIPPIN ETTORE</t>
+  </si>
+  <si>
+    <t>FLPTTR16R13A952A</t>
+  </si>
+  <si>
+    <t>2016-10-13 00:00:00</t>
+  </si>
+  <si>
+    <t>PREMSTALLER FELIX</t>
+  </si>
+  <si>
+    <t>PRMFLX17A13A952N</t>
+  </si>
+  <si>
+    <t>2017-01-13 00:00:00</t>
+  </si>
+  <si>
+    <t>TOLLOI MATTHAEUS</t>
+  </si>
+  <si>
+    <t>TLLMTH17B28B220V</t>
+  </si>
+  <si>
+    <t>2017-02-28 00:00:00</t>
+  </si>
+  <si>
+    <t>MADEDDU DAVIS</t>
+  </si>
+  <si>
+    <t>MDDDVS17A08A952N</t>
+  </si>
+  <si>
+    <t>2017-01-08 00:00:00</t>
+  </si>
+  <si>
+    <t>DE ZORDO LISA MARIE</t>
+  </si>
+  <si>
+    <t>DZRLMR17B64A952J</t>
+  </si>
+  <si>
+    <t>2017-02-24 00:00:00</t>
+  </si>
+  <si>
+    <t>ERB VIKTORIA</t>
+  </si>
+  <si>
+    <t>RBEVTR17B43F132X</t>
+  </si>
+  <si>
+    <t>2017-02-03 00:00:00</t>
+  </si>
+  <si>
+    <t>GASSER LARA</t>
+  </si>
+  <si>
+    <t>GSSLRA17B48F132D</t>
+  </si>
+  <si>
+    <t>2017-02-08 00:00:00</t>
+  </si>
+  <si>
+    <t>INNERHOFER SOPHIA</t>
+  </si>
+  <si>
+    <t>NNRSPH17B64F132A</t>
+  </si>
+  <si>
+    <t>FILO JAKOB</t>
+  </si>
+  <si>
+    <t>FLIJKB17A26B160K</t>
+  </si>
+  <si>
+    <t>2017-01-26 00:00:00</t>
+  </si>
+  <si>
+    <t>THOMASER NOEMI</t>
+  </si>
+  <si>
+    <t>THMNMO16T46B220C</t>
+  </si>
+  <si>
+    <t>2016-12-06 00:00:00</t>
+  </si>
+  <si>
+    <t>HOLZER LARISSA</t>
+  </si>
+  <si>
+    <t>HLZLSS16M51M067B</t>
+  </si>
+  <si>
+    <t>2016-08-11 00:00:00</t>
+  </si>
+  <si>
+    <t>GRUBER IDA</t>
+  </si>
+  <si>
+    <t>GRBDIA17A58I729E</t>
+  </si>
+  <si>
+    <t>2017-01-18 00:00:00</t>
+  </si>
+  <si>
+    <t>OBERFRANK LUIS</t>
+  </si>
+  <si>
+    <t>BRFLSU17A09B220H</t>
+  </si>
+  <si>
+    <t>2017-01-09 00:00:00</t>
+  </si>
+  <si>
+    <t>STEINKASSERER ADRIAN</t>
+  </si>
+  <si>
+    <t>STNDRN17A18B220I</t>
+  </si>
+  <si>
+    <t>GRAUS DAVID</t>
+  </si>
+  <si>
+    <t>GRSDVD17B16B160N</t>
+  </si>
+  <si>
+    <t>2017-02-16 00:00:00</t>
+  </si>
+  <si>
+    <t>HOFER MILENA DOLORES</t>
+  </si>
+  <si>
+    <t>HFRMND17B61F132N</t>
+  </si>
+  <si>
+    <t>2017-02-21 00:00:00</t>
+  </si>
+  <si>
+    <t>INNERHOFER JULIAN</t>
+  </si>
+  <si>
+    <t>NNRJLN17A17B220Y</t>
+  </si>
+  <si>
+    <t>2017-01-17 00:00:00</t>
+  </si>
+  <si>
+    <t>Controllo Kindergarten #2</t>
+  </si>
+  <si>
+    <t>DAPUNT ZEILINGER MIRA</t>
+  </si>
+  <si>
+    <t>DPNMRI17D50Z102Q</t>
+  </si>
+  <si>
+    <t>2017-04-10 00:00:00</t>
+  </si>
+  <si>
+    <t>FRICK ELISABETH</t>
+  </si>
+  <si>
+    <t>FRCLBT17R71A952O</t>
+  </si>
+  <si>
+    <t>2017-10-31 00:00:00</t>
+  </si>
+  <si>
+    <t>RATSCHILLER ANTON LEO</t>
+  </si>
+  <si>
+    <t>RTSNNL17H25F132F</t>
+  </si>
+  <si>
+    <t>2017-06-25 00:00:00</t>
+  </si>
+  <si>
+    <t>SAILER SENI</t>
+  </si>
+  <si>
+    <t>SLRSNE17H23A952H</t>
+  </si>
+  <si>
+    <t>2017-06-23 00:00:00</t>
+  </si>
+  <si>
+    <t>ALBERTI VICKY</t>
+  </si>
+  <si>
+    <t>LBRVKY17S43B160U</t>
+  </si>
+  <si>
+    <t>2017-11-03 00:00:00</t>
+  </si>
+  <si>
+    <t>NITZ MIA</t>
+  </si>
+  <si>
+    <t>NTZMIA17R46B160F</t>
+  </si>
+  <si>
+    <t>2017-10-06 00:00:00</t>
+  </si>
+  <si>
+    <t>BARBAGALLO GIADA</t>
+  </si>
+  <si>
+    <t>BRBGDI17L49A952B</t>
+  </si>
+  <si>
+    <t>2017-07-09 00:00:00</t>
+  </si>
+  <si>
+    <t>BAUR JOHANNA</t>
+  </si>
+  <si>
+    <t>BRAJNN17E61F132R</t>
+  </si>
+  <si>
+    <t>2017-05-21 00:00:00</t>
+  </si>
+  <si>
+    <t>MAIRHOFER MARIE</t>
+  </si>
+  <si>
+    <t>MRHMRA17R45F132N</t>
+  </si>
+  <si>
+    <t>2017-10-05 00:00:00</t>
+  </si>
+  <si>
+    <t>PARIS MARIE</t>
+  </si>
+  <si>
+    <t>PRSMRA17E53F132P</t>
+  </si>
+  <si>
+    <t>2017-05-13 00:00:00</t>
+  </si>
+  <si>
+    <t>GAISER DARIA</t>
+  </si>
+  <si>
+    <t>GSRDRA17L61I729N</t>
+  </si>
+  <si>
+    <t>KLOTZNER LAHNER ELIAS</t>
+  </si>
+  <si>
+    <t>KLTLSE17P14F132J</t>
+  </si>
+  <si>
+    <t>2017-09-14 00:00:00</t>
+  </si>
+  <si>
+    <t>KAUFMANN SAMUEL</t>
+  </si>
+  <si>
+    <t>KFMSML17R13A952W</t>
+  </si>
+  <si>
+    <t>2017-10-13 00:00:00</t>
+  </si>
+  <si>
+    <t>TERLETH LUKAS</t>
+  </si>
+  <si>
+    <t>TRLLKS17R26A952Z</t>
+  </si>
+  <si>
+    <t>2017-10-26 00:00:00</t>
+  </si>
+  <si>
+    <t>THALER DOMINIK</t>
+  </si>
+  <si>
+    <t>THLDNK17S13F132U</t>
+  </si>
+  <si>
+    <t>2017-11-13 00:00:00</t>
+  </si>
+  <si>
+    <t>STEINWANDTER FELIX</t>
+  </si>
+  <si>
+    <t>STNFLX17T10B220L</t>
+  </si>
+  <si>
+    <t>2017-12-10 00:00:00</t>
+  </si>
+  <si>
+    <t>HEISS ANTON</t>
+  </si>
+  <si>
+    <t>HSSNTN17T11B220O</t>
+  </si>
+  <si>
+    <t>2017-12-11 00:00:00</t>
+  </si>
+  <si>
+    <t>HEISS MICHAEL</t>
+  </si>
+  <si>
+    <t>HSSMHL17T11B220O</t>
+  </si>
+  <si>
+    <t>HOFER EVA</t>
+  </si>
+  <si>
+    <t>HFRVEA17L50B160H</t>
+  </si>
+  <si>
+    <t>2017-07-10 00:00:00</t>
+  </si>
+  <si>
+    <t>LASTA VALENTIN</t>
+  </si>
+  <si>
+    <t>LSTVNT17E18B160K</t>
+  </si>
+  <si>
+    <t>2017-05-18 00:00:00</t>
+  </si>
+  <si>
+    <t>RAGGI MATTIA</t>
+  </si>
+  <si>
+    <t>RGGMTT17E02B160Z</t>
+  </si>
+  <si>
+    <t>2017-05-02 00:00:00</t>
+  </si>
+  <si>
+    <t>STEINWANDTER ARTHUR</t>
+  </si>
+  <si>
+    <t>STNRHR17T17F132Y</t>
+  </si>
+  <si>
+    <t>2017-12-17 00:00:00</t>
+  </si>
+  <si>
+    <t>LOCHER LENI</t>
+  </si>
+  <si>
+    <t>LCHLNE17S63A952R</t>
+  </si>
+  <si>
+    <t>2017-11-23 00:00:00</t>
+  </si>
+  <si>
+    <t>YILMAZ ELLA KATHARINA</t>
+  </si>
+  <si>
+    <t>YLMLKT17D63Z112N</t>
+  </si>
+  <si>
+    <t>2017-04-23 00:00:00</t>
+  </si>
+  <si>
+    <t>GRUNSER NADIN</t>
+  </si>
+  <si>
+    <t>GRNNDN17T47B220G</t>
+  </si>
+  <si>
+    <t>2017-12-07 00:00:00</t>
+  </si>
+  <si>
+    <t>HOFER HANNAH</t>
+  </si>
+  <si>
+    <t>HFRHNH17P65B160X</t>
+  </si>
+  <si>
+    <t>2017-09-25 00:00:00</t>
+  </si>
+  <si>
+    <t>Controllo finanziamento compensativo #2</t>
+  </si>
+  <si>
+    <t>GLAESERER KILIAN</t>
+  </si>
+  <si>
+    <t>GLSKLN17H09B160O</t>
+  </si>
+  <si>
+    <t>2017-06-09 00:00:00</t>
+  </si>
+  <si>
+    <t>Contratti lockdown sospetti (Covid #4)</t>
+  </si>
+  <si>
+    <t>SANTON PHILIPP</t>
+  </si>
+  <si>
+    <t>SNTPLP19A31B220R</t>
+  </si>
+  <si>
+    <t>2019-01-31 00:00:00</t>
+  </si>
+  <si>
+    <t>KNAPP MARTIN</t>
+  </si>
+  <si>
+    <t>KNPMTN19M09C372W</t>
+  </si>
+  <si>
+    <t>2019-08-09 00:00:00</t>
+  </si>
+  <si>
+    <t>DE ZORDO LEA SOFIE</t>
+  </si>
+  <si>
+    <t>DZRLSF19R50A952S</t>
+  </si>
+  <si>
+    <t>2019-10-10 00:00:00</t>
+  </si>
+  <si>
+    <t>JENNEWEIN MAX</t>
+  </si>
+  <si>
+    <t>JNNMXA18L09B220D</t>
+  </si>
+  <si>
+    <t>2018-07-09 00:00:00</t>
+  </si>
+  <si>
+    <t>Controllo Fehler Eingewöhnung</t>
+  </si>
+  <si>
+    <t>FLARER THEO</t>
+  </si>
+  <si>
+    <t>FLRTHE18L11F132U</t>
+  </si>
+  <si>
+    <t>2018-07-11 00:00:00</t>
+  </si>
+  <si>
+    <t>RIVELLI CASTILLO LOLA</t>
+  </si>
+  <si>
+    <t>RVLLLO17H42Z404I</t>
+  </si>
+  <si>
+    <t>2017-06-02 00:00:00</t>
+  </si>
+  <si>
+    <t>SIMONETTO GHELLER MATTEO</t>
+  </si>
+  <si>
+    <t>SMNMTT19E15A952W</t>
+  </si>
+  <si>
+    <t>2019-05-15 00:00:00</t>
+  </si>
+  <si>
+    <t>BIASI PAUL</t>
+  </si>
+  <si>
+    <t>BSIPLA18R31A952C</t>
+  </si>
+  <si>
+    <t>2018-10-31 00:00:00</t>
+  </si>
+  <si>
+    <t>MAIR FINN</t>
+  </si>
+  <si>
+    <t>MRAFNN19E01F132B</t>
+  </si>
+  <si>
+    <t>2019-05-01 00:00:00</t>
+  </si>
+  <si>
+    <t>BURCHIA PINO</t>
+  </si>
+  <si>
+    <t>BRCPNI17R15B160Y</t>
+  </si>
+  <si>
+    <t>2017-10-15 00:00:00</t>
+  </si>
+  <si>
+    <t>DIETL JULIAN</t>
+  </si>
+  <si>
+    <t>DTLJLN19D08I729J</t>
+  </si>
+  <si>
+    <t>2019-04-08 00:00:00</t>
+  </si>
+  <si>
+    <t>PICHLER PAUL</t>
+  </si>
+  <si>
+    <t>PCHPLA19P05B220X</t>
+  </si>
+  <si>
+    <t>2019-09-05 00:00:00</t>
+  </si>
+  <si>
+    <t>Controllo Fehler Eingewöhnung 543 Lockdown</t>
+  </si>
+  <si>
+    <t>ZINGERLE MATHILDA</t>
+  </si>
+  <si>
+    <t>ZNGMHL19H64A952H</t>
+  </si>
+  <si>
+    <t>2019-06-24 00:00:00</t>
+  </si>
+  <si>
+    <t>HAFELE ELINA AURELIA</t>
+  </si>
+  <si>
+    <t>HFLLRL18A45I729A</t>
+  </si>
+  <si>
+    <t>2018-01-05 00:00:00</t>
+  </si>
+  <si>
+    <t>Controllo Fehler Eingewöhnung 543 Notbetreuung</t>
+  </si>
+  <si>
+    <t>MIRANDOLA LENZ</t>
+  </si>
+  <si>
+    <t>MRNLNZ19C17F132A</t>
+  </si>
+  <si>
+    <t>2019-03-17 00:00:00</t>
+  </si>
+  <si>
+    <t>ALESSI CLOE</t>
+  </si>
+  <si>
+    <t>LSSCLO20C51F132E</t>
+  </si>
+  <si>
+    <t>2020-03-11 00:00:00</t>
+  </si>
+  <si>
+    <t>BOVA SOPHIE</t>
+  </si>
+  <si>
+    <t>BVOSPH19D55A952V</t>
+  </si>
+  <si>
+    <t>2019-04-15 00:00:00</t>
+  </si>
+  <si>
+    <t>OCHSENREITER JAKOB</t>
+  </si>
+  <si>
+    <t>CHSJKB20M06A952B</t>
+  </si>
+  <si>
+    <t>2020-08-06 00:00:00</t>
+  </si>
+  <si>
+    <t>GURNDIN LENA</t>
+  </si>
+  <si>
+    <t>GRNLNE18L44F132V</t>
+  </si>
+  <si>
+    <t>2018-07-04 00:00:00</t>
+  </si>
+  <si>
+    <t>WIDMANN NIKLAS JAN</t>
+  </si>
+  <si>
+    <t>WDMNLS19C11F132C</t>
+  </si>
+  <si>
+    <t>2019-03-11 00:00:00</t>
+  </si>
+  <si>
+    <t>HOFER LEO *</t>
+  </si>
+  <si>
+    <t>HFRLEO18C02B160M</t>
+  </si>
+  <si>
+    <t>2018-03-02 00:00:00</t>
+  </si>
+  <si>
+    <t>MOSER ELIAS</t>
+  </si>
+  <si>
+    <t>MSRLSE18M18B220W</t>
+  </si>
+  <si>
+    <t>2018-08-18 00:00:00</t>
+  </si>
+  <si>
+    <t>Controllo ore complessive periodo contrattuale</t>
+  </si>
+  <si>
+    <t>GRIESSMAIR SIMON</t>
+  </si>
+  <si>
+    <t>GRSSMN17H30F132E</t>
+  </si>
+  <si>
+    <t>2017-06-30 00:00:00</t>
+  </si>
+  <si>
+    <t>REITER LUCA</t>
+  </si>
+  <si>
+    <t>RTRLCU17E18F132Q</t>
+  </si>
+  <si>
     <t>Bambino presente in più comuni</t>
   </si>
   <si>
@@ -58,15 +871,6 @@
     <t>2017-10-22 00:00:00</t>
   </si>
   <si>
-    <t>CABULA LEONARDO</t>
-  </si>
-  <si>
-    <t>CBLLRD17L24A952H</t>
-  </si>
-  <si>
-    <t>2017-07-24 00:00:00</t>
-  </si>
-  <si>
     <t>TRATTER JOHANNES</t>
   </si>
   <si>
@@ -88,21 +892,12 @@
     <t>MAIR FINN /</t>
   </si>
   <si>
-    <t>MRAFNN19E01F132B</t>
-  </si>
-  <si>
-    <t>2019-05-01 00:00:00</t>
-  </si>
-  <si>
     <t>KOFLER PAULI</t>
   </si>
   <si>
     <t>KFLPLA19H24B220Y</t>
   </si>
   <si>
-    <t>2019-06-24 00:00:00</t>
-  </si>
-  <si>
     <t>HOCHKOFLER NADINE</t>
   </si>
   <si>
@@ -118,15 +913,6 @@
     <t>BRDLLY18M66F132T</t>
   </si>
   <si>
-    <t>MAIRHOFER MARIE</t>
-  </si>
-  <si>
-    <t>MRHMRA17R45F132N</t>
-  </si>
-  <si>
-    <t>2017-10-05 00:00:00</t>
-  </si>
-  <si>
     <t>VILL LIAM /</t>
   </si>
   <si>
@@ -157,9 +943,6 @@
     <t>2018-07-26 00:00:00</t>
   </si>
   <si>
-    <t>MAIR FINN</t>
-  </si>
-  <si>
     <t>KOFLER PAULI /</t>
   </si>
   <si>
@@ -187,33 +970,6 @@
     <t>Bambini con annotazioni</t>
   </si>
   <si>
-    <t>ALBRECHT LEO /</t>
-  </si>
-  <si>
-    <t>LBRLEO16R07A952F</t>
-  </si>
-  <si>
-    <t>2016-10-07 00:00:00</t>
-  </si>
-  <si>
-    <t>FABI MARIE (TM)</t>
-  </si>
-  <si>
-    <t>FBAMRA16T60F132X</t>
-  </si>
-  <si>
-    <t>2016-12-20 00:00:00</t>
-  </si>
-  <si>
-    <t>FREI KATHARINA *</t>
-  </si>
-  <si>
-    <t>FREKHR19M65F132M</t>
-  </si>
-  <si>
-    <t>2019-08-28 00:00:00</t>
-  </si>
-  <si>
     <t>STEINER EMMA /</t>
   </si>
   <si>
@@ -223,24 +979,12 @@
     <t>2018-03-08 00:00:00</t>
   </si>
   <si>
-    <t>HOFER LEO *</t>
-  </si>
-  <si>
-    <t>HFRLEO18C02B160M</t>
-  </si>
-  <si>
-    <t>2018-03-02 00:00:00</t>
-  </si>
-  <si>
     <t>STAUDER JOHANNA *</t>
   </si>
   <si>
     <t>STDJNN18R71A952E</t>
   </si>
   <si>
-    <t>2018-10-31 00:00:00</t>
-  </si>
-  <si>
     <t>KAUFMANN JONAS /</t>
   </si>
   <si>
@@ -248,6 +992,171 @@
   </si>
   <si>
     <t>2018-11-22 00:00:00</t>
+  </si>
+  <si>
+    <t>Controllo ore rendicontate uguali a zero</t>
+  </si>
+  <si>
+    <t>FERRARI PIETRO</t>
+  </si>
+  <si>
+    <t>FRRPTR15C31I729P</t>
+  </si>
+  <si>
+    <t>2015-03-31 00:00:00</t>
+  </si>
+  <si>
+    <t>INTROVIGNE NICOLAS</t>
+  </si>
+  <si>
+    <t>NTRNLS15R02A952B</t>
+  </si>
+  <si>
+    <t>2015-10-02 00:00:00</t>
+  </si>
+  <si>
+    <t>LUNZ LUCAS</t>
+  </si>
+  <si>
+    <t>LNZLCS15T04A952D</t>
+  </si>
+  <si>
+    <t>2015-12-04 00:00:00</t>
+  </si>
+  <si>
+    <t>PISTORE LUCA</t>
+  </si>
+  <si>
+    <t>PSTLCU16M12F132K</t>
+  </si>
+  <si>
+    <t>2016-08-12 00:00:00</t>
+  </si>
+  <si>
+    <t>PRUENSTER EMMA</t>
+  </si>
+  <si>
+    <t>PRNMME15B47F132J</t>
+  </si>
+  <si>
+    <t>2015-02-07 00:00:00</t>
+  </si>
+  <si>
+    <t>KNAPP SEBASTIAN</t>
+  </si>
+  <si>
+    <t>KNPSST16B04A952J</t>
+  </si>
+  <si>
+    <t>2016-02-04 00:00:00</t>
+  </si>
+  <si>
+    <t>ZUBLASING PAUL</t>
+  </si>
+  <si>
+    <t>ZBLPLA16D16F132L</t>
+  </si>
+  <si>
+    <t>2016-04-16 00:00:00</t>
+  </si>
+  <si>
+    <t>LARCHER CARL</t>
+  </si>
+  <si>
+    <t>LRCCRL16C09F132O</t>
+  </si>
+  <si>
+    <t>2016-03-09 00:00:00</t>
+  </si>
+  <si>
+    <t>LOCHMANN MORITZ</t>
+  </si>
+  <si>
+    <t>LCHMTZ15D23F132E</t>
+  </si>
+  <si>
+    <t>2015-04-23 00:00:00</t>
+  </si>
+  <si>
+    <t>MARGESIN HANNA</t>
+  </si>
+  <si>
+    <t>MRGHNN15M71F132D</t>
+  </si>
+  <si>
+    <t>2015-08-31 00:00:00</t>
+  </si>
+  <si>
+    <t>RAFFEINER SAMEER (neu)</t>
+  </si>
+  <si>
+    <t>RFFSMR15L20F132A</t>
+  </si>
+  <si>
+    <t>2015-07-20 00:00:00</t>
+  </si>
+  <si>
+    <t>SILBERNAGL ILVY</t>
+  </si>
+  <si>
+    <t>SLBLVY15C48F132K</t>
+  </si>
+  <si>
+    <t>2015-03-08 00:00:00</t>
+  </si>
+  <si>
+    <t>DELLANTONIO SEBASTIAN</t>
+  </si>
+  <si>
+    <t>DLLSST16T07A952J</t>
+  </si>
+  <si>
+    <t>2016-12-07 00:00:00</t>
+  </si>
+  <si>
+    <t>LARENTIS STEFAN</t>
+  </si>
+  <si>
+    <t>LRNSFN15D10A952A</t>
+  </si>
+  <si>
+    <t>2015-04-10 00:00:00</t>
+  </si>
+  <si>
+    <t>PETTOROSSI MARTA</t>
+  </si>
+  <si>
+    <t>PTTMRT16S53A952G</t>
+  </si>
+  <si>
+    <t>2016-11-13 00:00:00</t>
+  </si>
+  <si>
+    <t>WEISSENHORN JANA</t>
+  </si>
+  <si>
+    <t>WSSJNA16E70A952F</t>
+  </si>
+  <si>
+    <t>2016-05-30 00:00:00</t>
+  </si>
+  <si>
+    <t>SERAFINO ALESSIO</t>
+  </si>
+  <si>
+    <t>SRFLSS18B22I729Q</t>
+  </si>
+  <si>
+    <t>2018-02-22 00:00:00</t>
+  </si>
+  <si>
+    <t>HOFER JOHANNA</t>
+  </si>
+  <si>
+    <t>HFRJNN16S44A952E</t>
+  </si>
+  <si>
+    <t>2016-11-04 00:00:00</t>
   </si>
 </sst>
 </file>
@@ -588,535 +1497,1964 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="B11" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="D11" t="s">
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="B12" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="D12" t="s">
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="B13" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="C13" t="s">
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="D13" t="s">
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="B14" t="s">
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="C14" t="s">
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="D14" t="s">
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="B15" t="s">
+    <row r="23" spans="1:4">
+      <c r="B23" t="s">
         <v>17</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C23" t="s">
         <v>18</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="B16" t="s">
+    <row r="24" spans="1:4">
+      <c r="B24" t="s">
         <v>20</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C24" t="s">
         <v>21</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
-      <c r="B17" t="s">
+    <row r="25" spans="1:4">
+      <c r="B25" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C25" t="s">
         <v>24</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
-      <c r="B18" t="s">
+    <row r="26" spans="1:4">
+      <c r="B26" t="s">
         <v>26</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C26" t="s">
         <v>27</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="2:4">
-      <c r="B19" t="s">
+    <row r="27" spans="1:4">
+      <c r="B27" t="s">
         <v>29</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C27" t="s">
         <v>30</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
-      <c r="B20" t="s">
+    <row r="28" spans="1:4">
+      <c r="B28" t="s">
         <v>32</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C28" t="s">
         <v>33</v>
       </c>
-      <c r="D20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" t="s">
+      <c r="D28" t="s">
         <v>34</v>
       </c>
-      <c r="C21" t="s">
+    </row>
+    <row r="29" spans="1:4">
+      <c r="B29" t="s">
         <v>35</v>
       </c>
-      <c r="D21" t="s">
+      <c r="C29" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" t="s">
+      <c r="D29" t="s">
         <v>37</v>
       </c>
-      <c r="C24" t="s">
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="D24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4">
-      <c r="B29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="B30" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="B31" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4">
-      <c r="B32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="B33" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D33" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="B34" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D34" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="B35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="B39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="B40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" t="s">
         <v>53</v>
       </c>
-      <c r="C35" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="B36" t="s">
+      <c r="D40" t="s">
         <v>54</v>
       </c>
-      <c r="C36" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="B37" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="B38" t="s">
+    </row>
+    <row r="41" spans="1:4">
+      <c r="B41" t="s">
         <v>55</v>
       </c>
-      <c r="C38" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="1" t="s">
+      <c r="C41" t="s">
         <v>56</v>
+      </c>
+      <c r="D41" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="B42" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C42" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="D42" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="B43" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="B44" t="s">
-        <v>60</v>
-      </c>
-      <c r="C44" t="s">
-        <v>61</v>
-      </c>
-      <c r="D44" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="B45" t="s">
-        <v>23</v>
-      </c>
-      <c r="C45" t="s">
-        <v>24</v>
-      </c>
-      <c r="D45" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="B46" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="C46" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="D46" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="B47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C47" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D47" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="B48" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="C48" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="D48" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="2:4">
       <c r="B49" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="C49" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="D49" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="2:4">
       <c r="B50" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="C50" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="D50" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="2:4">
       <c r="B51" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="D51" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="2:4">
       <c r="B52" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C52" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D52" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="2:4">
       <c r="B53" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="D53" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="2:4">
       <c r="B54" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="C54" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="D54" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="2:4">
       <c r="B55" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C55" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D55" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="2:4">
       <c r="B56" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C56" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D56" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57" spans="2:4">
       <c r="B57" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C57" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="D57" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="2:4">
       <c r="B58" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="C58" t="s">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="D58" t="s">
-        <v>7</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4">
+      <c r="B59" t="s">
+        <v>90</v>
+      </c>
+      <c r="C59" t="s">
+        <v>91</v>
+      </c>
+      <c r="D59" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4">
+      <c r="B60" t="s">
+        <v>92</v>
+      </c>
+      <c r="C60" t="s">
+        <v>93</v>
+      </c>
+      <c r="D60" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4">
+      <c r="B61" t="s">
+        <v>95</v>
+      </c>
+      <c r="C61" t="s">
+        <v>96</v>
+      </c>
+      <c r="D61" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4">
+      <c r="B62" t="s">
+        <v>98</v>
+      </c>
+      <c r="C62" t="s">
+        <v>99</v>
+      </c>
+      <c r="D62" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4">
+      <c r="B63" t="s">
+        <v>101</v>
+      </c>
+      <c r="C63" t="s">
+        <v>102</v>
+      </c>
+      <c r="D63" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4">
+      <c r="B64" t="s">
+        <v>104</v>
+      </c>
+      <c r="C64" t="s">
+        <v>105</v>
+      </c>
+      <c r="D64" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="B65" t="s">
+        <v>107</v>
+      </c>
+      <c r="C65" t="s">
+        <v>108</v>
+      </c>
+      <c r="D65" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="B66" t="s">
+        <v>109</v>
+      </c>
+      <c r="C66" t="s">
+        <v>110</v>
+      </c>
+      <c r="D66" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="B67" t="s">
+        <v>112</v>
+      </c>
+      <c r="C67" t="s">
+        <v>113</v>
+      </c>
+      <c r="D67" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="B68" t="s">
+        <v>115</v>
+      </c>
+      <c r="C68" t="s">
+        <v>116</v>
+      </c>
+      <c r="D68" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="B72" t="s">
+        <v>119</v>
+      </c>
+      <c r="C72" t="s">
+        <v>120</v>
+      </c>
+      <c r="D72" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="B73" t="s">
+        <v>122</v>
+      </c>
+      <c r="C73" t="s">
+        <v>123</v>
+      </c>
+      <c r="D73" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="B74" t="s">
+        <v>125</v>
+      </c>
+      <c r="C74" t="s">
+        <v>126</v>
+      </c>
+      <c r="D74" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="B75" t="s">
+        <v>128</v>
+      </c>
+      <c r="C75" t="s">
+        <v>129</v>
+      </c>
+      <c r="D75" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="B76" t="s">
+        <v>49</v>
+      </c>
+      <c r="C76" t="s">
+        <v>50</v>
+      </c>
+      <c r="D76" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="B77" t="s">
+        <v>131</v>
+      </c>
+      <c r="C77" t="s">
+        <v>132</v>
+      </c>
+      <c r="D77" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="B78" t="s">
+        <v>134</v>
+      </c>
+      <c r="C78" t="s">
+        <v>135</v>
+      </c>
+      <c r="D78" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="B79" t="s">
+        <v>137</v>
+      </c>
+      <c r="C79" t="s">
+        <v>138</v>
+      </c>
+      <c r="D79" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="B80" t="s">
+        <v>140</v>
+      </c>
+      <c r="C80" t="s">
+        <v>141</v>
+      </c>
+      <c r="D80" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4">
+      <c r="B81" t="s">
+        <v>143</v>
+      </c>
+      <c r="C81" t="s">
+        <v>144</v>
+      </c>
+      <c r="D81" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4">
+      <c r="B82" t="s">
+        <v>146</v>
+      </c>
+      <c r="C82" t="s">
+        <v>147</v>
+      </c>
+      <c r="D82" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4">
+      <c r="B83" t="s">
+        <v>49</v>
+      </c>
+      <c r="C83" t="s">
+        <v>50</v>
+      </c>
+      <c r="D83" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4">
+      <c r="B84" t="s">
+        <v>149</v>
+      </c>
+      <c r="C84" t="s">
+        <v>150</v>
+      </c>
+      <c r="D84" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4">
+      <c r="B85" t="s">
+        <v>151</v>
+      </c>
+      <c r="C85" t="s">
+        <v>152</v>
+      </c>
+      <c r="D85" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4">
+      <c r="B86" t="s">
+        <v>154</v>
+      </c>
+      <c r="C86" t="s">
+        <v>155</v>
+      </c>
+      <c r="D86" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4">
+      <c r="B87" t="s">
+        <v>157</v>
+      </c>
+      <c r="C87" t="s">
+        <v>158</v>
+      </c>
+      <c r="D87" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4">
+      <c r="B88" t="s">
+        <v>160</v>
+      </c>
+      <c r="C88" t="s">
+        <v>161</v>
+      </c>
+      <c r="D88" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4">
+      <c r="B89" t="s">
+        <v>163</v>
+      </c>
+      <c r="C89" t="s">
+        <v>164</v>
+      </c>
+      <c r="D89" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4">
+      <c r="B90" t="s">
+        <v>166</v>
+      </c>
+      <c r="C90" t="s">
+        <v>167</v>
+      </c>
+      <c r="D90" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4">
+      <c r="B91" t="s">
+        <v>169</v>
+      </c>
+      <c r="C91" t="s">
+        <v>170</v>
+      </c>
+      <c r="D91" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4">
+      <c r="B92" t="s">
+        <v>171</v>
+      </c>
+      <c r="C92" t="s">
+        <v>172</v>
+      </c>
+      <c r="D92" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4">
+      <c r="B93" t="s">
+        <v>174</v>
+      </c>
+      <c r="C93" t="s">
+        <v>175</v>
+      </c>
+      <c r="D93" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4">
+      <c r="B94" t="s">
+        <v>177</v>
+      </c>
+      <c r="C94" t="s">
+        <v>178</v>
+      </c>
+      <c r="D94" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4">
+      <c r="B95" t="s">
+        <v>180</v>
+      </c>
+      <c r="C95" t="s">
+        <v>181</v>
+      </c>
+      <c r="D95" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4">
+      <c r="B96" t="s">
+        <v>183</v>
+      </c>
+      <c r="C96" t="s">
+        <v>184</v>
+      </c>
+      <c r="D96" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="B97" t="s">
+        <v>186</v>
+      </c>
+      <c r="C97" t="s">
+        <v>187</v>
+      </c>
+      <c r="D97" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="B98" t="s">
+        <v>189</v>
+      </c>
+      <c r="C98" t="s">
+        <v>190</v>
+      </c>
+      <c r="D98" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="B99" t="s">
+        <v>143</v>
+      </c>
+      <c r="C99" t="s">
+        <v>144</v>
+      </c>
+      <c r="D99" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="B100" t="s">
+        <v>192</v>
+      </c>
+      <c r="C100" t="s">
+        <v>193</v>
+      </c>
+      <c r="D100" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="B104" t="s">
+        <v>196</v>
+      </c>
+      <c r="C104" t="s">
+        <v>197</v>
+      </c>
+      <c r="D104" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="B108" t="s">
+        <v>200</v>
+      </c>
+      <c r="C108" t="s">
+        <v>201</v>
+      </c>
+      <c r="D108" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="B109" t="s">
+        <v>203</v>
+      </c>
+      <c r="C109" t="s">
+        <v>204</v>
+      </c>
+      <c r="D109" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="B110" t="s">
+        <v>206</v>
+      </c>
+      <c r="C110" t="s">
+        <v>207</v>
+      </c>
+      <c r="D110" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="B111" t="s">
+        <v>209</v>
+      </c>
+      <c r="C111" t="s">
+        <v>210</v>
+      </c>
+      <c r="D111" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="B115" t="s">
+        <v>213</v>
+      </c>
+      <c r="C115" t="s">
+        <v>214</v>
+      </c>
+      <c r="D115" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="B116" t="s">
+        <v>216</v>
+      </c>
+      <c r="C116" t="s">
+        <v>217</v>
+      </c>
+      <c r="D116" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="B117" t="s">
+        <v>219</v>
+      </c>
+      <c r="C117" t="s">
+        <v>220</v>
+      </c>
+      <c r="D117" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="B118" t="s">
+        <v>222</v>
+      </c>
+      <c r="C118" t="s">
+        <v>223</v>
+      </c>
+      <c r="D118" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="B119" t="s">
+        <v>225</v>
+      </c>
+      <c r="C119" t="s">
+        <v>226</v>
+      </c>
+      <c r="D119" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="B120" t="s">
+        <v>228</v>
+      </c>
+      <c r="C120" t="s">
+        <v>229</v>
+      </c>
+      <c r="D120" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="B121" t="s">
+        <v>231</v>
+      </c>
+      <c r="C121" t="s">
+        <v>232</v>
+      </c>
+      <c r="D121" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="B122" t="s">
+        <v>234</v>
+      </c>
+      <c r="C122" t="s">
+        <v>235</v>
+      </c>
+      <c r="D122" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="B126" t="s">
+        <v>213</v>
+      </c>
+      <c r="C126" t="s">
+        <v>214</v>
+      </c>
+      <c r="D126" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="B127" t="s">
+        <v>216</v>
+      </c>
+      <c r="C127" t="s">
+        <v>217</v>
+      </c>
+      <c r="D127" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="B128" t="s">
+        <v>219</v>
+      </c>
+      <c r="C128" t="s">
+        <v>220</v>
+      </c>
+      <c r="D128" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="B129" t="s">
+        <v>238</v>
+      </c>
+      <c r="C129" t="s">
+        <v>239</v>
+      </c>
+      <c r="D129" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="B130" t="s">
+        <v>222</v>
+      </c>
+      <c r="C130" t="s">
+        <v>223</v>
+      </c>
+      <c r="D130" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="B131" t="s">
+        <v>225</v>
+      </c>
+      <c r="C131" t="s">
+        <v>226</v>
+      </c>
+      <c r="D131" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="B132" t="s">
+        <v>228</v>
+      </c>
+      <c r="C132" t="s">
+        <v>229</v>
+      </c>
+      <c r="D132" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="B133" t="s">
+        <v>231</v>
+      </c>
+      <c r="C133" t="s">
+        <v>232</v>
+      </c>
+      <c r="D133" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="B134" t="s">
+        <v>241</v>
+      </c>
+      <c r="C134" t="s">
+        <v>242</v>
+      </c>
+      <c r="D134" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="B135" t="s">
+        <v>234</v>
+      </c>
+      <c r="C135" t="s">
+        <v>235</v>
+      </c>
+      <c r="D135" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="B139" t="s">
+        <v>245</v>
+      </c>
+      <c r="C139" t="s">
+        <v>246</v>
+      </c>
+      <c r="D139" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="B140" t="s">
+        <v>248</v>
+      </c>
+      <c r="C140" t="s">
+        <v>249</v>
+      </c>
+      <c r="D140" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="B141" t="s">
+        <v>251</v>
+      </c>
+      <c r="C141" t="s">
+        <v>252</v>
+      </c>
+      <c r="D141" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="B142" t="s">
+        <v>254</v>
+      </c>
+      <c r="C142" t="s">
+        <v>255</v>
+      </c>
+      <c r="D142" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="B143" t="s">
+        <v>257</v>
+      </c>
+      <c r="C143" t="s">
+        <v>258</v>
+      </c>
+      <c r="D143" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="B144" t="s">
+        <v>260</v>
+      </c>
+      <c r="C144" t="s">
+        <v>261</v>
+      </c>
+      <c r="D144" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="B145" t="s">
+        <v>263</v>
+      </c>
+      <c r="C145" t="s">
+        <v>264</v>
+      </c>
+      <c r="D145" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="B146" t="s">
+        <v>266</v>
+      </c>
+      <c r="C146" t="s">
+        <v>267</v>
+      </c>
+      <c r="D146" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="B150" t="s">
+        <v>270</v>
+      </c>
+      <c r="C150" t="s">
+        <v>271</v>
+      </c>
+      <c r="D150" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="B151" t="s">
+        <v>273</v>
+      </c>
+      <c r="C151" t="s">
+        <v>274</v>
+      </c>
+      <c r="D151" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="B152" t="s">
+        <v>196</v>
+      </c>
+      <c r="C152" t="s">
+        <v>197</v>
+      </c>
+      <c r="D152" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="B156" t="s">
+        <v>276</v>
+      </c>
+      <c r="C156" t="s">
+        <v>277</v>
+      </c>
+      <c r="D156" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="B157" t="s">
+        <v>279</v>
+      </c>
+      <c r="C157" t="s">
+        <v>280</v>
+      </c>
+      <c r="D157" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="B158" t="s">
+        <v>282</v>
+      </c>
+      <c r="C158" t="s">
+        <v>283</v>
+      </c>
+      <c r="D158" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="B159" t="s">
+        <v>49</v>
+      </c>
+      <c r="C159" t="s">
+        <v>50</v>
+      </c>
+      <c r="D159" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="B160" t="s">
+        <v>285</v>
+      </c>
+      <c r="C160" t="s">
+        <v>286</v>
+      </c>
+      <c r="D160" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="161" spans="2:4">
+      <c r="B161" t="s">
+        <v>288</v>
+      </c>
+      <c r="C161" t="s">
+        <v>289</v>
+      </c>
+      <c r="D161" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="162" spans="2:4">
+      <c r="B162" t="s">
+        <v>291</v>
+      </c>
+      <c r="C162" t="s">
+        <v>226</v>
+      </c>
+      <c r="D162" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="163" spans="2:4">
+      <c r="B163" t="s">
+        <v>292</v>
+      </c>
+      <c r="C163" t="s">
+        <v>293</v>
+      </c>
+      <c r="D163" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="164" spans="2:4">
+      <c r="B164" t="s">
+        <v>294</v>
+      </c>
+      <c r="C164" t="s">
+        <v>295</v>
+      </c>
+      <c r="D164" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="165" spans="2:4">
+      <c r="B165" t="s">
+        <v>297</v>
+      </c>
+      <c r="C165" t="s">
+        <v>298</v>
+      </c>
+      <c r="D165" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="166" spans="2:4">
+      <c r="B166" t="s">
+        <v>143</v>
+      </c>
+      <c r="C166" t="s">
+        <v>144</v>
+      </c>
+      <c r="D166" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="167" spans="2:4">
+      <c r="B167" t="s">
+        <v>279</v>
+      </c>
+      <c r="C167" t="s">
+        <v>280</v>
+      </c>
+      <c r="D167" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="168" spans="2:4">
+      <c r="B168" t="s">
+        <v>49</v>
+      </c>
+      <c r="C168" t="s">
+        <v>50</v>
+      </c>
+      <c r="D168" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="169" spans="2:4">
+      <c r="B169" t="s">
+        <v>299</v>
+      </c>
+      <c r="C169" t="s">
+        <v>300</v>
+      </c>
+      <c r="D169" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="170" spans="2:4">
+      <c r="B170" t="s">
+        <v>302</v>
+      </c>
+      <c r="C170" t="s">
+        <v>298</v>
+      </c>
+      <c r="D170" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="171" spans="2:4">
+      <c r="B171" t="s">
+        <v>303</v>
+      </c>
+      <c r="C171" t="s">
+        <v>304</v>
+      </c>
+      <c r="D171" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="172" spans="2:4">
+      <c r="B172" t="s">
+        <v>306</v>
+      </c>
+      <c r="C172" t="s">
+        <v>307</v>
+      </c>
+      <c r="D172" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="173" spans="2:4">
+      <c r="B173" t="s">
+        <v>225</v>
+      </c>
+      <c r="C173" t="s">
+        <v>226</v>
+      </c>
+      <c r="D173" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="174" spans="2:4">
+      <c r="B174" t="s">
+        <v>294</v>
+      </c>
+      <c r="C174" t="s">
+        <v>295</v>
+      </c>
+      <c r="D174" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="175" spans="2:4">
+      <c r="B175" t="s">
+        <v>309</v>
+      </c>
+      <c r="C175" t="s">
+        <v>293</v>
+      </c>
+      <c r="D175" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="176" spans="2:4">
+      <c r="B176" t="s">
+        <v>310</v>
+      </c>
+      <c r="C176" t="s">
+        <v>283</v>
+      </c>
+      <c r="D176" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="B177" t="s">
+        <v>311</v>
+      </c>
+      <c r="C177" t="s">
+        <v>304</v>
+      </c>
+      <c r="D177" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="B178" t="s">
+        <v>312</v>
+      </c>
+      <c r="C178" t="s">
+        <v>307</v>
+      </c>
+      <c r="D178" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="B179" t="s">
+        <v>313</v>
+      </c>
+      <c r="C179" t="s">
+        <v>300</v>
+      </c>
+      <c r="D179" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="B180" t="s">
+        <v>314</v>
+      </c>
+      <c r="C180" t="s">
+        <v>286</v>
+      </c>
+      <c r="D180" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="B181" t="s">
+        <v>315</v>
+      </c>
+      <c r="C181" t="s">
+        <v>289</v>
+      </c>
+      <c r="D181" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="B182" t="s">
+        <v>143</v>
+      </c>
+      <c r="C182" t="s">
+        <v>144</v>
+      </c>
+      <c r="D182" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="B183" t="s">
+        <v>316</v>
+      </c>
+      <c r="C183" t="s">
+        <v>277</v>
+      </c>
+      <c r="D183" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="B187" t="s">
+        <v>62</v>
+      </c>
+      <c r="C187" t="s">
+        <v>60</v>
+      </c>
+      <c r="D187" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="B188" t="s">
+        <v>276</v>
+      </c>
+      <c r="C188" t="s">
+        <v>277</v>
+      </c>
+      <c r="D188" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="B189" t="s">
+        <v>52</v>
+      </c>
+      <c r="C189" t="s">
+        <v>53</v>
+      </c>
+      <c r="D189" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="B190" t="s">
+        <v>291</v>
+      </c>
+      <c r="C190" t="s">
+        <v>226</v>
+      </c>
+      <c r="D190" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="B191" t="s">
+        <v>297</v>
+      </c>
+      <c r="C191" t="s">
+        <v>298</v>
+      </c>
+      <c r="D191" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="B192" t="s">
+        <v>26</v>
+      </c>
+      <c r="C192" t="s">
+        <v>27</v>
+      </c>
+      <c r="D192" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="B193" t="s">
+        <v>299</v>
+      </c>
+      <c r="C193" t="s">
+        <v>300</v>
+      </c>
+      <c r="D193" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="B194" t="s">
+        <v>303</v>
+      </c>
+      <c r="C194" t="s">
+        <v>304</v>
+      </c>
+      <c r="D194" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="B195" t="s">
+        <v>306</v>
+      </c>
+      <c r="C195" t="s">
+        <v>307</v>
+      </c>
+      <c r="D195" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="B196" t="s">
+        <v>309</v>
+      </c>
+      <c r="C196" t="s">
+        <v>293</v>
+      </c>
+      <c r="D196" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="B197" t="s">
+        <v>318</v>
+      </c>
+      <c r="C197" t="s">
+        <v>319</v>
+      </c>
+      <c r="D197" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="B198" t="s">
+        <v>263</v>
+      </c>
+      <c r="C198" t="s">
+        <v>264</v>
+      </c>
+      <c r="D198" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="B199" t="s">
+        <v>310</v>
+      </c>
+      <c r="C199" t="s">
+        <v>283</v>
+      </c>
+      <c r="D199" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="B200" t="s">
+        <v>321</v>
+      </c>
+      <c r="C200" t="s">
+        <v>322</v>
+      </c>
+      <c r="D200" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="B201" t="s">
+        <v>323</v>
+      </c>
+      <c r="C201" t="s">
+        <v>324</v>
+      </c>
+      <c r="D201" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="B202" t="s">
+        <v>314</v>
+      </c>
+      <c r="C202" t="s">
+        <v>286</v>
+      </c>
+      <c r="D202" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="B203" t="s">
+        <v>316</v>
+      </c>
+      <c r="C203" t="s">
+        <v>277</v>
+      </c>
+      <c r="D203" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="B207" t="s">
+        <v>327</v>
+      </c>
+      <c r="C207" t="s">
+        <v>328</v>
+      </c>
+      <c r="D207" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="B208" t="s">
+        <v>330</v>
+      </c>
+      <c r="C208" t="s">
+        <v>331</v>
+      </c>
+      <c r="D208" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="209" spans="2:4">
+      <c r="B209" t="s">
+        <v>333</v>
+      </c>
+      <c r="C209" t="s">
+        <v>334</v>
+      </c>
+      <c r="D209" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="210" spans="2:4">
+      <c r="B210" t="s">
+        <v>336</v>
+      </c>
+      <c r="C210" t="s">
+        <v>337</v>
+      </c>
+      <c r="D210" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="211" spans="2:4">
+      <c r="B211" t="s">
+        <v>339</v>
+      </c>
+      <c r="C211" t="s">
+        <v>340</v>
+      </c>
+      <c r="D211" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="212" spans="2:4">
+      <c r="B212" t="s">
+        <v>342</v>
+      </c>
+      <c r="C212" t="s">
+        <v>343</v>
+      </c>
+      <c r="D212" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="213" spans="2:4">
+      <c r="B213" t="s">
+        <v>345</v>
+      </c>
+      <c r="C213" t="s">
+        <v>346</v>
+      </c>
+      <c r="D213" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="214" spans="2:4">
+      <c r="B214" t="s">
+        <v>348</v>
+      </c>
+      <c r="C214" t="s">
+        <v>349</v>
+      </c>
+      <c r="D214" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="215" spans="2:4">
+      <c r="B215" t="s">
+        <v>351</v>
+      </c>
+      <c r="C215" t="s">
+        <v>352</v>
+      </c>
+      <c r="D215" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="216" spans="2:4">
+      <c r="B216" t="s">
+        <v>354</v>
+      </c>
+      <c r="C216" t="s">
+        <v>355</v>
+      </c>
+      <c r="D216" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="217" spans="2:4">
+      <c r="B217" t="s">
+        <v>357</v>
+      </c>
+      <c r="C217" t="s">
+        <v>358</v>
+      </c>
+      <c r="D217" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="218" spans="2:4">
+      <c r="B218" t="s">
+        <v>360</v>
+      </c>
+      <c r="C218" t="s">
+        <v>361</v>
+      </c>
+      <c r="D218" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="219" spans="2:4">
+      <c r="B219" t="s">
+        <v>363</v>
+      </c>
+      <c r="C219" t="s">
+        <v>364</v>
+      </c>
+      <c r="D219" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="220" spans="2:4">
+      <c r="B220" t="s">
+        <v>366</v>
+      </c>
+      <c r="C220" t="s">
+        <v>367</v>
+      </c>
+      <c r="D220" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="221" spans="2:4">
+      <c r="B221" t="s">
+        <v>369</v>
+      </c>
+      <c r="C221" t="s">
+        <v>370</v>
+      </c>
+      <c r="D221" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="222" spans="2:4">
+      <c r="B222" t="s">
+        <v>372</v>
+      </c>
+      <c r="C222" t="s">
+        <v>373</v>
+      </c>
+      <c r="D222" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="223" spans="2:4">
+      <c r="B223" t="s">
+        <v>375</v>
+      </c>
+      <c r="C223" t="s">
+        <v>376</v>
+      </c>
+      <c r="D223" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="224" spans="2:4">
+      <c r="B224" t="s">
+        <v>315</v>
+      </c>
+      <c r="C224" t="s">
+        <v>289</v>
+      </c>
+      <c r="D224" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="225" spans="2:4">
+      <c r="B225" t="s">
+        <v>378</v>
+      </c>
+      <c r="C225" t="s">
+        <v>379</v>
+      </c>
+      <c r="D225" t="s">
+        <v>380</v>
       </c>
     </row>
   </sheetData>

--- a/riassuntoAutomatico.xlsx
+++ b/riassuntoAutomatico.xlsx
@@ -316,6 +316,60 @@
     <t>2017-01-20 00:00:00</t>
   </si>
   <si>
+    <t>Agostinetto  Levi</t>
+  </si>
+  <si>
+    <t>GSTLVE17B06A952V</t>
+  </si>
+  <si>
+    <t>2017-02-06 00:00:00</t>
+  </si>
+  <si>
+    <t>Doliana Mia</t>
+  </si>
+  <si>
+    <t>DLNMIA16T71A952X</t>
+  </si>
+  <si>
+    <t>2016-12-31 00:00:00</t>
+  </si>
+  <si>
+    <t>Perillo Zwink Noah Leon</t>
+  </si>
+  <si>
+    <t>PRLNLN17A15F132L</t>
+  </si>
+  <si>
+    <t>2017-01-15 00:00:00</t>
+  </si>
+  <si>
+    <t>Pfattner  Jonas</t>
+  </si>
+  <si>
+    <t>PFTJNS16S25A952D</t>
+  </si>
+  <si>
+    <t>2016-11-25 00:00:00</t>
+  </si>
+  <si>
+    <t>Stragenegg Krieg Paul</t>
+  </si>
+  <si>
+    <t>STRPLA17B14F132K</t>
+  </si>
+  <si>
+    <t>2017-02-14 00:00:00</t>
+  </si>
+  <si>
+    <t>Vassanelli Noah</t>
+  </si>
+  <si>
+    <t>VSSNHO16R13F132P</t>
+  </si>
+  <si>
+    <t>2016-10-13 00:00:00</t>
+  </si>
+  <si>
     <t>Villgrattner Jonas</t>
   </si>
   <si>
@@ -325,60 +379,6 @@
     <t>2017-01-09 00:00:00</t>
   </si>
   <si>
-    <t>Agostinetto  Levi</t>
-  </si>
-  <si>
-    <t>GSTLVE17B06A952V</t>
-  </si>
-  <si>
-    <t>2017-02-06 00:00:00</t>
-  </si>
-  <si>
-    <t>Doliana Mia</t>
-  </si>
-  <si>
-    <t>DLNMIA16T71A952X</t>
-  </si>
-  <si>
-    <t>2016-12-31 00:00:00</t>
-  </si>
-  <si>
-    <t>Perillo Zwink Noah Leon</t>
-  </si>
-  <si>
-    <t>PRLNLN17A15F132L</t>
-  </si>
-  <si>
-    <t>2017-01-15 00:00:00</t>
-  </si>
-  <si>
-    <t>Pfattner  Jonas</t>
-  </si>
-  <si>
-    <t>PFTJNS16S25A952D</t>
-  </si>
-  <si>
-    <t>2016-11-25 00:00:00</t>
-  </si>
-  <si>
-    <t>Stragenegg Krieg Paul</t>
-  </si>
-  <si>
-    <t>STRPLA17B14F132K</t>
-  </si>
-  <si>
-    <t>2017-02-14 00:00:00</t>
-  </si>
-  <si>
-    <t>Vassanelli Noah</t>
-  </si>
-  <si>
-    <t>VSSNHO16R13F132P</t>
-  </si>
-  <si>
-    <t>2016-10-13 00:00:00</t>
-  </si>
-  <si>
     <t>Mor  Nadyn</t>
   </si>
   <si>
@@ -748,6 +748,15 @@
     <t>PRMFLX17A13A952N</t>
   </si>
   <si>
+    <t>HOLZER LARISSA</t>
+  </si>
+  <si>
+    <t>HLZLSS16M51M067B</t>
+  </si>
+  <si>
+    <t>2016-08-11 00:00:00</t>
+  </si>
+  <si>
     <t>GRAUS DAVID</t>
   </si>
   <si>
@@ -757,15 +766,6 @@
     <t>2017-02-16 00:00:00</t>
   </si>
   <si>
-    <t>HOLZER LARISSA</t>
-  </si>
-  <si>
-    <t>HLZLSS16M51M067B</t>
-  </si>
-  <si>
-    <t>2016-08-11 00:00:00</t>
-  </si>
-  <si>
     <t>OBERFRANK LUIS</t>
   </si>
   <si>
@@ -787,6 +787,12 @@
     <t>2017-02-28 00:00:00</t>
   </si>
   <si>
+    <t>GRUBER IDA</t>
+  </si>
+  <si>
+    <t>GRBDIA17A58I729E</t>
+  </si>
+  <si>
     <t>DE ZORDO LISA MARIE</t>
   </si>
   <si>
@@ -805,12 +811,6 @@
     <t>GASSER LARA</t>
   </si>
   <si>
-    <t>GRUBER IDA</t>
-  </si>
-  <si>
-    <t>GRBDIA17A58I729E</t>
-  </si>
-  <si>
     <t>INNERHOFER SOPHIA</t>
   </si>
   <si>
@@ -2218,6 +2218,15 @@
     <t>2018-04-06 00:00:00</t>
   </si>
   <si>
+    <t>Cellamare Camilla</t>
+  </si>
+  <si>
+    <t>CLLCLL17P60F132P</t>
+  </si>
+  <si>
+    <t>2017-09-20 00:00:00</t>
+  </si>
+  <si>
     <t>Whitecotton Leopold Harrison</t>
   </si>
   <si>
@@ -2225,15 +2234,6 @@
   </si>
   <si>
     <t>2018-02-20 00:00:00</t>
-  </si>
-  <si>
-    <t>Cellamare Camilla</t>
-  </si>
-  <si>
-    <t>CLLCLL17P60F132P</t>
-  </si>
-  <si>
-    <t>2017-09-20 00:00:00</t>
   </si>
   <si>
     <t>Mazohl Mari</t>
@@ -3427,13 +3427,13 @@
     </row>
     <row r="67" spans="2:4">
       <c r="B67" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C67" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D67" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="68" spans="2:4">
@@ -3449,13 +3449,13 @@
     </row>
     <row r="69" spans="2:4">
       <c r="B69" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C69" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D69" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="70" spans="2:4">
@@ -3653,7 +3653,7 @@
         <v>161</v>
       </c>
       <c r="D87" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="88" spans="2:4">
@@ -4005,7 +4005,7 @@
         <v>237</v>
       </c>
       <c r="D119" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="120" spans="2:4">
@@ -4027,7 +4027,7 @@
         <v>241</v>
       </c>
       <c r="D121" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="122" spans="2:4">
@@ -4071,7 +4071,7 @@
         <v>251</v>
       </c>
       <c r="D125" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
     </row>
     <row r="126" spans="2:4">
@@ -4104,7 +4104,7 @@
         <v>258</v>
       </c>
       <c r="D128" t="s">
-        <v>221</v>
+        <v>126</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -4115,40 +4115,40 @@
         <v>260</v>
       </c>
       <c r="D129" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="B130" t="s">
-        <v>64</v>
+        <v>261</v>
       </c>
       <c r="C130" t="s">
-        <v>65</v>
+        <v>262</v>
       </c>
       <c r="D130" t="s">
-        <v>66</v>
+        <v>263</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="B131" t="s">
-        <v>262</v>
+        <v>64</v>
       </c>
       <c r="C131" t="s">
-        <v>176</v>
+        <v>65</v>
       </c>
       <c r="D131" t="s">
-        <v>144</v>
+        <v>66</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="B132" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C132" t="s">
-        <v>264</v>
+        <v>176</v>
       </c>
       <c r="D132" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -6650,13 +6650,13 @@
     </row>
     <row r="388" spans="2:4">
       <c r="B388" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="C388" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="D388" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
     </row>
     <row r="389" spans="2:4">
@@ -6716,13 +6716,13 @@
     </row>
     <row r="394" spans="2:4">
       <c r="B394" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="C394" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="D394" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="395" spans="2:4">

--- a/riassuntoAutomatico.xlsx
+++ b/riassuntoAutomatico.xlsx
@@ -14,57 +14,1605 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="533">
   <si>
     <t>Riassunto analisi</t>
   </si>
   <si>
-    <t>Trovati errori per 3 bambini</t>
-  </si>
-  <si>
-    <t>Trovate 1 occorrenze per il controllo Controllo Kindergarten #2</t>
-  </si>
-  <si>
-    <t>Trovate 1 occorrenze per il controllo Controllo Fehler Eingewöhnung 543 Lockdown</t>
-  </si>
-  <si>
-    <t>Trovate 1 occorrenze per il controllo Controllo ore complessive periodo contrattuale</t>
+    <t>Trovati errori per 152 bambini</t>
+  </si>
+  <si>
+    <t>Trovate 55 occorrenze per il controllo Controllo Kindergarten #1</t>
+  </si>
+  <si>
+    <t>Trovate 44 occorrenze per il controllo Controllo Kindergarten #2</t>
+  </si>
+  <si>
+    <t>Trovate 7 occorrenze per il controllo Controllo finanziamento compensativo</t>
+  </si>
+  <si>
+    <t>Trovate 4 occorrenze per il controllo Controllo finanziamento compensativo #2</t>
+  </si>
+  <si>
+    <t>Trovate 1 occorrenze per il controllo Controllo Covid #1</t>
+  </si>
+  <si>
+    <t>Trovate 9 occorrenze per il controllo Controllo Covid #3</t>
+  </si>
+  <si>
+    <t>Trovate 13 occorrenze per il controllo Contratti lockdown sospetti (Covid #4)</t>
+  </si>
+  <si>
+    <t>Trovate 13 occorrenze per il controllo Controllo Fehler Eingewöhnung</t>
+  </si>
+  <si>
+    <t>Trovate 24 occorrenze per il controllo Controllo Fehler Eingewöhnung 543 Lockdown</t>
+  </si>
+  <si>
+    <t>Trovate 14 occorrenze per il controllo Controllo Fehler Eingewöhnung 543 Notbetreuung</t>
+  </si>
+  <si>
+    <t>Trovate 2 occorrenze per il controllo Controllo ore complessive periodo contrattuale</t>
+  </si>
+  <si>
+    <t>Trovate 35 occorrenze per il controllo Bambino presente in più comuni</t>
+  </si>
+  <si>
+    <t>Trovate 1 occorrenze per il controllo Bambini con annotazioni</t>
+  </si>
+  <si>
+    <t>Controllo Kindergarten #1</t>
+  </si>
+  <si>
+    <t>Stampfl Johanna</t>
+  </si>
+  <si>
+    <t>STMJNN17A47A952V</t>
+  </si>
+  <si>
+    <t>2017-01-07</t>
+  </si>
+  <si>
+    <t>Bozen</t>
+  </si>
+  <si>
+    <t>Viaro Camilla</t>
+  </si>
+  <si>
+    <t>VRICLL16R64L378G</t>
+  </si>
+  <si>
+    <t>2016-10-24</t>
+  </si>
+  <si>
+    <t>Lüling Gabriel</t>
+  </si>
+  <si>
+    <t>LLNGRL17B23B160G</t>
+  </si>
+  <si>
+    <t>2017-02-23</t>
+  </si>
+  <si>
+    <t>Brixen</t>
+  </si>
+  <si>
+    <t>Burkhart Nele</t>
+  </si>
+  <si>
+    <t>BRKNLE17B41B220I</t>
+  </si>
+  <si>
+    <t>2017-02-01</t>
+  </si>
+  <si>
+    <t>Bruneck</t>
+  </si>
+  <si>
+    <t>Obgriesser Niklas</t>
+  </si>
+  <si>
+    <t>BGRNLS17B26B220E</t>
+  </si>
+  <si>
+    <t>2017-02-26</t>
+  </si>
+  <si>
+    <t>Haller Toni</t>
+  </si>
+  <si>
+    <t>HLLTNO16T14B220U</t>
+  </si>
+  <si>
+    <t>2016-12-14</t>
+  </si>
+  <si>
+    <t>Gsies</t>
+  </si>
+  <si>
+    <t>Seiwald  Silas</t>
+  </si>
+  <si>
+    <t>SWLSLS16S08B220U</t>
+  </si>
+  <si>
+    <t>2016-11-08</t>
+  </si>
+  <si>
+    <t>Bozzano Pietro</t>
+  </si>
+  <si>
+    <t>BZZPTR17A26B160X</t>
+  </si>
+  <si>
+    <t>2017-01-26</t>
+  </si>
+  <si>
+    <t>Karneid</t>
+  </si>
+  <si>
+    <t>Rieder Fabian</t>
+  </si>
+  <si>
+    <t>RDRFBN17A08B160U</t>
+  </si>
+  <si>
+    <t>2017-01-08</t>
+  </si>
+  <si>
+    <t>Gasser Lara</t>
+  </si>
+  <si>
+    <t>GSSLRA17B48F132D</t>
+  </si>
+  <si>
+    <t>2017-02-08</t>
+  </si>
+  <si>
+    <t>Lana</t>
+  </si>
+  <si>
+    <t>Goegele Maria</t>
+  </si>
+  <si>
+    <t>GGLMRA16S62F132J</t>
+  </si>
+  <si>
+    <t>2016-11-22</t>
+  </si>
+  <si>
+    <t>Ladurner Moritz</t>
+  </si>
+  <si>
+    <t>LDRMTZ17B09F132D</t>
+  </si>
+  <si>
+    <t>2017-02-09</t>
+  </si>
+  <si>
+    <t>Marling</t>
+  </si>
+  <si>
+    <t>Agostinetto  Levi</t>
+  </si>
+  <si>
+    <t>GSTLVE17B06A952V</t>
+  </si>
+  <si>
+    <t>2017-02-06</t>
+  </si>
+  <si>
+    <t>Meran</t>
+  </si>
+  <si>
+    <t>Doliana Mia</t>
+  </si>
+  <si>
+    <t>DLNMIA16T71A952X</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>Perillo Zwink Noah Leon</t>
+  </si>
+  <si>
+    <t>PRLNLN17A15F132L</t>
+  </si>
+  <si>
+    <t>2017-01-15</t>
+  </si>
+  <si>
+    <t>Pfattner  Jonas</t>
+  </si>
+  <si>
+    <t>PFTJNS16S25A952D</t>
+  </si>
+  <si>
+    <t>2016-11-25</t>
+  </si>
+  <si>
+    <t>Stragenegg Krieg Paul</t>
+  </si>
+  <si>
+    <t>STRPLA17B14F132K</t>
+  </si>
+  <si>
+    <t>2017-02-14</t>
+  </si>
+  <si>
+    <t>Vassanelli Noah</t>
+  </si>
+  <si>
+    <t>VSSNHO16R13F132P</t>
+  </si>
+  <si>
+    <t>2016-10-13</t>
+  </si>
+  <si>
+    <t>Gruber  Emil</t>
+  </si>
+  <si>
+    <t>GRBMLE16T12F132N</t>
+  </si>
+  <si>
+    <t>2016-12-12</t>
+  </si>
+  <si>
+    <t>Moelten</t>
+  </si>
+  <si>
+    <t>Blaas Jakob</t>
+  </si>
+  <si>
+    <t>BLSJKB16R29I729Q</t>
+  </si>
+  <si>
+    <t>2016-10-29</t>
+  </si>
+  <si>
+    <t>Naturns</t>
+  </si>
+  <si>
+    <t>Abler Sophie</t>
+  </si>
+  <si>
+    <t>BLRSPH16T68F132B</t>
+  </si>
+  <si>
+    <t>2016-12-28</t>
+  </si>
+  <si>
+    <t>Partschins</t>
+  </si>
+  <si>
+    <t>Sevcikova  Nadia</t>
+  </si>
+  <si>
+    <t>SVCNDA17A70B220F</t>
+  </si>
+  <si>
+    <t>2017-01-30</t>
+  </si>
+  <si>
+    <t>Pfalzen</t>
+  </si>
+  <si>
+    <t>Weger Toni</t>
+  </si>
+  <si>
+    <t>WGRTNO17B05B160N</t>
+  </si>
+  <si>
+    <t>2017-02-05</t>
+  </si>
+  <si>
+    <t>Volante Vittorio</t>
+  </si>
+  <si>
+    <t>VLNVTR17B01A952B</t>
+  </si>
+  <si>
+    <t>Pfatten</t>
+  </si>
+  <si>
+    <t>Ennemoser  Ella</t>
+  </si>
+  <si>
+    <t>NNMLLE17A60A952M</t>
+  </si>
+  <si>
+    <t>2017-01-20</t>
+  </si>
+  <si>
+    <t>Prad a Stj</t>
+  </si>
+  <si>
+    <t>Fiechter Emil</t>
+  </si>
+  <si>
+    <t>FCHMLE17A12B160W</t>
+  </si>
+  <si>
+    <t>2017-01-12</t>
+  </si>
+  <si>
+    <t>Ratschings</t>
+  </si>
+  <si>
+    <t>Walter Moritz</t>
+  </si>
+  <si>
+    <t>WLTMTZ16M02M067H</t>
+  </si>
+  <si>
+    <t>2016-08-02</t>
+  </si>
+  <si>
+    <t>Gruber  Karolina</t>
+  </si>
+  <si>
+    <t>GRBKLN17A70F132K</t>
+  </si>
+  <si>
+    <t>Riffian</t>
+  </si>
+  <si>
+    <t>Niederkofler Josef</t>
+  </si>
+  <si>
+    <t>NDRJSF17A20B220Z</t>
+  </si>
+  <si>
+    <t>Sand in Taufers</t>
+  </si>
+  <si>
+    <t>Desaler Viktoria</t>
+  </si>
+  <si>
+    <t>DSLVTR17A51A952V</t>
+  </si>
+  <si>
+    <t>2017-01-11</t>
+  </si>
+  <si>
+    <t>Sarntal</t>
+  </si>
+  <si>
+    <t>Pföstl  Philipp</t>
+  </si>
+  <si>
+    <t>PFSPLP17B08F132P</t>
+  </si>
+  <si>
+    <t>Schenna</t>
+  </si>
+  <si>
+    <t>Matzoll Simon</t>
+  </si>
+  <si>
+    <t>MTZSMN16T01F132M</t>
+  </si>
+  <si>
+    <t>2016-12-01</t>
+  </si>
+  <si>
+    <t>St. Pankraz Ulten</t>
+  </si>
+  <si>
+    <t>Huber  David</t>
+  </si>
+  <si>
+    <t>HBRDVD16S18B220L</t>
+  </si>
+  <si>
+    <t>2016-11-18</t>
+  </si>
+  <si>
+    <t>St. Lorenzen</t>
+  </si>
+  <si>
+    <t>Moosbrugger Theresa</t>
+  </si>
+  <si>
+    <t>MSBTRS17B42Z102X</t>
+  </si>
+  <si>
+    <t>2017-02-02</t>
+  </si>
+  <si>
+    <t>Mentzel Katharina</t>
+  </si>
+  <si>
+    <t>MNTKHR17A55A952Q</t>
+  </si>
+  <si>
+    <t>Tiers</t>
+  </si>
+  <si>
+    <t>Rieder  Isabel</t>
+  </si>
+  <si>
+    <t>RDRSBL16M50A952F</t>
+  </si>
+  <si>
+    <t>2016-08-10</t>
+  </si>
+  <si>
+    <t>Niederstaetter Leni</t>
+  </si>
+  <si>
+    <t>NDRLNE16T59A952N</t>
+  </si>
+  <si>
+    <t>2016-12-19</t>
+  </si>
+  <si>
+    <t>Tscherms</t>
+  </si>
+  <si>
+    <t>Niederstaetter Toni</t>
+  </si>
+  <si>
+    <t>NDRTNO16T19A952B</t>
+  </si>
+  <si>
+    <t>Pircher Paul</t>
+  </si>
+  <si>
+    <t>PRCPLA16S29F132U</t>
+  </si>
+  <si>
+    <t>2016-11-29</t>
+  </si>
+  <si>
+    <t>Scheibenhoffer Alexander</t>
+  </si>
+  <si>
+    <t>SCHLND17B12F132N</t>
+  </si>
+  <si>
+    <t>2017-02-12</t>
+  </si>
+  <si>
+    <t>Gamper Klaus</t>
+  </si>
+  <si>
+    <t>GMPKLS16T18F132L</t>
+  </si>
+  <si>
+    <t>2016-12-18</t>
+  </si>
+  <si>
+    <t>Ulten</t>
+  </si>
+  <si>
+    <t>Trafojer Jakob</t>
+  </si>
+  <si>
+    <t>TRFJKB16S22F132Q</t>
+  </si>
+  <si>
+    <t>Villgrattner Jonas</t>
+  </si>
+  <si>
+    <t>VLLJNS17A09B160F</t>
+  </si>
+  <si>
+    <t>2017-01-09</t>
+  </si>
+  <si>
+    <t>Völs am Schlern</t>
+  </si>
+  <si>
+    <t>Mor  Nadyn</t>
+  </si>
+  <si>
+    <t>MRONYN16P65B160C</t>
+  </si>
+  <si>
+    <t>2016-09-25</t>
+  </si>
+  <si>
+    <t>Vintl</t>
+  </si>
+  <si>
+    <t>Ploner  Simon</t>
+  </si>
+  <si>
+    <t>PLNSMN17A18B220Q</t>
+  </si>
+  <si>
+    <t>2017-01-18</t>
+  </si>
+  <si>
+    <t>Dejori Pia</t>
+  </si>
+  <si>
+    <t>DJRPIA17A67A952Q</t>
+  </si>
+  <si>
+    <t>2017-01-27</t>
+  </si>
+  <si>
+    <t>Welschnofen</t>
+  </si>
+  <si>
+    <t>Kircher  Lena</t>
+  </si>
+  <si>
+    <t>KRCLNE17B53B160I</t>
+  </si>
+  <si>
+    <t>2017-02-13</t>
+  </si>
+  <si>
+    <t>Kohler Mali</t>
+  </si>
+  <si>
+    <t>KHLMLA17A71A952X</t>
+  </si>
+  <si>
+    <t>2017-01-31</t>
   </si>
   <si>
     <t>Controllo Kindergarten #2</t>
   </si>
   <si>
-    <t>Gega Glenta</t>
-  </si>
-  <si>
-    <t>GGEGNT17P50A952S</t>
-  </si>
-  <si>
-    <t>2017-09-10 00:00:00</t>
+    <t>Ruiu Nina</t>
+  </si>
+  <si>
+    <t>RUINNI17C65B220Y</t>
+  </si>
+  <si>
+    <t>2017-03-25</t>
+  </si>
+  <si>
+    <t>Ahrntal</t>
+  </si>
+  <si>
+    <t>Hölzl Felicia Victoria</t>
+  </si>
+  <si>
+    <t>HLZFCV17S56F132E</t>
+  </si>
+  <si>
+    <t>2017-11-16</t>
+  </si>
+  <si>
+    <t>Algund</t>
+  </si>
+  <si>
+    <t>Maturilli Anna Maria</t>
+  </si>
+  <si>
+    <t>MTRNMR17H63F132N</t>
+  </si>
+  <si>
+    <t>2017-06-23</t>
+  </si>
+  <si>
+    <t>Oschmann Carl Cosimo</t>
+  </si>
+  <si>
+    <t>SCHCLC17L23B160P</t>
+  </si>
+  <si>
+    <t>2017-07-23</t>
+  </si>
+  <si>
+    <t>Platter  Felix</t>
+  </si>
+  <si>
+    <t>PLTFLX17D28B160Z</t>
+  </si>
+  <si>
+    <t>2017-04-28</t>
+  </si>
+  <si>
+    <t>Witcher Noah Sebastian</t>
+  </si>
+  <si>
+    <t>WTCNSB17C04B160X</t>
+  </si>
+  <si>
+    <t>2017-03-04</t>
+  </si>
+  <si>
+    <t>Gatterer Banna Amira</t>
+  </si>
+  <si>
+    <t>GTTMRA17D43B220Y</t>
+  </si>
+  <si>
+    <t>2017-04-03</t>
+  </si>
+  <si>
+    <t>Longo Giada</t>
+  </si>
+  <si>
+    <t>LNGGDI17E68B220Z</t>
+  </si>
+  <si>
+    <t>2017-05-28</t>
+  </si>
+  <si>
+    <t>Werner Emma</t>
+  </si>
+  <si>
+    <t>WRNMME17T67A952M</t>
+  </si>
+  <si>
+    <t>2017-12-27</t>
+  </si>
+  <si>
+    <t>Deutschnofen</t>
+  </si>
+  <si>
+    <t>Messner Jakob</t>
+  </si>
+  <si>
+    <t>MSSJKB17S30F132S</t>
+  </si>
+  <si>
+    <t>2017-11-30</t>
+  </si>
+  <si>
+    <t>Eppan</t>
+  </si>
+  <si>
+    <t>Malfatti Jonas</t>
+  </si>
+  <si>
+    <t>MLFJNS17E18F132I</t>
+  </si>
+  <si>
+    <t>2017-05-18</t>
+  </si>
+  <si>
+    <t>Gargazon</t>
+  </si>
+  <si>
+    <t>Eschgfaeller Marie</t>
+  </si>
+  <si>
+    <t>SCHMRA17T62A952K</t>
+  </si>
+  <si>
+    <t>2017-12-22</t>
+  </si>
+  <si>
+    <t>Hafling</t>
+  </si>
+  <si>
+    <t>Gostner Noah</t>
+  </si>
+  <si>
+    <t>GSTNHO17T18B160K</t>
+  </si>
+  <si>
+    <t>2017-12-18</t>
+  </si>
+  <si>
+    <t>Kastelruth</t>
+  </si>
+  <si>
+    <t>Hochgruber Raphael</t>
+  </si>
+  <si>
+    <t>HCHRHL17S04B220O</t>
+  </si>
+  <si>
+    <t>2017-11-04</t>
+  </si>
+  <si>
+    <t>Kiens</t>
+  </si>
+  <si>
+    <t>Bekoe Lucia</t>
+  </si>
+  <si>
+    <t>BKELCU17R50A952D</t>
+  </si>
+  <si>
+    <t>2017-10-10</t>
+  </si>
+  <si>
+    <t>Klausen</t>
+  </si>
+  <si>
+    <t>Frei Gasser Mia</t>
+  </si>
+  <si>
+    <t>FRGMIA17C65B160L</t>
+  </si>
+  <si>
+    <t>Pejic Milica</t>
+  </si>
+  <si>
+    <t>PJCMLC17H48F132R</t>
+  </si>
+  <si>
+    <t>2017-06-08</t>
+  </si>
+  <si>
+    <t>Wenter Leo</t>
+  </si>
+  <si>
+    <t>WNTLEO17M01F132R</t>
+  </si>
+  <si>
+    <t>2017-08-01</t>
+  </si>
+  <si>
+    <t>Barbi Serena</t>
+  </si>
+  <si>
+    <t>BRBSRN17R65A952R</t>
+  </si>
+  <si>
+    <t>2017-10-25</t>
+  </si>
+  <si>
+    <t>Leifers</t>
+  </si>
+  <si>
+    <t>Coser Arthur</t>
+  </si>
+  <si>
+    <t>CSRRHR17L18F132W</t>
+  </si>
+  <si>
+    <t>2017-07-18</t>
+  </si>
+  <si>
+    <t>Matzoll Rene</t>
+  </si>
+  <si>
+    <t>MTZRNE17C30F132A</t>
+  </si>
+  <si>
+    <t>2017-03-30</t>
+  </si>
+  <si>
+    <t>Costa Yasmina</t>
+  </si>
+  <si>
+    <t>CSTYMN17E60F132Y</t>
+  </si>
+  <si>
+    <t>2017-05-20</t>
+  </si>
+  <si>
+    <t>Massei Damian</t>
+  </si>
+  <si>
+    <t>MSSDMN17S29Z102Y</t>
+  </si>
+  <si>
+    <t>2017-11-29</t>
+  </si>
+  <si>
+    <t>Niederstaetter Leo</t>
+  </si>
+  <si>
+    <t>NDRLEO17H28F132T</t>
+  </si>
+  <si>
+    <t>2017-06-28</t>
+  </si>
+  <si>
+    <t>Orlando Amy</t>
+  </si>
+  <si>
+    <t>RLNMYA17E46F132T</t>
+  </si>
+  <si>
+    <t>2017-05-06</t>
+  </si>
+  <si>
+    <t>Prevedello  Timo</t>
+  </si>
+  <si>
+    <t>PRVTMI17T12F132L</t>
+  </si>
+  <si>
+    <t>2017-12-12</t>
+  </si>
+  <si>
+    <t>Scano Nicole</t>
+  </si>
+  <si>
+    <t>SCNNCL17D64F132B</t>
+  </si>
+  <si>
+    <t>2017-04-24</t>
+  </si>
+  <si>
+    <t>Stanzel Amira</t>
+  </si>
+  <si>
+    <t>STNMRA17E53F132I</t>
+  </si>
+  <si>
+    <t>2017-05-13</t>
+  </si>
+  <si>
+    <t>Winkler Paula</t>
+  </si>
+  <si>
+    <t>WNKPLA17R42B220L</t>
+  </si>
+  <si>
+    <t>2017-10-02</t>
+  </si>
+  <si>
+    <t>Olang</t>
+  </si>
+  <si>
+    <t>Ellecosta Emely</t>
+  </si>
+  <si>
+    <t>LLCMLY17S49B220J</t>
+  </si>
+  <si>
+    <t>2017-11-09</t>
+  </si>
+  <si>
+    <t>Oberhollenzer Ben</t>
+  </si>
+  <si>
+    <t>BRHBNE17P04B220J</t>
+  </si>
+  <si>
+    <t>2017-09-04</t>
+  </si>
+  <si>
+    <t>Priller  Yara</t>
+  </si>
+  <si>
+    <t>PRLYRA17D69B220C</t>
+  </si>
+  <si>
+    <t>2017-04-29</t>
+  </si>
+  <si>
+    <t>Taschler  Anton</t>
+  </si>
+  <si>
+    <t>TSCNTN17L08B220M</t>
+  </si>
+  <si>
+    <t>2017-07-08</t>
+  </si>
+  <si>
+    <t>Rasen/Antholz</t>
+  </si>
+  <si>
+    <t>Ausserhofer Matthias</t>
+  </si>
+  <si>
+    <t>SSRMTH17S09B220Q</t>
+  </si>
+  <si>
+    <t>Doda Denis</t>
+  </si>
+  <si>
+    <t>DDODNS17L05I729E</t>
+  </si>
+  <si>
+    <t>2017-07-05</t>
+  </si>
+  <si>
+    <t>Schlanders</t>
+  </si>
+  <si>
+    <t>Thoman Aimar Amalia</t>
+  </si>
+  <si>
+    <t>THMMLA17T69I729V</t>
+  </si>
+  <si>
+    <t>2017-12-29</t>
+  </si>
+  <si>
+    <t>Trafoier Alex</t>
+  </si>
+  <si>
+    <t>TRFLXA17S27I729K</t>
+  </si>
+  <si>
+    <t>2017-11-27</t>
+  </si>
+  <si>
+    <t>Woerndle Paul</t>
+  </si>
+  <si>
+    <t>WRNPLA17T13I729Z</t>
+  </si>
+  <si>
+    <t>2017-12-13</t>
+  </si>
+  <si>
+    <t>Schnals</t>
+  </si>
+  <si>
+    <t>Gumpold Marius</t>
+  </si>
+  <si>
+    <t>GMPMRS17M28F132X</t>
+  </si>
+  <si>
+    <t>2017-08-28</t>
+  </si>
+  <si>
+    <t>St. Leonhard in Passeier</t>
+  </si>
+  <si>
+    <t>Kofler Andreas</t>
+  </si>
+  <si>
+    <t>KFLNRS17S23F132N</t>
+  </si>
+  <si>
+    <t>2017-11-23</t>
+  </si>
+  <si>
+    <t>St. Martin in Passeier</t>
+  </si>
+  <si>
+    <t>Lunger Ida</t>
+  </si>
+  <si>
+    <t>LNGDIA17S51A952F</t>
+  </si>
+  <si>
+    <t>2017-11-11</t>
+  </si>
+  <si>
+    <t>Pircher Hannes</t>
+  </si>
+  <si>
+    <t>PRCHNS17C08F132K</t>
+  </si>
+  <si>
+    <t>2017-03-08</t>
+  </si>
+  <si>
+    <t>Mayer Fabienne</t>
+  </si>
+  <si>
+    <t>MYRFNN17L67B160A</t>
+  </si>
+  <si>
+    <t>2017-07-27</t>
+  </si>
+  <si>
+    <t>Villnöss</t>
+  </si>
+  <si>
+    <t>Controllo finanziamento compensativo</t>
+  </si>
+  <si>
+    <t>Sinn Sebastian</t>
+  </si>
+  <si>
+    <t>SNNSST19C22A952Q</t>
+  </si>
+  <si>
+    <t>2019-03-22</t>
+  </si>
+  <si>
+    <t>Kaltern</t>
+  </si>
+  <si>
+    <t>Pillon Luna</t>
+  </si>
+  <si>
+    <t>PLLLNU19C41B160R</t>
+  </si>
+  <si>
+    <t>2019-03-01</t>
+  </si>
+  <si>
+    <t>Santer Zoey</t>
+  </si>
+  <si>
+    <t>SNTZYO19E51B160D</t>
+  </si>
+  <si>
+    <t>2019-05-11</t>
+  </si>
+  <si>
+    <t>Illmer Rafael</t>
+  </si>
+  <si>
+    <t>LLMRFL19B10F132U</t>
+  </si>
+  <si>
+    <t>2019-02-10</t>
+  </si>
+  <si>
+    <t>Controllo finanziamento compensativo #2</t>
+  </si>
+  <si>
+    <t>Keim Iaco</t>
+  </si>
+  <si>
+    <t>KMECIA17L27B160E</t>
+  </si>
+  <si>
+    <t>Schwienbacher Ida</t>
+  </si>
+  <si>
+    <t>SCHDIA19M48F132M</t>
+  </si>
+  <si>
+    <t>2019-08-08</t>
+  </si>
+  <si>
+    <t>Kajana Mia</t>
+  </si>
+  <si>
+    <t>KJNMIA18M43A952A</t>
+  </si>
+  <si>
+    <t>2018-08-03</t>
+  </si>
+  <si>
+    <t>Tramin</t>
+  </si>
+  <si>
+    <t>Controllo Covid #1</t>
+  </si>
+  <si>
+    <t>Controllo Covid #3</t>
+  </si>
+  <si>
+    <t>Bertagnolli Julius</t>
+  </si>
+  <si>
+    <t>BRTJLS17M10I729H</t>
+  </si>
+  <si>
+    <t>2017-08-10</t>
+  </si>
+  <si>
+    <t>Pramstrahler Josef</t>
+  </si>
+  <si>
+    <t>PRMJSF19H13A952Z</t>
+  </si>
+  <si>
+    <t>2019-06-13</t>
+  </si>
+  <si>
+    <t>Gufler Lina</t>
+  </si>
+  <si>
+    <t>GFLLNI18L57F132G</t>
+  </si>
+  <si>
+    <t>2018-07-17</t>
+  </si>
+  <si>
+    <t>Moos in Passeier</t>
+  </si>
+  <si>
+    <t>Audino Dennis</t>
+  </si>
+  <si>
+    <t>DNADNS18C15F132Y</t>
+  </si>
+  <si>
+    <t>2018-03-15</t>
+  </si>
+  <si>
+    <t>Pircher Rafael Stefan</t>
+  </si>
+  <si>
+    <t>PRCRLS17M21I729J</t>
+  </si>
+  <si>
+    <t>2017-08-21</t>
+  </si>
+  <si>
+    <t>Thaler Nils</t>
+  </si>
+  <si>
+    <t>THLNLS17S11A952H</t>
+  </si>
+  <si>
+    <t>Gorfer Florian</t>
+  </si>
+  <si>
+    <t>GRFFRN18E23I729P</t>
+  </si>
+  <si>
+    <t>2018-05-23</t>
+  </si>
+  <si>
+    <t>Frei Juri</t>
+  </si>
+  <si>
+    <t>FREJRU18E29A952R</t>
+  </si>
+  <si>
+    <t>2018-05-29</t>
+  </si>
+  <si>
+    <t>Contratti lockdown sospetti (Covid #4)</t>
+  </si>
+  <si>
+    <t>Controllo Fehler Eingewöhnung</t>
+  </si>
+  <si>
+    <t>Ajardi Josef</t>
+  </si>
+  <si>
+    <t>JRDJSF19R02B220Y</t>
+  </si>
+  <si>
+    <t>2019-10-02</t>
+  </si>
+  <si>
+    <t>Gruber Emma</t>
+  </si>
+  <si>
+    <t>GRBMME18E67F132P</t>
+  </si>
+  <si>
+    <t>2018-05-27</t>
+  </si>
+  <si>
+    <t>Huber Anna</t>
+  </si>
+  <si>
+    <t>HBRNNA18S55A952Y</t>
+  </si>
+  <si>
+    <t>2018-11-15</t>
+  </si>
+  <si>
+    <t>Vent Ludwig</t>
+  </si>
+  <si>
+    <t>VNTLWG18P17F132O</t>
+  </si>
+  <si>
+    <t>2018-09-17</t>
+  </si>
+  <si>
+    <t>Burgstall</t>
+  </si>
+  <si>
+    <t>Crepaz Amelie</t>
+  </si>
+  <si>
+    <t>CRPMLA18A41B160K</t>
+  </si>
+  <si>
+    <t>2018-01-01</t>
+  </si>
+  <si>
+    <t>Feldthurns</t>
+  </si>
+  <si>
+    <t>Wassler Alex</t>
+  </si>
+  <si>
+    <t>WSSLXA18H02A952T</t>
+  </si>
+  <si>
+    <t>2018-06-02</t>
+  </si>
+  <si>
+    <t>Coser Anna</t>
+  </si>
+  <si>
+    <t>CSRNNA19E54F132F</t>
+  </si>
+  <si>
+    <t>2019-05-14</t>
+  </si>
+  <si>
+    <t>Huber Alexander</t>
+  </si>
+  <si>
+    <t>HBRLND18L27Z102R</t>
+  </si>
+  <si>
+    <t>2018-07-27</t>
+  </si>
+  <si>
+    <t>Premstaller Emmi</t>
+  </si>
+  <si>
+    <t>PRMMME19P65B220I</t>
+  </si>
+  <si>
+    <t>2019-09-25</t>
+  </si>
+  <si>
+    <t>Percha</t>
+  </si>
+  <si>
+    <t>Pichler Simon</t>
+  </si>
+  <si>
+    <t>PCHSMN19L15F132H</t>
+  </si>
+  <si>
+    <t>2019-07-15</t>
+  </si>
+  <si>
+    <t>Malloth Daniel</t>
+  </si>
+  <si>
+    <t>MLLDNL17L10I729Y</t>
+  </si>
+  <si>
+    <t>2017-07-10</t>
+  </si>
+  <si>
+    <t>Taufers i. M.</t>
+  </si>
+  <si>
+    <t>Gamper Martha</t>
+  </si>
+  <si>
+    <t>GMPMTH19D47F132J</t>
+  </si>
+  <si>
+    <t>2019-04-07</t>
+  </si>
+  <si>
+    <t>Karlegger Svenja Heidrun</t>
+  </si>
+  <si>
+    <t>KRLSNJ18P49I729Y</t>
+  </si>
+  <si>
+    <t>2018-09-09</t>
   </si>
   <si>
     <t>Controllo Fehler Eingewöhnung 543 Lockdown</t>
   </si>
   <si>
-    <t>Jasar Jonny</t>
-  </si>
-  <si>
-    <t>JSRJNY18B12A952P</t>
-  </si>
-  <si>
-    <t>2018-02-12 00:00:00</t>
+    <t>Steger Fiona</t>
+  </si>
+  <si>
+    <t>STGFNI19E63B220P</t>
+  </si>
+  <si>
+    <t>2019-05-23</t>
+  </si>
+  <si>
+    <t>Hafner Paul</t>
+  </si>
+  <si>
+    <t>HFNPLA18E20F132Q</t>
+  </si>
+  <si>
+    <t>2018-05-20</t>
+  </si>
+  <si>
+    <t>D´Altri Stella</t>
+  </si>
+  <si>
+    <t>DLTSLL19B61A944K</t>
+  </si>
+  <si>
+    <t>2019-02-21</t>
+  </si>
+  <si>
+    <t>Punter Julius</t>
+  </si>
+  <si>
+    <t>PNTJLS17H12A952S</t>
+  </si>
+  <si>
+    <t>2017-06-12</t>
+  </si>
+  <si>
+    <t>Mals i. V.</t>
+  </si>
+  <si>
+    <t>Punter  Emil</t>
+  </si>
+  <si>
+    <t>PNTMLE17H12A952H</t>
+  </si>
+  <si>
+    <t>Thaler Leia</t>
+  </si>
+  <si>
+    <t>THLLEI19A68F132X</t>
+  </si>
+  <si>
+    <t>2019-01-28</t>
+  </si>
+  <si>
+    <t>Battaglia Mattia</t>
+  </si>
+  <si>
+    <t>BTTMTT17P08B160L</t>
+  </si>
+  <si>
+    <t>2017-09-08</t>
+  </si>
+  <si>
+    <t>Natz Schabs</t>
+  </si>
+  <si>
+    <t>Eder Bruno</t>
+  </si>
+  <si>
+    <t>DREBRN19H09B220H</t>
+  </si>
+  <si>
+    <t>2019-06-09</t>
+  </si>
+  <si>
+    <t>Prantl Rosa</t>
+  </si>
+  <si>
+    <t>PRNRSO18B49F132Z</t>
+  </si>
+  <si>
+    <t>2018-02-09</t>
+  </si>
+  <si>
+    <t>Tirol</t>
+  </si>
+  <si>
+    <t>Controllo Fehler Eingewöhnung 543 Notbetreuung</t>
+  </si>
+  <si>
+    <t>Billi Lorenzo</t>
+  </si>
+  <si>
+    <t>BLLLNZ20B12A952J</t>
+  </si>
+  <si>
+    <t>2020-02-12</t>
+  </si>
+  <si>
+    <t>Auer</t>
+  </si>
+  <si>
+    <t>Pircher Elsa Katharina</t>
+  </si>
+  <si>
+    <t>PRCLKT20B55I729Y</t>
+  </si>
+  <si>
+    <t>2020-02-15</t>
+  </si>
+  <si>
+    <t>Weissteiner Maximilian</t>
+  </si>
+  <si>
+    <t>WSSMML18L16B160Z</t>
+  </si>
+  <si>
+    <t>2018-07-16</t>
+  </si>
+  <si>
+    <t>Fabris Nathan</t>
+  </si>
+  <si>
+    <t>FBRNHN20B09F132A</t>
+  </si>
+  <si>
+    <t>2020-02-09</t>
+  </si>
+  <si>
+    <t>Santner Lenz</t>
+  </si>
+  <si>
+    <t>SNTLNZ18A30F132R</t>
+  </si>
+  <si>
+    <t>2018-01-30</t>
+  </si>
+  <si>
+    <t>Edobor Evidence</t>
+  </si>
+  <si>
+    <t>DBRVNC19L59A952Z</t>
+  </si>
+  <si>
+    <t>2019-07-19</t>
+  </si>
+  <si>
+    <t>Graun im Vinschgau</t>
+  </si>
+  <si>
+    <t>Weger Mathe Elisabeth</t>
+  </si>
+  <si>
+    <t>WGRMHL18M51B220M</t>
+  </si>
+  <si>
+    <t>2018-08-11</t>
+  </si>
+  <si>
+    <t>Barcatta Lisa</t>
+  </si>
+  <si>
+    <t>BRCLSI18S47A952V</t>
+  </si>
+  <si>
+    <t>2018-11-07</t>
+  </si>
+  <si>
+    <t>Kurtatsch</t>
+  </si>
+  <si>
+    <t>Agostinetto Matti</t>
+  </si>
+  <si>
+    <t>GSTMTT20B09A952T</t>
+  </si>
+  <si>
+    <t>Burger Karin</t>
+  </si>
+  <si>
+    <t>BRGKRN19E60I729G</t>
+  </si>
+  <si>
+    <t>2019-05-20</t>
+  </si>
+  <si>
+    <t>Ciaramella Lageder Giacomo Clemens</t>
+  </si>
+  <si>
+    <t>CRMGMC19T22F132F</t>
+  </si>
+  <si>
+    <t>2019-12-22</t>
+  </si>
+  <si>
+    <t>Schnitzer Lia</t>
+  </si>
+  <si>
+    <t>SCHLIA18P62F132S</t>
+  </si>
+  <si>
+    <t>2018-09-22</t>
+  </si>
+  <si>
+    <t>Vieider Stina Marie</t>
+  </si>
+  <si>
+    <t>VDRSNM18M56B160V</t>
+  </si>
+  <si>
+    <t>2018-08-16</t>
   </si>
   <si>
     <t>Controllo ore complessive periodo contrattuale</t>
   </si>
   <si>
-    <t>Gangemi Victoria Maria</t>
-  </si>
-  <si>
-    <t>GNGVTR17M54F132R</t>
-  </si>
-  <si>
-    <t>2017-08-14 00:00:00</t>
+    <t>Todde Nicoló</t>
+  </si>
+  <si>
+    <t>TDDNCL19D28A952R</t>
+  </si>
+  <si>
+    <t>2019-04-28</t>
+  </si>
+  <si>
+    <t>Bambino presente in più comuni</t>
+  </si>
+  <si>
+    <t>Alia Amelia</t>
+  </si>
+  <si>
+    <t>LAIMLA18S61A952S</t>
+  </si>
+  <si>
+    <t>2018-11-21</t>
+  </si>
+  <si>
+    <t>Schwärzer Anna</t>
+  </si>
+  <si>
+    <t>SCHNNA19R68B220L</t>
+  </si>
+  <si>
+    <t>2019-10-28</t>
+  </si>
+  <si>
+    <t>Mazohl Mari</t>
+  </si>
+  <si>
+    <t>MZHMRA18P64F132P</t>
+  </si>
+  <si>
+    <t>2018-09-24</t>
+  </si>
+  <si>
+    <t>Cellamare Camilla</t>
+  </si>
+  <si>
+    <t>CLLCLL17P60F132P</t>
+  </si>
+  <si>
+    <t>2017-09-20</t>
+  </si>
+  <si>
+    <t>Gais</t>
+  </si>
+  <si>
+    <t>Imonsili Mercy</t>
+  </si>
+  <si>
+    <t>MNSMCY18D63A952N</t>
+  </si>
+  <si>
+    <t>2018-04-23</t>
+  </si>
+  <si>
+    <t>Usom Best Daniel</t>
+  </si>
+  <si>
+    <t>SMBDNL17C15A952L</t>
+  </si>
+  <si>
+    <t>2017-03-15</t>
+  </si>
+  <si>
+    <t>Margreid</t>
+  </si>
+  <si>
+    <t>Burger Linnea</t>
+  </si>
+  <si>
+    <t>BRGLNN18C48I729E</t>
+  </si>
+  <si>
+    <t>2018-03-08</t>
+  </si>
+  <si>
+    <t>Weger Sophia</t>
+  </si>
+  <si>
+    <t>WGRSPH18D46B220D</t>
+  </si>
+  <si>
+    <t>2018-04-06</t>
+  </si>
+  <si>
+    <t>Whitecotton Leopold Harrison</t>
+  </si>
+  <si>
+    <t>WHTLLD18B20Z112Z</t>
+  </si>
+  <si>
+    <t>2018-02-20</t>
+  </si>
+  <si>
+    <t>Pfitsch</t>
+  </si>
+  <si>
+    <t>Sterzing</t>
+  </si>
+  <si>
+    <t>Bambini con annotazioni</t>
+  </si>
+  <si>
+    <t>Corduneanu Dorian *</t>
+  </si>
+  <si>
+    <t>CRDDRN17D05I729Y</t>
+  </si>
+  <si>
+    <t>2017-04-05</t>
+  </si>
+  <si>
+    <t>Kastelbell-Tschars</t>
   </si>
 </sst>
 </file>
@@ -405,83 +1953,3258 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:E279"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="B12" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="D12" t="s">
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="B16" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="D16" t="s">
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="B20" t="s">
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="C20" t="s">
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" t="s">
+    </row>
+    <row r="22" spans="1:5">
+      <c r="B22" t="s">
         <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="B31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="B32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" t="s">
+        <v>68</v>
+      </c>
+      <c r="E37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" t="s">
+        <v>68</v>
+      </c>
+      <c r="E38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" t="s">
+        <v>71</v>
+      </c>
+      <c r="E39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" t="s">
+        <v>71</v>
+      </c>
+      <c r="E40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" t="s">
+        <v>74</v>
+      </c>
+      <c r="E41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" t="s">
+        <v>77</v>
+      </c>
+      <c r="E42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D43" t="s">
+        <v>80</v>
+      </c>
+      <c r="E43" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D44" t="s">
+        <v>84</v>
+      </c>
+      <c r="E44" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" t="s">
+        <v>83</v>
+      </c>
+      <c r="D45" t="s">
+        <v>84</v>
+      </c>
+      <c r="E45" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" t="s">
+        <v>87</v>
+      </c>
+      <c r="D46" t="s">
+        <v>88</v>
+      </c>
+      <c r="E46" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" t="s">
+        <v>91</v>
+      </c>
+      <c r="D47" t="s">
+        <v>92</v>
+      </c>
+      <c r="E47" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" t="s">
+        <v>95</v>
+      </c>
+      <c r="D48" t="s">
+        <v>96</v>
+      </c>
+      <c r="E48" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49" t="s">
+        <v>29</v>
+      </c>
+      <c r="E49" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50" t="s">
+        <v>101</v>
+      </c>
+      <c r="D50" t="s">
+        <v>102</v>
+      </c>
+      <c r="E50" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="B51" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" t="s">
+        <v>105</v>
+      </c>
+      <c r="D51" t="s">
+        <v>106</v>
+      </c>
+      <c r="E51" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="B52" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" t="s">
+        <v>109</v>
+      </c>
+      <c r="D52" t="s">
+        <v>110</v>
+      </c>
+      <c r="E52" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="B53" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53" t="s">
+        <v>112</v>
+      </c>
+      <c r="D53" t="s">
+        <v>92</v>
+      </c>
+      <c r="E53" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="B54" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54" t="s">
+        <v>102</v>
+      </c>
+      <c r="E54" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="B55" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" t="s">
+        <v>118</v>
+      </c>
+      <c r="D55" t="s">
+        <v>119</v>
+      </c>
+      <c r="E55" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="B56" t="s">
+        <v>121</v>
+      </c>
+      <c r="C56" t="s">
+        <v>122</v>
+      </c>
+      <c r="D56" t="s">
+        <v>50</v>
+      </c>
+      <c r="E56" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5">
+      <c r="B57" t="s">
+        <v>124</v>
+      </c>
+      <c r="C57" t="s">
+        <v>125</v>
+      </c>
+      <c r="D57" t="s">
+        <v>126</v>
+      </c>
+      <c r="E57" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58" t="s">
+        <v>128</v>
+      </c>
+      <c r="C58" t="s">
+        <v>129</v>
+      </c>
+      <c r="D58" t="s">
+        <v>130</v>
+      </c>
+      <c r="E58" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="B59" t="s">
+        <v>132</v>
+      </c>
+      <c r="C59" t="s">
+        <v>133</v>
+      </c>
+      <c r="D59" t="s">
+        <v>134</v>
+      </c>
+      <c r="E59" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5">
+      <c r="B60" t="s">
+        <v>135</v>
+      </c>
+      <c r="C60" t="s">
+        <v>136</v>
+      </c>
+      <c r="D60" t="s">
+        <v>68</v>
+      </c>
+      <c r="E60" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5">
+      <c r="B61" t="s">
+        <v>138</v>
+      </c>
+      <c r="C61" t="s">
+        <v>139</v>
+      </c>
+      <c r="D61" t="s">
+        <v>140</v>
+      </c>
+      <c r="E61" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5">
+      <c r="B62" t="s">
+        <v>141</v>
+      </c>
+      <c r="C62" t="s">
+        <v>142</v>
+      </c>
+      <c r="D62" t="s">
+        <v>143</v>
+      </c>
+      <c r="E62" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5">
+      <c r="B63" t="s">
+        <v>141</v>
+      </c>
+      <c r="C63" t="s">
+        <v>142</v>
+      </c>
+      <c r="D63" t="s">
+        <v>143</v>
+      </c>
+      <c r="E63" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5">
+      <c r="B64" t="s">
+        <v>145</v>
+      </c>
+      <c r="C64" t="s">
+        <v>146</v>
+      </c>
+      <c r="D64" t="s">
+        <v>143</v>
+      </c>
+      <c r="E64" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="B65" t="s">
+        <v>145</v>
+      </c>
+      <c r="C65" t="s">
+        <v>146</v>
+      </c>
+      <c r="D65" t="s">
+        <v>143</v>
+      </c>
+      <c r="E65" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="B66" t="s">
+        <v>147</v>
+      </c>
+      <c r="C66" t="s">
+        <v>148</v>
+      </c>
+      <c r="D66" t="s">
+        <v>149</v>
+      </c>
+      <c r="E66" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="B67" t="s">
+        <v>150</v>
+      </c>
+      <c r="C67" t="s">
+        <v>151</v>
+      </c>
+      <c r="D67" t="s">
+        <v>152</v>
+      </c>
+      <c r="E67" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="B68" t="s">
+        <v>153</v>
+      </c>
+      <c r="C68" t="s">
+        <v>154</v>
+      </c>
+      <c r="D68" t="s">
+        <v>155</v>
+      </c>
+      <c r="E68" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="B69" t="s">
+        <v>157</v>
+      </c>
+      <c r="C69" t="s">
+        <v>158</v>
+      </c>
+      <c r="D69" t="s">
+        <v>54</v>
+      </c>
+      <c r="E69" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="B70" t="s">
+        <v>159</v>
+      </c>
+      <c r="C70" t="s">
+        <v>160</v>
+      </c>
+      <c r="D70" t="s">
+        <v>161</v>
+      </c>
+      <c r="E70" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="B71" t="s">
+        <v>163</v>
+      </c>
+      <c r="C71" t="s">
+        <v>164</v>
+      </c>
+      <c r="D71" t="s">
+        <v>165</v>
+      </c>
+      <c r="E71" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="B72" t="s">
+        <v>163</v>
+      </c>
+      <c r="C72" t="s">
+        <v>164</v>
+      </c>
+      <c r="D72" t="s">
+        <v>165</v>
+      </c>
+      <c r="E72" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="B73" t="s">
+        <v>167</v>
+      </c>
+      <c r="C73" t="s">
+        <v>168</v>
+      </c>
+      <c r="D73" t="s">
+        <v>169</v>
+      </c>
+      <c r="E73" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="B74" t="s">
+        <v>170</v>
+      </c>
+      <c r="C74" t="s">
+        <v>171</v>
+      </c>
+      <c r="D74" t="s">
+        <v>172</v>
+      </c>
+      <c r="E74" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="B75" t="s">
+        <v>174</v>
+      </c>
+      <c r="C75" t="s">
+        <v>175</v>
+      </c>
+      <c r="D75" t="s">
+        <v>176</v>
+      </c>
+      <c r="E75" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="B76" t="s">
+        <v>177</v>
+      </c>
+      <c r="C76" t="s">
+        <v>178</v>
+      </c>
+      <c r="D76" t="s">
+        <v>179</v>
+      </c>
+      <c r="E76" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="B80" t="s">
+        <v>181</v>
+      </c>
+      <c r="C80" t="s">
+        <v>182</v>
+      </c>
+      <c r="D80" t="s">
+        <v>183</v>
+      </c>
+      <c r="E80" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5">
+      <c r="B81" t="s">
+        <v>185</v>
+      </c>
+      <c r="C81" t="s">
+        <v>186</v>
+      </c>
+      <c r="D81" t="s">
+        <v>187</v>
+      </c>
+      <c r="E81" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5">
+      <c r="B82" t="s">
+        <v>189</v>
+      </c>
+      <c r="C82" t="s">
+        <v>190</v>
+      </c>
+      <c r="D82" t="s">
+        <v>191</v>
+      </c>
+      <c r="E82" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5">
+      <c r="B83" t="s">
+        <v>192</v>
+      </c>
+      <c r="C83" t="s">
+        <v>193</v>
+      </c>
+      <c r="D83" t="s">
+        <v>194</v>
+      </c>
+      <c r="E83" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5">
+      <c r="B84" t="s">
+        <v>195</v>
+      </c>
+      <c r="C84" t="s">
+        <v>196</v>
+      </c>
+      <c r="D84" t="s">
+        <v>197</v>
+      </c>
+      <c r="E84" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5">
+      <c r="B85" t="s">
+        <v>198</v>
+      </c>
+      <c r="C85" t="s">
+        <v>199</v>
+      </c>
+      <c r="D85" t="s">
+        <v>200</v>
+      </c>
+      <c r="E85" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5">
+      <c r="B86" t="s">
+        <v>201</v>
+      </c>
+      <c r="C86" t="s">
+        <v>202</v>
+      </c>
+      <c r="D86" t="s">
+        <v>203</v>
+      </c>
+      <c r="E86" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5">
+      <c r="B87" t="s">
+        <v>204</v>
+      </c>
+      <c r="C87" t="s">
+        <v>205</v>
+      </c>
+      <c r="D87" t="s">
+        <v>206</v>
+      </c>
+      <c r="E87" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5">
+      <c r="B88" t="s">
+        <v>207</v>
+      </c>
+      <c r="C88" t="s">
+        <v>208</v>
+      </c>
+      <c r="D88" t="s">
+        <v>209</v>
+      </c>
+      <c r="E88" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5">
+      <c r="B89" t="s">
+        <v>211</v>
+      </c>
+      <c r="C89" t="s">
+        <v>212</v>
+      </c>
+      <c r="D89" t="s">
+        <v>213</v>
+      </c>
+      <c r="E89" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5">
+      <c r="B90" t="s">
+        <v>215</v>
+      </c>
+      <c r="C90" t="s">
+        <v>216</v>
+      </c>
+      <c r="D90" t="s">
+        <v>217</v>
+      </c>
+      <c r="E90" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5">
+      <c r="B91" t="s">
+        <v>219</v>
+      </c>
+      <c r="C91" t="s">
+        <v>220</v>
+      </c>
+      <c r="D91" t="s">
+        <v>221</v>
+      </c>
+      <c r="E91" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5">
+      <c r="B92" t="s">
+        <v>223</v>
+      </c>
+      <c r="C92" t="s">
+        <v>224</v>
+      </c>
+      <c r="D92" t="s">
+        <v>225</v>
+      </c>
+      <c r="E92" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5">
+      <c r="B93" t="s">
+        <v>227</v>
+      </c>
+      <c r="C93" t="s">
+        <v>228</v>
+      </c>
+      <c r="D93" t="s">
+        <v>229</v>
+      </c>
+      <c r="E93" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5">
+      <c r="B94" t="s">
+        <v>231</v>
+      </c>
+      <c r="C94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D94" t="s">
+        <v>233</v>
+      </c>
+      <c r="E94" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5">
+      <c r="B95" t="s">
+        <v>235</v>
+      </c>
+      <c r="C95" t="s">
+        <v>236</v>
+      </c>
+      <c r="D95" t="s">
+        <v>183</v>
+      </c>
+      <c r="E95" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5">
+      <c r="B96" t="s">
+        <v>237</v>
+      </c>
+      <c r="C96" t="s">
+        <v>238</v>
+      </c>
+      <c r="D96" t="s">
+        <v>239</v>
+      </c>
+      <c r="E96" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5">
+      <c r="B97" t="s">
+        <v>240</v>
+      </c>
+      <c r="C97" t="s">
+        <v>241</v>
+      </c>
+      <c r="D97" t="s">
+        <v>242</v>
+      </c>
+      <c r="E97" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5">
+      <c r="B98" t="s">
+        <v>243</v>
+      </c>
+      <c r="C98" t="s">
+        <v>244</v>
+      </c>
+      <c r="D98" t="s">
+        <v>245</v>
+      </c>
+      <c r="E98" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5">
+      <c r="B99" t="s">
+        <v>247</v>
+      </c>
+      <c r="C99" t="s">
+        <v>248</v>
+      </c>
+      <c r="D99" t="s">
+        <v>249</v>
+      </c>
+      <c r="E99" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5">
+      <c r="B100" t="s">
+        <v>250</v>
+      </c>
+      <c r="C100" t="s">
+        <v>251</v>
+      </c>
+      <c r="D100" t="s">
+        <v>252</v>
+      </c>
+      <c r="E100" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5">
+      <c r="B101" t="s">
+        <v>253</v>
+      </c>
+      <c r="C101" t="s">
+        <v>254</v>
+      </c>
+      <c r="D101" t="s">
+        <v>255</v>
+      </c>
+      <c r="E101" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5">
+      <c r="B102" t="s">
+        <v>256</v>
+      </c>
+      <c r="C102" t="s">
+        <v>257</v>
+      </c>
+      <c r="D102" t="s">
+        <v>258</v>
+      </c>
+      <c r="E102" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5">
+      <c r="B103" t="s">
+        <v>259</v>
+      </c>
+      <c r="C103" t="s">
+        <v>260</v>
+      </c>
+      <c r="D103" t="s">
+        <v>261</v>
+      </c>
+      <c r="E103" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5">
+      <c r="B104" t="s">
+        <v>259</v>
+      </c>
+      <c r="C104" t="s">
+        <v>260</v>
+      </c>
+      <c r="D104" t="s">
+        <v>261</v>
+      </c>
+      <c r="E104" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5">
+      <c r="B105" t="s">
+        <v>262</v>
+      </c>
+      <c r="C105" t="s">
+        <v>263</v>
+      </c>
+      <c r="D105" t="s">
+        <v>264</v>
+      </c>
+      <c r="E105" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5">
+      <c r="B106" t="s">
+        <v>265</v>
+      </c>
+      <c r="C106" t="s">
+        <v>266</v>
+      </c>
+      <c r="D106" t="s">
+        <v>267</v>
+      </c>
+      <c r="E106" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5">
+      <c r="B107" t="s">
+        <v>268</v>
+      </c>
+      <c r="C107" t="s">
+        <v>269</v>
+      </c>
+      <c r="D107" t="s">
+        <v>270</v>
+      </c>
+      <c r="E107" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5">
+      <c r="B108" t="s">
+        <v>271</v>
+      </c>
+      <c r="C108" t="s">
+        <v>272</v>
+      </c>
+      <c r="D108" t="s">
+        <v>273</v>
+      </c>
+      <c r="E108" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5">
+      <c r="B109" t="s">
+        <v>274</v>
+      </c>
+      <c r="C109" t="s">
+        <v>275</v>
+      </c>
+      <c r="D109" t="s">
+        <v>276</v>
+      </c>
+      <c r="E109" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5">
+      <c r="B110" t="s">
+        <v>278</v>
+      </c>
+      <c r="C110" t="s">
+        <v>279</v>
+      </c>
+      <c r="D110" t="s">
+        <v>280</v>
+      </c>
+      <c r="E110" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5">
+      <c r="B111" t="s">
+        <v>281</v>
+      </c>
+      <c r="C111" t="s">
+        <v>282</v>
+      </c>
+      <c r="D111" t="s">
+        <v>283</v>
+      </c>
+      <c r="E111" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5">
+      <c r="B112" t="s">
+        <v>284</v>
+      </c>
+      <c r="C112" t="s">
+        <v>285</v>
+      </c>
+      <c r="D112" t="s">
+        <v>286</v>
+      </c>
+      <c r="E112" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="B113" t="s">
+        <v>287</v>
+      </c>
+      <c r="C113" t="s">
+        <v>288</v>
+      </c>
+      <c r="D113" t="s">
+        <v>289</v>
+      </c>
+      <c r="E113" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="B114" t="s">
+        <v>291</v>
+      </c>
+      <c r="C114" t="s">
+        <v>292</v>
+      </c>
+      <c r="D114" t="s">
+        <v>280</v>
+      </c>
+      <c r="E114" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="B115" t="s">
+        <v>293</v>
+      </c>
+      <c r="C115" t="s">
+        <v>294</v>
+      </c>
+      <c r="D115" t="s">
+        <v>295</v>
+      </c>
+      <c r="E115" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="B116" t="s">
+        <v>297</v>
+      </c>
+      <c r="C116" t="s">
+        <v>298</v>
+      </c>
+      <c r="D116" t="s">
+        <v>299</v>
+      </c>
+      <c r="E116" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="B117" t="s">
+        <v>300</v>
+      </c>
+      <c r="C117" t="s">
+        <v>301</v>
+      </c>
+      <c r="D117" t="s">
+        <v>302</v>
+      </c>
+      <c r="E117" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="B118" t="s">
+        <v>303</v>
+      </c>
+      <c r="C118" t="s">
+        <v>304</v>
+      </c>
+      <c r="D118" t="s">
+        <v>305</v>
+      </c>
+      <c r="E118" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="B119" t="s">
+        <v>307</v>
+      </c>
+      <c r="C119" t="s">
+        <v>308</v>
+      </c>
+      <c r="D119" t="s">
+        <v>309</v>
+      </c>
+      <c r="E119" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="B120" t="s">
+        <v>311</v>
+      </c>
+      <c r="C120" t="s">
+        <v>312</v>
+      </c>
+      <c r="D120" t="s">
+        <v>313</v>
+      </c>
+      <c r="E120" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="B121" t="s">
+        <v>315</v>
+      </c>
+      <c r="C121" t="s">
+        <v>316</v>
+      </c>
+      <c r="D121" t="s">
+        <v>317</v>
+      </c>
+      <c r="E121" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="B122" t="s">
+        <v>318</v>
+      </c>
+      <c r="C122" t="s">
+        <v>319</v>
+      </c>
+      <c r="D122" t="s">
+        <v>320</v>
+      </c>
+      <c r="E122" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="B123" t="s">
+        <v>321</v>
+      </c>
+      <c r="C123" t="s">
+        <v>322</v>
+      </c>
+      <c r="D123" t="s">
+        <v>323</v>
+      </c>
+      <c r="E123" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="B127" t="s">
+        <v>326</v>
+      </c>
+      <c r="C127" t="s">
+        <v>327</v>
+      </c>
+      <c r="D127" t="s">
+        <v>328</v>
+      </c>
+      <c r="E127" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="B128" t="s">
+        <v>278</v>
+      </c>
+      <c r="C128" t="s">
+        <v>279</v>
+      </c>
+      <c r="D128" t="s">
+        <v>280</v>
+      </c>
+      <c r="E128" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="B129" t="s">
+        <v>330</v>
+      </c>
+      <c r="C129" t="s">
+        <v>331</v>
+      </c>
+      <c r="D129" t="s">
+        <v>332</v>
+      </c>
+      <c r="E129" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="B130" t="s">
+        <v>333</v>
+      </c>
+      <c r="C130" t="s">
+        <v>334</v>
+      </c>
+      <c r="D130" t="s">
+        <v>335</v>
+      </c>
+      <c r="E130" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="B131" t="s">
+        <v>336</v>
+      </c>
+      <c r="C131" t="s">
+        <v>337</v>
+      </c>
+      <c r="D131" t="s">
+        <v>338</v>
+      </c>
+      <c r="E131" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="B132" t="s">
+        <v>141</v>
+      </c>
+      <c r="C132" t="s">
+        <v>142</v>
+      </c>
+      <c r="D132" t="s">
+        <v>143</v>
+      </c>
+      <c r="E132" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="B133" t="s">
+        <v>145</v>
+      </c>
+      <c r="C133" t="s">
+        <v>146</v>
+      </c>
+      <c r="D133" t="s">
+        <v>143</v>
+      </c>
+      <c r="E133" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="B137" t="s">
+        <v>340</v>
+      </c>
+      <c r="C137" t="s">
+        <v>341</v>
+      </c>
+      <c r="D137" t="s">
+        <v>323</v>
+      </c>
+      <c r="E137" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="B138" t="s">
+        <v>189</v>
+      </c>
+      <c r="C138" t="s">
+        <v>190</v>
+      </c>
+      <c r="D138" t="s">
+        <v>191</v>
+      </c>
+      <c r="E138" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="B139" t="s">
+        <v>342</v>
+      </c>
+      <c r="C139" t="s">
+        <v>343</v>
+      </c>
+      <c r="D139" t="s">
+        <v>344</v>
+      </c>
+      <c r="E139" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="B140" t="s">
+        <v>345</v>
+      </c>
+      <c r="C140" t="s">
+        <v>346</v>
+      </c>
+      <c r="D140" t="s">
+        <v>347</v>
+      </c>
+      <c r="E140" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="B144" t="s">
+        <v>189</v>
+      </c>
+      <c r="C144" t="s">
+        <v>190</v>
+      </c>
+      <c r="D144" t="s">
+        <v>191</v>
+      </c>
+      <c r="E144" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="B148" t="s">
+        <v>351</v>
+      </c>
+      <c r="C148" t="s">
+        <v>352</v>
+      </c>
+      <c r="D148" t="s">
+        <v>353</v>
+      </c>
+      <c r="E148" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="B149" t="s">
+        <v>354</v>
+      </c>
+      <c r="C149" t="s">
+        <v>355</v>
+      </c>
+      <c r="D149" t="s">
+        <v>356</v>
+      </c>
+      <c r="E149" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="B150" t="s">
+        <v>326</v>
+      </c>
+      <c r="C150" t="s">
+        <v>327</v>
+      </c>
+      <c r="D150" t="s">
+        <v>328</v>
+      </c>
+      <c r="E150" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="B151" t="s">
+        <v>357</v>
+      </c>
+      <c r="C151" t="s">
+        <v>358</v>
+      </c>
+      <c r="D151" t="s">
+        <v>359</v>
+      </c>
+      <c r="E151" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="B152" t="s">
+        <v>361</v>
+      </c>
+      <c r="C152" t="s">
+        <v>362</v>
+      </c>
+      <c r="D152" t="s">
+        <v>363</v>
+      </c>
+      <c r="E152" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="B153" t="s">
+        <v>364</v>
+      </c>
+      <c r="C153" t="s">
+        <v>365</v>
+      </c>
+      <c r="D153" t="s">
+        <v>366</v>
+      </c>
+      <c r="E153" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="B154" t="s">
+        <v>367</v>
+      </c>
+      <c r="C154" t="s">
+        <v>368</v>
+      </c>
+      <c r="D154" t="s">
+        <v>317</v>
+      </c>
+      <c r="E154" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="B155" t="s">
+        <v>369</v>
+      </c>
+      <c r="C155" t="s">
+        <v>370</v>
+      </c>
+      <c r="D155" t="s">
+        <v>371</v>
+      </c>
+      <c r="E155" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="B156" t="s">
+        <v>372</v>
+      </c>
+      <c r="C156" t="s">
+        <v>373</v>
+      </c>
+      <c r="D156" t="s">
+        <v>374</v>
+      </c>
+      <c r="E156" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="B160" t="s">
+        <v>351</v>
+      </c>
+      <c r="C160" t="s">
+        <v>352</v>
+      </c>
+      <c r="D160" t="s">
+        <v>353</v>
+      </c>
+      <c r="E160" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="B161" t="s">
+        <v>354</v>
+      </c>
+      <c r="C161" t="s">
+        <v>355</v>
+      </c>
+      <c r="D161" t="s">
+        <v>356</v>
+      </c>
+      <c r="E161" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="B162" t="s">
+        <v>326</v>
+      </c>
+      <c r="C162" t="s">
+        <v>327</v>
+      </c>
+      <c r="D162" t="s">
+        <v>328</v>
+      </c>
+      <c r="E162" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="B163" t="s">
+        <v>357</v>
+      </c>
+      <c r="C163" t="s">
+        <v>358</v>
+      </c>
+      <c r="D163" t="s">
+        <v>359</v>
+      </c>
+      <c r="E163" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="B164" t="s">
+        <v>361</v>
+      </c>
+      <c r="C164" t="s">
+        <v>362</v>
+      </c>
+      <c r="D164" t="s">
+        <v>363</v>
+      </c>
+      <c r="E164" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="B165" t="s">
+        <v>278</v>
+      </c>
+      <c r="C165" t="s">
+        <v>279</v>
+      </c>
+      <c r="D165" t="s">
+        <v>280</v>
+      </c>
+      <c r="E165" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="B166" t="s">
+        <v>330</v>
+      </c>
+      <c r="C166" t="s">
+        <v>331</v>
+      </c>
+      <c r="D166" t="s">
+        <v>332</v>
+      </c>
+      <c r="E166" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="B167" t="s">
+        <v>333</v>
+      </c>
+      <c r="C167" t="s">
+        <v>334</v>
+      </c>
+      <c r="D167" t="s">
+        <v>335</v>
+      </c>
+      <c r="E167" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="B168" t="s">
+        <v>367</v>
+      </c>
+      <c r="C168" t="s">
+        <v>368</v>
+      </c>
+      <c r="D168" t="s">
+        <v>317</v>
+      </c>
+      <c r="E168" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="B169" t="s">
+        <v>336</v>
+      </c>
+      <c r="C169" t="s">
+        <v>337</v>
+      </c>
+      <c r="D169" t="s">
+        <v>338</v>
+      </c>
+      <c r="E169" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="B170" t="s">
+        <v>369</v>
+      </c>
+      <c r="C170" t="s">
+        <v>370</v>
+      </c>
+      <c r="D170" t="s">
+        <v>371</v>
+      </c>
+      <c r="E170" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="B171" t="s">
+        <v>372</v>
+      </c>
+      <c r="C171" t="s">
+        <v>373</v>
+      </c>
+      <c r="D171" t="s">
+        <v>374</v>
+      </c>
+      <c r="E171" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="B172" t="s">
+        <v>342</v>
+      </c>
+      <c r="C172" t="s">
+        <v>343</v>
+      </c>
+      <c r="D172" t="s">
+        <v>344</v>
+      </c>
+      <c r="E172" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="B176" t="s">
+        <v>377</v>
+      </c>
+      <c r="C176" t="s">
+        <v>378</v>
+      </c>
+      <c r="D176" t="s">
+        <v>379</v>
+      </c>
+      <c r="E176" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="B177" t="s">
+        <v>380</v>
+      </c>
+      <c r="C177" t="s">
+        <v>381</v>
+      </c>
+      <c r="D177" t="s">
+        <v>382</v>
+      </c>
+      <c r="E177" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="B178" t="s">
+        <v>383</v>
+      </c>
+      <c r="C178" t="s">
+        <v>384</v>
+      </c>
+      <c r="D178" t="s">
+        <v>385</v>
+      </c>
+      <c r="E178" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="B179" t="s">
+        <v>386</v>
+      </c>
+      <c r="C179" t="s">
+        <v>387</v>
+      </c>
+      <c r="D179" t="s">
+        <v>388</v>
+      </c>
+      <c r="E179" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="B180" t="s">
+        <v>390</v>
+      </c>
+      <c r="C180" t="s">
+        <v>391</v>
+      </c>
+      <c r="D180" t="s">
+        <v>392</v>
+      </c>
+      <c r="E180" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="B181" t="s">
+        <v>394</v>
+      </c>
+      <c r="C181" t="s">
+        <v>395</v>
+      </c>
+      <c r="D181" t="s">
+        <v>396</v>
+      </c>
+      <c r="E181" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="B182" t="s">
+        <v>397</v>
+      </c>
+      <c r="C182" t="s">
+        <v>398</v>
+      </c>
+      <c r="D182" t="s">
+        <v>399</v>
+      </c>
+      <c r="E182" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="B183" t="s">
+        <v>400</v>
+      </c>
+      <c r="C183" t="s">
+        <v>401</v>
+      </c>
+      <c r="D183" t="s">
+        <v>402</v>
+      </c>
+      <c r="E183" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="B184" t="s">
+        <v>403</v>
+      </c>
+      <c r="C184" t="s">
+        <v>404</v>
+      </c>
+      <c r="D184" t="s">
+        <v>405</v>
+      </c>
+      <c r="E184" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="B185" t="s">
+        <v>407</v>
+      </c>
+      <c r="C185" t="s">
+        <v>408</v>
+      </c>
+      <c r="D185" t="s">
+        <v>409</v>
+      </c>
+      <c r="E185" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="B186" t="s">
+        <v>410</v>
+      </c>
+      <c r="C186" t="s">
+        <v>411</v>
+      </c>
+      <c r="D186" t="s">
+        <v>412</v>
+      </c>
+      <c r="E186" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="B187" t="s">
+        <v>414</v>
+      </c>
+      <c r="C187" t="s">
+        <v>415</v>
+      </c>
+      <c r="D187" t="s">
+        <v>416</v>
+      </c>
+      <c r="E187" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="B188" t="s">
+        <v>417</v>
+      </c>
+      <c r="C188" t="s">
+        <v>418</v>
+      </c>
+      <c r="D188" t="s">
+        <v>419</v>
+      </c>
+      <c r="E188" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="B192" t="s">
+        <v>377</v>
+      </c>
+      <c r="C192" t="s">
+        <v>378</v>
+      </c>
+      <c r="D192" t="s">
+        <v>379</v>
+      </c>
+      <c r="E192" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="193" spans="2:5">
+      <c r="B193" t="s">
+        <v>380</v>
+      </c>
+      <c r="C193" t="s">
+        <v>381</v>
+      </c>
+      <c r="D193" t="s">
+        <v>382</v>
+      </c>
+      <c r="E193" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="194" spans="2:5">
+      <c r="B194" t="s">
+        <v>383</v>
+      </c>
+      <c r="C194" t="s">
+        <v>384</v>
+      </c>
+      <c r="D194" t="s">
+        <v>385</v>
+      </c>
+      <c r="E194" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="195" spans="2:5">
+      <c r="B195" t="s">
+        <v>421</v>
+      </c>
+      <c r="C195" t="s">
+        <v>422</v>
+      </c>
+      <c r="D195" t="s">
+        <v>423</v>
+      </c>
+      <c r="E195" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="196" spans="2:5">
+      <c r="B196" t="s">
+        <v>386</v>
+      </c>
+      <c r="C196" t="s">
+        <v>387</v>
+      </c>
+      <c r="D196" t="s">
+        <v>388</v>
+      </c>
+      <c r="E196" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="197" spans="2:5">
+      <c r="B197" t="s">
+        <v>390</v>
+      </c>
+      <c r="C197" t="s">
+        <v>391</v>
+      </c>
+      <c r="D197" t="s">
+        <v>392</v>
+      </c>
+      <c r="E197" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="198" spans="2:5">
+      <c r="B198" t="s">
+        <v>424</v>
+      </c>
+      <c r="C198" t="s">
+        <v>425</v>
+      </c>
+      <c r="D198" t="s">
+        <v>426</v>
+      </c>
+      <c r="E198" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="199" spans="2:5">
+      <c r="B199" t="s">
+        <v>427</v>
+      </c>
+      <c r="C199" t="s">
+        <v>428</v>
+      </c>
+      <c r="D199" t="s">
+        <v>429</v>
+      </c>
+      <c r="E199" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="200" spans="2:5">
+      <c r="B200" t="s">
+        <v>394</v>
+      </c>
+      <c r="C200" t="s">
+        <v>395</v>
+      </c>
+      <c r="D200" t="s">
+        <v>396</v>
+      </c>
+      <c r="E200" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="201" spans="2:5">
+      <c r="B201" t="s">
+        <v>397</v>
+      </c>
+      <c r="C201" t="s">
+        <v>398</v>
+      </c>
+      <c r="D201" t="s">
+        <v>399</v>
+      </c>
+      <c r="E201" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="202" spans="2:5">
+      <c r="B202" t="s">
+        <v>430</v>
+      </c>
+      <c r="C202" t="s">
+        <v>431</v>
+      </c>
+      <c r="D202" t="s">
+        <v>432</v>
+      </c>
+      <c r="E202" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="203" spans="2:5">
+      <c r="B203" t="s">
+        <v>434</v>
+      </c>
+      <c r="C203" t="s">
+        <v>435</v>
+      </c>
+      <c r="D203" t="s">
+        <v>432</v>
+      </c>
+      <c r="E203" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="204" spans="2:5">
+      <c r="B204" t="s">
+        <v>400</v>
+      </c>
+      <c r="C204" t="s">
+        <v>401</v>
+      </c>
+      <c r="D204" t="s">
+        <v>402</v>
+      </c>
+      <c r="E204" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="205" spans="2:5">
+      <c r="B205" t="s">
+        <v>436</v>
+      </c>
+      <c r="C205" t="s">
+        <v>437</v>
+      </c>
+      <c r="D205" t="s">
+        <v>438</v>
+      </c>
+      <c r="E205" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="206" spans="2:5">
+      <c r="B206" t="s">
+        <v>357</v>
+      </c>
+      <c r="C206" t="s">
+        <v>358</v>
+      </c>
+      <c r="D206" t="s">
+        <v>359</v>
+      </c>
+      <c r="E206" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="207" spans="2:5">
+      <c r="B207" t="s">
+        <v>439</v>
+      </c>
+      <c r="C207" t="s">
+        <v>440</v>
+      </c>
+      <c r="D207" t="s">
+        <v>441</v>
+      </c>
+      <c r="E207" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="208" spans="2:5">
+      <c r="B208" t="s">
+        <v>403</v>
+      </c>
+      <c r="C208" t="s">
+        <v>404</v>
+      </c>
+      <c r="D208" t="s">
+        <v>405</v>
+      </c>
+      <c r="E208" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="B209" t="s">
+        <v>407</v>
+      </c>
+      <c r="C209" t="s">
+        <v>408</v>
+      </c>
+      <c r="D209" t="s">
+        <v>409</v>
+      </c>
+      <c r="E209" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="B210" t="s">
+        <v>443</v>
+      </c>
+      <c r="C210" t="s">
+        <v>444</v>
+      </c>
+      <c r="D210" t="s">
+        <v>445</v>
+      </c>
+      <c r="E210" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="B211" t="s">
+        <v>410</v>
+      </c>
+      <c r="C211" t="s">
+        <v>411</v>
+      </c>
+      <c r="D211" t="s">
+        <v>412</v>
+      </c>
+      <c r="E211" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="B212" t="s">
+        <v>446</v>
+      </c>
+      <c r="C212" t="s">
+        <v>447</v>
+      </c>
+      <c r="D212" t="s">
+        <v>448</v>
+      </c>
+      <c r="E212" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="B213" t="s">
+        <v>153</v>
+      </c>
+      <c r="C213" t="s">
+        <v>154</v>
+      </c>
+      <c r="D213" t="s">
+        <v>155</v>
+      </c>
+      <c r="E213" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="B214" t="s">
+        <v>414</v>
+      </c>
+      <c r="C214" t="s">
+        <v>415</v>
+      </c>
+      <c r="D214" t="s">
+        <v>416</v>
+      </c>
+      <c r="E214" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="B215" t="s">
+        <v>417</v>
+      </c>
+      <c r="C215" t="s">
+        <v>418</v>
+      </c>
+      <c r="D215" t="s">
+        <v>419</v>
+      </c>
+      <c r="E215" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="B219" t="s">
+        <v>451</v>
+      </c>
+      <c r="C219" t="s">
+        <v>452</v>
+      </c>
+      <c r="D219" t="s">
+        <v>453</v>
+      </c>
+      <c r="E219" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="B220" t="s">
+        <v>455</v>
+      </c>
+      <c r="C220" t="s">
+        <v>456</v>
+      </c>
+      <c r="D220" t="s">
+        <v>457</v>
+      </c>
+      <c r="E220" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="B221" t="s">
+        <v>458</v>
+      </c>
+      <c r="C221" t="s">
+        <v>459</v>
+      </c>
+      <c r="D221" t="s">
+        <v>460</v>
+      </c>
+      <c r="E221" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="B222" t="s">
+        <v>461</v>
+      </c>
+      <c r="C222" t="s">
+        <v>462</v>
+      </c>
+      <c r="D222" t="s">
+        <v>463</v>
+      </c>
+      <c r="E222" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="B223" t="s">
+        <v>464</v>
+      </c>
+      <c r="C223" t="s">
+        <v>465</v>
+      </c>
+      <c r="D223" t="s">
+        <v>466</v>
+      </c>
+      <c r="E223" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="B224" t="s">
+        <v>467</v>
+      </c>
+      <c r="C224" t="s">
+        <v>468</v>
+      </c>
+      <c r="D224" t="s">
+        <v>469</v>
+      </c>
+      <c r="E224" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="B225" t="s">
+        <v>471</v>
+      </c>
+      <c r="C225" t="s">
+        <v>472</v>
+      </c>
+      <c r="D225" t="s">
+        <v>473</v>
+      </c>
+      <c r="E225" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="B226" t="s">
+        <v>474</v>
+      </c>
+      <c r="C226" t="s">
+        <v>475</v>
+      </c>
+      <c r="D226" t="s">
+        <v>476</v>
+      </c>
+      <c r="E226" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="B227" t="s">
+        <v>478</v>
+      </c>
+      <c r="C227" t="s">
+        <v>479</v>
+      </c>
+      <c r="D227" t="s">
+        <v>463</v>
+      </c>
+      <c r="E227" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="B228" t="s">
+        <v>480</v>
+      </c>
+      <c r="C228" t="s">
+        <v>481</v>
+      </c>
+      <c r="D228" t="s">
+        <v>482</v>
+      </c>
+      <c r="E228" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="B229" t="s">
+        <v>483</v>
+      </c>
+      <c r="C229" t="s">
+        <v>484</v>
+      </c>
+      <c r="D229" t="s">
+        <v>485</v>
+      </c>
+      <c r="E229" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="B230" t="s">
+        <v>486</v>
+      </c>
+      <c r="C230" t="s">
+        <v>487</v>
+      </c>
+      <c r="D230" t="s">
+        <v>488</v>
+      </c>
+      <c r="E230" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="B231" t="s">
+        <v>303</v>
+      </c>
+      <c r="C231" t="s">
+        <v>304</v>
+      </c>
+      <c r="D231" t="s">
+        <v>305</v>
+      </c>
+      <c r="E231" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="B232" t="s">
+        <v>489</v>
+      </c>
+      <c r="C232" t="s">
+        <v>490</v>
+      </c>
+      <c r="D232" t="s">
+        <v>491</v>
+      </c>
+      <c r="E232" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="B236" t="s">
+        <v>231</v>
+      </c>
+      <c r="C236" t="s">
+        <v>232</v>
+      </c>
+      <c r="D236" t="s">
+        <v>233</v>
+      </c>
+      <c r="E236" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="B237" t="s">
+        <v>493</v>
+      </c>
+      <c r="C237" t="s">
+        <v>494</v>
+      </c>
+      <c r="D237" t="s">
+        <v>495</v>
+      </c>
+      <c r="E237" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="241" spans="2:5">
+      <c r="B241" t="s">
+        <v>483</v>
+      </c>
+      <c r="C241" t="s">
+        <v>484</v>
+      </c>
+      <c r="D241" t="s">
+        <v>485</v>
+      </c>
+      <c r="E241" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="242" spans="2:5">
+      <c r="B242" t="s">
+        <v>189</v>
+      </c>
+      <c r="C242" t="s">
+        <v>190</v>
+      </c>
+      <c r="D242" t="s">
+        <v>191</v>
+      </c>
+      <c r="E242" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="243" spans="2:5">
+      <c r="B243" t="s">
+        <v>497</v>
+      </c>
+      <c r="C243" t="s">
+        <v>498</v>
+      </c>
+      <c r="D243" t="s">
+        <v>499</v>
+      </c>
+      <c r="E243" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="244" spans="2:5">
+      <c r="B244" t="s">
+        <v>500</v>
+      </c>
+      <c r="C244" t="s">
+        <v>501</v>
+      </c>
+      <c r="D244" t="s">
+        <v>502</v>
+      </c>
+      <c r="E244" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="245" spans="2:5">
+      <c r="B245" t="s">
+        <v>503</v>
+      </c>
+      <c r="C245" t="s">
+        <v>504</v>
+      </c>
+      <c r="D245" t="s">
+        <v>505</v>
+      </c>
+      <c r="E245" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="246" spans="2:5">
+      <c r="B246" t="s">
+        <v>506</v>
+      </c>
+      <c r="C246" t="s">
+        <v>507</v>
+      </c>
+      <c r="D246" t="s">
+        <v>508</v>
+      </c>
+      <c r="E246" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="247" spans="2:5">
+      <c r="B247" t="s">
+        <v>500</v>
+      </c>
+      <c r="C247" t="s">
+        <v>501</v>
+      </c>
+      <c r="D247" t="s">
+        <v>502</v>
+      </c>
+      <c r="E247" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="248" spans="2:5">
+      <c r="B248" t="s">
+        <v>464</v>
+      </c>
+      <c r="C248" t="s">
+        <v>465</v>
+      </c>
+      <c r="D248" t="s">
+        <v>466</v>
+      </c>
+      <c r="E248" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="249" spans="2:5">
+      <c r="B249" t="s">
+        <v>510</v>
+      </c>
+      <c r="C249" t="s">
+        <v>511</v>
+      </c>
+      <c r="D249" t="s">
+        <v>512</v>
+      </c>
+      <c r="E249" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="250" spans="2:5">
+      <c r="B250" t="s">
+        <v>474</v>
+      </c>
+      <c r="C250" t="s">
+        <v>475</v>
+      </c>
+      <c r="D250" t="s">
+        <v>476</v>
+      </c>
+      <c r="E250" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="251" spans="2:5">
+      <c r="B251" t="s">
+        <v>262</v>
+      </c>
+      <c r="C251" t="s">
+        <v>263</v>
+      </c>
+      <c r="D251" t="s">
+        <v>264</v>
+      </c>
+      <c r="E251" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="252" spans="2:5">
+      <c r="B252" t="s">
+        <v>497</v>
+      </c>
+      <c r="C252" t="s">
+        <v>498</v>
+      </c>
+      <c r="D252" t="s">
+        <v>499</v>
+      </c>
+      <c r="E252" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="253" spans="2:5">
+      <c r="B253" t="s">
+        <v>506</v>
+      </c>
+      <c r="C253" t="s">
+        <v>507</v>
+      </c>
+      <c r="D253" t="s">
+        <v>508</v>
+      </c>
+      <c r="E253" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="254" spans="2:5">
+      <c r="B254" t="s">
+        <v>513</v>
+      </c>
+      <c r="C254" t="s">
+        <v>514</v>
+      </c>
+      <c r="D254" t="s">
+        <v>515</v>
+      </c>
+      <c r="E254" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="255" spans="2:5">
+      <c r="B255" t="s">
+        <v>474</v>
+      </c>
+      <c r="C255" t="s">
+        <v>475</v>
+      </c>
+      <c r="D255" t="s">
+        <v>476</v>
+      </c>
+      <c r="E255" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="256" spans="2:5">
+      <c r="B256" t="s">
+        <v>474</v>
+      </c>
+      <c r="C256" t="s">
+        <v>475</v>
+      </c>
+      <c r="D256" t="s">
+        <v>476</v>
+      </c>
+      <c r="E256" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="257" spans="2:5">
+      <c r="B257" t="s">
+        <v>483</v>
+      </c>
+      <c r="C257" t="s">
+        <v>484</v>
+      </c>
+      <c r="D257" t="s">
+        <v>485</v>
+      </c>
+      <c r="E257" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="258" spans="2:5">
+      <c r="B258" t="s">
+        <v>189</v>
+      </c>
+      <c r="C258" t="s">
+        <v>190</v>
+      </c>
+      <c r="D258" t="s">
+        <v>191</v>
+      </c>
+      <c r="E258" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="259" spans="2:5">
+      <c r="B259" t="s">
+        <v>503</v>
+      </c>
+      <c r="C259" t="s">
+        <v>504</v>
+      </c>
+      <c r="D259" t="s">
+        <v>505</v>
+      </c>
+      <c r="E259" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="260" spans="2:5">
+      <c r="B260" t="s">
+        <v>262</v>
+      </c>
+      <c r="C260" t="s">
+        <v>263</v>
+      </c>
+      <c r="D260" t="s">
+        <v>264</v>
+      </c>
+      <c r="E260" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="261" spans="2:5">
+      <c r="B261" t="s">
+        <v>513</v>
+      </c>
+      <c r="C261" t="s">
+        <v>514</v>
+      </c>
+      <c r="D261" t="s">
+        <v>515</v>
+      </c>
+      <c r="E261" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="262" spans="2:5">
+      <c r="B262" t="s">
+        <v>517</v>
+      </c>
+      <c r="C262" t="s">
+        <v>518</v>
+      </c>
+      <c r="D262" t="s">
+        <v>519</v>
+      </c>
+      <c r="E262" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="263" spans="2:5">
+      <c r="B263" t="s">
+        <v>517</v>
+      </c>
+      <c r="C263" t="s">
+        <v>518</v>
+      </c>
+      <c r="D263" t="s">
+        <v>519</v>
+      </c>
+      <c r="E263" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="264" spans="2:5">
+      <c r="B264" t="s">
+        <v>517</v>
+      </c>
+      <c r="C264" t="s">
+        <v>518</v>
+      </c>
+      <c r="D264" t="s">
+        <v>519</v>
+      </c>
+      <c r="E264" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="265" spans="2:5">
+      <c r="B265" t="s">
+        <v>517</v>
+      </c>
+      <c r="C265" t="s">
+        <v>518</v>
+      </c>
+      <c r="D265" t="s">
+        <v>519</v>
+      </c>
+      <c r="E265" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="266" spans="2:5">
+      <c r="B266" t="s">
+        <v>278</v>
+      </c>
+      <c r="C266" t="s">
+        <v>279</v>
+      </c>
+      <c r="D266" t="s">
+        <v>280</v>
+      </c>
+      <c r="E266" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="267" spans="2:5">
+      <c r="B267" t="s">
+        <v>520</v>
+      </c>
+      <c r="C267" t="s">
+        <v>521</v>
+      </c>
+      <c r="D267" t="s">
+        <v>522</v>
+      </c>
+      <c r="E267" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="268" spans="2:5">
+      <c r="B268" t="s">
+        <v>523</v>
+      </c>
+      <c r="C268" t="s">
+        <v>524</v>
+      </c>
+      <c r="D268" t="s">
+        <v>525</v>
+      </c>
+      <c r="E268" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="269" spans="2:5">
+      <c r="B269" t="s">
+        <v>278</v>
+      </c>
+      <c r="C269" t="s">
+        <v>279</v>
+      </c>
+      <c r="D269" t="s">
+        <v>280</v>
+      </c>
+      <c r="E269" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="270" spans="2:5">
+      <c r="B270" t="s">
+        <v>520</v>
+      </c>
+      <c r="C270" t="s">
+        <v>521</v>
+      </c>
+      <c r="D270" t="s">
+        <v>522</v>
+      </c>
+      <c r="E270" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="271" spans="2:5">
+      <c r="B271" t="s">
+        <v>342</v>
+      </c>
+      <c r="C271" t="s">
+        <v>343</v>
+      </c>
+      <c r="D271" t="s">
+        <v>344</v>
+      </c>
+      <c r="E271" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="272" spans="2:5">
+      <c r="B272" t="s">
+        <v>523</v>
+      </c>
+      <c r="C272" t="s">
+        <v>524</v>
+      </c>
+      <c r="D272" t="s">
+        <v>525</v>
+      </c>
+      <c r="E272" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="B273" t="s">
+        <v>510</v>
+      </c>
+      <c r="C273" t="s">
+        <v>511</v>
+      </c>
+      <c r="D273" t="s">
+        <v>512</v>
+      </c>
+      <c r="E273" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="B274" t="s">
+        <v>464</v>
+      </c>
+      <c r="C274" t="s">
+        <v>465</v>
+      </c>
+      <c r="D274" t="s">
+        <v>466</v>
+      </c>
+      <c r="E274" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="B275" t="s">
+        <v>342</v>
+      </c>
+      <c r="C275" t="s">
+        <v>343</v>
+      </c>
+      <c r="D275" t="s">
+        <v>344</v>
+      </c>
+      <c r="E275" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="B279" t="s">
+        <v>529</v>
+      </c>
+      <c r="C279" t="s">
+        <v>530</v>
+      </c>
+      <c r="D279" t="s">
+        <v>531</v>
+      </c>
+      <c r="E279" t="s">
+        <v>532</v>
       </c>
     </row>
   </sheetData>

--- a/riassuntoAutomatico.xlsx
+++ b/riassuntoAutomatico.xlsx
@@ -14,64 +14,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Riassunto analisi</t>
   </si>
   <si>
-    <t>Trovati errori per 2 bambini</t>
-  </si>
-  <si>
-    <t>Trovate 1 occorrenze per il controllo Controllo Kindergarten #2</t>
-  </si>
-  <si>
-    <t>Trovate 1 occorrenze per il controllo Controllo Fehler Eingewöhnung 543 Lockdown</t>
-  </si>
-  <si>
-    <t>Controllo Kindergarten #2</t>
-  </si>
-  <si>
-    <t>Gangemi Victoria Maria</t>
-  </si>
-  <si>
-    <t>GNGVTR17M54F132R</t>
-  </si>
-  <si>
-    <t>2017-08-14</t>
-  </si>
-  <si>
-    <t>Merano</t>
-  </si>
-  <si>
-    <t>Controllo Fehler Eingewöhnung 543 Lockdown</t>
-  </si>
-  <si>
-    <t>Jasar Jonny</t>
-  </si>
-  <si>
-    <t>JSRJNY18B12A952P</t>
-  </si>
-  <si>
-    <t>2018-02-12</t>
-  </si>
-  <si>
-    <t>Bolzano</t>
+    <t>Trovati errori per 0 bambini</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -99,9 +55,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,68 +351,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/riassuntoAutomatico.xlsx
+++ b/riassuntoAutomatico.xlsx
@@ -14,20 +14,1621 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="533">
   <si>
     <t>Riassunto analisi</t>
   </si>
   <si>
-    <t>Trovati errori per 0 bambini</t>
+    <t>Trovati errori per 152 bambini</t>
+  </si>
+  <si>
+    <t>Trovate 55 occorrenze per il controllo Controllo Kindergarten #1</t>
+  </si>
+  <si>
+    <t>Trovate 44 occorrenze per il controllo Controllo Kindergarten #2</t>
+  </si>
+  <si>
+    <t>Trovate 7 occorrenze per il controllo Controllo finanziamento compensativo</t>
+  </si>
+  <si>
+    <t>Trovate 4 occorrenze per il controllo Controllo finanziamento compensativo #2</t>
+  </si>
+  <si>
+    <t>Trovate 1 occorrenze per il controllo Controllo Covid #1</t>
+  </si>
+  <si>
+    <t>Trovate 9 occorrenze per il controllo Controllo Covid #3</t>
+  </si>
+  <si>
+    <t>Trovate 13 occorrenze per il controllo Contratti lockdown sospetti (Covid #4)</t>
+  </si>
+  <si>
+    <t>Trovate 13 occorrenze per il controllo Controllo Fehler Eingewöhnung</t>
+  </si>
+  <si>
+    <t>Trovate 24 occorrenze per il controllo Controllo Fehler Eingewöhnung 543 Lockdown</t>
+  </si>
+  <si>
+    <t>Trovate 14 occorrenze per il controllo Controllo Fehler Eingewöhnung 543 Notbetreuung</t>
+  </si>
+  <si>
+    <t>Trovate 2 occorrenze per il controllo Controllo ore complessive periodo contrattuale</t>
+  </si>
+  <si>
+    <t>Trovate 35 occorrenze per il controllo Bambino presente in più comuni</t>
+  </si>
+  <si>
+    <t>Trovate 1 occorrenze per il controllo Bambini con annotazioni</t>
+  </si>
+  <si>
+    <t>Controllo Kindergarten #1</t>
+  </si>
+  <si>
+    <t>Abler Sophie</t>
+  </si>
+  <si>
+    <t>BLRSPH16T68F132B</t>
+  </si>
+  <si>
+    <t>2016-12-28 00:00:00</t>
+  </si>
+  <si>
+    <t>Partschins</t>
+  </si>
+  <si>
+    <t>Agostinetto  Levi</t>
+  </si>
+  <si>
+    <t>GSTLVE17B06A952V</t>
+  </si>
+  <si>
+    <t>2017-02-06 00:00:00</t>
+  </si>
+  <si>
+    <t>Meran</t>
+  </si>
+  <si>
+    <t>Blaas Jakob</t>
+  </si>
+  <si>
+    <t>BLSJKB16R29I729Q</t>
+  </si>
+  <si>
+    <t>2016-10-29 00:00:00</t>
+  </si>
+  <si>
+    <t>Naturns</t>
+  </si>
+  <si>
+    <t>Bozzano Pietro</t>
+  </si>
+  <si>
+    <t>BZZPTR17A26B160X</t>
+  </si>
+  <si>
+    <t>2017-01-26 00:00:00</t>
+  </si>
+  <si>
+    <t>Karneid</t>
+  </si>
+  <si>
+    <t>Burkhart Nele</t>
+  </si>
+  <si>
+    <t>BRKNLE17B41B220I</t>
+  </si>
+  <si>
+    <t>2017-02-01 00:00:00</t>
+  </si>
+  <si>
+    <t>Bruneck</t>
+  </si>
+  <si>
+    <t>Dejori Pia</t>
+  </si>
+  <si>
+    <t>DJRPIA17A67A952Q</t>
+  </si>
+  <si>
+    <t>2017-01-27 00:00:00</t>
+  </si>
+  <si>
+    <t>Welschnofen</t>
+  </si>
+  <si>
+    <t>Desaler Viktoria</t>
+  </si>
+  <si>
+    <t>DSLVTR17A51A952V</t>
+  </si>
+  <si>
+    <t>2017-01-11 00:00:00</t>
+  </si>
+  <si>
+    <t>Sarntal</t>
+  </si>
+  <si>
+    <t>Doliana Mia</t>
+  </si>
+  <si>
+    <t>DLNMIA16T71A952X</t>
+  </si>
+  <si>
+    <t>2016-12-31 00:00:00</t>
+  </si>
+  <si>
+    <t>Ennemoser  Ella</t>
+  </si>
+  <si>
+    <t>NNMLLE17A60A952M</t>
+  </si>
+  <si>
+    <t>2017-01-20 00:00:00</t>
+  </si>
+  <si>
+    <t>Prad a Stj</t>
+  </si>
+  <si>
+    <t>Fiechter Emil</t>
+  </si>
+  <si>
+    <t>FCHMLE17A12B160W</t>
+  </si>
+  <si>
+    <t>2017-01-12 00:00:00</t>
+  </si>
+  <si>
+    <t>Ratschings</t>
+  </si>
+  <si>
+    <t>Gamper Klaus</t>
+  </si>
+  <si>
+    <t>GMPKLS16T18F132L</t>
+  </si>
+  <si>
+    <t>2016-12-18 00:00:00</t>
+  </si>
+  <si>
+    <t>Ulten</t>
+  </si>
+  <si>
+    <t>Gasser Lara</t>
+  </si>
+  <si>
+    <t>GSSLRA17B48F132D</t>
+  </si>
+  <si>
+    <t>2017-02-08 00:00:00</t>
+  </si>
+  <si>
+    <t>Lana</t>
+  </si>
+  <si>
+    <t>Goegele Maria</t>
+  </si>
+  <si>
+    <t>GGLMRA16S62F132J</t>
+  </si>
+  <si>
+    <t>2016-11-22 00:00:00</t>
+  </si>
+  <si>
+    <t>Gruber  Emil</t>
+  </si>
+  <si>
+    <t>GRBMLE16T12F132N</t>
+  </si>
+  <si>
+    <t>2016-12-12 00:00:00</t>
+  </si>
+  <si>
+    <t>Moelten</t>
+  </si>
+  <si>
+    <t>Gruber  Karolina</t>
+  </si>
+  <si>
+    <t>GRBKLN17A70F132K</t>
+  </si>
+  <si>
+    <t>2017-01-30 00:00:00</t>
+  </si>
+  <si>
+    <t>Riffian</t>
+  </si>
+  <si>
+    <t>Haller Toni</t>
+  </si>
+  <si>
+    <t>HLLTNO16T14B220U</t>
+  </si>
+  <si>
+    <t>2016-12-14 00:00:00</t>
+  </si>
+  <si>
+    <t>Gsies</t>
+  </si>
+  <si>
+    <t>Huber  David</t>
+  </si>
+  <si>
+    <t>HBRDVD16S18B220L</t>
+  </si>
+  <si>
+    <t>2016-11-18 00:00:00</t>
+  </si>
+  <si>
+    <t>St. Lorenzen</t>
+  </si>
+  <si>
+    <t>Kircher  Lena</t>
+  </si>
+  <si>
+    <t>KRCLNE17B53B160I</t>
+  </si>
+  <si>
+    <t>2017-02-13 00:00:00</t>
+  </si>
+  <si>
+    <t>Kohler Mali</t>
+  </si>
+  <si>
+    <t>KHLMLA17A71A952X</t>
+  </si>
+  <si>
+    <t>2017-01-31 00:00:00</t>
+  </si>
+  <si>
+    <t>Ladurner Moritz</t>
+  </si>
+  <si>
+    <t>LDRMTZ17B09F132D</t>
+  </si>
+  <si>
+    <t>2017-02-09 00:00:00</t>
+  </si>
+  <si>
+    <t>Marling</t>
+  </si>
+  <si>
+    <t>Lüling Gabriel</t>
+  </si>
+  <si>
+    <t>LLNGRL17B23B160G</t>
+  </si>
+  <si>
+    <t>2017-02-23 00:00:00</t>
+  </si>
+  <si>
+    <t>Brixen</t>
+  </si>
+  <si>
+    <t>Matzoll Simon</t>
+  </si>
+  <si>
+    <t>MTZSMN16T01F132M</t>
+  </si>
+  <si>
+    <t>2016-12-01 00:00:00</t>
+  </si>
+  <si>
+    <t>St. Pankraz Ulten</t>
+  </si>
+  <si>
+    <t>Mentzel Katharina</t>
+  </si>
+  <si>
+    <t>MNTKHR17A55A952Q</t>
+  </si>
+  <si>
+    <t>2017-01-15 00:00:00</t>
+  </si>
+  <si>
+    <t>Tiers</t>
+  </si>
+  <si>
+    <t>Moosbrugger Theresa</t>
+  </si>
+  <si>
+    <t>MSBTRS17B42Z102X</t>
+  </si>
+  <si>
+    <t>2017-02-02 00:00:00</t>
+  </si>
+  <si>
+    <t>Mor  Nadyn</t>
+  </si>
+  <si>
+    <t>MRONYN16P65B160C</t>
+  </si>
+  <si>
+    <t>2016-09-25 00:00:00</t>
+  </si>
+  <si>
+    <t>Vintl</t>
+  </si>
+  <si>
+    <t>Niederkofler Josef</t>
+  </si>
+  <si>
+    <t>NDRJSF17A20B220Z</t>
+  </si>
+  <si>
+    <t>Sand in Taufers</t>
+  </si>
+  <si>
+    <t>Niederstaetter Leni</t>
+  </si>
+  <si>
+    <t>NDRLNE16T59A952N</t>
+  </si>
+  <si>
+    <t>2016-12-19 00:00:00</t>
+  </si>
+  <si>
+    <t>Tscherms</t>
+  </si>
+  <si>
+    <t>Niederstaetter Toni</t>
+  </si>
+  <si>
+    <t>NDRTNO16T19A952B</t>
+  </si>
+  <si>
+    <t>Obgriesser Niklas</t>
+  </si>
+  <si>
+    <t>BGRNLS17B26B220E</t>
+  </si>
+  <si>
+    <t>2017-02-26 00:00:00</t>
+  </si>
+  <si>
+    <t>Perillo Zwink Noah Leon</t>
+  </si>
+  <si>
+    <t>PRLNLN17A15F132L</t>
+  </si>
+  <si>
+    <t>Pfattner  Jonas</t>
+  </si>
+  <si>
+    <t>PFTJNS16S25A952D</t>
+  </si>
+  <si>
+    <t>2016-11-25 00:00:00</t>
+  </si>
+  <si>
+    <t>Pföstl  Philipp</t>
+  </si>
+  <si>
+    <t>PFSPLP17B08F132P</t>
+  </si>
+  <si>
+    <t>Schenna</t>
+  </si>
+  <si>
+    <t>Pircher Paul</t>
+  </si>
+  <si>
+    <t>PRCPLA16S29F132U</t>
+  </si>
+  <si>
+    <t>2016-11-29 00:00:00</t>
+  </si>
+  <si>
+    <t>Ploner  Simon</t>
+  </si>
+  <si>
+    <t>PLNSMN17A18B220Q</t>
+  </si>
+  <si>
+    <t>2017-01-18 00:00:00</t>
+  </si>
+  <si>
+    <t>Rieder  Isabel</t>
+  </si>
+  <si>
+    <t>RDRSBL16M50A952F</t>
+  </si>
+  <si>
+    <t>2016-08-10 00:00:00</t>
+  </si>
+  <si>
+    <t>Rieder Fabian</t>
+  </si>
+  <si>
+    <t>RDRFBN17A08B160U</t>
+  </si>
+  <si>
+    <t>2017-01-08 00:00:00</t>
+  </si>
+  <si>
+    <t>Scheibenhoffer Alexander</t>
+  </si>
+  <si>
+    <t>SCHLND17B12F132N</t>
+  </si>
+  <si>
+    <t>2017-02-12 00:00:00</t>
+  </si>
+  <si>
+    <t>Seiwald  Silas</t>
+  </si>
+  <si>
+    <t>SWLSLS16S08B220U</t>
+  </si>
+  <si>
+    <t>2016-11-08 00:00:00</t>
+  </si>
+  <si>
+    <t>Sevcikova  Nadia</t>
+  </si>
+  <si>
+    <t>SVCNDA17A70B220F</t>
+  </si>
+  <si>
+    <t>Pfalzen</t>
+  </si>
+  <si>
+    <t>Stampfl Johanna</t>
+  </si>
+  <si>
+    <t>STMJNN17A47A952V</t>
+  </si>
+  <si>
+    <t>2017-01-07 00:00:00</t>
+  </si>
+  <si>
+    <t>Bozen</t>
+  </si>
+  <si>
+    <t>Stragenegg Krieg Paul</t>
+  </si>
+  <si>
+    <t>STRPLA17B14F132K</t>
+  </si>
+  <si>
+    <t>2017-02-14 00:00:00</t>
+  </si>
+  <si>
+    <t>Trafojer Jakob</t>
+  </si>
+  <si>
+    <t>TRFJKB16S22F132Q</t>
+  </si>
+  <si>
+    <t>Vassanelli Noah</t>
+  </si>
+  <si>
+    <t>VSSNHO16R13F132P</t>
+  </si>
+  <si>
+    <t>2016-10-13 00:00:00</t>
+  </si>
+  <si>
+    <t>Viaro Camilla</t>
+  </si>
+  <si>
+    <t>VRICLL16R64L378G</t>
+  </si>
+  <si>
+    <t>2016-10-24 00:00:00</t>
+  </si>
+  <si>
+    <t>Villgrattner Jonas</t>
+  </si>
+  <si>
+    <t>VLLJNS17A09B160F</t>
+  </si>
+  <si>
+    <t>2017-01-09 00:00:00</t>
+  </si>
+  <si>
+    <t>Völs am Schlern</t>
+  </si>
+  <si>
+    <t>Volante Vittorio</t>
+  </si>
+  <si>
+    <t>VLNVTR17B01A952B</t>
+  </si>
+  <si>
+    <t>Pfatten</t>
+  </si>
+  <si>
+    <t>Walter Moritz</t>
+  </si>
+  <si>
+    <t>WLTMTZ16M02M067H</t>
+  </si>
+  <si>
+    <t>2016-08-02 00:00:00</t>
+  </si>
+  <si>
+    <t>Weger Toni</t>
+  </si>
+  <si>
+    <t>WGRTNO17B05B160N</t>
+  </si>
+  <si>
+    <t>2017-02-05 00:00:00</t>
+  </si>
+  <si>
+    <t>Controllo Kindergarten #2</t>
+  </si>
+  <si>
+    <t>Ausserhofer Matthias</t>
+  </si>
+  <si>
+    <t>SSRMTH17S09B220Q</t>
+  </si>
+  <si>
+    <t>2017-11-09 00:00:00</t>
+  </si>
+  <si>
+    <t>Barbi Serena</t>
+  </si>
+  <si>
+    <t>BRBSRN17R65A952R</t>
+  </si>
+  <si>
+    <t>2017-10-25 00:00:00</t>
+  </si>
+  <si>
+    <t>Leifers</t>
+  </si>
+  <si>
+    <t>Bekoe Lucia</t>
+  </si>
+  <si>
+    <t>BKELCU17R50A952D</t>
+  </si>
+  <si>
+    <t>2017-10-10 00:00:00</t>
+  </si>
+  <si>
+    <t>Klausen</t>
+  </si>
+  <si>
+    <t>Coser Arthur</t>
+  </si>
+  <si>
+    <t>CSRRHR17L18F132W</t>
+  </si>
+  <si>
+    <t>2017-07-18 00:00:00</t>
+  </si>
+  <si>
+    <t>Costa Yasmina</t>
+  </si>
+  <si>
+    <t>CSTYMN17E60F132Y</t>
+  </si>
+  <si>
+    <t>2017-05-20 00:00:00</t>
+  </si>
+  <si>
+    <t>Doda Denis</t>
+  </si>
+  <si>
+    <t>DDODNS17L05I729E</t>
+  </si>
+  <si>
+    <t>2017-07-05 00:00:00</t>
+  </si>
+  <si>
+    <t>Schlanders</t>
+  </si>
+  <si>
+    <t>Ellecosta Emely</t>
+  </si>
+  <si>
+    <t>LLCMLY17S49B220J</t>
+  </si>
+  <si>
+    <t>Eschgfaeller Marie</t>
+  </si>
+  <si>
+    <t>SCHMRA17T62A952K</t>
+  </si>
+  <si>
+    <t>2017-12-22 00:00:00</t>
+  </si>
+  <si>
+    <t>Hafling</t>
+  </si>
+  <si>
+    <t>Frei Gasser Mia</t>
+  </si>
+  <si>
+    <t>FRGMIA17C65B160L</t>
+  </si>
+  <si>
+    <t>2017-03-25 00:00:00</t>
+  </si>
+  <si>
+    <t>Gatterer Banna Amira</t>
+  </si>
+  <si>
+    <t>GTTMRA17D43B220Y</t>
+  </si>
+  <si>
+    <t>2017-04-03 00:00:00</t>
+  </si>
+  <si>
+    <t>Gostner Noah</t>
+  </si>
+  <si>
+    <t>GSTNHO17T18B160K</t>
+  </si>
+  <si>
+    <t>2017-12-18 00:00:00</t>
+  </si>
+  <si>
+    <t>Kastelruth</t>
+  </si>
+  <si>
+    <t>Gumpold Marius</t>
+  </si>
+  <si>
+    <t>GMPMRS17M28F132X</t>
+  </si>
+  <si>
+    <t>2017-08-28 00:00:00</t>
+  </si>
+  <si>
+    <t>St. Leonhard in Passeier</t>
+  </si>
+  <si>
+    <t>Hochgruber Raphael</t>
+  </si>
+  <si>
+    <t>HCHRHL17S04B220O</t>
+  </si>
+  <si>
+    <t>2017-11-04 00:00:00</t>
+  </si>
+  <si>
+    <t>Kiens</t>
+  </si>
+  <si>
+    <t>Hölzl Felicia Victoria</t>
+  </si>
+  <si>
+    <t>HLZFCV17S56F132E</t>
+  </si>
+  <si>
+    <t>2017-11-16 00:00:00</t>
+  </si>
+  <si>
+    <t>Algund</t>
+  </si>
+  <si>
+    <t>Kofler Andreas</t>
+  </si>
+  <si>
+    <t>KFLNRS17S23F132N</t>
+  </si>
+  <si>
+    <t>2017-11-23 00:00:00</t>
+  </si>
+  <si>
+    <t>St. Martin in Passeier</t>
+  </si>
+  <si>
+    <t>Longo Giada</t>
+  </si>
+  <si>
+    <t>LNGGDI17E68B220Z</t>
+  </si>
+  <si>
+    <t>2017-05-28 00:00:00</t>
+  </si>
+  <si>
+    <t>Lunger Ida</t>
+  </si>
+  <si>
+    <t>LNGDIA17S51A952F</t>
+  </si>
+  <si>
+    <t>2017-11-11 00:00:00</t>
+  </si>
+  <si>
+    <t>Malfatti Jonas</t>
+  </si>
+  <si>
+    <t>MLFJNS17E18F132I</t>
+  </si>
+  <si>
+    <t>2017-05-18 00:00:00</t>
+  </si>
+  <si>
+    <t>Gargazon</t>
+  </si>
+  <si>
+    <t>Massei Damian</t>
+  </si>
+  <si>
+    <t>MSSDMN17S29Z102Y</t>
+  </si>
+  <si>
+    <t>2017-11-29 00:00:00</t>
+  </si>
+  <si>
+    <t>Maturilli Anna Maria</t>
+  </si>
+  <si>
+    <t>MTRNMR17H63F132N</t>
+  </si>
+  <si>
+    <t>2017-06-23 00:00:00</t>
+  </si>
+  <si>
+    <t>Matzoll Rene</t>
+  </si>
+  <si>
+    <t>MTZRNE17C30F132A</t>
+  </si>
+  <si>
+    <t>2017-03-30 00:00:00</t>
+  </si>
+  <si>
+    <t>Mayer Fabienne</t>
+  </si>
+  <si>
+    <t>MYRFNN17L67B160A</t>
+  </si>
+  <si>
+    <t>2017-07-27 00:00:00</t>
+  </si>
+  <si>
+    <t>Villnöss</t>
+  </si>
+  <si>
+    <t>Messner Jakob</t>
+  </si>
+  <si>
+    <t>MSSJKB17S30F132S</t>
+  </si>
+  <si>
+    <t>2017-11-30 00:00:00</t>
+  </si>
+  <si>
+    <t>Eppan</t>
+  </si>
+  <si>
+    <t>Niederstaetter Leo</t>
+  </si>
+  <si>
+    <t>NDRLEO17H28F132T</t>
+  </si>
+  <si>
+    <t>2017-06-28 00:00:00</t>
+  </si>
+  <si>
+    <t>Oberhollenzer Ben</t>
+  </si>
+  <si>
+    <t>BRHBNE17P04B220J</t>
+  </si>
+  <si>
+    <t>2017-09-04 00:00:00</t>
+  </si>
+  <si>
+    <t>Orlando Amy</t>
+  </si>
+  <si>
+    <t>RLNMYA17E46F132T</t>
+  </si>
+  <si>
+    <t>2017-05-06 00:00:00</t>
+  </si>
+  <si>
+    <t>Oschmann Carl Cosimo</t>
+  </si>
+  <si>
+    <t>SCHCLC17L23B160P</t>
+  </si>
+  <si>
+    <t>2017-07-23 00:00:00</t>
+  </si>
+  <si>
+    <t>Pejic Milica</t>
+  </si>
+  <si>
+    <t>PJCMLC17H48F132R</t>
+  </si>
+  <si>
+    <t>2017-06-08 00:00:00</t>
+  </si>
+  <si>
+    <t>Pircher Hannes</t>
+  </si>
+  <si>
+    <t>PRCHNS17C08F132K</t>
+  </si>
+  <si>
+    <t>2017-03-08 00:00:00</t>
+  </si>
+  <si>
+    <t>Platter  Felix</t>
+  </si>
+  <si>
+    <t>PLTFLX17D28B160Z</t>
+  </si>
+  <si>
+    <t>2017-04-28 00:00:00</t>
+  </si>
+  <si>
+    <t>Prevedello  Timo</t>
+  </si>
+  <si>
+    <t>PRVTMI17T12F132L</t>
+  </si>
+  <si>
+    <t>2017-12-12 00:00:00</t>
+  </si>
+  <si>
+    <t>Priller  Yara</t>
+  </si>
+  <si>
+    <t>PRLYRA17D69B220C</t>
+  </si>
+  <si>
+    <t>2017-04-29 00:00:00</t>
+  </si>
+  <si>
+    <t>Ruiu Nina</t>
+  </si>
+  <si>
+    <t>RUINNI17C65B220Y</t>
+  </si>
+  <si>
+    <t>Ahrntal</t>
+  </si>
+  <si>
+    <t>Scano Nicole</t>
+  </si>
+  <si>
+    <t>SCNNCL17D64F132B</t>
+  </si>
+  <si>
+    <t>2017-04-24 00:00:00</t>
+  </si>
+  <si>
+    <t>Stanzel Amira</t>
+  </si>
+  <si>
+    <t>STNMRA17E53F132I</t>
+  </si>
+  <si>
+    <t>2017-05-13 00:00:00</t>
+  </si>
+  <si>
+    <t>Taschler  Anton</t>
+  </si>
+  <si>
+    <t>TSCNTN17L08B220M</t>
+  </si>
+  <si>
+    <t>2017-07-08 00:00:00</t>
+  </si>
+  <si>
+    <t>Rasen/Antholz</t>
+  </si>
+  <si>
+    <t>Thoman Aimar Amalia</t>
+  </si>
+  <si>
+    <t>THMMLA17T69I729V</t>
+  </si>
+  <si>
+    <t>2017-12-29 00:00:00</t>
+  </si>
+  <si>
+    <t>Trafoier Alex</t>
+  </si>
+  <si>
+    <t>TRFLXA17S27I729K</t>
+  </si>
+  <si>
+    <t>2017-11-27 00:00:00</t>
+  </si>
+  <si>
+    <t>Wenter Leo</t>
+  </si>
+  <si>
+    <t>WNTLEO17M01F132R</t>
+  </si>
+  <si>
+    <t>2017-08-01 00:00:00</t>
+  </si>
+  <si>
+    <t>Werner Emma</t>
+  </si>
+  <si>
+    <t>WRNMME17T67A952M</t>
+  </si>
+  <si>
+    <t>2017-12-27 00:00:00</t>
+  </si>
+  <si>
+    <t>Deutschnofen</t>
+  </si>
+  <si>
+    <t>Winkler Paula</t>
+  </si>
+  <si>
+    <t>WNKPLA17R42B220L</t>
+  </si>
+  <si>
+    <t>2017-10-02 00:00:00</t>
+  </si>
+  <si>
+    <t>Olang</t>
+  </si>
+  <si>
+    <t>Witcher Noah Sebastian</t>
+  </si>
+  <si>
+    <t>WTCNSB17C04B160X</t>
+  </si>
+  <si>
+    <t>2017-03-04 00:00:00</t>
+  </si>
+  <si>
+    <t>Woerndle Paul</t>
+  </si>
+  <si>
+    <t>WRNPLA17T13I729Z</t>
+  </si>
+  <si>
+    <t>2017-12-13 00:00:00</t>
+  </si>
+  <si>
+    <t>Schnals</t>
+  </si>
+  <si>
+    <t>Controllo finanziamento compensativo</t>
+  </si>
+  <si>
+    <t>Illmer Rafael</t>
+  </si>
+  <si>
+    <t>LLMRFL19B10F132U</t>
+  </si>
+  <si>
+    <t>2019-02-10 00:00:00</t>
+  </si>
+  <si>
+    <t>Pillon Luna</t>
+  </si>
+  <si>
+    <t>PLLLNU19C41B160R</t>
+  </si>
+  <si>
+    <t>2019-03-01 00:00:00</t>
+  </si>
+  <si>
+    <t>Santer Zoey</t>
+  </si>
+  <si>
+    <t>SNTZYO19E51B160D</t>
+  </si>
+  <si>
+    <t>2019-05-11 00:00:00</t>
+  </si>
+  <si>
+    <t>Sinn Sebastian</t>
+  </si>
+  <si>
+    <t>SNNSST19C22A952Q</t>
+  </si>
+  <si>
+    <t>2019-03-22 00:00:00</t>
+  </si>
+  <si>
+    <t>Kaltern</t>
+  </si>
+  <si>
+    <t>Controllo finanziamento compensativo #2</t>
+  </si>
+  <si>
+    <t>Kajana Mia</t>
+  </si>
+  <si>
+    <t>KJNMIA18M43A952A</t>
+  </si>
+  <si>
+    <t>2018-08-03 00:00:00</t>
+  </si>
+  <si>
+    <t>Tramin</t>
+  </si>
+  <si>
+    <t>Keim Iaco</t>
+  </si>
+  <si>
+    <t>KMECIA17L27B160E</t>
+  </si>
+  <si>
+    <t>Schwienbacher Ida</t>
+  </si>
+  <si>
+    <t>SCHDIA19M48F132M</t>
+  </si>
+  <si>
+    <t>2019-08-08 00:00:00</t>
+  </si>
+  <si>
+    <t>Controllo Covid #1</t>
+  </si>
+  <si>
+    <t>Controllo Covid #3</t>
+  </si>
+  <si>
+    <t>Audino Dennis</t>
+  </si>
+  <si>
+    <t>DNADNS18C15F132Y</t>
+  </si>
+  <si>
+    <t>2018-03-15 00:00:00</t>
+  </si>
+  <si>
+    <t>Bertagnolli Julius</t>
+  </si>
+  <si>
+    <t>BRTJLS17M10I729H</t>
+  </si>
+  <si>
+    <t>2017-08-10 00:00:00</t>
+  </si>
+  <si>
+    <t>Frei Juri</t>
+  </si>
+  <si>
+    <t>FREJRU18E29A952R</t>
+  </si>
+  <si>
+    <t>2018-05-29 00:00:00</t>
+  </si>
+  <si>
+    <t>Gorfer Florian</t>
+  </si>
+  <si>
+    <t>GRFFRN18E23I729P</t>
+  </si>
+  <si>
+    <t>2018-05-23 00:00:00</t>
+  </si>
+  <si>
+    <t>Gufler Lina</t>
+  </si>
+  <si>
+    <t>GFLLNI18L57F132G</t>
+  </si>
+  <si>
+    <t>2018-07-17 00:00:00</t>
+  </si>
+  <si>
+    <t>Moos in Passeier</t>
+  </si>
+  <si>
+    <t>Pircher Rafael Stefan</t>
+  </si>
+  <si>
+    <t>PRCRLS17M21I729J</t>
+  </si>
+  <si>
+    <t>2017-08-21 00:00:00</t>
+  </si>
+  <si>
+    <t>Pramstrahler Josef</t>
+  </si>
+  <si>
+    <t>PRMJSF19H13A952Z</t>
+  </si>
+  <si>
+    <t>2019-06-13 00:00:00</t>
+  </si>
+  <si>
+    <t>Thaler Nils</t>
+  </si>
+  <si>
+    <t>THLNLS17S11A952H</t>
+  </si>
+  <si>
+    <t>Contratti lockdown sospetti (Covid #4)</t>
+  </si>
+  <si>
+    <t>Controllo Fehler Eingewöhnung</t>
+  </si>
+  <si>
+    <t>Ajardi Josef</t>
+  </si>
+  <si>
+    <t>JRDJSF19R02B220Y</t>
+  </si>
+  <si>
+    <t>2019-10-02 00:00:00</t>
+  </si>
+  <si>
+    <t>Coser Anna</t>
+  </si>
+  <si>
+    <t>CSRNNA19E54F132F</t>
+  </si>
+  <si>
+    <t>2019-05-14 00:00:00</t>
+  </si>
+  <si>
+    <t>Crepaz Amelie</t>
+  </si>
+  <si>
+    <t>CRPMLA18A41B160K</t>
+  </si>
+  <si>
+    <t>2018-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>Feldthurns</t>
+  </si>
+  <si>
+    <t>Gamper Martha</t>
+  </si>
+  <si>
+    <t>GMPMTH19D47F132J</t>
+  </si>
+  <si>
+    <t>2019-04-07 00:00:00</t>
+  </si>
+  <si>
+    <t>Gruber Emma</t>
+  </si>
+  <si>
+    <t>GRBMME18E67F132P</t>
+  </si>
+  <si>
+    <t>2018-05-27 00:00:00</t>
+  </si>
+  <si>
+    <t>Huber Alexander</t>
+  </si>
+  <si>
+    <t>HBRLND18L27Z102R</t>
+  </si>
+  <si>
+    <t>2018-07-27 00:00:00</t>
+  </si>
+  <si>
+    <t>Huber Anna</t>
+  </si>
+  <si>
+    <t>HBRNNA18S55A952Y</t>
+  </si>
+  <si>
+    <t>2018-11-15 00:00:00</t>
+  </si>
+  <si>
+    <t>Karlegger Svenja Heidrun</t>
+  </si>
+  <si>
+    <t>KRLSNJ18P49I729Y</t>
+  </si>
+  <si>
+    <t>2018-09-09 00:00:00</t>
+  </si>
+  <si>
+    <t>Malloth Daniel</t>
+  </si>
+  <si>
+    <t>MLLDNL17L10I729Y</t>
+  </si>
+  <si>
+    <t>2017-07-10 00:00:00</t>
+  </si>
+  <si>
+    <t>Taufers i. M.</t>
+  </si>
+  <si>
+    <t>Pichler Simon</t>
+  </si>
+  <si>
+    <t>PCHSMN19L15F132H</t>
+  </si>
+  <si>
+    <t>2019-07-15 00:00:00</t>
+  </si>
+  <si>
+    <t>Premstaller Emmi</t>
+  </si>
+  <si>
+    <t>PRMMME19P65B220I</t>
+  </si>
+  <si>
+    <t>2019-09-25 00:00:00</t>
+  </si>
+  <si>
+    <t>Percha</t>
+  </si>
+  <si>
+    <t>Vent Ludwig</t>
+  </si>
+  <si>
+    <t>VNTLWG18P17F132O</t>
+  </si>
+  <si>
+    <t>2018-09-17 00:00:00</t>
+  </si>
+  <si>
+    <t>Burgstall</t>
+  </si>
+  <si>
+    <t>Wassler Alex</t>
+  </si>
+  <si>
+    <t>WSSLXA18H02A952T</t>
+  </si>
+  <si>
+    <t>2018-06-02 00:00:00</t>
+  </si>
+  <si>
+    <t>Controllo Fehler Eingewöhnung 543 Lockdown</t>
+  </si>
+  <si>
+    <t>Battaglia Mattia</t>
+  </si>
+  <si>
+    <t>BTTMTT17P08B160L</t>
+  </si>
+  <si>
+    <t>2017-09-08 00:00:00</t>
+  </si>
+  <si>
+    <t>Natz Schabs</t>
+  </si>
+  <si>
+    <t>D´Altri Stella</t>
+  </si>
+  <si>
+    <t>DLTSLL19B61A944K</t>
+  </si>
+  <si>
+    <t>2019-02-21 00:00:00</t>
+  </si>
+  <si>
+    <t>Eder Bruno</t>
+  </si>
+  <si>
+    <t>DREBRN19H09B220H</t>
+  </si>
+  <si>
+    <t>2019-06-09 00:00:00</t>
+  </si>
+  <si>
+    <t>Hafner Paul</t>
+  </si>
+  <si>
+    <t>HFNPLA18E20F132Q</t>
+  </si>
+  <si>
+    <t>2018-05-20 00:00:00</t>
+  </si>
+  <si>
+    <t>Prantl Rosa</t>
+  </si>
+  <si>
+    <t>PRNRSO18B49F132Z</t>
+  </si>
+  <si>
+    <t>2018-02-09 00:00:00</t>
+  </si>
+  <si>
+    <t>Tirol</t>
+  </si>
+  <si>
+    <t>Punter  Emil</t>
+  </si>
+  <si>
+    <t>PNTMLE17H12A952H</t>
+  </si>
+  <si>
+    <t>2017-06-12 00:00:00</t>
+  </si>
+  <si>
+    <t>Mals i. V.</t>
+  </si>
+  <si>
+    <t>Punter Julius</t>
+  </si>
+  <si>
+    <t>PNTJLS17H12A952S</t>
+  </si>
+  <si>
+    <t>Steger Fiona</t>
+  </si>
+  <si>
+    <t>STGFNI19E63B220P</t>
+  </si>
+  <si>
+    <t>2019-05-23 00:00:00</t>
+  </si>
+  <si>
+    <t>Thaler Leia</t>
+  </si>
+  <si>
+    <t>THLLEI19A68F132X</t>
+  </si>
+  <si>
+    <t>2019-01-28 00:00:00</t>
+  </si>
+  <si>
+    <t>Controllo Fehler Eingewöhnung 543 Notbetreuung</t>
+  </si>
+  <si>
+    <t>Agostinetto Matti</t>
+  </si>
+  <si>
+    <t>GSTMTT20B09A952T</t>
+  </si>
+  <si>
+    <t>2020-02-09 00:00:00</t>
+  </si>
+  <si>
+    <t>Barcatta Lisa</t>
+  </si>
+  <si>
+    <t>BRCLSI18S47A952V</t>
+  </si>
+  <si>
+    <t>2018-11-07 00:00:00</t>
+  </si>
+  <si>
+    <t>Kurtatsch</t>
+  </si>
+  <si>
+    <t>Billi Lorenzo</t>
+  </si>
+  <si>
+    <t>BLLLNZ20B12A952J</t>
+  </si>
+  <si>
+    <t>2020-02-12 00:00:00</t>
+  </si>
+  <si>
+    <t>Auer</t>
+  </si>
+  <si>
+    <t>Burger Karin</t>
+  </si>
+  <si>
+    <t>BRGKRN19E60I729G</t>
+  </si>
+  <si>
+    <t>2019-05-20 00:00:00</t>
+  </si>
+  <si>
+    <t>Ciaramella Lageder Giacomo Clemens</t>
+  </si>
+  <si>
+    <t>CRMGMC19T22F132F</t>
+  </si>
+  <si>
+    <t>2019-12-22 00:00:00</t>
+  </si>
+  <si>
+    <t>Edobor Evidence</t>
+  </si>
+  <si>
+    <t>DBRVNC19L59A952Z</t>
+  </si>
+  <si>
+    <t>2019-07-19 00:00:00</t>
+  </si>
+  <si>
+    <t>Graun im Vinschgau</t>
+  </si>
+  <si>
+    <t>Fabris Nathan</t>
+  </si>
+  <si>
+    <t>FBRNHN20B09F132A</t>
+  </si>
+  <si>
+    <t>Pircher Elsa Katharina</t>
+  </si>
+  <si>
+    <t>PRCLKT20B55I729Y</t>
+  </si>
+  <si>
+    <t>2020-02-15 00:00:00</t>
+  </si>
+  <si>
+    <t>Santner Lenz</t>
+  </si>
+  <si>
+    <t>SNTLNZ18A30F132R</t>
+  </si>
+  <si>
+    <t>2018-01-30 00:00:00</t>
+  </si>
+  <si>
+    <t>Schnitzer Lia</t>
+  </si>
+  <si>
+    <t>SCHLIA18P62F132S</t>
+  </si>
+  <si>
+    <t>2018-09-22 00:00:00</t>
+  </si>
+  <si>
+    <t>Vieider Stina Marie</t>
+  </si>
+  <si>
+    <t>VDRSNM18M56B160V</t>
+  </si>
+  <si>
+    <t>2018-08-16 00:00:00</t>
+  </si>
+  <si>
+    <t>Weger Mathe Elisabeth</t>
+  </si>
+  <si>
+    <t>WGRMHL18M51B220M</t>
+  </si>
+  <si>
+    <t>2018-08-11 00:00:00</t>
+  </si>
+  <si>
+    <t>Weissteiner Maximilian</t>
+  </si>
+  <si>
+    <t>WSSMML18L16B160Z</t>
+  </si>
+  <si>
+    <t>2018-07-16 00:00:00</t>
+  </si>
+  <si>
+    <t>Controllo ore complessive periodo contrattuale</t>
+  </si>
+  <si>
+    <t>Todde Nicoló</t>
+  </si>
+  <si>
+    <t>TDDNCL19D28A952R</t>
+  </si>
+  <si>
+    <t>2019-04-28 00:00:00</t>
+  </si>
+  <si>
+    <t>Bambino presente in più comuni</t>
+  </si>
+  <si>
+    <t>Alia Amelia</t>
+  </si>
+  <si>
+    <t>LAIMLA18S61A952S</t>
+  </si>
+  <si>
+    <t>2018-11-21 00:00:00</t>
+  </si>
+  <si>
+    <t>Margreid</t>
+  </si>
+  <si>
+    <t>Burger Linnea</t>
+  </si>
+  <si>
+    <t>BRGLNN18C48I729E</t>
+  </si>
+  <si>
+    <t>2018-03-08 00:00:00</t>
+  </si>
+  <si>
+    <t>Cellamare Camilla</t>
+  </si>
+  <si>
+    <t>CLLCLL17P60F132P</t>
+  </si>
+  <si>
+    <t>2017-09-20 00:00:00</t>
+  </si>
+  <si>
+    <t>Imonsili Mercy</t>
+  </si>
+  <si>
+    <t>MNSMCY18D63A952N</t>
+  </si>
+  <si>
+    <t>2018-04-23 00:00:00</t>
+  </si>
+  <si>
+    <t>Mazohl Mari</t>
+  </si>
+  <si>
+    <t>MZHMRA18P64F132P</t>
+  </si>
+  <si>
+    <t>2018-09-24 00:00:00</t>
+  </si>
+  <si>
+    <t>Schwärzer Anna</t>
+  </si>
+  <si>
+    <t>SCHNNA19R68B220L</t>
+  </si>
+  <si>
+    <t>2019-10-28 00:00:00</t>
+  </si>
+  <si>
+    <t>Gais</t>
+  </si>
+  <si>
+    <t>Usom Best Daniel</t>
+  </si>
+  <si>
+    <t>SMBDNL17C15A952L</t>
+  </si>
+  <si>
+    <t>2017-03-15 00:00:00</t>
+  </si>
+  <si>
+    <t>Weger Sophia</t>
+  </si>
+  <si>
+    <t>WGRSPH18D46B220D</t>
+  </si>
+  <si>
+    <t>2018-04-06 00:00:00</t>
+  </si>
+  <si>
+    <t>Whitecotton Leopold Harrison</t>
+  </si>
+  <si>
+    <t>WHTLLD18B20Z112Z</t>
+  </si>
+  <si>
+    <t>2018-02-20 00:00:00</t>
+  </si>
+  <si>
+    <t>Pfitsch</t>
+  </si>
+  <si>
+    <t>Sterzing</t>
+  </si>
+  <si>
+    <t>Bambini con annotazioni</t>
+  </si>
+  <si>
+    <t>Corduneanu Dorian *</t>
+  </si>
+  <si>
+    <t>CRDDRN17D05I729Y</t>
+  </si>
+  <si>
+    <t>2017-04-05 00:00:00</t>
+  </si>
+  <si>
+    <t>Kastelbell-Tschars</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -55,8 +1656,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -351,7 +1953,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:E279"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -367,6 +1969,3244 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="B30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="B31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="B32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" t="s">
+        <v>76</v>
+      </c>
+      <c r="E38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" t="s">
+        <v>76</v>
+      </c>
+      <c r="E39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" t="s">
+        <v>80</v>
+      </c>
+      <c r="E40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" t="s">
+        <v>84</v>
+      </c>
+      <c r="E41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" t="s">
+        <v>87</v>
+      </c>
+      <c r="E42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" t="s">
+        <v>90</v>
+      </c>
+      <c r="E43" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44" t="s">
+        <v>94</v>
+      </c>
+      <c r="E44" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" t="s">
+        <v>98</v>
+      </c>
+      <c r="E45" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" t="s">
+        <v>101</v>
+      </c>
+      <c r="D46" t="s">
+        <v>102</v>
+      </c>
+      <c r="E46" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47" t="s">
+        <v>104</v>
+      </c>
+      <c r="C47" t="s">
+        <v>105</v>
+      </c>
+      <c r="D47" t="s">
+        <v>106</v>
+      </c>
+      <c r="E47" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" t="s">
+        <v>108</v>
+      </c>
+      <c r="D48" t="s">
+        <v>109</v>
+      </c>
+      <c r="E48" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" t="s">
+        <v>108</v>
+      </c>
+      <c r="D49" t="s">
+        <v>109</v>
+      </c>
+      <c r="E49" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" t="s">
+        <v>112</v>
+      </c>
+      <c r="D50" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="B51" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" t="s">
+        <v>115</v>
+      </c>
+      <c r="D51" t="s">
+        <v>116</v>
+      </c>
+      <c r="E51" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="B52" t="s">
+        <v>114</v>
+      </c>
+      <c r="C52" t="s">
+        <v>115</v>
+      </c>
+      <c r="D52" t="s">
+        <v>116</v>
+      </c>
+      <c r="E52" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="B53" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" t="s">
+        <v>119</v>
+      </c>
+      <c r="D53" t="s">
+        <v>116</v>
+      </c>
+      <c r="E53" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="B54" t="s">
+        <v>118</v>
+      </c>
+      <c r="C54" t="s">
+        <v>119</v>
+      </c>
+      <c r="D54" t="s">
+        <v>116</v>
+      </c>
+      <c r="E54" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="B55" t="s">
+        <v>120</v>
+      </c>
+      <c r="C55" t="s">
+        <v>121</v>
+      </c>
+      <c r="D55" t="s">
+        <v>122</v>
+      </c>
+      <c r="E55" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="B56" t="s">
+        <v>123</v>
+      </c>
+      <c r="C56" t="s">
+        <v>124</v>
+      </c>
+      <c r="D56" t="s">
+        <v>102</v>
+      </c>
+      <c r="E56" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5">
+      <c r="B57" t="s">
+        <v>123</v>
+      </c>
+      <c r="C57" t="s">
+        <v>124</v>
+      </c>
+      <c r="D57" t="s">
+        <v>102</v>
+      </c>
+      <c r="E57" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58" t="s">
+        <v>125</v>
+      </c>
+      <c r="C58" t="s">
+        <v>126</v>
+      </c>
+      <c r="D58" t="s">
+        <v>127</v>
+      </c>
+      <c r="E58" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="B59" t="s">
+        <v>125</v>
+      </c>
+      <c r="C59" t="s">
+        <v>126</v>
+      </c>
+      <c r="D59" t="s">
+        <v>127</v>
+      </c>
+      <c r="E59" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5">
+      <c r="B60" t="s">
+        <v>128</v>
+      </c>
+      <c r="C60" t="s">
+        <v>129</v>
+      </c>
+      <c r="D60" t="s">
+        <v>61</v>
+      </c>
+      <c r="E60" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5">
+      <c r="B61" t="s">
+        <v>131</v>
+      </c>
+      <c r="C61" t="s">
+        <v>132</v>
+      </c>
+      <c r="D61" t="s">
+        <v>133</v>
+      </c>
+      <c r="E61" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5">
+      <c r="B62" t="s">
+        <v>134</v>
+      </c>
+      <c r="C62" t="s">
+        <v>135</v>
+      </c>
+      <c r="D62" t="s">
+        <v>136</v>
+      </c>
+      <c r="E62" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5">
+      <c r="B63" t="s">
+        <v>137</v>
+      </c>
+      <c r="C63" t="s">
+        <v>138</v>
+      </c>
+      <c r="D63" t="s">
+        <v>139</v>
+      </c>
+      <c r="E63" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5">
+      <c r="B64" t="s">
+        <v>140</v>
+      </c>
+      <c r="C64" t="s">
+        <v>141</v>
+      </c>
+      <c r="D64" t="s">
+        <v>142</v>
+      </c>
+      <c r="E64" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="B65" t="s">
+        <v>143</v>
+      </c>
+      <c r="C65" t="s">
+        <v>144</v>
+      </c>
+      <c r="D65" t="s">
+        <v>145</v>
+      </c>
+      <c r="E65" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="B66" t="s">
+        <v>146</v>
+      </c>
+      <c r="C66" t="s">
+        <v>147</v>
+      </c>
+      <c r="D66" t="s">
+        <v>148</v>
+      </c>
+      <c r="E66" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="B67" t="s">
+        <v>149</v>
+      </c>
+      <c r="C67" t="s">
+        <v>150</v>
+      </c>
+      <c r="D67" t="s">
+        <v>72</v>
+      </c>
+      <c r="E67" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="B68" t="s">
+        <v>152</v>
+      </c>
+      <c r="C68" t="s">
+        <v>153</v>
+      </c>
+      <c r="D68" t="s">
+        <v>154</v>
+      </c>
+      <c r="E68" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="B69" t="s">
+        <v>156</v>
+      </c>
+      <c r="C69" t="s">
+        <v>157</v>
+      </c>
+      <c r="D69" t="s">
+        <v>158</v>
+      </c>
+      <c r="E69" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="B70" t="s">
+        <v>159</v>
+      </c>
+      <c r="C70" t="s">
+        <v>160</v>
+      </c>
+      <c r="D70" t="s">
+        <v>65</v>
+      </c>
+      <c r="E70" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="B71" t="s">
+        <v>161</v>
+      </c>
+      <c r="C71" t="s">
+        <v>162</v>
+      </c>
+      <c r="D71" t="s">
+        <v>163</v>
+      </c>
+      <c r="E71" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="B72" t="s">
+        <v>164</v>
+      </c>
+      <c r="C72" t="s">
+        <v>165</v>
+      </c>
+      <c r="D72" t="s">
+        <v>166</v>
+      </c>
+      <c r="E72" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="B73" t="s">
+        <v>167</v>
+      </c>
+      <c r="C73" t="s">
+        <v>168</v>
+      </c>
+      <c r="D73" t="s">
+        <v>169</v>
+      </c>
+      <c r="E73" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="B74" t="s">
+        <v>171</v>
+      </c>
+      <c r="C74" t="s">
+        <v>172</v>
+      </c>
+      <c r="D74" t="s">
+        <v>34</v>
+      </c>
+      <c r="E74" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="B75" t="s">
+        <v>174</v>
+      </c>
+      <c r="C75" t="s">
+        <v>175</v>
+      </c>
+      <c r="D75" t="s">
+        <v>176</v>
+      </c>
+      <c r="E75" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="B76" t="s">
+        <v>177</v>
+      </c>
+      <c r="C76" t="s">
+        <v>178</v>
+      </c>
+      <c r="D76" t="s">
+        <v>179</v>
+      </c>
+      <c r="E76" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="B80" t="s">
+        <v>181</v>
+      </c>
+      <c r="C80" t="s">
+        <v>182</v>
+      </c>
+      <c r="D80" t="s">
+        <v>183</v>
+      </c>
+      <c r="E80" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5">
+      <c r="B81" t="s">
+        <v>184</v>
+      </c>
+      <c r="C81" t="s">
+        <v>185</v>
+      </c>
+      <c r="D81" t="s">
+        <v>186</v>
+      </c>
+      <c r="E81" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5">
+      <c r="B82" t="s">
+        <v>188</v>
+      </c>
+      <c r="C82" t="s">
+        <v>189</v>
+      </c>
+      <c r="D82" t="s">
+        <v>190</v>
+      </c>
+      <c r="E82" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5">
+      <c r="B83" t="s">
+        <v>192</v>
+      </c>
+      <c r="C83" t="s">
+        <v>193</v>
+      </c>
+      <c r="D83" t="s">
+        <v>194</v>
+      </c>
+      <c r="E83" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5">
+      <c r="B84" t="s">
+        <v>195</v>
+      </c>
+      <c r="C84" t="s">
+        <v>196</v>
+      </c>
+      <c r="D84" t="s">
+        <v>197</v>
+      </c>
+      <c r="E84" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5">
+      <c r="B85" t="s">
+        <v>198</v>
+      </c>
+      <c r="C85" t="s">
+        <v>199</v>
+      </c>
+      <c r="D85" t="s">
+        <v>200</v>
+      </c>
+      <c r="E85" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5">
+      <c r="B86" t="s">
+        <v>202</v>
+      </c>
+      <c r="C86" t="s">
+        <v>203</v>
+      </c>
+      <c r="D86" t="s">
+        <v>183</v>
+      </c>
+      <c r="E86" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5">
+      <c r="B87" t="s">
+        <v>204</v>
+      </c>
+      <c r="C87" t="s">
+        <v>205</v>
+      </c>
+      <c r="D87" t="s">
+        <v>206</v>
+      </c>
+      <c r="E87" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5">
+      <c r="B88" t="s">
+        <v>208</v>
+      </c>
+      <c r="C88" t="s">
+        <v>209</v>
+      </c>
+      <c r="D88" t="s">
+        <v>210</v>
+      </c>
+      <c r="E88" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5">
+      <c r="B89" t="s">
+        <v>211</v>
+      </c>
+      <c r="C89" t="s">
+        <v>212</v>
+      </c>
+      <c r="D89" t="s">
+        <v>213</v>
+      </c>
+      <c r="E89" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5">
+      <c r="B90" t="s">
+        <v>214</v>
+      </c>
+      <c r="C90" t="s">
+        <v>215</v>
+      </c>
+      <c r="D90" t="s">
+        <v>216</v>
+      </c>
+      <c r="E90" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5">
+      <c r="B91" t="s">
+        <v>218</v>
+      </c>
+      <c r="C91" t="s">
+        <v>219</v>
+      </c>
+      <c r="D91" t="s">
+        <v>220</v>
+      </c>
+      <c r="E91" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5">
+      <c r="B92" t="s">
+        <v>222</v>
+      </c>
+      <c r="C92" t="s">
+        <v>223</v>
+      </c>
+      <c r="D92" t="s">
+        <v>224</v>
+      </c>
+      <c r="E92" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5">
+      <c r="B93" t="s">
+        <v>226</v>
+      </c>
+      <c r="C93" t="s">
+        <v>227</v>
+      </c>
+      <c r="D93" t="s">
+        <v>228</v>
+      </c>
+      <c r="E93" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5">
+      <c r="B94" t="s">
+        <v>230</v>
+      </c>
+      <c r="C94" t="s">
+        <v>231</v>
+      </c>
+      <c r="D94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E94" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5">
+      <c r="B95" t="s">
+        <v>234</v>
+      </c>
+      <c r="C95" t="s">
+        <v>235</v>
+      </c>
+      <c r="D95" t="s">
+        <v>236</v>
+      </c>
+      <c r="E95" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5">
+      <c r="B96" t="s">
+        <v>237</v>
+      </c>
+      <c r="C96" t="s">
+        <v>238</v>
+      </c>
+      <c r="D96" t="s">
+        <v>239</v>
+      </c>
+      <c r="E96" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5">
+      <c r="B97" t="s">
+        <v>240</v>
+      </c>
+      <c r="C97" t="s">
+        <v>241</v>
+      </c>
+      <c r="D97" t="s">
+        <v>242</v>
+      </c>
+      <c r="E97" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5">
+      <c r="B98" t="s">
+        <v>244</v>
+      </c>
+      <c r="C98" t="s">
+        <v>245</v>
+      </c>
+      <c r="D98" t="s">
+        <v>246</v>
+      </c>
+      <c r="E98" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5">
+      <c r="B99" t="s">
+        <v>247</v>
+      </c>
+      <c r="C99" t="s">
+        <v>248</v>
+      </c>
+      <c r="D99" t="s">
+        <v>249</v>
+      </c>
+      <c r="E99" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5">
+      <c r="B100" t="s">
+        <v>250</v>
+      </c>
+      <c r="C100" t="s">
+        <v>251</v>
+      </c>
+      <c r="D100" t="s">
+        <v>252</v>
+      </c>
+      <c r="E100" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5">
+      <c r="B101" t="s">
+        <v>253</v>
+      </c>
+      <c r="C101" t="s">
+        <v>254</v>
+      </c>
+      <c r="D101" t="s">
+        <v>255</v>
+      </c>
+      <c r="E101" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5">
+      <c r="B102" t="s">
+        <v>257</v>
+      </c>
+      <c r="C102" t="s">
+        <v>258</v>
+      </c>
+      <c r="D102" t="s">
+        <v>259</v>
+      </c>
+      <c r="E102" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5">
+      <c r="B103" t="s">
+        <v>261</v>
+      </c>
+      <c r="C103" t="s">
+        <v>262</v>
+      </c>
+      <c r="D103" t="s">
+        <v>263</v>
+      </c>
+      <c r="E103" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5">
+      <c r="B104" t="s">
+        <v>261</v>
+      </c>
+      <c r="C104" t="s">
+        <v>262</v>
+      </c>
+      <c r="D104" t="s">
+        <v>263</v>
+      </c>
+      <c r="E104" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5">
+      <c r="B105" t="s">
+        <v>264</v>
+      </c>
+      <c r="C105" t="s">
+        <v>265</v>
+      </c>
+      <c r="D105" t="s">
+        <v>266</v>
+      </c>
+      <c r="E105" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5">
+      <c r="B106" t="s">
+        <v>267</v>
+      </c>
+      <c r="C106" t="s">
+        <v>268</v>
+      </c>
+      <c r="D106" t="s">
+        <v>269</v>
+      </c>
+      <c r="E106" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5">
+      <c r="B107" t="s">
+        <v>270</v>
+      </c>
+      <c r="C107" t="s">
+        <v>271</v>
+      </c>
+      <c r="D107" t="s">
+        <v>272</v>
+      </c>
+      <c r="E107" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5">
+      <c r="B108" t="s">
+        <v>273</v>
+      </c>
+      <c r="C108" t="s">
+        <v>274</v>
+      </c>
+      <c r="D108" t="s">
+        <v>275</v>
+      </c>
+      <c r="E108" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5">
+      <c r="B109" t="s">
+        <v>276</v>
+      </c>
+      <c r="C109" t="s">
+        <v>277</v>
+      </c>
+      <c r="D109" t="s">
+        <v>278</v>
+      </c>
+      <c r="E109" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5">
+      <c r="B110" t="s">
+        <v>279</v>
+      </c>
+      <c r="C110" t="s">
+        <v>280</v>
+      </c>
+      <c r="D110" t="s">
+        <v>281</v>
+      </c>
+      <c r="E110" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5">
+      <c r="B111" t="s">
+        <v>282</v>
+      </c>
+      <c r="C111" t="s">
+        <v>283</v>
+      </c>
+      <c r="D111" t="s">
+        <v>284</v>
+      </c>
+      <c r="E111" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5">
+      <c r="B112" t="s">
+        <v>285</v>
+      </c>
+      <c r="C112" t="s">
+        <v>286</v>
+      </c>
+      <c r="D112" t="s">
+        <v>287</v>
+      </c>
+      <c r="E112" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="B113" t="s">
+        <v>288</v>
+      </c>
+      <c r="C113" t="s">
+        <v>289</v>
+      </c>
+      <c r="D113" t="s">
+        <v>210</v>
+      </c>
+      <c r="E113" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="B114" t="s">
+        <v>291</v>
+      </c>
+      <c r="C114" t="s">
+        <v>292</v>
+      </c>
+      <c r="D114" t="s">
+        <v>293</v>
+      </c>
+      <c r="E114" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="B115" t="s">
+        <v>294</v>
+      </c>
+      <c r="C115" t="s">
+        <v>295</v>
+      </c>
+      <c r="D115" t="s">
+        <v>296</v>
+      </c>
+      <c r="E115" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="B116" t="s">
+        <v>297</v>
+      </c>
+      <c r="C116" t="s">
+        <v>298</v>
+      </c>
+      <c r="D116" t="s">
+        <v>299</v>
+      </c>
+      <c r="E116" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="B117" t="s">
+        <v>301</v>
+      </c>
+      <c r="C117" t="s">
+        <v>302</v>
+      </c>
+      <c r="D117" t="s">
+        <v>303</v>
+      </c>
+      <c r="E117" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="B118" t="s">
+        <v>304</v>
+      </c>
+      <c r="C118" t="s">
+        <v>305</v>
+      </c>
+      <c r="D118" t="s">
+        <v>306</v>
+      </c>
+      <c r="E118" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="B119" t="s">
+        <v>307</v>
+      </c>
+      <c r="C119" t="s">
+        <v>308</v>
+      </c>
+      <c r="D119" t="s">
+        <v>309</v>
+      </c>
+      <c r="E119" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="B120" t="s">
+        <v>310</v>
+      </c>
+      <c r="C120" t="s">
+        <v>311</v>
+      </c>
+      <c r="D120" t="s">
+        <v>312</v>
+      </c>
+      <c r="E120" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="B121" t="s">
+        <v>314</v>
+      </c>
+      <c r="C121" t="s">
+        <v>315</v>
+      </c>
+      <c r="D121" t="s">
+        <v>316</v>
+      </c>
+      <c r="E121" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="B122" t="s">
+        <v>318</v>
+      </c>
+      <c r="C122" t="s">
+        <v>319</v>
+      </c>
+      <c r="D122" t="s">
+        <v>320</v>
+      </c>
+      <c r="E122" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="B123" t="s">
+        <v>321</v>
+      </c>
+      <c r="C123" t="s">
+        <v>322</v>
+      </c>
+      <c r="D123" t="s">
+        <v>323</v>
+      </c>
+      <c r="E123" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="B127" t="s">
+        <v>202</v>
+      </c>
+      <c r="C127" t="s">
+        <v>203</v>
+      </c>
+      <c r="D127" t="s">
+        <v>183</v>
+      </c>
+      <c r="E127" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="B128" t="s">
+        <v>326</v>
+      </c>
+      <c r="C128" t="s">
+        <v>327</v>
+      </c>
+      <c r="D128" t="s">
+        <v>328</v>
+      </c>
+      <c r="E128" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="B129" t="s">
+        <v>114</v>
+      </c>
+      <c r="C129" t="s">
+        <v>115</v>
+      </c>
+      <c r="D129" t="s">
+        <v>116</v>
+      </c>
+      <c r="E129" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="B130" t="s">
+        <v>118</v>
+      </c>
+      <c r="C130" t="s">
+        <v>119</v>
+      </c>
+      <c r="D130" t="s">
+        <v>116</v>
+      </c>
+      <c r="E130" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="B131" t="s">
+        <v>329</v>
+      </c>
+      <c r="C131" t="s">
+        <v>330</v>
+      </c>
+      <c r="D131" t="s">
+        <v>331</v>
+      </c>
+      <c r="E131" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="B132" t="s">
+        <v>332</v>
+      </c>
+      <c r="C132" t="s">
+        <v>333</v>
+      </c>
+      <c r="D132" t="s">
+        <v>334</v>
+      </c>
+      <c r="E132" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="B133" t="s">
+        <v>335</v>
+      </c>
+      <c r="C133" t="s">
+        <v>336</v>
+      </c>
+      <c r="D133" t="s">
+        <v>337</v>
+      </c>
+      <c r="E133" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="B137" t="s">
+        <v>340</v>
+      </c>
+      <c r="C137" t="s">
+        <v>341</v>
+      </c>
+      <c r="D137" t="s">
+        <v>342</v>
+      </c>
+      <c r="E137" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="B138" t="s">
+        <v>344</v>
+      </c>
+      <c r="C138" t="s">
+        <v>345</v>
+      </c>
+      <c r="D138" t="s">
+        <v>255</v>
+      </c>
+      <c r="E138" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="B139" t="s">
+        <v>247</v>
+      </c>
+      <c r="C139" t="s">
+        <v>248</v>
+      </c>
+      <c r="D139" t="s">
+        <v>249</v>
+      </c>
+      <c r="E139" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="B140" t="s">
+        <v>346</v>
+      </c>
+      <c r="C140" t="s">
+        <v>347</v>
+      </c>
+      <c r="D140" t="s">
+        <v>348</v>
+      </c>
+      <c r="E140" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="B144" t="s">
+        <v>247</v>
+      </c>
+      <c r="C144" t="s">
+        <v>248</v>
+      </c>
+      <c r="D144" t="s">
+        <v>249</v>
+      </c>
+      <c r="E144" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="B148" t="s">
+        <v>351</v>
+      </c>
+      <c r="C148" t="s">
+        <v>352</v>
+      </c>
+      <c r="D148" t="s">
+        <v>353</v>
+      </c>
+      <c r="E148" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="B149" t="s">
+        <v>354</v>
+      </c>
+      <c r="C149" t="s">
+        <v>355</v>
+      </c>
+      <c r="D149" t="s">
+        <v>356</v>
+      </c>
+      <c r="E149" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="B150" t="s">
+        <v>357</v>
+      </c>
+      <c r="C150" t="s">
+        <v>358</v>
+      </c>
+      <c r="D150" t="s">
+        <v>359</v>
+      </c>
+      <c r="E150" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="B151" t="s">
+        <v>360</v>
+      </c>
+      <c r="C151" t="s">
+        <v>361</v>
+      </c>
+      <c r="D151" t="s">
+        <v>362</v>
+      </c>
+      <c r="E151" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="B152" t="s">
+        <v>363</v>
+      </c>
+      <c r="C152" t="s">
+        <v>364</v>
+      </c>
+      <c r="D152" t="s">
+        <v>365</v>
+      </c>
+      <c r="E152" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="B153" t="s">
+        <v>367</v>
+      </c>
+      <c r="C153" t="s">
+        <v>368</v>
+      </c>
+      <c r="D153" t="s">
+        <v>369</v>
+      </c>
+      <c r="E153" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="B154" t="s">
+        <v>370</v>
+      </c>
+      <c r="C154" t="s">
+        <v>371</v>
+      </c>
+      <c r="D154" t="s">
+        <v>372</v>
+      </c>
+      <c r="E154" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="B155" t="s">
+        <v>335</v>
+      </c>
+      <c r="C155" t="s">
+        <v>336</v>
+      </c>
+      <c r="D155" t="s">
+        <v>337</v>
+      </c>
+      <c r="E155" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="B156" t="s">
+        <v>373</v>
+      </c>
+      <c r="C156" t="s">
+        <v>374</v>
+      </c>
+      <c r="D156" t="s">
+        <v>239</v>
+      </c>
+      <c r="E156" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="B160" t="s">
+        <v>351</v>
+      </c>
+      <c r="C160" t="s">
+        <v>352</v>
+      </c>
+      <c r="D160" t="s">
+        <v>353</v>
+      </c>
+      <c r="E160" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="B161" t="s">
+        <v>354</v>
+      </c>
+      <c r="C161" t="s">
+        <v>355</v>
+      </c>
+      <c r="D161" t="s">
+        <v>356</v>
+      </c>
+      <c r="E161" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="B162" t="s">
+        <v>202</v>
+      </c>
+      <c r="C162" t="s">
+        <v>203</v>
+      </c>
+      <c r="D162" t="s">
+        <v>183</v>
+      </c>
+      <c r="E162" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="B163" t="s">
+        <v>357</v>
+      </c>
+      <c r="C163" t="s">
+        <v>358</v>
+      </c>
+      <c r="D163" t="s">
+        <v>359</v>
+      </c>
+      <c r="E163" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="B164" t="s">
+        <v>360</v>
+      </c>
+      <c r="C164" t="s">
+        <v>361</v>
+      </c>
+      <c r="D164" t="s">
+        <v>362</v>
+      </c>
+      <c r="E164" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="B165" t="s">
+        <v>363</v>
+      </c>
+      <c r="C165" t="s">
+        <v>364</v>
+      </c>
+      <c r="D165" t="s">
+        <v>365</v>
+      </c>
+      <c r="E165" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="B166" t="s">
+        <v>326</v>
+      </c>
+      <c r="C166" t="s">
+        <v>327</v>
+      </c>
+      <c r="D166" t="s">
+        <v>328</v>
+      </c>
+      <c r="E166" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="B167" t="s">
+        <v>329</v>
+      </c>
+      <c r="C167" t="s">
+        <v>330</v>
+      </c>
+      <c r="D167" t="s">
+        <v>331</v>
+      </c>
+      <c r="E167" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="B168" t="s">
+        <v>370</v>
+      </c>
+      <c r="C168" t="s">
+        <v>371</v>
+      </c>
+      <c r="D168" t="s">
+        <v>372</v>
+      </c>
+      <c r="E168" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="B169" t="s">
+        <v>332</v>
+      </c>
+      <c r="C169" t="s">
+        <v>333</v>
+      </c>
+      <c r="D169" t="s">
+        <v>334</v>
+      </c>
+      <c r="E169" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="B170" t="s">
+        <v>346</v>
+      </c>
+      <c r="C170" t="s">
+        <v>347</v>
+      </c>
+      <c r="D170" t="s">
+        <v>348</v>
+      </c>
+      <c r="E170" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="B171" t="s">
+        <v>335</v>
+      </c>
+      <c r="C171" t="s">
+        <v>336</v>
+      </c>
+      <c r="D171" t="s">
+        <v>337</v>
+      </c>
+      <c r="E171" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="B172" t="s">
+        <v>373</v>
+      </c>
+      <c r="C172" t="s">
+        <v>374</v>
+      </c>
+      <c r="D172" t="s">
+        <v>239</v>
+      </c>
+      <c r="E172" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="B176" t="s">
+        <v>377</v>
+      </c>
+      <c r="C176" t="s">
+        <v>378</v>
+      </c>
+      <c r="D176" t="s">
+        <v>379</v>
+      </c>
+      <c r="E176" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="B177" t="s">
+        <v>380</v>
+      </c>
+      <c r="C177" t="s">
+        <v>381</v>
+      </c>
+      <c r="D177" t="s">
+        <v>382</v>
+      </c>
+      <c r="E177" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="B178" t="s">
+        <v>383</v>
+      </c>
+      <c r="C178" t="s">
+        <v>384</v>
+      </c>
+      <c r="D178" t="s">
+        <v>385</v>
+      </c>
+      <c r="E178" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="B179" t="s">
+        <v>387</v>
+      </c>
+      <c r="C179" t="s">
+        <v>388</v>
+      </c>
+      <c r="D179" t="s">
+        <v>389</v>
+      </c>
+      <c r="E179" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="B180" t="s">
+        <v>390</v>
+      </c>
+      <c r="C180" t="s">
+        <v>391</v>
+      </c>
+      <c r="D180" t="s">
+        <v>392</v>
+      </c>
+      <c r="E180" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="B181" t="s">
+        <v>393</v>
+      </c>
+      <c r="C181" t="s">
+        <v>394</v>
+      </c>
+      <c r="D181" t="s">
+        <v>395</v>
+      </c>
+      <c r="E181" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="B182" t="s">
+        <v>396</v>
+      </c>
+      <c r="C182" t="s">
+        <v>397</v>
+      </c>
+      <c r="D182" t="s">
+        <v>398</v>
+      </c>
+      <c r="E182" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="B183" t="s">
+        <v>399</v>
+      </c>
+      <c r="C183" t="s">
+        <v>400</v>
+      </c>
+      <c r="D183" t="s">
+        <v>401</v>
+      </c>
+      <c r="E183" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="B184" t="s">
+        <v>402</v>
+      </c>
+      <c r="C184" t="s">
+        <v>403</v>
+      </c>
+      <c r="D184" t="s">
+        <v>404</v>
+      </c>
+      <c r="E184" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="B185" t="s">
+        <v>406</v>
+      </c>
+      <c r="C185" t="s">
+        <v>407</v>
+      </c>
+      <c r="D185" t="s">
+        <v>408</v>
+      </c>
+      <c r="E185" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="B186" t="s">
+        <v>409</v>
+      </c>
+      <c r="C186" t="s">
+        <v>410</v>
+      </c>
+      <c r="D186" t="s">
+        <v>411</v>
+      </c>
+      <c r="E186" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="B187" t="s">
+        <v>413</v>
+      </c>
+      <c r="C187" t="s">
+        <v>414</v>
+      </c>
+      <c r="D187" t="s">
+        <v>415</v>
+      </c>
+      <c r="E187" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="B188" t="s">
+        <v>417</v>
+      </c>
+      <c r="C188" t="s">
+        <v>418</v>
+      </c>
+      <c r="D188" t="s">
+        <v>419</v>
+      </c>
+      <c r="E188" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="B192" t="s">
+        <v>377</v>
+      </c>
+      <c r="C192" t="s">
+        <v>378</v>
+      </c>
+      <c r="D192" t="s">
+        <v>379</v>
+      </c>
+      <c r="E192" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="193" spans="2:5">
+      <c r="B193" t="s">
+        <v>421</v>
+      </c>
+      <c r="C193" t="s">
+        <v>422</v>
+      </c>
+      <c r="D193" t="s">
+        <v>423</v>
+      </c>
+      <c r="E193" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="194" spans="2:5">
+      <c r="B194" t="s">
+        <v>380</v>
+      </c>
+      <c r="C194" t="s">
+        <v>381</v>
+      </c>
+      <c r="D194" t="s">
+        <v>382</v>
+      </c>
+      <c r="E194" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="195" spans="2:5">
+      <c r="B195" t="s">
+        <v>383</v>
+      </c>
+      <c r="C195" t="s">
+        <v>384</v>
+      </c>
+      <c r="D195" t="s">
+        <v>385</v>
+      </c>
+      <c r="E195" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="196" spans="2:5">
+      <c r="B196" t="s">
+        <v>425</v>
+      </c>
+      <c r="C196" t="s">
+        <v>426</v>
+      </c>
+      <c r="D196" t="s">
+        <v>427</v>
+      </c>
+      <c r="E196" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="197" spans="2:5">
+      <c r="B197" t="s">
+        <v>428</v>
+      </c>
+      <c r="C197" t="s">
+        <v>429</v>
+      </c>
+      <c r="D197" t="s">
+        <v>430</v>
+      </c>
+      <c r="E197" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="198" spans="2:5">
+      <c r="B198" t="s">
+        <v>55</v>
+      </c>
+      <c r="C198" t="s">
+        <v>56</v>
+      </c>
+      <c r="D198" t="s">
+        <v>57</v>
+      </c>
+      <c r="E198" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="199" spans="2:5">
+      <c r="B199" t="s">
+        <v>387</v>
+      </c>
+      <c r="C199" t="s">
+        <v>388</v>
+      </c>
+      <c r="D199" t="s">
+        <v>389</v>
+      </c>
+      <c r="E199" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="200" spans="2:5">
+      <c r="B200" t="s">
+        <v>390</v>
+      </c>
+      <c r="C200" t="s">
+        <v>391</v>
+      </c>
+      <c r="D200" t="s">
+        <v>392</v>
+      </c>
+      <c r="E200" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="201" spans="2:5">
+      <c r="B201" t="s">
+        <v>363</v>
+      </c>
+      <c r="C201" t="s">
+        <v>364</v>
+      </c>
+      <c r="D201" t="s">
+        <v>365</v>
+      </c>
+      <c r="E201" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="202" spans="2:5">
+      <c r="B202" t="s">
+        <v>431</v>
+      </c>
+      <c r="C202" t="s">
+        <v>432</v>
+      </c>
+      <c r="D202" t="s">
+        <v>433</v>
+      </c>
+      <c r="E202" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="203" spans="2:5">
+      <c r="B203" t="s">
+        <v>393</v>
+      </c>
+      <c r="C203" t="s">
+        <v>394</v>
+      </c>
+      <c r="D203" t="s">
+        <v>395</v>
+      </c>
+      <c r="E203" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="204" spans="2:5">
+      <c r="B204" t="s">
+        <v>396</v>
+      </c>
+      <c r="C204" t="s">
+        <v>397</v>
+      </c>
+      <c r="D204" t="s">
+        <v>398</v>
+      </c>
+      <c r="E204" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="205" spans="2:5">
+      <c r="B205" t="s">
+        <v>399</v>
+      </c>
+      <c r="C205" t="s">
+        <v>400</v>
+      </c>
+      <c r="D205" t="s">
+        <v>401</v>
+      </c>
+      <c r="E205" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="206" spans="2:5">
+      <c r="B206" t="s">
+        <v>402</v>
+      </c>
+      <c r="C206" t="s">
+        <v>403</v>
+      </c>
+      <c r="D206" t="s">
+        <v>404</v>
+      </c>
+      <c r="E206" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="207" spans="2:5">
+      <c r="B207" t="s">
+        <v>406</v>
+      </c>
+      <c r="C207" t="s">
+        <v>407</v>
+      </c>
+      <c r="D207" t="s">
+        <v>408</v>
+      </c>
+      <c r="E207" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="208" spans="2:5">
+      <c r="B208" t="s">
+        <v>434</v>
+      </c>
+      <c r="C208" t="s">
+        <v>435</v>
+      </c>
+      <c r="D208" t="s">
+        <v>436</v>
+      </c>
+      <c r="E208" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="B209" t="s">
+        <v>409</v>
+      </c>
+      <c r="C209" t="s">
+        <v>410</v>
+      </c>
+      <c r="D209" t="s">
+        <v>411</v>
+      </c>
+      <c r="E209" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="B210" t="s">
+        <v>438</v>
+      </c>
+      <c r="C210" t="s">
+        <v>439</v>
+      </c>
+      <c r="D210" t="s">
+        <v>440</v>
+      </c>
+      <c r="E210" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="B211" t="s">
+        <v>442</v>
+      </c>
+      <c r="C211" t="s">
+        <v>443</v>
+      </c>
+      <c r="D211" t="s">
+        <v>440</v>
+      </c>
+      <c r="E211" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="B212" t="s">
+        <v>444</v>
+      </c>
+      <c r="C212" t="s">
+        <v>445</v>
+      </c>
+      <c r="D212" t="s">
+        <v>446</v>
+      </c>
+      <c r="E212" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="B213" t="s">
+        <v>447</v>
+      </c>
+      <c r="C213" t="s">
+        <v>448</v>
+      </c>
+      <c r="D213" t="s">
+        <v>449</v>
+      </c>
+      <c r="E213" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="B214" t="s">
+        <v>413</v>
+      </c>
+      <c r="C214" t="s">
+        <v>414</v>
+      </c>
+      <c r="D214" t="s">
+        <v>415</v>
+      </c>
+      <c r="E214" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="B215" t="s">
+        <v>417</v>
+      </c>
+      <c r="C215" t="s">
+        <v>418</v>
+      </c>
+      <c r="D215" t="s">
+        <v>419</v>
+      </c>
+      <c r="E215" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="B219" t="s">
+        <v>451</v>
+      </c>
+      <c r="C219" t="s">
+        <v>452</v>
+      </c>
+      <c r="D219" t="s">
+        <v>453</v>
+      </c>
+      <c r="E219" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="B220" t="s">
+        <v>454</v>
+      </c>
+      <c r="C220" t="s">
+        <v>455</v>
+      </c>
+      <c r="D220" t="s">
+        <v>456</v>
+      </c>
+      <c r="E220" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="B221" t="s">
+        <v>458</v>
+      </c>
+      <c r="C221" t="s">
+        <v>459</v>
+      </c>
+      <c r="D221" t="s">
+        <v>460</v>
+      </c>
+      <c r="E221" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="B222" t="s">
+        <v>462</v>
+      </c>
+      <c r="C222" t="s">
+        <v>463</v>
+      </c>
+      <c r="D222" t="s">
+        <v>464</v>
+      </c>
+      <c r="E222" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="B223" t="s">
+        <v>465</v>
+      </c>
+      <c r="C223" t="s">
+        <v>466</v>
+      </c>
+      <c r="D223" t="s">
+        <v>467</v>
+      </c>
+      <c r="E223" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="B224" t="s">
+        <v>468</v>
+      </c>
+      <c r="C224" t="s">
+        <v>469</v>
+      </c>
+      <c r="D224" t="s">
+        <v>470</v>
+      </c>
+      <c r="E224" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="B225" t="s">
+        <v>472</v>
+      </c>
+      <c r="C225" t="s">
+        <v>473</v>
+      </c>
+      <c r="D225" t="s">
+        <v>453</v>
+      </c>
+      <c r="E225" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="B226" t="s">
+        <v>474</v>
+      </c>
+      <c r="C226" t="s">
+        <v>475</v>
+      </c>
+      <c r="D226" t="s">
+        <v>476</v>
+      </c>
+      <c r="E226" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="B227" t="s">
+        <v>477</v>
+      </c>
+      <c r="C227" t="s">
+        <v>478</v>
+      </c>
+      <c r="D227" t="s">
+        <v>479</v>
+      </c>
+      <c r="E227" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="B228" t="s">
+        <v>480</v>
+      </c>
+      <c r="C228" t="s">
+        <v>481</v>
+      </c>
+      <c r="D228" t="s">
+        <v>482</v>
+      </c>
+      <c r="E228" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="B229" t="s">
+        <v>483</v>
+      </c>
+      <c r="C229" t="s">
+        <v>484</v>
+      </c>
+      <c r="D229" t="s">
+        <v>485</v>
+      </c>
+      <c r="E229" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="B230" t="s">
+        <v>486</v>
+      </c>
+      <c r="C230" t="s">
+        <v>487</v>
+      </c>
+      <c r="D230" t="s">
+        <v>488</v>
+      </c>
+      <c r="E230" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="B231" t="s">
+        <v>489</v>
+      </c>
+      <c r="C231" t="s">
+        <v>490</v>
+      </c>
+      <c r="D231" t="s">
+        <v>491</v>
+      </c>
+      <c r="E231" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="B232" t="s">
+        <v>321</v>
+      </c>
+      <c r="C232" t="s">
+        <v>322</v>
+      </c>
+      <c r="D232" t="s">
+        <v>323</v>
+      </c>
+      <c r="E232" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="B236" t="s">
+        <v>188</v>
+      </c>
+      <c r="C236" t="s">
+        <v>189</v>
+      </c>
+      <c r="D236" t="s">
+        <v>190</v>
+      </c>
+      <c r="E236" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="B237" t="s">
+        <v>493</v>
+      </c>
+      <c r="C237" t="s">
+        <v>494</v>
+      </c>
+      <c r="D237" t="s">
+        <v>495</v>
+      </c>
+      <c r="E237" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="241" spans="2:5">
+      <c r="B241" t="s">
+        <v>497</v>
+      </c>
+      <c r="C241" t="s">
+        <v>498</v>
+      </c>
+      <c r="D241" t="s">
+        <v>499</v>
+      </c>
+      <c r="E241" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="242" spans="2:5">
+      <c r="B242" t="s">
+        <v>497</v>
+      </c>
+      <c r="C242" t="s">
+        <v>498</v>
+      </c>
+      <c r="D242" t="s">
+        <v>499</v>
+      </c>
+      <c r="E242" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="243" spans="2:5">
+      <c r="B243" t="s">
+        <v>454</v>
+      </c>
+      <c r="C243" t="s">
+        <v>455</v>
+      </c>
+      <c r="D243" t="s">
+        <v>456</v>
+      </c>
+      <c r="E243" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="244" spans="2:5">
+      <c r="B244" t="s">
+        <v>454</v>
+      </c>
+      <c r="C244" t="s">
+        <v>455</v>
+      </c>
+      <c r="D244" t="s">
+        <v>456</v>
+      </c>
+      <c r="E244" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="245" spans="2:5">
+      <c r="B245" t="s">
+        <v>454</v>
+      </c>
+      <c r="C245" t="s">
+        <v>455</v>
+      </c>
+      <c r="D245" t="s">
+        <v>456</v>
+      </c>
+      <c r="E245" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="246" spans="2:5">
+      <c r="B246" t="s">
+        <v>501</v>
+      </c>
+      <c r="C246" t="s">
+        <v>502</v>
+      </c>
+      <c r="D246" t="s">
+        <v>503</v>
+      </c>
+      <c r="E246" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="247" spans="2:5">
+      <c r="B247" t="s">
+        <v>501</v>
+      </c>
+      <c r="C247" t="s">
+        <v>502</v>
+      </c>
+      <c r="D247" t="s">
+        <v>503</v>
+      </c>
+      <c r="E247" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="248" spans="2:5">
+      <c r="B248" t="s">
+        <v>501</v>
+      </c>
+      <c r="C248" t="s">
+        <v>502</v>
+      </c>
+      <c r="D248" t="s">
+        <v>503</v>
+      </c>
+      <c r="E248" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="249" spans="2:5">
+      <c r="B249" t="s">
+        <v>501</v>
+      </c>
+      <c r="C249" t="s">
+        <v>502</v>
+      </c>
+      <c r="D249" t="s">
+        <v>503</v>
+      </c>
+      <c r="E249" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="250" spans="2:5">
+      <c r="B250" t="s">
+        <v>504</v>
+      </c>
+      <c r="C250" t="s">
+        <v>505</v>
+      </c>
+      <c r="D250" t="s">
+        <v>506</v>
+      </c>
+      <c r="E250" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="251" spans="2:5">
+      <c r="B251" t="s">
+        <v>504</v>
+      </c>
+      <c r="C251" t="s">
+        <v>505</v>
+      </c>
+      <c r="D251" t="s">
+        <v>506</v>
+      </c>
+      <c r="E251" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="252" spans="2:5">
+      <c r="B252" t="s">
+        <v>465</v>
+      </c>
+      <c r="C252" t="s">
+        <v>466</v>
+      </c>
+      <c r="D252" t="s">
+        <v>467</v>
+      </c>
+      <c r="E252" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="253" spans="2:5">
+      <c r="B253" t="s">
+        <v>465</v>
+      </c>
+      <c r="C253" t="s">
+        <v>466</v>
+      </c>
+      <c r="D253" t="s">
+        <v>467</v>
+      </c>
+      <c r="E253" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="254" spans="2:5">
+      <c r="B254" t="s">
+        <v>202</v>
+      </c>
+      <c r="C254" t="s">
+        <v>203</v>
+      </c>
+      <c r="D254" t="s">
+        <v>183</v>
+      </c>
+      <c r="E254" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="255" spans="2:5">
+      <c r="B255" t="s">
+        <v>202</v>
+      </c>
+      <c r="C255" t="s">
+        <v>203</v>
+      </c>
+      <c r="D255" t="s">
+        <v>183</v>
+      </c>
+      <c r="E255" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="256" spans="2:5">
+      <c r="B256" t="s">
+        <v>507</v>
+      </c>
+      <c r="C256" t="s">
+        <v>508</v>
+      </c>
+      <c r="D256" t="s">
+        <v>509</v>
+      </c>
+      <c r="E256" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="257" spans="2:5">
+      <c r="B257" t="s">
+        <v>507</v>
+      </c>
+      <c r="C257" t="s">
+        <v>508</v>
+      </c>
+      <c r="D257" t="s">
+        <v>509</v>
+      </c>
+      <c r="E257" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="258" spans="2:5">
+      <c r="B258" t="s">
+        <v>247</v>
+      </c>
+      <c r="C258" t="s">
+        <v>248</v>
+      </c>
+      <c r="D258" t="s">
+        <v>249</v>
+      </c>
+      <c r="E258" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="259" spans="2:5">
+      <c r="B259" t="s">
+        <v>247</v>
+      </c>
+      <c r="C259" t="s">
+        <v>248</v>
+      </c>
+      <c r="D259" t="s">
+        <v>249</v>
+      </c>
+      <c r="E259" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="260" spans="2:5">
+      <c r="B260" t="s">
+        <v>510</v>
+      </c>
+      <c r="C260" t="s">
+        <v>511</v>
+      </c>
+      <c r="D260" t="s">
+        <v>512</v>
+      </c>
+      <c r="E260" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="261" spans="2:5">
+      <c r="B261" t="s">
+        <v>510</v>
+      </c>
+      <c r="C261" t="s">
+        <v>511</v>
+      </c>
+      <c r="D261" t="s">
+        <v>512</v>
+      </c>
+      <c r="E261" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="262" spans="2:5">
+      <c r="B262" t="s">
+        <v>267</v>
+      </c>
+      <c r="C262" t="s">
+        <v>268</v>
+      </c>
+      <c r="D262" t="s">
+        <v>269</v>
+      </c>
+      <c r="E262" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="263" spans="2:5">
+      <c r="B263" t="s">
+        <v>267</v>
+      </c>
+      <c r="C263" t="s">
+        <v>268</v>
+      </c>
+      <c r="D263" t="s">
+        <v>269</v>
+      </c>
+      <c r="E263" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="264" spans="2:5">
+      <c r="B264" t="s">
+        <v>477</v>
+      </c>
+      <c r="C264" t="s">
+        <v>478</v>
+      </c>
+      <c r="D264" t="s">
+        <v>479</v>
+      </c>
+      <c r="E264" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="265" spans="2:5">
+      <c r="B265" t="s">
+        <v>477</v>
+      </c>
+      <c r="C265" t="s">
+        <v>478</v>
+      </c>
+      <c r="D265" t="s">
+        <v>479</v>
+      </c>
+      <c r="E265" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="266" spans="2:5">
+      <c r="B266" t="s">
+        <v>346</v>
+      </c>
+      <c r="C266" t="s">
+        <v>347</v>
+      </c>
+      <c r="D266" t="s">
+        <v>348</v>
+      </c>
+      <c r="E266" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="267" spans="2:5">
+      <c r="B267" t="s">
+        <v>346</v>
+      </c>
+      <c r="C267" t="s">
+        <v>347</v>
+      </c>
+      <c r="D267" t="s">
+        <v>348</v>
+      </c>
+      <c r="E267" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="268" spans="2:5">
+      <c r="B268" t="s">
+        <v>513</v>
+      </c>
+      <c r="C268" t="s">
+        <v>514</v>
+      </c>
+      <c r="D268" t="s">
+        <v>515</v>
+      </c>
+      <c r="E268" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="269" spans="2:5">
+      <c r="B269" t="s">
+        <v>513</v>
+      </c>
+      <c r="C269" t="s">
+        <v>514</v>
+      </c>
+      <c r="D269" t="s">
+        <v>515</v>
+      </c>
+      <c r="E269" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="270" spans="2:5">
+      <c r="B270" t="s">
+        <v>517</v>
+      </c>
+      <c r="C270" t="s">
+        <v>518</v>
+      </c>
+      <c r="D270" t="s">
+        <v>519</v>
+      </c>
+      <c r="E270" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="271" spans="2:5">
+      <c r="B271" t="s">
+        <v>517</v>
+      </c>
+      <c r="C271" t="s">
+        <v>518</v>
+      </c>
+      <c r="D271" t="s">
+        <v>519</v>
+      </c>
+      <c r="E271" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="272" spans="2:5">
+      <c r="B272" t="s">
+        <v>520</v>
+      </c>
+      <c r="C272" t="s">
+        <v>521</v>
+      </c>
+      <c r="D272" t="s">
+        <v>522</v>
+      </c>
+      <c r="E272" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="B273" t="s">
+        <v>520</v>
+      </c>
+      <c r="C273" t="s">
+        <v>521</v>
+      </c>
+      <c r="D273" t="s">
+        <v>522</v>
+      </c>
+      <c r="E273" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="B274" t="s">
+        <v>523</v>
+      </c>
+      <c r="C274" t="s">
+        <v>524</v>
+      </c>
+      <c r="D274" t="s">
+        <v>525</v>
+      </c>
+      <c r="E274" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="B275" t="s">
+        <v>523</v>
+      </c>
+      <c r="C275" t="s">
+        <v>524</v>
+      </c>
+      <c r="D275" t="s">
+        <v>525</v>
+      </c>
+      <c r="E275" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="B279" t="s">
+        <v>529</v>
+      </c>
+      <c r="C279" t="s">
+        <v>530</v>
+      </c>
+      <c r="D279" t="s">
+        <v>531</v>
+      </c>
+      <c r="E279" t="s">
+        <v>532</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/riassuntoAutomatico.xlsx
+++ b/riassuntoAutomatico.xlsx
@@ -4779,7 +4779,7 @@
         <v>503</v>
       </c>
       <c r="E246" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="247" spans="2:5">
@@ -4793,7 +4793,7 @@
         <v>503</v>
       </c>
       <c r="E247" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="248" spans="2:5">

--- a/riassuntoAutomatico.xlsx
+++ b/riassuntoAutomatico.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>Riassunto analisi</t>
   </si>
   <si>
-    <t>Trovati errori per 4 bambini</t>
+    <t>Trovati errori per 3 bambini</t>
   </si>
   <si>
     <t>Trovate 1 occorrenze per il controllo Controllo formato codice fiscale</t>
@@ -28,7 +28,7 @@
     <t>Trovate 1 occorrenze per il controllo Controllo età bambino</t>
   </si>
   <si>
-    <t>Trovate 3 occorrenze per il controllo Controllo ore complessive periodo contrattuale</t>
+    <t>Trovate 2 occorrenze per il controllo Controllo ore complessive periodo contrattuale</t>
   </si>
   <si>
     <t>Controllo formato codice fiscale</t>
@@ -59,15 +59,6 @@
   </si>
   <si>
     <t>Controllo ore complessive periodo contrattuale</t>
-  </si>
-  <si>
-    <t>GOSA ISABEL</t>
-  </si>
-  <si>
-    <t>GSOSBL18B41F257N</t>
-  </si>
-  <si>
-    <t>2018-02-01 00:00:00</t>
   </si>
   <si>
     <t>KHALLOUK LINA</t>
@@ -417,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -493,13 +484,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="B20" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
@@ -507,29 +498,15 @@
     </row>
     <row r="21" spans="1:5">
       <c r="B21" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="B22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" t="s">
         <v>9</v>
       </c>
     </row>

--- a/riassuntoAutomatico.xlsx
+++ b/riassuntoAutomatico.xlsx
@@ -14,60 +14,1605 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="533">
   <si>
     <t>Riassunto analisi</t>
   </si>
   <si>
-    <t>Trovati errori per 3 bambini</t>
-  </si>
-  <si>
-    <t>Trovate 1 occorrenze per il controllo Controllo formato codice fiscale</t>
-  </si>
-  <si>
-    <t>Trovate 1 occorrenze per il controllo Controllo età bambino</t>
+    <t>Trovati errori per 152 bambini</t>
+  </si>
+  <si>
+    <t>Trovate 55 occorrenze per il controllo Controllo Kindergarten #1</t>
+  </si>
+  <si>
+    <t>Trovate 44 occorrenze per il controllo Controllo Kindergarten #2</t>
+  </si>
+  <si>
+    <t>Trovate 7 occorrenze per il controllo Controllo finanziamento compensativo</t>
+  </si>
+  <si>
+    <t>Trovate 4 occorrenze per il controllo Controllo finanziamento compensativo #2</t>
+  </si>
+  <si>
+    <t>Trovate 1 occorrenze per il controllo Controllo Covid #1</t>
+  </si>
+  <si>
+    <t>Trovate 9 occorrenze per il controllo Controllo Covid #3</t>
+  </si>
+  <si>
+    <t>Trovate 13 occorrenze per il controllo Contratti lockdown sospetti (Covid #4)</t>
+  </si>
+  <si>
+    <t>Trovate 13 occorrenze per il controllo Controllo Fehler Eingewöhnung</t>
+  </si>
+  <si>
+    <t>Trovate 24 occorrenze per il controllo Controllo Fehler Eingewöhnung 543 Lockdown</t>
+  </si>
+  <si>
+    <t>Trovate 14 occorrenze per il controllo Controllo Fehler Eingewöhnung 543 Notbetreuung</t>
   </si>
   <si>
     <t>Trovate 2 occorrenze per il controllo Controllo ore complessive periodo contrattuale</t>
   </si>
   <si>
-    <t>Controllo formato codice fiscale</t>
-  </si>
-  <si>
-    <t>PANCHERI EVA</t>
-  </si>
-  <si>
-    <t>PCNCVEA18T43A952L</t>
-  </si>
-  <si>
-    <t>2018-12-03 00:00:00</t>
-  </si>
-  <si>
-    <t>BOLZANO</t>
-  </si>
-  <si>
-    <t>Controllo età bambino</t>
-  </si>
-  <si>
-    <t>HYDER GHULAM SYED</t>
-  </si>
-  <si>
-    <t>HYDSDG17T02A952G</t>
-  </si>
-  <si>
-    <t>2017-12-02 00:00:00</t>
+    <t>Trovate 35 occorrenze per il controllo Bambino presente in più comuni</t>
+  </si>
+  <si>
+    <t>Trovate 1 occorrenze per il controllo Bambini con annotazioni</t>
+  </si>
+  <si>
+    <t>Controllo Kindergarten #1</t>
+  </si>
+  <si>
+    <t>Abler Sophie</t>
+  </si>
+  <si>
+    <t>BLRSPH16T68F132B</t>
+  </si>
+  <si>
+    <t>2016-12-28 00:00:00</t>
+  </si>
+  <si>
+    <t>Partschins</t>
+  </si>
+  <si>
+    <t>Agostinetto  Levi</t>
+  </si>
+  <si>
+    <t>GSTLVE17B06A952V</t>
+  </si>
+  <si>
+    <t>2017-02-06 00:00:00</t>
+  </si>
+  <si>
+    <t>Meran</t>
+  </si>
+  <si>
+    <t>Blaas Jakob</t>
+  </si>
+  <si>
+    <t>BLSJKB16R29I729Q</t>
+  </si>
+  <si>
+    <t>2016-10-29 00:00:00</t>
+  </si>
+  <si>
+    <t>Naturns</t>
+  </si>
+  <si>
+    <t>Bozzano Pietro</t>
+  </si>
+  <si>
+    <t>BZZPTR17A26B160X</t>
+  </si>
+  <si>
+    <t>2017-01-26 00:00:00</t>
+  </si>
+  <si>
+    <t>Karneid</t>
+  </si>
+  <si>
+    <t>Burkhart Nele</t>
+  </si>
+  <si>
+    <t>BRKNLE17B41B220I</t>
+  </si>
+  <si>
+    <t>2017-02-01 00:00:00</t>
+  </si>
+  <si>
+    <t>Bruneck</t>
+  </si>
+  <si>
+    <t>Dejori Pia</t>
+  </si>
+  <si>
+    <t>DJRPIA17A67A952Q</t>
+  </si>
+  <si>
+    <t>2017-01-27 00:00:00</t>
+  </si>
+  <si>
+    <t>Welschnofen</t>
+  </si>
+  <si>
+    <t>Desaler Viktoria</t>
+  </si>
+  <si>
+    <t>DSLVTR17A51A952V</t>
+  </si>
+  <si>
+    <t>2017-01-11 00:00:00</t>
+  </si>
+  <si>
+    <t>Sarntal</t>
+  </si>
+  <si>
+    <t>Doliana Mia</t>
+  </si>
+  <si>
+    <t>DLNMIA16T71A952X</t>
+  </si>
+  <si>
+    <t>2016-12-31 00:00:00</t>
+  </si>
+  <si>
+    <t>Ennemoser  Ella</t>
+  </si>
+  <si>
+    <t>NNMLLE17A60A952M</t>
+  </si>
+  <si>
+    <t>2017-01-20 00:00:00</t>
+  </si>
+  <si>
+    <t>Prad a Stj</t>
+  </si>
+  <si>
+    <t>Fiechter Emil</t>
+  </si>
+  <si>
+    <t>FCHMLE17A12B160W</t>
+  </si>
+  <si>
+    <t>2017-01-12 00:00:00</t>
+  </si>
+  <si>
+    <t>Ratschings</t>
+  </si>
+  <si>
+    <t>Gamper Klaus</t>
+  </si>
+  <si>
+    <t>GMPKLS16T18F132L</t>
+  </si>
+  <si>
+    <t>2016-12-18 00:00:00</t>
+  </si>
+  <si>
+    <t>Ulten</t>
+  </si>
+  <si>
+    <t>Gasser Lara</t>
+  </si>
+  <si>
+    <t>GSSLRA17B48F132D</t>
+  </si>
+  <si>
+    <t>2017-02-08 00:00:00</t>
+  </si>
+  <si>
+    <t>Lana</t>
+  </si>
+  <si>
+    <t>Goegele Maria</t>
+  </si>
+  <si>
+    <t>GGLMRA16S62F132J</t>
+  </si>
+  <si>
+    <t>2016-11-22 00:00:00</t>
+  </si>
+  <si>
+    <t>Gruber  Emil</t>
+  </si>
+  <si>
+    <t>GRBMLE16T12F132N</t>
+  </si>
+  <si>
+    <t>2016-12-12 00:00:00</t>
+  </si>
+  <si>
+    <t>Moelten</t>
+  </si>
+  <si>
+    <t>Gruber  Karolina</t>
+  </si>
+  <si>
+    <t>GRBKLN17A70F132K</t>
+  </si>
+  <si>
+    <t>2017-01-30 00:00:00</t>
+  </si>
+  <si>
+    <t>Riffian</t>
+  </si>
+  <si>
+    <t>Haller Toni</t>
+  </si>
+  <si>
+    <t>HLLTNO16T14B220U</t>
+  </si>
+  <si>
+    <t>2016-12-14 00:00:00</t>
+  </si>
+  <si>
+    <t>Gsies</t>
+  </si>
+  <si>
+    <t>Huber  David</t>
+  </si>
+  <si>
+    <t>HBRDVD16S18B220L</t>
+  </si>
+  <si>
+    <t>2016-11-18 00:00:00</t>
+  </si>
+  <si>
+    <t>St. Lorenzen</t>
+  </si>
+  <si>
+    <t>Kircher  Lena</t>
+  </si>
+  <si>
+    <t>KRCLNE17B53B160I</t>
+  </si>
+  <si>
+    <t>2017-02-13 00:00:00</t>
+  </si>
+  <si>
+    <t>Kohler Mali</t>
+  </si>
+  <si>
+    <t>KHLMLA17A71A952X</t>
+  </si>
+  <si>
+    <t>2017-01-31 00:00:00</t>
+  </si>
+  <si>
+    <t>Ladurner Moritz</t>
+  </si>
+  <si>
+    <t>LDRMTZ17B09F132D</t>
+  </si>
+  <si>
+    <t>2017-02-09 00:00:00</t>
+  </si>
+  <si>
+    <t>Marling</t>
+  </si>
+  <si>
+    <t>Lüling Gabriel</t>
+  </si>
+  <si>
+    <t>LLNGRL17B23B160G</t>
+  </si>
+  <si>
+    <t>2017-02-23 00:00:00</t>
+  </si>
+  <si>
+    <t>Brixen</t>
+  </si>
+  <si>
+    <t>Matzoll Simon</t>
+  </si>
+  <si>
+    <t>MTZSMN16T01F132M</t>
+  </si>
+  <si>
+    <t>2016-12-01 00:00:00</t>
+  </si>
+  <si>
+    <t>St. Pankraz Ulten</t>
+  </si>
+  <si>
+    <t>Mentzel Katharina</t>
+  </si>
+  <si>
+    <t>MNTKHR17A55A952Q</t>
+  </si>
+  <si>
+    <t>2017-01-15 00:00:00</t>
+  </si>
+  <si>
+    <t>Tiers</t>
+  </si>
+  <si>
+    <t>Moosbrugger Theresa</t>
+  </si>
+  <si>
+    <t>MSBTRS17B42Z102X</t>
+  </si>
+  <si>
+    <t>2017-02-02 00:00:00</t>
+  </si>
+  <si>
+    <t>Mor  Nadyn</t>
+  </si>
+  <si>
+    <t>MRONYN16P65B160C</t>
+  </si>
+  <si>
+    <t>2016-09-25 00:00:00</t>
+  </si>
+  <si>
+    <t>Vintl</t>
+  </si>
+  <si>
+    <t>Niederkofler Josef</t>
+  </si>
+  <si>
+    <t>NDRJSF17A20B220Z</t>
+  </si>
+  <si>
+    <t>Sand in Taufers</t>
+  </si>
+  <si>
+    <t>Niederstaetter Leni</t>
+  </si>
+  <si>
+    <t>NDRLNE16T59A952N</t>
+  </si>
+  <si>
+    <t>2016-12-19 00:00:00</t>
+  </si>
+  <si>
+    <t>Tscherms</t>
+  </si>
+  <si>
+    <t>Niederstaetter Toni</t>
+  </si>
+  <si>
+    <t>NDRTNO16T19A952B</t>
+  </si>
+  <si>
+    <t>Obgriesser Niklas</t>
+  </si>
+  <si>
+    <t>BGRNLS17B26B220E</t>
+  </si>
+  <si>
+    <t>2017-02-26 00:00:00</t>
+  </si>
+  <si>
+    <t>Perillo Zwink Noah Leon</t>
+  </si>
+  <si>
+    <t>PRLNLN17A15F132L</t>
+  </si>
+  <si>
+    <t>Pfattner  Jonas</t>
+  </si>
+  <si>
+    <t>PFTJNS16S25A952D</t>
+  </si>
+  <si>
+    <t>2016-11-25 00:00:00</t>
+  </si>
+  <si>
+    <t>Pföstl  Philipp</t>
+  </si>
+  <si>
+    <t>PFSPLP17B08F132P</t>
+  </si>
+  <si>
+    <t>Schenna</t>
+  </si>
+  <si>
+    <t>Pircher Paul</t>
+  </si>
+  <si>
+    <t>PRCPLA16S29F132U</t>
+  </si>
+  <si>
+    <t>2016-11-29 00:00:00</t>
+  </si>
+  <si>
+    <t>Ploner  Simon</t>
+  </si>
+  <si>
+    <t>PLNSMN17A18B220Q</t>
+  </si>
+  <si>
+    <t>2017-01-18 00:00:00</t>
+  </si>
+  <si>
+    <t>Rieder  Isabel</t>
+  </si>
+  <si>
+    <t>RDRSBL16M50A952F</t>
+  </si>
+  <si>
+    <t>2016-08-10 00:00:00</t>
+  </si>
+  <si>
+    <t>Rieder Fabian</t>
+  </si>
+  <si>
+    <t>RDRFBN17A08B160U</t>
+  </si>
+  <si>
+    <t>2017-01-08 00:00:00</t>
+  </si>
+  <si>
+    <t>Scheibenhoffer Alexander</t>
+  </si>
+  <si>
+    <t>SCHLND17B12F132N</t>
+  </si>
+  <si>
+    <t>2017-02-12 00:00:00</t>
+  </si>
+  <si>
+    <t>Seiwald  Silas</t>
+  </si>
+  <si>
+    <t>SWLSLS16S08B220U</t>
+  </si>
+  <si>
+    <t>2016-11-08 00:00:00</t>
+  </si>
+  <si>
+    <t>Sevcikova  Nadia</t>
+  </si>
+  <si>
+    <t>SVCNDA17A70B220F</t>
+  </si>
+  <si>
+    <t>Pfalzen</t>
+  </si>
+  <si>
+    <t>Stampfl Johanna</t>
+  </si>
+  <si>
+    <t>STMJNN17A47A952V</t>
+  </si>
+  <si>
+    <t>2017-01-07 00:00:00</t>
+  </si>
+  <si>
+    <t>Bozen</t>
+  </si>
+  <si>
+    <t>Stragenegg Krieg Paul</t>
+  </si>
+  <si>
+    <t>STRPLA17B14F132K</t>
+  </si>
+  <si>
+    <t>2017-02-14 00:00:00</t>
+  </si>
+  <si>
+    <t>Trafojer Jakob</t>
+  </si>
+  <si>
+    <t>TRFJKB16S22F132Q</t>
+  </si>
+  <si>
+    <t>Vassanelli Noah</t>
+  </si>
+  <si>
+    <t>VSSNHO16R13F132P</t>
+  </si>
+  <si>
+    <t>2016-10-13 00:00:00</t>
+  </si>
+  <si>
+    <t>Viaro Camilla</t>
+  </si>
+  <si>
+    <t>VRICLL16R64L378G</t>
+  </si>
+  <si>
+    <t>2016-10-24 00:00:00</t>
+  </si>
+  <si>
+    <t>Villgrattner Jonas</t>
+  </si>
+  <si>
+    <t>VLLJNS17A09B160F</t>
+  </si>
+  <si>
+    <t>2017-01-09 00:00:00</t>
+  </si>
+  <si>
+    <t>Völs am Schlern</t>
+  </si>
+  <si>
+    <t>Volante Vittorio</t>
+  </si>
+  <si>
+    <t>VLNVTR17B01A952B</t>
+  </si>
+  <si>
+    <t>Pfatten</t>
+  </si>
+  <si>
+    <t>Walter Moritz</t>
+  </si>
+  <si>
+    <t>WLTMTZ16M02M067H</t>
+  </si>
+  <si>
+    <t>2016-08-02 00:00:00</t>
+  </si>
+  <si>
+    <t>Weger Toni</t>
+  </si>
+  <si>
+    <t>WGRTNO17B05B160N</t>
+  </si>
+  <si>
+    <t>2017-02-05 00:00:00</t>
+  </si>
+  <si>
+    <t>Controllo Kindergarten #2</t>
+  </si>
+  <si>
+    <t>Ausserhofer Matthias</t>
+  </si>
+  <si>
+    <t>SSRMTH17S09B220Q</t>
+  </si>
+  <si>
+    <t>2017-11-09 00:00:00</t>
+  </si>
+  <si>
+    <t>Barbi Serena</t>
+  </si>
+  <si>
+    <t>BRBSRN17R65A952R</t>
+  </si>
+  <si>
+    <t>2017-10-25 00:00:00</t>
+  </si>
+  <si>
+    <t>Leifers</t>
+  </si>
+  <si>
+    <t>Bekoe Lucia</t>
+  </si>
+  <si>
+    <t>BKELCU17R50A952D</t>
+  </si>
+  <si>
+    <t>2017-10-10 00:00:00</t>
+  </si>
+  <si>
+    <t>Klausen</t>
+  </si>
+  <si>
+    <t>Coser Arthur</t>
+  </si>
+  <si>
+    <t>CSRRHR17L18F132W</t>
+  </si>
+  <si>
+    <t>2017-07-18 00:00:00</t>
+  </si>
+  <si>
+    <t>Costa Yasmina</t>
+  </si>
+  <si>
+    <t>CSTYMN17E60F132Y</t>
+  </si>
+  <si>
+    <t>2017-05-20 00:00:00</t>
+  </si>
+  <si>
+    <t>Doda Denis</t>
+  </si>
+  <si>
+    <t>DDODNS17L05I729E</t>
+  </si>
+  <si>
+    <t>2017-07-05 00:00:00</t>
+  </si>
+  <si>
+    <t>Schlanders</t>
+  </si>
+  <si>
+    <t>Ellecosta Emely</t>
+  </si>
+  <si>
+    <t>LLCMLY17S49B220J</t>
+  </si>
+  <si>
+    <t>Eschgfaeller Marie</t>
+  </si>
+  <si>
+    <t>SCHMRA17T62A952K</t>
+  </si>
+  <si>
+    <t>2017-12-22 00:00:00</t>
+  </si>
+  <si>
+    <t>Hafling</t>
+  </si>
+  <si>
+    <t>Frei Gasser Mia</t>
+  </si>
+  <si>
+    <t>FRGMIA17C65B160L</t>
+  </si>
+  <si>
+    <t>2017-03-25 00:00:00</t>
+  </si>
+  <si>
+    <t>Gatterer Banna Amira</t>
+  </si>
+  <si>
+    <t>GTTMRA17D43B220Y</t>
+  </si>
+  <si>
+    <t>2017-04-03 00:00:00</t>
+  </si>
+  <si>
+    <t>Gostner Noah</t>
+  </si>
+  <si>
+    <t>GSTNHO17T18B160K</t>
+  </si>
+  <si>
+    <t>2017-12-18 00:00:00</t>
+  </si>
+  <si>
+    <t>Kastelruth</t>
+  </si>
+  <si>
+    <t>Gumpold Marius</t>
+  </si>
+  <si>
+    <t>GMPMRS17M28F132X</t>
+  </si>
+  <si>
+    <t>2017-08-28 00:00:00</t>
+  </si>
+  <si>
+    <t>St. Leonhard in Passeier</t>
+  </si>
+  <si>
+    <t>Hochgruber Raphael</t>
+  </si>
+  <si>
+    <t>HCHRHL17S04B220O</t>
+  </si>
+  <si>
+    <t>2017-11-04 00:00:00</t>
+  </si>
+  <si>
+    <t>Kiens</t>
+  </si>
+  <si>
+    <t>Hölzl Felicia Victoria</t>
+  </si>
+  <si>
+    <t>HLZFCV17S56F132E</t>
+  </si>
+  <si>
+    <t>2017-11-16 00:00:00</t>
+  </si>
+  <si>
+    <t>Algund</t>
+  </si>
+  <si>
+    <t>Kofler Andreas</t>
+  </si>
+  <si>
+    <t>KFLNRS17S23F132N</t>
+  </si>
+  <si>
+    <t>2017-11-23 00:00:00</t>
+  </si>
+  <si>
+    <t>St. Martin in Passeier</t>
+  </si>
+  <si>
+    <t>Longo Giada</t>
+  </si>
+  <si>
+    <t>LNGGDI17E68B220Z</t>
+  </si>
+  <si>
+    <t>2017-05-28 00:00:00</t>
+  </si>
+  <si>
+    <t>Lunger Ida</t>
+  </si>
+  <si>
+    <t>LNGDIA17S51A952F</t>
+  </si>
+  <si>
+    <t>2017-11-11 00:00:00</t>
+  </si>
+  <si>
+    <t>Malfatti Jonas</t>
+  </si>
+  <si>
+    <t>MLFJNS17E18F132I</t>
+  </si>
+  <si>
+    <t>2017-05-18 00:00:00</t>
+  </si>
+  <si>
+    <t>Gargazon</t>
+  </si>
+  <si>
+    <t>Massei Damian</t>
+  </si>
+  <si>
+    <t>MSSDMN17S29Z102Y</t>
+  </si>
+  <si>
+    <t>2017-11-29 00:00:00</t>
+  </si>
+  <si>
+    <t>Maturilli Anna Maria</t>
+  </si>
+  <si>
+    <t>MTRNMR17H63F132N</t>
+  </si>
+  <si>
+    <t>2017-06-23 00:00:00</t>
+  </si>
+  <si>
+    <t>Matzoll Rene</t>
+  </si>
+  <si>
+    <t>MTZRNE17C30F132A</t>
+  </si>
+  <si>
+    <t>2017-03-30 00:00:00</t>
+  </si>
+  <si>
+    <t>Mayer Fabienne</t>
+  </si>
+  <si>
+    <t>MYRFNN17L67B160A</t>
+  </si>
+  <si>
+    <t>2017-07-27 00:00:00</t>
+  </si>
+  <si>
+    <t>Villnöss</t>
+  </si>
+  <si>
+    <t>Messner Jakob</t>
+  </si>
+  <si>
+    <t>MSSJKB17S30F132S</t>
+  </si>
+  <si>
+    <t>2017-11-30 00:00:00</t>
+  </si>
+  <si>
+    <t>Eppan</t>
+  </si>
+  <si>
+    <t>Niederstaetter Leo</t>
+  </si>
+  <si>
+    <t>NDRLEO17H28F132T</t>
+  </si>
+  <si>
+    <t>2017-06-28 00:00:00</t>
+  </si>
+  <si>
+    <t>Oberhollenzer Ben</t>
+  </si>
+  <si>
+    <t>BRHBNE17P04B220J</t>
+  </si>
+  <si>
+    <t>2017-09-04 00:00:00</t>
+  </si>
+  <si>
+    <t>Orlando Amy</t>
+  </si>
+  <si>
+    <t>RLNMYA17E46F132T</t>
+  </si>
+  <si>
+    <t>2017-05-06 00:00:00</t>
+  </si>
+  <si>
+    <t>Oschmann Carl Cosimo</t>
+  </si>
+  <si>
+    <t>SCHCLC17L23B160P</t>
+  </si>
+  <si>
+    <t>2017-07-23 00:00:00</t>
+  </si>
+  <si>
+    <t>Pejic Milica</t>
+  </si>
+  <si>
+    <t>PJCMLC17H48F132R</t>
+  </si>
+  <si>
+    <t>2017-06-08 00:00:00</t>
+  </si>
+  <si>
+    <t>Pircher Hannes</t>
+  </si>
+  <si>
+    <t>PRCHNS17C08F132K</t>
+  </si>
+  <si>
+    <t>2017-03-08 00:00:00</t>
+  </si>
+  <si>
+    <t>Platter  Felix</t>
+  </si>
+  <si>
+    <t>PLTFLX17D28B160Z</t>
+  </si>
+  <si>
+    <t>2017-04-28 00:00:00</t>
+  </si>
+  <si>
+    <t>Prevedello  Timo</t>
+  </si>
+  <si>
+    <t>PRVTMI17T12F132L</t>
+  </si>
+  <si>
+    <t>2017-12-12 00:00:00</t>
+  </si>
+  <si>
+    <t>Priller  Yara</t>
+  </si>
+  <si>
+    <t>PRLYRA17D69B220C</t>
+  </si>
+  <si>
+    <t>2017-04-29 00:00:00</t>
+  </si>
+  <si>
+    <t>Ruiu Nina</t>
+  </si>
+  <si>
+    <t>RUINNI17C65B220Y</t>
+  </si>
+  <si>
+    <t>Ahrntal</t>
+  </si>
+  <si>
+    <t>Scano Nicole</t>
+  </si>
+  <si>
+    <t>SCNNCL17D64F132B</t>
+  </si>
+  <si>
+    <t>2017-04-24 00:00:00</t>
+  </si>
+  <si>
+    <t>Stanzel Amira</t>
+  </si>
+  <si>
+    <t>STNMRA17E53F132I</t>
+  </si>
+  <si>
+    <t>2017-05-13 00:00:00</t>
+  </si>
+  <si>
+    <t>Taschler  Anton</t>
+  </si>
+  <si>
+    <t>TSCNTN17L08B220M</t>
+  </si>
+  <si>
+    <t>2017-07-08 00:00:00</t>
+  </si>
+  <si>
+    <t>Rasen/Antholz</t>
+  </si>
+  <si>
+    <t>Thoman Aimar Amalia</t>
+  </si>
+  <si>
+    <t>THMMLA17T69I729V</t>
+  </si>
+  <si>
+    <t>2017-12-29 00:00:00</t>
+  </si>
+  <si>
+    <t>Trafoier Alex</t>
+  </si>
+  <si>
+    <t>TRFLXA17S27I729K</t>
+  </si>
+  <si>
+    <t>2017-11-27 00:00:00</t>
+  </si>
+  <si>
+    <t>Wenter Leo</t>
+  </si>
+  <si>
+    <t>WNTLEO17M01F132R</t>
+  </si>
+  <si>
+    <t>2017-08-01 00:00:00</t>
+  </si>
+  <si>
+    <t>Werner Emma</t>
+  </si>
+  <si>
+    <t>WRNMME17T67A952M</t>
+  </si>
+  <si>
+    <t>2017-12-27 00:00:00</t>
+  </si>
+  <si>
+    <t>Deutschnofen</t>
+  </si>
+  <si>
+    <t>Winkler Paula</t>
+  </si>
+  <si>
+    <t>WNKPLA17R42B220L</t>
+  </si>
+  <si>
+    <t>2017-10-02 00:00:00</t>
+  </si>
+  <si>
+    <t>Olang</t>
+  </si>
+  <si>
+    <t>Witcher Noah Sebastian</t>
+  </si>
+  <si>
+    <t>WTCNSB17C04B160X</t>
+  </si>
+  <si>
+    <t>2017-03-04 00:00:00</t>
+  </si>
+  <si>
+    <t>Woerndle Paul</t>
+  </si>
+  <si>
+    <t>WRNPLA17T13I729Z</t>
+  </si>
+  <si>
+    <t>2017-12-13 00:00:00</t>
+  </si>
+  <si>
+    <t>Schnals</t>
+  </si>
+  <si>
+    <t>Controllo finanziamento compensativo</t>
+  </si>
+  <si>
+    <t>Illmer Rafael</t>
+  </si>
+  <si>
+    <t>LLMRFL19B10F132U</t>
+  </si>
+  <si>
+    <t>2019-02-10 00:00:00</t>
+  </si>
+  <si>
+    <t>Pillon Luna</t>
+  </si>
+  <si>
+    <t>PLLLNU19C41B160R</t>
+  </si>
+  <si>
+    <t>2019-03-01 00:00:00</t>
+  </si>
+  <si>
+    <t>Santer Zoey</t>
+  </si>
+  <si>
+    <t>SNTZYO19E51B160D</t>
+  </si>
+  <si>
+    <t>2019-05-11 00:00:00</t>
+  </si>
+  <si>
+    <t>Sinn Sebastian</t>
+  </si>
+  <si>
+    <t>SNNSST19C22A952Q</t>
+  </si>
+  <si>
+    <t>2019-03-22 00:00:00</t>
+  </si>
+  <si>
+    <t>Kaltern</t>
+  </si>
+  <si>
+    <t>Controllo finanziamento compensativo #2</t>
+  </si>
+  <si>
+    <t>Kajana Mia</t>
+  </si>
+  <si>
+    <t>KJNMIA18M43A952A</t>
+  </si>
+  <si>
+    <t>2018-08-03 00:00:00</t>
+  </si>
+  <si>
+    <t>Tramin</t>
+  </si>
+  <si>
+    <t>Keim Iaco</t>
+  </si>
+  <si>
+    <t>KMECIA17L27B160E</t>
+  </si>
+  <si>
+    <t>Schwienbacher Ida</t>
+  </si>
+  <si>
+    <t>SCHDIA19M48F132M</t>
+  </si>
+  <si>
+    <t>2019-08-08 00:00:00</t>
+  </si>
+  <si>
+    <t>Controllo Covid #1</t>
+  </si>
+  <si>
+    <t>Controllo Covid #3</t>
+  </si>
+  <si>
+    <t>Audino Dennis</t>
+  </si>
+  <si>
+    <t>DNADNS18C15F132Y</t>
+  </si>
+  <si>
+    <t>2018-03-15 00:00:00</t>
+  </si>
+  <si>
+    <t>Bertagnolli Julius</t>
+  </si>
+  <si>
+    <t>BRTJLS17M10I729H</t>
+  </si>
+  <si>
+    <t>2017-08-10 00:00:00</t>
+  </si>
+  <si>
+    <t>Frei Juri</t>
+  </si>
+  <si>
+    <t>FREJRU18E29A952R</t>
+  </si>
+  <si>
+    <t>2018-05-29 00:00:00</t>
+  </si>
+  <si>
+    <t>Gorfer Florian</t>
+  </si>
+  <si>
+    <t>GRFFRN18E23I729P</t>
+  </si>
+  <si>
+    <t>2018-05-23 00:00:00</t>
+  </si>
+  <si>
+    <t>Gufler Lina</t>
+  </si>
+  <si>
+    <t>GFLLNI18L57F132G</t>
+  </si>
+  <si>
+    <t>2018-07-17 00:00:00</t>
+  </si>
+  <si>
+    <t>Moos in Passeier</t>
+  </si>
+  <si>
+    <t>Pircher Rafael Stefan</t>
+  </si>
+  <si>
+    <t>PRCRLS17M21I729J</t>
+  </si>
+  <si>
+    <t>2017-08-21 00:00:00</t>
+  </si>
+  <si>
+    <t>Pramstrahler Josef</t>
+  </si>
+  <si>
+    <t>PRMJSF19H13A952Z</t>
+  </si>
+  <si>
+    <t>2019-06-13 00:00:00</t>
+  </si>
+  <si>
+    <t>Thaler Nils</t>
+  </si>
+  <si>
+    <t>THLNLS17S11A952H</t>
+  </si>
+  <si>
+    <t>Contratti lockdown sospetti (Covid #4)</t>
+  </si>
+  <si>
+    <t>Controllo Fehler Eingewöhnung</t>
+  </si>
+  <si>
+    <t>Ajardi Josef</t>
+  </si>
+  <si>
+    <t>JRDJSF19R02B220Y</t>
+  </si>
+  <si>
+    <t>2019-10-02 00:00:00</t>
+  </si>
+  <si>
+    <t>Coser Anna</t>
+  </si>
+  <si>
+    <t>CSRNNA19E54F132F</t>
+  </si>
+  <si>
+    <t>2019-05-14 00:00:00</t>
+  </si>
+  <si>
+    <t>Crepaz Amelie</t>
+  </si>
+  <si>
+    <t>CRPMLA18A41B160K</t>
+  </si>
+  <si>
+    <t>2018-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>Feldthurns</t>
+  </si>
+  <si>
+    <t>Gamper Martha</t>
+  </si>
+  <si>
+    <t>GMPMTH19D47F132J</t>
+  </si>
+  <si>
+    <t>2019-04-07 00:00:00</t>
+  </si>
+  <si>
+    <t>Gruber Emma</t>
+  </si>
+  <si>
+    <t>GRBMME18E67F132P</t>
+  </si>
+  <si>
+    <t>2018-05-27 00:00:00</t>
+  </si>
+  <si>
+    <t>Huber Alexander</t>
+  </si>
+  <si>
+    <t>HBRLND18L27Z102R</t>
+  </si>
+  <si>
+    <t>2018-07-27 00:00:00</t>
+  </si>
+  <si>
+    <t>Huber Anna</t>
+  </si>
+  <si>
+    <t>HBRNNA18S55A952Y</t>
+  </si>
+  <si>
+    <t>2018-11-15 00:00:00</t>
+  </si>
+  <si>
+    <t>Karlegger Svenja Heidrun</t>
+  </si>
+  <si>
+    <t>KRLSNJ18P49I729Y</t>
+  </si>
+  <si>
+    <t>2018-09-09 00:00:00</t>
+  </si>
+  <si>
+    <t>Malloth Daniel</t>
+  </si>
+  <si>
+    <t>MLLDNL17L10I729Y</t>
+  </si>
+  <si>
+    <t>2017-07-10 00:00:00</t>
+  </si>
+  <si>
+    <t>Taufers i. M.</t>
+  </si>
+  <si>
+    <t>Pichler Simon</t>
+  </si>
+  <si>
+    <t>PCHSMN19L15F132H</t>
+  </si>
+  <si>
+    <t>2019-07-15 00:00:00</t>
+  </si>
+  <si>
+    <t>Premstaller Emmi</t>
+  </si>
+  <si>
+    <t>PRMMME19P65B220I</t>
+  </si>
+  <si>
+    <t>2019-09-25 00:00:00</t>
+  </si>
+  <si>
+    <t>Percha</t>
+  </si>
+  <si>
+    <t>Vent Ludwig</t>
+  </si>
+  <si>
+    <t>VNTLWG18P17F132O</t>
+  </si>
+  <si>
+    <t>2018-09-17 00:00:00</t>
+  </si>
+  <si>
+    <t>Burgstall</t>
+  </si>
+  <si>
+    <t>Wassler Alex</t>
+  </si>
+  <si>
+    <t>WSSLXA18H02A952T</t>
+  </si>
+  <si>
+    <t>2018-06-02 00:00:00</t>
+  </si>
+  <si>
+    <t>Controllo Fehler Eingewöhnung 543 Lockdown</t>
+  </si>
+  <si>
+    <t>Battaglia Mattia</t>
+  </si>
+  <si>
+    <t>BTTMTT17P08B160L</t>
+  </si>
+  <si>
+    <t>2017-09-08 00:00:00</t>
+  </si>
+  <si>
+    <t>Natz Schabs</t>
+  </si>
+  <si>
+    <t>D´Altri Stella</t>
+  </si>
+  <si>
+    <t>DLTSLL19B61A944K</t>
+  </si>
+  <si>
+    <t>2019-02-21 00:00:00</t>
+  </si>
+  <si>
+    <t>Eder Bruno</t>
+  </si>
+  <si>
+    <t>DREBRN19H09B220H</t>
+  </si>
+  <si>
+    <t>2019-06-09 00:00:00</t>
+  </si>
+  <si>
+    <t>Hafner Paul</t>
+  </si>
+  <si>
+    <t>HFNPLA18E20F132Q</t>
+  </si>
+  <si>
+    <t>2018-05-20 00:00:00</t>
+  </si>
+  <si>
+    <t>Prantl Rosa</t>
+  </si>
+  <si>
+    <t>PRNRSO18B49F132Z</t>
+  </si>
+  <si>
+    <t>2018-02-09 00:00:00</t>
+  </si>
+  <si>
+    <t>Tirol</t>
+  </si>
+  <si>
+    <t>Punter  Emil</t>
+  </si>
+  <si>
+    <t>PNTMLE17H12A952H</t>
+  </si>
+  <si>
+    <t>2017-06-12 00:00:00</t>
+  </si>
+  <si>
+    <t>Mals i. V.</t>
+  </si>
+  <si>
+    <t>Punter Julius</t>
+  </si>
+  <si>
+    <t>PNTJLS17H12A952S</t>
+  </si>
+  <si>
+    <t>Steger Fiona</t>
+  </si>
+  <si>
+    <t>STGFNI19E63B220P</t>
+  </si>
+  <si>
+    <t>2019-05-23 00:00:00</t>
+  </si>
+  <si>
+    <t>Thaler Leia</t>
+  </si>
+  <si>
+    <t>THLLEI19A68F132X</t>
+  </si>
+  <si>
+    <t>2019-01-28 00:00:00</t>
+  </si>
+  <si>
+    <t>Controllo Fehler Eingewöhnung 543 Notbetreuung</t>
+  </si>
+  <si>
+    <t>Agostinetto Matti</t>
+  </si>
+  <si>
+    <t>GSTMTT20B09A952T</t>
+  </si>
+  <si>
+    <t>2020-02-09 00:00:00</t>
+  </si>
+  <si>
+    <t>Barcatta Lisa</t>
+  </si>
+  <si>
+    <t>BRCLSI18S47A952V</t>
+  </si>
+  <si>
+    <t>2018-11-07 00:00:00</t>
+  </si>
+  <si>
+    <t>Kurtatsch</t>
+  </si>
+  <si>
+    <t>Billi Lorenzo</t>
+  </si>
+  <si>
+    <t>BLLLNZ20B12A952J</t>
+  </si>
+  <si>
+    <t>2020-02-12 00:00:00</t>
+  </si>
+  <si>
+    <t>Auer</t>
+  </si>
+  <si>
+    <t>Burger Karin</t>
+  </si>
+  <si>
+    <t>BRGKRN19E60I729G</t>
+  </si>
+  <si>
+    <t>2019-05-20 00:00:00</t>
+  </si>
+  <si>
+    <t>Ciaramella Lageder Giacomo Clemens</t>
+  </si>
+  <si>
+    <t>CRMGMC19T22F132F</t>
+  </si>
+  <si>
+    <t>2019-12-22 00:00:00</t>
+  </si>
+  <si>
+    <t>Edobor Evidence</t>
+  </si>
+  <si>
+    <t>DBRVNC19L59A952Z</t>
+  </si>
+  <si>
+    <t>2019-07-19 00:00:00</t>
+  </si>
+  <si>
+    <t>Graun im Vinschgau</t>
+  </si>
+  <si>
+    <t>Fabris Nathan</t>
+  </si>
+  <si>
+    <t>FBRNHN20B09F132A</t>
+  </si>
+  <si>
+    <t>Pircher Elsa Katharina</t>
+  </si>
+  <si>
+    <t>PRCLKT20B55I729Y</t>
+  </si>
+  <si>
+    <t>2020-02-15 00:00:00</t>
+  </si>
+  <si>
+    <t>Santner Lenz</t>
+  </si>
+  <si>
+    <t>SNTLNZ18A30F132R</t>
+  </si>
+  <si>
+    <t>2018-01-30 00:00:00</t>
+  </si>
+  <si>
+    <t>Schnitzer Lia</t>
+  </si>
+  <si>
+    <t>SCHLIA18P62F132S</t>
+  </si>
+  <si>
+    <t>2018-09-22 00:00:00</t>
+  </si>
+  <si>
+    <t>Vieider Stina Marie</t>
+  </si>
+  <si>
+    <t>VDRSNM18M56B160V</t>
+  </si>
+  <si>
+    <t>2018-08-16 00:00:00</t>
+  </si>
+  <si>
+    <t>Weger Mathe Elisabeth</t>
+  </si>
+  <si>
+    <t>WGRMHL18M51B220M</t>
+  </si>
+  <si>
+    <t>2018-08-11 00:00:00</t>
+  </si>
+  <si>
+    <t>Weissteiner Maximilian</t>
+  </si>
+  <si>
+    <t>WSSMML18L16B160Z</t>
+  </si>
+  <si>
+    <t>2018-07-16 00:00:00</t>
   </si>
   <si>
     <t>Controllo ore complessive periodo contrattuale</t>
   </si>
   <si>
-    <t>KHALLOUK LINA</t>
-  </si>
-  <si>
-    <t>KHLLNI19S44A952N</t>
-  </si>
-  <si>
-    <t>2019-11-04 00:00:00</t>
+    <t>Todde Nicoló</t>
+  </si>
+  <si>
+    <t>TDDNCL19D28A952R</t>
+  </si>
+  <si>
+    <t>2019-04-28 00:00:00</t>
+  </si>
+  <si>
+    <t>Bambino presente in più comuni</t>
+  </si>
+  <si>
+    <t>Alia Amelia</t>
+  </si>
+  <si>
+    <t>LAIMLA18S61A952S</t>
+  </si>
+  <si>
+    <t>2018-11-21 00:00:00</t>
+  </si>
+  <si>
+    <t>Margreid</t>
+  </si>
+  <si>
+    <t>Burger Linnea</t>
+  </si>
+  <si>
+    <t>BRGLNN18C48I729E</t>
+  </si>
+  <si>
+    <t>2018-03-08 00:00:00</t>
+  </si>
+  <si>
+    <t>Cellamare Camilla</t>
+  </si>
+  <si>
+    <t>CLLCLL17P60F132P</t>
+  </si>
+  <si>
+    <t>2017-09-20 00:00:00</t>
+  </si>
+  <si>
+    <t>Imonsili Mercy</t>
+  </si>
+  <si>
+    <t>MNSMCY18D63A952N</t>
+  </si>
+  <si>
+    <t>2018-04-23 00:00:00</t>
+  </si>
+  <si>
+    <t>Mazohl Mari</t>
+  </si>
+  <si>
+    <t>MZHMRA18P64F132P</t>
+  </si>
+  <si>
+    <t>2018-09-24 00:00:00</t>
+  </si>
+  <si>
+    <t>Schwärzer Anna</t>
+  </si>
+  <si>
+    <t>SCHNNA19R68B220L</t>
+  </si>
+  <si>
+    <t>2019-10-28 00:00:00</t>
+  </si>
+  <si>
+    <t>Gais</t>
+  </si>
+  <si>
+    <t>Usom Best Daniel</t>
+  </si>
+  <si>
+    <t>SMBDNL17C15A952L</t>
+  </si>
+  <si>
+    <t>2017-03-15 00:00:00</t>
+  </si>
+  <si>
+    <t>Weger Sophia</t>
+  </si>
+  <si>
+    <t>WGRSPH18D46B220D</t>
+  </si>
+  <si>
+    <t>2018-04-06 00:00:00</t>
+  </si>
+  <si>
+    <t>Whitecotton Leopold Harrison</t>
+  </si>
+  <si>
+    <t>WHTLLD18B20Z112Z</t>
+  </si>
+  <si>
+    <t>2018-02-20 00:00:00</t>
+  </si>
+  <si>
+    <t>Pfitsch</t>
+  </si>
+  <si>
+    <t>Sterzing</t>
+  </si>
+  <si>
+    <t>Bambini con annotazioni</t>
+  </si>
+  <si>
+    <t>Corduneanu Dorian *</t>
+  </si>
+  <si>
+    <t>CRDDRN17D05I729Y</t>
+  </si>
+  <si>
+    <t>2017-04-05 00:00:00</t>
+  </si>
+  <si>
+    <t>Kastelbell-Tschars</t>
   </si>
 </sst>
 </file>
@@ -408,106 +1953,3258 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E279"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="B12" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="D12" t="s">
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="E12" t="s">
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="B16" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="D16" t="s">
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="E16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1" t="s">
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="B20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="B21" t="s">
+      <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C21" t="s">
+    </row>
+    <row r="22" spans="1:5">
+      <c r="B22" t="s">
         <v>16</v>
       </c>
-      <c r="D21" t="s">
+      <c r="C22" t="s">
         <v>17</v>
       </c>
-      <c r="E21" t="s">
-        <v>9</v>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="B30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="B31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="B32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" t="s">
+        <v>76</v>
+      </c>
+      <c r="E38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" t="s">
+        <v>76</v>
+      </c>
+      <c r="E39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" t="s">
+        <v>80</v>
+      </c>
+      <c r="E40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" t="s">
+        <v>84</v>
+      </c>
+      <c r="E41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" t="s">
+        <v>87</v>
+      </c>
+      <c r="E42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" t="s">
+        <v>90</v>
+      </c>
+      <c r="E43" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44" t="s">
+        <v>94</v>
+      </c>
+      <c r="E44" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" t="s">
+        <v>98</v>
+      </c>
+      <c r="E45" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" t="s">
+        <v>101</v>
+      </c>
+      <c r="D46" t="s">
+        <v>102</v>
+      </c>
+      <c r="E46" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47" t="s">
+        <v>104</v>
+      </c>
+      <c r="C47" t="s">
+        <v>105</v>
+      </c>
+      <c r="D47" t="s">
+        <v>106</v>
+      </c>
+      <c r="E47" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" t="s">
+        <v>108</v>
+      </c>
+      <c r="D48" t="s">
+        <v>109</v>
+      </c>
+      <c r="E48" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" t="s">
+        <v>108</v>
+      </c>
+      <c r="D49" t="s">
+        <v>109</v>
+      </c>
+      <c r="E49" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" t="s">
+        <v>112</v>
+      </c>
+      <c r="D50" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="B51" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" t="s">
+        <v>115</v>
+      </c>
+      <c r="D51" t="s">
+        <v>116</v>
+      </c>
+      <c r="E51" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="B52" t="s">
+        <v>114</v>
+      </c>
+      <c r="C52" t="s">
+        <v>115</v>
+      </c>
+      <c r="D52" t="s">
+        <v>116</v>
+      </c>
+      <c r="E52" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="B53" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" t="s">
+        <v>119</v>
+      </c>
+      <c r="D53" t="s">
+        <v>116</v>
+      </c>
+      <c r="E53" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="B54" t="s">
+        <v>118</v>
+      </c>
+      <c r="C54" t="s">
+        <v>119</v>
+      </c>
+      <c r="D54" t="s">
+        <v>116</v>
+      </c>
+      <c r="E54" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="B55" t="s">
+        <v>120</v>
+      </c>
+      <c r="C55" t="s">
+        <v>121</v>
+      </c>
+      <c r="D55" t="s">
+        <v>122</v>
+      </c>
+      <c r="E55" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="B56" t="s">
+        <v>123</v>
+      </c>
+      <c r="C56" t="s">
+        <v>124</v>
+      </c>
+      <c r="D56" t="s">
+        <v>102</v>
+      </c>
+      <c r="E56" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5">
+      <c r="B57" t="s">
+        <v>123</v>
+      </c>
+      <c r="C57" t="s">
+        <v>124</v>
+      </c>
+      <c r="D57" t="s">
+        <v>102</v>
+      </c>
+      <c r="E57" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58" t="s">
+        <v>125</v>
+      </c>
+      <c r="C58" t="s">
+        <v>126</v>
+      </c>
+      <c r="D58" t="s">
+        <v>127</v>
+      </c>
+      <c r="E58" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="B59" t="s">
+        <v>125</v>
+      </c>
+      <c r="C59" t="s">
+        <v>126</v>
+      </c>
+      <c r="D59" t="s">
+        <v>127</v>
+      </c>
+      <c r="E59" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5">
+      <c r="B60" t="s">
+        <v>128</v>
+      </c>
+      <c r="C60" t="s">
+        <v>129</v>
+      </c>
+      <c r="D60" t="s">
+        <v>61</v>
+      </c>
+      <c r="E60" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5">
+      <c r="B61" t="s">
+        <v>131</v>
+      </c>
+      <c r="C61" t="s">
+        <v>132</v>
+      </c>
+      <c r="D61" t="s">
+        <v>133</v>
+      </c>
+      <c r="E61" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5">
+      <c r="B62" t="s">
+        <v>134</v>
+      </c>
+      <c r="C62" t="s">
+        <v>135</v>
+      </c>
+      <c r="D62" t="s">
+        <v>136</v>
+      </c>
+      <c r="E62" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5">
+      <c r="B63" t="s">
+        <v>137</v>
+      </c>
+      <c r="C63" t="s">
+        <v>138</v>
+      </c>
+      <c r="D63" t="s">
+        <v>139</v>
+      </c>
+      <c r="E63" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5">
+      <c r="B64" t="s">
+        <v>140</v>
+      </c>
+      <c r="C64" t="s">
+        <v>141</v>
+      </c>
+      <c r="D64" t="s">
+        <v>142</v>
+      </c>
+      <c r="E64" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="B65" t="s">
+        <v>143</v>
+      </c>
+      <c r="C65" t="s">
+        <v>144</v>
+      </c>
+      <c r="D65" t="s">
+        <v>145</v>
+      </c>
+      <c r="E65" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="B66" t="s">
+        <v>146</v>
+      </c>
+      <c r="C66" t="s">
+        <v>147</v>
+      </c>
+      <c r="D66" t="s">
+        <v>148</v>
+      </c>
+      <c r="E66" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="B67" t="s">
+        <v>149</v>
+      </c>
+      <c r="C67" t="s">
+        <v>150</v>
+      </c>
+      <c r="D67" t="s">
+        <v>72</v>
+      </c>
+      <c r="E67" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="B68" t="s">
+        <v>152</v>
+      </c>
+      <c r="C68" t="s">
+        <v>153</v>
+      </c>
+      <c r="D68" t="s">
+        <v>154</v>
+      </c>
+      <c r="E68" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="B69" t="s">
+        <v>156</v>
+      </c>
+      <c r="C69" t="s">
+        <v>157</v>
+      </c>
+      <c r="D69" t="s">
+        <v>158</v>
+      </c>
+      <c r="E69" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="B70" t="s">
+        <v>159</v>
+      </c>
+      <c r="C70" t="s">
+        <v>160</v>
+      </c>
+      <c r="D70" t="s">
+        <v>65</v>
+      </c>
+      <c r="E70" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="B71" t="s">
+        <v>161</v>
+      </c>
+      <c r="C71" t="s">
+        <v>162</v>
+      </c>
+      <c r="D71" t="s">
+        <v>163</v>
+      </c>
+      <c r="E71" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="B72" t="s">
+        <v>164</v>
+      </c>
+      <c r="C72" t="s">
+        <v>165</v>
+      </c>
+      <c r="D72" t="s">
+        <v>166</v>
+      </c>
+      <c r="E72" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="B73" t="s">
+        <v>167</v>
+      </c>
+      <c r="C73" t="s">
+        <v>168</v>
+      </c>
+      <c r="D73" t="s">
+        <v>169</v>
+      </c>
+      <c r="E73" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="B74" t="s">
+        <v>171</v>
+      </c>
+      <c r="C74" t="s">
+        <v>172</v>
+      </c>
+      <c r="D74" t="s">
+        <v>34</v>
+      </c>
+      <c r="E74" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="B75" t="s">
+        <v>174</v>
+      </c>
+      <c r="C75" t="s">
+        <v>175</v>
+      </c>
+      <c r="D75" t="s">
+        <v>176</v>
+      </c>
+      <c r="E75" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="B76" t="s">
+        <v>177</v>
+      </c>
+      <c r="C76" t="s">
+        <v>178</v>
+      </c>
+      <c r="D76" t="s">
+        <v>179</v>
+      </c>
+      <c r="E76" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="B80" t="s">
+        <v>181</v>
+      </c>
+      <c r="C80" t="s">
+        <v>182</v>
+      </c>
+      <c r="D80" t="s">
+        <v>183</v>
+      </c>
+      <c r="E80" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5">
+      <c r="B81" t="s">
+        <v>184</v>
+      </c>
+      <c r="C81" t="s">
+        <v>185</v>
+      </c>
+      <c r="D81" t="s">
+        <v>186</v>
+      </c>
+      <c r="E81" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5">
+      <c r="B82" t="s">
+        <v>188</v>
+      </c>
+      <c r="C82" t="s">
+        <v>189</v>
+      </c>
+      <c r="D82" t="s">
+        <v>190</v>
+      </c>
+      <c r="E82" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5">
+      <c r="B83" t="s">
+        <v>192</v>
+      </c>
+      <c r="C83" t="s">
+        <v>193</v>
+      </c>
+      <c r="D83" t="s">
+        <v>194</v>
+      </c>
+      <c r="E83" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5">
+      <c r="B84" t="s">
+        <v>195</v>
+      </c>
+      <c r="C84" t="s">
+        <v>196</v>
+      </c>
+      <c r="D84" t="s">
+        <v>197</v>
+      </c>
+      <c r="E84" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5">
+      <c r="B85" t="s">
+        <v>198</v>
+      </c>
+      <c r="C85" t="s">
+        <v>199</v>
+      </c>
+      <c r="D85" t="s">
+        <v>200</v>
+      </c>
+      <c r="E85" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5">
+      <c r="B86" t="s">
+        <v>202</v>
+      </c>
+      <c r="C86" t="s">
+        <v>203</v>
+      </c>
+      <c r="D86" t="s">
+        <v>183</v>
+      </c>
+      <c r="E86" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5">
+      <c r="B87" t="s">
+        <v>204</v>
+      </c>
+      <c r="C87" t="s">
+        <v>205</v>
+      </c>
+      <c r="D87" t="s">
+        <v>206</v>
+      </c>
+      <c r="E87" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5">
+      <c r="B88" t="s">
+        <v>208</v>
+      </c>
+      <c r="C88" t="s">
+        <v>209</v>
+      </c>
+      <c r="D88" t="s">
+        <v>210</v>
+      </c>
+      <c r="E88" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5">
+      <c r="B89" t="s">
+        <v>211</v>
+      </c>
+      <c r="C89" t="s">
+        <v>212</v>
+      </c>
+      <c r="D89" t="s">
+        <v>213</v>
+      </c>
+      <c r="E89" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5">
+      <c r="B90" t="s">
+        <v>214</v>
+      </c>
+      <c r="C90" t="s">
+        <v>215</v>
+      </c>
+      <c r="D90" t="s">
+        <v>216</v>
+      </c>
+      <c r="E90" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5">
+      <c r="B91" t="s">
+        <v>218</v>
+      </c>
+      <c r="C91" t="s">
+        <v>219</v>
+      </c>
+      <c r="D91" t="s">
+        <v>220</v>
+      </c>
+      <c r="E91" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5">
+      <c r="B92" t="s">
+        <v>222</v>
+      </c>
+      <c r="C92" t="s">
+        <v>223</v>
+      </c>
+      <c r="D92" t="s">
+        <v>224</v>
+      </c>
+      <c r="E92" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5">
+      <c r="B93" t="s">
+        <v>226</v>
+      </c>
+      <c r="C93" t="s">
+        <v>227</v>
+      </c>
+      <c r="D93" t="s">
+        <v>228</v>
+      </c>
+      <c r="E93" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5">
+      <c r="B94" t="s">
+        <v>230</v>
+      </c>
+      <c r="C94" t="s">
+        <v>231</v>
+      </c>
+      <c r="D94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E94" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5">
+      <c r="B95" t="s">
+        <v>234</v>
+      </c>
+      <c r="C95" t="s">
+        <v>235</v>
+      </c>
+      <c r="D95" t="s">
+        <v>236</v>
+      </c>
+      <c r="E95" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5">
+      <c r="B96" t="s">
+        <v>237</v>
+      </c>
+      <c r="C96" t="s">
+        <v>238</v>
+      </c>
+      <c r="D96" t="s">
+        <v>239</v>
+      </c>
+      <c r="E96" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5">
+      <c r="B97" t="s">
+        <v>240</v>
+      </c>
+      <c r="C97" t="s">
+        <v>241</v>
+      </c>
+      <c r="D97" t="s">
+        <v>242</v>
+      </c>
+      <c r="E97" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5">
+      <c r="B98" t="s">
+        <v>244</v>
+      </c>
+      <c r="C98" t="s">
+        <v>245</v>
+      </c>
+      <c r="D98" t="s">
+        <v>246</v>
+      </c>
+      <c r="E98" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5">
+      <c r="B99" t="s">
+        <v>247</v>
+      </c>
+      <c r="C99" t="s">
+        <v>248</v>
+      </c>
+      <c r="D99" t="s">
+        <v>249</v>
+      </c>
+      <c r="E99" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5">
+      <c r="B100" t="s">
+        <v>250</v>
+      </c>
+      <c r="C100" t="s">
+        <v>251</v>
+      </c>
+      <c r="D100" t="s">
+        <v>252</v>
+      </c>
+      <c r="E100" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5">
+      <c r="B101" t="s">
+        <v>253</v>
+      </c>
+      <c r="C101" t="s">
+        <v>254</v>
+      </c>
+      <c r="D101" t="s">
+        <v>255</v>
+      </c>
+      <c r="E101" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5">
+      <c r="B102" t="s">
+        <v>257</v>
+      </c>
+      <c r="C102" t="s">
+        <v>258</v>
+      </c>
+      <c r="D102" t="s">
+        <v>259</v>
+      </c>
+      <c r="E102" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5">
+      <c r="B103" t="s">
+        <v>261</v>
+      </c>
+      <c r="C103" t="s">
+        <v>262</v>
+      </c>
+      <c r="D103" t="s">
+        <v>263</v>
+      </c>
+      <c r="E103" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5">
+      <c r="B104" t="s">
+        <v>261</v>
+      </c>
+      <c r="C104" t="s">
+        <v>262</v>
+      </c>
+      <c r="D104" t="s">
+        <v>263</v>
+      </c>
+      <c r="E104" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5">
+      <c r="B105" t="s">
+        <v>264</v>
+      </c>
+      <c r="C105" t="s">
+        <v>265</v>
+      </c>
+      <c r="D105" t="s">
+        <v>266</v>
+      </c>
+      <c r="E105" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5">
+      <c r="B106" t="s">
+        <v>267</v>
+      </c>
+      <c r="C106" t="s">
+        <v>268</v>
+      </c>
+      <c r="D106" t="s">
+        <v>269</v>
+      </c>
+      <c r="E106" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5">
+      <c r="B107" t="s">
+        <v>270</v>
+      </c>
+      <c r="C107" t="s">
+        <v>271</v>
+      </c>
+      <c r="D107" t="s">
+        <v>272</v>
+      </c>
+      <c r="E107" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5">
+      <c r="B108" t="s">
+        <v>273</v>
+      </c>
+      <c r="C108" t="s">
+        <v>274</v>
+      </c>
+      <c r="D108" t="s">
+        <v>275</v>
+      </c>
+      <c r="E108" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5">
+      <c r="B109" t="s">
+        <v>276</v>
+      </c>
+      <c r="C109" t="s">
+        <v>277</v>
+      </c>
+      <c r="D109" t="s">
+        <v>278</v>
+      </c>
+      <c r="E109" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5">
+      <c r="B110" t="s">
+        <v>279</v>
+      </c>
+      <c r="C110" t="s">
+        <v>280</v>
+      </c>
+      <c r="D110" t="s">
+        <v>281</v>
+      </c>
+      <c r="E110" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5">
+      <c r="B111" t="s">
+        <v>282</v>
+      </c>
+      <c r="C111" t="s">
+        <v>283</v>
+      </c>
+      <c r="D111" t="s">
+        <v>284</v>
+      </c>
+      <c r="E111" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5">
+      <c r="B112" t="s">
+        <v>285</v>
+      </c>
+      <c r="C112" t="s">
+        <v>286</v>
+      </c>
+      <c r="D112" t="s">
+        <v>287</v>
+      </c>
+      <c r="E112" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="B113" t="s">
+        <v>288</v>
+      </c>
+      <c r="C113" t="s">
+        <v>289</v>
+      </c>
+      <c r="D113" t="s">
+        <v>210</v>
+      </c>
+      <c r="E113" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="B114" t="s">
+        <v>291</v>
+      </c>
+      <c r="C114" t="s">
+        <v>292</v>
+      </c>
+      <c r="D114" t="s">
+        <v>293</v>
+      </c>
+      <c r="E114" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="B115" t="s">
+        <v>294</v>
+      </c>
+      <c r="C115" t="s">
+        <v>295</v>
+      </c>
+      <c r="D115" t="s">
+        <v>296</v>
+      </c>
+      <c r="E115" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="B116" t="s">
+        <v>297</v>
+      </c>
+      <c r="C116" t="s">
+        <v>298</v>
+      </c>
+      <c r="D116" t="s">
+        <v>299</v>
+      </c>
+      <c r="E116" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="B117" t="s">
+        <v>301</v>
+      </c>
+      <c r="C117" t="s">
+        <v>302</v>
+      </c>
+      <c r="D117" t="s">
+        <v>303</v>
+      </c>
+      <c r="E117" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="B118" t="s">
+        <v>304</v>
+      </c>
+      <c r="C118" t="s">
+        <v>305</v>
+      </c>
+      <c r="D118" t="s">
+        <v>306</v>
+      </c>
+      <c r="E118" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="B119" t="s">
+        <v>307</v>
+      </c>
+      <c r="C119" t="s">
+        <v>308</v>
+      </c>
+      <c r="D119" t="s">
+        <v>309</v>
+      </c>
+      <c r="E119" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="B120" t="s">
+        <v>310</v>
+      </c>
+      <c r="C120" t="s">
+        <v>311</v>
+      </c>
+      <c r="D120" t="s">
+        <v>312</v>
+      </c>
+      <c r="E120" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="B121" t="s">
+        <v>314</v>
+      </c>
+      <c r="C121" t="s">
+        <v>315</v>
+      </c>
+      <c r="D121" t="s">
+        <v>316</v>
+      </c>
+      <c r="E121" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="B122" t="s">
+        <v>318</v>
+      </c>
+      <c r="C122" t="s">
+        <v>319</v>
+      </c>
+      <c r="D122" t="s">
+        <v>320</v>
+      </c>
+      <c r="E122" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="B123" t="s">
+        <v>321</v>
+      </c>
+      <c r="C123" t="s">
+        <v>322</v>
+      </c>
+      <c r="D123" t="s">
+        <v>323</v>
+      </c>
+      <c r="E123" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="B127" t="s">
+        <v>202</v>
+      </c>
+      <c r="C127" t="s">
+        <v>203</v>
+      </c>
+      <c r="D127" t="s">
+        <v>183</v>
+      </c>
+      <c r="E127" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="B128" t="s">
+        <v>326</v>
+      </c>
+      <c r="C128" t="s">
+        <v>327</v>
+      </c>
+      <c r="D128" t="s">
+        <v>328</v>
+      </c>
+      <c r="E128" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="B129" t="s">
+        <v>114</v>
+      </c>
+      <c r="C129" t="s">
+        <v>115</v>
+      </c>
+      <c r="D129" t="s">
+        <v>116</v>
+      </c>
+      <c r="E129" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="B130" t="s">
+        <v>118</v>
+      </c>
+      <c r="C130" t="s">
+        <v>119</v>
+      </c>
+      <c r="D130" t="s">
+        <v>116</v>
+      </c>
+      <c r="E130" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="B131" t="s">
+        <v>329</v>
+      </c>
+      <c r="C131" t="s">
+        <v>330</v>
+      </c>
+      <c r="D131" t="s">
+        <v>331</v>
+      </c>
+      <c r="E131" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="B132" t="s">
+        <v>332</v>
+      </c>
+      <c r="C132" t="s">
+        <v>333</v>
+      </c>
+      <c r="D132" t="s">
+        <v>334</v>
+      </c>
+      <c r="E132" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="B133" t="s">
+        <v>335</v>
+      </c>
+      <c r="C133" t="s">
+        <v>336</v>
+      </c>
+      <c r="D133" t="s">
+        <v>337</v>
+      </c>
+      <c r="E133" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="B137" t="s">
+        <v>340</v>
+      </c>
+      <c r="C137" t="s">
+        <v>341</v>
+      </c>
+      <c r="D137" t="s">
+        <v>342</v>
+      </c>
+      <c r="E137" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="B138" t="s">
+        <v>344</v>
+      </c>
+      <c r="C138" t="s">
+        <v>345</v>
+      </c>
+      <c r="D138" t="s">
+        <v>255</v>
+      </c>
+      <c r="E138" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="B139" t="s">
+        <v>247</v>
+      </c>
+      <c r="C139" t="s">
+        <v>248</v>
+      </c>
+      <c r="D139" t="s">
+        <v>249</v>
+      </c>
+      <c r="E139" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="B140" t="s">
+        <v>346</v>
+      </c>
+      <c r="C140" t="s">
+        <v>347</v>
+      </c>
+      <c r="D140" t="s">
+        <v>348</v>
+      </c>
+      <c r="E140" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="B144" t="s">
+        <v>247</v>
+      </c>
+      <c r="C144" t="s">
+        <v>248</v>
+      </c>
+      <c r="D144" t="s">
+        <v>249</v>
+      </c>
+      <c r="E144" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="B148" t="s">
+        <v>351</v>
+      </c>
+      <c r="C148" t="s">
+        <v>352</v>
+      </c>
+      <c r="D148" t="s">
+        <v>353</v>
+      </c>
+      <c r="E148" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="B149" t="s">
+        <v>354</v>
+      </c>
+      <c r="C149" t="s">
+        <v>355</v>
+      </c>
+      <c r="D149" t="s">
+        <v>356</v>
+      </c>
+      <c r="E149" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="B150" t="s">
+        <v>357</v>
+      </c>
+      <c r="C150" t="s">
+        <v>358</v>
+      </c>
+      <c r="D150" t="s">
+        <v>359</v>
+      </c>
+      <c r="E150" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="B151" t="s">
+        <v>360</v>
+      </c>
+      <c r="C151" t="s">
+        <v>361</v>
+      </c>
+      <c r="D151" t="s">
+        <v>362</v>
+      </c>
+      <c r="E151" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="B152" t="s">
+        <v>363</v>
+      </c>
+      <c r="C152" t="s">
+        <v>364</v>
+      </c>
+      <c r="D152" t="s">
+        <v>365</v>
+      </c>
+      <c r="E152" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="B153" t="s">
+        <v>367</v>
+      </c>
+      <c r="C153" t="s">
+        <v>368</v>
+      </c>
+      <c r="D153" t="s">
+        <v>369</v>
+      </c>
+      <c r="E153" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="B154" t="s">
+        <v>370</v>
+      </c>
+      <c r="C154" t="s">
+        <v>371</v>
+      </c>
+      <c r="D154" t="s">
+        <v>372</v>
+      </c>
+      <c r="E154" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="B155" t="s">
+        <v>335</v>
+      </c>
+      <c r="C155" t="s">
+        <v>336</v>
+      </c>
+      <c r="D155" t="s">
+        <v>337</v>
+      </c>
+      <c r="E155" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="B156" t="s">
+        <v>373</v>
+      </c>
+      <c r="C156" t="s">
+        <v>374</v>
+      </c>
+      <c r="D156" t="s">
+        <v>239</v>
+      </c>
+      <c r="E156" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="B160" t="s">
+        <v>351</v>
+      </c>
+      <c r="C160" t="s">
+        <v>352</v>
+      </c>
+      <c r="D160" t="s">
+        <v>353</v>
+      </c>
+      <c r="E160" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="B161" t="s">
+        <v>354</v>
+      </c>
+      <c r="C161" t="s">
+        <v>355</v>
+      </c>
+      <c r="D161" t="s">
+        <v>356</v>
+      </c>
+      <c r="E161" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="B162" t="s">
+        <v>202</v>
+      </c>
+      <c r="C162" t="s">
+        <v>203</v>
+      </c>
+      <c r="D162" t="s">
+        <v>183</v>
+      </c>
+      <c r="E162" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="B163" t="s">
+        <v>357</v>
+      </c>
+      <c r="C163" t="s">
+        <v>358</v>
+      </c>
+      <c r="D163" t="s">
+        <v>359</v>
+      </c>
+      <c r="E163" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="B164" t="s">
+        <v>360</v>
+      </c>
+      <c r="C164" t="s">
+        <v>361</v>
+      </c>
+      <c r="D164" t="s">
+        <v>362</v>
+      </c>
+      <c r="E164" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="B165" t="s">
+        <v>363</v>
+      </c>
+      <c r="C165" t="s">
+        <v>364</v>
+      </c>
+      <c r="D165" t="s">
+        <v>365</v>
+      </c>
+      <c r="E165" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="B166" t="s">
+        <v>326</v>
+      </c>
+      <c r="C166" t="s">
+        <v>327</v>
+      </c>
+      <c r="D166" t="s">
+        <v>328</v>
+      </c>
+      <c r="E166" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="B167" t="s">
+        <v>329</v>
+      </c>
+      <c r="C167" t="s">
+        <v>330</v>
+      </c>
+      <c r="D167" t="s">
+        <v>331</v>
+      </c>
+      <c r="E167" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="B168" t="s">
+        <v>370</v>
+      </c>
+      <c r="C168" t="s">
+        <v>371</v>
+      </c>
+      <c r="D168" t="s">
+        <v>372</v>
+      </c>
+      <c r="E168" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="B169" t="s">
+        <v>332</v>
+      </c>
+      <c r="C169" t="s">
+        <v>333</v>
+      </c>
+      <c r="D169" t="s">
+        <v>334</v>
+      </c>
+      <c r="E169" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="B170" t="s">
+        <v>346</v>
+      </c>
+      <c r="C170" t="s">
+        <v>347</v>
+      </c>
+      <c r="D170" t="s">
+        <v>348</v>
+      </c>
+      <c r="E170" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="B171" t="s">
+        <v>335</v>
+      </c>
+      <c r="C171" t="s">
+        <v>336</v>
+      </c>
+      <c r="D171" t="s">
+        <v>337</v>
+      </c>
+      <c r="E171" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="B172" t="s">
+        <v>373</v>
+      </c>
+      <c r="C172" t="s">
+        <v>374</v>
+      </c>
+      <c r="D172" t="s">
+        <v>239</v>
+      </c>
+      <c r="E172" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="B176" t="s">
+        <v>377</v>
+      </c>
+      <c r="C176" t="s">
+        <v>378</v>
+      </c>
+      <c r="D176" t="s">
+        <v>379</v>
+      </c>
+      <c r="E176" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="B177" t="s">
+        <v>380</v>
+      </c>
+      <c r="C177" t="s">
+        <v>381</v>
+      </c>
+      <c r="D177" t="s">
+        <v>382</v>
+      </c>
+      <c r="E177" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="B178" t="s">
+        <v>383</v>
+      </c>
+      <c r="C178" t="s">
+        <v>384</v>
+      </c>
+      <c r="D178" t="s">
+        <v>385</v>
+      </c>
+      <c r="E178" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="B179" t="s">
+        <v>387</v>
+      </c>
+      <c r="C179" t="s">
+        <v>388</v>
+      </c>
+      <c r="D179" t="s">
+        <v>389</v>
+      </c>
+      <c r="E179" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="B180" t="s">
+        <v>390</v>
+      </c>
+      <c r="C180" t="s">
+        <v>391</v>
+      </c>
+      <c r="D180" t="s">
+        <v>392</v>
+      </c>
+      <c r="E180" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="B181" t="s">
+        <v>393</v>
+      </c>
+      <c r="C181" t="s">
+        <v>394</v>
+      </c>
+      <c r="D181" t="s">
+        <v>395</v>
+      </c>
+      <c r="E181" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="B182" t="s">
+        <v>396</v>
+      </c>
+      <c r="C182" t="s">
+        <v>397</v>
+      </c>
+      <c r="D182" t="s">
+        <v>398</v>
+      </c>
+      <c r="E182" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="B183" t="s">
+        <v>399</v>
+      </c>
+      <c r="C183" t="s">
+        <v>400</v>
+      </c>
+      <c r="D183" t="s">
+        <v>401</v>
+      </c>
+      <c r="E183" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="B184" t="s">
+        <v>402</v>
+      </c>
+      <c r="C184" t="s">
+        <v>403</v>
+      </c>
+      <c r="D184" t="s">
+        <v>404</v>
+      </c>
+      <c r="E184" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="B185" t="s">
+        <v>406</v>
+      </c>
+      <c r="C185" t="s">
+        <v>407</v>
+      </c>
+      <c r="D185" t="s">
+        <v>408</v>
+      </c>
+      <c r="E185" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="B186" t="s">
+        <v>409</v>
+      </c>
+      <c r="C186" t="s">
+        <v>410</v>
+      </c>
+      <c r="D186" t="s">
+        <v>411</v>
+      </c>
+      <c r="E186" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="B187" t="s">
+        <v>413</v>
+      </c>
+      <c r="C187" t="s">
+        <v>414</v>
+      </c>
+      <c r="D187" t="s">
+        <v>415</v>
+      </c>
+      <c r="E187" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="B188" t="s">
+        <v>417</v>
+      </c>
+      <c r="C188" t="s">
+        <v>418</v>
+      </c>
+      <c r="D188" t="s">
+        <v>419</v>
+      </c>
+      <c r="E188" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="B192" t="s">
+        <v>377</v>
+      </c>
+      <c r="C192" t="s">
+        <v>378</v>
+      </c>
+      <c r="D192" t="s">
+        <v>379</v>
+      </c>
+      <c r="E192" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="193" spans="2:5">
+      <c r="B193" t="s">
+        <v>421</v>
+      </c>
+      <c r="C193" t="s">
+        <v>422</v>
+      </c>
+      <c r="D193" t="s">
+        <v>423</v>
+      </c>
+      <c r="E193" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="194" spans="2:5">
+      <c r="B194" t="s">
+        <v>380</v>
+      </c>
+      <c r="C194" t="s">
+        <v>381</v>
+      </c>
+      <c r="D194" t="s">
+        <v>382</v>
+      </c>
+      <c r="E194" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="195" spans="2:5">
+      <c r="B195" t="s">
+        <v>383</v>
+      </c>
+      <c r="C195" t="s">
+        <v>384</v>
+      </c>
+      <c r="D195" t="s">
+        <v>385</v>
+      </c>
+      <c r="E195" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="196" spans="2:5">
+      <c r="B196" t="s">
+        <v>425</v>
+      </c>
+      <c r="C196" t="s">
+        <v>426</v>
+      </c>
+      <c r="D196" t="s">
+        <v>427</v>
+      </c>
+      <c r="E196" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="197" spans="2:5">
+      <c r="B197" t="s">
+        <v>428</v>
+      </c>
+      <c r="C197" t="s">
+        <v>429</v>
+      </c>
+      <c r="D197" t="s">
+        <v>430</v>
+      </c>
+      <c r="E197" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="198" spans="2:5">
+      <c r="B198" t="s">
+        <v>55</v>
+      </c>
+      <c r="C198" t="s">
+        <v>56</v>
+      </c>
+      <c r="D198" t="s">
+        <v>57</v>
+      </c>
+      <c r="E198" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="199" spans="2:5">
+      <c r="B199" t="s">
+        <v>387</v>
+      </c>
+      <c r="C199" t="s">
+        <v>388</v>
+      </c>
+      <c r="D199" t="s">
+        <v>389</v>
+      </c>
+      <c r="E199" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="200" spans="2:5">
+      <c r="B200" t="s">
+        <v>390</v>
+      </c>
+      <c r="C200" t="s">
+        <v>391</v>
+      </c>
+      <c r="D200" t="s">
+        <v>392</v>
+      </c>
+      <c r="E200" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="201" spans="2:5">
+      <c r="B201" t="s">
+        <v>363</v>
+      </c>
+      <c r="C201" t="s">
+        <v>364</v>
+      </c>
+      <c r="D201" t="s">
+        <v>365</v>
+      </c>
+      <c r="E201" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="202" spans="2:5">
+      <c r="B202" t="s">
+        <v>431</v>
+      </c>
+      <c r="C202" t="s">
+        <v>432</v>
+      </c>
+      <c r="D202" t="s">
+        <v>433</v>
+      </c>
+      <c r="E202" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="203" spans="2:5">
+      <c r="B203" t="s">
+        <v>393</v>
+      </c>
+      <c r="C203" t="s">
+        <v>394</v>
+      </c>
+      <c r="D203" t="s">
+        <v>395</v>
+      </c>
+      <c r="E203" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="204" spans="2:5">
+      <c r="B204" t="s">
+        <v>396</v>
+      </c>
+      <c r="C204" t="s">
+        <v>397</v>
+      </c>
+      <c r="D204" t="s">
+        <v>398</v>
+      </c>
+      <c r="E204" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="205" spans="2:5">
+      <c r="B205" t="s">
+        <v>399</v>
+      </c>
+      <c r="C205" t="s">
+        <v>400</v>
+      </c>
+      <c r="D205" t="s">
+        <v>401</v>
+      </c>
+      <c r="E205" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="206" spans="2:5">
+      <c r="B206" t="s">
+        <v>402</v>
+      </c>
+      <c r="C206" t="s">
+        <v>403</v>
+      </c>
+      <c r="D206" t="s">
+        <v>404</v>
+      </c>
+      <c r="E206" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="207" spans="2:5">
+      <c r="B207" t="s">
+        <v>406</v>
+      </c>
+      <c r="C207" t="s">
+        <v>407</v>
+      </c>
+      <c r="D207" t="s">
+        <v>408</v>
+      </c>
+      <c r="E207" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="208" spans="2:5">
+      <c r="B208" t="s">
+        <v>434</v>
+      </c>
+      <c r="C208" t="s">
+        <v>435</v>
+      </c>
+      <c r="D208" t="s">
+        <v>436</v>
+      </c>
+      <c r="E208" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="B209" t="s">
+        <v>409</v>
+      </c>
+      <c r="C209" t="s">
+        <v>410</v>
+      </c>
+      <c r="D209" t="s">
+        <v>411</v>
+      </c>
+      <c r="E209" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="B210" t="s">
+        <v>438</v>
+      </c>
+      <c r="C210" t="s">
+        <v>439</v>
+      </c>
+      <c r="D210" t="s">
+        <v>440</v>
+      </c>
+      <c r="E210" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="B211" t="s">
+        <v>442</v>
+      </c>
+      <c r="C211" t="s">
+        <v>443</v>
+      </c>
+      <c r="D211" t="s">
+        <v>440</v>
+      </c>
+      <c r="E211" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="B212" t="s">
+        <v>444</v>
+      </c>
+      <c r="C212" t="s">
+        <v>445</v>
+      </c>
+      <c r="D212" t="s">
+        <v>446</v>
+      </c>
+      <c r="E212" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="B213" t="s">
+        <v>447</v>
+      </c>
+      <c r="C213" t="s">
+        <v>448</v>
+      </c>
+      <c r="D213" t="s">
+        <v>449</v>
+      </c>
+      <c r="E213" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="B214" t="s">
+        <v>413</v>
+      </c>
+      <c r="C214" t="s">
+        <v>414</v>
+      </c>
+      <c r="D214" t="s">
+        <v>415</v>
+      </c>
+      <c r="E214" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="B215" t="s">
+        <v>417</v>
+      </c>
+      <c r="C215" t="s">
+        <v>418</v>
+      </c>
+      <c r="D215" t="s">
+        <v>419</v>
+      </c>
+      <c r="E215" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="B219" t="s">
+        <v>451</v>
+      </c>
+      <c r="C219" t="s">
+        <v>452</v>
+      </c>
+      <c r="D219" t="s">
+        <v>453</v>
+      </c>
+      <c r="E219" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="B220" t="s">
+        <v>454</v>
+      </c>
+      <c r="C220" t="s">
+        <v>455</v>
+      </c>
+      <c r="D220" t="s">
+        <v>456</v>
+      </c>
+      <c r="E220" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="B221" t="s">
+        <v>458</v>
+      </c>
+      <c r="C221" t="s">
+        <v>459</v>
+      </c>
+      <c r="D221" t="s">
+        <v>460</v>
+      </c>
+      <c r="E221" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="B222" t="s">
+        <v>462</v>
+      </c>
+      <c r="C222" t="s">
+        <v>463</v>
+      </c>
+      <c r="D222" t="s">
+        <v>464</v>
+      </c>
+      <c r="E222" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="B223" t="s">
+        <v>465</v>
+      </c>
+      <c r="C223" t="s">
+        <v>466</v>
+      </c>
+      <c r="D223" t="s">
+        <v>467</v>
+      </c>
+      <c r="E223" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="B224" t="s">
+        <v>468</v>
+      </c>
+      <c r="C224" t="s">
+        <v>469</v>
+      </c>
+      <c r="D224" t="s">
+        <v>470</v>
+      </c>
+      <c r="E224" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="B225" t="s">
+        <v>472</v>
+      </c>
+      <c r="C225" t="s">
+        <v>473</v>
+      </c>
+      <c r="D225" t="s">
+        <v>453</v>
+      </c>
+      <c r="E225" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="B226" t="s">
+        <v>474</v>
+      </c>
+      <c r="C226" t="s">
+        <v>475</v>
+      </c>
+      <c r="D226" t="s">
+        <v>476</v>
+      </c>
+      <c r="E226" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="B227" t="s">
+        <v>477</v>
+      </c>
+      <c r="C227" t="s">
+        <v>478</v>
+      </c>
+      <c r="D227" t="s">
+        <v>479</v>
+      </c>
+      <c r="E227" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="B228" t="s">
+        <v>480</v>
+      </c>
+      <c r="C228" t="s">
+        <v>481</v>
+      </c>
+      <c r="D228" t="s">
+        <v>482</v>
+      </c>
+      <c r="E228" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="B229" t="s">
+        <v>483</v>
+      </c>
+      <c r="C229" t="s">
+        <v>484</v>
+      </c>
+      <c r="D229" t="s">
+        <v>485</v>
+      </c>
+      <c r="E229" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="B230" t="s">
+        <v>486</v>
+      </c>
+      <c r="C230" t="s">
+        <v>487</v>
+      </c>
+      <c r="D230" t="s">
+        <v>488</v>
+      </c>
+      <c r="E230" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="B231" t="s">
+        <v>489</v>
+      </c>
+      <c r="C231" t="s">
+        <v>490</v>
+      </c>
+      <c r="D231" t="s">
+        <v>491</v>
+      </c>
+      <c r="E231" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="B232" t="s">
+        <v>321</v>
+      </c>
+      <c r="C232" t="s">
+        <v>322</v>
+      </c>
+      <c r="D232" t="s">
+        <v>323</v>
+      </c>
+      <c r="E232" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="B236" t="s">
+        <v>188</v>
+      </c>
+      <c r="C236" t="s">
+        <v>189</v>
+      </c>
+      <c r="D236" t="s">
+        <v>190</v>
+      </c>
+      <c r="E236" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="B237" t="s">
+        <v>493</v>
+      </c>
+      <c r="C237" t="s">
+        <v>494</v>
+      </c>
+      <c r="D237" t="s">
+        <v>495</v>
+      </c>
+      <c r="E237" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="241" spans="2:5">
+      <c r="B241" t="s">
+        <v>497</v>
+      </c>
+      <c r="C241" t="s">
+        <v>498</v>
+      </c>
+      <c r="D241" t="s">
+        <v>499</v>
+      </c>
+      <c r="E241" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="242" spans="2:5">
+      <c r="B242" t="s">
+        <v>497</v>
+      </c>
+      <c r="C242" t="s">
+        <v>498</v>
+      </c>
+      <c r="D242" t="s">
+        <v>499</v>
+      </c>
+      <c r="E242" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="243" spans="2:5">
+      <c r="B243" t="s">
+        <v>454</v>
+      </c>
+      <c r="C243" t="s">
+        <v>455</v>
+      </c>
+      <c r="D243" t="s">
+        <v>456</v>
+      </c>
+      <c r="E243" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="244" spans="2:5">
+      <c r="B244" t="s">
+        <v>454</v>
+      </c>
+      <c r="C244" t="s">
+        <v>455</v>
+      </c>
+      <c r="D244" t="s">
+        <v>456</v>
+      </c>
+      <c r="E244" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="245" spans="2:5">
+      <c r="B245" t="s">
+        <v>454</v>
+      </c>
+      <c r="C245" t="s">
+        <v>455</v>
+      </c>
+      <c r="D245" t="s">
+        <v>456</v>
+      </c>
+      <c r="E245" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="246" spans="2:5">
+      <c r="B246" t="s">
+        <v>501</v>
+      </c>
+      <c r="C246" t="s">
+        <v>502</v>
+      </c>
+      <c r="D246" t="s">
+        <v>503</v>
+      </c>
+      <c r="E246" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="247" spans="2:5">
+      <c r="B247" t="s">
+        <v>501</v>
+      </c>
+      <c r="C247" t="s">
+        <v>502</v>
+      </c>
+      <c r="D247" t="s">
+        <v>503</v>
+      </c>
+      <c r="E247" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="248" spans="2:5">
+      <c r="B248" t="s">
+        <v>501</v>
+      </c>
+      <c r="C248" t="s">
+        <v>502</v>
+      </c>
+      <c r="D248" t="s">
+        <v>503</v>
+      </c>
+      <c r="E248" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="249" spans="2:5">
+      <c r="B249" t="s">
+        <v>501</v>
+      </c>
+      <c r="C249" t="s">
+        <v>502</v>
+      </c>
+      <c r="D249" t="s">
+        <v>503</v>
+      </c>
+      <c r="E249" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="250" spans="2:5">
+      <c r="B250" t="s">
+        <v>504</v>
+      </c>
+      <c r="C250" t="s">
+        <v>505</v>
+      </c>
+      <c r="D250" t="s">
+        <v>506</v>
+      </c>
+      <c r="E250" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="251" spans="2:5">
+      <c r="B251" t="s">
+        <v>504</v>
+      </c>
+      <c r="C251" t="s">
+        <v>505</v>
+      </c>
+      <c r="D251" t="s">
+        <v>506</v>
+      </c>
+      <c r="E251" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="252" spans="2:5">
+      <c r="B252" t="s">
+        <v>465</v>
+      </c>
+      <c r="C252" t="s">
+        <v>466</v>
+      </c>
+      <c r="D252" t="s">
+        <v>467</v>
+      </c>
+      <c r="E252" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="253" spans="2:5">
+      <c r="B253" t="s">
+        <v>465</v>
+      </c>
+      <c r="C253" t="s">
+        <v>466</v>
+      </c>
+      <c r="D253" t="s">
+        <v>467</v>
+      </c>
+      <c r="E253" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="254" spans="2:5">
+      <c r="B254" t="s">
+        <v>202</v>
+      </c>
+      <c r="C254" t="s">
+        <v>203</v>
+      </c>
+      <c r="D254" t="s">
+        <v>183</v>
+      </c>
+      <c r="E254" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="255" spans="2:5">
+      <c r="B255" t="s">
+        <v>202</v>
+      </c>
+      <c r="C255" t="s">
+        <v>203</v>
+      </c>
+      <c r="D255" t="s">
+        <v>183</v>
+      </c>
+      <c r="E255" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="256" spans="2:5">
+      <c r="B256" t="s">
+        <v>507</v>
+      </c>
+      <c r="C256" t="s">
+        <v>508</v>
+      </c>
+      <c r="D256" t="s">
+        <v>509</v>
+      </c>
+      <c r="E256" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="257" spans="2:5">
+      <c r="B257" t="s">
+        <v>507</v>
+      </c>
+      <c r="C257" t="s">
+        <v>508</v>
+      </c>
+      <c r="D257" t="s">
+        <v>509</v>
+      </c>
+      <c r="E257" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="258" spans="2:5">
+      <c r="B258" t="s">
+        <v>247</v>
+      </c>
+      <c r="C258" t="s">
+        <v>248</v>
+      </c>
+      <c r="D258" t="s">
+        <v>249</v>
+      </c>
+      <c r="E258" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="259" spans="2:5">
+      <c r="B259" t="s">
+        <v>247</v>
+      </c>
+      <c r="C259" t="s">
+        <v>248</v>
+      </c>
+      <c r="D259" t="s">
+        <v>249</v>
+      </c>
+      <c r="E259" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="260" spans="2:5">
+      <c r="B260" t="s">
+        <v>510</v>
+      </c>
+      <c r="C260" t="s">
+        <v>511</v>
+      </c>
+      <c r="D260" t="s">
+        <v>512</v>
+      </c>
+      <c r="E260" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="261" spans="2:5">
+      <c r="B261" t="s">
+        <v>510</v>
+      </c>
+      <c r="C261" t="s">
+        <v>511</v>
+      </c>
+      <c r="D261" t="s">
+        <v>512</v>
+      </c>
+      <c r="E261" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="262" spans="2:5">
+      <c r="B262" t="s">
+        <v>267</v>
+      </c>
+      <c r="C262" t="s">
+        <v>268</v>
+      </c>
+      <c r="D262" t="s">
+        <v>269</v>
+      </c>
+      <c r="E262" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="263" spans="2:5">
+      <c r="B263" t="s">
+        <v>267</v>
+      </c>
+      <c r="C263" t="s">
+        <v>268</v>
+      </c>
+      <c r="D263" t="s">
+        <v>269</v>
+      </c>
+      <c r="E263" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="264" spans="2:5">
+      <c r="B264" t="s">
+        <v>477</v>
+      </c>
+      <c r="C264" t="s">
+        <v>478</v>
+      </c>
+      <c r="D264" t="s">
+        <v>479</v>
+      </c>
+      <c r="E264" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="265" spans="2:5">
+      <c r="B265" t="s">
+        <v>477</v>
+      </c>
+      <c r="C265" t="s">
+        <v>478</v>
+      </c>
+      <c r="D265" t="s">
+        <v>479</v>
+      </c>
+      <c r="E265" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="266" spans="2:5">
+      <c r="B266" t="s">
+        <v>346</v>
+      </c>
+      <c r="C266" t="s">
+        <v>347</v>
+      </c>
+      <c r="D266" t="s">
+        <v>348</v>
+      </c>
+      <c r="E266" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="267" spans="2:5">
+      <c r="B267" t="s">
+        <v>346</v>
+      </c>
+      <c r="C267" t="s">
+        <v>347</v>
+      </c>
+      <c r="D267" t="s">
+        <v>348</v>
+      </c>
+      <c r="E267" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="268" spans="2:5">
+      <c r="B268" t="s">
+        <v>513</v>
+      </c>
+      <c r="C268" t="s">
+        <v>514</v>
+      </c>
+      <c r="D268" t="s">
+        <v>515</v>
+      </c>
+      <c r="E268" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="269" spans="2:5">
+      <c r="B269" t="s">
+        <v>513</v>
+      </c>
+      <c r="C269" t="s">
+        <v>514</v>
+      </c>
+      <c r="D269" t="s">
+        <v>515</v>
+      </c>
+      <c r="E269" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="270" spans="2:5">
+      <c r="B270" t="s">
+        <v>517</v>
+      </c>
+      <c r="C270" t="s">
+        <v>518</v>
+      </c>
+      <c r="D270" t="s">
+        <v>519</v>
+      </c>
+      <c r="E270" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="271" spans="2:5">
+      <c r="B271" t="s">
+        <v>517</v>
+      </c>
+      <c r="C271" t="s">
+        <v>518</v>
+      </c>
+      <c r="D271" t="s">
+        <v>519</v>
+      </c>
+      <c r="E271" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="272" spans="2:5">
+      <c r="B272" t="s">
+        <v>520</v>
+      </c>
+      <c r="C272" t="s">
+        <v>521</v>
+      </c>
+      <c r="D272" t="s">
+        <v>522</v>
+      </c>
+      <c r="E272" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="B273" t="s">
+        <v>520</v>
+      </c>
+      <c r="C273" t="s">
+        <v>521</v>
+      </c>
+      <c r="D273" t="s">
+        <v>522</v>
+      </c>
+      <c r="E273" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="B274" t="s">
+        <v>523</v>
+      </c>
+      <c r="C274" t="s">
+        <v>524</v>
+      </c>
+      <c r="D274" t="s">
+        <v>525</v>
+      </c>
+      <c r="E274" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="B275" t="s">
+        <v>523</v>
+      </c>
+      <c r="C275" t="s">
+        <v>524</v>
+      </c>
+      <c r="D275" t="s">
+        <v>525</v>
+      </c>
+      <c r="E275" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="B279" t="s">
+        <v>529</v>
+      </c>
+      <c r="C279" t="s">
+        <v>530</v>
+      </c>
+      <c r="D279" t="s">
+        <v>531</v>
+      </c>
+      <c r="E279" t="s">
+        <v>532</v>
       </c>
     </row>
   </sheetData>

--- a/riassuntoAutomatico.xlsx
+++ b/riassuntoAutomatico.xlsx
@@ -1594,10 +1594,10 @@
     <t>2018-02-20 00:00:00</t>
   </si>
   <si>
+    <t>Sterzing</t>
+  </si>
+  <si>
     <t>Pfitsch</t>
-  </si>
-  <si>
-    <t>Sterzing</t>
   </si>
   <si>
     <t>Bambini con annotazioni</t>
@@ -4709,7 +4709,7 @@
         <v>499</v>
       </c>
       <c r="E241" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
     </row>
     <row r="242" spans="2:5">
@@ -4723,7 +4723,7 @@
         <v>499</v>
       </c>
       <c r="E242" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
     </row>
     <row r="243" spans="2:5">
@@ -4779,7 +4779,7 @@
         <v>503</v>
       </c>
       <c r="E246" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="247" spans="2:5">
@@ -4821,7 +4821,7 @@
         <v>503</v>
       </c>
       <c r="E249" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="250" spans="2:5">
@@ -4891,7 +4891,7 @@
         <v>183</v>
       </c>
       <c r="E254" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
     </row>
     <row r="255" spans="2:5">
@@ -4905,7 +4905,7 @@
         <v>183</v>
       </c>
       <c r="E255" t="s">
-        <v>113</v>
+        <v>151</v>
       </c>
     </row>
     <row r="256" spans="2:5">
@@ -4947,7 +4947,7 @@
         <v>249</v>
       </c>
       <c r="E258" t="s">
-        <v>23</v>
+        <v>229</v>
       </c>
     </row>
     <row r="259" spans="2:5">
@@ -4961,7 +4961,7 @@
         <v>249</v>
       </c>
       <c r="E259" t="s">
-        <v>229</v>
+        <v>23</v>
       </c>
     </row>
     <row r="260" spans="2:5">
@@ -5031,7 +5031,7 @@
         <v>479</v>
       </c>
       <c r="E264" t="s">
-        <v>117</v>
+        <v>243</v>
       </c>
     </row>
     <row r="265" spans="2:5">
@@ -5045,7 +5045,7 @@
         <v>479</v>
       </c>
       <c r="E265" t="s">
-        <v>243</v>
+        <v>117</v>
       </c>
     </row>
     <row r="266" spans="2:5">

--- a/riassuntoAutomatico.xlsx
+++ b/riassuntoAutomatico.xlsx
@@ -14,20 +14,955 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="311">
   <si>
     <t>Riassunto analisi</t>
   </si>
   <si>
-    <t>Trovati errori per 0 bambini</t>
+    <t>Trovati errori per 82 bambini</t>
+  </si>
+  <si>
+    <t>Trovate 3 occorrenze per il controllo Controllo età bambino</t>
+  </si>
+  <si>
+    <t>Trovate 1 occorrenze per il controllo Controllo fine contratto assistenza</t>
+  </si>
+  <si>
+    <t>Trovate 23 occorrenze per il controllo Controllo Kindergarten #1</t>
+  </si>
+  <si>
+    <t>Trovate 24 occorrenze per il controllo Controllo Kindergarten #2</t>
+  </si>
+  <si>
+    <t>Trovate 1 occorrenze per il controllo Contratti lockdown sospetti (Covid #4)</t>
+  </si>
+  <si>
+    <t>Trovate 8 occorrenze per il controllo Controllo Fehler Eingewöhnung</t>
+  </si>
+  <si>
+    <t>Trovate 10 occorrenze per il controllo Controllo Fehler Eingewöhnung 543 Lockdown</t>
+  </si>
+  <si>
+    <t>Trovate 8 occorrenze per il controllo Controllo Fehler Eingewöhnung 543 Notbetreuung</t>
+  </si>
+  <si>
+    <t>Trovate 3 occorrenze per il controllo Controllo ore complessive periodo contrattuale</t>
+  </si>
+  <si>
+    <t>Trovate 2 occorrenze per il controllo Controllo ore complessive superiore a 1920</t>
+  </si>
+  <si>
+    <t>Trovate 26 occorrenze per il controllo Bambino presente in più comuni</t>
+  </si>
+  <si>
+    <t>Trovate 16 occorrenze per il controllo Bambini con annotazioni</t>
+  </si>
+  <si>
+    <t>Controllo età bambino</t>
+  </si>
+  <si>
+    <t>FRAU AARON</t>
+  </si>
+  <si>
+    <t>FRARNA18L05A952U</t>
+  </si>
+  <si>
+    <t>2018-07-05 00:00:00</t>
+  </si>
+  <si>
+    <t>Eppan a.d. Weinstr.</t>
+  </si>
+  <si>
+    <t>KOESSLER JOHAN</t>
+  </si>
+  <si>
+    <t>KSSJHN19A02A952N</t>
+  </si>
+  <si>
+    <t>2019-01-02 00:00:00</t>
+  </si>
+  <si>
+    <t>THALER YLENIA</t>
+  </si>
+  <si>
+    <t>THLYLN17P42F132U</t>
+  </si>
+  <si>
+    <t>2017-09-02 00:00:00</t>
+  </si>
+  <si>
+    <t>St.Pankraz</t>
+  </si>
+  <si>
+    <t>Controllo fine contratto assistenza</t>
+  </si>
+  <si>
+    <t>CABULA LEONARDO</t>
+  </si>
+  <si>
+    <t>CBLLRD17L24A952H</t>
+  </si>
+  <si>
+    <t>2017-07-24 00:00:00</t>
+  </si>
+  <si>
+    <t>Branzoll</t>
+  </si>
+  <si>
+    <t>Controllo Kindergarten #1</t>
+  </si>
+  <si>
+    <t>ALBRECHT LEO</t>
+  </si>
+  <si>
+    <t>LBRLEO16R07A952F</t>
+  </si>
+  <si>
+    <t>2016-10-07 00:00:00</t>
+  </si>
+  <si>
+    <t>Bozen</t>
+  </si>
+  <si>
+    <t>ALBRECHT LEO /</t>
+  </si>
+  <si>
+    <t>ANDRIGO THOMAS</t>
+  </si>
+  <si>
+    <t>NDRTMS17B06A952J</t>
+  </si>
+  <si>
+    <t>2017-02-06 00:00:00</t>
+  </si>
+  <si>
+    <t>BERTI RAPHAEL</t>
+  </si>
+  <si>
+    <t>BRTRHL17A07A952C</t>
+  </si>
+  <si>
+    <t>2017-01-07 00:00:00</t>
+  </si>
+  <si>
+    <t>DE ZORDO LISA MARIE</t>
+  </si>
+  <si>
+    <t>DZRLMR17B64A952J</t>
+  </si>
+  <si>
+    <t>2017-02-24 00:00:00</t>
+  </si>
+  <si>
+    <t>Lana</t>
+  </si>
+  <si>
+    <t>ERB VIKTORIA</t>
+  </si>
+  <si>
+    <t>RBEVTR17B43F132X</t>
+  </si>
+  <si>
+    <t>2017-02-03 00:00:00</t>
+  </si>
+  <si>
+    <t>FABI MARIE (TM)</t>
+  </si>
+  <si>
+    <t>FBAMRA16T60F132X</t>
+  </si>
+  <si>
+    <t>2016-12-20 00:00:00</t>
+  </si>
+  <si>
+    <t>FILIPPIN ETTORE</t>
+  </si>
+  <si>
+    <t>FLPTTR16R13A952A</t>
+  </si>
+  <si>
+    <t>2016-10-13 00:00:00</t>
+  </si>
+  <si>
+    <t>FILO JAKOB</t>
+  </si>
+  <si>
+    <t>FLIJKB17A26B160K</t>
+  </si>
+  <si>
+    <t>2017-01-26 00:00:00</t>
+  </si>
+  <si>
+    <t>Natz-Schabs</t>
+  </si>
+  <si>
+    <t>GALANTIN ILVY MARIE</t>
+  </si>
+  <si>
+    <t>GLNLYM17A59F132K</t>
+  </si>
+  <si>
+    <t>2017-01-19 00:00:00</t>
+  </si>
+  <si>
+    <t>GASSER LARA</t>
+  </si>
+  <si>
+    <t>GSSLRA17B48F132D</t>
+  </si>
+  <si>
+    <t>2017-02-08 00:00:00</t>
+  </si>
+  <si>
+    <t>GRAUS DAVID</t>
+  </si>
+  <si>
+    <t>GRSDVD17B16B160N</t>
+  </si>
+  <si>
+    <t>2017-02-16 00:00:00</t>
+  </si>
+  <si>
+    <t>Ratschings</t>
+  </si>
+  <si>
+    <t>GRUBER IDA</t>
+  </si>
+  <si>
+    <t>GRBDIA17A58I729E</t>
+  </si>
+  <si>
+    <t>2017-01-18 00:00:00</t>
+  </si>
+  <si>
+    <t>Prad am Stilfser Joch</t>
+  </si>
+  <si>
+    <t>HOFER MILENA DOLORES</t>
+  </si>
+  <si>
+    <t>HFRMND17B61F132N</t>
+  </si>
+  <si>
+    <t>2017-02-21 00:00:00</t>
+  </si>
+  <si>
+    <t>Ritten</t>
+  </si>
+  <si>
+    <t>HOLZER LARISSA</t>
+  </si>
+  <si>
+    <t>HLZLSS16M51M067B</t>
+  </si>
+  <si>
+    <t>2016-08-11 00:00:00</t>
+  </si>
+  <si>
+    <t>Pfitsch</t>
+  </si>
+  <si>
+    <t>INNERHOFER JULIAN</t>
+  </si>
+  <si>
+    <t>NNRJLN17A17B220Y</t>
+  </si>
+  <si>
+    <t>2017-01-17 00:00:00</t>
+  </si>
+  <si>
+    <t>Terenten</t>
+  </si>
+  <si>
+    <t>INNERHOFER SOPHIA</t>
+  </si>
+  <si>
+    <t>NNRSPH17B64F132A</t>
+  </si>
+  <si>
+    <t>Meran</t>
+  </si>
+  <si>
+    <t>MADEDDU DAVIS</t>
+  </si>
+  <si>
+    <t>MDDDVS17A08A952N</t>
+  </si>
+  <si>
+    <t>2017-01-08 00:00:00</t>
+  </si>
+  <si>
+    <t>OBERFRANK LUIS</t>
+  </si>
+  <si>
+    <t>BRFLSU17A09B220H</t>
+  </si>
+  <si>
+    <t>2017-01-09 00:00:00</t>
+  </si>
+  <si>
+    <t>Rasen-Antholz</t>
+  </si>
+  <si>
+    <t>PREMSTALLER FELIX</t>
+  </si>
+  <si>
+    <t>PRMFLX17A13A952N</t>
+  </si>
+  <si>
+    <t>2017-01-13 00:00:00</t>
+  </si>
+  <si>
+    <t>STEINKASSERER ADRIAN</t>
+  </si>
+  <si>
+    <t>STNDRN17A18B220I</t>
+  </si>
+  <si>
+    <t>THOMASER NOEMI</t>
+  </si>
+  <si>
+    <t>THMNMO16T46B220C</t>
+  </si>
+  <si>
+    <t>2016-12-06 00:00:00</t>
+  </si>
+  <si>
+    <t>Niederdorf</t>
+  </si>
+  <si>
+    <t>TOLLOI MATTHAEUS</t>
+  </si>
+  <si>
+    <t>TLLMTH17B28B220V</t>
+  </si>
+  <si>
+    <t>2017-02-28 00:00:00</t>
+  </si>
+  <si>
+    <t>Bruneck</t>
+  </si>
+  <si>
+    <t>Controllo Kindergarten #2</t>
+  </si>
+  <si>
+    <t>ALBERTI VICKY</t>
+  </si>
+  <si>
+    <t>LBRVKY17S43B160U</t>
+  </si>
+  <si>
+    <t>2017-11-03 00:00:00</t>
+  </si>
+  <si>
+    <t>Brixen</t>
+  </si>
+  <si>
+    <t>BARBAGALLO GIADA</t>
+  </si>
+  <si>
+    <t>BRBGDI17L49A952B</t>
+  </si>
+  <si>
+    <t>2017-07-09 00:00:00</t>
+  </si>
+  <si>
+    <t>DAPUNT ZEILINGER MIRA</t>
+  </si>
+  <si>
+    <t>DPNMRI17D50Z102Q</t>
+  </si>
+  <si>
+    <t>2017-04-10 00:00:00</t>
+  </si>
+  <si>
+    <t>GAISER DARIA</t>
+  </si>
+  <si>
+    <t>GSRDRA17L61I729N</t>
+  </si>
+  <si>
+    <t>2017-07-21 00:00:00</t>
+  </si>
+  <si>
+    <t>Mals</t>
+  </si>
+  <si>
+    <t>HEISS ANTON</t>
+  </si>
+  <si>
+    <t>HSSNTN17T11B220O</t>
+  </si>
+  <si>
+    <t>2017-12-11 00:00:00</t>
+  </si>
+  <si>
+    <t>Pfalzen</t>
+  </si>
+  <si>
+    <t>HEISS MICHAEL</t>
+  </si>
+  <si>
+    <t>HSSMHL17T11B220O</t>
+  </si>
+  <si>
+    <t>HOFER EVA</t>
+  </si>
+  <si>
+    <t>HFRVEA17L50B160H</t>
+  </si>
+  <si>
+    <t>2017-07-10 00:00:00</t>
+  </si>
+  <si>
+    <t>HOFER HANNAH</t>
+  </si>
+  <si>
+    <t>HFRHNH17P65B160X</t>
+  </si>
+  <si>
+    <t>2017-09-25 00:00:00</t>
+  </si>
+  <si>
+    <t>Völs am Schlern</t>
+  </si>
+  <si>
+    <t>KAUFMANN SAMUEL</t>
+  </si>
+  <si>
+    <t>KFMSML17R13A952W</t>
+  </si>
+  <si>
+    <t>2017-10-13 00:00:00</t>
+  </si>
+  <si>
+    <t>Montan</t>
+  </si>
+  <si>
+    <t>KLOTZNER LAHNER ELIAS</t>
+  </si>
+  <si>
+    <t>KLTLSE17P14F132J</t>
+  </si>
+  <si>
+    <t>2017-09-14 00:00:00</t>
+  </si>
+  <si>
+    <t>LASTA VALENTIN</t>
+  </si>
+  <si>
+    <t>LSTVNT17E18B160K</t>
+  </si>
+  <si>
+    <t>2017-05-18 00:00:00</t>
+  </si>
+  <si>
+    <t>LOCHER LENI</t>
+  </si>
+  <si>
+    <t>LCHLNE17S63A952R</t>
+  </si>
+  <si>
+    <t>2017-11-23 00:00:00</t>
+  </si>
+  <si>
+    <t>Sarntal</t>
+  </si>
+  <si>
+    <t>MAIRHOFER MARIE</t>
+  </si>
+  <si>
+    <t>MRHMRA17R45F132N</t>
+  </si>
+  <si>
+    <t>2017-10-05 00:00:00</t>
+  </si>
+  <si>
+    <t>Tscherms</t>
+  </si>
+  <si>
+    <t>NITZ MIA</t>
+  </si>
+  <si>
+    <t>NTZMIA17R46B160F</t>
+  </si>
+  <si>
+    <t>2017-10-06 00:00:00</t>
+  </si>
+  <si>
+    <t>PARIS MARIE</t>
+  </si>
+  <si>
+    <t>PRSMRA17E53F132P</t>
+  </si>
+  <si>
+    <t>2017-05-13 00:00:00</t>
+  </si>
+  <si>
+    <t>RAGGI MATTIA</t>
+  </si>
+  <si>
+    <t>RGGMTT17E02B160Z</t>
+  </si>
+  <si>
+    <t>2017-05-02 00:00:00</t>
+  </si>
+  <si>
+    <t>RATSCHILLER ANTON LEO</t>
+  </si>
+  <si>
+    <t>RTSNNL17H25F132F</t>
+  </si>
+  <si>
+    <t>2017-06-25 00:00:00</t>
+  </si>
+  <si>
+    <t>SAILER SENI</t>
+  </si>
+  <si>
+    <t>SLRSNE17H23A952H</t>
+  </si>
+  <si>
+    <t>2017-06-23 00:00:00</t>
+  </si>
+  <si>
+    <t>STEINWANDTER ARTHUR</t>
+  </si>
+  <si>
+    <t>STNRHR17T17F132Y</t>
+  </si>
+  <si>
+    <t>2017-12-17 00:00:00</t>
+  </si>
+  <si>
+    <t>STEINWANDTER FELIX</t>
+  </si>
+  <si>
+    <t>STNFLX17T10B220L</t>
+  </si>
+  <si>
+    <t>2017-12-10 00:00:00</t>
+  </si>
+  <si>
+    <t>TERLETH LUKAS</t>
+  </si>
+  <si>
+    <t>TRLLKS17R26A952Z</t>
+  </si>
+  <si>
+    <t>2017-10-26 00:00:00</t>
+  </si>
+  <si>
+    <t>THALER DOMINIK</t>
+  </si>
+  <si>
+    <t>THLDNK17S13F132U</t>
+  </si>
+  <si>
+    <t>2017-11-13 00:00:00</t>
+  </si>
+  <si>
+    <t>Contratti lockdown sospetti (Covid #4)</t>
+  </si>
+  <si>
+    <t>SANTON PHILIPP</t>
+  </si>
+  <si>
+    <t>SNTPLP19A31B220R</t>
+  </si>
+  <si>
+    <t>2019-01-31 00:00:00</t>
+  </si>
+  <si>
+    <t>Controllo Fehler Eingewöhnung</t>
+  </si>
+  <si>
+    <t>BIASI PAUL</t>
+  </si>
+  <si>
+    <t>BSIPLA18R31A952C</t>
+  </si>
+  <si>
+    <t>2018-10-31 00:00:00</t>
+  </si>
+  <si>
+    <t>BURCHIA PINO</t>
+  </si>
+  <si>
+    <t>BRCPNI17R15B160Y</t>
+  </si>
+  <si>
+    <t>2017-10-15 00:00:00</t>
+  </si>
+  <si>
+    <t>DIETL JULIAN</t>
+  </si>
+  <si>
+    <t>DTLJLN19D08I729J</t>
+  </si>
+  <si>
+    <t>2019-04-08 00:00:00</t>
+  </si>
+  <si>
+    <t>Schlanders</t>
+  </si>
+  <si>
+    <t>FLARER THEO</t>
+  </si>
+  <si>
+    <t>FLRTHE18L11F132U</t>
+  </si>
+  <si>
+    <t>2018-07-11 00:00:00</t>
+  </si>
+  <si>
+    <t>Algund</t>
+  </si>
+  <si>
+    <t>MAIR FINN</t>
+  </si>
+  <si>
+    <t>MRAFNN19E01F132B</t>
+  </si>
+  <si>
+    <t>2019-05-01 00:00:00</t>
+  </si>
+  <si>
+    <t>Nals</t>
+  </si>
+  <si>
+    <t>PICHLER PAUL</t>
+  </si>
+  <si>
+    <t>PCHPLA19P05B220X</t>
+  </si>
+  <si>
+    <t>2019-09-05 00:00:00</t>
+  </si>
+  <si>
+    <t>St.Lorenzen</t>
+  </si>
+  <si>
+    <t>RIVELLI CASTILLO LOLA</t>
+  </si>
+  <si>
+    <t>RVLLLO17H42Z404I</t>
+  </si>
+  <si>
+    <t>2017-06-02 00:00:00</t>
+  </si>
+  <si>
+    <t>SIMONETTO GHELLER MATTEO</t>
+  </si>
+  <si>
+    <t>SMNMTT19E15A952W</t>
+  </si>
+  <si>
+    <t>2019-05-15 00:00:00</t>
+  </si>
+  <si>
+    <t>Controllo Fehler Eingewöhnung 543 Lockdown</t>
+  </si>
+  <si>
+    <t>HAFELE ELINA AURELIA</t>
+  </si>
+  <si>
+    <t>HFLLRL18A45I729A</t>
+  </si>
+  <si>
+    <t>2018-01-05 00:00:00</t>
+  </si>
+  <si>
+    <t>ZINGERLE MATHILDA</t>
+  </si>
+  <si>
+    <t>ZNGMHL19H64A952H</t>
+  </si>
+  <si>
+    <t>2019-06-24 00:00:00</t>
+  </si>
+  <si>
+    <t>Controllo Fehler Eingewöhnung 543 Notbetreuung</t>
+  </si>
+  <si>
+    <t>ALESSI CLOE</t>
+  </si>
+  <si>
+    <t>LSSCLO20C51F132E</t>
+  </si>
+  <si>
+    <t>2020-03-11 00:00:00</t>
+  </si>
+  <si>
+    <t>BOVA SOPHIE</t>
+  </si>
+  <si>
+    <t>BVOSPH19D55A952V</t>
+  </si>
+  <si>
+    <t>2019-04-15 00:00:00</t>
+  </si>
+  <si>
+    <t>GURNDIN LENA</t>
+  </si>
+  <si>
+    <t>GRNLNE18L44F132V</t>
+  </si>
+  <si>
+    <t>2018-07-04 00:00:00</t>
+  </si>
+  <si>
+    <t>HOFER LEO *</t>
+  </si>
+  <si>
+    <t>HFRLEO18C02B160M</t>
+  </si>
+  <si>
+    <t>2018-03-02 00:00:00</t>
+  </si>
+  <si>
+    <t>MIRANDOLA LENZ</t>
+  </si>
+  <si>
+    <t>MRNLNZ19C17F132A</t>
+  </si>
+  <si>
+    <t>2019-03-17 00:00:00</t>
+  </si>
+  <si>
+    <t>MOSER ELIAS</t>
+  </si>
+  <si>
+    <t>MSRLSE18M18B220W</t>
+  </si>
+  <si>
+    <t>2018-08-18 00:00:00</t>
+  </si>
+  <si>
+    <t>Welsberg</t>
+  </si>
+  <si>
+    <t>OCHSENREITER JAKOB</t>
+  </si>
+  <si>
+    <t>CHSJKB20M06A952B</t>
+  </si>
+  <si>
+    <t>2020-08-06 00:00:00</t>
+  </si>
+  <si>
+    <t>WIDMANN NIKLAS JAN</t>
+  </si>
+  <si>
+    <t>WDMNLS19C11F132C</t>
+  </si>
+  <si>
+    <t>2019-03-11 00:00:00</t>
+  </si>
+  <si>
+    <t>Controllo ore complessive periodo contrattuale</t>
+  </si>
+  <si>
+    <t>TRATTER JOHANNES</t>
+  </si>
+  <si>
+    <t>TRTJNN18M26B160I</t>
+  </si>
+  <si>
+    <t>2018-08-26 00:00:00</t>
+  </si>
+  <si>
+    <t>Freienfeld</t>
+  </si>
+  <si>
+    <t>TRATTER JOHANNES /</t>
+  </si>
+  <si>
+    <t>Sterzing</t>
+  </si>
+  <si>
+    <t>TRATTER PIA</t>
+  </si>
+  <si>
+    <t>TRTPIA17H43B160S</t>
+  </si>
+  <si>
+    <t>2017-06-03 00:00:00</t>
+  </si>
+  <si>
+    <t>Controllo ore complessive superiore a 1920</t>
+  </si>
+  <si>
+    <t>Bambino presente in più comuni</t>
+  </si>
+  <si>
+    <t>BAUMGARTNER PAUL /</t>
+  </si>
+  <si>
+    <t>BMGPLA19P29A952I</t>
+  </si>
+  <si>
+    <t>2019-09-29 00:00:00</t>
+  </si>
+  <si>
+    <t>BAUMGARTNER PAUL //</t>
+  </si>
+  <si>
+    <t>BERTACCHE SAMUEL</t>
+  </si>
+  <si>
+    <t>BRTSML17P23A952Y</t>
+  </si>
+  <si>
+    <t>2017-09-23 00:00:00</t>
+  </si>
+  <si>
+    <t>Leifers</t>
+  </si>
+  <si>
+    <t>BREDENHOELLER LILLY SOPHIE</t>
+  </si>
+  <si>
+    <t>BRDLLY18M66F132T</t>
+  </si>
+  <si>
+    <t>BREDENHOELLER LILLY SOPHIE /</t>
+  </si>
+  <si>
+    <t>FILZ THIBAUD</t>
+  </si>
+  <si>
+    <t>FLZTBD17R22A952S</t>
+  </si>
+  <si>
+    <t>2017-10-22 00:00:00</t>
+  </si>
+  <si>
+    <t>FILZ THIBAUD /neu</t>
+  </si>
+  <si>
+    <t>HOCHKOFLER NADINE</t>
+  </si>
+  <si>
+    <t>HCHNDN17M53I729Y</t>
+  </si>
+  <si>
+    <t>2017-08-13 00:00:00</t>
+  </si>
+  <si>
+    <t>Plaus</t>
+  </si>
+  <si>
+    <t>Laas</t>
+  </si>
+  <si>
+    <t>KOFLER PAULI</t>
+  </si>
+  <si>
+    <t>KFLPLA19H24B220Y</t>
+  </si>
+  <si>
+    <t>Klausen</t>
+  </si>
+  <si>
+    <t>KOFLER PAULI /</t>
+  </si>
+  <si>
+    <t>MAIR FINN /</t>
+  </si>
+  <si>
+    <t>Gargazon</t>
+  </si>
+  <si>
+    <t>PLONER LEONIE</t>
+  </si>
+  <si>
+    <t>PLNLNE20D45A952Z</t>
+  </si>
+  <si>
+    <t>2020-04-05 00:00:00</t>
+  </si>
+  <si>
+    <t>PLONER LEONIE /</t>
+  </si>
+  <si>
+    <t>Mölten</t>
+  </si>
+  <si>
+    <t>PLONER MARIAN</t>
+  </si>
+  <si>
+    <t>PLNMRN18L26B160A</t>
+  </si>
+  <si>
+    <t>2018-07-26 00:00:00</t>
+  </si>
+  <si>
+    <t>PLONER MARIAN /</t>
+  </si>
+  <si>
+    <t>VILL LIAM</t>
+  </si>
+  <si>
+    <t>VLLLMI18E15I729L</t>
+  </si>
+  <si>
+    <t>2018-05-15 00:00:00</t>
+  </si>
+  <si>
+    <t>Bambini con annotazioni</t>
+  </si>
+  <si>
+    <t>FREI KATHARINA *</t>
+  </si>
+  <si>
+    <t>FREKHR19M65F132M</t>
+  </si>
+  <si>
+    <t>2019-08-25 00:00:00</t>
+  </si>
+  <si>
+    <t>KAUFMANN JONAS /</t>
+  </si>
+  <si>
+    <t>KFMJNS18S22F132I</t>
+  </si>
+  <si>
+    <t>2018-11-22 00:00:00</t>
+  </si>
+  <si>
+    <t>Schenna</t>
+  </si>
+  <si>
+    <t>STAUDER JOHANNA *</t>
+  </si>
+  <si>
+    <t>STDJNN18R71A952E</t>
+  </si>
+  <si>
+    <t>STEINER EMMA /</t>
+  </si>
+  <si>
+    <t>STNMME18C48B220A</t>
+  </si>
+  <si>
+    <t>2018-03-08 00:00:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -55,8 +990,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -351,7 +1287,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:E178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -367,6 +1303,1876 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" t="s">
+        <v>62</v>
+      </c>
+      <c r="E40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" t="s">
+        <v>68</v>
+      </c>
+      <c r="E42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D43" t="s">
+        <v>72</v>
+      </c>
+      <c r="E43" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44" t="s">
+        <v>76</v>
+      </c>
+      <c r="E44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45" t="s">
+        <v>80</v>
+      </c>
+      <c r="E45" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" t="s">
+        <v>83</v>
+      </c>
+      <c r="D46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E46" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" t="s">
+        <v>87</v>
+      </c>
+      <c r="D47" t="s">
+        <v>45</v>
+      </c>
+      <c r="E47" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48" t="s">
+        <v>91</v>
+      </c>
+      <c r="E48" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="B49" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49" t="s">
+        <v>93</v>
+      </c>
+      <c r="D49" t="s">
+        <v>94</v>
+      </c>
+      <c r="E49" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="B50" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" t="s">
+        <v>97</v>
+      </c>
+      <c r="D50" t="s">
+        <v>98</v>
+      </c>
+      <c r="E50" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="B51" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" t="s">
+        <v>100</v>
+      </c>
+      <c r="D51" t="s">
+        <v>72</v>
+      </c>
+      <c r="E51" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="B52" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" t="s">
+        <v>102</v>
+      </c>
+      <c r="D52" t="s">
+        <v>103</v>
+      </c>
+      <c r="E52" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="B53" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" t="s">
+        <v>106</v>
+      </c>
+      <c r="D53" t="s">
+        <v>107</v>
+      </c>
+      <c r="E53" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="B57" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" t="s">
+        <v>111</v>
+      </c>
+      <c r="D57" t="s">
+        <v>112</v>
+      </c>
+      <c r="E57" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="B58" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" t="s">
+        <v>115</v>
+      </c>
+      <c r="D58" t="s">
+        <v>116</v>
+      </c>
+      <c r="E58" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="B59" t="s">
+        <v>27</v>
+      </c>
+      <c r="C59" t="s">
+        <v>28</v>
+      </c>
+      <c r="D59" t="s">
+        <v>29</v>
+      </c>
+      <c r="E59" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="B60" t="s">
+        <v>117</v>
+      </c>
+      <c r="C60" t="s">
+        <v>118</v>
+      </c>
+      <c r="D60" t="s">
+        <v>119</v>
+      </c>
+      <c r="E60" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="B61" t="s">
+        <v>120</v>
+      </c>
+      <c r="C61" t="s">
+        <v>121</v>
+      </c>
+      <c r="D61" t="s">
+        <v>122</v>
+      </c>
+      <c r="E61" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="B62" t="s">
+        <v>124</v>
+      </c>
+      <c r="C62" t="s">
+        <v>125</v>
+      </c>
+      <c r="D62" t="s">
+        <v>126</v>
+      </c>
+      <c r="E62" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="B63" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63" t="s">
+        <v>129</v>
+      </c>
+      <c r="D63" t="s">
+        <v>126</v>
+      </c>
+      <c r="E63" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="B64" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64" t="s">
+        <v>131</v>
+      </c>
+      <c r="D64" t="s">
+        <v>132</v>
+      </c>
+      <c r="E64" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5">
+      <c r="B65" t="s">
+        <v>133</v>
+      </c>
+      <c r="C65" t="s">
+        <v>134</v>
+      </c>
+      <c r="D65" t="s">
+        <v>135</v>
+      </c>
+      <c r="E65" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5">
+      <c r="B66" t="s">
+        <v>137</v>
+      </c>
+      <c r="C66" t="s">
+        <v>138</v>
+      </c>
+      <c r="D66" t="s">
+        <v>139</v>
+      </c>
+      <c r="E66" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5">
+      <c r="B67" t="s">
+        <v>141</v>
+      </c>
+      <c r="C67" t="s">
+        <v>142</v>
+      </c>
+      <c r="D67" t="s">
+        <v>143</v>
+      </c>
+      <c r="E67" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5">
+      <c r="B68" t="s">
+        <v>144</v>
+      </c>
+      <c r="C68" t="s">
+        <v>145</v>
+      </c>
+      <c r="D68" t="s">
+        <v>146</v>
+      </c>
+      <c r="E68" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5">
+      <c r="B69" t="s">
+        <v>147</v>
+      </c>
+      <c r="C69" t="s">
+        <v>148</v>
+      </c>
+      <c r="D69" t="s">
+        <v>149</v>
+      </c>
+      <c r="E69" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5">
+      <c r="B70" t="s">
+        <v>151</v>
+      </c>
+      <c r="C70" t="s">
+        <v>152</v>
+      </c>
+      <c r="D70" t="s">
+        <v>153</v>
+      </c>
+      <c r="E70" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5">
+      <c r="B71" t="s">
+        <v>151</v>
+      </c>
+      <c r="C71" t="s">
+        <v>152</v>
+      </c>
+      <c r="D71" t="s">
+        <v>153</v>
+      </c>
+      <c r="E71" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5">
+      <c r="B72" t="s">
+        <v>155</v>
+      </c>
+      <c r="C72" t="s">
+        <v>156</v>
+      </c>
+      <c r="D72" t="s">
+        <v>157</v>
+      </c>
+      <c r="E72" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5">
+      <c r="B73" t="s">
+        <v>158</v>
+      </c>
+      <c r="C73" t="s">
+        <v>159</v>
+      </c>
+      <c r="D73" t="s">
+        <v>160</v>
+      </c>
+      <c r="E73" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5">
+      <c r="B74" t="s">
+        <v>161</v>
+      </c>
+      <c r="C74" t="s">
+        <v>162</v>
+      </c>
+      <c r="D74" t="s">
+        <v>163</v>
+      </c>
+      <c r="E74" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5">
+      <c r="B75" t="s">
+        <v>164</v>
+      </c>
+      <c r="C75" t="s">
+        <v>165</v>
+      </c>
+      <c r="D75" t="s">
+        <v>166</v>
+      </c>
+      <c r="E75" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5">
+      <c r="B76" t="s">
+        <v>167</v>
+      </c>
+      <c r="C76" t="s">
+        <v>168</v>
+      </c>
+      <c r="D76" t="s">
+        <v>169</v>
+      </c>
+      <c r="E76" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5">
+      <c r="B77" t="s">
+        <v>170</v>
+      </c>
+      <c r="C77" t="s">
+        <v>171</v>
+      </c>
+      <c r="D77" t="s">
+        <v>172</v>
+      </c>
+      <c r="E77" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5">
+      <c r="B78" t="s">
+        <v>173</v>
+      </c>
+      <c r="C78" t="s">
+        <v>174</v>
+      </c>
+      <c r="D78" t="s">
+        <v>175</v>
+      </c>
+      <c r="E78" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5">
+      <c r="B79" t="s">
+        <v>176</v>
+      </c>
+      <c r="C79" t="s">
+        <v>177</v>
+      </c>
+      <c r="D79" t="s">
+        <v>178</v>
+      </c>
+      <c r="E79" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5">
+      <c r="B80" t="s">
+        <v>179</v>
+      </c>
+      <c r="C80" t="s">
+        <v>180</v>
+      </c>
+      <c r="D80" t="s">
+        <v>181</v>
+      </c>
+      <c r="E80" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="B84" t="s">
+        <v>183</v>
+      </c>
+      <c r="C84" t="s">
+        <v>184</v>
+      </c>
+      <c r="D84" t="s">
+        <v>185</v>
+      </c>
+      <c r="E84" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="B88" t="s">
+        <v>187</v>
+      </c>
+      <c r="C88" t="s">
+        <v>188</v>
+      </c>
+      <c r="D88" t="s">
+        <v>189</v>
+      </c>
+      <c r="E88" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="B89" t="s">
+        <v>190</v>
+      </c>
+      <c r="C89" t="s">
+        <v>191</v>
+      </c>
+      <c r="D89" t="s">
+        <v>192</v>
+      </c>
+      <c r="E89" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="B90" t="s">
+        <v>193</v>
+      </c>
+      <c r="C90" t="s">
+        <v>194</v>
+      </c>
+      <c r="D90" t="s">
+        <v>195</v>
+      </c>
+      <c r="E90" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="B91" t="s">
+        <v>197</v>
+      </c>
+      <c r="C91" t="s">
+        <v>198</v>
+      </c>
+      <c r="D91" t="s">
+        <v>199</v>
+      </c>
+      <c r="E91" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="B92" t="s">
+        <v>201</v>
+      </c>
+      <c r="C92" t="s">
+        <v>202</v>
+      </c>
+      <c r="D92" t="s">
+        <v>203</v>
+      </c>
+      <c r="E92" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="B93" t="s">
+        <v>205</v>
+      </c>
+      <c r="C93" t="s">
+        <v>206</v>
+      </c>
+      <c r="D93" t="s">
+        <v>207</v>
+      </c>
+      <c r="E93" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="B94" t="s">
+        <v>209</v>
+      </c>
+      <c r="C94" t="s">
+        <v>210</v>
+      </c>
+      <c r="D94" t="s">
+        <v>211</v>
+      </c>
+      <c r="E94" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="B95" t="s">
+        <v>212</v>
+      </c>
+      <c r="C95" t="s">
+        <v>213</v>
+      </c>
+      <c r="D95" t="s">
+        <v>214</v>
+      </c>
+      <c r="E95" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="B99" t="s">
+        <v>187</v>
+      </c>
+      <c r="C99" t="s">
+        <v>188</v>
+      </c>
+      <c r="D99" t="s">
+        <v>189</v>
+      </c>
+      <c r="E99" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="B100" t="s">
+        <v>190</v>
+      </c>
+      <c r="C100" t="s">
+        <v>191</v>
+      </c>
+      <c r="D100" t="s">
+        <v>192</v>
+      </c>
+      <c r="E100" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="B101" t="s">
+        <v>193</v>
+      </c>
+      <c r="C101" t="s">
+        <v>194</v>
+      </c>
+      <c r="D101" t="s">
+        <v>195</v>
+      </c>
+      <c r="E101" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="B102" t="s">
+        <v>197</v>
+      </c>
+      <c r="C102" t="s">
+        <v>198</v>
+      </c>
+      <c r="D102" t="s">
+        <v>199</v>
+      </c>
+      <c r="E102" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="B103" t="s">
+        <v>216</v>
+      </c>
+      <c r="C103" t="s">
+        <v>217</v>
+      </c>
+      <c r="D103" t="s">
+        <v>218</v>
+      </c>
+      <c r="E103" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="B104" t="s">
+        <v>201</v>
+      </c>
+      <c r="C104" t="s">
+        <v>202</v>
+      </c>
+      <c r="D104" t="s">
+        <v>203</v>
+      </c>
+      <c r="E104" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="B105" t="s">
+        <v>205</v>
+      </c>
+      <c r="C105" t="s">
+        <v>206</v>
+      </c>
+      <c r="D105" t="s">
+        <v>207</v>
+      </c>
+      <c r="E105" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="B106" t="s">
+        <v>209</v>
+      </c>
+      <c r="C106" t="s">
+        <v>210</v>
+      </c>
+      <c r="D106" t="s">
+        <v>211</v>
+      </c>
+      <c r="E106" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="B107" t="s">
+        <v>212</v>
+      </c>
+      <c r="C107" t="s">
+        <v>213</v>
+      </c>
+      <c r="D107" t="s">
+        <v>214</v>
+      </c>
+      <c r="E107" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="B108" t="s">
+        <v>219</v>
+      </c>
+      <c r="C108" t="s">
+        <v>220</v>
+      </c>
+      <c r="D108" t="s">
+        <v>221</v>
+      </c>
+      <c r="E108" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="B112" t="s">
+        <v>223</v>
+      </c>
+      <c r="C112" t="s">
+        <v>224</v>
+      </c>
+      <c r="D112" t="s">
+        <v>225</v>
+      </c>
+      <c r="E112" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="B113" t="s">
+        <v>226</v>
+      </c>
+      <c r="C113" t="s">
+        <v>227</v>
+      </c>
+      <c r="D113" t="s">
+        <v>228</v>
+      </c>
+      <c r="E113" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="B114" t="s">
+        <v>229</v>
+      </c>
+      <c r="C114" t="s">
+        <v>230</v>
+      </c>
+      <c r="D114" t="s">
+        <v>231</v>
+      </c>
+      <c r="E114" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="B115" t="s">
+        <v>232</v>
+      </c>
+      <c r="C115" t="s">
+        <v>233</v>
+      </c>
+      <c r="D115" t="s">
+        <v>234</v>
+      </c>
+      <c r="E115" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="B116" t="s">
+        <v>235</v>
+      </c>
+      <c r="C116" t="s">
+        <v>236</v>
+      </c>
+      <c r="D116" t="s">
+        <v>237</v>
+      </c>
+      <c r="E116" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="B117" t="s">
+        <v>238</v>
+      </c>
+      <c r="C117" t="s">
+        <v>239</v>
+      </c>
+      <c r="D117" t="s">
+        <v>240</v>
+      </c>
+      <c r="E117" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="B118" t="s">
+        <v>242</v>
+      </c>
+      <c r="C118" t="s">
+        <v>243</v>
+      </c>
+      <c r="D118" t="s">
+        <v>244</v>
+      </c>
+      <c r="E118" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="B119" t="s">
+        <v>245</v>
+      </c>
+      <c r="C119" t="s">
+        <v>246</v>
+      </c>
+      <c r="D119" t="s">
+        <v>247</v>
+      </c>
+      <c r="E119" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="B123" t="s">
+        <v>249</v>
+      </c>
+      <c r="C123" t="s">
+        <v>250</v>
+      </c>
+      <c r="D123" t="s">
+        <v>251</v>
+      </c>
+      <c r="E123" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="B124" t="s">
+        <v>253</v>
+      </c>
+      <c r="C124" t="s">
+        <v>250</v>
+      </c>
+      <c r="D124" t="s">
+        <v>251</v>
+      </c>
+      <c r="E124" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="B125" t="s">
+        <v>255</v>
+      </c>
+      <c r="C125" t="s">
+        <v>256</v>
+      </c>
+      <c r="D125" t="s">
+        <v>257</v>
+      </c>
+      <c r="E125" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="B129" t="s">
+        <v>249</v>
+      </c>
+      <c r="C129" t="s">
+        <v>250</v>
+      </c>
+      <c r="D129" t="s">
+        <v>251</v>
+      </c>
+      <c r="E129" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="B130" t="s">
+        <v>253</v>
+      </c>
+      <c r="C130" t="s">
+        <v>250</v>
+      </c>
+      <c r="D130" t="s">
+        <v>251</v>
+      </c>
+      <c r="E130" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="B134" t="s">
+        <v>260</v>
+      </c>
+      <c r="C134" t="s">
+        <v>261</v>
+      </c>
+      <c r="D134" t="s">
+        <v>262</v>
+      </c>
+      <c r="E134" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="B135" t="s">
+        <v>263</v>
+      </c>
+      <c r="C135" t="s">
+        <v>261</v>
+      </c>
+      <c r="D135" t="s">
+        <v>262</v>
+      </c>
+      <c r="E135" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="B136" t="s">
+        <v>264</v>
+      </c>
+      <c r="C136" t="s">
+        <v>265</v>
+      </c>
+      <c r="D136" t="s">
+        <v>266</v>
+      </c>
+      <c r="E136" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="B137" t="s">
+        <v>264</v>
+      </c>
+      <c r="C137" t="s">
+        <v>265</v>
+      </c>
+      <c r="D137" t="s">
+        <v>266</v>
+      </c>
+      <c r="E137" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="B138" t="s">
+        <v>268</v>
+      </c>
+      <c r="C138" t="s">
+        <v>269</v>
+      </c>
+      <c r="D138" t="s">
+        <v>251</v>
+      </c>
+      <c r="E138" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="B139" t="s">
+        <v>270</v>
+      </c>
+      <c r="C139" t="s">
+        <v>269</v>
+      </c>
+      <c r="D139" t="s">
+        <v>251</v>
+      </c>
+      <c r="E139" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="B140" t="s">
+        <v>27</v>
+      </c>
+      <c r="C140" t="s">
+        <v>28</v>
+      </c>
+      <c r="D140" t="s">
+        <v>29</v>
+      </c>
+      <c r="E140" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="B141" t="s">
+        <v>27</v>
+      </c>
+      <c r="C141" t="s">
+        <v>28</v>
+      </c>
+      <c r="D141" t="s">
+        <v>29</v>
+      </c>
+      <c r="E141" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="B142" t="s">
+        <v>271</v>
+      </c>
+      <c r="C142" t="s">
+        <v>272</v>
+      </c>
+      <c r="D142" t="s">
+        <v>273</v>
+      </c>
+      <c r="E142" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="B143" t="s">
+        <v>274</v>
+      </c>
+      <c r="C143" t="s">
+        <v>272</v>
+      </c>
+      <c r="D143" t="s">
+        <v>273</v>
+      </c>
+      <c r="E143" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="B144" t="s">
+        <v>275</v>
+      </c>
+      <c r="C144" t="s">
+        <v>276</v>
+      </c>
+      <c r="D144" t="s">
+        <v>277</v>
+      </c>
+      <c r="E144" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5">
+      <c r="B145" t="s">
+        <v>275</v>
+      </c>
+      <c r="C145" t="s">
+        <v>276</v>
+      </c>
+      <c r="D145" t="s">
+        <v>277</v>
+      </c>
+      <c r="E145" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5">
+      <c r="B146" t="s">
+        <v>280</v>
+      </c>
+      <c r="C146" t="s">
+        <v>281</v>
+      </c>
+      <c r="D146" t="s">
+        <v>221</v>
+      </c>
+      <c r="E146" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5">
+      <c r="B147" t="s">
+        <v>283</v>
+      </c>
+      <c r="C147" t="s">
+        <v>281</v>
+      </c>
+      <c r="D147" t="s">
+        <v>221</v>
+      </c>
+      <c r="E147" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5">
+      <c r="B148" t="s">
+        <v>201</v>
+      </c>
+      <c r="C148" t="s">
+        <v>202</v>
+      </c>
+      <c r="D148" t="s">
+        <v>203</v>
+      </c>
+      <c r="E148" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5">
+      <c r="B149" t="s">
+        <v>284</v>
+      </c>
+      <c r="C149" t="s">
+        <v>202</v>
+      </c>
+      <c r="D149" t="s">
+        <v>203</v>
+      </c>
+      <c r="E149" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5">
+      <c r="B150" t="s">
+        <v>151</v>
+      </c>
+      <c r="C150" t="s">
+        <v>152</v>
+      </c>
+      <c r="D150" t="s">
+        <v>153</v>
+      </c>
+      <c r="E150" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5">
+      <c r="B151" t="s">
+        <v>151</v>
+      </c>
+      <c r="C151" t="s">
+        <v>152</v>
+      </c>
+      <c r="D151" t="s">
+        <v>153</v>
+      </c>
+      <c r="E151" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5">
+      <c r="B152" t="s">
+        <v>286</v>
+      </c>
+      <c r="C152" t="s">
+        <v>287</v>
+      </c>
+      <c r="D152" t="s">
+        <v>288</v>
+      </c>
+      <c r="E152" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5">
+      <c r="B153" t="s">
+        <v>289</v>
+      </c>
+      <c r="C153" t="s">
+        <v>287</v>
+      </c>
+      <c r="D153" t="s">
+        <v>288</v>
+      </c>
+      <c r="E153" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5">
+      <c r="B154" t="s">
+        <v>291</v>
+      </c>
+      <c r="C154" t="s">
+        <v>292</v>
+      </c>
+      <c r="D154" t="s">
+        <v>293</v>
+      </c>
+      <c r="E154" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5">
+      <c r="B155" t="s">
+        <v>294</v>
+      </c>
+      <c r="C155" t="s">
+        <v>292</v>
+      </c>
+      <c r="D155" t="s">
+        <v>293</v>
+      </c>
+      <c r="E155" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="156" spans="2:5">
+      <c r="B156" t="s">
+        <v>249</v>
+      </c>
+      <c r="C156" t="s">
+        <v>250</v>
+      </c>
+      <c r="D156" t="s">
+        <v>251</v>
+      </c>
+      <c r="E156" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5">
+      <c r="B157" t="s">
+        <v>253</v>
+      </c>
+      <c r="C157" t="s">
+        <v>250</v>
+      </c>
+      <c r="D157" t="s">
+        <v>251</v>
+      </c>
+      <c r="E157" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5">
+      <c r="B158" t="s">
+        <v>295</v>
+      </c>
+      <c r="C158" t="s">
+        <v>296</v>
+      </c>
+      <c r="D158" t="s">
+        <v>297</v>
+      </c>
+      <c r="E158" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="159" spans="2:5">
+      <c r="B159" t="s">
+        <v>295</v>
+      </c>
+      <c r="C159" t="s">
+        <v>296</v>
+      </c>
+      <c r="D159" t="s">
+        <v>297</v>
+      </c>
+      <c r="E159" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="B163" t="s">
+        <v>36</v>
+      </c>
+      <c r="C163" t="s">
+        <v>33</v>
+      </c>
+      <c r="D163" t="s">
+        <v>34</v>
+      </c>
+      <c r="E163" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="B164" t="s">
+        <v>260</v>
+      </c>
+      <c r="C164" t="s">
+        <v>261</v>
+      </c>
+      <c r="D164" t="s">
+        <v>262</v>
+      </c>
+      <c r="E164" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="B165" t="s">
+        <v>263</v>
+      </c>
+      <c r="C165" t="s">
+        <v>261</v>
+      </c>
+      <c r="D165" t="s">
+        <v>262</v>
+      </c>
+      <c r="E165" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="B166" t="s">
+        <v>270</v>
+      </c>
+      <c r="C166" t="s">
+        <v>269</v>
+      </c>
+      <c r="D166" t="s">
+        <v>251</v>
+      </c>
+      <c r="E166" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="B167" t="s">
+        <v>50</v>
+      </c>
+      <c r="C167" t="s">
+        <v>51</v>
+      </c>
+      <c r="D167" t="s">
+        <v>52</v>
+      </c>
+      <c r="E167" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="B168" t="s">
+        <v>274</v>
+      </c>
+      <c r="C168" t="s">
+        <v>272</v>
+      </c>
+      <c r="D168" t="s">
+        <v>273</v>
+      </c>
+      <c r="E168" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="B169" t="s">
+        <v>299</v>
+      </c>
+      <c r="C169" t="s">
+        <v>300</v>
+      </c>
+      <c r="D169" t="s">
+        <v>301</v>
+      </c>
+      <c r="E169" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="B170" t="s">
+        <v>232</v>
+      </c>
+      <c r="C170" t="s">
+        <v>233</v>
+      </c>
+      <c r="D170" t="s">
+        <v>234</v>
+      </c>
+      <c r="E170" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="B171" t="s">
+        <v>302</v>
+      </c>
+      <c r="C171" t="s">
+        <v>303</v>
+      </c>
+      <c r="D171" t="s">
+        <v>304</v>
+      </c>
+      <c r="E171" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="B172" t="s">
+        <v>283</v>
+      </c>
+      <c r="C172" t="s">
+        <v>281</v>
+      </c>
+      <c r="D172" t="s">
+        <v>221</v>
+      </c>
+      <c r="E172" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="B173" t="s">
+        <v>284</v>
+      </c>
+      <c r="C173" t="s">
+        <v>202</v>
+      </c>
+      <c r="D173" t="s">
+        <v>203</v>
+      </c>
+      <c r="E173" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="B174" t="s">
+        <v>289</v>
+      </c>
+      <c r="C174" t="s">
+        <v>287</v>
+      </c>
+      <c r="D174" t="s">
+        <v>288</v>
+      </c>
+      <c r="E174" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="B175" t="s">
+        <v>294</v>
+      </c>
+      <c r="C175" t="s">
+        <v>292</v>
+      </c>
+      <c r="D175" t="s">
+        <v>293</v>
+      </c>
+      <c r="E175" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="B176" t="s">
+        <v>306</v>
+      </c>
+      <c r="C176" t="s">
+        <v>307</v>
+      </c>
+      <c r="D176" t="s">
+        <v>189</v>
+      </c>
+      <c r="E176" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="177" spans="2:5">
+      <c r="B177" t="s">
+        <v>308</v>
+      </c>
+      <c r="C177" t="s">
+        <v>309</v>
+      </c>
+      <c r="D177" t="s">
+        <v>310</v>
+      </c>
+      <c r="E177" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="178" spans="2:5">
+      <c r="B178" t="s">
+        <v>253</v>
+      </c>
+      <c r="C178" t="s">
+        <v>250</v>
+      </c>
+      <c r="D178" t="s">
+        <v>251</v>
+      </c>
+      <c r="E178" t="s">
+        <v>254</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/riassuntoAutomatico.xlsx
+++ b/riassuntoAutomatico.xlsx
@@ -850,10 +850,10 @@
     <t>2017-08-13 00:00:00</t>
   </si>
   <si>
+    <t>Laas</t>
+  </si>
+  <si>
     <t>Plaus</t>
-  </si>
-  <si>
-    <t>Laas</t>
   </si>
   <si>
     <t>KOFLER PAULI</t>
@@ -1954,7 +1954,7 @@
         <v>153</v>
       </c>
       <c r="E70" t="s">
-        <v>46</v>
+        <v>154</v>
       </c>
     </row>
     <row r="71" spans="2:5">
@@ -1968,7 +1968,7 @@
         <v>153</v>
       </c>
       <c r="E71" t="s">
-        <v>154</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72" spans="2:5">
@@ -2619,7 +2619,7 @@
         <v>266</v>
       </c>
       <c r="E136" t="s">
-        <v>267</v>
+        <v>35</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2633,7 +2633,7 @@
         <v>266</v>
       </c>
       <c r="E137" t="s">
-        <v>35</v>
+        <v>267</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2675,7 +2675,7 @@
         <v>29</v>
       </c>
       <c r="E140" t="s">
-        <v>267</v>
+        <v>30</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2689,7 +2689,7 @@
         <v>29</v>
       </c>
       <c r="E141" t="s">
-        <v>30</v>
+        <v>267</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2815,7 +2815,7 @@
         <v>153</v>
       </c>
       <c r="E150" t="s">
-        <v>46</v>
+        <v>154</v>
       </c>
     </row>
     <row r="151" spans="2:5">
@@ -2829,7 +2829,7 @@
         <v>153</v>
       </c>
       <c r="E151" t="s">
-        <v>154</v>
+        <v>46</v>
       </c>
     </row>
     <row r="152" spans="2:5">
@@ -2927,7 +2927,7 @@
         <v>297</v>
       </c>
       <c r="E158" t="s">
-        <v>123</v>
+        <v>196</v>
       </c>
     </row>
     <row r="159" spans="2:5">
@@ -2941,7 +2941,7 @@
         <v>297</v>
       </c>
       <c r="E159" t="s">
-        <v>196</v>
+        <v>123</v>
       </c>
     </row>
     <row r="161" spans="1:5">

--- a/riassuntoAutomatico.xlsx
+++ b/riassuntoAutomatico.xlsx
@@ -14,20 +14,940 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="306">
   <si>
     <t>Riassunto analisi</t>
   </si>
   <si>
-    <t>Trovati errori per 0 bambini</t>
+    <t>Trovati errori per 81 bambini</t>
+  </si>
+  <si>
+    <t>Trovate 3 occorrenze per il controllo Controllo età bambino</t>
+  </si>
+  <si>
+    <t>Trovate 1 occorrenze per il controllo Controllo fine contratto assistenza</t>
+  </si>
+  <si>
+    <t>Trovate 23 occorrenze per il controllo Controllo Kindergarten #1</t>
+  </si>
+  <si>
+    <t>Trovate 24 occorrenze per il controllo Controllo Kindergarten #2</t>
+  </si>
+  <si>
+    <t>Trovate 8 occorrenze per il controllo Controllo Fehler Eingewöhnung</t>
+  </si>
+  <si>
+    <t>Trovate 10 occorrenze per il controllo Controllo Fehler Eingewöhnung 543 Lockdown</t>
+  </si>
+  <si>
+    <t>Trovate 8 occorrenze per il controllo Controllo Fehler Eingewöhnung 543 Notbetreuung</t>
+  </si>
+  <si>
+    <t>Trovate 3 occorrenze per il controllo Controllo ore complessive periodo contrattuale</t>
+  </si>
+  <si>
+    <t>Trovate 2 occorrenze per il controllo Controllo ore complessive superiore a 1920</t>
+  </si>
+  <si>
+    <t>Trovate 26 occorrenze per il controllo Bambino presente in più comuni</t>
+  </si>
+  <si>
+    <t>Trovate 16 occorrenze per il controllo Bambini con annotazioni</t>
+  </si>
+  <si>
+    <t>Controllo età bambino</t>
+  </si>
+  <si>
+    <t>FRAU AARON</t>
+  </si>
+  <si>
+    <t>FRARNA18L05A952U</t>
+  </si>
+  <si>
+    <t>2018-07-05 00:00:00</t>
+  </si>
+  <si>
+    <t>Eppan a.d. Weinstr.</t>
+  </si>
+  <si>
+    <t>KOESSLER JOHAN</t>
+  </si>
+  <si>
+    <t>KSSJHN19A02A952N</t>
+  </si>
+  <si>
+    <t>2019-01-02 00:00:00</t>
+  </si>
+  <si>
+    <t>THALER YLENIA</t>
+  </si>
+  <si>
+    <t>THLYLN17P42F132U</t>
+  </si>
+  <si>
+    <t>2017-09-02 00:00:00</t>
+  </si>
+  <si>
+    <t>St.Pankraz</t>
+  </si>
+  <si>
+    <t>Controllo fine contratto assistenza</t>
+  </si>
+  <si>
+    <t>CABULA LEONARDO</t>
+  </si>
+  <si>
+    <t>CBLLRD17L24A952H</t>
+  </si>
+  <si>
+    <t>2017-07-24 00:00:00</t>
+  </si>
+  <si>
+    <t>Branzoll</t>
+  </si>
+  <si>
+    <t>Controllo Kindergarten #1</t>
+  </si>
+  <si>
+    <t>ALBRECHT LEO</t>
+  </si>
+  <si>
+    <t>LBRLEO16R07A952F</t>
+  </si>
+  <si>
+    <t>2016-10-07 00:00:00</t>
+  </si>
+  <si>
+    <t>Bozen</t>
+  </si>
+  <si>
+    <t>ALBRECHT LEO /</t>
+  </si>
+  <si>
+    <t>ANDRIGO THOMAS</t>
+  </si>
+  <si>
+    <t>NDRTMS17B06A952J</t>
+  </si>
+  <si>
+    <t>2017-02-06 00:00:00</t>
+  </si>
+  <si>
+    <t>BERTI RAPHAEL</t>
+  </si>
+  <si>
+    <t>BRTRHL17A07A952C</t>
+  </si>
+  <si>
+    <t>2017-01-07 00:00:00</t>
+  </si>
+  <si>
+    <t>DE ZORDO LISA MARIE</t>
+  </si>
+  <si>
+    <t>DZRLMR17B64A952J</t>
+  </si>
+  <si>
+    <t>2017-02-24 00:00:00</t>
+  </si>
+  <si>
+    <t>Lana</t>
+  </si>
+  <si>
+    <t>ERB VIKTORIA</t>
+  </si>
+  <si>
+    <t>RBEVTR17B43F132X</t>
+  </si>
+  <si>
+    <t>2017-02-03 00:00:00</t>
+  </si>
+  <si>
+    <t>FABI MARIE (TM)</t>
+  </si>
+  <si>
+    <t>FBAMRA16T60F132X</t>
+  </si>
+  <si>
+    <t>2016-12-20 00:00:00</t>
+  </si>
+  <si>
+    <t>FILIPPIN ETTORE</t>
+  </si>
+  <si>
+    <t>FLPTTR16R13A952A</t>
+  </si>
+  <si>
+    <t>2016-10-13 00:00:00</t>
+  </si>
+  <si>
+    <t>FILO JAKOB</t>
+  </si>
+  <si>
+    <t>FLIJKB17A26B160K</t>
+  </si>
+  <si>
+    <t>2017-01-26 00:00:00</t>
+  </si>
+  <si>
+    <t>Natz-Schabs</t>
+  </si>
+  <si>
+    <t>GALANTIN ILVY MARIE</t>
+  </si>
+  <si>
+    <t>GLNLYM17A59F132K</t>
+  </si>
+  <si>
+    <t>2017-01-19 00:00:00</t>
+  </si>
+  <si>
+    <t>GASSER LARA</t>
+  </si>
+  <si>
+    <t>GSSLRA17B48F132D</t>
+  </si>
+  <si>
+    <t>2017-02-08 00:00:00</t>
+  </si>
+  <si>
+    <t>GRAUS DAVID</t>
+  </si>
+  <si>
+    <t>GRSDVD17B16B160N</t>
+  </si>
+  <si>
+    <t>2017-02-16 00:00:00</t>
+  </si>
+  <si>
+    <t>Ratschings</t>
+  </si>
+  <si>
+    <t>GRUBER IDA</t>
+  </si>
+  <si>
+    <t>GRBDIA17A58I729E</t>
+  </si>
+  <si>
+    <t>2017-01-18 00:00:00</t>
+  </si>
+  <si>
+    <t>Prad am Stilfser Joch</t>
+  </si>
+  <si>
+    <t>HOFER MILENA DOLORES</t>
+  </si>
+  <si>
+    <t>HFRMND17B61F132N</t>
+  </si>
+  <si>
+    <t>2017-02-21 00:00:00</t>
+  </si>
+  <si>
+    <t>Ritten</t>
+  </si>
+  <si>
+    <t>HOLZER LARISSA</t>
+  </si>
+  <si>
+    <t>HLZLSS16M51M067B</t>
+  </si>
+  <si>
+    <t>2016-08-11 00:00:00</t>
+  </si>
+  <si>
+    <t>Pfitsch</t>
+  </si>
+  <si>
+    <t>INNERHOFER JULIAN</t>
+  </si>
+  <si>
+    <t>NNRJLN17A17B220Y</t>
+  </si>
+  <si>
+    <t>2017-01-17 00:00:00</t>
+  </si>
+  <si>
+    <t>Terenten</t>
+  </si>
+  <si>
+    <t>INNERHOFER SOPHIA</t>
+  </si>
+  <si>
+    <t>NNRSPH17B64F132A</t>
+  </si>
+  <si>
+    <t>Meran</t>
+  </si>
+  <si>
+    <t>MADEDDU DAVIS</t>
+  </si>
+  <si>
+    <t>MDDDVS17A08A952N</t>
+  </si>
+  <si>
+    <t>2017-01-08 00:00:00</t>
+  </si>
+  <si>
+    <t>OBERFRANK LUIS</t>
+  </si>
+  <si>
+    <t>BRFLSU17A09B220H</t>
+  </si>
+  <si>
+    <t>2017-01-09 00:00:00</t>
+  </si>
+  <si>
+    <t>Rasen-Antholz</t>
+  </si>
+  <si>
+    <t>PREMSTALLER FELIX</t>
+  </si>
+  <si>
+    <t>PRMFLX17A13A952N</t>
+  </si>
+  <si>
+    <t>2017-01-13 00:00:00</t>
+  </si>
+  <si>
+    <t>STEINKASSERER ADRIAN</t>
+  </si>
+  <si>
+    <t>STNDRN17A18B220I</t>
+  </si>
+  <si>
+    <t>THOMASER NOEMI</t>
+  </si>
+  <si>
+    <t>THMNMO16T46B220C</t>
+  </si>
+  <si>
+    <t>2016-12-06 00:00:00</t>
+  </si>
+  <si>
+    <t>Niederdorf</t>
+  </si>
+  <si>
+    <t>TOLLOI MATTHAEUS</t>
+  </si>
+  <si>
+    <t>TLLMTH17B28B220V</t>
+  </si>
+  <si>
+    <t>2017-02-28 00:00:00</t>
+  </si>
+  <si>
+    <t>Bruneck</t>
+  </si>
+  <si>
+    <t>Controllo Kindergarten #2</t>
+  </si>
+  <si>
+    <t>ALBERTI VICKY</t>
+  </si>
+  <si>
+    <t>LBRVKY17S43B160U</t>
+  </si>
+  <si>
+    <t>2017-11-03 00:00:00</t>
+  </si>
+  <si>
+    <t>Brixen</t>
+  </si>
+  <si>
+    <t>BARBAGALLO GIADA</t>
+  </si>
+  <si>
+    <t>BRBGDI17L49A952B</t>
+  </si>
+  <si>
+    <t>2017-07-09 00:00:00</t>
+  </si>
+  <si>
+    <t>DAPUNT ZEILINGER MIRA</t>
+  </si>
+  <si>
+    <t>DPNMRI17D50Z102Q</t>
+  </si>
+  <si>
+    <t>2017-04-10 00:00:00</t>
+  </si>
+  <si>
+    <t>GAISER DARIA</t>
+  </si>
+  <si>
+    <t>GSRDRA17L61I729N</t>
+  </si>
+  <si>
+    <t>2017-07-21 00:00:00</t>
+  </si>
+  <si>
+    <t>Mals</t>
+  </si>
+  <si>
+    <t>HEISS ANTON</t>
+  </si>
+  <si>
+    <t>HSSNTN17T11B220O</t>
+  </si>
+  <si>
+    <t>2017-12-11 00:00:00</t>
+  </si>
+  <si>
+    <t>Pfalzen</t>
+  </si>
+  <si>
+    <t>HEISS MICHAEL</t>
+  </si>
+  <si>
+    <t>HSSMHL17T11B220O</t>
+  </si>
+  <si>
+    <t>HOFER EVA</t>
+  </si>
+  <si>
+    <t>HFRVEA17L50B160H</t>
+  </si>
+  <si>
+    <t>2017-07-10 00:00:00</t>
+  </si>
+  <si>
+    <t>HOFER HANNAH</t>
+  </si>
+  <si>
+    <t>HFRHNH17P65B160X</t>
+  </si>
+  <si>
+    <t>2017-09-25 00:00:00</t>
+  </si>
+  <si>
+    <t>Völs am Schlern</t>
+  </si>
+  <si>
+    <t>KAUFMANN SAMUEL</t>
+  </si>
+  <si>
+    <t>KFMSML17R13A952W</t>
+  </si>
+  <si>
+    <t>2017-10-13 00:00:00</t>
+  </si>
+  <si>
+    <t>Montan</t>
+  </si>
+  <si>
+    <t>KLOTZNER LAHNER ELIAS</t>
+  </si>
+  <si>
+    <t>KLTLSE17P14F132J</t>
+  </si>
+  <si>
+    <t>2017-09-14 00:00:00</t>
+  </si>
+  <si>
+    <t>LASTA VALENTIN</t>
+  </si>
+  <si>
+    <t>LSTVNT17E18B160K</t>
+  </si>
+  <si>
+    <t>2017-05-18 00:00:00</t>
+  </si>
+  <si>
+    <t>LOCHER LENI</t>
+  </si>
+  <si>
+    <t>LCHLNE17S63A952R</t>
+  </si>
+  <si>
+    <t>2017-11-23 00:00:00</t>
+  </si>
+  <si>
+    <t>Sarntal</t>
+  </si>
+  <si>
+    <t>MAIRHOFER MARIE</t>
+  </si>
+  <si>
+    <t>MRHMRA17R45F132N</t>
+  </si>
+  <si>
+    <t>2017-10-05 00:00:00</t>
+  </si>
+  <si>
+    <t>Tscherms</t>
+  </si>
+  <si>
+    <t>NITZ MIA</t>
+  </si>
+  <si>
+    <t>NTZMIA17R46B160F</t>
+  </si>
+  <si>
+    <t>2017-10-06 00:00:00</t>
+  </si>
+  <si>
+    <t>PARIS MARIE</t>
+  </si>
+  <si>
+    <t>PRSMRA17E53F132P</t>
+  </si>
+  <si>
+    <t>2017-05-13 00:00:00</t>
+  </si>
+  <si>
+    <t>RAGGI MATTIA</t>
+  </si>
+  <si>
+    <t>RGGMTT17E02B160Z</t>
+  </si>
+  <si>
+    <t>2017-05-02 00:00:00</t>
+  </si>
+  <si>
+    <t>RATSCHILLER ANTON LEO</t>
+  </si>
+  <si>
+    <t>RTSNNL17H25F132F</t>
+  </si>
+  <si>
+    <t>2017-06-25 00:00:00</t>
+  </si>
+  <si>
+    <t>SAILER SENI</t>
+  </si>
+  <si>
+    <t>SLRSNE17H23A952H</t>
+  </si>
+  <si>
+    <t>2017-06-23 00:00:00</t>
+  </si>
+  <si>
+    <t>STEINWANDTER ARTHUR</t>
+  </si>
+  <si>
+    <t>STNRHR17T17F132Y</t>
+  </si>
+  <si>
+    <t>2017-12-17 00:00:00</t>
+  </si>
+  <si>
+    <t>STEINWANDTER FELIX</t>
+  </si>
+  <si>
+    <t>STNFLX17T10B220L</t>
+  </si>
+  <si>
+    <t>2017-12-10 00:00:00</t>
+  </si>
+  <si>
+    <t>TERLETH LUKAS</t>
+  </si>
+  <si>
+    <t>TRLLKS17R26A952Z</t>
+  </si>
+  <si>
+    <t>2017-10-26 00:00:00</t>
+  </si>
+  <si>
+    <t>THALER DOMINIK</t>
+  </si>
+  <si>
+    <t>THLDNK17S13F132U</t>
+  </si>
+  <si>
+    <t>2017-11-13 00:00:00</t>
+  </si>
+  <si>
+    <t>Controllo Fehler Eingewöhnung</t>
+  </si>
+  <si>
+    <t>BIASI PAUL</t>
+  </si>
+  <si>
+    <t>BSIPLA18R31A952C</t>
+  </si>
+  <si>
+    <t>2018-10-31 00:00:00</t>
+  </si>
+  <si>
+    <t>BURCHIA PINO</t>
+  </si>
+  <si>
+    <t>BRCPNI17R15B160Y</t>
+  </si>
+  <si>
+    <t>2017-10-15 00:00:00</t>
+  </si>
+  <si>
+    <t>DIETL JULIAN</t>
+  </si>
+  <si>
+    <t>DTLJLN19D08I729J</t>
+  </si>
+  <si>
+    <t>2019-04-08 00:00:00</t>
+  </si>
+  <si>
+    <t>Schlanders</t>
+  </si>
+  <si>
+    <t>FLARER THEO</t>
+  </si>
+  <si>
+    <t>FLRTHE18L11F132U</t>
+  </si>
+  <si>
+    <t>2018-07-11 00:00:00</t>
+  </si>
+  <si>
+    <t>Algund</t>
+  </si>
+  <si>
+    <t>MAIR FINN</t>
+  </si>
+  <si>
+    <t>MRAFNN19E01F132B</t>
+  </si>
+  <si>
+    <t>2019-05-01 00:00:00</t>
+  </si>
+  <si>
+    <t>Nals</t>
+  </si>
+  <si>
+    <t>PICHLER PAUL</t>
+  </si>
+  <si>
+    <t>PCHPLA19P05B220X</t>
+  </si>
+  <si>
+    <t>2019-09-05 00:00:00</t>
+  </si>
+  <si>
+    <t>St.Lorenzen</t>
+  </si>
+  <si>
+    <t>RIVELLI CASTILLO LOLA</t>
+  </si>
+  <si>
+    <t>RVLLLO17H42Z404I</t>
+  </si>
+  <si>
+    <t>2017-06-02 00:00:00</t>
+  </si>
+  <si>
+    <t>SIMONETTO GHELLER MATTEO</t>
+  </si>
+  <si>
+    <t>SMNMTT19E15A952W</t>
+  </si>
+  <si>
+    <t>2019-05-15 00:00:00</t>
+  </si>
+  <si>
+    <t>Controllo Fehler Eingewöhnung 543 Lockdown</t>
+  </si>
+  <si>
+    <t>HAFELE ELINA AURELIA</t>
+  </si>
+  <si>
+    <t>HFLLRL18A45I729A</t>
+  </si>
+  <si>
+    <t>2018-01-05 00:00:00</t>
+  </si>
+  <si>
+    <t>ZINGERLE MATHILDA</t>
+  </si>
+  <si>
+    <t>ZNGMHL19H64A952H</t>
+  </si>
+  <si>
+    <t>2019-06-24 00:00:00</t>
+  </si>
+  <si>
+    <t>Controllo Fehler Eingewöhnung 543 Notbetreuung</t>
+  </si>
+  <si>
+    <t>ALESSI CLOE</t>
+  </si>
+  <si>
+    <t>LSSCLO20C51F132E</t>
+  </si>
+  <si>
+    <t>2020-03-11 00:00:00</t>
+  </si>
+  <si>
+    <t>BOVA SOPHIE</t>
+  </si>
+  <si>
+    <t>BVOSPH19D55A952V</t>
+  </si>
+  <si>
+    <t>2019-04-15 00:00:00</t>
+  </si>
+  <si>
+    <t>GURNDIN LENA</t>
+  </si>
+  <si>
+    <t>GRNLNE18L44F132V</t>
+  </si>
+  <si>
+    <t>2018-07-04 00:00:00</t>
+  </si>
+  <si>
+    <t>HOFER LEO *</t>
+  </si>
+  <si>
+    <t>HFRLEO18C02B160M</t>
+  </si>
+  <si>
+    <t>2018-03-02 00:00:00</t>
+  </si>
+  <si>
+    <t>MIRANDOLA LENZ</t>
+  </si>
+  <si>
+    <t>MRNLNZ19C17F132A</t>
+  </si>
+  <si>
+    <t>2019-03-17 00:00:00</t>
+  </si>
+  <si>
+    <t>MOSER ELIAS</t>
+  </si>
+  <si>
+    <t>MSRLSE18M18B220W</t>
+  </si>
+  <si>
+    <t>2018-08-18 00:00:00</t>
+  </si>
+  <si>
+    <t>Welsberg</t>
+  </si>
+  <si>
+    <t>OCHSENREITER JAKOB</t>
+  </si>
+  <si>
+    <t>CHSJKB20M06A952B</t>
+  </si>
+  <si>
+    <t>2020-08-06 00:00:00</t>
+  </si>
+  <si>
+    <t>WIDMANN NIKLAS JAN</t>
+  </si>
+  <si>
+    <t>WDMNLS19C11F132C</t>
+  </si>
+  <si>
+    <t>2019-03-11 00:00:00</t>
+  </si>
+  <si>
+    <t>Controllo ore complessive periodo contrattuale</t>
+  </si>
+  <si>
+    <t>TRATTER JOHANNES</t>
+  </si>
+  <si>
+    <t>TRTJNN18M26B160I</t>
+  </si>
+  <si>
+    <t>2018-08-26 00:00:00</t>
+  </si>
+  <si>
+    <t>Freienfeld</t>
+  </si>
+  <si>
+    <t>TRATTER JOHANNES /</t>
+  </si>
+  <si>
+    <t>Sterzing</t>
+  </si>
+  <si>
+    <t>TRATTER PIA</t>
+  </si>
+  <si>
+    <t>TRTPIA17H43B160S</t>
+  </si>
+  <si>
+    <t>2017-06-03 00:00:00</t>
+  </si>
+  <si>
+    <t>Controllo ore complessive superiore a 1920</t>
+  </si>
+  <si>
+    <t>Bambino presente in più comuni</t>
+  </si>
+  <si>
+    <t>BAUMGARTNER PAUL /</t>
+  </si>
+  <si>
+    <t>BMGPLA19P29A952I</t>
+  </si>
+  <si>
+    <t>2019-09-29 00:00:00</t>
+  </si>
+  <si>
+    <t>BAUMGARTNER PAUL //</t>
+  </si>
+  <si>
+    <t>BERTACCHE SAMUEL</t>
+  </si>
+  <si>
+    <t>BRTSML17P23A952Y</t>
+  </si>
+  <si>
+    <t>2017-09-23 00:00:00</t>
+  </si>
+  <si>
+    <t>Leifers</t>
+  </si>
+  <si>
+    <t>BREDENHOELLER LILLY SOPHIE</t>
+  </si>
+  <si>
+    <t>BRDLLY18M66F132T</t>
+  </si>
+  <si>
+    <t>BREDENHOELLER LILLY SOPHIE /</t>
+  </si>
+  <si>
+    <t>FILZ THIBAUD</t>
+  </si>
+  <si>
+    <t>FLZTBD17R22A952S</t>
+  </si>
+  <si>
+    <t>2017-10-22 00:00:00</t>
+  </si>
+  <si>
+    <t>FILZ THIBAUD /neu</t>
+  </si>
+  <si>
+    <t>HOCHKOFLER NADINE</t>
+  </si>
+  <si>
+    <t>HCHNDN17M53I729Y</t>
+  </si>
+  <si>
+    <t>2017-08-13 00:00:00</t>
+  </si>
+  <si>
+    <t>Laas</t>
+  </si>
+  <si>
+    <t>Plaus</t>
+  </si>
+  <si>
+    <t>KOFLER PAULI</t>
+  </si>
+  <si>
+    <t>KFLPLA19H24B220Y</t>
+  </si>
+  <si>
+    <t>Klausen</t>
+  </si>
+  <si>
+    <t>KOFLER PAULI /</t>
+  </si>
+  <si>
+    <t>MAIR FINN /</t>
+  </si>
+  <si>
+    <t>Gargazon</t>
+  </si>
+  <si>
+    <t>PLONER LEONIE</t>
+  </si>
+  <si>
+    <t>PLNLNE20D45A952Z</t>
+  </si>
+  <si>
+    <t>2020-04-05 00:00:00</t>
+  </si>
+  <si>
+    <t>PLONER LEONIE /</t>
+  </si>
+  <si>
+    <t>Mölten</t>
+  </si>
+  <si>
+    <t>PLONER MARIAN</t>
+  </si>
+  <si>
+    <t>PLNMRN18L26B160A</t>
+  </si>
+  <si>
+    <t>2018-07-26 00:00:00</t>
+  </si>
+  <si>
+    <t>PLONER MARIAN /</t>
+  </si>
+  <si>
+    <t>VILL LIAM</t>
+  </si>
+  <si>
+    <t>VLLLMI18E15I729L</t>
+  </si>
+  <si>
+    <t>2018-05-15 00:00:00</t>
+  </si>
+  <si>
+    <t>Bambini con annotazioni</t>
+  </si>
+  <si>
+    <t>FREI KATHARINA *</t>
+  </si>
+  <si>
+    <t>FREKHR19M65F132M</t>
+  </si>
+  <si>
+    <t>2019-08-25 00:00:00</t>
+  </si>
+  <si>
+    <t>KAUFMANN JONAS /</t>
+  </si>
+  <si>
+    <t>KFMJNS18S22F132I</t>
+  </si>
+  <si>
+    <t>2018-11-22 00:00:00</t>
+  </si>
+  <si>
+    <t>Schenna</t>
+  </si>
+  <si>
+    <t>STAUDER JOHANNA *</t>
+  </si>
+  <si>
+    <t>STDJNN18R71A952E</t>
+  </si>
+  <si>
+    <t>STEINER EMMA /</t>
+  </si>
+  <si>
+    <t>STNMME18C48B220A</t>
+  </si>
+  <si>
+    <t>2018-03-08 00:00:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -55,8 +975,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -351,7 +1272,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:E173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -367,6 +1288,1852 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" t="s">
+        <v>54</v>
+      </c>
+      <c r="E37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" t="s">
+        <v>61</v>
+      </c>
+      <c r="E39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" t="s">
+        <v>67</v>
+      </c>
+      <c r="E41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" t="s">
+        <v>70</v>
+      </c>
+      <c r="D42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" t="s">
+        <v>74</v>
+      </c>
+      <c r="D43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" t="s">
+        <v>78</v>
+      </c>
+      <c r="D44" t="s">
+        <v>79</v>
+      </c>
+      <c r="E44" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" t="s">
+        <v>82</v>
+      </c>
+      <c r="D45" t="s">
+        <v>83</v>
+      </c>
+      <c r="E45" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" t="s">
+        <v>89</v>
+      </c>
+      <c r="D47" t="s">
+        <v>90</v>
+      </c>
+      <c r="E47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" t="s">
+        <v>92</v>
+      </c>
+      <c r="D48" t="s">
+        <v>93</v>
+      </c>
+      <c r="E48" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="B49" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" t="s">
+        <v>96</v>
+      </c>
+      <c r="D49" t="s">
+        <v>97</v>
+      </c>
+      <c r="E49" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="B50" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" t="s">
+        <v>99</v>
+      </c>
+      <c r="D50" t="s">
+        <v>71</v>
+      </c>
+      <c r="E50" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="B51" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" t="s">
+        <v>101</v>
+      </c>
+      <c r="D51" t="s">
+        <v>102</v>
+      </c>
+      <c r="E51" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="B52" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D52" t="s">
+        <v>106</v>
+      </c>
+      <c r="E52" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="B56" t="s">
+        <v>109</v>
+      </c>
+      <c r="C56" t="s">
+        <v>110</v>
+      </c>
+      <c r="D56" t="s">
+        <v>111</v>
+      </c>
+      <c r="E56" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="B57" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" t="s">
+        <v>114</v>
+      </c>
+      <c r="D57" t="s">
+        <v>115</v>
+      </c>
+      <c r="E57" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="B58" t="s">
+        <v>26</v>
+      </c>
+      <c r="C58" t="s">
+        <v>27</v>
+      </c>
+      <c r="D58" t="s">
+        <v>28</v>
+      </c>
+      <c r="E58" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="B59" t="s">
+        <v>116</v>
+      </c>
+      <c r="C59" t="s">
+        <v>117</v>
+      </c>
+      <c r="D59" t="s">
+        <v>118</v>
+      </c>
+      <c r="E59" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="B60" t="s">
+        <v>119</v>
+      </c>
+      <c r="C60" t="s">
+        <v>120</v>
+      </c>
+      <c r="D60" t="s">
+        <v>121</v>
+      </c>
+      <c r="E60" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="B61" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" t="s">
+        <v>124</v>
+      </c>
+      <c r="D61" t="s">
+        <v>125</v>
+      </c>
+      <c r="E61" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="B62" t="s">
+        <v>127</v>
+      </c>
+      <c r="C62" t="s">
+        <v>128</v>
+      </c>
+      <c r="D62" t="s">
+        <v>125</v>
+      </c>
+      <c r="E62" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="B63" t="s">
+        <v>129</v>
+      </c>
+      <c r="C63" t="s">
+        <v>130</v>
+      </c>
+      <c r="D63" t="s">
+        <v>131</v>
+      </c>
+      <c r="E63" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="B64" t="s">
+        <v>132</v>
+      </c>
+      <c r="C64" t="s">
+        <v>133</v>
+      </c>
+      <c r="D64" t="s">
+        <v>134</v>
+      </c>
+      <c r="E64" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5">
+      <c r="B65" t="s">
+        <v>136</v>
+      </c>
+      <c r="C65" t="s">
+        <v>137</v>
+      </c>
+      <c r="D65" t="s">
+        <v>138</v>
+      </c>
+      <c r="E65" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5">
+      <c r="B66" t="s">
+        <v>140</v>
+      </c>
+      <c r="C66" t="s">
+        <v>141</v>
+      </c>
+      <c r="D66" t="s">
+        <v>142</v>
+      </c>
+      <c r="E66" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5">
+      <c r="B67" t="s">
+        <v>143</v>
+      </c>
+      <c r="C67" t="s">
+        <v>144</v>
+      </c>
+      <c r="D67" t="s">
+        <v>145</v>
+      </c>
+      <c r="E67" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5">
+      <c r="B68" t="s">
+        <v>146</v>
+      </c>
+      <c r="C68" t="s">
+        <v>147</v>
+      </c>
+      <c r="D68" t="s">
+        <v>148</v>
+      </c>
+      <c r="E68" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5">
+      <c r="B69" t="s">
+        <v>150</v>
+      </c>
+      <c r="C69" t="s">
+        <v>151</v>
+      </c>
+      <c r="D69" t="s">
+        <v>152</v>
+      </c>
+      <c r="E69" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5">
+      <c r="B70" t="s">
+        <v>150</v>
+      </c>
+      <c r="C70" t="s">
+        <v>151</v>
+      </c>
+      <c r="D70" t="s">
+        <v>152</v>
+      </c>
+      <c r="E70" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5">
+      <c r="B71" t="s">
+        <v>154</v>
+      </c>
+      <c r="C71" t="s">
+        <v>155</v>
+      </c>
+      <c r="D71" t="s">
+        <v>156</v>
+      </c>
+      <c r="E71" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5">
+      <c r="B72" t="s">
+        <v>157</v>
+      </c>
+      <c r="C72" t="s">
+        <v>158</v>
+      </c>
+      <c r="D72" t="s">
+        <v>159</v>
+      </c>
+      <c r="E72" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5">
+      <c r="B73" t="s">
+        <v>160</v>
+      </c>
+      <c r="C73" t="s">
+        <v>161</v>
+      </c>
+      <c r="D73" t="s">
+        <v>162</v>
+      </c>
+      <c r="E73" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5">
+      <c r="B74" t="s">
+        <v>163</v>
+      </c>
+      <c r="C74" t="s">
+        <v>164</v>
+      </c>
+      <c r="D74" t="s">
+        <v>165</v>
+      </c>
+      <c r="E74" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5">
+      <c r="B75" t="s">
+        <v>166</v>
+      </c>
+      <c r="C75" t="s">
+        <v>167</v>
+      </c>
+      <c r="D75" t="s">
+        <v>168</v>
+      </c>
+      <c r="E75" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5">
+      <c r="B76" t="s">
+        <v>169</v>
+      </c>
+      <c r="C76" t="s">
+        <v>170</v>
+      </c>
+      <c r="D76" t="s">
+        <v>171</v>
+      </c>
+      <c r="E76" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5">
+      <c r="B77" t="s">
+        <v>172</v>
+      </c>
+      <c r="C77" t="s">
+        <v>173</v>
+      </c>
+      <c r="D77" t="s">
+        <v>174</v>
+      </c>
+      <c r="E77" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5">
+      <c r="B78" t="s">
+        <v>175</v>
+      </c>
+      <c r="C78" t="s">
+        <v>176</v>
+      </c>
+      <c r="D78" t="s">
+        <v>177</v>
+      </c>
+      <c r="E78" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5">
+      <c r="B79" t="s">
+        <v>178</v>
+      </c>
+      <c r="C79" t="s">
+        <v>179</v>
+      </c>
+      <c r="D79" t="s">
+        <v>180</v>
+      </c>
+      <c r="E79" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="B83" t="s">
+        <v>182</v>
+      </c>
+      <c r="C83" t="s">
+        <v>183</v>
+      </c>
+      <c r="D83" t="s">
+        <v>184</v>
+      </c>
+      <c r="E83" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="B84" t="s">
+        <v>185</v>
+      </c>
+      <c r="C84" t="s">
+        <v>186</v>
+      </c>
+      <c r="D84" t="s">
+        <v>187</v>
+      </c>
+      <c r="E84" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="B85" t="s">
+        <v>188</v>
+      </c>
+      <c r="C85" t="s">
+        <v>189</v>
+      </c>
+      <c r="D85" t="s">
+        <v>190</v>
+      </c>
+      <c r="E85" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="B86" t="s">
+        <v>192</v>
+      </c>
+      <c r="C86" t="s">
+        <v>193</v>
+      </c>
+      <c r="D86" t="s">
+        <v>194</v>
+      </c>
+      <c r="E86" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="B87" t="s">
+        <v>196</v>
+      </c>
+      <c r="C87" t="s">
+        <v>197</v>
+      </c>
+      <c r="D87" t="s">
+        <v>198</v>
+      </c>
+      <c r="E87" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="B88" t="s">
+        <v>200</v>
+      </c>
+      <c r="C88" t="s">
+        <v>201</v>
+      </c>
+      <c r="D88" t="s">
+        <v>202</v>
+      </c>
+      <c r="E88" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="B89" t="s">
+        <v>204</v>
+      </c>
+      <c r="C89" t="s">
+        <v>205</v>
+      </c>
+      <c r="D89" t="s">
+        <v>206</v>
+      </c>
+      <c r="E89" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="B90" t="s">
+        <v>207</v>
+      </c>
+      <c r="C90" t="s">
+        <v>208</v>
+      </c>
+      <c r="D90" t="s">
+        <v>209</v>
+      </c>
+      <c r="E90" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="B94" t="s">
+        <v>182</v>
+      </c>
+      <c r="C94" t="s">
+        <v>183</v>
+      </c>
+      <c r="D94" t="s">
+        <v>184</v>
+      </c>
+      <c r="E94" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="B95" t="s">
+        <v>185</v>
+      </c>
+      <c r="C95" t="s">
+        <v>186</v>
+      </c>
+      <c r="D95" t="s">
+        <v>187</v>
+      </c>
+      <c r="E95" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="B96" t="s">
+        <v>188</v>
+      </c>
+      <c r="C96" t="s">
+        <v>189</v>
+      </c>
+      <c r="D96" t="s">
+        <v>190</v>
+      </c>
+      <c r="E96" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="B97" t="s">
+        <v>192</v>
+      </c>
+      <c r="C97" t="s">
+        <v>193</v>
+      </c>
+      <c r="D97" t="s">
+        <v>194</v>
+      </c>
+      <c r="E97" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="B98" t="s">
+        <v>211</v>
+      </c>
+      <c r="C98" t="s">
+        <v>212</v>
+      </c>
+      <c r="D98" t="s">
+        <v>213</v>
+      </c>
+      <c r="E98" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="B99" t="s">
+        <v>196</v>
+      </c>
+      <c r="C99" t="s">
+        <v>197</v>
+      </c>
+      <c r="D99" t="s">
+        <v>198</v>
+      </c>
+      <c r="E99" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="B100" t="s">
+        <v>200</v>
+      </c>
+      <c r="C100" t="s">
+        <v>201</v>
+      </c>
+      <c r="D100" t="s">
+        <v>202</v>
+      </c>
+      <c r="E100" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="B101" t="s">
+        <v>204</v>
+      </c>
+      <c r="C101" t="s">
+        <v>205</v>
+      </c>
+      <c r="D101" t="s">
+        <v>206</v>
+      </c>
+      <c r="E101" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="B102" t="s">
+        <v>207</v>
+      </c>
+      <c r="C102" t="s">
+        <v>208</v>
+      </c>
+      <c r="D102" t="s">
+        <v>209</v>
+      </c>
+      <c r="E102" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="B103" t="s">
+        <v>214</v>
+      </c>
+      <c r="C103" t="s">
+        <v>215</v>
+      </c>
+      <c r="D103" t="s">
+        <v>216</v>
+      </c>
+      <c r="E103" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="B107" t="s">
+        <v>218</v>
+      </c>
+      <c r="C107" t="s">
+        <v>219</v>
+      </c>
+      <c r="D107" t="s">
+        <v>220</v>
+      </c>
+      <c r="E107" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="B108" t="s">
+        <v>221</v>
+      </c>
+      <c r="C108" t="s">
+        <v>222</v>
+      </c>
+      <c r="D108" t="s">
+        <v>223</v>
+      </c>
+      <c r="E108" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="B109" t="s">
+        <v>224</v>
+      </c>
+      <c r="C109" t="s">
+        <v>225</v>
+      </c>
+      <c r="D109" t="s">
+        <v>226</v>
+      </c>
+      <c r="E109" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="B110" t="s">
+        <v>227</v>
+      </c>
+      <c r="C110" t="s">
+        <v>228</v>
+      </c>
+      <c r="D110" t="s">
+        <v>229</v>
+      </c>
+      <c r="E110" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="B111" t="s">
+        <v>230</v>
+      </c>
+      <c r="C111" t="s">
+        <v>231</v>
+      </c>
+      <c r="D111" t="s">
+        <v>232</v>
+      </c>
+      <c r="E111" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="B112" t="s">
+        <v>233</v>
+      </c>
+      <c r="C112" t="s">
+        <v>234</v>
+      </c>
+      <c r="D112" t="s">
+        <v>235</v>
+      </c>
+      <c r="E112" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="B113" t="s">
+        <v>237</v>
+      </c>
+      <c r="C113" t="s">
+        <v>238</v>
+      </c>
+      <c r="D113" t="s">
+        <v>239</v>
+      </c>
+      <c r="E113" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="B114" t="s">
+        <v>240</v>
+      </c>
+      <c r="C114" t="s">
+        <v>241</v>
+      </c>
+      <c r="D114" t="s">
+        <v>242</v>
+      </c>
+      <c r="E114" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="B118" t="s">
+        <v>244</v>
+      </c>
+      <c r="C118" t="s">
+        <v>245</v>
+      </c>
+      <c r="D118" t="s">
+        <v>246</v>
+      </c>
+      <c r="E118" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="B119" t="s">
+        <v>248</v>
+      </c>
+      <c r="C119" t="s">
+        <v>245</v>
+      </c>
+      <c r="D119" t="s">
+        <v>246</v>
+      </c>
+      <c r="E119" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="B120" t="s">
+        <v>250</v>
+      </c>
+      <c r="C120" t="s">
+        <v>251</v>
+      </c>
+      <c r="D120" t="s">
+        <v>252</v>
+      </c>
+      <c r="E120" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="B124" t="s">
+        <v>244</v>
+      </c>
+      <c r="C124" t="s">
+        <v>245</v>
+      </c>
+      <c r="D124" t="s">
+        <v>246</v>
+      </c>
+      <c r="E124" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="B125" t="s">
+        <v>248</v>
+      </c>
+      <c r="C125" t="s">
+        <v>245</v>
+      </c>
+      <c r="D125" t="s">
+        <v>246</v>
+      </c>
+      <c r="E125" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5">
+      <c r="B129" t="s">
+        <v>255</v>
+      </c>
+      <c r="C129" t="s">
+        <v>256</v>
+      </c>
+      <c r="D129" t="s">
+        <v>257</v>
+      </c>
+      <c r="E129" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5">
+      <c r="B130" t="s">
+        <v>258</v>
+      </c>
+      <c r="C130" t="s">
+        <v>256</v>
+      </c>
+      <c r="D130" t="s">
+        <v>257</v>
+      </c>
+      <c r="E130" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5">
+      <c r="B131" t="s">
+        <v>259</v>
+      </c>
+      <c r="C131" t="s">
+        <v>260</v>
+      </c>
+      <c r="D131" t="s">
+        <v>261</v>
+      </c>
+      <c r="E131" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5">
+      <c r="B132" t="s">
+        <v>259</v>
+      </c>
+      <c r="C132" t="s">
+        <v>260</v>
+      </c>
+      <c r="D132" t="s">
+        <v>261</v>
+      </c>
+      <c r="E132" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5">
+      <c r="B133" t="s">
+        <v>263</v>
+      </c>
+      <c r="C133" t="s">
+        <v>264</v>
+      </c>
+      <c r="D133" t="s">
+        <v>246</v>
+      </c>
+      <c r="E133" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5">
+      <c r="B134" t="s">
+        <v>265</v>
+      </c>
+      <c r="C134" t="s">
+        <v>264</v>
+      </c>
+      <c r="D134" t="s">
+        <v>246</v>
+      </c>
+      <c r="E134" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5">
+      <c r="B135" t="s">
+        <v>26</v>
+      </c>
+      <c r="C135" t="s">
+        <v>27</v>
+      </c>
+      <c r="D135" t="s">
+        <v>28</v>
+      </c>
+      <c r="E135" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5">
+      <c r="B136" t="s">
+        <v>26</v>
+      </c>
+      <c r="C136" t="s">
+        <v>27</v>
+      </c>
+      <c r="D136" t="s">
+        <v>28</v>
+      </c>
+      <c r="E136" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5">
+      <c r="B137" t="s">
+        <v>266</v>
+      </c>
+      <c r="C137" t="s">
+        <v>267</v>
+      </c>
+      <c r="D137" t="s">
+        <v>268</v>
+      </c>
+      <c r="E137" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5">
+      <c r="B138" t="s">
+        <v>269</v>
+      </c>
+      <c r="C138" t="s">
+        <v>267</v>
+      </c>
+      <c r="D138" t="s">
+        <v>268</v>
+      </c>
+      <c r="E138" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5">
+      <c r="B139" t="s">
+        <v>270</v>
+      </c>
+      <c r="C139" t="s">
+        <v>271</v>
+      </c>
+      <c r="D139" t="s">
+        <v>272</v>
+      </c>
+      <c r="E139" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5">
+      <c r="B140" t="s">
+        <v>270</v>
+      </c>
+      <c r="C140" t="s">
+        <v>271</v>
+      </c>
+      <c r="D140" t="s">
+        <v>272</v>
+      </c>
+      <c r="E140" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5">
+      <c r="B141" t="s">
+        <v>275</v>
+      </c>
+      <c r="C141" t="s">
+        <v>276</v>
+      </c>
+      <c r="D141" t="s">
+        <v>216</v>
+      </c>
+      <c r="E141" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5">
+      <c r="B142" t="s">
+        <v>278</v>
+      </c>
+      <c r="C142" t="s">
+        <v>276</v>
+      </c>
+      <c r="D142" t="s">
+        <v>216</v>
+      </c>
+      <c r="E142" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5">
+      <c r="B143" t="s">
+        <v>196</v>
+      </c>
+      <c r="C143" t="s">
+        <v>197</v>
+      </c>
+      <c r="D143" t="s">
+        <v>198</v>
+      </c>
+      <c r="E143" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5">
+      <c r="B144" t="s">
+        <v>279</v>
+      </c>
+      <c r="C144" t="s">
+        <v>197</v>
+      </c>
+      <c r="D144" t="s">
+        <v>198</v>
+      </c>
+      <c r="E144" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="B145" t="s">
+        <v>150</v>
+      </c>
+      <c r="C145" t="s">
+        <v>151</v>
+      </c>
+      <c r="D145" t="s">
+        <v>152</v>
+      </c>
+      <c r="E145" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="B146" t="s">
+        <v>150</v>
+      </c>
+      <c r="C146" t="s">
+        <v>151</v>
+      </c>
+      <c r="D146" t="s">
+        <v>152</v>
+      </c>
+      <c r="E146" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="B147" t="s">
+        <v>281</v>
+      </c>
+      <c r="C147" t="s">
+        <v>282</v>
+      </c>
+      <c r="D147" t="s">
+        <v>283</v>
+      </c>
+      <c r="E147" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="B148" t="s">
+        <v>284</v>
+      </c>
+      <c r="C148" t="s">
+        <v>282</v>
+      </c>
+      <c r="D148" t="s">
+        <v>283</v>
+      </c>
+      <c r="E148" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="B149" t="s">
+        <v>286</v>
+      </c>
+      <c r="C149" t="s">
+        <v>287</v>
+      </c>
+      <c r="D149" t="s">
+        <v>288</v>
+      </c>
+      <c r="E149" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="B150" t="s">
+        <v>289</v>
+      </c>
+      <c r="C150" t="s">
+        <v>287</v>
+      </c>
+      <c r="D150" t="s">
+        <v>288</v>
+      </c>
+      <c r="E150" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="B151" t="s">
+        <v>244</v>
+      </c>
+      <c r="C151" t="s">
+        <v>245</v>
+      </c>
+      <c r="D151" t="s">
+        <v>246</v>
+      </c>
+      <c r="E151" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="B152" t="s">
+        <v>248</v>
+      </c>
+      <c r="C152" t="s">
+        <v>245</v>
+      </c>
+      <c r="D152" t="s">
+        <v>246</v>
+      </c>
+      <c r="E152" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="B153" t="s">
+        <v>290</v>
+      </c>
+      <c r="C153" t="s">
+        <v>291</v>
+      </c>
+      <c r="D153" t="s">
+        <v>292</v>
+      </c>
+      <c r="E153" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="B154" t="s">
+        <v>290</v>
+      </c>
+      <c r="C154" t="s">
+        <v>291</v>
+      </c>
+      <c r="D154" t="s">
+        <v>292</v>
+      </c>
+      <c r="E154" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="B158" t="s">
+        <v>35</v>
+      </c>
+      <c r="C158" t="s">
+        <v>32</v>
+      </c>
+      <c r="D158" t="s">
+        <v>33</v>
+      </c>
+      <c r="E158" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="B159" t="s">
+        <v>255</v>
+      </c>
+      <c r="C159" t="s">
+        <v>256</v>
+      </c>
+      <c r="D159" t="s">
+        <v>257</v>
+      </c>
+      <c r="E159" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="B160" t="s">
+        <v>258</v>
+      </c>
+      <c r="C160" t="s">
+        <v>256</v>
+      </c>
+      <c r="D160" t="s">
+        <v>257</v>
+      </c>
+      <c r="E160" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="161" spans="2:5">
+      <c r="B161" t="s">
+        <v>265</v>
+      </c>
+      <c r="C161" t="s">
+        <v>264</v>
+      </c>
+      <c r="D161" t="s">
+        <v>246</v>
+      </c>
+      <c r="E161" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="162" spans="2:5">
+      <c r="B162" t="s">
+        <v>49</v>
+      </c>
+      <c r="C162" t="s">
+        <v>50</v>
+      </c>
+      <c r="D162" t="s">
+        <v>51</v>
+      </c>
+      <c r="E162" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="163" spans="2:5">
+      <c r="B163" t="s">
+        <v>269</v>
+      </c>
+      <c r="C163" t="s">
+        <v>267</v>
+      </c>
+      <c r="D163" t="s">
+        <v>268</v>
+      </c>
+      <c r="E163" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="164" spans="2:5">
+      <c r="B164" t="s">
+        <v>294</v>
+      </c>
+      <c r="C164" t="s">
+        <v>295</v>
+      </c>
+      <c r="D164" t="s">
+        <v>296</v>
+      </c>
+      <c r="E164" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="165" spans="2:5">
+      <c r="B165" t="s">
+        <v>227</v>
+      </c>
+      <c r="C165" t="s">
+        <v>228</v>
+      </c>
+      <c r="D165" t="s">
+        <v>229</v>
+      </c>
+      <c r="E165" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="166" spans="2:5">
+      <c r="B166" t="s">
+        <v>297</v>
+      </c>
+      <c r="C166" t="s">
+        <v>298</v>
+      </c>
+      <c r="D166" t="s">
+        <v>299</v>
+      </c>
+      <c r="E166" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="167" spans="2:5">
+      <c r="B167" t="s">
+        <v>278</v>
+      </c>
+      <c r="C167" t="s">
+        <v>276</v>
+      </c>
+      <c r="D167" t="s">
+        <v>216</v>
+      </c>
+      <c r="E167" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="168" spans="2:5">
+      <c r="B168" t="s">
+        <v>279</v>
+      </c>
+      <c r="C168" t="s">
+        <v>197</v>
+      </c>
+      <c r="D168" t="s">
+        <v>198</v>
+      </c>
+      <c r="E168" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="169" spans="2:5">
+      <c r="B169" t="s">
+        <v>284</v>
+      </c>
+      <c r="C169" t="s">
+        <v>282</v>
+      </c>
+      <c r="D169" t="s">
+        <v>283</v>
+      </c>
+      <c r="E169" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="170" spans="2:5">
+      <c r="B170" t="s">
+        <v>289</v>
+      </c>
+      <c r="C170" t="s">
+        <v>287</v>
+      </c>
+      <c r="D170" t="s">
+        <v>288</v>
+      </c>
+      <c r="E170" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="171" spans="2:5">
+      <c r="B171" t="s">
+        <v>301</v>
+      </c>
+      <c r="C171" t="s">
+        <v>302</v>
+      </c>
+      <c r="D171" t="s">
+        <v>184</v>
+      </c>
+      <c r="E171" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="172" spans="2:5">
+      <c r="B172" t="s">
+        <v>303</v>
+      </c>
+      <c r="C172" t="s">
+        <v>304</v>
+      </c>
+      <c r="D172" t="s">
+        <v>305</v>
+      </c>
+      <c r="E172" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="173" spans="2:5">
+      <c r="B173" t="s">
+        <v>248</v>
+      </c>
+      <c r="C173" t="s">
+        <v>245</v>
+      </c>
+      <c r="D173" t="s">
+        <v>246</v>
+      </c>
+      <c r="E173" t="s">
+        <v>249</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/riassuntoAutomatico.xlsx
+++ b/riassuntoAutomatico.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="311">
   <si>
     <t>Riassunto analisi</t>
   </si>
   <si>
-    <t>Trovati errori per 81 bambini</t>
+    <t>Trovati errori per 82 bambini</t>
   </si>
   <si>
     <t>Trovate 3 occorrenze per il controllo Controllo età bambino</t>
@@ -34,6 +34,9 @@
     <t>Trovate 24 occorrenze per il controllo Controllo Kindergarten #2</t>
   </si>
   <si>
+    <t>Trovate 1 occorrenze per il controllo Contratti lockdown sospetti (Covid #4)</t>
+  </si>
+  <si>
     <t>Trovate 8 occorrenze per il controllo Controllo Fehler Eingewöhnung</t>
   </si>
   <si>
@@ -559,6 +562,18 @@
     <t>2017-11-13 00:00:00</t>
   </si>
   <si>
+    <t>Contratti lockdown sospetti (Covid #4)</t>
+  </si>
+  <si>
+    <t>SANTON PHILIPP</t>
+  </si>
+  <si>
+    <t>SNTPLP19A31B220R</t>
+  </si>
+  <si>
+    <t>2019-01-31 00:00:00</t>
+  </si>
+  <si>
     <t>Controllo Fehler Eingewöhnung</t>
   </si>
   <si>
@@ -835,10 +850,10 @@
     <t>2017-08-13 00:00:00</t>
   </si>
   <si>
+    <t>Plaus</t>
+  </si>
+  <si>
     <t>Laas</t>
-  </si>
-  <si>
-    <t>Plaus</t>
   </si>
   <si>
     <t>KOFLER PAULI</t>
@@ -1272,7 +1287,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E173"/>
+  <dimension ref="A1:E178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1343,103 +1358,94 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="B20" t="s">
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" t="s">
         <v>18</v>
-      </c>
-      <c r="C21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
         <v>21</v>
       </c>
-      <c r="C22" t="s">
+      <c r="E22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23" t="s">
         <v>22</v>
       </c>
-      <c r="D22" t="s">
+      <c r="C23" t="s">
         <v>23</v>
       </c>
-      <c r="E22" t="s">
+      <c r="D23" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1" t="s">
+      <c r="E23" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="B26" t="s">
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C26" t="s">
+    </row>
+    <row r="27" spans="1:5">
+      <c r="B27" t="s">
         <v>27</v>
       </c>
-      <c r="D26" t="s">
+      <c r="C27" t="s">
         <v>28</v>
       </c>
-      <c r="E26" t="s">
+      <c r="D27" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="1" t="s">
+      <c r="E27" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="B30" t="s">
+    <row r="29" spans="1:5">
+      <c r="A29" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="C30" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" t="s">
-        <v>33</v>
-      </c>
-      <c r="E30" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" t="s">
         <v>35</v>
-      </c>
-      <c r="C31" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" t="s">
-        <v>33</v>
-      </c>
-      <c r="E31" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1447,1691 +1453,1724 @@
         <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D32" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="2:5">
       <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" t="s">
         <v>39</v>
       </c>
-      <c r="C33" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33" t="s">
-        <v>41</v>
-      </c>
       <c r="E33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="2:5">
       <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" t="s">
         <v>42</v>
       </c>
-      <c r="C34" t="s">
-        <v>43</v>
-      </c>
-      <c r="D34" t="s">
-        <v>44</v>
-      </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" t="s">
         <v>46</v>
-      </c>
-      <c r="C35" t="s">
-        <v>47</v>
-      </c>
-      <c r="D35" t="s">
-        <v>48</v>
-      </c>
-      <c r="E35" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="36" spans="2:5">
       <c r="B36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" t="s">
         <v>49</v>
       </c>
-      <c r="C36" t="s">
-        <v>50</v>
-      </c>
-      <c r="D36" t="s">
-        <v>51</v>
-      </c>
       <c r="E36" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="2:5">
       <c r="B37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" t="s">
         <v>52</v>
       </c>
-      <c r="C37" t="s">
-        <v>53</v>
-      </c>
-      <c r="D37" t="s">
-        <v>54</v>
-      </c>
       <c r="E37" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="2:5">
       <c r="B38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" t="s">
         <v>55</v>
       </c>
-      <c r="C38" t="s">
-        <v>56</v>
-      </c>
-      <c r="D38" t="s">
-        <v>57</v>
-      </c>
       <c r="E38" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="2:5">
       <c r="B39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" t="s">
         <v>59</v>
-      </c>
-      <c r="C39" t="s">
-        <v>60</v>
-      </c>
-      <c r="D39" t="s">
-        <v>61</v>
-      </c>
-      <c r="E39" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="40" spans="2:5">
       <c r="B40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" t="s">
         <v>62</v>
       </c>
-      <c r="C40" t="s">
-        <v>63</v>
-      </c>
-      <c r="D40" t="s">
-        <v>64</v>
-      </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="2:5">
       <c r="B41" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" t="s">
         <v>65</v>
       </c>
-      <c r="C41" t="s">
-        <v>66</v>
-      </c>
-      <c r="D41" t="s">
-        <v>67</v>
-      </c>
       <c r="E41" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="2:5">
       <c r="B42" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" t="s">
+        <v>68</v>
+      </c>
+      <c r="E42" t="s">
         <v>69</v>
-      </c>
-      <c r="C42" t="s">
-        <v>70</v>
-      </c>
-      <c r="D42" t="s">
-        <v>71</v>
-      </c>
-      <c r="E42" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="43" spans="2:5">
       <c r="B43" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D43" t="s">
+        <v>72</v>
+      </c>
+      <c r="E43" t="s">
         <v>73</v>
-      </c>
-      <c r="C43" t="s">
-        <v>74</v>
-      </c>
-      <c r="D43" t="s">
-        <v>75</v>
-      </c>
-      <c r="E43" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="44" spans="2:5">
       <c r="B44" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44" t="s">
+        <v>76</v>
+      </c>
+      <c r="E44" t="s">
         <v>77</v>
-      </c>
-      <c r="C44" t="s">
-        <v>78</v>
-      </c>
-      <c r="D44" t="s">
-        <v>79</v>
-      </c>
-      <c r="E44" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="45" spans="2:5">
       <c r="B45" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45" t="s">
+        <v>80</v>
+      </c>
+      <c r="E45" t="s">
         <v>81</v>
-      </c>
-      <c r="C45" t="s">
-        <v>82</v>
-      </c>
-      <c r="D45" t="s">
-        <v>83</v>
-      </c>
-      <c r="E45" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="46" spans="2:5">
       <c r="B46" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" t="s">
+        <v>83</v>
+      </c>
+      <c r="D46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E46" t="s">
         <v>85</v>
-      </c>
-      <c r="C46" t="s">
-        <v>86</v>
-      </c>
-      <c r="D46" t="s">
-        <v>44</v>
-      </c>
-      <c r="E46" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="47" spans="2:5">
       <c r="B47" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" t="s">
+        <v>87</v>
+      </c>
+      <c r="D47" t="s">
+        <v>45</v>
+      </c>
+      <c r="E47" t="s">
         <v>88</v>
-      </c>
-      <c r="C47" t="s">
-        <v>89</v>
-      </c>
-      <c r="D47" t="s">
-        <v>90</v>
-      </c>
-      <c r="E47" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="48" spans="2:5">
       <c r="B48" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48" t="s">
         <v>91</v>
       </c>
-      <c r="C48" t="s">
-        <v>92</v>
-      </c>
-      <c r="D48" t="s">
-        <v>93</v>
-      </c>
       <c r="E48" t="s">
-        <v>94</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="B49" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49" t="s">
+        <v>93</v>
+      </c>
+      <c r="D49" t="s">
+        <v>94</v>
+      </c>
+      <c r="E49" t="s">
         <v>95</v>
-      </c>
-      <c r="C49" t="s">
-        <v>96</v>
-      </c>
-      <c r="D49" t="s">
-        <v>97</v>
-      </c>
-      <c r="E49" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="B50" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" t="s">
+        <v>97</v>
+      </c>
+      <c r="D50" t="s">
         <v>98</v>
       </c>
-      <c r="C50" t="s">
-        <v>99</v>
-      </c>
-      <c r="D50" t="s">
-        <v>71</v>
-      </c>
       <c r="E50" t="s">
-        <v>94</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="B51" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" t="s">
         <v>100</v>
       </c>
-      <c r="C51" t="s">
-        <v>101</v>
-      </c>
       <c r="D51" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="E51" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="B52" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" t="s">
+        <v>102</v>
+      </c>
+      <c r="D52" t="s">
+        <v>103</v>
+      </c>
+      <c r="E52" t="s">
         <v>104</v>
       </c>
-      <c r="C52" t="s">
+    </row>
+    <row r="53" spans="1:5">
+      <c r="B53" t="s">
         <v>105</v>
       </c>
-      <c r="D52" t="s">
+      <c r="C53" t="s">
         <v>106</v>
       </c>
-      <c r="E52" t="s">
+      <c r="D53" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="1" t="s">
+      <c r="E53" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
-      <c r="B56" t="s">
+    <row r="55" spans="1:5">
+      <c r="A55" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="C56" t="s">
-        <v>110</v>
-      </c>
-      <c r="D56" t="s">
-        <v>111</v>
-      </c>
-      <c r="E56" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="B57" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" t="s">
+        <v>111</v>
+      </c>
+      <c r="D57" t="s">
+        <v>112</v>
+      </c>
+      <c r="E57" t="s">
         <v>113</v>
-      </c>
-      <c r="C57" t="s">
-        <v>114</v>
-      </c>
-      <c r="D57" t="s">
-        <v>115</v>
-      </c>
-      <c r="E57" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="B58" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="D58" t="s">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="E58" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="B59" t="s">
-        <v>116</v>
+        <v>27</v>
       </c>
       <c r="C59" t="s">
-        <v>117</v>
+        <v>28</v>
       </c>
       <c r="D59" t="s">
-        <v>118</v>
+        <v>29</v>
       </c>
       <c r="E59" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="B60" t="s">
+        <v>117</v>
+      </c>
+      <c r="C60" t="s">
+        <v>118</v>
+      </c>
+      <c r="D60" t="s">
         <v>119</v>
       </c>
-      <c r="C60" t="s">
-        <v>120</v>
-      </c>
-      <c r="D60" t="s">
-        <v>121</v>
-      </c>
       <c r="E60" t="s">
-        <v>122</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="B61" t="s">
+        <v>120</v>
+      </c>
+      <c r="C61" t="s">
+        <v>121</v>
+      </c>
+      <c r="D61" t="s">
+        <v>122</v>
+      </c>
+      <c r="E61" t="s">
         <v>123</v>
-      </c>
-      <c r="C61" t="s">
-        <v>124</v>
-      </c>
-      <c r="D61" t="s">
-        <v>125</v>
-      </c>
-      <c r="E61" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="B62" t="s">
+        <v>124</v>
+      </c>
+      <c r="C62" t="s">
+        <v>125</v>
+      </c>
+      <c r="D62" t="s">
+        <v>126</v>
+      </c>
+      <c r="E62" t="s">
         <v>127</v>
-      </c>
-      <c r="C62" t="s">
-        <v>128</v>
-      </c>
-      <c r="D62" t="s">
-        <v>125</v>
-      </c>
-      <c r="E62" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="B63" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63" t="s">
         <v>129</v>
       </c>
-      <c r="C63" t="s">
-        <v>130</v>
-      </c>
       <c r="D63" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E63" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="B64" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64" t="s">
+        <v>131</v>
+      </c>
+      <c r="D64" t="s">
         <v>132</v>
       </c>
-      <c r="C64" t="s">
-        <v>133</v>
-      </c>
-      <c r="D64" t="s">
-        <v>134</v>
-      </c>
       <c r="E64" t="s">
-        <v>135</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" spans="2:5">
       <c r="B65" t="s">
+        <v>133</v>
+      </c>
+      <c r="C65" t="s">
+        <v>134</v>
+      </c>
+      <c r="D65" t="s">
+        <v>135</v>
+      </c>
+      <c r="E65" t="s">
         <v>136</v>
-      </c>
-      <c r="C65" t="s">
-        <v>137</v>
-      </c>
-      <c r="D65" t="s">
-        <v>138</v>
-      </c>
-      <c r="E65" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="66" spans="2:5">
       <c r="B66" t="s">
+        <v>137</v>
+      </c>
+      <c r="C66" t="s">
+        <v>138</v>
+      </c>
+      <c r="D66" t="s">
+        <v>139</v>
+      </c>
+      <c r="E66" t="s">
         <v>140</v>
-      </c>
-      <c r="C66" t="s">
-        <v>141</v>
-      </c>
-      <c r="D66" t="s">
-        <v>142</v>
-      </c>
-      <c r="E66" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="67" spans="2:5">
       <c r="B67" t="s">
+        <v>141</v>
+      </c>
+      <c r="C67" t="s">
+        <v>142</v>
+      </c>
+      <c r="D67" t="s">
         <v>143</v>
       </c>
-      <c r="C67" t="s">
-        <v>144</v>
-      </c>
-      <c r="D67" t="s">
-        <v>145</v>
-      </c>
       <c r="E67" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68" spans="2:5">
       <c r="B68" t="s">
+        <v>144</v>
+      </c>
+      <c r="C68" t="s">
+        <v>145</v>
+      </c>
+      <c r="D68" t="s">
         <v>146</v>
       </c>
-      <c r="C68" t="s">
-        <v>147</v>
-      </c>
-      <c r="D68" t="s">
-        <v>148</v>
-      </c>
       <c r="E68" t="s">
-        <v>149</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="2:5">
       <c r="B69" t="s">
+        <v>147</v>
+      </c>
+      <c r="C69" t="s">
+        <v>148</v>
+      </c>
+      <c r="D69" t="s">
+        <v>149</v>
+      </c>
+      <c r="E69" t="s">
         <v>150</v>
-      </c>
-      <c r="C69" t="s">
-        <v>151</v>
-      </c>
-      <c r="D69" t="s">
-        <v>152</v>
-      </c>
-      <c r="E69" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="70" spans="2:5">
       <c r="B70" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C70" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D70" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E70" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="71" spans="2:5">
       <c r="B71" t="s">
+        <v>151</v>
+      </c>
+      <c r="C71" t="s">
+        <v>152</v>
+      </c>
+      <c r="D71" t="s">
+        <v>153</v>
+      </c>
+      <c r="E71" t="s">
         <v>154</v>
-      </c>
-      <c r="C71" t="s">
-        <v>155</v>
-      </c>
-      <c r="D71" t="s">
-        <v>156</v>
-      </c>
-      <c r="E71" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="72" spans="2:5">
       <c r="B72" t="s">
+        <v>155</v>
+      </c>
+      <c r="C72" t="s">
+        <v>156</v>
+      </c>
+      <c r="D72" t="s">
         <v>157</v>
       </c>
-      <c r="C72" t="s">
-        <v>158</v>
-      </c>
-      <c r="D72" t="s">
-        <v>159</v>
-      </c>
       <c r="E72" t="s">
-        <v>45</v>
+        <v>113</v>
       </c>
     </row>
     <row r="73" spans="2:5">
       <c r="B73" t="s">
+        <v>158</v>
+      </c>
+      <c r="C73" t="s">
+        <v>159</v>
+      </c>
+      <c r="D73" t="s">
         <v>160</v>
       </c>
-      <c r="C73" t="s">
-        <v>161</v>
-      </c>
-      <c r="D73" t="s">
-        <v>162</v>
-      </c>
       <c r="E73" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
     </row>
     <row r="74" spans="2:5">
       <c r="B74" t="s">
+        <v>161</v>
+      </c>
+      <c r="C74" t="s">
+        <v>162</v>
+      </c>
+      <c r="D74" t="s">
         <v>163</v>
       </c>
-      <c r="C74" t="s">
-        <v>164</v>
-      </c>
-      <c r="D74" t="s">
-        <v>165</v>
-      </c>
       <c r="E74" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75" spans="2:5">
       <c r="B75" t="s">
+        <v>164</v>
+      </c>
+      <c r="C75" t="s">
+        <v>165</v>
+      </c>
+      <c r="D75" t="s">
         <v>166</v>
       </c>
-      <c r="C75" t="s">
-        <v>167</v>
-      </c>
-      <c r="D75" t="s">
-        <v>168</v>
-      </c>
       <c r="E75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="76" spans="2:5">
       <c r="B76" t="s">
+        <v>167</v>
+      </c>
+      <c r="C76" t="s">
+        <v>168</v>
+      </c>
+      <c r="D76" t="s">
         <v>169</v>
       </c>
-      <c r="C76" t="s">
-        <v>170</v>
-      </c>
-      <c r="D76" t="s">
-        <v>171</v>
-      </c>
       <c r="E76" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77" spans="2:5">
       <c r="B77" t="s">
+        <v>170</v>
+      </c>
+      <c r="C77" t="s">
+        <v>171</v>
+      </c>
+      <c r="D77" t="s">
         <v>172</v>
       </c>
-      <c r="C77" t="s">
-        <v>173</v>
-      </c>
-      <c r="D77" t="s">
-        <v>174</v>
-      </c>
       <c r="E77" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
     </row>
     <row r="78" spans="2:5">
       <c r="B78" t="s">
+        <v>173</v>
+      </c>
+      <c r="C78" t="s">
+        <v>174</v>
+      </c>
+      <c r="D78" t="s">
         <v>175</v>
       </c>
-      <c r="C78" t="s">
-        <v>176</v>
-      </c>
-      <c r="D78" t="s">
-        <v>177</v>
-      </c>
       <c r="E78" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
     </row>
     <row r="79" spans="2:5">
       <c r="B79" t="s">
+        <v>176</v>
+      </c>
+      <c r="C79" t="s">
+        <v>177</v>
+      </c>
+      <c r="D79" t="s">
         <v>178</v>
       </c>
-      <c r="C79" t="s">
+      <c r="E79" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5">
+      <c r="B80" t="s">
         <v>179</v>
       </c>
-      <c r="D79" t="s">
+      <c r="C80" t="s">
         <v>180</v>
       </c>
-      <c r="E79" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="1" t="s">
+      <c r="D80" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="B83" t="s">
+      <c r="E80" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="C83" t="s">
-        <v>183</v>
-      </c>
-      <c r="D83" t="s">
-        <v>184</v>
-      </c>
-      <c r="E83" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="B84" t="s">
+        <v>183</v>
+      </c>
+      <c r="C84" t="s">
+        <v>184</v>
+      </c>
+      <c r="D84" t="s">
         <v>185</v>
       </c>
-      <c r="C84" t="s">
+      <c r="E84" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="D84" t="s">
-        <v>187</v>
-      </c>
-      <c r="E84" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="B85" t="s">
-        <v>188</v>
-      </c>
-      <c r="C85" t="s">
-        <v>189</v>
-      </c>
-      <c r="D85" t="s">
-        <v>190</v>
-      </c>
-      <c r="E85" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="B86" t="s">
-        <v>192</v>
-      </c>
-      <c r="C86" t="s">
-        <v>193</v>
-      </c>
-      <c r="D86" t="s">
-        <v>194</v>
-      </c>
-      <c r="E86" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="B87" t="s">
-        <v>196</v>
-      </c>
-      <c r="C87" t="s">
-        <v>197</v>
-      </c>
-      <c r="D87" t="s">
-        <v>198</v>
-      </c>
-      <c r="E87" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="B88" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="C88" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="D88" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="E88" t="s">
-        <v>203</v>
+        <v>88</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="B89" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="C89" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="D89" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="E89" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="B90" t="s">
+        <v>193</v>
+      </c>
+      <c r="C90" t="s">
+        <v>194</v>
+      </c>
+      <c r="D90" t="s">
+        <v>195</v>
+      </c>
+      <c r="E90" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="B91" t="s">
+        <v>197</v>
+      </c>
+      <c r="C91" t="s">
+        <v>198</v>
+      </c>
+      <c r="D91" t="s">
+        <v>199</v>
+      </c>
+      <c r="E91" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="B92" t="s">
+        <v>201</v>
+      </c>
+      <c r="C92" t="s">
+        <v>202</v>
+      </c>
+      <c r="D92" t="s">
+        <v>203</v>
+      </c>
+      <c r="E92" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="B93" t="s">
+        <v>205</v>
+      </c>
+      <c r="C93" t="s">
+        <v>206</v>
+      </c>
+      <c r="D93" t="s">
         <v>207</v>
       </c>
-      <c r="C90" t="s">
+      <c r="E93" t="s">
         <v>208</v>
-      </c>
-      <c r="D90" t="s">
-        <v>209</v>
-      </c>
-      <c r="E90" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="A92" s="1" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="B94" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="C94" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="D94" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="E94" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="B95" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="C95" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="D95" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="E95" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="B96" t="s">
-        <v>188</v>
-      </c>
-      <c r="C96" t="s">
-        <v>189</v>
-      </c>
-      <c r="D96" t="s">
-        <v>190</v>
-      </c>
-      <c r="E96" t="s">
-        <v>191</v>
+        <v>35</v>
       </c>
     </row>
     <row r="97" spans="1:5">
-      <c r="B97" t="s">
-        <v>192</v>
-      </c>
-      <c r="C97" t="s">
-        <v>193</v>
-      </c>
-      <c r="D97" t="s">
-        <v>194</v>
-      </c>
-      <c r="E97" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="B98" t="s">
-        <v>211</v>
-      </c>
-      <c r="C98" t="s">
-        <v>212</v>
-      </c>
-      <c r="D98" t="s">
-        <v>213</v>
-      </c>
-      <c r="E98" t="s">
-        <v>191</v>
+      <c r="A97" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="B99" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C99" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="D99" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E99" t="s">
-        <v>199</v>
+        <v>88</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="B100" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C100" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="D100" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="E100" t="s">
-        <v>203</v>
+        <v>77</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="B101" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="C101" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="D101" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="E101" t="s">
-        <v>34</v>
+        <v>196</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="B102" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C102" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="D102" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="E102" t="s">
-        <v>34</v>
+        <v>200</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="B103" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C103" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D103" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E103" t="s">
-        <v>34</v>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="B104" t="s">
+        <v>201</v>
+      </c>
+      <c r="C104" t="s">
+        <v>202</v>
+      </c>
+      <c r="D104" t="s">
+        <v>203</v>
+      </c>
+      <c r="E104" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="1" t="s">
-        <v>217</v>
+      <c r="B105" t="s">
+        <v>205</v>
+      </c>
+      <c r="C105" t="s">
+        <v>206</v>
+      </c>
+      <c r="D105" t="s">
+        <v>207</v>
+      </c>
+      <c r="E105" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="B106" t="s">
+        <v>209</v>
+      </c>
+      <c r="C106" t="s">
+        <v>210</v>
+      </c>
+      <c r="D106" t="s">
+        <v>211</v>
+      </c>
+      <c r="E106" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="B107" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C107" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D107" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E107" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="B108" t="s">
+        <v>219</v>
+      </c>
+      <c r="C108" t="s">
+        <v>220</v>
+      </c>
+      <c r="D108" t="s">
         <v>221</v>
       </c>
-      <c r="C108" t="s">
+      <c r="E108" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="D108" t="s">
-        <v>223</v>
-      </c>
-      <c r="E108" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="B109" t="s">
-        <v>224</v>
-      </c>
-      <c r="C109" t="s">
-        <v>225</v>
-      </c>
-      <c r="D109" t="s">
-        <v>226</v>
-      </c>
-      <c r="E109" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="B110" t="s">
-        <v>227</v>
-      </c>
-      <c r="C110" t="s">
-        <v>228</v>
-      </c>
-      <c r="D110" t="s">
-        <v>229</v>
-      </c>
-      <c r="E110" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
-      <c r="B111" t="s">
-        <v>230</v>
-      </c>
-      <c r="C111" t="s">
-        <v>231</v>
-      </c>
-      <c r="D111" t="s">
-        <v>232</v>
-      </c>
-      <c r="E111" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="B112" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C112" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="D112" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="E112" t="s">
-        <v>236</v>
+        <v>35</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="B113" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="C113" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D113" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="E113" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="B114" t="s">
+        <v>229</v>
+      </c>
+      <c r="C114" t="s">
+        <v>230</v>
+      </c>
+      <c r="D114" t="s">
+        <v>231</v>
+      </c>
+      <c r="E114" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="B115" t="s">
+        <v>232</v>
+      </c>
+      <c r="C115" t="s">
+        <v>233</v>
+      </c>
+      <c r="D115" t="s">
+        <v>234</v>
+      </c>
+      <c r="E115" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="B116" t="s">
+        <v>235</v>
+      </c>
+      <c r="C116" t="s">
+        <v>236</v>
+      </c>
+      <c r="D116" t="s">
+        <v>237</v>
+      </c>
+      <c r="E116" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="B117" t="s">
+        <v>238</v>
+      </c>
+      <c r="C117" t="s">
+        <v>239</v>
+      </c>
+      <c r="D117" t="s">
         <v>240</v>
       </c>
-      <c r="C114" t="s">
+      <c r="E117" t="s">
         <v>241</v>
-      </c>
-      <c r="D114" t="s">
-        <v>242</v>
-      </c>
-      <c r="E114" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116" s="1" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="B118" t="s">
+        <v>242</v>
+      </c>
+      <c r="C118" t="s">
+        <v>243</v>
+      </c>
+      <c r="D118" t="s">
         <v>244</v>
       </c>
-      <c r="C118" t="s">
-        <v>245</v>
-      </c>
-      <c r="D118" t="s">
-        <v>246</v>
-      </c>
       <c r="E118" t="s">
-        <v>247</v>
+        <v>35</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="B119" t="s">
+        <v>245</v>
+      </c>
+      <c r="C119" t="s">
+        <v>246</v>
+      </c>
+      <c r="D119" t="s">
+        <v>247</v>
+      </c>
+      <c r="E119" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C119" t="s">
-        <v>245</v>
-      </c>
-      <c r="D119" t="s">
-        <v>246</v>
-      </c>
-      <c r="E119" t="s">
+    </row>
+    <row r="123" spans="1:5">
+      <c r="B123" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="B120" t="s">
+      <c r="C123" t="s">
         <v>250</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D123" t="s">
         <v>251</v>
       </c>
-      <c r="D120" t="s">
+      <c r="E123" t="s">
         <v>252</v>
-      </c>
-      <c r="E120" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="A122" s="1" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="B124" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="C124" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D124" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="E124" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="B125" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="C125" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="D125" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="E125" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="B129" t="s">
+        <v>249</v>
+      </c>
+      <c r="C129" t="s">
+        <v>250</v>
+      </c>
+      <c r="D129" t="s">
+        <v>251</v>
+      </c>
+      <c r="E129" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="B130" t="s">
+        <v>253</v>
+      </c>
+      <c r="C130" t="s">
+        <v>250</v>
+      </c>
+      <c r="D130" t="s">
+        <v>251</v>
+      </c>
+      <c r="E130" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="129" spans="2:5">
-      <c r="B129" t="s">
-        <v>255</v>
-      </c>
-      <c r="C129" t="s">
-        <v>256</v>
-      </c>
-      <c r="D129" t="s">
-        <v>257</v>
-      </c>
-      <c r="E129" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="130" spans="2:5">
-      <c r="B130" t="s">
-        <v>258</v>
-      </c>
-      <c r="C130" t="s">
-        <v>256</v>
-      </c>
-      <c r="D130" t="s">
-        <v>257</v>
-      </c>
-      <c r="E130" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="131" spans="2:5">
-      <c r="B131" t="s">
+    <row r="132" spans="1:5">
+      <c r="A132" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C131" t="s">
+    </row>
+    <row r="134" spans="1:5">
+      <c r="B134" t="s">
         <v>260</v>
       </c>
-      <c r="D131" t="s">
+      <c r="C134" t="s">
         <v>261</v>
       </c>
-      <c r="E131" t="s">
+      <c r="D134" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="132" spans="2:5">
-      <c r="B132" t="s">
-        <v>259</v>
-      </c>
-      <c r="C132" t="s">
-        <v>260</v>
-      </c>
-      <c r="D132" t="s">
+      <c r="E134" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="B135" t="s">
+        <v>263</v>
+      </c>
+      <c r="C135" t="s">
         <v>261</v>
       </c>
-      <c r="E132" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="133" spans="2:5">
-      <c r="B133" t="s">
-        <v>263</v>
-      </c>
-      <c r="C133" t="s">
+      <c r="D135" t="s">
+        <v>262</v>
+      </c>
+      <c r="E135" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="B136" t="s">
         <v>264</v>
       </c>
-      <c r="D133" t="s">
-        <v>246</v>
-      </c>
-      <c r="E133" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="134" spans="2:5">
-      <c r="B134" t="s">
+      <c r="C136" t="s">
         <v>265</v>
       </c>
-      <c r="C134" t="s">
+      <c r="D136" t="s">
+        <v>266</v>
+      </c>
+      <c r="E136" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="B137" t="s">
         <v>264</v>
       </c>
-      <c r="D134" t="s">
-        <v>246</v>
-      </c>
-      <c r="E134" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="135" spans="2:5">
-      <c r="B135" t="s">
-        <v>26</v>
-      </c>
-      <c r="C135" t="s">
-        <v>27</v>
-      </c>
-      <c r="D135" t="s">
-        <v>28</v>
-      </c>
-      <c r="E135" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="136" spans="2:5">
-      <c r="B136" t="s">
-        <v>26</v>
-      </c>
-      <c r="C136" t="s">
-        <v>27</v>
-      </c>
-      <c r="D136" t="s">
-        <v>28</v>
-      </c>
-      <c r="E136" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="137" spans="2:5">
-      <c r="B137" t="s">
+      <c r="C137" t="s">
+        <v>265</v>
+      </c>
+      <c r="D137" t="s">
         <v>266</v>
       </c>
-      <c r="C137" t="s">
+      <c r="E137" t="s">
         <v>267</v>
       </c>
-      <c r="D137" t="s">
+    </row>
+    <row r="138" spans="1:5">
+      <c r="B138" t="s">
         <v>268</v>
       </c>
-      <c r="E137" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="138" spans="2:5">
-      <c r="B138" t="s">
+      <c r="C138" t="s">
         <v>269</v>
       </c>
-      <c r="C138" t="s">
-        <v>267</v>
-      </c>
       <c r="D138" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="E138" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="139" spans="2:5">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
       <c r="B139" t="s">
         <v>270</v>
       </c>
       <c r="C139" t="s">
+        <v>269</v>
+      </c>
+      <c r="D139" t="s">
+        <v>251</v>
+      </c>
+      <c r="E139" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="B140" t="s">
+        <v>27</v>
+      </c>
+      <c r="C140" t="s">
+        <v>28</v>
+      </c>
+      <c r="D140" t="s">
+        <v>29</v>
+      </c>
+      <c r="E140" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="B141" t="s">
+        <v>27</v>
+      </c>
+      <c r="C141" t="s">
+        <v>28</v>
+      </c>
+      <c r="D141" t="s">
+        <v>29</v>
+      </c>
+      <c r="E141" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="B142" t="s">
         <v>271</v>
       </c>
-      <c r="D139" t="s">
+      <c r="C142" t="s">
         <v>272</v>
       </c>
-      <c r="E139" t="s">
+      <c r="D142" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="140" spans="2:5">
-      <c r="B140" t="s">
+      <c r="E142" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="B143" t="s">
+        <v>274</v>
+      </c>
+      <c r="C143" t="s">
+        <v>272</v>
+      </c>
+      <c r="D143" t="s">
+        <v>273</v>
+      </c>
+      <c r="E143" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="B144" t="s">
+        <v>275</v>
+      </c>
+      <c r="C144" t="s">
+        <v>276</v>
+      </c>
+      <c r="D144" t="s">
+        <v>277</v>
+      </c>
+      <c r="E144" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5">
+      <c r="B145" t="s">
+        <v>275</v>
+      </c>
+      <c r="C145" t="s">
+        <v>276</v>
+      </c>
+      <c r="D145" t="s">
+        <v>277</v>
+      </c>
+      <c r="E145" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5">
+      <c r="B146" t="s">
+        <v>280</v>
+      </c>
+      <c r="C146" t="s">
+        <v>281</v>
+      </c>
+      <c r="D146" t="s">
+        <v>221</v>
+      </c>
+      <c r="E146" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5">
+      <c r="B147" t="s">
+        <v>283</v>
+      </c>
+      <c r="C147" t="s">
+        <v>281</v>
+      </c>
+      <c r="D147" t="s">
+        <v>221</v>
+      </c>
+      <c r="E147" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5">
+      <c r="B148" t="s">
+        <v>201</v>
+      </c>
+      <c r="C148" t="s">
+        <v>202</v>
+      </c>
+      <c r="D148" t="s">
+        <v>203</v>
+      </c>
+      <c r="E148" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5">
+      <c r="B149" t="s">
+        <v>284</v>
+      </c>
+      <c r="C149" t="s">
+        <v>202</v>
+      </c>
+      <c r="D149" t="s">
+        <v>203</v>
+      </c>
+      <c r="E149" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5">
+      <c r="B150" t="s">
+        <v>151</v>
+      </c>
+      <c r="C150" t="s">
+        <v>152</v>
+      </c>
+      <c r="D150" t="s">
+        <v>153</v>
+      </c>
+      <c r="E150" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5">
+      <c r="B151" t="s">
+        <v>151</v>
+      </c>
+      <c r="C151" t="s">
+        <v>152</v>
+      </c>
+      <c r="D151" t="s">
+        <v>153</v>
+      </c>
+      <c r="E151" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5">
+      <c r="B152" t="s">
+        <v>286</v>
+      </c>
+      <c r="C152" t="s">
+        <v>287</v>
+      </c>
+      <c r="D152" t="s">
+        <v>288</v>
+      </c>
+      <c r="E152" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5">
+      <c r="B153" t="s">
+        <v>289</v>
+      </c>
+      <c r="C153" t="s">
+        <v>287</v>
+      </c>
+      <c r="D153" t="s">
+        <v>288</v>
+      </c>
+      <c r="E153" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5">
+      <c r="B154" t="s">
+        <v>291</v>
+      </c>
+      <c r="C154" t="s">
+        <v>292</v>
+      </c>
+      <c r="D154" t="s">
+        <v>293</v>
+      </c>
+      <c r="E154" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5">
+      <c r="B155" t="s">
+        <v>294</v>
+      </c>
+      <c r="C155" t="s">
+        <v>292</v>
+      </c>
+      <c r="D155" t="s">
+        <v>293</v>
+      </c>
+      <c r="E155" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="156" spans="2:5">
+      <c r="B156" t="s">
+        <v>249</v>
+      </c>
+      <c r="C156" t="s">
+        <v>250</v>
+      </c>
+      <c r="D156" t="s">
+        <v>251</v>
+      </c>
+      <c r="E156" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5">
+      <c r="B157" t="s">
+        <v>253</v>
+      </c>
+      <c r="C157" t="s">
+        <v>250</v>
+      </c>
+      <c r="D157" t="s">
+        <v>251</v>
+      </c>
+      <c r="E157" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5">
+      <c r="B158" t="s">
+        <v>295</v>
+      </c>
+      <c r="C158" t="s">
+        <v>296</v>
+      </c>
+      <c r="D158" t="s">
+        <v>297</v>
+      </c>
+      <c r="E158" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="159" spans="2:5">
+      <c r="B159" t="s">
+        <v>295</v>
+      </c>
+      <c r="C159" t="s">
+        <v>296</v>
+      </c>
+      <c r="D159" t="s">
+        <v>297</v>
+      </c>
+      <c r="E159" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="B163" t="s">
+        <v>36</v>
+      </c>
+      <c r="C163" t="s">
+        <v>33</v>
+      </c>
+      <c r="D163" t="s">
+        <v>34</v>
+      </c>
+      <c r="E163" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="B164" t="s">
+        <v>260</v>
+      </c>
+      <c r="C164" t="s">
+        <v>261</v>
+      </c>
+      <c r="D164" t="s">
+        <v>262</v>
+      </c>
+      <c r="E164" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="B165" t="s">
+        <v>263</v>
+      </c>
+      <c r="C165" t="s">
+        <v>261</v>
+      </c>
+      <c r="D165" t="s">
+        <v>262</v>
+      </c>
+      <c r="E165" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="B166" t="s">
         <v>270</v>
       </c>
-      <c r="C140" t="s">
-        <v>271</v>
-      </c>
-      <c r="D140" t="s">
+      <c r="C166" t="s">
+        <v>269</v>
+      </c>
+      <c r="D166" t="s">
+        <v>251</v>
+      </c>
+      <c r="E166" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="B167" t="s">
+        <v>50</v>
+      </c>
+      <c r="C167" t="s">
+        <v>51</v>
+      </c>
+      <c r="D167" t="s">
+        <v>52</v>
+      </c>
+      <c r="E167" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="B168" t="s">
+        <v>274</v>
+      </c>
+      <c r="C168" t="s">
         <v>272</v>
       </c>
-      <c r="E140" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="141" spans="2:5">
-      <c r="B141" t="s">
-        <v>275</v>
-      </c>
-      <c r="C141" t="s">
-        <v>276</v>
-      </c>
-      <c r="D141" t="s">
-        <v>216</v>
-      </c>
-      <c r="E141" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="142" spans="2:5">
-      <c r="B142" t="s">
-        <v>278</v>
-      </c>
-      <c r="C142" t="s">
-        <v>276</v>
-      </c>
-      <c r="D142" t="s">
-        <v>216</v>
-      </c>
-      <c r="E142" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="143" spans="2:5">
-      <c r="B143" t="s">
-        <v>196</v>
-      </c>
-      <c r="C143" t="s">
-        <v>197</v>
-      </c>
-      <c r="D143" t="s">
-        <v>198</v>
-      </c>
-      <c r="E143" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="144" spans="2:5">
-      <c r="B144" t="s">
-        <v>279</v>
-      </c>
-      <c r="C144" t="s">
-        <v>197</v>
-      </c>
-      <c r="D144" t="s">
-        <v>198</v>
-      </c>
-      <c r="E144" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
-      <c r="B145" t="s">
+      <c r="D168" t="s">
+        <v>273</v>
+      </c>
+      <c r="E168" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="B169" t="s">
+        <v>299</v>
+      </c>
+      <c r="C169" t="s">
+        <v>300</v>
+      </c>
+      <c r="D169" t="s">
+        <v>301</v>
+      </c>
+      <c r="E169" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="B170" t="s">
+        <v>232</v>
+      </c>
+      <c r="C170" t="s">
+        <v>233</v>
+      </c>
+      <c r="D170" t="s">
+        <v>234</v>
+      </c>
+      <c r="E170" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="B171" t="s">
+        <v>302</v>
+      </c>
+      <c r="C171" t="s">
+        <v>303</v>
+      </c>
+      <c r="D171" t="s">
+        <v>304</v>
+      </c>
+      <c r="E171" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="B172" t="s">
+        <v>283</v>
+      </c>
+      <c r="C172" t="s">
+        <v>281</v>
+      </c>
+      <c r="D172" t="s">
+        <v>221</v>
+      </c>
+      <c r="E172" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="B173" t="s">
+        <v>284</v>
+      </c>
+      <c r="C173" t="s">
+        <v>202</v>
+      </c>
+      <c r="D173" t="s">
+        <v>203</v>
+      </c>
+      <c r="E173" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="B174" t="s">
+        <v>289</v>
+      </c>
+      <c r="C174" t="s">
+        <v>287</v>
+      </c>
+      <c r="D174" t="s">
+        <v>288</v>
+      </c>
+      <c r="E174" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="B175" t="s">
+        <v>294</v>
+      </c>
+      <c r="C175" t="s">
+        <v>292</v>
+      </c>
+      <c r="D175" t="s">
+        <v>293</v>
+      </c>
+      <c r="E175" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="B176" t="s">
+        <v>306</v>
+      </c>
+      <c r="C176" t="s">
+        <v>307</v>
+      </c>
+      <c r="D176" t="s">
+        <v>189</v>
+      </c>
+      <c r="E176" t="s">
         <v>150</v>
       </c>
-      <c r="C145" t="s">
-        <v>151</v>
-      </c>
-      <c r="D145" t="s">
-        <v>152</v>
-      </c>
-      <c r="E145" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
-      <c r="B146" t="s">
-        <v>150</v>
-      </c>
-      <c r="C146" t="s">
-        <v>151</v>
-      </c>
-      <c r="D146" t="s">
-        <v>152</v>
-      </c>
-      <c r="E146" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
-      <c r="B147" t="s">
-        <v>281</v>
-      </c>
-      <c r="C147" t="s">
-        <v>282</v>
-      </c>
-      <c r="D147" t="s">
-        <v>283</v>
-      </c>
-      <c r="E147" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
-      <c r="B148" t="s">
-        <v>284</v>
-      </c>
-      <c r="C148" t="s">
-        <v>282</v>
-      </c>
-      <c r="D148" t="s">
-        <v>283</v>
-      </c>
-      <c r="E148" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
-      <c r="B149" t="s">
-        <v>286</v>
-      </c>
-      <c r="C149" t="s">
-        <v>287</v>
-      </c>
-      <c r="D149" t="s">
-        <v>288</v>
-      </c>
-      <c r="E149" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
-      <c r="B150" t="s">
-        <v>289</v>
-      </c>
-      <c r="C150" t="s">
-        <v>287</v>
-      </c>
-      <c r="D150" t="s">
-        <v>288</v>
-      </c>
-      <c r="E150" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
-      <c r="B151" t="s">
-        <v>244</v>
-      </c>
-      <c r="C151" t="s">
-        <v>245</v>
-      </c>
-      <c r="D151" t="s">
-        <v>246</v>
-      </c>
-      <c r="E151" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
-      <c r="B152" t="s">
-        <v>248</v>
-      </c>
-      <c r="C152" t="s">
-        <v>245</v>
-      </c>
-      <c r="D152" t="s">
-        <v>246</v>
-      </c>
-      <c r="E152" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
-      <c r="B153" t="s">
-        <v>290</v>
-      </c>
-      <c r="C153" t="s">
-        <v>291</v>
-      </c>
-      <c r="D153" t="s">
-        <v>292</v>
-      </c>
-      <c r="E153" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
-      <c r="B154" t="s">
-        <v>290</v>
-      </c>
-      <c r="C154" t="s">
-        <v>291</v>
-      </c>
-      <c r="D154" t="s">
-        <v>292</v>
-      </c>
-      <c r="E154" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
-      <c r="A156" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
-      <c r="B158" t="s">
-        <v>35</v>
-      </c>
-      <c r="C158" t="s">
-        <v>32</v>
-      </c>
-      <c r="D158" t="s">
-        <v>33</v>
-      </c>
-      <c r="E158" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
-      <c r="B159" t="s">
-        <v>255</v>
-      </c>
-      <c r="C159" t="s">
-        <v>256</v>
-      </c>
-      <c r="D159" t="s">
-        <v>257</v>
-      </c>
-      <c r="E159" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5">
-      <c r="B160" t="s">
-        <v>258</v>
-      </c>
-      <c r="C160" t="s">
-        <v>256</v>
-      </c>
-      <c r="D160" t="s">
-        <v>257</v>
-      </c>
-      <c r="E160" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="161" spans="2:5">
-      <c r="B161" t="s">
-        <v>265</v>
-      </c>
-      <c r="C161" t="s">
-        <v>264</v>
-      </c>
-      <c r="D161" t="s">
-        <v>246</v>
-      </c>
-      <c r="E161" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="162" spans="2:5">
-      <c r="B162" t="s">
-        <v>49</v>
-      </c>
-      <c r="C162" t="s">
-        <v>50</v>
-      </c>
-      <c r="D162" t="s">
-        <v>51</v>
-      </c>
-      <c r="E162" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="163" spans="2:5">
-      <c r="B163" t="s">
-        <v>269</v>
-      </c>
-      <c r="C163" t="s">
-        <v>267</v>
-      </c>
-      <c r="D163" t="s">
-        <v>268</v>
-      </c>
-      <c r="E163" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="164" spans="2:5">
-      <c r="B164" t="s">
-        <v>294</v>
-      </c>
-      <c r="C164" t="s">
-        <v>295</v>
-      </c>
-      <c r="D164" t="s">
-        <v>296</v>
-      </c>
-      <c r="E164" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="165" spans="2:5">
-      <c r="B165" t="s">
-        <v>227</v>
-      </c>
-      <c r="C165" t="s">
-        <v>228</v>
-      </c>
-      <c r="D165" t="s">
-        <v>229</v>
-      </c>
-      <c r="E165" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="166" spans="2:5">
-      <c r="B166" t="s">
-        <v>297</v>
-      </c>
-      <c r="C166" t="s">
-        <v>298</v>
-      </c>
-      <c r="D166" t="s">
-        <v>299</v>
-      </c>
-      <c r="E166" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="167" spans="2:5">
-      <c r="B167" t="s">
-        <v>278</v>
-      </c>
-      <c r="C167" t="s">
-        <v>276</v>
-      </c>
-      <c r="D167" t="s">
-        <v>216</v>
-      </c>
-      <c r="E167" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="168" spans="2:5">
-      <c r="B168" t="s">
-        <v>279</v>
-      </c>
-      <c r="C168" t="s">
-        <v>197</v>
-      </c>
-      <c r="D168" t="s">
-        <v>198</v>
-      </c>
-      <c r="E168" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="169" spans="2:5">
-      <c r="B169" t="s">
-        <v>284</v>
-      </c>
-      <c r="C169" t="s">
-        <v>282</v>
-      </c>
-      <c r="D169" t="s">
-        <v>283</v>
-      </c>
-      <c r="E169" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="170" spans="2:5">
-      <c r="B170" t="s">
-        <v>289</v>
-      </c>
-      <c r="C170" t="s">
-        <v>287</v>
-      </c>
-      <c r="D170" t="s">
-        <v>288</v>
-      </c>
-      <c r="E170" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="171" spans="2:5">
-      <c r="B171" t="s">
-        <v>301</v>
-      </c>
-      <c r="C171" t="s">
-        <v>302</v>
-      </c>
-      <c r="D171" t="s">
-        <v>184</v>
-      </c>
-      <c r="E171" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="172" spans="2:5">
-      <c r="B172" t="s">
-        <v>303</v>
-      </c>
-      <c r="C172" t="s">
-        <v>304</v>
-      </c>
-      <c r="D172" t="s">
-        <v>305</v>
-      </c>
-      <c r="E172" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="173" spans="2:5">
-      <c r="B173" t="s">
-        <v>248</v>
-      </c>
-      <c r="C173" t="s">
-        <v>245</v>
-      </c>
-      <c r="D173" t="s">
-        <v>246</v>
-      </c>
-      <c r="E173" t="s">
-        <v>249</v>
+    </row>
+    <row r="177" spans="2:5">
+      <c r="B177" t="s">
+        <v>308</v>
+      </c>
+      <c r="C177" t="s">
+        <v>309</v>
+      </c>
+      <c r="D177" t="s">
+        <v>310</v>
+      </c>
+      <c r="E177" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="178" spans="2:5">
+      <c r="B178" t="s">
+        <v>253</v>
+      </c>
+      <c r="C178" t="s">
+        <v>250</v>
+      </c>
+      <c r="D178" t="s">
+        <v>251</v>
+      </c>
+      <c r="E178" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/riassuntoAutomatico.xlsx
+++ b/riassuntoAutomatico.xlsx
@@ -14,30 +14,1605 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="533">
   <si>
     <t>Riassunto analisi</t>
   </si>
   <si>
-    <t>Trovati errori per 1 bambini</t>
-  </si>
-  <si>
-    <t>Trovate 1 occorrenze per il controllo Controllo Kindergarten #1</t>
+    <t>Trovati errori per 152 bambini</t>
+  </si>
+  <si>
+    <t>Trovate 55 occorrenze per il controllo Controllo Kindergarten #1</t>
+  </si>
+  <si>
+    <t>Trovate 44 occorrenze per il controllo Controllo Kindergarten #2</t>
+  </si>
+  <si>
+    <t>Trovate 7 occorrenze per il controllo Controllo finanziamento compensativo</t>
+  </si>
+  <si>
+    <t>Trovate 4 occorrenze per il controllo Controllo finanziamento compensativo #2</t>
+  </si>
+  <si>
+    <t>Trovate 1 occorrenze per il controllo Controllo Covid #1</t>
+  </si>
+  <si>
+    <t>Trovate 9 occorrenze per il controllo Controllo Covid #3</t>
+  </si>
+  <si>
+    <t>Trovate 13 occorrenze per il controllo Contratti lockdown sospetti (Covid #4)</t>
+  </si>
+  <si>
+    <t>Trovate 13 occorrenze per il controllo Controllo Fehler Eingewöhnung</t>
+  </si>
+  <si>
+    <t>Trovate 24 occorrenze per il controllo Controllo Fehler Eingewöhnung 543 Lockdown</t>
+  </si>
+  <si>
+    <t>Trovate 14 occorrenze per il controllo Controllo Fehler Eingewöhnung 543 Notbetreuung</t>
+  </si>
+  <si>
+    <t>Trovate 2 occorrenze per il controllo Controllo ore complessive periodo contrattuale</t>
+  </si>
+  <si>
+    <t>Trovate 35 occorrenze per il controllo Bambino presente in più comuni</t>
+  </si>
+  <si>
+    <t>Trovate 1 occorrenze per il controllo Bambini con annotazioni</t>
   </si>
   <si>
     <t>Controllo Kindergarten #1</t>
   </si>
   <si>
-    <t>INNERHOFER JULIAN</t>
-  </si>
-  <si>
-    <t>NNRJLN17A17B220Y</t>
-  </si>
-  <si>
-    <t>2017-01-17 00:00:00</t>
-  </si>
-  <si>
-    <t>Terenten</t>
+    <t>Abler Sophie</t>
+  </si>
+  <si>
+    <t>BLRSPH16T68F132B</t>
+  </si>
+  <si>
+    <t>2016-12-28 00:00:00</t>
+  </si>
+  <si>
+    <t>Partschins</t>
+  </si>
+  <si>
+    <t>Agostinetto  Levi</t>
+  </si>
+  <si>
+    <t>GSTLVE17B06A952V</t>
+  </si>
+  <si>
+    <t>2017-02-06 00:00:00</t>
+  </si>
+  <si>
+    <t>Meran</t>
+  </si>
+  <si>
+    <t>Blaas Jakob</t>
+  </si>
+  <si>
+    <t>BLSJKB16R29I729Q</t>
+  </si>
+  <si>
+    <t>2016-10-29 00:00:00</t>
+  </si>
+  <si>
+    <t>Naturns</t>
+  </si>
+  <si>
+    <t>Bozzano Pietro</t>
+  </si>
+  <si>
+    <t>BZZPTR17A26B160X</t>
+  </si>
+  <si>
+    <t>2017-01-26 00:00:00</t>
+  </si>
+  <si>
+    <t>Karneid</t>
+  </si>
+  <si>
+    <t>Burkhart Nele</t>
+  </si>
+  <si>
+    <t>BRKNLE17B41B220I</t>
+  </si>
+  <si>
+    <t>2017-02-01 00:00:00</t>
+  </si>
+  <si>
+    <t>Bruneck</t>
+  </si>
+  <si>
+    <t>Dejori Pia</t>
+  </si>
+  <si>
+    <t>DJRPIA17A67A952Q</t>
+  </si>
+  <si>
+    <t>2017-01-27 00:00:00</t>
+  </si>
+  <si>
+    <t>Welschnofen</t>
+  </si>
+  <si>
+    <t>Desaler Viktoria</t>
+  </si>
+  <si>
+    <t>DSLVTR17A51A952V</t>
+  </si>
+  <si>
+    <t>2017-01-11 00:00:00</t>
+  </si>
+  <si>
+    <t>Sarntal</t>
+  </si>
+  <si>
+    <t>Doliana Mia</t>
+  </si>
+  <si>
+    <t>DLNMIA16T71A952X</t>
+  </si>
+  <si>
+    <t>2016-12-31 00:00:00</t>
+  </si>
+  <si>
+    <t>Ennemoser  Ella</t>
+  </si>
+  <si>
+    <t>NNMLLE17A60A952M</t>
+  </si>
+  <si>
+    <t>2017-01-20 00:00:00</t>
+  </si>
+  <si>
+    <t>Prad a Stj</t>
+  </si>
+  <si>
+    <t>Fiechter Emil</t>
+  </si>
+  <si>
+    <t>FCHMLE17A12B160W</t>
+  </si>
+  <si>
+    <t>2017-01-12 00:00:00</t>
+  </si>
+  <si>
+    <t>Ratschings</t>
+  </si>
+  <si>
+    <t>Gamper Klaus</t>
+  </si>
+  <si>
+    <t>GMPKLS16T18F132L</t>
+  </si>
+  <si>
+    <t>2016-12-18 00:00:00</t>
+  </si>
+  <si>
+    <t>Ulten</t>
+  </si>
+  <si>
+    <t>Gasser Lara</t>
+  </si>
+  <si>
+    <t>GSSLRA17B48F132D</t>
+  </si>
+  <si>
+    <t>2017-02-08 00:00:00</t>
+  </si>
+  <si>
+    <t>Lana</t>
+  </si>
+  <si>
+    <t>Goegele Maria</t>
+  </si>
+  <si>
+    <t>GGLMRA16S62F132J</t>
+  </si>
+  <si>
+    <t>2016-11-22 00:00:00</t>
+  </si>
+  <si>
+    <t>Gruber  Emil</t>
+  </si>
+  <si>
+    <t>GRBMLE16T12F132N</t>
+  </si>
+  <si>
+    <t>2016-12-12 00:00:00</t>
+  </si>
+  <si>
+    <t>Moelten</t>
+  </si>
+  <si>
+    <t>Gruber  Karolina</t>
+  </si>
+  <si>
+    <t>GRBKLN17A70F132K</t>
+  </si>
+  <si>
+    <t>2017-01-30 00:00:00</t>
+  </si>
+  <si>
+    <t>Riffian</t>
+  </si>
+  <si>
+    <t>Haller Toni</t>
+  </si>
+  <si>
+    <t>HLLTNO16T14B220U</t>
+  </si>
+  <si>
+    <t>2016-12-14 00:00:00</t>
+  </si>
+  <si>
+    <t>Gsies</t>
+  </si>
+  <si>
+    <t>Huber  David</t>
+  </si>
+  <si>
+    <t>HBRDVD16S18B220L</t>
+  </si>
+  <si>
+    <t>2016-11-18 00:00:00</t>
+  </si>
+  <si>
+    <t>St. Lorenzen</t>
+  </si>
+  <si>
+    <t>Kircher  Lena</t>
+  </si>
+  <si>
+    <t>KRCLNE17B53B160I</t>
+  </si>
+  <si>
+    <t>2017-02-13 00:00:00</t>
+  </si>
+  <si>
+    <t>Kohler Mali</t>
+  </si>
+  <si>
+    <t>KHLMLA17A71A952X</t>
+  </si>
+  <si>
+    <t>2017-01-31 00:00:00</t>
+  </si>
+  <si>
+    <t>Ladurner Moritz</t>
+  </si>
+  <si>
+    <t>LDRMTZ17B09F132D</t>
+  </si>
+  <si>
+    <t>2017-02-09 00:00:00</t>
+  </si>
+  <si>
+    <t>Marling</t>
+  </si>
+  <si>
+    <t>Lüling Gabriel</t>
+  </si>
+  <si>
+    <t>LLNGRL17B23B160G</t>
+  </si>
+  <si>
+    <t>2017-02-23 00:00:00</t>
+  </si>
+  <si>
+    <t>Brixen</t>
+  </si>
+  <si>
+    <t>Matzoll Simon</t>
+  </si>
+  <si>
+    <t>MTZSMN16T01F132M</t>
+  </si>
+  <si>
+    <t>2016-12-01 00:00:00</t>
+  </si>
+  <si>
+    <t>St. Pankraz Ulten</t>
+  </si>
+  <si>
+    <t>Mentzel Katharina</t>
+  </si>
+  <si>
+    <t>MNTKHR17A55A952Q</t>
+  </si>
+  <si>
+    <t>2017-01-15 00:00:00</t>
+  </si>
+  <si>
+    <t>Tiers</t>
+  </si>
+  <si>
+    <t>Moosbrugger Theresa</t>
+  </si>
+  <si>
+    <t>MSBTRS17B42Z102X</t>
+  </si>
+  <si>
+    <t>2017-02-02 00:00:00</t>
+  </si>
+  <si>
+    <t>Mor  Nadyn</t>
+  </si>
+  <si>
+    <t>MRONYN16P65B160C</t>
+  </si>
+  <si>
+    <t>2016-09-25 00:00:00</t>
+  </si>
+  <si>
+    <t>Vintl</t>
+  </si>
+  <si>
+    <t>Niederkofler Josef</t>
+  </si>
+  <si>
+    <t>NDRJSF17A20B220Z</t>
+  </si>
+  <si>
+    <t>Sand in Taufers</t>
+  </si>
+  <si>
+    <t>Niederstaetter Leni</t>
+  </si>
+  <si>
+    <t>NDRLNE16T59A952N</t>
+  </si>
+  <si>
+    <t>2016-12-19 00:00:00</t>
+  </si>
+  <si>
+    <t>Tscherms</t>
+  </si>
+  <si>
+    <t>Niederstaetter Toni</t>
+  </si>
+  <si>
+    <t>NDRTNO16T19A952B</t>
+  </si>
+  <si>
+    <t>Obgriesser Niklas</t>
+  </si>
+  <si>
+    <t>BGRNLS17B26B220E</t>
+  </si>
+  <si>
+    <t>2017-02-26 00:00:00</t>
+  </si>
+  <si>
+    <t>Perillo Zwink Noah Leon</t>
+  </si>
+  <si>
+    <t>PRLNLN17A15F132L</t>
+  </si>
+  <si>
+    <t>Pfattner  Jonas</t>
+  </si>
+  <si>
+    <t>PFTJNS16S25A952D</t>
+  </si>
+  <si>
+    <t>2016-11-25 00:00:00</t>
+  </si>
+  <si>
+    <t>Pföstl  Philipp</t>
+  </si>
+  <si>
+    <t>PFSPLP17B08F132P</t>
+  </si>
+  <si>
+    <t>Schenna</t>
+  </si>
+  <si>
+    <t>Pircher Paul</t>
+  </si>
+  <si>
+    <t>PRCPLA16S29F132U</t>
+  </si>
+  <si>
+    <t>2016-11-29 00:00:00</t>
+  </si>
+  <si>
+    <t>Ploner  Simon</t>
+  </si>
+  <si>
+    <t>PLNSMN17A18B220Q</t>
+  </si>
+  <si>
+    <t>2017-01-18 00:00:00</t>
+  </si>
+  <si>
+    <t>Rieder  Isabel</t>
+  </si>
+  <si>
+    <t>RDRSBL16M50A952F</t>
+  </si>
+  <si>
+    <t>2016-08-10 00:00:00</t>
+  </si>
+  <si>
+    <t>Rieder Fabian</t>
+  </si>
+  <si>
+    <t>RDRFBN17A08B160U</t>
+  </si>
+  <si>
+    <t>2017-01-08 00:00:00</t>
+  </si>
+  <si>
+    <t>Scheibenhoffer Alexander</t>
+  </si>
+  <si>
+    <t>SCHLND17B12F132N</t>
+  </si>
+  <si>
+    <t>2017-02-12 00:00:00</t>
+  </si>
+  <si>
+    <t>Seiwald  Silas</t>
+  </si>
+  <si>
+    <t>SWLSLS16S08B220U</t>
+  </si>
+  <si>
+    <t>2016-11-08 00:00:00</t>
+  </si>
+  <si>
+    <t>Sevcikova  Nadia</t>
+  </si>
+  <si>
+    <t>SVCNDA17A70B220F</t>
+  </si>
+  <si>
+    <t>Pfalzen</t>
+  </si>
+  <si>
+    <t>Stampfl Johanna</t>
+  </si>
+  <si>
+    <t>STMJNN17A47A952V</t>
+  </si>
+  <si>
+    <t>2017-01-07 00:00:00</t>
+  </si>
+  <si>
+    <t>Bozen</t>
+  </si>
+  <si>
+    <t>Stragenegg Krieg Paul</t>
+  </si>
+  <si>
+    <t>STRPLA17B14F132K</t>
+  </si>
+  <si>
+    <t>2017-02-14 00:00:00</t>
+  </si>
+  <si>
+    <t>Trafojer Jakob</t>
+  </si>
+  <si>
+    <t>TRFJKB16S22F132Q</t>
+  </si>
+  <si>
+    <t>Vassanelli Noah</t>
+  </si>
+  <si>
+    <t>VSSNHO16R13F132P</t>
+  </si>
+  <si>
+    <t>2016-10-13 00:00:00</t>
+  </si>
+  <si>
+    <t>Viaro Camilla</t>
+  </si>
+  <si>
+    <t>VRICLL16R64L378G</t>
+  </si>
+  <si>
+    <t>2016-10-24 00:00:00</t>
+  </si>
+  <si>
+    <t>Villgrattner Jonas</t>
+  </si>
+  <si>
+    <t>VLLJNS17A09B160F</t>
+  </si>
+  <si>
+    <t>2017-01-09 00:00:00</t>
+  </si>
+  <si>
+    <t>Völs am Schlern</t>
+  </si>
+  <si>
+    <t>Volante Vittorio</t>
+  </si>
+  <si>
+    <t>VLNVTR17B01A952B</t>
+  </si>
+  <si>
+    <t>Pfatten</t>
+  </si>
+  <si>
+    <t>Walter Moritz</t>
+  </si>
+  <si>
+    <t>WLTMTZ16M02M067H</t>
+  </si>
+  <si>
+    <t>2016-08-02 00:00:00</t>
+  </si>
+  <si>
+    <t>Weger Toni</t>
+  </si>
+  <si>
+    <t>WGRTNO17B05B160N</t>
+  </si>
+  <si>
+    <t>2017-02-05 00:00:00</t>
+  </si>
+  <si>
+    <t>Controllo Kindergarten #2</t>
+  </si>
+  <si>
+    <t>Ausserhofer Matthias</t>
+  </si>
+  <si>
+    <t>SSRMTH17S09B220Q</t>
+  </si>
+  <si>
+    <t>2017-11-09 00:00:00</t>
+  </si>
+  <si>
+    <t>Barbi Serena</t>
+  </si>
+  <si>
+    <t>BRBSRN17R65A952R</t>
+  </si>
+  <si>
+    <t>2017-10-25 00:00:00</t>
+  </si>
+  <si>
+    <t>Leifers</t>
+  </si>
+  <si>
+    <t>Bekoe Lucia</t>
+  </si>
+  <si>
+    <t>BKELCU17R50A952D</t>
+  </si>
+  <si>
+    <t>2017-10-10 00:00:00</t>
+  </si>
+  <si>
+    <t>Klausen</t>
+  </si>
+  <si>
+    <t>Coser Arthur</t>
+  </si>
+  <si>
+    <t>CSRRHR17L18F132W</t>
+  </si>
+  <si>
+    <t>2017-07-18 00:00:00</t>
+  </si>
+  <si>
+    <t>Costa Yasmina</t>
+  </si>
+  <si>
+    <t>CSTYMN17E60F132Y</t>
+  </si>
+  <si>
+    <t>2017-05-20 00:00:00</t>
+  </si>
+  <si>
+    <t>Doda Denis</t>
+  </si>
+  <si>
+    <t>DDODNS17L05I729E</t>
+  </si>
+  <si>
+    <t>2017-07-05 00:00:00</t>
+  </si>
+  <si>
+    <t>Schlanders</t>
+  </si>
+  <si>
+    <t>Ellecosta Emely</t>
+  </si>
+  <si>
+    <t>LLCMLY17S49B220J</t>
+  </si>
+  <si>
+    <t>Eschgfaeller Marie</t>
+  </si>
+  <si>
+    <t>SCHMRA17T62A952K</t>
+  </si>
+  <si>
+    <t>2017-12-22 00:00:00</t>
+  </si>
+  <si>
+    <t>Hafling</t>
+  </si>
+  <si>
+    <t>Frei Gasser Mia</t>
+  </si>
+  <si>
+    <t>FRGMIA17C65B160L</t>
+  </si>
+  <si>
+    <t>2017-03-25 00:00:00</t>
+  </si>
+  <si>
+    <t>Gatterer Banna Amira</t>
+  </si>
+  <si>
+    <t>GTTMRA17D43B220Y</t>
+  </si>
+  <si>
+    <t>2017-04-03 00:00:00</t>
+  </si>
+  <si>
+    <t>Gostner Noah</t>
+  </si>
+  <si>
+    <t>GSTNHO17T18B160K</t>
+  </si>
+  <si>
+    <t>2017-12-18 00:00:00</t>
+  </si>
+  <si>
+    <t>Kastelruth</t>
+  </si>
+  <si>
+    <t>Gumpold Marius</t>
+  </si>
+  <si>
+    <t>GMPMRS17M28F132X</t>
+  </si>
+  <si>
+    <t>2017-08-28 00:00:00</t>
+  </si>
+  <si>
+    <t>St. Leonhard in Passeier</t>
+  </si>
+  <si>
+    <t>Hochgruber Raphael</t>
+  </si>
+  <si>
+    <t>HCHRHL17S04B220O</t>
+  </si>
+  <si>
+    <t>2017-11-04 00:00:00</t>
+  </si>
+  <si>
+    <t>Kiens</t>
+  </si>
+  <si>
+    <t>Hölzl Felicia Victoria</t>
+  </si>
+  <si>
+    <t>HLZFCV17S56F132E</t>
+  </si>
+  <si>
+    <t>2017-11-16 00:00:00</t>
+  </si>
+  <si>
+    <t>Algund</t>
+  </si>
+  <si>
+    <t>Kofler Andreas</t>
+  </si>
+  <si>
+    <t>KFLNRS17S23F132N</t>
+  </si>
+  <si>
+    <t>2017-11-23 00:00:00</t>
+  </si>
+  <si>
+    <t>St. Martin in Passeier</t>
+  </si>
+  <si>
+    <t>Longo Giada</t>
+  </si>
+  <si>
+    <t>LNGGDI17E68B220Z</t>
+  </si>
+  <si>
+    <t>2017-05-28 00:00:00</t>
+  </si>
+  <si>
+    <t>Lunger Ida</t>
+  </si>
+  <si>
+    <t>LNGDIA17S51A952F</t>
+  </si>
+  <si>
+    <t>2017-11-11 00:00:00</t>
+  </si>
+  <si>
+    <t>Malfatti Jonas</t>
+  </si>
+  <si>
+    <t>MLFJNS17E18F132I</t>
+  </si>
+  <si>
+    <t>2017-05-18 00:00:00</t>
+  </si>
+  <si>
+    <t>Gargazon</t>
+  </si>
+  <si>
+    <t>Massei Damian</t>
+  </si>
+  <si>
+    <t>MSSDMN17S29Z102Y</t>
+  </si>
+  <si>
+    <t>2017-11-29 00:00:00</t>
+  </si>
+  <si>
+    <t>Maturilli Anna Maria</t>
+  </si>
+  <si>
+    <t>MTRNMR17H63F132N</t>
+  </si>
+  <si>
+    <t>2017-06-23 00:00:00</t>
+  </si>
+  <si>
+    <t>Matzoll Rene</t>
+  </si>
+  <si>
+    <t>MTZRNE17C30F132A</t>
+  </si>
+  <si>
+    <t>2017-03-30 00:00:00</t>
+  </si>
+  <si>
+    <t>Mayer Fabienne</t>
+  </si>
+  <si>
+    <t>MYRFNN17L67B160A</t>
+  </si>
+  <si>
+    <t>2017-07-27 00:00:00</t>
+  </si>
+  <si>
+    <t>Villnöss</t>
+  </si>
+  <si>
+    <t>Messner Jakob</t>
+  </si>
+  <si>
+    <t>MSSJKB17S30F132S</t>
+  </si>
+  <si>
+    <t>2017-11-30 00:00:00</t>
+  </si>
+  <si>
+    <t>Eppan</t>
+  </si>
+  <si>
+    <t>Niederstaetter Leo</t>
+  </si>
+  <si>
+    <t>NDRLEO17H28F132T</t>
+  </si>
+  <si>
+    <t>2017-06-28 00:00:00</t>
+  </si>
+  <si>
+    <t>Oberhollenzer Ben</t>
+  </si>
+  <si>
+    <t>BRHBNE17P04B220J</t>
+  </si>
+  <si>
+    <t>2017-09-04 00:00:00</t>
+  </si>
+  <si>
+    <t>Orlando Amy</t>
+  </si>
+  <si>
+    <t>RLNMYA17E46F132T</t>
+  </si>
+  <si>
+    <t>2017-05-06 00:00:00</t>
+  </si>
+  <si>
+    <t>Oschmann Carl Cosimo</t>
+  </si>
+  <si>
+    <t>SCHCLC17L23B160P</t>
+  </si>
+  <si>
+    <t>2017-07-23 00:00:00</t>
+  </si>
+  <si>
+    <t>Pejic Milica</t>
+  </si>
+  <si>
+    <t>PJCMLC17H48F132R</t>
+  </si>
+  <si>
+    <t>2017-06-08 00:00:00</t>
+  </si>
+  <si>
+    <t>Pircher Hannes</t>
+  </si>
+  <si>
+    <t>PRCHNS17C08F132K</t>
+  </si>
+  <si>
+    <t>2017-03-08 00:00:00</t>
+  </si>
+  <si>
+    <t>Platter  Felix</t>
+  </si>
+  <si>
+    <t>PLTFLX17D28B160Z</t>
+  </si>
+  <si>
+    <t>2017-04-28 00:00:00</t>
+  </si>
+  <si>
+    <t>Prevedello  Timo</t>
+  </si>
+  <si>
+    <t>PRVTMI17T12F132L</t>
+  </si>
+  <si>
+    <t>2017-12-12 00:00:00</t>
+  </si>
+  <si>
+    <t>Priller  Yara</t>
+  </si>
+  <si>
+    <t>PRLYRA17D69B220C</t>
+  </si>
+  <si>
+    <t>2017-04-29 00:00:00</t>
+  </si>
+  <si>
+    <t>Ruiu Nina</t>
+  </si>
+  <si>
+    <t>RUINNI17C65B220Y</t>
+  </si>
+  <si>
+    <t>Ahrntal</t>
+  </si>
+  <si>
+    <t>Scano Nicole</t>
+  </si>
+  <si>
+    <t>SCNNCL17D64F132B</t>
+  </si>
+  <si>
+    <t>2017-04-24 00:00:00</t>
+  </si>
+  <si>
+    <t>Stanzel Amira</t>
+  </si>
+  <si>
+    <t>STNMRA17E53F132I</t>
+  </si>
+  <si>
+    <t>2017-05-13 00:00:00</t>
+  </si>
+  <si>
+    <t>Taschler  Anton</t>
+  </si>
+  <si>
+    <t>TSCNTN17L08B220M</t>
+  </si>
+  <si>
+    <t>2017-07-08 00:00:00</t>
+  </si>
+  <si>
+    <t>Rasen/Antholz</t>
+  </si>
+  <si>
+    <t>Thoman Aimar Amalia</t>
+  </si>
+  <si>
+    <t>THMMLA17T69I729V</t>
+  </si>
+  <si>
+    <t>2017-12-29 00:00:00</t>
+  </si>
+  <si>
+    <t>Trafoier Alex</t>
+  </si>
+  <si>
+    <t>TRFLXA17S27I729K</t>
+  </si>
+  <si>
+    <t>2017-11-27 00:00:00</t>
+  </si>
+  <si>
+    <t>Wenter Leo</t>
+  </si>
+  <si>
+    <t>WNTLEO17M01F132R</t>
+  </si>
+  <si>
+    <t>2017-08-01 00:00:00</t>
+  </si>
+  <si>
+    <t>Werner Emma</t>
+  </si>
+  <si>
+    <t>WRNMME17T67A952M</t>
+  </si>
+  <si>
+    <t>2017-12-27 00:00:00</t>
+  </si>
+  <si>
+    <t>Deutschnofen</t>
+  </si>
+  <si>
+    <t>Winkler Paula</t>
+  </si>
+  <si>
+    <t>WNKPLA17R42B220L</t>
+  </si>
+  <si>
+    <t>2017-10-02 00:00:00</t>
+  </si>
+  <si>
+    <t>Olang</t>
+  </si>
+  <si>
+    <t>Witcher Noah Sebastian</t>
+  </si>
+  <si>
+    <t>WTCNSB17C04B160X</t>
+  </si>
+  <si>
+    <t>2017-03-04 00:00:00</t>
+  </si>
+  <si>
+    <t>Woerndle Paul</t>
+  </si>
+  <si>
+    <t>WRNPLA17T13I729Z</t>
+  </si>
+  <si>
+    <t>2017-12-13 00:00:00</t>
+  </si>
+  <si>
+    <t>Schnals</t>
+  </si>
+  <si>
+    <t>Controllo finanziamento compensativo</t>
+  </si>
+  <si>
+    <t>Illmer Rafael</t>
+  </si>
+  <si>
+    <t>LLMRFL19B10F132U</t>
+  </si>
+  <si>
+    <t>2019-02-10 00:00:00</t>
+  </si>
+  <si>
+    <t>Pillon Luna</t>
+  </si>
+  <si>
+    <t>PLLLNU19C41B160R</t>
+  </si>
+  <si>
+    <t>2019-03-01 00:00:00</t>
+  </si>
+  <si>
+    <t>Santer Zoey</t>
+  </si>
+  <si>
+    <t>SNTZYO19E51B160D</t>
+  </si>
+  <si>
+    <t>2019-05-11 00:00:00</t>
+  </si>
+  <si>
+    <t>Sinn Sebastian</t>
+  </si>
+  <si>
+    <t>SNNSST19C22A952Q</t>
+  </si>
+  <si>
+    <t>2019-03-22 00:00:00</t>
+  </si>
+  <si>
+    <t>Kaltern</t>
+  </si>
+  <si>
+    <t>Controllo finanziamento compensativo #2</t>
+  </si>
+  <si>
+    <t>Kajana Mia</t>
+  </si>
+  <si>
+    <t>KJNMIA18M43A952A</t>
+  </si>
+  <si>
+    <t>2018-08-03 00:00:00</t>
+  </si>
+  <si>
+    <t>Tramin</t>
+  </si>
+  <si>
+    <t>Keim Iaco</t>
+  </si>
+  <si>
+    <t>KMECIA17L27B160E</t>
+  </si>
+  <si>
+    <t>Schwienbacher Ida</t>
+  </si>
+  <si>
+    <t>SCHDIA19M48F132M</t>
+  </si>
+  <si>
+    <t>2019-08-08 00:00:00</t>
+  </si>
+  <si>
+    <t>Controllo Covid #1</t>
+  </si>
+  <si>
+    <t>Controllo Covid #3</t>
+  </si>
+  <si>
+    <t>Audino Dennis</t>
+  </si>
+  <si>
+    <t>DNADNS18C15F132Y</t>
+  </si>
+  <si>
+    <t>2018-03-15 00:00:00</t>
+  </si>
+  <si>
+    <t>Bertagnolli Julius</t>
+  </si>
+  <si>
+    <t>BRTJLS17M10I729H</t>
+  </si>
+  <si>
+    <t>2017-08-10 00:00:00</t>
+  </si>
+  <si>
+    <t>Frei Juri</t>
+  </si>
+  <si>
+    <t>FREJRU18E29A952R</t>
+  </si>
+  <si>
+    <t>2018-05-29 00:00:00</t>
+  </si>
+  <si>
+    <t>Gorfer Florian</t>
+  </si>
+  <si>
+    <t>GRFFRN18E23I729P</t>
+  </si>
+  <si>
+    <t>2018-05-23 00:00:00</t>
+  </si>
+  <si>
+    <t>Gufler Lina</t>
+  </si>
+  <si>
+    <t>GFLLNI18L57F132G</t>
+  </si>
+  <si>
+    <t>2018-07-17 00:00:00</t>
+  </si>
+  <si>
+    <t>Moos in Passeier</t>
+  </si>
+  <si>
+    <t>Pircher Rafael Stefan</t>
+  </si>
+  <si>
+    <t>PRCRLS17M21I729J</t>
+  </si>
+  <si>
+    <t>2017-08-21 00:00:00</t>
+  </si>
+  <si>
+    <t>Pramstrahler Josef</t>
+  </si>
+  <si>
+    <t>PRMJSF19H13A952Z</t>
+  </si>
+  <si>
+    <t>2019-06-13 00:00:00</t>
+  </si>
+  <si>
+    <t>Thaler Nils</t>
+  </si>
+  <si>
+    <t>THLNLS17S11A952H</t>
+  </si>
+  <si>
+    <t>Contratti lockdown sospetti (Covid #4)</t>
+  </si>
+  <si>
+    <t>Controllo Fehler Eingewöhnung</t>
+  </si>
+  <si>
+    <t>Ajardi Josef</t>
+  </si>
+  <si>
+    <t>JRDJSF19R02B220Y</t>
+  </si>
+  <si>
+    <t>2019-10-02 00:00:00</t>
+  </si>
+  <si>
+    <t>Coser Anna</t>
+  </si>
+  <si>
+    <t>CSRNNA19E54F132F</t>
+  </si>
+  <si>
+    <t>2019-05-14 00:00:00</t>
+  </si>
+  <si>
+    <t>Crepaz Amelie</t>
+  </si>
+  <si>
+    <t>CRPMLA18A41B160K</t>
+  </si>
+  <si>
+    <t>2018-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>Feldthurns</t>
+  </si>
+  <si>
+    <t>Gamper Martha</t>
+  </si>
+  <si>
+    <t>GMPMTH19D47F132J</t>
+  </si>
+  <si>
+    <t>2019-04-07 00:00:00</t>
+  </si>
+  <si>
+    <t>Gruber Emma</t>
+  </si>
+  <si>
+    <t>GRBMME18E67F132P</t>
+  </si>
+  <si>
+    <t>2018-05-27 00:00:00</t>
+  </si>
+  <si>
+    <t>Huber Alexander</t>
+  </si>
+  <si>
+    <t>HBRLND18L27Z102R</t>
+  </si>
+  <si>
+    <t>2018-07-27 00:00:00</t>
+  </si>
+  <si>
+    <t>Huber Anna</t>
+  </si>
+  <si>
+    <t>HBRNNA18S55A952Y</t>
+  </si>
+  <si>
+    <t>2018-11-15 00:00:00</t>
+  </si>
+  <si>
+    <t>Karlegger Svenja Heidrun</t>
+  </si>
+  <si>
+    <t>KRLSNJ18P49I729Y</t>
+  </si>
+  <si>
+    <t>2018-09-09 00:00:00</t>
+  </si>
+  <si>
+    <t>Malloth Daniel</t>
+  </si>
+  <si>
+    <t>MLLDNL17L10I729Y</t>
+  </si>
+  <si>
+    <t>2017-07-10 00:00:00</t>
+  </si>
+  <si>
+    <t>Taufers i. M.</t>
+  </si>
+  <si>
+    <t>Pichler Simon</t>
+  </si>
+  <si>
+    <t>PCHSMN19L15F132H</t>
+  </si>
+  <si>
+    <t>2019-07-15 00:00:00</t>
+  </si>
+  <si>
+    <t>Premstaller Emmi</t>
+  </si>
+  <si>
+    <t>PRMMME19P65B220I</t>
+  </si>
+  <si>
+    <t>2019-09-25 00:00:00</t>
+  </si>
+  <si>
+    <t>Percha</t>
+  </si>
+  <si>
+    <t>Vent Ludwig</t>
+  </si>
+  <si>
+    <t>VNTLWG18P17F132O</t>
+  </si>
+  <si>
+    <t>2018-09-17 00:00:00</t>
+  </si>
+  <si>
+    <t>Burgstall</t>
+  </si>
+  <si>
+    <t>Wassler Alex</t>
+  </si>
+  <si>
+    <t>WSSLXA18H02A952T</t>
+  </si>
+  <si>
+    <t>2018-06-02 00:00:00</t>
+  </si>
+  <si>
+    <t>Controllo Fehler Eingewöhnung 543 Lockdown</t>
+  </si>
+  <si>
+    <t>Battaglia Mattia</t>
+  </si>
+  <si>
+    <t>BTTMTT17P08B160L</t>
+  </si>
+  <si>
+    <t>2017-09-08 00:00:00</t>
+  </si>
+  <si>
+    <t>Natz Schabs</t>
+  </si>
+  <si>
+    <t>D´Altri Stella</t>
+  </si>
+  <si>
+    <t>DLTSLL19B61A944K</t>
+  </si>
+  <si>
+    <t>2019-02-21 00:00:00</t>
+  </si>
+  <si>
+    <t>Eder Bruno</t>
+  </si>
+  <si>
+    <t>DREBRN19H09B220H</t>
+  </si>
+  <si>
+    <t>2019-06-09 00:00:00</t>
+  </si>
+  <si>
+    <t>Hafner Paul</t>
+  </si>
+  <si>
+    <t>HFNPLA18E20F132Q</t>
+  </si>
+  <si>
+    <t>2018-05-20 00:00:00</t>
+  </si>
+  <si>
+    <t>Prantl Rosa</t>
+  </si>
+  <si>
+    <t>PRNRSO18B49F132Z</t>
+  </si>
+  <si>
+    <t>2018-02-09 00:00:00</t>
+  </si>
+  <si>
+    <t>Tirol</t>
+  </si>
+  <si>
+    <t>Punter  Emil</t>
+  </si>
+  <si>
+    <t>PNTMLE17H12A952H</t>
+  </si>
+  <si>
+    <t>2017-06-12 00:00:00</t>
+  </si>
+  <si>
+    <t>Mals i. V.</t>
+  </si>
+  <si>
+    <t>Punter Julius</t>
+  </si>
+  <si>
+    <t>PNTJLS17H12A952S</t>
+  </si>
+  <si>
+    <t>Steger Fiona</t>
+  </si>
+  <si>
+    <t>STGFNI19E63B220P</t>
+  </si>
+  <si>
+    <t>2019-05-23 00:00:00</t>
+  </si>
+  <si>
+    <t>Thaler Leia</t>
+  </si>
+  <si>
+    <t>THLLEI19A68F132X</t>
+  </si>
+  <si>
+    <t>2019-01-28 00:00:00</t>
+  </si>
+  <si>
+    <t>Controllo Fehler Eingewöhnung 543 Notbetreuung</t>
+  </si>
+  <si>
+    <t>Agostinetto Matti</t>
+  </si>
+  <si>
+    <t>GSTMTT20B09A952T</t>
+  </si>
+  <si>
+    <t>2020-02-09 00:00:00</t>
+  </si>
+  <si>
+    <t>Barcatta Lisa</t>
+  </si>
+  <si>
+    <t>BRCLSI18S47A952V</t>
+  </si>
+  <si>
+    <t>2018-11-07 00:00:00</t>
+  </si>
+  <si>
+    <t>Kurtatsch</t>
+  </si>
+  <si>
+    <t>Billi Lorenzo</t>
+  </si>
+  <si>
+    <t>BLLLNZ20B12A952J</t>
+  </si>
+  <si>
+    <t>2020-02-12 00:00:00</t>
+  </si>
+  <si>
+    <t>Auer</t>
+  </si>
+  <si>
+    <t>Burger Karin</t>
+  </si>
+  <si>
+    <t>BRGKRN19E60I729G</t>
+  </si>
+  <si>
+    <t>2019-05-20 00:00:00</t>
+  </si>
+  <si>
+    <t>Ciaramella Lageder Giacomo Clemens</t>
+  </si>
+  <si>
+    <t>CRMGMC19T22F132F</t>
+  </si>
+  <si>
+    <t>2019-12-22 00:00:00</t>
+  </si>
+  <si>
+    <t>Edobor Evidence</t>
+  </si>
+  <si>
+    <t>DBRVNC19L59A952Z</t>
+  </si>
+  <si>
+    <t>2019-07-19 00:00:00</t>
+  </si>
+  <si>
+    <t>Graun im Vinschgau</t>
+  </si>
+  <si>
+    <t>Fabris Nathan</t>
+  </si>
+  <si>
+    <t>FBRNHN20B09F132A</t>
+  </si>
+  <si>
+    <t>Pircher Elsa Katharina</t>
+  </si>
+  <si>
+    <t>PRCLKT20B55I729Y</t>
+  </si>
+  <si>
+    <t>2020-02-15 00:00:00</t>
+  </si>
+  <si>
+    <t>Santner Lenz</t>
+  </si>
+  <si>
+    <t>SNTLNZ18A30F132R</t>
+  </si>
+  <si>
+    <t>2018-01-30 00:00:00</t>
+  </si>
+  <si>
+    <t>Schnitzer Lia</t>
+  </si>
+  <si>
+    <t>SCHLIA18P62F132S</t>
+  </si>
+  <si>
+    <t>2018-09-22 00:00:00</t>
+  </si>
+  <si>
+    <t>Vieider Stina Marie</t>
+  </si>
+  <si>
+    <t>VDRSNM18M56B160V</t>
+  </si>
+  <si>
+    <t>2018-08-16 00:00:00</t>
+  </si>
+  <si>
+    <t>Weger Mathe Elisabeth</t>
+  </si>
+  <si>
+    <t>WGRMHL18M51B220M</t>
+  </si>
+  <si>
+    <t>2018-08-11 00:00:00</t>
+  </si>
+  <si>
+    <t>Weissteiner Maximilian</t>
+  </si>
+  <si>
+    <t>WSSMML18L16B160Z</t>
+  </si>
+  <si>
+    <t>2018-07-16 00:00:00</t>
+  </si>
+  <si>
+    <t>Controllo ore complessive periodo contrattuale</t>
+  </si>
+  <si>
+    <t>Todde Nicoló</t>
+  </si>
+  <si>
+    <t>TDDNCL19D28A952R</t>
+  </si>
+  <si>
+    <t>2019-04-28 00:00:00</t>
+  </si>
+  <si>
+    <t>Bambino presente in più comuni</t>
+  </si>
+  <si>
+    <t>Alia Amelia</t>
+  </si>
+  <si>
+    <t>LAIMLA18S61A952S</t>
+  </si>
+  <si>
+    <t>2018-11-21 00:00:00</t>
+  </si>
+  <si>
+    <t>Margreid</t>
+  </si>
+  <si>
+    <t>Burger Linnea</t>
+  </si>
+  <si>
+    <t>BRGLNN18C48I729E</t>
+  </si>
+  <si>
+    <t>2018-03-08 00:00:00</t>
+  </si>
+  <si>
+    <t>Cellamare Camilla</t>
+  </si>
+  <si>
+    <t>CLLCLL17P60F132P</t>
+  </si>
+  <si>
+    <t>2017-09-20 00:00:00</t>
+  </si>
+  <si>
+    <t>Imonsili Mercy</t>
+  </si>
+  <si>
+    <t>MNSMCY18D63A952N</t>
+  </si>
+  <si>
+    <t>2018-04-23 00:00:00</t>
+  </si>
+  <si>
+    <t>Mazohl Mari</t>
+  </si>
+  <si>
+    <t>MZHMRA18P64F132P</t>
+  </si>
+  <si>
+    <t>2018-09-24 00:00:00</t>
+  </si>
+  <si>
+    <t>Schwärzer Anna</t>
+  </si>
+  <si>
+    <t>SCHNNA19R68B220L</t>
+  </si>
+  <si>
+    <t>2019-10-28 00:00:00</t>
+  </si>
+  <si>
+    <t>Gais</t>
+  </si>
+  <si>
+    <t>Usom Best Daniel</t>
+  </si>
+  <si>
+    <t>SMBDNL17C15A952L</t>
+  </si>
+  <si>
+    <t>2017-03-15 00:00:00</t>
+  </si>
+  <si>
+    <t>Weger Sophia</t>
+  </si>
+  <si>
+    <t>WGRSPH18D46B220D</t>
+  </si>
+  <si>
+    <t>2018-04-06 00:00:00</t>
+  </si>
+  <si>
+    <t>Whitecotton Leopold Harrison</t>
+  </si>
+  <si>
+    <t>WHTLLD18B20Z112Z</t>
+  </si>
+  <si>
+    <t>2018-02-20 00:00:00</t>
+  </si>
+  <si>
+    <t>Sterzing</t>
+  </si>
+  <si>
+    <t>Pfitsch</t>
+  </si>
+  <si>
+    <t>Bambini con annotazioni</t>
+  </si>
+  <si>
+    <t>Corduneanu Dorian *</t>
+  </si>
+  <si>
+    <t>CRDDRN17D05I729Y</t>
+  </si>
+  <si>
+    <t>2017-04-05 00:00:00</t>
+  </si>
+  <si>
+    <t>Kastelbell-Tschars</t>
   </si>
 </sst>
 </file>
@@ -378,44 +1953,3258 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E279"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="B10" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="D10" t="s">
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="E10" t="s">
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="B30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="B31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="B32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" t="s">
+        <v>76</v>
+      </c>
+      <c r="E38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" t="s">
+        <v>76</v>
+      </c>
+      <c r="E39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" t="s">
+        <v>80</v>
+      </c>
+      <c r="E40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" t="s">
+        <v>84</v>
+      </c>
+      <c r="E41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" t="s">
+        <v>87</v>
+      </c>
+      <c r="E42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" t="s">
+        <v>90</v>
+      </c>
+      <c r="E43" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44" t="s">
+        <v>94</v>
+      </c>
+      <c r="E44" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" t="s">
+        <v>98</v>
+      </c>
+      <c r="E45" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" t="s">
+        <v>101</v>
+      </c>
+      <c r="D46" t="s">
+        <v>102</v>
+      </c>
+      <c r="E46" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47" t="s">
+        <v>104</v>
+      </c>
+      <c r="C47" t="s">
+        <v>105</v>
+      </c>
+      <c r="D47" t="s">
+        <v>106</v>
+      </c>
+      <c r="E47" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" t="s">
+        <v>108</v>
+      </c>
+      <c r="D48" t="s">
+        <v>109</v>
+      </c>
+      <c r="E48" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" t="s">
+        <v>108</v>
+      </c>
+      <c r="D49" t="s">
+        <v>109</v>
+      </c>
+      <c r="E49" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" t="s">
+        <v>112</v>
+      </c>
+      <c r="D50" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="B51" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" t="s">
+        <v>115</v>
+      </c>
+      <c r="D51" t="s">
+        <v>116</v>
+      </c>
+      <c r="E51" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="B52" t="s">
+        <v>114</v>
+      </c>
+      <c r="C52" t="s">
+        <v>115</v>
+      </c>
+      <c r="D52" t="s">
+        <v>116</v>
+      </c>
+      <c r="E52" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="B53" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" t="s">
+        <v>119</v>
+      </c>
+      <c r="D53" t="s">
+        <v>116</v>
+      </c>
+      <c r="E53" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="B54" t="s">
+        <v>118</v>
+      </c>
+      <c r="C54" t="s">
+        <v>119</v>
+      </c>
+      <c r="D54" t="s">
+        <v>116</v>
+      </c>
+      <c r="E54" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="B55" t="s">
+        <v>120</v>
+      </c>
+      <c r="C55" t="s">
+        <v>121</v>
+      </c>
+      <c r="D55" t="s">
+        <v>122</v>
+      </c>
+      <c r="E55" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="B56" t="s">
+        <v>123</v>
+      </c>
+      <c r="C56" t="s">
+        <v>124</v>
+      </c>
+      <c r="D56" t="s">
+        <v>102</v>
+      </c>
+      <c r="E56" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5">
+      <c r="B57" t="s">
+        <v>123</v>
+      </c>
+      <c r="C57" t="s">
+        <v>124</v>
+      </c>
+      <c r="D57" t="s">
+        <v>102</v>
+      </c>
+      <c r="E57" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58" t="s">
+        <v>125</v>
+      </c>
+      <c r="C58" t="s">
+        <v>126</v>
+      </c>
+      <c r="D58" t="s">
+        <v>127</v>
+      </c>
+      <c r="E58" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="B59" t="s">
+        <v>125</v>
+      </c>
+      <c r="C59" t="s">
+        <v>126</v>
+      </c>
+      <c r="D59" t="s">
+        <v>127</v>
+      </c>
+      <c r="E59" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5">
+      <c r="B60" t="s">
+        <v>128</v>
+      </c>
+      <c r="C60" t="s">
+        <v>129</v>
+      </c>
+      <c r="D60" t="s">
+        <v>61</v>
+      </c>
+      <c r="E60" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5">
+      <c r="B61" t="s">
+        <v>131</v>
+      </c>
+      <c r="C61" t="s">
+        <v>132</v>
+      </c>
+      <c r="D61" t="s">
+        <v>133</v>
+      </c>
+      <c r="E61" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5">
+      <c r="B62" t="s">
+        <v>134</v>
+      </c>
+      <c r="C62" t="s">
+        <v>135</v>
+      </c>
+      <c r="D62" t="s">
+        <v>136</v>
+      </c>
+      <c r="E62" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5">
+      <c r="B63" t="s">
+        <v>137</v>
+      </c>
+      <c r="C63" t="s">
+        <v>138</v>
+      </c>
+      <c r="D63" t="s">
+        <v>139</v>
+      </c>
+      <c r="E63" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5">
+      <c r="B64" t="s">
+        <v>140</v>
+      </c>
+      <c r="C64" t="s">
+        <v>141</v>
+      </c>
+      <c r="D64" t="s">
+        <v>142</v>
+      </c>
+      <c r="E64" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="B65" t="s">
+        <v>143</v>
+      </c>
+      <c r="C65" t="s">
+        <v>144</v>
+      </c>
+      <c r="D65" t="s">
+        <v>145</v>
+      </c>
+      <c r="E65" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="B66" t="s">
+        <v>146</v>
+      </c>
+      <c r="C66" t="s">
+        <v>147</v>
+      </c>
+      <c r="D66" t="s">
+        <v>148</v>
+      </c>
+      <c r="E66" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="B67" t="s">
+        <v>149</v>
+      </c>
+      <c r="C67" t="s">
+        <v>150</v>
+      </c>
+      <c r="D67" t="s">
+        <v>72</v>
+      </c>
+      <c r="E67" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="B68" t="s">
+        <v>152</v>
+      </c>
+      <c r="C68" t="s">
+        <v>153</v>
+      </c>
+      <c r="D68" t="s">
+        <v>154</v>
+      </c>
+      <c r="E68" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="B69" t="s">
+        <v>156</v>
+      </c>
+      <c r="C69" t="s">
+        <v>157</v>
+      </c>
+      <c r="D69" t="s">
+        <v>158</v>
+      </c>
+      <c r="E69" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="B70" t="s">
+        <v>159</v>
+      </c>
+      <c r="C70" t="s">
+        <v>160</v>
+      </c>
+      <c r="D70" t="s">
+        <v>65</v>
+      </c>
+      <c r="E70" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="B71" t="s">
+        <v>161</v>
+      </c>
+      <c r="C71" t="s">
+        <v>162</v>
+      </c>
+      <c r="D71" t="s">
+        <v>163</v>
+      </c>
+      <c r="E71" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="B72" t="s">
+        <v>164</v>
+      </c>
+      <c r="C72" t="s">
+        <v>165</v>
+      </c>
+      <c r="D72" t="s">
+        <v>166</v>
+      </c>
+      <c r="E72" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="B73" t="s">
+        <v>167</v>
+      </c>
+      <c r="C73" t="s">
+        <v>168</v>
+      </c>
+      <c r="D73" t="s">
+        <v>169</v>
+      </c>
+      <c r="E73" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="B74" t="s">
+        <v>171</v>
+      </c>
+      <c r="C74" t="s">
+        <v>172</v>
+      </c>
+      <c r="D74" t="s">
+        <v>34</v>
+      </c>
+      <c r="E74" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="B75" t="s">
+        <v>174</v>
+      </c>
+      <c r="C75" t="s">
+        <v>175</v>
+      </c>
+      <c r="D75" t="s">
+        <v>176</v>
+      </c>
+      <c r="E75" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="B76" t="s">
+        <v>177</v>
+      </c>
+      <c r="C76" t="s">
+        <v>178</v>
+      </c>
+      <c r="D76" t="s">
+        <v>179</v>
+      </c>
+      <c r="E76" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="B80" t="s">
+        <v>181</v>
+      </c>
+      <c r="C80" t="s">
+        <v>182</v>
+      </c>
+      <c r="D80" t="s">
+        <v>183</v>
+      </c>
+      <c r="E80" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5">
+      <c r="B81" t="s">
+        <v>184</v>
+      </c>
+      <c r="C81" t="s">
+        <v>185</v>
+      </c>
+      <c r="D81" t="s">
+        <v>186</v>
+      </c>
+      <c r="E81" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5">
+      <c r="B82" t="s">
+        <v>188</v>
+      </c>
+      <c r="C82" t="s">
+        <v>189</v>
+      </c>
+      <c r="D82" t="s">
+        <v>190</v>
+      </c>
+      <c r="E82" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5">
+      <c r="B83" t="s">
+        <v>192</v>
+      </c>
+      <c r="C83" t="s">
+        <v>193</v>
+      </c>
+      <c r="D83" t="s">
+        <v>194</v>
+      </c>
+      <c r="E83" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5">
+      <c r="B84" t="s">
+        <v>195</v>
+      </c>
+      <c r="C84" t="s">
+        <v>196</v>
+      </c>
+      <c r="D84" t="s">
+        <v>197</v>
+      </c>
+      <c r="E84" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5">
+      <c r="B85" t="s">
+        <v>198</v>
+      </c>
+      <c r="C85" t="s">
+        <v>199</v>
+      </c>
+      <c r="D85" t="s">
+        <v>200</v>
+      </c>
+      <c r="E85" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5">
+      <c r="B86" t="s">
+        <v>202</v>
+      </c>
+      <c r="C86" t="s">
+        <v>203</v>
+      </c>
+      <c r="D86" t="s">
+        <v>183</v>
+      </c>
+      <c r="E86" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5">
+      <c r="B87" t="s">
+        <v>204</v>
+      </c>
+      <c r="C87" t="s">
+        <v>205</v>
+      </c>
+      <c r="D87" t="s">
+        <v>206</v>
+      </c>
+      <c r="E87" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5">
+      <c r="B88" t="s">
+        <v>208</v>
+      </c>
+      <c r="C88" t="s">
+        <v>209</v>
+      </c>
+      <c r="D88" t="s">
+        <v>210</v>
+      </c>
+      <c r="E88" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5">
+      <c r="B89" t="s">
+        <v>211</v>
+      </c>
+      <c r="C89" t="s">
+        <v>212</v>
+      </c>
+      <c r="D89" t="s">
+        <v>213</v>
+      </c>
+      <c r="E89" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5">
+      <c r="B90" t="s">
+        <v>214</v>
+      </c>
+      <c r="C90" t="s">
+        <v>215</v>
+      </c>
+      <c r="D90" t="s">
+        <v>216</v>
+      </c>
+      <c r="E90" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5">
+      <c r="B91" t="s">
+        <v>218</v>
+      </c>
+      <c r="C91" t="s">
+        <v>219</v>
+      </c>
+      <c r="D91" t="s">
+        <v>220</v>
+      </c>
+      <c r="E91" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5">
+      <c r="B92" t="s">
+        <v>222</v>
+      </c>
+      <c r="C92" t="s">
+        <v>223</v>
+      </c>
+      <c r="D92" t="s">
+        <v>224</v>
+      </c>
+      <c r="E92" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5">
+      <c r="B93" t="s">
+        <v>226</v>
+      </c>
+      <c r="C93" t="s">
+        <v>227</v>
+      </c>
+      <c r="D93" t="s">
+        <v>228</v>
+      </c>
+      <c r="E93" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5">
+      <c r="B94" t="s">
+        <v>230</v>
+      </c>
+      <c r="C94" t="s">
+        <v>231</v>
+      </c>
+      <c r="D94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E94" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5">
+      <c r="B95" t="s">
+        <v>234</v>
+      </c>
+      <c r="C95" t="s">
+        <v>235</v>
+      </c>
+      <c r="D95" t="s">
+        <v>236</v>
+      </c>
+      <c r="E95" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5">
+      <c r="B96" t="s">
+        <v>237</v>
+      </c>
+      <c r="C96" t="s">
+        <v>238</v>
+      </c>
+      <c r="D96" t="s">
+        <v>239</v>
+      </c>
+      <c r="E96" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5">
+      <c r="B97" t="s">
+        <v>240</v>
+      </c>
+      <c r="C97" t="s">
+        <v>241</v>
+      </c>
+      <c r="D97" t="s">
+        <v>242</v>
+      </c>
+      <c r="E97" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5">
+      <c r="B98" t="s">
+        <v>244</v>
+      </c>
+      <c r="C98" t="s">
+        <v>245</v>
+      </c>
+      <c r="D98" t="s">
+        <v>246</v>
+      </c>
+      <c r="E98" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5">
+      <c r="B99" t="s">
+        <v>247</v>
+      </c>
+      <c r="C99" t="s">
+        <v>248</v>
+      </c>
+      <c r="D99" t="s">
+        <v>249</v>
+      </c>
+      <c r="E99" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5">
+      <c r="B100" t="s">
+        <v>250</v>
+      </c>
+      <c r="C100" t="s">
+        <v>251</v>
+      </c>
+      <c r="D100" t="s">
+        <v>252</v>
+      </c>
+      <c r="E100" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5">
+      <c r="B101" t="s">
+        <v>253</v>
+      </c>
+      <c r="C101" t="s">
+        <v>254</v>
+      </c>
+      <c r="D101" t="s">
+        <v>255</v>
+      </c>
+      <c r="E101" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5">
+      <c r="B102" t="s">
+        <v>257</v>
+      </c>
+      <c r="C102" t="s">
+        <v>258</v>
+      </c>
+      <c r="D102" t="s">
+        <v>259</v>
+      </c>
+      <c r="E102" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5">
+      <c r="B103" t="s">
+        <v>261</v>
+      </c>
+      <c r="C103" t="s">
+        <v>262</v>
+      </c>
+      <c r="D103" t="s">
+        <v>263</v>
+      </c>
+      <c r="E103" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5">
+      <c r="B104" t="s">
+        <v>261</v>
+      </c>
+      <c r="C104" t="s">
+        <v>262</v>
+      </c>
+      <c r="D104" t="s">
+        <v>263</v>
+      </c>
+      <c r="E104" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5">
+      <c r="B105" t="s">
+        <v>264</v>
+      </c>
+      <c r="C105" t="s">
+        <v>265</v>
+      </c>
+      <c r="D105" t="s">
+        <v>266</v>
+      </c>
+      <c r="E105" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5">
+      <c r="B106" t="s">
+        <v>267</v>
+      </c>
+      <c r="C106" t="s">
+        <v>268</v>
+      </c>
+      <c r="D106" t="s">
+        <v>269</v>
+      </c>
+      <c r="E106" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5">
+      <c r="B107" t="s">
+        <v>270</v>
+      </c>
+      <c r="C107" t="s">
+        <v>271</v>
+      </c>
+      <c r="D107" t="s">
+        <v>272</v>
+      </c>
+      <c r="E107" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5">
+      <c r="B108" t="s">
+        <v>273</v>
+      </c>
+      <c r="C108" t="s">
+        <v>274</v>
+      </c>
+      <c r="D108" t="s">
+        <v>275</v>
+      </c>
+      <c r="E108" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5">
+      <c r="B109" t="s">
+        <v>276</v>
+      </c>
+      <c r="C109" t="s">
+        <v>277</v>
+      </c>
+      <c r="D109" t="s">
+        <v>278</v>
+      </c>
+      <c r="E109" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5">
+      <c r="B110" t="s">
+        <v>279</v>
+      </c>
+      <c r="C110" t="s">
+        <v>280</v>
+      </c>
+      <c r="D110" t="s">
+        <v>281</v>
+      </c>
+      <c r="E110" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5">
+      <c r="B111" t="s">
+        <v>282</v>
+      </c>
+      <c r="C111" t="s">
+        <v>283</v>
+      </c>
+      <c r="D111" t="s">
+        <v>284</v>
+      </c>
+      <c r="E111" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5">
+      <c r="B112" t="s">
+        <v>285</v>
+      </c>
+      <c r="C112" t="s">
+        <v>286</v>
+      </c>
+      <c r="D112" t="s">
+        <v>287</v>
+      </c>
+      <c r="E112" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="B113" t="s">
+        <v>288</v>
+      </c>
+      <c r="C113" t="s">
+        <v>289</v>
+      </c>
+      <c r="D113" t="s">
+        <v>210</v>
+      </c>
+      <c r="E113" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="B114" t="s">
+        <v>291</v>
+      </c>
+      <c r="C114" t="s">
+        <v>292</v>
+      </c>
+      <c r="D114" t="s">
+        <v>293</v>
+      </c>
+      <c r="E114" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="B115" t="s">
+        <v>294</v>
+      </c>
+      <c r="C115" t="s">
+        <v>295</v>
+      </c>
+      <c r="D115" t="s">
+        <v>296</v>
+      </c>
+      <c r="E115" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="B116" t="s">
+        <v>297</v>
+      </c>
+      <c r="C116" t="s">
+        <v>298</v>
+      </c>
+      <c r="D116" t="s">
+        <v>299</v>
+      </c>
+      <c r="E116" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="B117" t="s">
+        <v>301</v>
+      </c>
+      <c r="C117" t="s">
+        <v>302</v>
+      </c>
+      <c r="D117" t="s">
+        <v>303</v>
+      </c>
+      <c r="E117" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="B118" t="s">
+        <v>304</v>
+      </c>
+      <c r="C118" t="s">
+        <v>305</v>
+      </c>
+      <c r="D118" t="s">
+        <v>306</v>
+      </c>
+      <c r="E118" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="B119" t="s">
+        <v>307</v>
+      </c>
+      <c r="C119" t="s">
+        <v>308</v>
+      </c>
+      <c r="D119" t="s">
+        <v>309</v>
+      </c>
+      <c r="E119" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="B120" t="s">
+        <v>310</v>
+      </c>
+      <c r="C120" t="s">
+        <v>311</v>
+      </c>
+      <c r="D120" t="s">
+        <v>312</v>
+      </c>
+      <c r="E120" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="B121" t="s">
+        <v>314</v>
+      </c>
+      <c r="C121" t="s">
+        <v>315</v>
+      </c>
+      <c r="D121" t="s">
+        <v>316</v>
+      </c>
+      <c r="E121" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="B122" t="s">
+        <v>318</v>
+      </c>
+      <c r="C122" t="s">
+        <v>319</v>
+      </c>
+      <c r="D122" t="s">
+        <v>320</v>
+      </c>
+      <c r="E122" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="B123" t="s">
+        <v>321</v>
+      </c>
+      <c r="C123" t="s">
+        <v>322</v>
+      </c>
+      <c r="D123" t="s">
+        <v>323</v>
+      </c>
+      <c r="E123" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="B127" t="s">
+        <v>202</v>
+      </c>
+      <c r="C127" t="s">
+        <v>203</v>
+      </c>
+      <c r="D127" t="s">
+        <v>183</v>
+      </c>
+      <c r="E127" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="B128" t="s">
+        <v>326</v>
+      </c>
+      <c r="C128" t="s">
+        <v>327</v>
+      </c>
+      <c r="D128" t="s">
+        <v>328</v>
+      </c>
+      <c r="E128" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="B129" t="s">
+        <v>114</v>
+      </c>
+      <c r="C129" t="s">
+        <v>115</v>
+      </c>
+      <c r="D129" t="s">
+        <v>116</v>
+      </c>
+      <c r="E129" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="B130" t="s">
+        <v>118</v>
+      </c>
+      <c r="C130" t="s">
+        <v>119</v>
+      </c>
+      <c r="D130" t="s">
+        <v>116</v>
+      </c>
+      <c r="E130" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="B131" t="s">
+        <v>329</v>
+      </c>
+      <c r="C131" t="s">
+        <v>330</v>
+      </c>
+      <c r="D131" t="s">
+        <v>331</v>
+      </c>
+      <c r="E131" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="B132" t="s">
+        <v>332</v>
+      </c>
+      <c r="C132" t="s">
+        <v>333</v>
+      </c>
+      <c r="D132" t="s">
+        <v>334</v>
+      </c>
+      <c r="E132" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="B133" t="s">
+        <v>335</v>
+      </c>
+      <c r="C133" t="s">
+        <v>336</v>
+      </c>
+      <c r="D133" t="s">
+        <v>337</v>
+      </c>
+      <c r="E133" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="B137" t="s">
+        <v>340</v>
+      </c>
+      <c r="C137" t="s">
+        <v>341</v>
+      </c>
+      <c r="D137" t="s">
+        <v>342</v>
+      </c>
+      <c r="E137" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="B138" t="s">
+        <v>344</v>
+      </c>
+      <c r="C138" t="s">
+        <v>345</v>
+      </c>
+      <c r="D138" t="s">
+        <v>255</v>
+      </c>
+      <c r="E138" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="B139" t="s">
+        <v>247</v>
+      </c>
+      <c r="C139" t="s">
+        <v>248</v>
+      </c>
+      <c r="D139" t="s">
+        <v>249</v>
+      </c>
+      <c r="E139" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="B140" t="s">
+        <v>346</v>
+      </c>
+      <c r="C140" t="s">
+        <v>347</v>
+      </c>
+      <c r="D140" t="s">
+        <v>348</v>
+      </c>
+      <c r="E140" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="B144" t="s">
+        <v>247</v>
+      </c>
+      <c r="C144" t="s">
+        <v>248</v>
+      </c>
+      <c r="D144" t="s">
+        <v>249</v>
+      </c>
+      <c r="E144" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="B148" t="s">
+        <v>351</v>
+      </c>
+      <c r="C148" t="s">
+        <v>352</v>
+      </c>
+      <c r="D148" t="s">
+        <v>353</v>
+      </c>
+      <c r="E148" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="B149" t="s">
+        <v>354</v>
+      </c>
+      <c r="C149" t="s">
+        <v>355</v>
+      </c>
+      <c r="D149" t="s">
+        <v>356</v>
+      </c>
+      <c r="E149" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="B150" t="s">
+        <v>357</v>
+      </c>
+      <c r="C150" t="s">
+        <v>358</v>
+      </c>
+      <c r="D150" t="s">
+        <v>359</v>
+      </c>
+      <c r="E150" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="B151" t="s">
+        <v>360</v>
+      </c>
+      <c r="C151" t="s">
+        <v>361</v>
+      </c>
+      <c r="D151" t="s">
+        <v>362</v>
+      </c>
+      <c r="E151" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="B152" t="s">
+        <v>363</v>
+      </c>
+      <c r="C152" t="s">
+        <v>364</v>
+      </c>
+      <c r="D152" t="s">
+        <v>365</v>
+      </c>
+      <c r="E152" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="B153" t="s">
+        <v>367</v>
+      </c>
+      <c r="C153" t="s">
+        <v>368</v>
+      </c>
+      <c r="D153" t="s">
+        <v>369</v>
+      </c>
+      <c r="E153" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="B154" t="s">
+        <v>370</v>
+      </c>
+      <c r="C154" t="s">
+        <v>371</v>
+      </c>
+      <c r="D154" t="s">
+        <v>372</v>
+      </c>
+      <c r="E154" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="B155" t="s">
+        <v>335</v>
+      </c>
+      <c r="C155" t="s">
+        <v>336</v>
+      </c>
+      <c r="D155" t="s">
+        <v>337</v>
+      </c>
+      <c r="E155" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="B156" t="s">
+        <v>373</v>
+      </c>
+      <c r="C156" t="s">
+        <v>374</v>
+      </c>
+      <c r="D156" t="s">
+        <v>239</v>
+      </c>
+      <c r="E156" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="B160" t="s">
+        <v>351</v>
+      </c>
+      <c r="C160" t="s">
+        <v>352</v>
+      </c>
+      <c r="D160" t="s">
+        <v>353</v>
+      </c>
+      <c r="E160" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="B161" t="s">
+        <v>354</v>
+      </c>
+      <c r="C161" t="s">
+        <v>355</v>
+      </c>
+      <c r="D161" t="s">
+        <v>356</v>
+      </c>
+      <c r="E161" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="B162" t="s">
+        <v>202</v>
+      </c>
+      <c r="C162" t="s">
+        <v>203</v>
+      </c>
+      <c r="D162" t="s">
+        <v>183</v>
+      </c>
+      <c r="E162" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="B163" t="s">
+        <v>357</v>
+      </c>
+      <c r="C163" t="s">
+        <v>358</v>
+      </c>
+      <c r="D163" t="s">
+        <v>359</v>
+      </c>
+      <c r="E163" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="B164" t="s">
+        <v>360</v>
+      </c>
+      <c r="C164" t="s">
+        <v>361</v>
+      </c>
+      <c r="D164" t="s">
+        <v>362</v>
+      </c>
+      <c r="E164" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="B165" t="s">
+        <v>363</v>
+      </c>
+      <c r="C165" t="s">
+        <v>364</v>
+      </c>
+      <c r="D165" t="s">
+        <v>365</v>
+      </c>
+      <c r="E165" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="B166" t="s">
+        <v>326</v>
+      </c>
+      <c r="C166" t="s">
+        <v>327</v>
+      </c>
+      <c r="D166" t="s">
+        <v>328</v>
+      </c>
+      <c r="E166" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="B167" t="s">
+        <v>329</v>
+      </c>
+      <c r="C167" t="s">
+        <v>330</v>
+      </c>
+      <c r="D167" t="s">
+        <v>331</v>
+      </c>
+      <c r="E167" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="B168" t="s">
+        <v>370</v>
+      </c>
+      <c r="C168" t="s">
+        <v>371</v>
+      </c>
+      <c r="D168" t="s">
+        <v>372</v>
+      </c>
+      <c r="E168" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="B169" t="s">
+        <v>332</v>
+      </c>
+      <c r="C169" t="s">
+        <v>333</v>
+      </c>
+      <c r="D169" t="s">
+        <v>334</v>
+      </c>
+      <c r="E169" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="B170" t="s">
+        <v>346</v>
+      </c>
+      <c r="C170" t="s">
+        <v>347</v>
+      </c>
+      <c r="D170" t="s">
+        <v>348</v>
+      </c>
+      <c r="E170" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="B171" t="s">
+        <v>335</v>
+      </c>
+      <c r="C171" t="s">
+        <v>336</v>
+      </c>
+      <c r="D171" t="s">
+        <v>337</v>
+      </c>
+      <c r="E171" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="B172" t="s">
+        <v>373</v>
+      </c>
+      <c r="C172" t="s">
+        <v>374</v>
+      </c>
+      <c r="D172" t="s">
+        <v>239</v>
+      </c>
+      <c r="E172" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="B176" t="s">
+        <v>377</v>
+      </c>
+      <c r="C176" t="s">
+        <v>378</v>
+      </c>
+      <c r="D176" t="s">
+        <v>379</v>
+      </c>
+      <c r="E176" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="B177" t="s">
+        <v>380</v>
+      </c>
+      <c r="C177" t="s">
+        <v>381</v>
+      </c>
+      <c r="D177" t="s">
+        <v>382</v>
+      </c>
+      <c r="E177" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="B178" t="s">
+        <v>383</v>
+      </c>
+      <c r="C178" t="s">
+        <v>384</v>
+      </c>
+      <c r="D178" t="s">
+        <v>385</v>
+      </c>
+      <c r="E178" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="B179" t="s">
+        <v>387</v>
+      </c>
+      <c r="C179" t="s">
+        <v>388</v>
+      </c>
+      <c r="D179" t="s">
+        <v>389</v>
+      </c>
+      <c r="E179" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="B180" t="s">
+        <v>390</v>
+      </c>
+      <c r="C180" t="s">
+        <v>391</v>
+      </c>
+      <c r="D180" t="s">
+        <v>392</v>
+      </c>
+      <c r="E180" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="B181" t="s">
+        <v>393</v>
+      </c>
+      <c r="C181" t="s">
+        <v>394</v>
+      </c>
+      <c r="D181" t="s">
+        <v>395</v>
+      </c>
+      <c r="E181" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="B182" t="s">
+        <v>396</v>
+      </c>
+      <c r="C182" t="s">
+        <v>397</v>
+      </c>
+      <c r="D182" t="s">
+        <v>398</v>
+      </c>
+      <c r="E182" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="B183" t="s">
+        <v>399</v>
+      </c>
+      <c r="C183" t="s">
+        <v>400</v>
+      </c>
+      <c r="D183" t="s">
+        <v>401</v>
+      </c>
+      <c r="E183" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="B184" t="s">
+        <v>402</v>
+      </c>
+      <c r="C184" t="s">
+        <v>403</v>
+      </c>
+      <c r="D184" t="s">
+        <v>404</v>
+      </c>
+      <c r="E184" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="B185" t="s">
+        <v>406</v>
+      </c>
+      <c r="C185" t="s">
+        <v>407</v>
+      </c>
+      <c r="D185" t="s">
+        <v>408</v>
+      </c>
+      <c r="E185" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="B186" t="s">
+        <v>409</v>
+      </c>
+      <c r="C186" t="s">
+        <v>410</v>
+      </c>
+      <c r="D186" t="s">
+        <v>411</v>
+      </c>
+      <c r="E186" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="B187" t="s">
+        <v>413</v>
+      </c>
+      <c r="C187" t="s">
+        <v>414</v>
+      </c>
+      <c r="D187" t="s">
+        <v>415</v>
+      </c>
+      <c r="E187" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="B188" t="s">
+        <v>417</v>
+      </c>
+      <c r="C188" t="s">
+        <v>418</v>
+      </c>
+      <c r="D188" t="s">
+        <v>419</v>
+      </c>
+      <c r="E188" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="B192" t="s">
+        <v>377</v>
+      </c>
+      <c r="C192" t="s">
+        <v>378</v>
+      </c>
+      <c r="D192" t="s">
+        <v>379</v>
+      </c>
+      <c r="E192" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="193" spans="2:5">
+      <c r="B193" t="s">
+        <v>421</v>
+      </c>
+      <c r="C193" t="s">
+        <v>422</v>
+      </c>
+      <c r="D193" t="s">
+        <v>423</v>
+      </c>
+      <c r="E193" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="194" spans="2:5">
+      <c r="B194" t="s">
+        <v>380</v>
+      </c>
+      <c r="C194" t="s">
+        <v>381</v>
+      </c>
+      <c r="D194" t="s">
+        <v>382</v>
+      </c>
+      <c r="E194" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="195" spans="2:5">
+      <c r="B195" t="s">
+        <v>383</v>
+      </c>
+      <c r="C195" t="s">
+        <v>384</v>
+      </c>
+      <c r="D195" t="s">
+        <v>385</v>
+      </c>
+      <c r="E195" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="196" spans="2:5">
+      <c r="B196" t="s">
+        <v>425</v>
+      </c>
+      <c r="C196" t="s">
+        <v>426</v>
+      </c>
+      <c r="D196" t="s">
+        <v>427</v>
+      </c>
+      <c r="E196" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="197" spans="2:5">
+      <c r="B197" t="s">
+        <v>428</v>
+      </c>
+      <c r="C197" t="s">
+        <v>429</v>
+      </c>
+      <c r="D197" t="s">
+        <v>430</v>
+      </c>
+      <c r="E197" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="198" spans="2:5">
+      <c r="B198" t="s">
+        <v>55</v>
+      </c>
+      <c r="C198" t="s">
+        <v>56</v>
+      </c>
+      <c r="D198" t="s">
+        <v>57</v>
+      </c>
+      <c r="E198" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="199" spans="2:5">
+      <c r="B199" t="s">
+        <v>387</v>
+      </c>
+      <c r="C199" t="s">
+        <v>388</v>
+      </c>
+      <c r="D199" t="s">
+        <v>389</v>
+      </c>
+      <c r="E199" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="200" spans="2:5">
+      <c r="B200" t="s">
+        <v>390</v>
+      </c>
+      <c r="C200" t="s">
+        <v>391</v>
+      </c>
+      <c r="D200" t="s">
+        <v>392</v>
+      </c>
+      <c r="E200" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="201" spans="2:5">
+      <c r="B201" t="s">
+        <v>363</v>
+      </c>
+      <c r="C201" t="s">
+        <v>364</v>
+      </c>
+      <c r="D201" t="s">
+        <v>365</v>
+      </c>
+      <c r="E201" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="202" spans="2:5">
+      <c r="B202" t="s">
+        <v>431</v>
+      </c>
+      <c r="C202" t="s">
+        <v>432</v>
+      </c>
+      <c r="D202" t="s">
+        <v>433</v>
+      </c>
+      <c r="E202" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="203" spans="2:5">
+      <c r="B203" t="s">
+        <v>393</v>
+      </c>
+      <c r="C203" t="s">
+        <v>394</v>
+      </c>
+      <c r="D203" t="s">
+        <v>395</v>
+      </c>
+      <c r="E203" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="204" spans="2:5">
+      <c r="B204" t="s">
+        <v>396</v>
+      </c>
+      <c r="C204" t="s">
+        <v>397</v>
+      </c>
+      <c r="D204" t="s">
+        <v>398</v>
+      </c>
+      <c r="E204" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="205" spans="2:5">
+      <c r="B205" t="s">
+        <v>399</v>
+      </c>
+      <c r="C205" t="s">
+        <v>400</v>
+      </c>
+      <c r="D205" t="s">
+        <v>401</v>
+      </c>
+      <c r="E205" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="206" spans="2:5">
+      <c r="B206" t="s">
+        <v>402</v>
+      </c>
+      <c r="C206" t="s">
+        <v>403</v>
+      </c>
+      <c r="D206" t="s">
+        <v>404</v>
+      </c>
+      <c r="E206" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="207" spans="2:5">
+      <c r="B207" t="s">
+        <v>406</v>
+      </c>
+      <c r="C207" t="s">
+        <v>407</v>
+      </c>
+      <c r="D207" t="s">
+        <v>408</v>
+      </c>
+      <c r="E207" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="208" spans="2:5">
+      <c r="B208" t="s">
+        <v>434</v>
+      </c>
+      <c r="C208" t="s">
+        <v>435</v>
+      </c>
+      <c r="D208" t="s">
+        <v>436</v>
+      </c>
+      <c r="E208" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="B209" t="s">
+        <v>409</v>
+      </c>
+      <c r="C209" t="s">
+        <v>410</v>
+      </c>
+      <c r="D209" t="s">
+        <v>411</v>
+      </c>
+      <c r="E209" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="B210" t="s">
+        <v>438</v>
+      </c>
+      <c r="C210" t="s">
+        <v>439</v>
+      </c>
+      <c r="D210" t="s">
+        <v>440</v>
+      </c>
+      <c r="E210" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="B211" t="s">
+        <v>442</v>
+      </c>
+      <c r="C211" t="s">
+        <v>443</v>
+      </c>
+      <c r="D211" t="s">
+        <v>440</v>
+      </c>
+      <c r="E211" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="B212" t="s">
+        <v>444</v>
+      </c>
+      <c r="C212" t="s">
+        <v>445</v>
+      </c>
+      <c r="D212" t="s">
+        <v>446</v>
+      </c>
+      <c r="E212" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="B213" t="s">
+        <v>447</v>
+      </c>
+      <c r="C213" t="s">
+        <v>448</v>
+      </c>
+      <c r="D213" t="s">
+        <v>449</v>
+      </c>
+      <c r="E213" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="B214" t="s">
+        <v>413</v>
+      </c>
+      <c r="C214" t="s">
+        <v>414</v>
+      </c>
+      <c r="D214" t="s">
+        <v>415</v>
+      </c>
+      <c r="E214" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="B215" t="s">
+        <v>417</v>
+      </c>
+      <c r="C215" t="s">
+        <v>418</v>
+      </c>
+      <c r="D215" t="s">
+        <v>419</v>
+      </c>
+      <c r="E215" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="B219" t="s">
+        <v>451</v>
+      </c>
+      <c r="C219" t="s">
+        <v>452</v>
+      </c>
+      <c r="D219" t="s">
+        <v>453</v>
+      </c>
+      <c r="E219" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="B220" t="s">
+        <v>454</v>
+      </c>
+      <c r="C220" t="s">
+        <v>455</v>
+      </c>
+      <c r="D220" t="s">
+        <v>456</v>
+      </c>
+      <c r="E220" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="B221" t="s">
+        <v>458</v>
+      </c>
+      <c r="C221" t="s">
+        <v>459</v>
+      </c>
+      <c r="D221" t="s">
+        <v>460</v>
+      </c>
+      <c r="E221" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="B222" t="s">
+        <v>462</v>
+      </c>
+      <c r="C222" t="s">
+        <v>463</v>
+      </c>
+      <c r="D222" t="s">
+        <v>464</v>
+      </c>
+      <c r="E222" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="B223" t="s">
+        <v>465</v>
+      </c>
+      <c r="C223" t="s">
+        <v>466</v>
+      </c>
+      <c r="D223" t="s">
+        <v>467</v>
+      </c>
+      <c r="E223" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="B224" t="s">
+        <v>468</v>
+      </c>
+      <c r="C224" t="s">
+        <v>469</v>
+      </c>
+      <c r="D224" t="s">
+        <v>470</v>
+      </c>
+      <c r="E224" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="B225" t="s">
+        <v>472</v>
+      </c>
+      <c r="C225" t="s">
+        <v>473</v>
+      </c>
+      <c r="D225" t="s">
+        <v>453</v>
+      </c>
+      <c r="E225" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="B226" t="s">
+        <v>474</v>
+      </c>
+      <c r="C226" t="s">
+        <v>475</v>
+      </c>
+      <c r="D226" t="s">
+        <v>476</v>
+      </c>
+      <c r="E226" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="B227" t="s">
+        <v>477</v>
+      </c>
+      <c r="C227" t="s">
+        <v>478</v>
+      </c>
+      <c r="D227" t="s">
+        <v>479</v>
+      </c>
+      <c r="E227" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="B228" t="s">
+        <v>480</v>
+      </c>
+      <c r="C228" t="s">
+        <v>481</v>
+      </c>
+      <c r="D228" t="s">
+        <v>482</v>
+      </c>
+      <c r="E228" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="B229" t="s">
+        <v>483</v>
+      </c>
+      <c r="C229" t="s">
+        <v>484</v>
+      </c>
+      <c r="D229" t="s">
+        <v>485</v>
+      </c>
+      <c r="E229" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="B230" t="s">
+        <v>486</v>
+      </c>
+      <c r="C230" t="s">
+        <v>487</v>
+      </c>
+      <c r="D230" t="s">
+        <v>488</v>
+      </c>
+      <c r="E230" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="B231" t="s">
+        <v>489</v>
+      </c>
+      <c r="C231" t="s">
+        <v>490</v>
+      </c>
+      <c r="D231" t="s">
+        <v>491</v>
+      </c>
+      <c r="E231" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="B232" t="s">
+        <v>321</v>
+      </c>
+      <c r="C232" t="s">
+        <v>322</v>
+      </c>
+      <c r="D232" t="s">
+        <v>323</v>
+      </c>
+      <c r="E232" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="B236" t="s">
+        <v>188</v>
+      </c>
+      <c r="C236" t="s">
+        <v>189</v>
+      </c>
+      <c r="D236" t="s">
+        <v>190</v>
+      </c>
+      <c r="E236" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="B237" t="s">
+        <v>493</v>
+      </c>
+      <c r="C237" t="s">
+        <v>494</v>
+      </c>
+      <c r="D237" t="s">
+        <v>495</v>
+      </c>
+      <c r="E237" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="241" spans="2:5">
+      <c r="B241" t="s">
+        <v>497</v>
+      </c>
+      <c r="C241" t="s">
+        <v>498</v>
+      </c>
+      <c r="D241" t="s">
+        <v>499</v>
+      </c>
+      <c r="E241" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="242" spans="2:5">
+      <c r="B242" t="s">
+        <v>497</v>
+      </c>
+      <c r="C242" t="s">
+        <v>498</v>
+      </c>
+      <c r="D242" t="s">
+        <v>499</v>
+      </c>
+      <c r="E242" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="243" spans="2:5">
+      <c r="B243" t="s">
+        <v>454</v>
+      </c>
+      <c r="C243" t="s">
+        <v>455</v>
+      </c>
+      <c r="D243" t="s">
+        <v>456</v>
+      </c>
+      <c r="E243" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="244" spans="2:5">
+      <c r="B244" t="s">
+        <v>454</v>
+      </c>
+      <c r="C244" t="s">
+        <v>455</v>
+      </c>
+      <c r="D244" t="s">
+        <v>456</v>
+      </c>
+      <c r="E244" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="245" spans="2:5">
+      <c r="B245" t="s">
+        <v>454</v>
+      </c>
+      <c r="C245" t="s">
+        <v>455</v>
+      </c>
+      <c r="D245" t="s">
+        <v>456</v>
+      </c>
+      <c r="E245" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="246" spans="2:5">
+      <c r="B246" t="s">
+        <v>501</v>
+      </c>
+      <c r="C246" t="s">
+        <v>502</v>
+      </c>
+      <c r="D246" t="s">
+        <v>503</v>
+      </c>
+      <c r="E246" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="247" spans="2:5">
+      <c r="B247" t="s">
+        <v>501</v>
+      </c>
+      <c r="C247" t="s">
+        <v>502</v>
+      </c>
+      <c r="D247" t="s">
+        <v>503</v>
+      </c>
+      <c r="E247" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="248" spans="2:5">
+      <c r="B248" t="s">
+        <v>501</v>
+      </c>
+      <c r="C248" t="s">
+        <v>502</v>
+      </c>
+      <c r="D248" t="s">
+        <v>503</v>
+      </c>
+      <c r="E248" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="249" spans="2:5">
+      <c r="B249" t="s">
+        <v>501</v>
+      </c>
+      <c r="C249" t="s">
+        <v>502</v>
+      </c>
+      <c r="D249" t="s">
+        <v>503</v>
+      </c>
+      <c r="E249" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="250" spans="2:5">
+      <c r="B250" t="s">
+        <v>504</v>
+      </c>
+      <c r="C250" t="s">
+        <v>505</v>
+      </c>
+      <c r="D250" t="s">
+        <v>506</v>
+      </c>
+      <c r="E250" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="251" spans="2:5">
+      <c r="B251" t="s">
+        <v>504</v>
+      </c>
+      <c r="C251" t="s">
+        <v>505</v>
+      </c>
+      <c r="D251" t="s">
+        <v>506</v>
+      </c>
+      <c r="E251" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="252" spans="2:5">
+      <c r="B252" t="s">
+        <v>465</v>
+      </c>
+      <c r="C252" t="s">
+        <v>466</v>
+      </c>
+      <c r="D252" t="s">
+        <v>467</v>
+      </c>
+      <c r="E252" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="253" spans="2:5">
+      <c r="B253" t="s">
+        <v>465</v>
+      </c>
+      <c r="C253" t="s">
+        <v>466</v>
+      </c>
+      <c r="D253" t="s">
+        <v>467</v>
+      </c>
+      <c r="E253" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="254" spans="2:5">
+      <c r="B254" t="s">
+        <v>202</v>
+      </c>
+      <c r="C254" t="s">
+        <v>203</v>
+      </c>
+      <c r="D254" t="s">
+        <v>183</v>
+      </c>
+      <c r="E254" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="255" spans="2:5">
+      <c r="B255" t="s">
+        <v>202</v>
+      </c>
+      <c r="C255" t="s">
+        <v>203</v>
+      </c>
+      <c r="D255" t="s">
+        <v>183</v>
+      </c>
+      <c r="E255" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="256" spans="2:5">
+      <c r="B256" t="s">
+        <v>507</v>
+      </c>
+      <c r="C256" t="s">
+        <v>508</v>
+      </c>
+      <c r="D256" t="s">
+        <v>509</v>
+      </c>
+      <c r="E256" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="257" spans="2:5">
+      <c r="B257" t="s">
+        <v>507</v>
+      </c>
+      <c r="C257" t="s">
+        <v>508</v>
+      </c>
+      <c r="D257" t="s">
+        <v>509</v>
+      </c>
+      <c r="E257" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="258" spans="2:5">
+      <c r="B258" t="s">
+        <v>247</v>
+      </c>
+      <c r="C258" t="s">
+        <v>248</v>
+      </c>
+      <c r="D258" t="s">
+        <v>249</v>
+      </c>
+      <c r="E258" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="259" spans="2:5">
+      <c r="B259" t="s">
+        <v>247</v>
+      </c>
+      <c r="C259" t="s">
+        <v>248</v>
+      </c>
+      <c r="D259" t="s">
+        <v>249</v>
+      </c>
+      <c r="E259" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="260" spans="2:5">
+      <c r="B260" t="s">
+        <v>510</v>
+      </c>
+      <c r="C260" t="s">
+        <v>511</v>
+      </c>
+      <c r="D260" t="s">
+        <v>512</v>
+      </c>
+      <c r="E260" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="261" spans="2:5">
+      <c r="B261" t="s">
+        <v>510</v>
+      </c>
+      <c r="C261" t="s">
+        <v>511</v>
+      </c>
+      <c r="D261" t="s">
+        <v>512</v>
+      </c>
+      <c r="E261" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="262" spans="2:5">
+      <c r="B262" t="s">
+        <v>267</v>
+      </c>
+      <c r="C262" t="s">
+        <v>268</v>
+      </c>
+      <c r="D262" t="s">
+        <v>269</v>
+      </c>
+      <c r="E262" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="263" spans="2:5">
+      <c r="B263" t="s">
+        <v>267</v>
+      </c>
+      <c r="C263" t="s">
+        <v>268</v>
+      </c>
+      <c r="D263" t="s">
+        <v>269</v>
+      </c>
+      <c r="E263" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="264" spans="2:5">
+      <c r="B264" t="s">
+        <v>477</v>
+      </c>
+      <c r="C264" t="s">
+        <v>478</v>
+      </c>
+      <c r="D264" t="s">
+        <v>479</v>
+      </c>
+      <c r="E264" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="265" spans="2:5">
+      <c r="B265" t="s">
+        <v>477</v>
+      </c>
+      <c r="C265" t="s">
+        <v>478</v>
+      </c>
+      <c r="D265" t="s">
+        <v>479</v>
+      </c>
+      <c r="E265" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="266" spans="2:5">
+      <c r="B266" t="s">
+        <v>346</v>
+      </c>
+      <c r="C266" t="s">
+        <v>347</v>
+      </c>
+      <c r="D266" t="s">
+        <v>348</v>
+      </c>
+      <c r="E266" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="267" spans="2:5">
+      <c r="B267" t="s">
+        <v>346</v>
+      </c>
+      <c r="C267" t="s">
+        <v>347</v>
+      </c>
+      <c r="D267" t="s">
+        <v>348</v>
+      </c>
+      <c r="E267" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="268" spans="2:5">
+      <c r="B268" t="s">
+        <v>513</v>
+      </c>
+      <c r="C268" t="s">
+        <v>514</v>
+      </c>
+      <c r="D268" t="s">
+        <v>515</v>
+      </c>
+      <c r="E268" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="269" spans="2:5">
+      <c r="B269" t="s">
+        <v>513</v>
+      </c>
+      <c r="C269" t="s">
+        <v>514</v>
+      </c>
+      <c r="D269" t="s">
+        <v>515</v>
+      </c>
+      <c r="E269" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="270" spans="2:5">
+      <c r="B270" t="s">
+        <v>517</v>
+      </c>
+      <c r="C270" t="s">
+        <v>518</v>
+      </c>
+      <c r="D270" t="s">
+        <v>519</v>
+      </c>
+      <c r="E270" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="271" spans="2:5">
+      <c r="B271" t="s">
+        <v>517</v>
+      </c>
+      <c r="C271" t="s">
+        <v>518</v>
+      </c>
+      <c r="D271" t="s">
+        <v>519</v>
+      </c>
+      <c r="E271" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="272" spans="2:5">
+      <c r="B272" t="s">
+        <v>520</v>
+      </c>
+      <c r="C272" t="s">
+        <v>521</v>
+      </c>
+      <c r="D272" t="s">
+        <v>522</v>
+      </c>
+      <c r="E272" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="B273" t="s">
+        <v>520</v>
+      </c>
+      <c r="C273" t="s">
+        <v>521</v>
+      </c>
+      <c r="D273" t="s">
+        <v>522</v>
+      </c>
+      <c r="E273" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="B274" t="s">
+        <v>523</v>
+      </c>
+      <c r="C274" t="s">
+        <v>524</v>
+      </c>
+      <c r="D274" t="s">
+        <v>525</v>
+      </c>
+      <c r="E274" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="B275" t="s">
+        <v>523</v>
+      </c>
+      <c r="C275" t="s">
+        <v>524</v>
+      </c>
+      <c r="D275" t="s">
+        <v>525</v>
+      </c>
+      <c r="E275" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="B279" t="s">
+        <v>529</v>
+      </c>
+      <c r="C279" t="s">
+        <v>530</v>
+      </c>
+      <c r="D279" t="s">
+        <v>531</v>
+      </c>
+      <c r="E279" t="s">
+        <v>532</v>
       </c>
     </row>
   </sheetData>

--- a/riassuntoAutomatico.xlsx
+++ b/riassuntoAutomatico.xlsx
@@ -14,20 +14,109 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>Riassunto analisi</t>
   </si>
   <si>
-    <t>Trovati errori per 0 bambini</t>
+    <t>Trovati errori per 7 bambini</t>
+  </si>
+  <si>
+    <t>Trovate 1 occorrenze per il controllo Controllo Kindergarten #1</t>
+  </si>
+  <si>
+    <t>Trovate 6 occorrenze per il controllo Controllo Kindergarten #2</t>
+  </si>
+  <si>
+    <t>Controllo Kindergarten #1</t>
+  </si>
+  <si>
+    <t>HOLZER LARISSA</t>
+  </si>
+  <si>
+    <t>HLZLSS16M51M067B</t>
+  </si>
+  <si>
+    <t>2016-08-11 00:00:00</t>
+  </si>
+  <si>
+    <t>Pfitsch</t>
+  </si>
+  <si>
+    <t>Controllo Kindergarten #2</t>
+  </si>
+  <si>
+    <t>ALBERTI VICKY</t>
+  </si>
+  <si>
+    <t>LBRVKY17S43B160U</t>
+  </si>
+  <si>
+    <t>2017-11-03 00:00:00</t>
+  </si>
+  <si>
+    <t>Brixen</t>
+  </si>
+  <si>
+    <t>HEISS ANTON</t>
+  </si>
+  <si>
+    <t>HSSNTN17T11B220O</t>
+  </si>
+  <si>
+    <t>2017-12-11 00:00:00</t>
+  </si>
+  <si>
+    <t>Pfalzen</t>
+  </si>
+  <si>
+    <t>HEISS MICHAEL</t>
+  </si>
+  <si>
+    <t>HSSMHL17T11B220O</t>
+  </si>
+  <si>
+    <t>HOFER EVA</t>
+  </si>
+  <si>
+    <t>HFRVEA17L50B160H</t>
+  </si>
+  <si>
+    <t>2017-07-10 00:00:00</t>
+  </si>
+  <si>
+    <t>LASTA VALENTIN</t>
+  </si>
+  <si>
+    <t>LSTVNT17E18B160K</t>
+  </si>
+  <si>
+    <t>2017-05-18 00:00:00</t>
+  </si>
+  <si>
+    <t>NITZ MIA</t>
+  </si>
+  <si>
+    <t>NTZMIA17R46B160F</t>
+  </si>
+  <si>
+    <t>2017-10-06 00:00:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -55,8 +144,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -351,20 +441,138 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/riassuntoAutomatico.xlsx
+++ b/riassuntoAutomatico.xlsx
@@ -14,23 +14,242 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="311">
   <si>
     <t>Riassunto analisi</t>
   </si>
   <si>
-    <t>Trovati errori per 7 bambini</t>
-  </si>
-  <si>
-    <t>Trovate 1 occorrenze per il controllo Controllo Kindergarten #1</t>
-  </si>
-  <si>
-    <t>Trovate 6 occorrenze per il controllo Controllo Kindergarten #2</t>
+    <t>Trovati errori per 82 bambini</t>
+  </si>
+  <si>
+    <t>Trovate 3 occorrenze per il controllo Controllo età bambino</t>
+  </si>
+  <si>
+    <t>Trovate 1 occorrenze per il controllo Controllo fine contratto assistenza</t>
+  </si>
+  <si>
+    <t>Trovate 23 occorrenze per il controllo Controllo Kindergarten #1</t>
+  </si>
+  <si>
+    <t>Trovate 24 occorrenze per il controllo Controllo Kindergarten #2</t>
+  </si>
+  <si>
+    <t>Trovate 1 occorrenze per il controllo Contratti lockdown sospetti (Covid #4)</t>
+  </si>
+  <si>
+    <t>Trovate 8 occorrenze per il controllo Controllo Fehler Eingewöhnung</t>
+  </si>
+  <si>
+    <t>Trovate 10 occorrenze per il controllo Controllo Fehler Eingewöhnung 543 Lockdown</t>
+  </si>
+  <si>
+    <t>Trovate 8 occorrenze per il controllo Controllo Fehler Eingewöhnung 543 Notbetreuung</t>
+  </si>
+  <si>
+    <t>Trovate 3 occorrenze per il controllo Controllo ore complessive periodo contrattuale</t>
+  </si>
+  <si>
+    <t>Trovate 2 occorrenze per il controllo Controllo ore complessive superiore a 1920</t>
+  </si>
+  <si>
+    <t>Trovate 26 occorrenze per il controllo Bambino presente in più comuni</t>
+  </si>
+  <si>
+    <t>Trovate 16 occorrenze per il controllo Bambini con annotazioni</t>
+  </si>
+  <si>
+    <t>Controllo età bambino</t>
+  </si>
+  <si>
+    <t>FRAU AARON</t>
+  </si>
+  <si>
+    <t>FRARNA18L05A952U</t>
+  </si>
+  <si>
+    <t>2018-07-05 00:00:00</t>
+  </si>
+  <si>
+    <t>Eppan a.d. Weinstr.</t>
+  </si>
+  <si>
+    <t>KOESSLER JOHAN</t>
+  </si>
+  <si>
+    <t>KSSJHN19A02A952N</t>
+  </si>
+  <si>
+    <t>2019-01-02 00:00:00</t>
+  </si>
+  <si>
+    <t>THALER YLENIA</t>
+  </si>
+  <si>
+    <t>THLYLN17P42F132U</t>
+  </si>
+  <si>
+    <t>2017-09-02 00:00:00</t>
+  </si>
+  <si>
+    <t>St.Pankraz</t>
+  </si>
+  <si>
+    <t>Controllo fine contratto assistenza</t>
+  </si>
+  <si>
+    <t>CABULA LEONARDO</t>
+  </si>
+  <si>
+    <t>CBLLRD17L24A952H</t>
+  </si>
+  <si>
+    <t>2017-07-24 00:00:00</t>
+  </si>
+  <si>
+    <t>Branzoll</t>
   </si>
   <si>
     <t>Controllo Kindergarten #1</t>
   </si>
   <si>
+    <t>ALBRECHT LEO</t>
+  </si>
+  <si>
+    <t>LBRLEO16R07A952F</t>
+  </si>
+  <si>
+    <t>2016-10-07 00:00:00</t>
+  </si>
+  <si>
+    <t>Bozen</t>
+  </si>
+  <si>
+    <t>ALBRECHT LEO /</t>
+  </si>
+  <si>
+    <t>ANDRIGO THOMAS</t>
+  </si>
+  <si>
+    <t>NDRTMS17B06A952J</t>
+  </si>
+  <si>
+    <t>2017-02-06 00:00:00</t>
+  </si>
+  <si>
+    <t>BERTI RAPHAEL</t>
+  </si>
+  <si>
+    <t>BRTRHL17A07A952C</t>
+  </si>
+  <si>
+    <t>2017-01-07 00:00:00</t>
+  </si>
+  <si>
+    <t>DE ZORDO LISA MARIE</t>
+  </si>
+  <si>
+    <t>DZRLMR17B64A952J</t>
+  </si>
+  <si>
+    <t>2017-02-24 00:00:00</t>
+  </si>
+  <si>
+    <t>Lana</t>
+  </si>
+  <si>
+    <t>ERB VIKTORIA</t>
+  </si>
+  <si>
+    <t>RBEVTR17B43F132X</t>
+  </si>
+  <si>
+    <t>2017-02-03 00:00:00</t>
+  </si>
+  <si>
+    <t>FABI MARIE (TM)</t>
+  </si>
+  <si>
+    <t>FBAMRA16T60F132X</t>
+  </si>
+  <si>
+    <t>2016-12-20 00:00:00</t>
+  </si>
+  <si>
+    <t>FILIPPIN ETTORE</t>
+  </si>
+  <si>
+    <t>FLPTTR16R13A952A</t>
+  </si>
+  <si>
+    <t>2016-10-13 00:00:00</t>
+  </si>
+  <si>
+    <t>FILO JAKOB</t>
+  </si>
+  <si>
+    <t>FLIJKB17A26B160K</t>
+  </si>
+  <si>
+    <t>2017-01-26 00:00:00</t>
+  </si>
+  <si>
+    <t>Natz-Schabs</t>
+  </si>
+  <si>
+    <t>GALANTIN ILVY MARIE</t>
+  </si>
+  <si>
+    <t>GLNLYM17A59F132K</t>
+  </si>
+  <si>
+    <t>2017-01-19 00:00:00</t>
+  </si>
+  <si>
+    <t>GASSER LARA</t>
+  </si>
+  <si>
+    <t>GSSLRA17B48F132D</t>
+  </si>
+  <si>
+    <t>2017-02-08 00:00:00</t>
+  </si>
+  <si>
+    <t>GRAUS DAVID</t>
+  </si>
+  <si>
+    <t>GRSDVD17B16B160N</t>
+  </si>
+  <si>
+    <t>2017-02-16 00:00:00</t>
+  </si>
+  <si>
+    <t>Ratschings</t>
+  </si>
+  <si>
+    <t>GRUBER IDA</t>
+  </si>
+  <si>
+    <t>GRBDIA17A58I729E</t>
+  </si>
+  <si>
+    <t>2017-01-18 00:00:00</t>
+  </si>
+  <si>
+    <t>Prad am Stilfser Joch</t>
+  </si>
+  <si>
+    <t>HOFER MILENA DOLORES</t>
+  </si>
+  <si>
+    <t>HFRMND17B61F132N</t>
+  </si>
+  <si>
+    <t>2017-02-21 00:00:00</t>
+  </si>
+  <si>
+    <t>Ritten</t>
+  </si>
+  <si>
     <t>HOLZER LARISSA</t>
   </si>
   <si>
@@ -43,6 +262,87 @@
     <t>Pfitsch</t>
   </si>
   <si>
+    <t>INNERHOFER JULIAN</t>
+  </si>
+  <si>
+    <t>NNRJLN17A17B220Y</t>
+  </si>
+  <si>
+    <t>2017-01-17 00:00:00</t>
+  </si>
+  <si>
+    <t>Terenten</t>
+  </si>
+  <si>
+    <t>INNERHOFER SOPHIA</t>
+  </si>
+  <si>
+    <t>NNRSPH17B64F132A</t>
+  </si>
+  <si>
+    <t>Meran</t>
+  </si>
+  <si>
+    <t>MADEDDU DAVIS</t>
+  </si>
+  <si>
+    <t>MDDDVS17A08A952N</t>
+  </si>
+  <si>
+    <t>2017-01-08 00:00:00</t>
+  </si>
+  <si>
+    <t>OBERFRANK LUIS</t>
+  </si>
+  <si>
+    <t>BRFLSU17A09B220H</t>
+  </si>
+  <si>
+    <t>2017-01-09 00:00:00</t>
+  </si>
+  <si>
+    <t>Rasen-Antholz</t>
+  </si>
+  <si>
+    <t>PREMSTALLER FELIX</t>
+  </si>
+  <si>
+    <t>PRMFLX17A13A952N</t>
+  </si>
+  <si>
+    <t>2017-01-13 00:00:00</t>
+  </si>
+  <si>
+    <t>STEINKASSERER ADRIAN</t>
+  </si>
+  <si>
+    <t>STNDRN17A18B220I</t>
+  </si>
+  <si>
+    <t>THOMASER NOEMI</t>
+  </si>
+  <si>
+    <t>THMNMO16T46B220C</t>
+  </si>
+  <si>
+    <t>2016-12-06 00:00:00</t>
+  </si>
+  <si>
+    <t>Niederdorf</t>
+  </si>
+  <si>
+    <t>TOLLOI MATTHAEUS</t>
+  </si>
+  <si>
+    <t>TLLMTH17B28B220V</t>
+  </si>
+  <si>
+    <t>2017-02-28 00:00:00</t>
+  </si>
+  <si>
+    <t>Bruneck</t>
+  </si>
+  <si>
     <t>Controllo Kindergarten #2</t>
   </si>
   <si>
@@ -58,6 +358,36 @@
     <t>Brixen</t>
   </si>
   <si>
+    <t>BARBAGALLO GIADA</t>
+  </si>
+  <si>
+    <t>BRBGDI17L49A952B</t>
+  </si>
+  <si>
+    <t>2017-07-09 00:00:00</t>
+  </si>
+  <si>
+    <t>DAPUNT ZEILINGER MIRA</t>
+  </si>
+  <si>
+    <t>DPNMRI17D50Z102Q</t>
+  </si>
+  <si>
+    <t>2017-04-10 00:00:00</t>
+  </si>
+  <si>
+    <t>GAISER DARIA</t>
+  </si>
+  <si>
+    <t>GSRDRA17L61I729N</t>
+  </si>
+  <si>
+    <t>2017-07-21 00:00:00</t>
+  </si>
+  <si>
+    <t>Mals</t>
+  </si>
+  <si>
     <t>HEISS ANTON</t>
   </si>
   <si>
@@ -85,6 +415,39 @@
     <t>2017-07-10 00:00:00</t>
   </si>
   <si>
+    <t>HOFER HANNAH</t>
+  </si>
+  <si>
+    <t>HFRHNH17P65B160X</t>
+  </si>
+  <si>
+    <t>2017-09-25 00:00:00</t>
+  </si>
+  <si>
+    <t>Völs am Schlern</t>
+  </si>
+  <si>
+    <t>KAUFMANN SAMUEL</t>
+  </si>
+  <si>
+    <t>KFMSML17R13A952W</t>
+  </si>
+  <si>
+    <t>2017-10-13 00:00:00</t>
+  </si>
+  <si>
+    <t>Montan</t>
+  </si>
+  <si>
+    <t>KLOTZNER LAHNER ELIAS</t>
+  </si>
+  <si>
+    <t>KLTLSE17P14F132J</t>
+  </si>
+  <si>
+    <t>2017-09-14 00:00:00</t>
+  </si>
+  <si>
     <t>LASTA VALENTIN</t>
   </si>
   <si>
@@ -94,6 +457,30 @@
     <t>2017-05-18 00:00:00</t>
   </si>
   <si>
+    <t>LOCHER LENI</t>
+  </si>
+  <si>
+    <t>LCHLNE17S63A952R</t>
+  </si>
+  <si>
+    <t>2017-11-23 00:00:00</t>
+  </si>
+  <si>
+    <t>Sarntal</t>
+  </si>
+  <si>
+    <t>MAIRHOFER MARIE</t>
+  </si>
+  <si>
+    <t>MRHMRA17R45F132N</t>
+  </si>
+  <si>
+    <t>2017-10-05 00:00:00</t>
+  </si>
+  <si>
+    <t>Tscherms</t>
+  </si>
+  <si>
     <t>NITZ MIA</t>
   </si>
   <si>
@@ -101,6 +488,465 @@
   </si>
   <si>
     <t>2017-10-06 00:00:00</t>
+  </si>
+  <si>
+    <t>PARIS MARIE</t>
+  </si>
+  <si>
+    <t>PRSMRA17E53F132P</t>
+  </si>
+  <si>
+    <t>2017-05-13 00:00:00</t>
+  </si>
+  <si>
+    <t>RAGGI MATTIA</t>
+  </si>
+  <si>
+    <t>RGGMTT17E02B160Z</t>
+  </si>
+  <si>
+    <t>2017-05-02 00:00:00</t>
+  </si>
+  <si>
+    <t>RATSCHILLER ANTON LEO</t>
+  </si>
+  <si>
+    <t>RTSNNL17H25F132F</t>
+  </si>
+  <si>
+    <t>2017-06-25 00:00:00</t>
+  </si>
+  <si>
+    <t>SAILER SENI</t>
+  </si>
+  <si>
+    <t>SLRSNE17H23A952H</t>
+  </si>
+  <si>
+    <t>2017-06-23 00:00:00</t>
+  </si>
+  <si>
+    <t>STEINWANDTER ARTHUR</t>
+  </si>
+  <si>
+    <t>STNRHR17T17F132Y</t>
+  </si>
+  <si>
+    <t>2017-12-17 00:00:00</t>
+  </si>
+  <si>
+    <t>STEINWANDTER FELIX</t>
+  </si>
+  <si>
+    <t>STNFLX17T10B220L</t>
+  </si>
+  <si>
+    <t>2017-12-10 00:00:00</t>
+  </si>
+  <si>
+    <t>TERLETH LUKAS</t>
+  </si>
+  <si>
+    <t>TRLLKS17R26A952Z</t>
+  </si>
+  <si>
+    <t>2017-10-26 00:00:00</t>
+  </si>
+  <si>
+    <t>THALER DOMINIK</t>
+  </si>
+  <si>
+    <t>THLDNK17S13F132U</t>
+  </si>
+  <si>
+    <t>2017-11-13 00:00:00</t>
+  </si>
+  <si>
+    <t>Contratti lockdown sospetti (Covid #4)</t>
+  </si>
+  <si>
+    <t>SANTON PHILIPP</t>
+  </si>
+  <si>
+    <t>SNTPLP19A31B220R</t>
+  </si>
+  <si>
+    <t>2019-01-31 00:00:00</t>
+  </si>
+  <si>
+    <t>Controllo Fehler Eingewöhnung</t>
+  </si>
+  <si>
+    <t>BIASI PAUL</t>
+  </si>
+  <si>
+    <t>BSIPLA18R31A952C</t>
+  </si>
+  <si>
+    <t>2018-10-31 00:00:00</t>
+  </si>
+  <si>
+    <t>BURCHIA PINO</t>
+  </si>
+  <si>
+    <t>BRCPNI17R15B160Y</t>
+  </si>
+  <si>
+    <t>2017-10-15 00:00:00</t>
+  </si>
+  <si>
+    <t>DIETL JULIAN</t>
+  </si>
+  <si>
+    <t>DTLJLN19D08I729J</t>
+  </si>
+  <si>
+    <t>2019-04-08 00:00:00</t>
+  </si>
+  <si>
+    <t>Schlanders</t>
+  </si>
+  <si>
+    <t>FLARER THEO</t>
+  </si>
+  <si>
+    <t>FLRTHE18L11F132U</t>
+  </si>
+  <si>
+    <t>2018-07-11 00:00:00</t>
+  </si>
+  <si>
+    <t>Algund</t>
+  </si>
+  <si>
+    <t>MAIR FINN</t>
+  </si>
+  <si>
+    <t>MRAFNN19E01F132B</t>
+  </si>
+  <si>
+    <t>2019-05-01 00:00:00</t>
+  </si>
+  <si>
+    <t>Nals</t>
+  </si>
+  <si>
+    <t>PICHLER PAUL</t>
+  </si>
+  <si>
+    <t>PCHPLA19P05B220X</t>
+  </si>
+  <si>
+    <t>2019-09-05 00:00:00</t>
+  </si>
+  <si>
+    <t>St.Lorenzen</t>
+  </si>
+  <si>
+    <t>RIVELLI CASTILLO LOLA</t>
+  </si>
+  <si>
+    <t>RVLLLO17H42Z404I</t>
+  </si>
+  <si>
+    <t>2017-06-02 00:00:00</t>
+  </si>
+  <si>
+    <t>SIMONETTO GHELLER MATTEO</t>
+  </si>
+  <si>
+    <t>SMNMTT19E15A952W</t>
+  </si>
+  <si>
+    <t>2019-05-15 00:00:00</t>
+  </si>
+  <si>
+    <t>Controllo Fehler Eingewöhnung 543 Lockdown</t>
+  </si>
+  <si>
+    <t>HAFELE ELINA AURELIA</t>
+  </si>
+  <si>
+    <t>HFLLRL18A45I729A</t>
+  </si>
+  <si>
+    <t>2018-01-05 00:00:00</t>
+  </si>
+  <si>
+    <t>ZINGERLE MATHILDA</t>
+  </si>
+  <si>
+    <t>ZNGMHL19H64A952H</t>
+  </si>
+  <si>
+    <t>2019-06-24 00:00:00</t>
+  </si>
+  <si>
+    <t>Controllo Fehler Eingewöhnung 543 Notbetreuung</t>
+  </si>
+  <si>
+    <t>ALESSI CLOE</t>
+  </si>
+  <si>
+    <t>LSSCLO20C51F132E</t>
+  </si>
+  <si>
+    <t>2020-03-11 00:00:00</t>
+  </si>
+  <si>
+    <t>BOVA SOPHIE</t>
+  </si>
+  <si>
+    <t>BVOSPH19D55A952V</t>
+  </si>
+  <si>
+    <t>2019-04-15 00:00:00</t>
+  </si>
+  <si>
+    <t>GURNDIN LENA</t>
+  </si>
+  <si>
+    <t>GRNLNE18L44F132V</t>
+  </si>
+  <si>
+    <t>2018-07-04 00:00:00</t>
+  </si>
+  <si>
+    <t>HOFER LEO *</t>
+  </si>
+  <si>
+    <t>HFRLEO18C02B160M</t>
+  </si>
+  <si>
+    <t>2018-03-02 00:00:00</t>
+  </si>
+  <si>
+    <t>MIRANDOLA LENZ</t>
+  </si>
+  <si>
+    <t>MRNLNZ19C17F132A</t>
+  </si>
+  <si>
+    <t>2019-03-17 00:00:00</t>
+  </si>
+  <si>
+    <t>MOSER ELIAS</t>
+  </si>
+  <si>
+    <t>MSRLSE18M18B220W</t>
+  </si>
+  <si>
+    <t>2018-08-18 00:00:00</t>
+  </si>
+  <si>
+    <t>Welsberg</t>
+  </si>
+  <si>
+    <t>OCHSENREITER JAKOB</t>
+  </si>
+  <si>
+    <t>CHSJKB20M06A952B</t>
+  </si>
+  <si>
+    <t>2020-08-06 00:00:00</t>
+  </si>
+  <si>
+    <t>WIDMANN NIKLAS JAN</t>
+  </si>
+  <si>
+    <t>WDMNLS19C11F132C</t>
+  </si>
+  <si>
+    <t>2019-03-11 00:00:00</t>
+  </si>
+  <si>
+    <t>Controllo ore complessive periodo contrattuale</t>
+  </si>
+  <si>
+    <t>TRATTER JOHANNES</t>
+  </si>
+  <si>
+    <t>TRTJNN18M26B160I</t>
+  </si>
+  <si>
+    <t>2018-08-26 00:00:00</t>
+  </si>
+  <si>
+    <t>Freienfeld</t>
+  </si>
+  <si>
+    <t>TRATTER JOHANNES /</t>
+  </si>
+  <si>
+    <t>Sterzing</t>
+  </si>
+  <si>
+    <t>TRATTER PIA</t>
+  </si>
+  <si>
+    <t>TRTPIA17H43B160S</t>
+  </si>
+  <si>
+    <t>2017-06-03 00:00:00</t>
+  </si>
+  <si>
+    <t>Controllo ore complessive superiore a 1920</t>
+  </si>
+  <si>
+    <t>Bambino presente in più comuni</t>
+  </si>
+  <si>
+    <t>BAUMGARTNER PAUL /</t>
+  </si>
+  <si>
+    <t>BMGPLA19P29A952I</t>
+  </si>
+  <si>
+    <t>2019-09-29 00:00:00</t>
+  </si>
+  <si>
+    <t>BAUMGARTNER PAUL //</t>
+  </si>
+  <si>
+    <t>BERTACCHE SAMUEL</t>
+  </si>
+  <si>
+    <t>BRTSML17P23A952Y</t>
+  </si>
+  <si>
+    <t>2017-09-23 00:00:00</t>
+  </si>
+  <si>
+    <t>Leifers</t>
+  </si>
+  <si>
+    <t>BREDENHOELLER LILLY SOPHIE</t>
+  </si>
+  <si>
+    <t>BRDLLY18M66F132T</t>
+  </si>
+  <si>
+    <t>BREDENHOELLER LILLY SOPHIE /</t>
+  </si>
+  <si>
+    <t>FILZ THIBAUD</t>
+  </si>
+  <si>
+    <t>FLZTBD17R22A952S</t>
+  </si>
+  <si>
+    <t>2017-10-22 00:00:00</t>
+  </si>
+  <si>
+    <t>FILZ THIBAUD /neu</t>
+  </si>
+  <si>
+    <t>HOCHKOFLER NADINE</t>
+  </si>
+  <si>
+    <t>HCHNDN17M53I729Y</t>
+  </si>
+  <si>
+    <t>2017-08-13 00:00:00</t>
+  </si>
+  <si>
+    <t>Plaus</t>
+  </si>
+  <si>
+    <t>Laas</t>
+  </si>
+  <si>
+    <t>KOFLER PAULI</t>
+  </si>
+  <si>
+    <t>KFLPLA19H24B220Y</t>
+  </si>
+  <si>
+    <t>Klausen</t>
+  </si>
+  <si>
+    <t>KOFLER PAULI /</t>
+  </si>
+  <si>
+    <t>MAIR FINN /</t>
+  </si>
+  <si>
+    <t>Gargazon</t>
+  </si>
+  <si>
+    <t>PLONER LEONIE</t>
+  </si>
+  <si>
+    <t>PLNLNE20D45A952Z</t>
+  </si>
+  <si>
+    <t>2020-04-05 00:00:00</t>
+  </si>
+  <si>
+    <t>PLONER LEONIE /</t>
+  </si>
+  <si>
+    <t>Mölten</t>
+  </si>
+  <si>
+    <t>PLONER MARIAN</t>
+  </si>
+  <si>
+    <t>PLNMRN18L26B160A</t>
+  </si>
+  <si>
+    <t>2018-07-26 00:00:00</t>
+  </si>
+  <si>
+    <t>PLONER MARIAN /</t>
+  </si>
+  <si>
+    <t>VILL LIAM</t>
+  </si>
+  <si>
+    <t>VLLLMI18E15I729L</t>
+  </si>
+  <si>
+    <t>2018-05-15 00:00:00</t>
+  </si>
+  <si>
+    <t>Bambini con annotazioni</t>
+  </si>
+  <si>
+    <t>FREI KATHARINA *</t>
+  </si>
+  <si>
+    <t>FREKHR19M65F132M</t>
+  </si>
+  <si>
+    <t>2019-08-25 00:00:00</t>
+  </si>
+  <si>
+    <t>KAUFMANN JONAS /</t>
+  </si>
+  <si>
+    <t>KFMJNS18S22F132I</t>
+  </si>
+  <si>
+    <t>2018-11-22 00:00:00</t>
+  </si>
+  <si>
+    <t>Schenna</t>
+  </si>
+  <si>
+    <t>STAUDER JOHANNA *</t>
+  </si>
+  <si>
+    <t>STDJNN18R71A952E</t>
+  </si>
+  <si>
+    <t>STEINER EMMA /</t>
+  </si>
+  <si>
+    <t>STNMME18C48B220A</t>
+  </si>
+  <si>
+    <t>2018-03-08 00:00:00</t>
   </si>
 </sst>
 </file>
@@ -441,138 +1287,1890 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="B11" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="D11" t="s">
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="E11" t="s">
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="B15" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="D15" t="s">
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="E15" t="s">
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="B16" t="s">
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="21" spans="1:5">
+      <c r="B21" t="s">
         <v>15</v>
       </c>
-      <c r="D16" t="s">
+      <c r="C21" t="s">
         <v>16</v>
       </c>
-      <c r="E16" t="s">
+      <c r="D21" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" t="s">
+      <c r="E21" t="s">
         <v>18</v>
       </c>
-      <c r="C17" t="s">
+    </row>
+    <row r="22" spans="1:5">
+      <c r="B22" t="s">
         <v>19</v>
       </c>
-      <c r="D17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" t="s">
+      <c r="C22" t="s">
         <v>20</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D22" t="s">
         <v>21</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23" t="s">
         <v>22</v>
       </c>
-      <c r="E18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" t="s">
+      <c r="C23" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D23" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E23" t="s">
         <v>25</v>
       </c>
-      <c r="E19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" t="s">
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C20" t="s">
+    </row>
+    <row r="27" spans="1:5">
+      <c r="B27" t="s">
         <v>27</v>
       </c>
-      <c r="D20" t="s">
+      <c r="C27" t="s">
         <v>28</v>
       </c>
-      <c r="E20" t="s">
-        <v>13</v>
+      <c r="D27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" t="s">
+        <v>62</v>
+      </c>
+      <c r="E40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" t="s">
+        <v>68</v>
+      </c>
+      <c r="E42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D43" t="s">
+        <v>72</v>
+      </c>
+      <c r="E43" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44" t="s">
+        <v>76</v>
+      </c>
+      <c r="E44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45" t="s">
+        <v>80</v>
+      </c>
+      <c r="E45" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" t="s">
+        <v>83</v>
+      </c>
+      <c r="D46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E46" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" t="s">
+        <v>87</v>
+      </c>
+      <c r="D47" t="s">
+        <v>45</v>
+      </c>
+      <c r="E47" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48" t="s">
+        <v>91</v>
+      </c>
+      <c r="E48" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="B49" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49" t="s">
+        <v>93</v>
+      </c>
+      <c r="D49" t="s">
+        <v>94</v>
+      </c>
+      <c r="E49" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="B50" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" t="s">
+        <v>97</v>
+      </c>
+      <c r="D50" t="s">
+        <v>98</v>
+      </c>
+      <c r="E50" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="B51" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" t="s">
+        <v>100</v>
+      </c>
+      <c r="D51" t="s">
+        <v>72</v>
+      </c>
+      <c r="E51" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="B52" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" t="s">
+        <v>102</v>
+      </c>
+      <c r="D52" t="s">
+        <v>103</v>
+      </c>
+      <c r="E52" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="B53" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" t="s">
+        <v>106</v>
+      </c>
+      <c r="D53" t="s">
+        <v>107</v>
+      </c>
+      <c r="E53" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="B57" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" t="s">
+        <v>111</v>
+      </c>
+      <c r="D57" t="s">
+        <v>112</v>
+      </c>
+      <c r="E57" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="B58" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" t="s">
+        <v>115</v>
+      </c>
+      <c r="D58" t="s">
+        <v>116</v>
+      </c>
+      <c r="E58" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="B59" t="s">
+        <v>27</v>
+      </c>
+      <c r="C59" t="s">
+        <v>28</v>
+      </c>
+      <c r="D59" t="s">
+        <v>29</v>
+      </c>
+      <c r="E59" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="B60" t="s">
+        <v>117</v>
+      </c>
+      <c r="C60" t="s">
+        <v>118</v>
+      </c>
+      <c r="D60" t="s">
+        <v>119</v>
+      </c>
+      <c r="E60" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="B61" t="s">
+        <v>120</v>
+      </c>
+      <c r="C61" t="s">
+        <v>121</v>
+      </c>
+      <c r="D61" t="s">
+        <v>122</v>
+      </c>
+      <c r="E61" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="B62" t="s">
+        <v>124</v>
+      </c>
+      <c r="C62" t="s">
+        <v>125</v>
+      </c>
+      <c r="D62" t="s">
+        <v>126</v>
+      </c>
+      <c r="E62" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="B63" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63" t="s">
+        <v>129</v>
+      </c>
+      <c r="D63" t="s">
+        <v>126</v>
+      </c>
+      <c r="E63" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="B64" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64" t="s">
+        <v>131</v>
+      </c>
+      <c r="D64" t="s">
+        <v>132</v>
+      </c>
+      <c r="E64" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5">
+      <c r="B65" t="s">
+        <v>133</v>
+      </c>
+      <c r="C65" t="s">
+        <v>134</v>
+      </c>
+      <c r="D65" t="s">
+        <v>135</v>
+      </c>
+      <c r="E65" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5">
+      <c r="B66" t="s">
+        <v>137</v>
+      </c>
+      <c r="C66" t="s">
+        <v>138</v>
+      </c>
+      <c r="D66" t="s">
+        <v>139</v>
+      </c>
+      <c r="E66" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5">
+      <c r="B67" t="s">
+        <v>141</v>
+      </c>
+      <c r="C67" t="s">
+        <v>142</v>
+      </c>
+      <c r="D67" t="s">
+        <v>143</v>
+      </c>
+      <c r="E67" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5">
+      <c r="B68" t="s">
+        <v>144</v>
+      </c>
+      <c r="C68" t="s">
+        <v>145</v>
+      </c>
+      <c r="D68" t="s">
+        <v>146</v>
+      </c>
+      <c r="E68" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5">
+      <c r="B69" t="s">
+        <v>147</v>
+      </c>
+      <c r="C69" t="s">
+        <v>148</v>
+      </c>
+      <c r="D69" t="s">
+        <v>149</v>
+      </c>
+      <c r="E69" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5">
+      <c r="B70" t="s">
+        <v>151</v>
+      </c>
+      <c r="C70" t="s">
+        <v>152</v>
+      </c>
+      <c r="D70" t="s">
+        <v>153</v>
+      </c>
+      <c r="E70" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5">
+      <c r="B71" t="s">
+        <v>151</v>
+      </c>
+      <c r="C71" t="s">
+        <v>152</v>
+      </c>
+      <c r="D71" t="s">
+        <v>153</v>
+      </c>
+      <c r="E71" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5">
+      <c r="B72" t="s">
+        <v>155</v>
+      </c>
+      <c r="C72" t="s">
+        <v>156</v>
+      </c>
+      <c r="D72" t="s">
+        <v>157</v>
+      </c>
+      <c r="E72" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5">
+      <c r="B73" t="s">
+        <v>158</v>
+      </c>
+      <c r="C73" t="s">
+        <v>159</v>
+      </c>
+      <c r="D73" t="s">
+        <v>160</v>
+      </c>
+      <c r="E73" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5">
+      <c r="B74" t="s">
+        <v>161</v>
+      </c>
+      <c r="C74" t="s">
+        <v>162</v>
+      </c>
+      <c r="D74" t="s">
+        <v>163</v>
+      </c>
+      <c r="E74" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5">
+      <c r="B75" t="s">
+        <v>164</v>
+      </c>
+      <c r="C75" t="s">
+        <v>165</v>
+      </c>
+      <c r="D75" t="s">
+        <v>166</v>
+      </c>
+      <c r="E75" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5">
+      <c r="B76" t="s">
+        <v>167</v>
+      </c>
+      <c r="C76" t="s">
+        <v>168</v>
+      </c>
+      <c r="D76" t="s">
+        <v>169</v>
+      </c>
+      <c r="E76" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5">
+      <c r="B77" t="s">
+        <v>170</v>
+      </c>
+      <c r="C77" t="s">
+        <v>171</v>
+      </c>
+      <c r="D77" t="s">
+        <v>172</v>
+      </c>
+      <c r="E77" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5">
+      <c r="B78" t="s">
+        <v>173</v>
+      </c>
+      <c r="C78" t="s">
+        <v>174</v>
+      </c>
+      <c r="D78" t="s">
+        <v>175</v>
+      </c>
+      <c r="E78" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5">
+      <c r="B79" t="s">
+        <v>176</v>
+      </c>
+      <c r="C79" t="s">
+        <v>177</v>
+      </c>
+      <c r="D79" t="s">
+        <v>178</v>
+      </c>
+      <c r="E79" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5">
+      <c r="B80" t="s">
+        <v>179</v>
+      </c>
+      <c r="C80" t="s">
+        <v>180</v>
+      </c>
+      <c r="D80" t="s">
+        <v>181</v>
+      </c>
+      <c r="E80" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="B84" t="s">
+        <v>183</v>
+      </c>
+      <c r="C84" t="s">
+        <v>184</v>
+      </c>
+      <c r="D84" t="s">
+        <v>185</v>
+      </c>
+      <c r="E84" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="B88" t="s">
+        <v>187</v>
+      </c>
+      <c r="C88" t="s">
+        <v>188</v>
+      </c>
+      <c r="D88" t="s">
+        <v>189</v>
+      </c>
+      <c r="E88" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="B89" t="s">
+        <v>190</v>
+      </c>
+      <c r="C89" t="s">
+        <v>191</v>
+      </c>
+      <c r="D89" t="s">
+        <v>192</v>
+      </c>
+      <c r="E89" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="B90" t="s">
+        <v>193</v>
+      </c>
+      <c r="C90" t="s">
+        <v>194</v>
+      </c>
+      <c r="D90" t="s">
+        <v>195</v>
+      </c>
+      <c r="E90" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="B91" t="s">
+        <v>197</v>
+      </c>
+      <c r="C91" t="s">
+        <v>198</v>
+      </c>
+      <c r="D91" t="s">
+        <v>199</v>
+      </c>
+      <c r="E91" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="B92" t="s">
+        <v>201</v>
+      </c>
+      <c r="C92" t="s">
+        <v>202</v>
+      </c>
+      <c r="D92" t="s">
+        <v>203</v>
+      </c>
+      <c r="E92" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="B93" t="s">
+        <v>205</v>
+      </c>
+      <c r="C93" t="s">
+        <v>206</v>
+      </c>
+      <c r="D93" t="s">
+        <v>207</v>
+      </c>
+      <c r="E93" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="B94" t="s">
+        <v>209</v>
+      </c>
+      <c r="C94" t="s">
+        <v>210</v>
+      </c>
+      <c r="D94" t="s">
+        <v>211</v>
+      </c>
+      <c r="E94" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="B95" t="s">
+        <v>212</v>
+      </c>
+      <c r="C95" t="s">
+        <v>213</v>
+      </c>
+      <c r="D95" t="s">
+        <v>214</v>
+      </c>
+      <c r="E95" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="B99" t="s">
+        <v>187</v>
+      </c>
+      <c r="C99" t="s">
+        <v>188</v>
+      </c>
+      <c r="D99" t="s">
+        <v>189</v>
+      </c>
+      <c r="E99" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="B100" t="s">
+        <v>190</v>
+      </c>
+      <c r="C100" t="s">
+        <v>191</v>
+      </c>
+      <c r="D100" t="s">
+        <v>192</v>
+      </c>
+      <c r="E100" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="B101" t="s">
+        <v>193</v>
+      </c>
+      <c r="C101" t="s">
+        <v>194</v>
+      </c>
+      <c r="D101" t="s">
+        <v>195</v>
+      </c>
+      <c r="E101" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="B102" t="s">
+        <v>197</v>
+      </c>
+      <c r="C102" t="s">
+        <v>198</v>
+      </c>
+      <c r="D102" t="s">
+        <v>199</v>
+      </c>
+      <c r="E102" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="B103" t="s">
+        <v>216</v>
+      </c>
+      <c r="C103" t="s">
+        <v>217</v>
+      </c>
+      <c r="D103" t="s">
+        <v>218</v>
+      </c>
+      <c r="E103" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="B104" t="s">
+        <v>201</v>
+      </c>
+      <c r="C104" t="s">
+        <v>202</v>
+      </c>
+      <c r="D104" t="s">
+        <v>203</v>
+      </c>
+      <c r="E104" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="B105" t="s">
+        <v>205</v>
+      </c>
+      <c r="C105" t="s">
+        <v>206</v>
+      </c>
+      <c r="D105" t="s">
+        <v>207</v>
+      </c>
+      <c r="E105" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="B106" t="s">
+        <v>209</v>
+      </c>
+      <c r="C106" t="s">
+        <v>210</v>
+      </c>
+      <c r="D106" t="s">
+        <v>211</v>
+      </c>
+      <c r="E106" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="B107" t="s">
+        <v>212</v>
+      </c>
+      <c r="C107" t="s">
+        <v>213</v>
+      </c>
+      <c r="D107" t="s">
+        <v>214</v>
+      </c>
+      <c r="E107" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="B108" t="s">
+        <v>219</v>
+      </c>
+      <c r="C108" t="s">
+        <v>220</v>
+      </c>
+      <c r="D108" t="s">
+        <v>221</v>
+      </c>
+      <c r="E108" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="B112" t="s">
+        <v>223</v>
+      </c>
+      <c r="C112" t="s">
+        <v>224</v>
+      </c>
+      <c r="D112" t="s">
+        <v>225</v>
+      </c>
+      <c r="E112" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="B113" t="s">
+        <v>226</v>
+      </c>
+      <c r="C113" t="s">
+        <v>227</v>
+      </c>
+      <c r="D113" t="s">
+        <v>228</v>
+      </c>
+      <c r="E113" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="B114" t="s">
+        <v>229</v>
+      </c>
+      <c r="C114" t="s">
+        <v>230</v>
+      </c>
+      <c r="D114" t="s">
+        <v>231</v>
+      </c>
+      <c r="E114" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="B115" t="s">
+        <v>232</v>
+      </c>
+      <c r="C115" t="s">
+        <v>233</v>
+      </c>
+      <c r="D115" t="s">
+        <v>234</v>
+      </c>
+      <c r="E115" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="B116" t="s">
+        <v>235</v>
+      </c>
+      <c r="C116" t="s">
+        <v>236</v>
+      </c>
+      <c r="D116" t="s">
+        <v>237</v>
+      </c>
+      <c r="E116" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="B117" t="s">
+        <v>238</v>
+      </c>
+      <c r="C117" t="s">
+        <v>239</v>
+      </c>
+      <c r="D117" t="s">
+        <v>240</v>
+      </c>
+      <c r="E117" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="B118" t="s">
+        <v>242</v>
+      </c>
+      <c r="C118" t="s">
+        <v>243</v>
+      </c>
+      <c r="D118" t="s">
+        <v>244</v>
+      </c>
+      <c r="E118" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="B119" t="s">
+        <v>245</v>
+      </c>
+      <c r="C119" t="s">
+        <v>246</v>
+      </c>
+      <c r="D119" t="s">
+        <v>247</v>
+      </c>
+      <c r="E119" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="B123" t="s">
+        <v>249</v>
+      </c>
+      <c r="C123" t="s">
+        <v>250</v>
+      </c>
+      <c r="D123" t="s">
+        <v>251</v>
+      </c>
+      <c r="E123" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="B124" t="s">
+        <v>253</v>
+      </c>
+      <c r="C124" t="s">
+        <v>250</v>
+      </c>
+      <c r="D124" t="s">
+        <v>251</v>
+      </c>
+      <c r="E124" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="B125" t="s">
+        <v>255</v>
+      </c>
+      <c r="C125" t="s">
+        <v>256</v>
+      </c>
+      <c r="D125" t="s">
+        <v>257</v>
+      </c>
+      <c r="E125" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="B129" t="s">
+        <v>249</v>
+      </c>
+      <c r="C129" t="s">
+        <v>250</v>
+      </c>
+      <c r="D129" t="s">
+        <v>251</v>
+      </c>
+      <c r="E129" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="B130" t="s">
+        <v>253</v>
+      </c>
+      <c r="C130" t="s">
+        <v>250</v>
+      </c>
+      <c r="D130" t="s">
+        <v>251</v>
+      </c>
+      <c r="E130" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="B134" t="s">
+        <v>260</v>
+      </c>
+      <c r="C134" t="s">
+        <v>261</v>
+      </c>
+      <c r="D134" t="s">
+        <v>262</v>
+      </c>
+      <c r="E134" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="B135" t="s">
+        <v>263</v>
+      </c>
+      <c r="C135" t="s">
+        <v>261</v>
+      </c>
+      <c r="D135" t="s">
+        <v>262</v>
+      </c>
+      <c r="E135" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="B136" t="s">
+        <v>264</v>
+      </c>
+      <c r="C136" t="s">
+        <v>265</v>
+      </c>
+      <c r="D136" t="s">
+        <v>266</v>
+      </c>
+      <c r="E136" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="B137" t="s">
+        <v>264</v>
+      </c>
+      <c r="C137" t="s">
+        <v>265</v>
+      </c>
+      <c r="D137" t="s">
+        <v>266</v>
+      </c>
+      <c r="E137" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="B138" t="s">
+        <v>268</v>
+      </c>
+      <c r="C138" t="s">
+        <v>269</v>
+      </c>
+      <c r="D138" t="s">
+        <v>251</v>
+      </c>
+      <c r="E138" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="B139" t="s">
+        <v>270</v>
+      </c>
+      <c r="C139" t="s">
+        <v>269</v>
+      </c>
+      <c r="D139" t="s">
+        <v>251</v>
+      </c>
+      <c r="E139" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="B140" t="s">
+        <v>27</v>
+      </c>
+      <c r="C140" t="s">
+        <v>28</v>
+      </c>
+      <c r="D140" t="s">
+        <v>29</v>
+      </c>
+      <c r="E140" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="B141" t="s">
+        <v>27</v>
+      </c>
+      <c r="C141" t="s">
+        <v>28</v>
+      </c>
+      <c r="D141" t="s">
+        <v>29</v>
+      </c>
+      <c r="E141" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="B142" t="s">
+        <v>271</v>
+      </c>
+      <c r="C142" t="s">
+        <v>272</v>
+      </c>
+      <c r="D142" t="s">
+        <v>273</v>
+      </c>
+      <c r="E142" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="B143" t="s">
+        <v>274</v>
+      </c>
+      <c r="C143" t="s">
+        <v>272</v>
+      </c>
+      <c r="D143" t="s">
+        <v>273</v>
+      </c>
+      <c r="E143" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="B144" t="s">
+        <v>275</v>
+      </c>
+      <c r="C144" t="s">
+        <v>276</v>
+      </c>
+      <c r="D144" t="s">
+        <v>277</v>
+      </c>
+      <c r="E144" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5">
+      <c r="B145" t="s">
+        <v>275</v>
+      </c>
+      <c r="C145" t="s">
+        <v>276</v>
+      </c>
+      <c r="D145" t="s">
+        <v>277</v>
+      </c>
+      <c r="E145" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5">
+      <c r="B146" t="s">
+        <v>280</v>
+      </c>
+      <c r="C146" t="s">
+        <v>281</v>
+      </c>
+      <c r="D146" t="s">
+        <v>221</v>
+      </c>
+      <c r="E146" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5">
+      <c r="B147" t="s">
+        <v>283</v>
+      </c>
+      <c r="C147" t="s">
+        <v>281</v>
+      </c>
+      <c r="D147" t="s">
+        <v>221</v>
+      </c>
+      <c r="E147" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5">
+      <c r="B148" t="s">
+        <v>201</v>
+      </c>
+      <c r="C148" t="s">
+        <v>202</v>
+      </c>
+      <c r="D148" t="s">
+        <v>203</v>
+      </c>
+      <c r="E148" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5">
+      <c r="B149" t="s">
+        <v>284</v>
+      </c>
+      <c r="C149" t="s">
+        <v>202</v>
+      </c>
+      <c r="D149" t="s">
+        <v>203</v>
+      </c>
+      <c r="E149" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5">
+      <c r="B150" t="s">
+        <v>151</v>
+      </c>
+      <c r="C150" t="s">
+        <v>152</v>
+      </c>
+      <c r="D150" t="s">
+        <v>153</v>
+      </c>
+      <c r="E150" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5">
+      <c r="B151" t="s">
+        <v>151</v>
+      </c>
+      <c r="C151" t="s">
+        <v>152</v>
+      </c>
+      <c r="D151" t="s">
+        <v>153</v>
+      </c>
+      <c r="E151" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5">
+      <c r="B152" t="s">
+        <v>286</v>
+      </c>
+      <c r="C152" t="s">
+        <v>287</v>
+      </c>
+      <c r="D152" t="s">
+        <v>288</v>
+      </c>
+      <c r="E152" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5">
+      <c r="B153" t="s">
+        <v>289</v>
+      </c>
+      <c r="C153" t="s">
+        <v>287</v>
+      </c>
+      <c r="D153" t="s">
+        <v>288</v>
+      </c>
+      <c r="E153" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5">
+      <c r="B154" t="s">
+        <v>291</v>
+      </c>
+      <c r="C154" t="s">
+        <v>292</v>
+      </c>
+      <c r="D154" t="s">
+        <v>293</v>
+      </c>
+      <c r="E154" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5">
+      <c r="B155" t="s">
+        <v>294</v>
+      </c>
+      <c r="C155" t="s">
+        <v>292</v>
+      </c>
+      <c r="D155" t="s">
+        <v>293</v>
+      </c>
+      <c r="E155" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="156" spans="2:5">
+      <c r="B156" t="s">
+        <v>249</v>
+      </c>
+      <c r="C156" t="s">
+        <v>250</v>
+      </c>
+      <c r="D156" t="s">
+        <v>251</v>
+      </c>
+      <c r="E156" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5">
+      <c r="B157" t="s">
+        <v>253</v>
+      </c>
+      <c r="C157" t="s">
+        <v>250</v>
+      </c>
+      <c r="D157" t="s">
+        <v>251</v>
+      </c>
+      <c r="E157" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5">
+      <c r="B158" t="s">
+        <v>295</v>
+      </c>
+      <c r="C158" t="s">
+        <v>296</v>
+      </c>
+      <c r="D158" t="s">
+        <v>297</v>
+      </c>
+      <c r="E158" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="159" spans="2:5">
+      <c r="B159" t="s">
+        <v>295</v>
+      </c>
+      <c r="C159" t="s">
+        <v>296</v>
+      </c>
+      <c r="D159" t="s">
+        <v>297</v>
+      </c>
+      <c r="E159" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="B163" t="s">
+        <v>36</v>
+      </c>
+      <c r="C163" t="s">
+        <v>33</v>
+      </c>
+      <c r="D163" t="s">
+        <v>34</v>
+      </c>
+      <c r="E163" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="B164" t="s">
+        <v>260</v>
+      </c>
+      <c r="C164" t="s">
+        <v>261</v>
+      </c>
+      <c r="D164" t="s">
+        <v>262</v>
+      </c>
+      <c r="E164" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="B165" t="s">
+        <v>263</v>
+      </c>
+      <c r="C165" t="s">
+        <v>261</v>
+      </c>
+      <c r="D165" t="s">
+        <v>262</v>
+      </c>
+      <c r="E165" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="B166" t="s">
+        <v>270</v>
+      </c>
+      <c r="C166" t="s">
+        <v>269</v>
+      </c>
+      <c r="D166" t="s">
+        <v>251</v>
+      </c>
+      <c r="E166" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="B167" t="s">
+        <v>50</v>
+      </c>
+      <c r="C167" t="s">
+        <v>51</v>
+      </c>
+      <c r="D167" t="s">
+        <v>52</v>
+      </c>
+      <c r="E167" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="B168" t="s">
+        <v>274</v>
+      </c>
+      <c r="C168" t="s">
+        <v>272</v>
+      </c>
+      <c r="D168" t="s">
+        <v>273</v>
+      </c>
+      <c r="E168" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="B169" t="s">
+        <v>299</v>
+      </c>
+      <c r="C169" t="s">
+        <v>300</v>
+      </c>
+      <c r="D169" t="s">
+        <v>301</v>
+      </c>
+      <c r="E169" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="B170" t="s">
+        <v>232</v>
+      </c>
+      <c r="C170" t="s">
+        <v>233</v>
+      </c>
+      <c r="D170" t="s">
+        <v>234</v>
+      </c>
+      <c r="E170" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="B171" t="s">
+        <v>302</v>
+      </c>
+      <c r="C171" t="s">
+        <v>303</v>
+      </c>
+      <c r="D171" t="s">
+        <v>304</v>
+      </c>
+      <c r="E171" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="B172" t="s">
+        <v>283</v>
+      </c>
+      <c r="C172" t="s">
+        <v>281</v>
+      </c>
+      <c r="D172" t="s">
+        <v>221</v>
+      </c>
+      <c r="E172" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="B173" t="s">
+        <v>284</v>
+      </c>
+      <c r="C173" t="s">
+        <v>202</v>
+      </c>
+      <c r="D173" t="s">
+        <v>203</v>
+      </c>
+      <c r="E173" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="B174" t="s">
+        <v>289</v>
+      </c>
+      <c r="C174" t="s">
+        <v>287</v>
+      </c>
+      <c r="D174" t="s">
+        <v>288</v>
+      </c>
+      <c r="E174" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="B175" t="s">
+        <v>294</v>
+      </c>
+      <c r="C175" t="s">
+        <v>292</v>
+      </c>
+      <c r="D175" t="s">
+        <v>293</v>
+      </c>
+      <c r="E175" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="B176" t="s">
+        <v>306</v>
+      </c>
+      <c r="C176" t="s">
+        <v>307</v>
+      </c>
+      <c r="D176" t="s">
+        <v>189</v>
+      </c>
+      <c r="E176" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="177" spans="2:5">
+      <c r="B177" t="s">
+        <v>308</v>
+      </c>
+      <c r="C177" t="s">
+        <v>309</v>
+      </c>
+      <c r="D177" t="s">
+        <v>310</v>
+      </c>
+      <c r="E177" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="178" spans="2:5">
+      <c r="B178" t="s">
+        <v>253</v>
+      </c>
+      <c r="C178" t="s">
+        <v>250</v>
+      </c>
+      <c r="D178" t="s">
+        <v>251</v>
+      </c>
+      <c r="E178" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
